--- a/blueprints-combined.xlsx
+++ b/blueprints-combined.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10123"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qdd/Google Drive/git/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106FDD1B-F7E5-7E49-B786-271815CFAAAC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C34227-97D4-EA4D-AA5E-A158EFCDA3FC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="1240" windowWidth="33140" windowHeight="19600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11700" yWindow="1580" windowWidth="26140" windowHeight="19420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lab-topics" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="952">
   <si>
     <t>date</t>
   </si>
@@ -2973,6 +2973,9 @@
   </si>
   <si>
     <t>https://www.cisco.com/c/en/us/td/docs/ios-xml/ios/ipmulti_mfib/configuration/15-mt/imc-mfib-15-mt-book/imc_mfib_overview.html</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -3145,7 +3148,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3185,6 +3188,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3339,7 +3348,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -3551,13 +3560,24 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3567,30 +3587,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3611,17 +3607,32 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3632,32 +3643,31 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -4143,7 +4153,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -4157,49 +4167,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25" customHeight="1">
-      <c r="A1" s="123"/>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="120" t="s">
+      <c r="A1" s="93"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="120">
+      <c r="F1" s="90">
         <f ca="1">(TODAY()-H1)*-1</f>
-        <v>330</v>
-      </c>
-      <c r="G1" s="121" t="s">
+        <v>310</v>
+      </c>
+      <c r="G1" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="122">
+      <c r="H1" s="92">
         <v>43812</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="126" customFormat="1" ht="20" customHeight="1" thickBot="1">
-      <c r="A2" s="124" t="s">
+    <row r="2" spans="1:16" s="96" customFormat="1" ht="20" customHeight="1" thickBot="1">
+      <c r="A2" s="94" t="s">
         <v>940</v>
       </c>
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="125" t="s">
+      <c r="C2" s="95" t="s">
         <v>585</v>
       </c>
-      <c r="D2" s="125" t="s">
+      <c r="D2" s="95" t="s">
         <v>949</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
-      <c r="P2" s="125"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
     </row>
     <row r="3" spans="1:16" ht="21">
       <c r="A3" s="5"/>
@@ -4443,7 +4453,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="19">
+    <row r="33" spans="1:3" ht="19">
       <c r="A33" s="83" t="s">
         <v>928</v>
       </c>
@@ -4451,55 +4461,67 @@
         <v>622</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="16">
+    <row r="34" spans="1:3" ht="16">
       <c r="A34" s="83" t="s">
         <v>928</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="16">
+      <c r="C34" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16">
       <c r="A35" s="83" t="s">
         <v>928</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="16">
+      <c r="C35" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16">
       <c r="A36" s="83" t="s">
         <v>928</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="16">
+      <c r="C36" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16">
       <c r="A37" s="83" t="s">
         <v>928</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="16">
+      <c r="C37" s="128"/>
+    </row>
+    <row r="38" spans="1:3" ht="16">
       <c r="A38" s="83" t="s">
         <v>928</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="16">
+      <c r="C38" s="128"/>
+    </row>
+    <row r="39" spans="1:3" ht="16">
       <c r="A39" s="83" t="s">
         <v>928</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="19">
+      <c r="C39" s="128"/>
+    </row>
+    <row r="40" spans="1:3" ht="19">
       <c r="A40" s="83" t="s">
         <v>928</v>
       </c>
@@ -4507,7 +4529,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="16">
+    <row r="41" spans="1:3" ht="16">
       <c r="A41" s="83" t="s">
         <v>928</v>
       </c>
@@ -4515,7 +4537,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="16">
+    <row r="42" spans="1:3" ht="16">
       <c r="A42" s="83" t="s">
         <v>928</v>
       </c>
@@ -4523,7 +4545,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="16">
+    <row r="43" spans="1:3" ht="16">
       <c r="A43" s="83" t="s">
         <v>928</v>
       </c>
@@ -4531,7 +4553,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="16">
+    <row r="44" spans="1:3" ht="16">
       <c r="A44" s="83" t="s">
         <v>928</v>
       </c>
@@ -4539,7 +4561,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="16">
+    <row r="45" spans="1:3" ht="16">
       <c r="A45" s="83" t="s">
         <v>928</v>
       </c>
@@ -4547,7 +4569,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="19">
+    <row r="46" spans="1:3" ht="19">
       <c r="A46" s="83" t="s">
         <v>928</v>
       </c>
@@ -4555,7 +4577,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="16">
+    <row r="47" spans="1:3" ht="16">
       <c r="A47" s="83" t="s">
         <v>928</v>
       </c>
@@ -4563,7 +4585,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="16">
+    <row r="48" spans="1:3" ht="16">
       <c r="A48" s="83" t="s">
         <v>928</v>
       </c>
@@ -4748,6 +4770,9 @@
       <c r="B70" s="7" t="s">
         <v>659</v>
       </c>
+      <c r="C70" t="s">
+        <v>951</v>
+      </c>
     </row>
     <row r="71" spans="1:4" ht="16">
       <c r="A71" s="83" t="s">
@@ -4756,6 +4781,9 @@
       <c r="B71" s="7" t="s">
         <v>660</v>
       </c>
+      <c r="C71" t="s">
+        <v>951</v>
+      </c>
     </row>
     <row r="72" spans="1:4" ht="16">
       <c r="A72" s="83" t="s">
@@ -4764,6 +4792,9 @@
       <c r="B72" s="7" t="s">
         <v>661</v>
       </c>
+      <c r="C72" t="s">
+        <v>951</v>
+      </c>
     </row>
     <row r="73" spans="1:4" ht="16">
       <c r="A73" s="83" t="s">
@@ -4772,7 +4803,10 @@
       <c r="B73" s="7" t="s">
         <v>662</v>
       </c>
-      <c r="D73" s="119" t="s">
+      <c r="C73" t="s">
+        <v>951</v>
+      </c>
+      <c r="D73" s="89" t="s">
         <v>950</v>
       </c>
     </row>
@@ -4783,6 +4817,9 @@
       <c r="B74" s="7" t="s">
         <v>663</v>
       </c>
+      <c r="C74" t="s">
+        <v>951</v>
+      </c>
     </row>
     <row r="75" spans="1:4" ht="16">
       <c r="A75" s="83" t="s">
@@ -4791,6 +4828,9 @@
       <c r="B75" s="7" t="s">
         <v>664</v>
       </c>
+      <c r="C75" t="s">
+        <v>951</v>
+      </c>
     </row>
     <row r="76" spans="1:4" ht="16">
       <c r="A76" s="83" t="s">
@@ -4799,6 +4839,9 @@
       <c r="B76" s="7" t="s">
         <v>665</v>
       </c>
+      <c r="C76" t="s">
+        <v>951</v>
+      </c>
     </row>
     <row r="77" spans="1:4" ht="16">
       <c r="A77" s="83" t="s">
@@ -4807,6 +4850,9 @@
       <c r="B77" s="7" t="s">
         <v>666</v>
       </c>
+      <c r="C77" t="s">
+        <v>951</v>
+      </c>
     </row>
     <row r="78" spans="1:4" ht="16">
       <c r="A78" s="83" t="s">
@@ -4815,6 +4861,9 @@
       <c r="B78" s="7" t="s">
         <v>667</v>
       </c>
+      <c r="C78" t="s">
+        <v>951</v>
+      </c>
     </row>
     <row r="79" spans="1:4" ht="16">
       <c r="A79" s="83" t="s">
@@ -4823,6 +4872,9 @@
       <c r="B79" s="7" t="s">
         <v>668</v>
       </c>
+      <c r="C79" t="s">
+        <v>951</v>
+      </c>
     </row>
     <row r="80" spans="1:4" ht="16">
       <c r="A80" s="83" t="s">
@@ -4831,24 +4883,31 @@
       <c r="B80" s="7" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" ht="16">
+      <c r="C80" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="16">
       <c r="A81" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" ht="16">
+      <c r="C81" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="16">
       <c r="A82" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" ht="19">
+      <c r="C82" s="128"/>
+    </row>
+    <row r="83" spans="1:3" ht="19">
       <c r="A83" s="83" t="s">
         <v>929</v>
       </c>
@@ -4856,7 +4915,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="16">
+    <row r="84" spans="1:3" ht="16">
       <c r="A84" s="83" t="s">
         <v>929</v>
       </c>
@@ -4864,7 +4923,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="16">
+    <row r="85" spans="1:3" ht="16">
       <c r="A85" s="83" t="s">
         <v>929</v>
       </c>
@@ -4872,7 +4931,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="16">
+    <row r="86" spans="1:3" ht="16">
       <c r="A86" s="83" t="s">
         <v>929</v>
       </c>
@@ -4880,7 +4939,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="16">
+    <row r="87" spans="1:3" ht="16">
       <c r="A87" s="83" t="s">
         <v>929</v>
       </c>
@@ -4888,7 +4947,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="16">
+    <row r="88" spans="1:3" ht="16">
       <c r="A88" s="83" t="s">
         <v>929</v>
       </c>
@@ -4896,7 +4955,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="16">
+    <row r="89" spans="1:3" ht="16">
       <c r="A89" s="83" t="s">
         <v>929</v>
       </c>
@@ -4904,7 +4963,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="16">
+    <row r="90" spans="1:3" ht="16">
       <c r="A90" s="83" t="s">
         <v>929</v>
       </c>
@@ -4912,7 +4971,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="16">
+    <row r="91" spans="1:3" ht="16">
       <c r="A91" s="83" t="s">
         <v>929</v>
       </c>
@@ -4920,7 +4979,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="16">
+    <row r="92" spans="1:3" ht="16">
       <c r="A92" s="83" t="s">
         <v>929</v>
       </c>
@@ -4928,7 +4987,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="16">
+    <row r="93" spans="1:3" ht="16">
       <c r="A93" s="83" t="s">
         <v>929</v>
       </c>
@@ -4936,7 +4995,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="16">
+    <row r="94" spans="1:3" ht="16">
       <c r="A94" s="83" t="s">
         <v>929</v>
       </c>
@@ -4944,7 +5003,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="16">
+    <row r="95" spans="1:3" ht="16">
       <c r="A95" s="83" t="s">
         <v>929</v>
       </c>
@@ -4952,7 +5011,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="16">
+    <row r="96" spans="1:3" ht="16">
       <c r="A96" s="83" t="s">
         <v>929</v>
       </c>
@@ -7075,49 +7134,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24">
-      <c r="A1" s="123"/>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="127" t="s">
+      <c r="A1" s="93"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="120">
+      <c r="F1" s="90">
         <f ca="1">(TODAY()-H1)*-1</f>
-        <v>-15</v>
-      </c>
-      <c r="G1" s="121" t="s">
+        <v>-35</v>
+      </c>
+      <c r="G1" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="122">
+      <c r="H1" s="92">
         <v>43467</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="17" thickBot="1">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="95" t="s">
         <v>940</v>
       </c>
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="125" t="s">
+      <c r="C2" s="95" t="s">
         <v>585</v>
       </c>
-      <c r="D2" s="125" t="s">
+      <c r="D2" s="95" t="s">
         <v>949</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
-      <c r="P2" s="125"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
     </row>
     <row r="3" spans="1:16" ht="21">
       <c r="A3" s="5"/>
@@ -14804,12 +14863,12 @@
       <c r="M1" s="16"/>
     </row>
     <row r="2" spans="1:13" s="18" customFormat="1" ht="26" customHeight="1">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
+      <c r="A2" s="124"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
       <c r="G2" s="49" t="s">
         <v>501</v>
       </c>
@@ -14833,14 +14892,14 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="125" t="s">
         <v>446</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
       <c r="G3" s="27"/>
       <c r="H3" s="23"/>
       <c r="I3" s="24" t="s">
@@ -14851,12 +14910,12 @@
       <c r="M3" s="26"/>
     </row>
     <row r="4" spans="1:13" s="32" customFormat="1" ht="14" customHeight="1">
-      <c r="A4" s="91"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
+      <c r="A4" s="126"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
@@ -14883,16 +14942,16 @@
       <c r="M5" s="40"/>
     </row>
     <row r="6" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="99" t="s">
         <v>448</v>
       </c>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="99" t="s">
         <v>449</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="99" t="s">
         <v>450</v>
       </c>
-      <c r="D6" s="96" t="s">
+      <c r="D6" s="114" t="s">
         <v>505</v>
       </c>
       <c r="E6" s="41" t="s">
@@ -14914,18 +14973,18 @@
       <c r="K6" s="43" t="s">
         <v>454</v>
       </c>
-      <c r="L6" s="100" t="s">
+      <c r="L6" s="111" t="s">
         <v>507</v>
       </c>
-      <c r="M6" s="100" t="s">
+      <c r="M6" s="111" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A7" s="93"/>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="97"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="115"/>
       <c r="E7" s="41" t="s">
         <v>456</v>
       </c>
@@ -14947,22 +15006,22 @@
       <c r="K7" s="43" t="s">
         <v>458</v>
       </c>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
     </row>
     <row r="8" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A8" s="93"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="92" t="s">
+      <c r="A8" s="100"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="99" t="s">
         <v>459</v>
       </c>
-      <c r="F8" s="103" t="s">
+      <c r="F8" s="102" t="s">
         <v>511</v>
       </c>
       <c r="G8" s="78"/>
-      <c r="H8" s="106" t="s">
+      <c r="H8" s="105" t="s">
         <v>512</v>
       </c>
       <c r="I8" s="50" t="s">
@@ -14974,18 +15033,18 @@
       <c r="K8" s="43" t="s">
         <v>466</v>
       </c>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="L8" s="112"/>
+      <c r="M8" s="112"/>
     </row>
     <row r="9" spans="1:13" s="18" customFormat="1" ht="16" customHeight="1" outlineLevel="1">
-      <c r="A9" s="93"/>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="104"/>
+      <c r="A9" s="100"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="103"/>
       <c r="G9" s="79"/>
-      <c r="H9" s="107"/>
+      <c r="H9" s="106"/>
       <c r="I9" s="50" t="s">
         <v>514</v>
       </c>
@@ -14993,41 +15052,41 @@
       <c r="K9" s="51" t="s">
         <v>515</v>
       </c>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="112"/>
     </row>
     <row r="10" spans="1:13" s="18" customFormat="1" ht="19" customHeight="1" outlineLevel="1">
-      <c r="A10" s="93"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="105"/>
+      <c r="A10" s="100"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="104"/>
       <c r="G10" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="H10" s="108"/>
+      <c r="H10" s="107"/>
       <c r="I10" s="50" t="s">
         <v>516</v>
       </c>
       <c r="J10" s="44"/>
       <c r="K10" s="52"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
+      <c r="L10" s="112"/>
+      <c r="M10" s="112"/>
     </row>
     <row r="11" spans="1:13" s="18" customFormat="1" ht="13" customHeight="1" outlineLevel="1">
-      <c r="A11" s="93"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="92" t="s">
+      <c r="A11" s="100"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="99" t="s">
         <v>461</v>
       </c>
-      <c r="F11" s="103" t="s">
+      <c r="F11" s="102" t="s">
         <v>517</v>
       </c>
       <c r="G11" s="78"/>
-      <c r="H11" s="110"/>
+      <c r="H11" s="98"/>
       <c r="I11" s="53" t="s">
         <v>518</v>
       </c>
@@ -15035,20 +15094,20 @@
       <c r="K11" s="43" t="s">
         <v>519</v>
       </c>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
+      <c r="L11" s="112"/>
+      <c r="M11" s="112"/>
     </row>
     <row r="12" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A12" s="93"/>
-      <c r="B12" s="93"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="109"/>
+      <c r="A12" s="100"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="121"/>
       <c r="G12" s="80" t="s">
         <v>582</v>
       </c>
-      <c r="H12" s="111"/>
+      <c r="H12" s="122"/>
       <c r="I12" s="54" t="s">
         <v>520</v>
       </c>
@@ -15056,16 +15115,16 @@
       <c r="K12" s="56" t="s">
         <v>521</v>
       </c>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
+      <c r="L12" s="112"/>
+      <c r="M12" s="112"/>
     </row>
     <row r="13" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A13" s="93"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93" t="s">
+      <c r="A13" s="100"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100" t="s">
         <v>462</v>
       </c>
-      <c r="D13" s="97" t="s">
+      <c r="D13" s="115" t="s">
         <v>522</v>
       </c>
       <c r="E13" s="57" t="s">
@@ -15087,14 +15146,14 @@
       <c r="K13" s="51" t="s">
         <v>526</v>
       </c>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="112"/>
     </row>
     <row r="14" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A14" s="93"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="97"/>
+      <c r="A14" s="100"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="115"/>
       <c r="E14" s="41" t="s">
         <v>464</v>
       </c>
@@ -15114,14 +15173,14 @@
       <c r="K14" s="43" t="s">
         <v>530</v>
       </c>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
+      <c r="L14" s="112"/>
+      <c r="M14" s="112"/>
     </row>
     <row r="15" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A15" s="93"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="97"/>
+      <c r="A15" s="100"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="115"/>
       <c r="E15" s="41" t="s">
         <v>465</v>
       </c>
@@ -15141,56 +15200,56 @@
       <c r="K15" s="43" t="s">
         <v>534</v>
       </c>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
+      <c r="L15" s="112"/>
+      <c r="M15" s="112"/>
     </row>
     <row r="16" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A16" s="93"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="92" t="s">
+      <c r="A16" s="100"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="99" t="s">
         <v>467</v>
       </c>
-      <c r="F16" s="103" t="s">
+      <c r="F16" s="102" t="s">
         <v>535</v>
       </c>
       <c r="G16" s="78"/>
-      <c r="H16" s="112"/>
+      <c r="H16" s="123"/>
       <c r="I16" s="63" t="s">
         <v>536</v>
       </c>
       <c r="J16" s="46"/>
       <c r="K16" s="43"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
+      <c r="L16" s="112"/>
+      <c r="M16" s="112"/>
     </row>
     <row r="17" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A17" s="93"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="104"/>
+      <c r="A17" s="100"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="103"/>
       <c r="G17" s="79"/>
-      <c r="H17" s="112"/>
+      <c r="H17" s="123"/>
       <c r="I17" s="63" t="s">
         <v>537</v>
       </c>
       <c r="J17" s="46"/>
       <c r="K17" s="43"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
+      <c r="L17" s="112"/>
+      <c r="M17" s="112"/>
     </row>
     <row r="18" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A18" s="93"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="104"/>
+      <c r="A18" s="100"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="103"/>
       <c r="G18" s="79"/>
-      <c r="H18" s="112"/>
+      <c r="H18" s="123"/>
       <c r="I18" s="43" t="s">
         <v>538</v>
       </c>
@@ -15198,18 +15257,18 @@
       <c r="K18" s="63" t="s">
         <v>539</v>
       </c>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
+      <c r="L18" s="112"/>
+      <c r="M18" s="112"/>
     </row>
     <row r="19" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A19" s="93"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="104"/>
+      <c r="A19" s="100"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="103"/>
       <c r="G19" s="79"/>
-      <c r="H19" s="112"/>
+      <c r="H19" s="123"/>
       <c r="I19" s="43" t="s">
         <v>540</v>
       </c>
@@ -15217,18 +15276,18 @@
       <c r="K19" s="63" t="s">
         <v>541</v>
       </c>
-      <c r="L19" s="101"/>
-      <c r="M19" s="101"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="112"/>
     </row>
     <row r="20" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A20" s="93"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="104"/>
+      <c r="A20" s="100"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="103"/>
       <c r="G20" s="79"/>
-      <c r="H20" s="112"/>
+      <c r="H20" s="123"/>
       <c r="I20" s="43" t="s">
         <v>542</v>
       </c>
@@ -15236,44 +15295,44 @@
       <c r="K20" s="63" t="s">
         <v>543</v>
       </c>
-      <c r="L20" s="101"/>
-      <c r="M20" s="101"/>
+      <c r="L20" s="112"/>
+      <c r="M20" s="112"/>
     </row>
     <row r="21" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A21" s="93"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="104"/>
+      <c r="A21" s="100"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="103"/>
       <c r="G21" s="79"/>
-      <c r="H21" s="112"/>
+      <c r="H21" s="123"/>
       <c r="I21" s="45" t="s">
         <v>484</v>
       </c>
       <c r="J21" s="46"/>
       <c r="K21" s="63"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="101"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="112"/>
     </row>
     <row r="22" spans="1:14" s="18" customFormat="1" ht="23" customHeight="1">
-      <c r="A22" s="94"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="105"/>
+      <c r="A22" s="101"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="104"/>
       <c r="G22" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="H22" s="112"/>
+      <c r="H22" s="123"/>
       <c r="I22" s="43" t="s">
         <v>544</v>
       </c>
       <c r="J22" s="46"/>
       <c r="K22" s="44"/>
-      <c r="L22" s="102"/>
-      <c r="M22" s="102"/>
+      <c r="L22" s="113"/>
+      <c r="M22" s="113"/>
     </row>
     <row r="23" spans="1:14" s="18" customFormat="1" ht="8" customHeight="1">
       <c r="A23" s="64"/>
@@ -15291,26 +15350,26 @@
       <c r="M23" s="69"/>
     </row>
     <row r="24" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A24" s="92" t="s">
+      <c r="A24" s="99" t="s">
         <v>468</v>
       </c>
-      <c r="B24" s="113" t="s">
+      <c r="B24" s="117" t="s">
         <v>469</v>
       </c>
-      <c r="C24" s="92" t="s">
+      <c r="C24" s="99" t="s">
         <v>470</v>
       </c>
-      <c r="D24" s="96" t="s">
+      <c r="D24" s="114" t="s">
         <v>545</v>
       </c>
-      <c r="E24" s="92" t="s">
+      <c r="E24" s="99" t="s">
         <v>471</v>
       </c>
-      <c r="F24" s="103" t="s">
+      <c r="F24" s="102" t="s">
         <v>546</v>
       </c>
       <c r="G24" s="78"/>
-      <c r="H24" s="106" t="s">
+      <c r="H24" s="105" t="s">
         <v>547</v>
       </c>
       <c r="I24" s="44" t="s">
@@ -15322,47 +15381,47 @@
       <c r="K24" s="43" t="s">
         <v>548</v>
       </c>
-      <c r="L24" s="100" t="s">
+      <c r="L24" s="111" t="s">
         <v>507</v>
       </c>
-      <c r="M24" s="110" t="s">
+      <c r="M24" s="98" t="s">
         <v>474</v>
       </c>
       <c r="N24" s="47"/>
     </row>
     <row r="25" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A25" s="93"/>
-      <c r="B25" s="114"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="105"/>
+      <c r="A25" s="100"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="104"/>
       <c r="G25" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="H25" s="108"/>
+      <c r="H25" s="107"/>
       <c r="I25" s="44" t="s">
         <v>549</v>
       </c>
       <c r="J25" s="45"/>
       <c r="K25" s="43"/>
-      <c r="L25" s="101"/>
-      <c r="M25" s="110"/>
+      <c r="L25" s="112"/>
+      <c r="M25" s="98"/>
       <c r="N25" s="47"/>
     </row>
     <row r="26" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A26" s="93"/>
-      <c r="B26" s="114"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="92" t="s">
+      <c r="A26" s="100"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="99" t="s">
         <v>475</v>
       </c>
-      <c r="F26" s="103" t="s">
+      <c r="F26" s="102" t="s">
         <v>550</v>
       </c>
       <c r="G26" s="78"/>
-      <c r="H26" s="106" t="s">
+      <c r="H26" s="105" t="s">
         <v>551</v>
       </c>
       <c r="I26" s="44" t="s">
@@ -15374,21 +15433,21 @@
       <c r="K26" s="43" t="s">
         <v>553</v>
       </c>
-      <c r="L26" s="101"/>
-      <c r="M26" s="110"/>
+      <c r="L26" s="112"/>
+      <c r="M26" s="98"/>
       <c r="N26" s="47"/>
     </row>
     <row r="27" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A27" s="93"/>
-      <c r="B27" s="114"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="105"/>
+      <c r="A27" s="100"/>
+      <c r="B27" s="118"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="104"/>
       <c r="G27" s="58" t="s">
         <v>583</v>
       </c>
-      <c r="H27" s="108"/>
+      <c r="H27" s="107"/>
       <c r="I27" s="44" t="s">
         <v>483</v>
       </c>
@@ -15396,15 +15455,15 @@
         <v>479</v>
       </c>
       <c r="K27" s="43"/>
-      <c r="L27" s="101"/>
-      <c r="M27" s="110"/>
+      <c r="L27" s="112"/>
+      <c r="M27" s="98"/>
       <c r="N27" s="47"/>
     </row>
     <row r="28" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A28" s="93"/>
-      <c r="B28" s="114"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="97"/>
+      <c r="A28" s="100"/>
+      <c r="B28" s="118"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="115"/>
       <c r="E28" s="41" t="s">
         <v>477</v>
       </c>
@@ -15423,15 +15482,15 @@
       <c r="K28" s="43" t="s">
         <v>556</v>
       </c>
-      <c r="L28" s="101"/>
-      <c r="M28" s="110"/>
+      <c r="L28" s="112"/>
+      <c r="M28" s="98"/>
       <c r="N28" s="47"/>
     </row>
     <row r="29" spans="1:14" s="18" customFormat="1" ht="19" customHeight="1">
-      <c r="A29" s="94"/>
-      <c r="B29" s="115"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="99"/>
+      <c r="A29" s="101"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="116"/>
       <c r="E29" s="41" t="s">
         <v>480</v>
       </c>
@@ -15453,8 +15512,8 @@
       <c r="K29" s="43" t="s">
         <v>559</v>
       </c>
-      <c r="L29" s="102"/>
-      <c r="M29" s="110"/>
+      <c r="L29" s="113"/>
+      <c r="M29" s="98"/>
       <c r="N29" s="47"/>
     </row>
     <row r="30" spans="1:14" s="18" customFormat="1" ht="8" customHeight="1">
@@ -15473,26 +15532,26 @@
       <c r="M30" s="69"/>
     </row>
     <row r="31" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A31" s="92" t="s">
+      <c r="A31" s="99" t="s">
         <v>485</v>
       </c>
-      <c r="B31" s="92" t="s">
+      <c r="B31" s="99" t="s">
         <v>486</v>
       </c>
-      <c r="C31" s="92" t="s">
+      <c r="C31" s="99" t="s">
         <v>487</v>
       </c>
-      <c r="D31" s="96" t="s">
+      <c r="D31" s="114" t="s">
         <v>560</v>
       </c>
-      <c r="E31" s="92" t="s">
+      <c r="E31" s="99" t="s">
         <v>488</v>
       </c>
-      <c r="F31" s="103" t="s">
+      <c r="F31" s="102" t="s">
         <v>561</v>
       </c>
       <c r="G31" s="78"/>
-      <c r="H31" s="106" t="s">
+      <c r="H31" s="105" t="s">
         <v>562</v>
       </c>
       <c r="I31" s="76" t="s">
@@ -15504,22 +15563,22 @@
       <c r="K31" s="43" t="s">
         <v>564</v>
       </c>
-      <c r="L31" s="110" t="s">
+      <c r="L31" s="98" t="s">
         <v>490</v>
       </c>
-      <c r="M31" s="110" t="s">
+      <c r="M31" s="98" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="32" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A32" s="93"/>
-      <c r="B32" s="93"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="104"/>
+      <c r="A32" s="100"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="103"/>
       <c r="G32" s="79"/>
-      <c r="H32" s="107"/>
+      <c r="H32" s="106"/>
       <c r="I32" s="51" t="s">
         <v>565</v>
       </c>
@@ -15527,79 +15586,79 @@
       <c r="K32" s="43" t="s">
         <v>566</v>
       </c>
-      <c r="L32" s="110"/>
-      <c r="M32" s="110"/>
+      <c r="L32" s="98"/>
+      <c r="M32" s="98"/>
     </row>
     <row r="33" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A33" s="93"/>
-      <c r="B33" s="93"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="105"/>
+      <c r="A33" s="100"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="104"/>
       <c r="G33" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="H33" s="108"/>
+      <c r="H33" s="107"/>
       <c r="I33" s="51" t="s">
         <v>500</v>
       </c>
       <c r="J33" s="44"/>
       <c r="K33" s="43"/>
-      <c r="L33" s="110"/>
-      <c r="M33" s="110"/>
+      <c r="L33" s="98"/>
+      <c r="M33" s="98"/>
     </row>
     <row r="34" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A34" s="93"/>
-      <c r="B34" s="93"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="92" t="s">
+      <c r="A34" s="100"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="99" t="s">
         <v>492</v>
       </c>
-      <c r="F34" s="103" t="s">
+      <c r="F34" s="102" t="s">
         <v>567</v>
       </c>
       <c r="G34" s="78"/>
-      <c r="H34" s="106" t="s">
+      <c r="H34" s="105" t="s">
         <v>568</v>
       </c>
       <c r="I34" s="44" t="s">
         <v>569</v>
       </c>
       <c r="J34" s="44"/>
-      <c r="K34" s="116"/>
-      <c r="L34" s="110"/>
-      <c r="M34" s="110"/>
+      <c r="K34" s="108"/>
+      <c r="L34" s="98"/>
+      <c r="M34" s="98"/>
     </row>
     <row r="35" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A35" s="93"/>
-      <c r="B35" s="93"/>
-      <c r="C35" s="93"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="104"/>
+      <c r="A35" s="100"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="103"/>
       <c r="G35" s="79"/>
-      <c r="H35" s="107"/>
+      <c r="H35" s="106"/>
       <c r="I35" s="44" t="s">
         <v>496</v>
       </c>
       <c r="J35" s="44"/>
-      <c r="K35" s="116"/>
-      <c r="L35" s="110"/>
-      <c r="M35" s="110"/>
+      <c r="K35" s="108"/>
+      <c r="L35" s="98"/>
+      <c r="M35" s="98"/>
     </row>
     <row r="36" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A36" s="93"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="105"/>
+      <c r="A36" s="100"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="101"/>
+      <c r="F36" s="104"/>
       <c r="G36" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="H36" s="108"/>
+      <c r="H36" s="107"/>
       <c r="I36" s="44" t="s">
         <v>570</v>
       </c>
@@ -15609,68 +15668,68 @@
       <c r="K36" s="43" t="s">
         <v>494</v>
       </c>
-      <c r="L36" s="110"/>
-      <c r="M36" s="110"/>
+      <c r="L36" s="98"/>
+      <c r="M36" s="98"/>
     </row>
     <row r="37" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="A37" s="93"/>
-      <c r="B37" s="93"/>
-      <c r="C37" s="93"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="92" t="s">
+      <c r="A37" s="100"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="99" t="s">
         <v>495</v>
       </c>
-      <c r="F37" s="103" t="s">
+      <c r="F37" s="102" t="s">
         <v>571</v>
       </c>
       <c r="G37" s="78"/>
-      <c r="H37" s="117" t="s">
+      <c r="H37" s="109" t="s">
         <v>572</v>
       </c>
       <c r="I37" s="44" t="s">
         <v>573</v>
       </c>
-      <c r="J37" s="118" t="s">
+      <c r="J37" s="110" t="s">
         <v>497</v>
       </c>
-      <c r="K37" s="117" t="s">
+      <c r="K37" s="109" t="s">
         <v>499</v>
       </c>
-      <c r="L37" s="110"/>
-      <c r="M37" s="110"/>
+      <c r="L37" s="98"/>
+      <c r="M37" s="98"/>
     </row>
     <row r="38" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="A38" s="93"/>
-      <c r="B38" s="93"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="97"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="104"/>
+      <c r="A38" s="100"/>
+      <c r="B38" s="100"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="103"/>
       <c r="G38" s="79" t="s">
         <v>582</v>
       </c>
-      <c r="H38" s="117"/>
+      <c r="H38" s="109"/>
       <c r="I38" s="63" t="s">
         <v>574</v>
       </c>
-      <c r="J38" s="118"/>
-      <c r="K38" s="117"/>
-      <c r="L38" s="110"/>
-      <c r="M38" s="110"/>
+      <c r="J38" s="110"/>
+      <c r="K38" s="109"/>
+      <c r="L38" s="98"/>
+      <c r="M38" s="98"/>
     </row>
     <row r="39" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="A39" s="93"/>
-      <c r="B39" s="93"/>
-      <c r="C39" s="93"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="93" t="s">
+      <c r="A39" s="100"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="100" t="s">
         <v>498</v>
       </c>
-      <c r="F39" s="104" t="s">
+      <c r="F39" s="103" t="s">
         <v>575</v>
       </c>
       <c r="G39" s="79"/>
-      <c r="H39" s="117" t="s">
+      <c r="H39" s="109" t="s">
         <v>576</v>
       </c>
       <c r="I39" s="63" t="s">
@@ -15680,18 +15739,18 @@
       <c r="K39" s="51" t="s">
         <v>578</v>
       </c>
-      <c r="L39" s="110"/>
-      <c r="M39" s="110"/>
+      <c r="L39" s="98"/>
+      <c r="M39" s="98"/>
     </row>
     <row r="40" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="A40" s="93"/>
-      <c r="B40" s="93"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="104"/>
+      <c r="A40" s="100"/>
+      <c r="B40" s="100"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="115"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="103"/>
       <c r="G40" s="79"/>
-      <c r="H40" s="117"/>
+      <c r="H40" s="109"/>
       <c r="I40" s="63" t="s">
         <v>579</v>
       </c>
@@ -15699,27 +15758,27 @@
       <c r="K40" s="51" t="s">
         <v>580</v>
       </c>
-      <c r="L40" s="110"/>
-      <c r="M40" s="110"/>
+      <c r="L40" s="98"/>
+      <c r="M40" s="98"/>
     </row>
     <row r="41" spans="1:13" s="18" customFormat="1" ht="17" customHeight="1">
-      <c r="A41" s="94"/>
-      <c r="B41" s="94"/>
-      <c r="C41" s="94"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="94"/>
-      <c r="F41" s="105"/>
+      <c r="A41" s="101"/>
+      <c r="B41" s="101"/>
+      <c r="C41" s="101"/>
+      <c r="D41" s="116"/>
+      <c r="E41" s="101"/>
+      <c r="F41" s="104"/>
       <c r="G41" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="H41" s="117"/>
+      <c r="H41" s="109"/>
       <c r="I41" s="63" t="s">
         <v>581</v>
       </c>
       <c r="J41" s="46"/>
       <c r="K41" s="43"/>
-      <c r="L41" s="110"/>
-      <c r="M41" s="110"/>
+      <c r="L41" s="98"/>
+      <c r="M41" s="98"/>
     </row>
     <row r="42" spans="1:13">
       <c r="K42" s="77"/>
@@ -15727,6 +15786,42 @@
     <row r="43" spans="1:13" ht="23" customHeight="1"/>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="A6:A22"/>
+    <mergeCell ref="B6:B22"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="C13:C22"/>
+    <mergeCell ref="D13:D22"/>
+    <mergeCell ref="L6:L22"/>
+    <mergeCell ref="M6:M22"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E16:E22"/>
+    <mergeCell ref="F16:F22"/>
+    <mergeCell ref="H16:H22"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="D24:D29"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A31:A41"/>
+    <mergeCell ref="B31:B41"/>
+    <mergeCell ref="C31:C41"/>
+    <mergeCell ref="D31:D41"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="L24:L29"/>
+    <mergeCell ref="M24:M29"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="H24:H25"/>
     <mergeCell ref="L31:L41"/>
     <mergeCell ref="M31:M41"/>
     <mergeCell ref="E34:E36"/>
@@ -15743,42 +15838,6 @@
     <mergeCell ref="H39:H41"/>
     <mergeCell ref="F31:F33"/>
     <mergeCell ref="H31:H33"/>
-    <mergeCell ref="L24:L29"/>
-    <mergeCell ref="M24:M29"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="A31:A41"/>
-    <mergeCell ref="B31:B41"/>
-    <mergeCell ref="C31:C41"/>
-    <mergeCell ref="D31:D41"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="D24:D29"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="L6:L22"/>
-    <mergeCell ref="M6:M22"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E16:E22"/>
-    <mergeCell ref="F16:F22"/>
-    <mergeCell ref="H16:H22"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="A6:A22"/>
-    <mergeCell ref="B6:B22"/>
-    <mergeCell ref="C6:C12"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="C13:C22"/>
-    <mergeCell ref="D13:D22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>

--- a/blueprints-combined.xlsx
+++ b/blueprints-combined.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qdd/Google Drive/git/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C34227-97D4-EA4D-AA5E-A158EFCDA3FC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C63146-553F-1842-9526-B6EE6327AA87}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11700" yWindow="1580" windowWidth="26140" windowHeight="19420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11580" yWindow="1500" windowWidth="26140" windowHeight="19420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lab-topics" sheetId="6" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="952">
   <si>
     <t>date</t>
   </si>
@@ -3577,7 +3578,14 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3587,6 +3595,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3607,32 +3639,17 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3643,31 +3660,15 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -4150,10 +4151,10 @@
   <dimension ref="A1:P349"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C287" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B65" sqref="B65"/>
+      <selection pane="bottomRight" activeCell="B305" sqref="B305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -4176,7 +4177,7 @@
       </c>
       <c r="F1" s="90">
         <f ca="1">(TODAY()-H1)*-1</f>
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="G1" s="91" t="s">
         <v>10</v>
@@ -4501,7 +4502,7 @@
       <c r="B37" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="C37" s="128"/>
+      <c r="C37" s="98"/>
     </row>
     <row r="38" spans="1:3" ht="16">
       <c r="A38" s="83" t="s">
@@ -4510,7 +4511,7 @@
       <c r="B38" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="C38" s="128"/>
+      <c r="C38" s="98"/>
     </row>
     <row r="39" spans="1:3" ht="16">
       <c r="A39" s="83" t="s">
@@ -4519,7 +4520,7 @@
       <c r="B39" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="C39" s="128"/>
+      <c r="C39" s="98"/>
     </row>
     <row r="40" spans="1:3" ht="19">
       <c r="A40" s="83" t="s">
@@ -4690,6 +4691,9 @@
       <c r="B60" s="7" t="s">
         <v>650</v>
       </c>
+      <c r="C60" t="s">
+        <v>951</v>
+      </c>
     </row>
     <row r="61" spans="1:4" ht="16">
       <c r="A61" s="83" t="s">
@@ -4698,6 +4702,9 @@
       <c r="B61" s="7" t="s">
         <v>651</v>
       </c>
+      <c r="C61" t="s">
+        <v>951</v>
+      </c>
     </row>
     <row r="62" spans="1:4" ht="16">
       <c r="A62" s="83" t="s">
@@ -4706,6 +4713,9 @@
       <c r="B62" s="7" t="s">
         <v>652</v>
       </c>
+      <c r="C62" t="s">
+        <v>951</v>
+      </c>
     </row>
     <row r="63" spans="1:4" ht="16">
       <c r="A63" s="83" t="s">
@@ -4714,6 +4724,9 @@
       <c r="B63" s="7" t="s">
         <v>653</v>
       </c>
+      <c r="C63" t="s">
+        <v>951</v>
+      </c>
     </row>
     <row r="64" spans="1:4" ht="16">
       <c r="A64" s="83" t="s">
@@ -4722,6 +4735,9 @@
       <c r="B64" s="7" t="s">
         <v>654</v>
       </c>
+      <c r="C64" t="s">
+        <v>951</v>
+      </c>
     </row>
     <row r="65" spans="1:4" ht="16">
       <c r="A65" s="83" t="s">
@@ -4730,6 +4746,9 @@
       <c r="B65" s="7" t="s">
         <v>655</v>
       </c>
+      <c r="C65" t="s">
+        <v>951</v>
+      </c>
     </row>
     <row r="66" spans="1:4" ht="16">
       <c r="A66" s="83" t="s">
@@ -4738,6 +4757,9 @@
       <c r="B66" s="7" t="s">
         <v>656</v>
       </c>
+      <c r="C66" t="s">
+        <v>951</v>
+      </c>
     </row>
     <row r="67" spans="1:4" ht="16">
       <c r="A67" s="83" t="s">
@@ -4746,6 +4768,9 @@
       <c r="B67" s="7" t="s">
         <v>657</v>
       </c>
+      <c r="C67" t="s">
+        <v>951</v>
+      </c>
     </row>
     <row r="68" spans="1:4" ht="16">
       <c r="A68" s="83" t="s">
@@ -4754,6 +4779,9 @@
       <c r="B68" s="7" t="s">
         <v>658</v>
       </c>
+      <c r="C68" t="s">
+        <v>951</v>
+      </c>
     </row>
     <row r="69" spans="1:4" ht="19">
       <c r="A69" s="83" t="s">
@@ -4905,7 +4933,7 @@
       <c r="B82" s="7" t="s">
         <v>671</v>
       </c>
-      <c r="C82" s="128"/>
+      <c r="C82" s="98"/>
     </row>
     <row r="83" spans="1:3" ht="19">
       <c r="A83" s="83" t="s">
@@ -5275,7 +5303,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="16">
+    <row r="129" spans="1:3" ht="16">
       <c r="A129" s="83" t="s">
         <v>929</v>
       </c>
@@ -5283,7 +5311,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="16">
+    <row r="130" spans="1:3" ht="16">
       <c r="A130" s="83" t="s">
         <v>929</v>
       </c>
@@ -5291,7 +5319,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="16">
+    <row r="131" spans="1:3" ht="16">
       <c r="A131" s="83" t="s">
         <v>929</v>
       </c>
@@ -5299,7 +5327,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="16">
+    <row r="132" spans="1:3" ht="16">
       <c r="A132" s="83" t="s">
         <v>929</v>
       </c>
@@ -5307,7 +5335,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="16">
+    <row r="133" spans="1:3" ht="16">
       <c r="A133" s="83" t="s">
         <v>929</v>
       </c>
@@ -5315,7 +5343,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="16">
+    <row r="134" spans="1:3" ht="16">
       <c r="A134" s="83" t="s">
         <v>929</v>
       </c>
@@ -5323,7 +5351,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="16">
+    <row r="135" spans="1:3" ht="16">
       <c r="A135" s="83" t="s">
         <v>929</v>
       </c>
@@ -5331,15 +5359,18 @@
         <v>720</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="16">
+    <row r="136" spans="1:3" ht="16">
       <c r="A136" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B136" s="7" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" ht="16">
+      <c r="C136" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="16">
       <c r="A137" s="83" t="s">
         <v>929</v>
       </c>
@@ -5347,7 +5378,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="16">
+    <row r="138" spans="1:3" ht="16">
       <c r="A138" s="83" t="s">
         <v>929</v>
       </c>
@@ -5355,7 +5386,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="16">
+    <row r="139" spans="1:3" ht="16">
       <c r="A139" s="83" t="s">
         <v>929</v>
       </c>
@@ -5363,7 +5394,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="16">
+    <row r="140" spans="1:3" ht="16">
       <c r="A140" s="83" t="s">
         <v>929</v>
       </c>
@@ -5371,7 +5402,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="16">
+    <row r="141" spans="1:3" ht="16">
       <c r="A141" s="83" t="s">
         <v>929</v>
       </c>
@@ -5379,7 +5410,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="16">
+    <row r="142" spans="1:3" ht="16">
       <c r="A142" s="83" t="s">
         <v>929</v>
       </c>
@@ -5387,7 +5418,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="19">
+    <row r="143" spans="1:3" ht="19">
       <c r="A143" s="83" t="s">
         <v>929</v>
       </c>
@@ -5395,7 +5426,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="16">
+    <row r="144" spans="1:3" ht="16">
       <c r="A144" s="83" t="s">
         <v>929</v>
       </c>
@@ -5403,15 +5434,18 @@
         <v>729</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="16">
+    <row r="145" spans="1:3" ht="16">
       <c r="A145" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" ht="16">
+      <c r="C145" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="16">
       <c r="A146" s="83" t="s">
         <v>929</v>
       </c>
@@ -5419,7 +5453,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="16">
+    <row r="147" spans="1:3" ht="16">
       <c r="A147" s="83" t="s">
         <v>929</v>
       </c>
@@ -5427,15 +5461,18 @@
         <v>732</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="16">
+    <row r="148" spans="1:3" ht="16">
       <c r="A148" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B148" s="7" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" ht="16">
+      <c r="C148" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="16">
       <c r="A149" s="83" t="s">
         <v>929</v>
       </c>
@@ -5443,7 +5480,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="16">
+    <row r="150" spans="1:3" ht="16">
       <c r="A150" s="83" t="s">
         <v>929</v>
       </c>
@@ -5451,7 +5488,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="16">
+    <row r="151" spans="1:3" ht="16">
       <c r="A151" s="83" t="s">
         <v>929</v>
       </c>
@@ -5459,7 +5496,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="16">
+    <row r="152" spans="1:3" ht="16">
       <c r="A152" s="83" t="s">
         <v>929</v>
       </c>
@@ -5467,7 +5504,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="16">
+    <row r="153" spans="1:3" ht="16">
       <c r="A153" s="83" t="s">
         <v>929</v>
       </c>
@@ -5475,7 +5512,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="16">
+    <row r="154" spans="1:3" ht="16">
       <c r="A154" s="83" t="s">
         <v>929</v>
       </c>
@@ -5483,7 +5520,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="16">
+    <row r="155" spans="1:3" ht="16">
       <c r="A155" s="83" t="s">
         <v>929</v>
       </c>
@@ -5491,7 +5528,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="16">
+    <row r="156" spans="1:3" ht="16">
       <c r="A156" s="83" t="s">
         <v>929</v>
       </c>
@@ -5499,7 +5536,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="16">
+    <row r="157" spans="1:3" ht="16">
       <c r="A157" s="83" t="s">
         <v>929</v>
       </c>
@@ -5507,7 +5544,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="16">
+    <row r="158" spans="1:3" ht="16">
       <c r="A158" s="83" t="s">
         <v>929</v>
       </c>
@@ -5515,7 +5552,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="16">
+    <row r="159" spans="1:3" ht="16">
       <c r="A159" s="83" t="s">
         <v>929</v>
       </c>
@@ -5523,7 +5560,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="16">
+    <row r="160" spans="1:3" ht="16">
       <c r="A160" s="83" t="s">
         <v>929</v>
       </c>
@@ -6561,7 +6598,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="16">
+    <row r="289" spans="1:3" ht="16">
       <c r="A289" s="83" t="s">
         <v>930</v>
       </c>
@@ -6569,7 +6606,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="16">
+    <row r="290" spans="1:3" ht="16">
       <c r="A290" s="83" t="s">
         <v>930</v>
       </c>
@@ -6577,7 +6614,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="16">
+    <row r="291" spans="1:3" ht="16">
       <c r="A291" s="83" t="s">
         <v>930</v>
       </c>
@@ -6585,7 +6622,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="16">
+    <row r="292" spans="1:3" ht="16">
       <c r="A292" s="83" t="s">
         <v>930</v>
       </c>
@@ -6593,7 +6630,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="16">
+    <row r="293" spans="1:3" ht="16">
       <c r="A293" s="83" t="s">
         <v>930</v>
       </c>
@@ -6601,7 +6638,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="16">
+    <row r="294" spans="1:3" ht="16">
       <c r="A294" s="83" t="s">
         <v>930</v>
       </c>
@@ -6609,7 +6646,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="16">
+    <row r="295" spans="1:3" ht="16">
       <c r="A295" s="83" t="s">
         <v>930</v>
       </c>
@@ -6617,7 +6654,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="16">
+    <row r="296" spans="1:3" ht="16">
       <c r="A296" s="83" t="s">
         <v>930</v>
       </c>
@@ -6625,7 +6662,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="16">
+    <row r="297" spans="1:3" ht="16">
       <c r="A297" s="83" t="s">
         <v>930</v>
       </c>
@@ -6633,7 +6670,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="19">
+    <row r="298" spans="1:3" ht="19">
       <c r="A298" s="83" t="s">
         <v>930</v>
       </c>
@@ -6641,7 +6678,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="16">
+    <row r="299" spans="1:3" ht="16">
       <c r="A299" s="83" t="s">
         <v>930</v>
       </c>
@@ -6649,39 +6686,51 @@
         <v>935</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="16">
+    <row r="300" spans="1:3" ht="16">
       <c r="A300" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B300" s="7" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" ht="16">
+      <c r="C300" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="16">
       <c r="A301" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B301" s="7" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" ht="16">
+      <c r="C301" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="16">
       <c r="A302" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B302" s="7" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" ht="16">
+      <c r="C302" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="16">
       <c r="A303" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B303" s="7" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" ht="16">
+      <c r="C303" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="16">
       <c r="A304" s="83" t="s">
         <v>930</v>
       </c>
@@ -7115,10 +7164,10 @@
   <dimension ref="A1:P893"/>
   <sheetViews>
     <sheetView zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C287" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B298" sqref="B298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -7143,7 +7192,7 @@
       </c>
       <c r="F1" s="90">
         <f ca="1">(TODAY()-H1)*-1</f>
-        <v>-35</v>
+        <v>-49</v>
       </c>
       <c r="G1" s="91" t="s">
         <v>10</v>
@@ -14863,12 +14912,12 @@
       <c r="M1" s="16"/>
     </row>
     <row r="2" spans="1:13" s="18" customFormat="1" ht="26" customHeight="1">
-      <c r="A2" s="124"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
       <c r="G2" s="49" t="s">
         <v>501</v>
       </c>
@@ -14892,14 +14941,14 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="100" t="s">
         <v>446</v>
       </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
       <c r="G3" s="27"/>
       <c r="H3" s="23"/>
       <c r="I3" s="24" t="s">
@@ -14910,12 +14959,12 @@
       <c r="M3" s="26"/>
     </row>
     <row r="4" spans="1:13" s="32" customFormat="1" ht="14" customHeight="1">
-      <c r="A4" s="126"/>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
+      <c r="A4" s="101"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
@@ -14942,16 +14991,16 @@
       <c r="M5" s="40"/>
     </row>
     <row r="6" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="102" t="s">
         <v>448</v>
       </c>
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="102" t="s">
         <v>449</v>
       </c>
-      <c r="C6" s="99" t="s">
+      <c r="C6" s="102" t="s">
         <v>450</v>
       </c>
-      <c r="D6" s="114" t="s">
+      <c r="D6" s="106" t="s">
         <v>505</v>
       </c>
       <c r="E6" s="41" t="s">
@@ -14973,18 +15022,18 @@
       <c r="K6" s="43" t="s">
         <v>454</v>
       </c>
-      <c r="L6" s="111" t="s">
+      <c r="L6" s="110" t="s">
         <v>507</v>
       </c>
-      <c r="M6" s="111" t="s">
+      <c r="M6" s="110" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A7" s="100"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="115"/>
+      <c r="A7" s="103"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="107"/>
       <c r="E7" s="41" t="s">
         <v>456</v>
       </c>
@@ -15006,22 +15055,22 @@
       <c r="K7" s="43" t="s">
         <v>458</v>
       </c>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
     </row>
     <row r="8" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A8" s="100"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="99" t="s">
+      <c r="A8" s="103"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="102" t="s">
         <v>459</v>
       </c>
-      <c r="F8" s="102" t="s">
+      <c r="F8" s="113" t="s">
         <v>511</v>
       </c>
       <c r="G8" s="78"/>
-      <c r="H8" s="105" t="s">
+      <c r="H8" s="116" t="s">
         <v>512</v>
       </c>
       <c r="I8" s="50" t="s">
@@ -15033,18 +15082,18 @@
       <c r="K8" s="43" t="s">
         <v>466</v>
       </c>
-      <c r="L8" s="112"/>
-      <c r="M8" s="112"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
     </row>
     <row r="9" spans="1:13" s="18" customFormat="1" ht="16" customHeight="1" outlineLevel="1">
-      <c r="A9" s="100"/>
-      <c r="B9" s="100"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="103"/>
+      <c r="A9" s="103"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="114"/>
       <c r="G9" s="79"/>
-      <c r="H9" s="106"/>
+      <c r="H9" s="117"/>
       <c r="I9" s="50" t="s">
         <v>514</v>
       </c>
@@ -15052,41 +15101,41 @@
       <c r="K9" s="51" t="s">
         <v>515</v>
       </c>
-      <c r="L9" s="112"/>
-      <c r="M9" s="112"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
     </row>
     <row r="10" spans="1:13" s="18" customFormat="1" ht="19" customHeight="1" outlineLevel="1">
-      <c r="A10" s="100"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="104"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="115"/>
       <c r="G10" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="H10" s="107"/>
+      <c r="H10" s="118"/>
       <c r="I10" s="50" t="s">
         <v>516</v>
       </c>
       <c r="J10" s="44"/>
       <c r="K10" s="52"/>
-      <c r="L10" s="112"/>
-      <c r="M10" s="112"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
     </row>
     <row r="11" spans="1:13" s="18" customFormat="1" ht="13" customHeight="1" outlineLevel="1">
-      <c r="A11" s="100"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="99" t="s">
+      <c r="A11" s="103"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="102" t="s">
         <v>461</v>
       </c>
-      <c r="F11" s="102" t="s">
+      <c r="F11" s="113" t="s">
         <v>517</v>
       </c>
       <c r="G11" s="78"/>
-      <c r="H11" s="98"/>
+      <c r="H11" s="120"/>
       <c r="I11" s="53" t="s">
         <v>518</v>
       </c>
@@ -15094,20 +15143,20 @@
       <c r="K11" s="43" t="s">
         <v>519</v>
       </c>
-      <c r="L11" s="112"/>
-      <c r="M11" s="112"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
     </row>
     <row r="12" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A12" s="100"/>
-      <c r="B12" s="100"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="121"/>
+      <c r="A12" s="103"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="119"/>
       <c r="G12" s="80" t="s">
         <v>582</v>
       </c>
-      <c r="H12" s="122"/>
+      <c r="H12" s="121"/>
       <c r="I12" s="54" t="s">
         <v>520</v>
       </c>
@@ -15115,16 +15164,16 @@
       <c r="K12" s="56" t="s">
         <v>521</v>
       </c>
-      <c r="L12" s="112"/>
-      <c r="M12" s="112"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
     </row>
     <row r="13" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A13" s="100"/>
-      <c r="B13" s="100"/>
-      <c r="C13" s="100" t="s">
+      <c r="A13" s="103"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103" t="s">
         <v>462</v>
       </c>
-      <c r="D13" s="115" t="s">
+      <c r="D13" s="107" t="s">
         <v>522</v>
       </c>
       <c r="E13" s="57" t="s">
@@ -15146,14 +15195,14 @@
       <c r="K13" s="51" t="s">
         <v>526</v>
       </c>
-      <c r="L13" s="112"/>
-      <c r="M13" s="112"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
     </row>
     <row r="14" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A14" s="100"/>
-      <c r="B14" s="100"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="115"/>
+      <c r="A14" s="103"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="107"/>
       <c r="E14" s="41" t="s">
         <v>464</v>
       </c>
@@ -15173,14 +15222,14 @@
       <c r="K14" s="43" t="s">
         <v>530</v>
       </c>
-      <c r="L14" s="112"/>
-      <c r="M14" s="112"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
     </row>
     <row r="15" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A15" s="100"/>
-      <c r="B15" s="100"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="115"/>
+      <c r="A15" s="103"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="107"/>
       <c r="E15" s="41" t="s">
         <v>465</v>
       </c>
@@ -15200,56 +15249,56 @@
       <c r="K15" s="43" t="s">
         <v>534</v>
       </c>
-      <c r="L15" s="112"/>
-      <c r="M15" s="112"/>
+      <c r="L15" s="111"/>
+      <c r="M15" s="111"/>
     </row>
     <row r="16" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A16" s="100"/>
-      <c r="B16" s="100"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="99" t="s">
+      <c r="A16" s="103"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="102" t="s">
         <v>467</v>
       </c>
-      <c r="F16" s="102" t="s">
+      <c r="F16" s="113" t="s">
         <v>535</v>
       </c>
       <c r="G16" s="78"/>
-      <c r="H16" s="123"/>
+      <c r="H16" s="122"/>
       <c r="I16" s="63" t="s">
         <v>536</v>
       </c>
       <c r="J16" s="46"/>
       <c r="K16" s="43"/>
-      <c r="L16" s="112"/>
-      <c r="M16" s="112"/>
+      <c r="L16" s="111"/>
+      <c r="M16" s="111"/>
     </row>
     <row r="17" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A17" s="100"/>
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="103"/>
+      <c r="A17" s="103"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="114"/>
       <c r="G17" s="79"/>
-      <c r="H17" s="123"/>
+      <c r="H17" s="122"/>
       <c r="I17" s="63" t="s">
         <v>537</v>
       </c>
       <c r="J17" s="46"/>
       <c r="K17" s="43"/>
-      <c r="L17" s="112"/>
-      <c r="M17" s="112"/>
+      <c r="L17" s="111"/>
+      <c r="M17" s="111"/>
     </row>
     <row r="18" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A18" s="100"/>
-      <c r="B18" s="100"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="103"/>
+      <c r="A18" s="103"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="114"/>
       <c r="G18" s="79"/>
-      <c r="H18" s="123"/>
+      <c r="H18" s="122"/>
       <c r="I18" s="43" t="s">
         <v>538</v>
       </c>
@@ -15257,18 +15306,18 @@
       <c r="K18" s="63" t="s">
         <v>539</v>
       </c>
-      <c r="L18" s="112"/>
-      <c r="M18" s="112"/>
+      <c r="L18" s="111"/>
+      <c r="M18" s="111"/>
     </row>
     <row r="19" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A19" s="100"/>
-      <c r="B19" s="100"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="103"/>
+      <c r="A19" s="103"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="114"/>
       <c r="G19" s="79"/>
-      <c r="H19" s="123"/>
+      <c r="H19" s="122"/>
       <c r="I19" s="43" t="s">
         <v>540</v>
       </c>
@@ -15276,18 +15325,18 @@
       <c r="K19" s="63" t="s">
         <v>541</v>
       </c>
-      <c r="L19" s="112"/>
-      <c r="M19" s="112"/>
+      <c r="L19" s="111"/>
+      <c r="M19" s="111"/>
     </row>
     <row r="20" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A20" s="100"/>
-      <c r="B20" s="100"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="103"/>
+      <c r="A20" s="103"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="114"/>
       <c r="G20" s="79"/>
-      <c r="H20" s="123"/>
+      <c r="H20" s="122"/>
       <c r="I20" s="43" t="s">
         <v>542</v>
       </c>
@@ -15295,44 +15344,44 @@
       <c r="K20" s="63" t="s">
         <v>543</v>
       </c>
-      <c r="L20" s="112"/>
-      <c r="M20" s="112"/>
+      <c r="L20" s="111"/>
+      <c r="M20" s="111"/>
     </row>
     <row r="21" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A21" s="100"/>
-      <c r="B21" s="100"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="103"/>
+      <c r="A21" s="103"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="114"/>
       <c r="G21" s="79"/>
-      <c r="H21" s="123"/>
+      <c r="H21" s="122"/>
       <c r="I21" s="45" t="s">
         <v>484</v>
       </c>
       <c r="J21" s="46"/>
       <c r="K21" s="63"/>
-      <c r="L21" s="112"/>
-      <c r="M21" s="112"/>
+      <c r="L21" s="111"/>
+      <c r="M21" s="111"/>
     </row>
     <row r="22" spans="1:14" s="18" customFormat="1" ht="23" customHeight="1">
-      <c r="A22" s="101"/>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="104"/>
+      <c r="A22" s="104"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="115"/>
       <c r="G22" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="H22" s="123"/>
+      <c r="H22" s="122"/>
       <c r="I22" s="43" t="s">
         <v>544</v>
       </c>
       <c r="J22" s="46"/>
       <c r="K22" s="44"/>
-      <c r="L22" s="113"/>
-      <c r="M22" s="113"/>
+      <c r="L22" s="112"/>
+      <c r="M22" s="112"/>
     </row>
     <row r="23" spans="1:14" s="18" customFormat="1" ht="8" customHeight="1">
       <c r="A23" s="64"/>
@@ -15350,26 +15399,26 @@
       <c r="M23" s="69"/>
     </row>
     <row r="24" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A24" s="99" t="s">
+      <c r="A24" s="102" t="s">
         <v>468</v>
       </c>
-      <c r="B24" s="117" t="s">
+      <c r="B24" s="123" t="s">
         <v>469</v>
       </c>
-      <c r="C24" s="99" t="s">
+      <c r="C24" s="102" t="s">
         <v>470</v>
       </c>
-      <c r="D24" s="114" t="s">
+      <c r="D24" s="106" t="s">
         <v>545</v>
       </c>
-      <c r="E24" s="99" t="s">
+      <c r="E24" s="102" t="s">
         <v>471</v>
       </c>
-      <c r="F24" s="102" t="s">
+      <c r="F24" s="113" t="s">
         <v>546</v>
       </c>
       <c r="G24" s="78"/>
-      <c r="H24" s="105" t="s">
+      <c r="H24" s="116" t="s">
         <v>547</v>
       </c>
       <c r="I24" s="44" t="s">
@@ -15381,47 +15430,47 @@
       <c r="K24" s="43" t="s">
         <v>548</v>
       </c>
-      <c r="L24" s="111" t="s">
+      <c r="L24" s="110" t="s">
         <v>507</v>
       </c>
-      <c r="M24" s="98" t="s">
+      <c r="M24" s="120" t="s">
         <v>474</v>
       </c>
       <c r="N24" s="47"/>
     </row>
     <row r="25" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A25" s="100"/>
-      <c r="B25" s="118"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="104"/>
+      <c r="A25" s="103"/>
+      <c r="B25" s="124"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="115"/>
       <c r="G25" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="H25" s="107"/>
+      <c r="H25" s="118"/>
       <c r="I25" s="44" t="s">
         <v>549</v>
       </c>
       <c r="J25" s="45"/>
       <c r="K25" s="43"/>
-      <c r="L25" s="112"/>
-      <c r="M25" s="98"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="120"/>
       <c r="N25" s="47"/>
     </row>
     <row r="26" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A26" s="100"/>
-      <c r="B26" s="118"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="99" t="s">
+      <c r="A26" s="103"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="102" t="s">
         <v>475</v>
       </c>
-      <c r="F26" s="102" t="s">
+      <c r="F26" s="113" t="s">
         <v>550</v>
       </c>
       <c r="G26" s="78"/>
-      <c r="H26" s="105" t="s">
+      <c r="H26" s="116" t="s">
         <v>551</v>
       </c>
       <c r="I26" s="44" t="s">
@@ -15433,21 +15482,21 @@
       <c r="K26" s="43" t="s">
         <v>553</v>
       </c>
-      <c r="L26" s="112"/>
-      <c r="M26" s="98"/>
+      <c r="L26" s="111"/>
+      <c r="M26" s="120"/>
       <c r="N26" s="47"/>
     </row>
     <row r="27" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A27" s="100"/>
-      <c r="B27" s="118"/>
-      <c r="C27" s="100"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="104"/>
+      <c r="A27" s="103"/>
+      <c r="B27" s="124"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="115"/>
       <c r="G27" s="58" t="s">
         <v>583</v>
       </c>
-      <c r="H27" s="107"/>
+      <c r="H27" s="118"/>
       <c r="I27" s="44" t="s">
         <v>483</v>
       </c>
@@ -15455,15 +15504,15 @@
         <v>479</v>
       </c>
       <c r="K27" s="43"/>
-      <c r="L27" s="112"/>
-      <c r="M27" s="98"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="120"/>
       <c r="N27" s="47"/>
     </row>
     <row r="28" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A28" s="100"/>
-      <c r="B28" s="118"/>
-      <c r="C28" s="100"/>
-      <c r="D28" s="115"/>
+      <c r="A28" s="103"/>
+      <c r="B28" s="124"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="107"/>
       <c r="E28" s="41" t="s">
         <v>477</v>
       </c>
@@ -15482,15 +15531,15 @@
       <c r="K28" s="43" t="s">
         <v>556</v>
       </c>
-      <c r="L28" s="112"/>
-      <c r="M28" s="98"/>
+      <c r="L28" s="111"/>
+      <c r="M28" s="120"/>
       <c r="N28" s="47"/>
     </row>
     <row r="29" spans="1:14" s="18" customFormat="1" ht="19" customHeight="1">
-      <c r="A29" s="101"/>
-      <c r="B29" s="119"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="116"/>
+      <c r="A29" s="104"/>
+      <c r="B29" s="125"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="109"/>
       <c r="E29" s="41" t="s">
         <v>480</v>
       </c>
@@ -15512,8 +15561,8 @@
       <c r="K29" s="43" t="s">
         <v>559</v>
       </c>
-      <c r="L29" s="113"/>
-      <c r="M29" s="98"/>
+      <c r="L29" s="112"/>
+      <c r="M29" s="120"/>
       <c r="N29" s="47"/>
     </row>
     <row r="30" spans="1:14" s="18" customFormat="1" ht="8" customHeight="1">
@@ -15532,26 +15581,26 @@
       <c r="M30" s="69"/>
     </row>
     <row r="31" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A31" s="99" t="s">
+      <c r="A31" s="102" t="s">
         <v>485</v>
       </c>
-      <c r="B31" s="99" t="s">
+      <c r="B31" s="102" t="s">
         <v>486</v>
       </c>
-      <c r="C31" s="99" t="s">
+      <c r="C31" s="102" t="s">
         <v>487</v>
       </c>
-      <c r="D31" s="114" t="s">
+      <c r="D31" s="106" t="s">
         <v>560</v>
       </c>
-      <c r="E31" s="99" t="s">
+      <c r="E31" s="102" t="s">
         <v>488</v>
       </c>
-      <c r="F31" s="102" t="s">
+      <c r="F31" s="113" t="s">
         <v>561</v>
       </c>
       <c r="G31" s="78"/>
-      <c r="H31" s="105" t="s">
+      <c r="H31" s="116" t="s">
         <v>562</v>
       </c>
       <c r="I31" s="76" t="s">
@@ -15563,22 +15612,22 @@
       <c r="K31" s="43" t="s">
         <v>564</v>
       </c>
-      <c r="L31" s="98" t="s">
+      <c r="L31" s="120" t="s">
         <v>490</v>
       </c>
-      <c r="M31" s="98" t="s">
+      <c r="M31" s="120" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="32" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A32" s="100"/>
-      <c r="B32" s="100"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="103"/>
+      <c r="A32" s="103"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="114"/>
       <c r="G32" s="79"/>
-      <c r="H32" s="106"/>
+      <c r="H32" s="117"/>
       <c r="I32" s="51" t="s">
         <v>565</v>
       </c>
@@ -15586,79 +15635,79 @@
       <c r="K32" s="43" t="s">
         <v>566</v>
       </c>
-      <c r="L32" s="98"/>
-      <c r="M32" s="98"/>
+      <c r="L32" s="120"/>
+      <c r="M32" s="120"/>
     </row>
     <row r="33" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A33" s="100"/>
-      <c r="B33" s="100"/>
-      <c r="C33" s="100"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="104"/>
+      <c r="A33" s="103"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="115"/>
       <c r="G33" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="H33" s="107"/>
+      <c r="H33" s="118"/>
       <c r="I33" s="51" t="s">
         <v>500</v>
       </c>
       <c r="J33" s="44"/>
       <c r="K33" s="43"/>
-      <c r="L33" s="98"/>
-      <c r="M33" s="98"/>
+      <c r="L33" s="120"/>
+      <c r="M33" s="120"/>
     </row>
     <row r="34" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A34" s="100"/>
-      <c r="B34" s="100"/>
-      <c r="C34" s="100"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="99" t="s">
+      <c r="A34" s="103"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="102" t="s">
         <v>492</v>
       </c>
-      <c r="F34" s="102" t="s">
+      <c r="F34" s="113" t="s">
         <v>567</v>
       </c>
       <c r="G34" s="78"/>
-      <c r="H34" s="105" t="s">
+      <c r="H34" s="116" t="s">
         <v>568</v>
       </c>
       <c r="I34" s="44" t="s">
         <v>569</v>
       </c>
       <c r="J34" s="44"/>
-      <c r="K34" s="108"/>
-      <c r="L34" s="98"/>
-      <c r="M34" s="98"/>
+      <c r="K34" s="126"/>
+      <c r="L34" s="120"/>
+      <c r="M34" s="120"/>
     </row>
     <row r="35" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A35" s="100"/>
-      <c r="B35" s="100"/>
-      <c r="C35" s="100"/>
-      <c r="D35" s="115"/>
-      <c r="E35" s="100"/>
-      <c r="F35" s="103"/>
+      <c r="A35" s="103"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="107"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="114"/>
       <c r="G35" s="79"/>
-      <c r="H35" s="106"/>
+      <c r="H35" s="117"/>
       <c r="I35" s="44" t="s">
         <v>496</v>
       </c>
       <c r="J35" s="44"/>
-      <c r="K35" s="108"/>
-      <c r="L35" s="98"/>
-      <c r="M35" s="98"/>
+      <c r="K35" s="126"/>
+      <c r="L35" s="120"/>
+      <c r="M35" s="120"/>
     </row>
     <row r="36" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A36" s="100"/>
-      <c r="B36" s="100"/>
-      <c r="C36" s="100"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="104"/>
+      <c r="A36" s="103"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="107"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="115"/>
       <c r="G36" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="H36" s="107"/>
+      <c r="H36" s="118"/>
       <c r="I36" s="44" t="s">
         <v>570</v>
       </c>
@@ -15668,68 +15717,68 @@
       <c r="K36" s="43" t="s">
         <v>494</v>
       </c>
-      <c r="L36" s="98"/>
-      <c r="M36" s="98"/>
+      <c r="L36" s="120"/>
+      <c r="M36" s="120"/>
     </row>
     <row r="37" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="A37" s="100"/>
-      <c r="B37" s="100"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="115"/>
-      <c r="E37" s="99" t="s">
+      <c r="A37" s="103"/>
+      <c r="B37" s="103"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="102" t="s">
         <v>495</v>
       </c>
-      <c r="F37" s="102" t="s">
+      <c r="F37" s="113" t="s">
         <v>571</v>
       </c>
       <c r="G37" s="78"/>
-      <c r="H37" s="109" t="s">
+      <c r="H37" s="127" t="s">
         <v>572</v>
       </c>
       <c r="I37" s="44" t="s">
         <v>573</v>
       </c>
-      <c r="J37" s="110" t="s">
+      <c r="J37" s="128" t="s">
         <v>497</v>
       </c>
-      <c r="K37" s="109" t="s">
+      <c r="K37" s="127" t="s">
         <v>499</v>
       </c>
-      <c r="L37" s="98"/>
-      <c r="M37" s="98"/>
+      <c r="L37" s="120"/>
+      <c r="M37" s="120"/>
     </row>
     <row r="38" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="A38" s="100"/>
-      <c r="B38" s="100"/>
-      <c r="C38" s="100"/>
-      <c r="D38" s="115"/>
-      <c r="E38" s="100"/>
-      <c r="F38" s="103"/>
+      <c r="A38" s="103"/>
+      <c r="B38" s="103"/>
+      <c r="C38" s="103"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="114"/>
       <c r="G38" s="79" t="s">
         <v>582</v>
       </c>
-      <c r="H38" s="109"/>
+      <c r="H38" s="127"/>
       <c r="I38" s="63" t="s">
         <v>574</v>
       </c>
-      <c r="J38" s="110"/>
-      <c r="K38" s="109"/>
-      <c r="L38" s="98"/>
-      <c r="M38" s="98"/>
+      <c r="J38" s="128"/>
+      <c r="K38" s="127"/>
+      <c r="L38" s="120"/>
+      <c r="M38" s="120"/>
     </row>
     <row r="39" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="A39" s="100"/>
-      <c r="B39" s="100"/>
-      <c r="C39" s="100"/>
-      <c r="D39" s="115"/>
-      <c r="E39" s="100" t="s">
+      <c r="A39" s="103"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="103"/>
+      <c r="D39" s="107"/>
+      <c r="E39" s="103" t="s">
         <v>498</v>
       </c>
-      <c r="F39" s="103" t="s">
+      <c r="F39" s="114" t="s">
         <v>575</v>
       </c>
       <c r="G39" s="79"/>
-      <c r="H39" s="109" t="s">
+      <c r="H39" s="127" t="s">
         <v>576</v>
       </c>
       <c r="I39" s="63" t="s">
@@ -15739,18 +15788,18 @@
       <c r="K39" s="51" t="s">
         <v>578</v>
       </c>
-      <c r="L39" s="98"/>
-      <c r="M39" s="98"/>
+      <c r="L39" s="120"/>
+      <c r="M39" s="120"/>
     </row>
     <row r="40" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="A40" s="100"/>
-      <c r="B40" s="100"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="100"/>
-      <c r="F40" s="103"/>
+      <c r="A40" s="103"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="107"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="114"/>
       <c r="G40" s="79"/>
-      <c r="H40" s="109"/>
+      <c r="H40" s="127"/>
       <c r="I40" s="63" t="s">
         <v>579</v>
       </c>
@@ -15758,27 +15807,27 @@
       <c r="K40" s="51" t="s">
         <v>580</v>
       </c>
-      <c r="L40" s="98"/>
-      <c r="M40" s="98"/>
+      <c r="L40" s="120"/>
+      <c r="M40" s="120"/>
     </row>
     <row r="41" spans="1:13" s="18" customFormat="1" ht="17" customHeight="1">
-      <c r="A41" s="101"/>
-      <c r="B41" s="101"/>
-      <c r="C41" s="101"/>
-      <c r="D41" s="116"/>
-      <c r="E41" s="101"/>
-      <c r="F41" s="104"/>
+      <c r="A41" s="104"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="109"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="115"/>
       <c r="G41" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="H41" s="109"/>
+      <c r="H41" s="127"/>
       <c r="I41" s="63" t="s">
         <v>581</v>
       </c>
       <c r="J41" s="46"/>
       <c r="K41" s="43"/>
-      <c r="L41" s="98"/>
-      <c r="M41" s="98"/>
+      <c r="L41" s="120"/>
+      <c r="M41" s="120"/>
     </row>
     <row r="42" spans="1:13">
       <c r="K42" s="77"/>
@@ -15786,42 +15835,6 @@
     <row r="43" spans="1:13" ht="23" customHeight="1"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="A6:A22"/>
-    <mergeCell ref="B6:B22"/>
-    <mergeCell ref="C6:C12"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="C13:C22"/>
-    <mergeCell ref="D13:D22"/>
-    <mergeCell ref="L6:L22"/>
-    <mergeCell ref="M6:M22"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E16:E22"/>
-    <mergeCell ref="F16:F22"/>
-    <mergeCell ref="H16:H22"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="D24:D29"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A31:A41"/>
-    <mergeCell ref="B31:B41"/>
-    <mergeCell ref="C31:C41"/>
-    <mergeCell ref="D31:D41"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="L24:L29"/>
-    <mergeCell ref="M24:M29"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="H24:H25"/>
     <mergeCell ref="L31:L41"/>
     <mergeCell ref="M31:M41"/>
     <mergeCell ref="E34:E36"/>
@@ -15838,6 +15851,42 @@
     <mergeCell ref="H39:H41"/>
     <mergeCell ref="F31:F33"/>
     <mergeCell ref="H31:H33"/>
+    <mergeCell ref="L24:L29"/>
+    <mergeCell ref="M24:M29"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="A31:A41"/>
+    <mergeCell ref="B31:B41"/>
+    <mergeCell ref="C31:C41"/>
+    <mergeCell ref="D31:D41"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="D24:D29"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="L6:L22"/>
+    <mergeCell ref="M6:M22"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E16:E22"/>
+    <mergeCell ref="F16:F22"/>
+    <mergeCell ref="H16:H22"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="A6:A22"/>
+    <mergeCell ref="B6:B22"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="C13:C22"/>
+    <mergeCell ref="D13:D22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>

--- a/blueprints-combined.xlsx
+++ b/blueprints-combined.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qdd/Google Drive/git/notes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\admin\git\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C63146-553F-1842-9526-B6EE6327AA87}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="1500" windowWidth="26140" windowHeight="19420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11580" yWindow="1500" windowWidth="26136" windowHeight="19416" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="lab-topics" sheetId="6" r:id="rId1"/>
@@ -21,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'written-topics'!$B$2:$H$893</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="953">
   <si>
     <t>date</t>
   </si>
@@ -2978,11 +2977,14 @@
   <si>
     <t>x</t>
   </si>
+  <si>
+    <t>LAB</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
@@ -3579,13 +3581,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3595,30 +3591,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3639,17 +3611,32 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3660,14 +3647,29 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4147,27 +4149,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A728D9-57A3-3B45-8E6D-B790580F12CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P349"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C287" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B305" sqref="B305"/>
+      <selection pane="bottomRight" activeCell="A138" sqref="A138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="99.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25" customHeight="1">
+    <row r="1" spans="1:16" ht="25.05" customHeight="1">
       <c r="A1" s="93"/>
       <c r="B1" s="93"/>
       <c r="C1" s="93"/>
@@ -4177,7 +4179,7 @@
       </c>
       <c r="F1" s="90">
         <f ca="1">(TODAY()-H1)*-1</f>
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="G1" s="91" t="s">
         <v>10</v>
@@ -4186,7 +4188,7 @@
         <v>43812</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="96" customFormat="1" ht="20" customHeight="1" thickBot="1">
+    <row r="2" spans="1:16" s="96" customFormat="1" ht="19.95" customHeight="1" thickBot="1">
       <c r="A2" s="94" t="s">
         <v>940</v>
       </c>
@@ -4222,7 +4224,7 @@
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:16" ht="19">
+    <row r="4" spans="1:16" ht="18">
       <c r="A4" s="83" t="s">
         <v>928</v>
       </c>
@@ -4230,7 +4232,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="16">
+    <row r="5" spans="1:16" ht="15.6">
       <c r="A5" s="83" t="s">
         <v>928</v>
       </c>
@@ -4238,7 +4240,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="16">
+    <row r="6" spans="1:16" ht="15.6">
       <c r="A6" s="83" t="s">
         <v>928</v>
       </c>
@@ -4246,7 +4248,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16">
+    <row r="7" spans="1:16" ht="15.6">
       <c r="A7" s="83" t="s">
         <v>928</v>
       </c>
@@ -4254,7 +4256,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="16">
+    <row r="8" spans="1:16" ht="15.6">
       <c r="A8" s="83" t="s">
         <v>928</v>
       </c>
@@ -4262,7 +4264,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="16">
+    <row r="9" spans="1:16" ht="15.6">
       <c r="A9" s="83" t="s">
         <v>928</v>
       </c>
@@ -4270,7 +4272,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="16">
+    <row r="10" spans="1:16" ht="15.6">
       <c r="A10" s="83" t="s">
         <v>928</v>
       </c>
@@ -4278,7 +4280,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="16">
+    <row r="11" spans="1:16" ht="15.6">
       <c r="A11" s="83" t="s">
         <v>928</v>
       </c>
@@ -4286,7 +4288,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="16">
+    <row r="12" spans="1:16" ht="15.6">
       <c r="A12" s="83" t="s">
         <v>928</v>
       </c>
@@ -4294,7 +4296,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="16">
+    <row r="13" spans="1:16" ht="15.6">
       <c r="A13" s="83" t="s">
         <v>928</v>
       </c>
@@ -4302,7 +4304,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="16">
+    <row r="14" spans="1:16" ht="15.6">
       <c r="A14" s="83" t="s">
         <v>928</v>
       </c>
@@ -4310,7 +4312,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="16">
+    <row r="15" spans="1:16" ht="15.6">
       <c r="A15" s="83" t="s">
         <v>928</v>
       </c>
@@ -4318,7 +4320,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="16">
+    <row r="16" spans="1:16" ht="15.6">
       <c r="A16" s="83" t="s">
         <v>928</v>
       </c>
@@ -4326,7 +4328,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16">
+    <row r="17" spans="1:2" ht="15.6">
       <c r="A17" s="83" t="s">
         <v>928</v>
       </c>
@@ -4334,7 +4336,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16">
+    <row r="18" spans="1:2" ht="15.6">
       <c r="A18" s="83" t="s">
         <v>928</v>
       </c>
@@ -4342,7 +4344,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16">
+    <row r="19" spans="1:2" ht="15.6">
       <c r="A19" s="83" t="s">
         <v>928</v>
       </c>
@@ -4350,7 +4352,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16">
+    <row r="20" spans="1:2" ht="15.6">
       <c r="A20" s="83" t="s">
         <v>928</v>
       </c>
@@ -4358,7 +4360,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16">
+    <row r="21" spans="1:2" ht="15.6">
       <c r="A21" s="83" t="s">
         <v>928</v>
       </c>
@@ -4366,7 +4368,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16">
+    <row r="22" spans="1:2" ht="15.6">
       <c r="A22" s="83" t="s">
         <v>928</v>
       </c>
@@ -4374,7 +4376,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16">
+    <row r="23" spans="1:2" ht="15.6">
       <c r="A23" s="83" t="s">
         <v>928</v>
       </c>
@@ -4382,7 +4384,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16">
+    <row r="24" spans="1:2" ht="15.6">
       <c r="A24" s="83" t="s">
         <v>928</v>
       </c>
@@ -4390,7 +4392,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16">
+    <row r="25" spans="1:2" ht="15.6">
       <c r="A25" s="83" t="s">
         <v>928</v>
       </c>
@@ -4398,7 +4400,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16">
+    <row r="26" spans="1:2" ht="15.6">
       <c r="A26" s="83" t="s">
         <v>928</v>
       </c>
@@ -4406,7 +4408,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="16">
+    <row r="27" spans="1:2" ht="15.6">
       <c r="A27" s="83" t="s">
         <v>928</v>
       </c>
@@ -4414,7 +4416,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16">
+    <row r="28" spans="1:2" ht="15.6">
       <c r="A28" s="83" t="s">
         <v>928</v>
       </c>
@@ -4422,7 +4424,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16">
+    <row r="29" spans="1:2" ht="15.6">
       <c r="A29" s="83" t="s">
         <v>928</v>
       </c>
@@ -4430,7 +4432,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="16">
+    <row r="30" spans="1:2" ht="15.6">
       <c r="A30" s="83" t="s">
         <v>928</v>
       </c>
@@ -4438,7 +4440,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="16">
+    <row r="31" spans="1:2" ht="15.6">
       <c r="A31" s="83" t="s">
         <v>928</v>
       </c>
@@ -4446,7 +4448,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="16">
+    <row r="32" spans="1:2" ht="15.6">
       <c r="A32" s="83" t="s">
         <v>928</v>
       </c>
@@ -4454,7 +4456,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="19">
+    <row r="33" spans="1:3" ht="18">
       <c r="A33" s="83" t="s">
         <v>928</v>
       </c>
@@ -4462,7 +4464,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="16">
+    <row r="34" spans="1:3" ht="15.6">
       <c r="A34" s="83" t="s">
         <v>928</v>
       </c>
@@ -4473,7 +4475,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="16">
+    <row r="35" spans="1:3" ht="15.6">
       <c r="A35" s="83" t="s">
         <v>928</v>
       </c>
@@ -4484,7 +4486,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="16">
+    <row r="36" spans="1:3" ht="15.6">
       <c r="A36" s="83" t="s">
         <v>928</v>
       </c>
@@ -4495,7 +4497,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="16">
+    <row r="37" spans="1:3" ht="15.6">
       <c r="A37" s="83" t="s">
         <v>928</v>
       </c>
@@ -4504,7 +4506,7 @@
       </c>
       <c r="C37" s="98"/>
     </row>
-    <row r="38" spans="1:3" ht="16">
+    <row r="38" spans="1:3" ht="15.6">
       <c r="A38" s="83" t="s">
         <v>928</v>
       </c>
@@ -4513,7 +4515,7 @@
       </c>
       <c r="C38" s="98"/>
     </row>
-    <row r="39" spans="1:3" ht="16">
+    <row r="39" spans="1:3" ht="15.6">
       <c r="A39" s="83" t="s">
         <v>928</v>
       </c>
@@ -4522,7 +4524,7 @@
       </c>
       <c r="C39" s="98"/>
     </row>
-    <row r="40" spans="1:3" ht="19">
+    <row r="40" spans="1:3" ht="18">
       <c r="A40" s="83" t="s">
         <v>928</v>
       </c>
@@ -4530,7 +4532,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="16">
+    <row r="41" spans="1:3" ht="15.6">
       <c r="A41" s="83" t="s">
         <v>928</v>
       </c>
@@ -4538,7 +4540,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="16">
+    <row r="42" spans="1:3" ht="15.6">
       <c r="A42" s="83" t="s">
         <v>928</v>
       </c>
@@ -4546,7 +4548,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="16">
+    <row r="43" spans="1:3" ht="15.6">
       <c r="A43" s="83" t="s">
         <v>928</v>
       </c>
@@ -4554,23 +4556,29 @@
         <v>632</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="16">
+    <row r="44" spans="1:3" ht="15.6">
       <c r="A44" s="83" t="s">
         <v>928</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="16">
+      <c r="C44" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.6">
       <c r="A45" s="83" t="s">
         <v>928</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="19">
+      <c r="C45" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="18">
       <c r="A46" s="83" t="s">
         <v>928</v>
       </c>
@@ -4578,7 +4586,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="16">
+    <row r="47" spans="1:3" ht="15.6">
       <c r="A47" s="83" t="s">
         <v>928</v>
       </c>
@@ -4586,7 +4594,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="16">
+    <row r="48" spans="1:3" ht="15.6">
       <c r="A48" s="83" t="s">
         <v>928</v>
       </c>
@@ -4594,7 +4602,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="16">
+    <row r="49" spans="1:4" ht="15.6">
       <c r="A49" s="83" t="s">
         <v>928</v>
       </c>
@@ -4602,7 +4610,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="16">
+    <row r="50" spans="1:4" ht="15.6">
       <c r="A50" s="83" t="s">
         <v>928</v>
       </c>
@@ -4610,7 +4618,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="16">
+    <row r="51" spans="1:4" ht="15.6">
       <c r="A51" s="83" t="s">
         <v>928</v>
       </c>
@@ -4618,7 +4626,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="16">
+    <row r="52" spans="1:4" ht="15.6">
       <c r="A52" s="83" t="s">
         <v>928</v>
       </c>
@@ -4626,7 +4634,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="16">
+    <row r="53" spans="1:4" ht="15.6">
       <c r="A53" s="83" t="s">
         <v>928</v>
       </c>
@@ -4634,7 +4642,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="16">
+    <row r="54" spans="1:4" ht="15.6">
       <c r="A54" s="83" t="s">
         <v>928</v>
       </c>
@@ -4642,7 +4650,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="16">
+    <row r="55" spans="1:4" ht="15.6">
       <c r="A55" s="83" t="s">
         <v>928</v>
       </c>
@@ -4650,7 +4658,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="16">
+    <row r="56" spans="1:4" ht="15.6">
       <c r="A56" s="83" t="s">
         <v>928</v>
       </c>
@@ -4658,7 +4666,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="16">
+    <row r="57" spans="1:4" ht="15.6">
       <c r="A57" s="83" t="s">
         <v>928</v>
       </c>
@@ -4676,7 +4684,7 @@
       </c>
       <c r="D58" s="5"/>
     </row>
-    <row r="59" spans="1:4" ht="19">
+    <row r="59" spans="1:4" ht="18">
       <c r="A59" s="83" t="s">
         <v>929</v>
       </c>
@@ -4684,7 +4692,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="16">
+    <row r="60" spans="1:4" ht="15.6">
       <c r="A60" s="83" t="s">
         <v>929</v>
       </c>
@@ -4695,7 +4703,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="16">
+    <row r="61" spans="1:4" ht="15.6">
       <c r="A61" s="83" t="s">
         <v>929</v>
       </c>
@@ -4706,7 +4714,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="16">
+    <row r="62" spans="1:4" ht="15.6">
       <c r="A62" s="83" t="s">
         <v>929</v>
       </c>
@@ -4717,7 +4725,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="16">
+    <row r="63" spans="1:4" ht="15.6">
       <c r="A63" s="83" t="s">
         <v>929</v>
       </c>
@@ -4728,7 +4736,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="16">
+    <row r="64" spans="1:4" ht="15.6">
       <c r="A64" s="83" t="s">
         <v>929</v>
       </c>
@@ -4739,7 +4747,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="16">
+    <row r="65" spans="1:4" ht="15.6">
       <c r="A65" s="83" t="s">
         <v>929</v>
       </c>
@@ -4750,7 +4758,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="16">
+    <row r="66" spans="1:4" ht="15.6">
       <c r="A66" s="83" t="s">
         <v>929</v>
       </c>
@@ -4761,7 +4769,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="16">
+    <row r="67" spans="1:4" ht="15.6">
       <c r="A67" s="83" t="s">
         <v>929</v>
       </c>
@@ -4772,7 +4780,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="16">
+    <row r="68" spans="1:4" ht="15.6">
       <c r="A68" s="83" t="s">
         <v>929</v>
       </c>
@@ -4783,7 +4791,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="19">
+    <row r="69" spans="1:4" ht="18">
       <c r="A69" s="83" t="s">
         <v>929</v>
       </c>
@@ -4791,7 +4799,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="16">
+    <row r="70" spans="1:4" ht="15.6">
       <c r="A70" s="83" t="s">
         <v>929</v>
       </c>
@@ -4802,7 +4810,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="16">
+    <row r="71" spans="1:4" ht="15.6">
       <c r="A71" s="83" t="s">
         <v>929</v>
       </c>
@@ -4813,7 +4821,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="16">
+    <row r="72" spans="1:4" ht="15.6">
       <c r="A72" s="83" t="s">
         <v>929</v>
       </c>
@@ -4824,7 +4832,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="16">
+    <row r="73" spans="1:4" ht="15.6">
       <c r="A73" s="83" t="s">
         <v>929</v>
       </c>
@@ -4838,7 +4846,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="16">
+    <row r="74" spans="1:4" ht="15.6">
       <c r="A74" s="83" t="s">
         <v>929</v>
       </c>
@@ -4849,7 +4857,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="16">
+    <row r="75" spans="1:4" ht="15.6">
       <c r="A75" s="83" t="s">
         <v>929</v>
       </c>
@@ -4860,7 +4868,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="16">
+    <row r="76" spans="1:4" ht="15.6">
       <c r="A76" s="83" t="s">
         <v>929</v>
       </c>
@@ -4871,7 +4879,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="16">
+    <row r="77" spans="1:4" ht="15.6">
       <c r="A77" s="83" t="s">
         <v>929</v>
       </c>
@@ -4882,7 +4890,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="16">
+    <row r="78" spans="1:4" ht="15.6">
       <c r="A78" s="83" t="s">
         <v>929</v>
       </c>
@@ -4893,7 +4901,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="16">
+    <row r="79" spans="1:4" ht="15.6">
       <c r="A79" s="83" t="s">
         <v>929</v>
       </c>
@@ -4904,7 +4912,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="16">
+    <row r="80" spans="1:4" ht="15.6">
       <c r="A80" s="83" t="s">
         <v>929</v>
       </c>
@@ -4915,7 +4923,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="16">
+    <row r="81" spans="1:3" ht="15.6">
       <c r="A81" s="83" t="s">
         <v>929</v>
       </c>
@@ -4926,7 +4934,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="16">
+    <row r="82" spans="1:3" ht="15.6">
       <c r="A82" s="83" t="s">
         <v>929</v>
       </c>
@@ -4935,7 +4943,7 @@
       </c>
       <c r="C82" s="98"/>
     </row>
-    <row r="83" spans="1:3" ht="19">
+    <row r="83" spans="1:3" ht="18">
       <c r="A83" s="83" t="s">
         <v>929</v>
       </c>
@@ -4943,7 +4951,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="16">
+    <row r="84" spans="1:3" ht="15.6">
       <c r="A84" s="83" t="s">
         <v>929</v>
       </c>
@@ -4951,7 +4959,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="16">
+    <row r="85" spans="1:3" ht="15.6">
       <c r="A85" s="83" t="s">
         <v>929</v>
       </c>
@@ -4959,7 +4967,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="16">
+    <row r="86" spans="1:3" ht="15.6">
       <c r="A86" s="83" t="s">
         <v>929</v>
       </c>
@@ -4967,7 +4975,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="16">
+    <row r="87" spans="1:3" ht="15.6">
       <c r="A87" s="83" t="s">
         <v>929</v>
       </c>
@@ -4975,7 +4983,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="16">
+    <row r="88" spans="1:3" ht="15.6">
       <c r="A88" s="83" t="s">
         <v>929</v>
       </c>
@@ -4983,7 +4991,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="16">
+    <row r="89" spans="1:3" ht="15.6">
       <c r="A89" s="83" t="s">
         <v>929</v>
       </c>
@@ -4991,7 +4999,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="16">
+    <row r="90" spans="1:3" ht="15.6">
       <c r="A90" s="83" t="s">
         <v>929</v>
       </c>
@@ -4999,7 +5007,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="16">
+    <row r="91" spans="1:3" ht="15.6">
       <c r="A91" s="83" t="s">
         <v>929</v>
       </c>
@@ -5007,7 +5015,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="16">
+    <row r="92" spans="1:3" ht="15.6">
       <c r="A92" s="83" t="s">
         <v>929</v>
       </c>
@@ -5015,7 +5023,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="16">
+    <row r="93" spans="1:3" ht="15.6">
       <c r="A93" s="83" t="s">
         <v>929</v>
       </c>
@@ -5023,7 +5031,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="16">
+    <row r="94" spans="1:3" ht="15.6">
       <c r="A94" s="83" t="s">
         <v>929</v>
       </c>
@@ -5031,7 +5039,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="16">
+    <row r="95" spans="1:3" ht="15.6">
       <c r="A95" s="83" t="s">
         <v>929</v>
       </c>
@@ -5039,7 +5047,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="16">
+    <row r="96" spans="1:3" ht="15.6">
       <c r="A96" s="83" t="s">
         <v>929</v>
       </c>
@@ -5047,7 +5055,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="16">
+    <row r="97" spans="1:2" ht="15.6">
       <c r="A97" s="83" t="s">
         <v>929</v>
       </c>
@@ -5055,7 +5063,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="16">
+    <row r="98" spans="1:2" ht="15.6">
       <c r="A98" s="83" t="s">
         <v>929</v>
       </c>
@@ -5063,7 +5071,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="16">
+    <row r="99" spans="1:2" ht="15.6">
       <c r="A99" s="83" t="s">
         <v>929</v>
       </c>
@@ -5071,7 +5079,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="16">
+    <row r="100" spans="1:2" ht="15.6">
       <c r="A100" s="83" t="s">
         <v>929</v>
       </c>
@@ -5079,7 +5087,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="16">
+    <row r="101" spans="1:2" ht="15.6">
       <c r="A101" s="83" t="s">
         <v>929</v>
       </c>
@@ -5087,7 +5095,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="16">
+    <row r="102" spans="1:2" ht="15.6">
       <c r="A102" s="83" t="s">
         <v>929</v>
       </c>
@@ -5095,7 +5103,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="16">
+    <row r="103" spans="1:2" ht="15.6">
       <c r="A103" s="83" t="s">
         <v>929</v>
       </c>
@@ -5103,7 +5111,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="16">
+    <row r="104" spans="1:2" ht="15.6">
       <c r="A104" s="83" t="s">
         <v>929</v>
       </c>
@@ -5111,7 +5119,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="16">
+    <row r="105" spans="1:2" ht="15.6">
       <c r="A105" s="83" t="s">
         <v>929</v>
       </c>
@@ -5119,7 +5127,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="16">
+    <row r="106" spans="1:2" ht="15.6">
       <c r="A106" s="83" t="s">
         <v>929</v>
       </c>
@@ -5127,7 +5135,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="16">
+    <row r="107" spans="1:2" ht="15.6">
       <c r="A107" s="83" t="s">
         <v>929</v>
       </c>
@@ -5135,7 +5143,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="16">
+    <row r="108" spans="1:2" ht="15.6">
       <c r="A108" s="83" t="s">
         <v>929</v>
       </c>
@@ -5143,7 +5151,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="19">
+    <row r="109" spans="1:2" ht="18">
       <c r="A109" s="83" t="s">
         <v>929</v>
       </c>
@@ -5151,7 +5159,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="16">
+    <row r="110" spans="1:2" ht="15.6">
       <c r="A110" s="83" t="s">
         <v>929</v>
       </c>
@@ -5159,7 +5167,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="19">
+    <row r="111" spans="1:2" ht="18">
       <c r="A111" s="83" t="s">
         <v>929</v>
       </c>
@@ -5167,7 +5175,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="16">
+    <row r="112" spans="1:2" ht="15.6">
       <c r="A112" s="83" t="s">
         <v>929</v>
       </c>
@@ -5175,7 +5183,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="16">
+    <row r="113" spans="1:2" ht="15.6">
       <c r="A113" s="83" t="s">
         <v>929</v>
       </c>
@@ -5183,7 +5191,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="16">
+    <row r="114" spans="1:2" ht="15.6">
       <c r="A114" s="83" t="s">
         <v>929</v>
       </c>
@@ -5191,7 +5199,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="16">
+    <row r="115" spans="1:2" ht="15.6">
       <c r="A115" s="83" t="s">
         <v>929</v>
       </c>
@@ -5199,7 +5207,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="16">
+    <row r="116" spans="1:2" ht="15.6">
       <c r="A116" s="83" t="s">
         <v>929</v>
       </c>
@@ -5207,7 +5215,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="16">
+    <row r="117" spans="1:2" ht="15.6">
       <c r="A117" s="83" t="s">
         <v>929</v>
       </c>
@@ -5215,7 +5223,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="16">
+    <row r="118" spans="1:2" ht="15.6">
       <c r="A118" s="83" t="s">
         <v>929</v>
       </c>
@@ -5223,7 +5231,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="16">
+    <row r="119" spans="1:2" ht="15.6">
       <c r="A119" s="83" t="s">
         <v>929</v>
       </c>
@@ -5231,7 +5239,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="16">
+    <row r="120" spans="1:2" ht="15.6">
       <c r="A120" s="83" t="s">
         <v>929</v>
       </c>
@@ -5239,7 +5247,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="16">
+    <row r="121" spans="1:2" ht="15.6">
       <c r="A121" s="83" t="s">
         <v>929</v>
       </c>
@@ -5247,7 +5255,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="16">
+    <row r="122" spans="1:2" ht="15.6">
       <c r="A122" s="83" t="s">
         <v>929</v>
       </c>
@@ -5255,7 +5263,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="16">
+    <row r="123" spans="1:2" ht="15.6">
       <c r="A123" s="83" t="s">
         <v>929</v>
       </c>
@@ -5263,7 +5271,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="16">
+    <row r="124" spans="1:2" ht="15.6">
       <c r="A124" s="83" t="s">
         <v>929</v>
       </c>
@@ -5271,7 +5279,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="16">
+    <row r="125" spans="1:2" ht="15.6">
       <c r="A125" s="83" t="s">
         <v>929</v>
       </c>
@@ -5279,7 +5287,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="16">
+    <row r="126" spans="1:2" ht="15.6">
       <c r="A126" s="83" t="s">
         <v>929</v>
       </c>
@@ -5287,7 +5295,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="16">
+    <row r="127" spans="1:2" ht="15.6">
       <c r="A127" s="83" t="s">
         <v>929</v>
       </c>
@@ -5295,7 +5303,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="16">
+    <row r="128" spans="1:2" ht="15.6">
       <c r="A128" s="83" t="s">
         <v>929</v>
       </c>
@@ -5303,7 +5311,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="16">
+    <row r="129" spans="1:3" ht="15.6">
       <c r="A129" s="83" t="s">
         <v>929</v>
       </c>
@@ -5311,7 +5319,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="16">
+    <row r="130" spans="1:3" ht="15.6">
       <c r="A130" s="83" t="s">
         <v>929</v>
       </c>
@@ -5319,7 +5327,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="16">
+    <row r="131" spans="1:3" ht="15.6">
       <c r="A131" s="83" t="s">
         <v>929</v>
       </c>
@@ -5327,7 +5335,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="16">
+    <row r="132" spans="1:3" ht="15.6">
       <c r="A132" s="83" t="s">
         <v>929</v>
       </c>
@@ -5335,7 +5343,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="16">
+    <row r="133" spans="1:3" ht="15.6">
       <c r="A133" s="83" t="s">
         <v>929</v>
       </c>
@@ -5343,7 +5351,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="16">
+    <row r="134" spans="1:3" ht="15.6">
       <c r="A134" s="83" t="s">
         <v>929</v>
       </c>
@@ -5351,7 +5359,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="16">
+    <row r="135" spans="1:3" ht="15.6">
       <c r="A135" s="83" t="s">
         <v>929</v>
       </c>
@@ -5359,7 +5367,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="16">
+    <row r="136" spans="1:3" ht="15.6">
       <c r="A136" s="83" t="s">
         <v>929</v>
       </c>
@@ -5370,7 +5378,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="16">
+    <row r="137" spans="1:3" ht="15.6">
       <c r="A137" s="83" t="s">
         <v>929</v>
       </c>
@@ -5378,15 +5386,18 @@
         <v>722</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="16">
+    <row r="138" spans="1:3" ht="15.6">
       <c r="A138" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B138" s="7" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" ht="16">
+      <c r="C138" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15.6">
       <c r="A139" s="83" t="s">
         <v>929</v>
       </c>
@@ -5394,7 +5405,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="16">
+    <row r="140" spans="1:3" ht="15.6">
       <c r="A140" s="83" t="s">
         <v>929</v>
       </c>
@@ -5402,7 +5413,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="16">
+    <row r="141" spans="1:3" ht="15.6">
       <c r="A141" s="83" t="s">
         <v>929</v>
       </c>
@@ -5410,7 +5421,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="16">
+    <row r="142" spans="1:3" ht="15.6">
       <c r="A142" s="83" t="s">
         <v>929</v>
       </c>
@@ -5418,7 +5429,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="19">
+    <row r="143" spans="1:3" ht="18">
       <c r="A143" s="83" t="s">
         <v>929</v>
       </c>
@@ -5426,7 +5437,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="16">
+    <row r="144" spans="1:3" ht="15.6">
       <c r="A144" s="83" t="s">
         <v>929</v>
       </c>
@@ -5434,7 +5445,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="16">
+    <row r="145" spans="1:3" ht="15.6">
       <c r="A145" s="83" t="s">
         <v>929</v>
       </c>
@@ -5445,7 +5456,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="16">
+    <row r="146" spans="1:3" ht="15.6">
       <c r="A146" s="83" t="s">
         <v>929</v>
       </c>
@@ -5453,7 +5464,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="16">
+    <row r="147" spans="1:3" ht="15.6">
       <c r="A147" s="83" t="s">
         <v>929</v>
       </c>
@@ -5461,7 +5472,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="16">
+    <row r="148" spans="1:3" ht="15.6">
       <c r="A148" s="83" t="s">
         <v>929</v>
       </c>
@@ -5472,7 +5483,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="16">
+    <row r="149" spans="1:3" ht="15.6">
       <c r="A149" s="83" t="s">
         <v>929</v>
       </c>
@@ -5480,7 +5491,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="16">
+    <row r="150" spans="1:3" ht="15.6">
       <c r="A150" s="83" t="s">
         <v>929</v>
       </c>
@@ -5488,7 +5499,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="16">
+    <row r="151" spans="1:3" ht="15.6">
       <c r="A151" s="83" t="s">
         <v>929</v>
       </c>
@@ -5496,7 +5507,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="16">
+    <row r="152" spans="1:3" ht="15.6">
       <c r="A152" s="83" t="s">
         <v>929</v>
       </c>
@@ -5504,7 +5515,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="16">
+    <row r="153" spans="1:3" ht="15.6">
       <c r="A153" s="83" t="s">
         <v>929</v>
       </c>
@@ -5512,7 +5523,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="16">
+    <row r="154" spans="1:3" ht="15.6">
       <c r="A154" s="83" t="s">
         <v>929</v>
       </c>
@@ -5520,7 +5531,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="16">
+    <row r="155" spans="1:3" ht="15.6">
       <c r="A155" s="83" t="s">
         <v>929</v>
       </c>
@@ -5528,7 +5539,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="16">
+    <row r="156" spans="1:3" ht="15.6">
       <c r="A156" s="83" t="s">
         <v>929</v>
       </c>
@@ -5536,7 +5547,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="16">
+    <row r="157" spans="1:3" ht="15.6">
       <c r="A157" s="83" t="s">
         <v>929</v>
       </c>
@@ -5544,7 +5555,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="16">
+    <row r="158" spans="1:3" ht="15.6">
       <c r="A158" s="83" t="s">
         <v>929</v>
       </c>
@@ -5552,7 +5563,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="16">
+    <row r="159" spans="1:3" ht="15.6">
       <c r="A159" s="83" t="s">
         <v>929</v>
       </c>
@@ -5560,7 +5571,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="16">
+    <row r="160" spans="1:3" ht="15.6">
       <c r="A160" s="83" t="s">
         <v>929</v>
       </c>
@@ -5568,7 +5579,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="16">
+    <row r="161" spans="1:2" ht="15.6">
       <c r="A161" s="83" t="s">
         <v>929</v>
       </c>
@@ -5576,7 +5587,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="16">
+    <row r="162" spans="1:2" ht="15.6">
       <c r="A162" s="83" t="s">
         <v>929</v>
       </c>
@@ -5584,7 +5595,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="16">
+    <row r="163" spans="1:2" ht="15.6">
       <c r="A163" s="83" t="s">
         <v>929</v>
       </c>
@@ -5592,7 +5603,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="16">
+    <row r="164" spans="1:2" ht="15.6">
       <c r="A164" s="83" t="s">
         <v>929</v>
       </c>
@@ -5600,7 +5611,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="16">
+    <row r="165" spans="1:2" ht="15.6">
       <c r="A165" s="83" t="s">
         <v>929</v>
       </c>
@@ -5608,7 +5619,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="16">
+    <row r="166" spans="1:2" ht="15.6">
       <c r="A166" s="83" t="s">
         <v>929</v>
       </c>
@@ -5616,7 +5627,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="16">
+    <row r="167" spans="1:2" ht="15.6">
       <c r="A167" s="83" t="s">
         <v>929</v>
       </c>
@@ -5624,7 +5635,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="19">
+    <row r="168" spans="1:2" ht="18">
       <c r="A168" s="83" t="s">
         <v>929</v>
       </c>
@@ -5632,7 +5643,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="16">
+    <row r="169" spans="1:2" ht="15.6">
       <c r="A169" s="83" t="s">
         <v>929</v>
       </c>
@@ -5640,7 +5651,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="16">
+    <row r="170" spans="1:2" ht="15.6">
       <c r="A170" s="83" t="s">
         <v>929</v>
       </c>
@@ -5648,7 +5659,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="16">
+    <row r="171" spans="1:2" ht="15.6">
       <c r="A171" s="83" t="s">
         <v>929</v>
       </c>
@@ -5656,7 +5667,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="16">
+    <row r="172" spans="1:2" ht="15.6">
       <c r="A172" s="83" t="s">
         <v>929</v>
       </c>
@@ -5664,7 +5675,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="16">
+    <row r="173" spans="1:2" ht="15.6">
       <c r="A173" s="83" t="s">
         <v>929</v>
       </c>
@@ -5672,7 +5683,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="16">
+    <row r="174" spans="1:2" ht="15.6">
       <c r="A174" s="83" t="s">
         <v>929</v>
       </c>
@@ -5680,7 +5691,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="16">
+    <row r="175" spans="1:2" ht="15.6">
       <c r="A175" s="83" t="s">
         <v>929</v>
       </c>
@@ -5688,7 +5699,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="16">
+    <row r="176" spans="1:2" ht="15.6">
       <c r="A176" s="83" t="s">
         <v>929</v>
       </c>
@@ -5696,7 +5707,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="16">
+    <row r="177" spans="1:2" ht="15.6">
       <c r="A177" s="83" t="s">
         <v>929</v>
       </c>
@@ -5704,7 +5715,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="16">
+    <row r="178" spans="1:2" ht="15.6">
       <c r="A178" s="83" t="s">
         <v>929</v>
       </c>
@@ -5712,7 +5723,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="16">
+    <row r="179" spans="1:2" ht="15.6">
       <c r="A179" s="83" t="s">
         <v>929</v>
       </c>
@@ -5720,7 +5731,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="16">
+    <row r="180" spans="1:2" ht="15.6">
       <c r="A180" s="83" t="s">
         <v>929</v>
       </c>
@@ -5728,7 +5739,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="16">
+    <row r="181" spans="1:2" ht="15.6">
       <c r="A181" s="83" t="s">
         <v>929</v>
       </c>
@@ -5736,7 +5747,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="16">
+    <row r="182" spans="1:2" ht="15.6">
       <c r="A182" s="83" t="s">
         <v>929</v>
       </c>
@@ -5744,7 +5755,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="16">
+    <row r="183" spans="1:2" ht="15.6">
       <c r="A183" s="83" t="s">
         <v>929</v>
       </c>
@@ -5752,7 +5763,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="16">
+    <row r="184" spans="1:2" ht="15.6">
       <c r="A184" s="83" t="s">
         <v>929</v>
       </c>
@@ -5760,7 +5771,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="16">
+    <row r="185" spans="1:2" ht="15.6">
       <c r="A185" s="83" t="s">
         <v>929</v>
       </c>
@@ -5768,7 +5779,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="16">
+    <row r="186" spans="1:2" ht="15.6">
       <c r="A186" s="83" t="s">
         <v>929</v>
       </c>
@@ -5776,7 +5787,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="16">
+    <row r="187" spans="1:2" ht="15.6">
       <c r="A187" s="83" t="s">
         <v>929</v>
       </c>
@@ -5784,7 +5795,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="16">
+    <row r="188" spans="1:2" ht="15.6">
       <c r="A188" s="83" t="s">
         <v>929</v>
       </c>
@@ -5792,7 +5803,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="16">
+    <row r="189" spans="1:2" ht="15.6">
       <c r="A189" s="83" t="s">
         <v>929</v>
       </c>
@@ -5800,7 +5811,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="16">
+    <row r="190" spans="1:2" ht="15.6">
       <c r="A190" s="83" t="s">
         <v>929</v>
       </c>
@@ -5808,7 +5819,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="16">
+    <row r="191" spans="1:2" ht="15.6">
       <c r="A191" s="83" t="s">
         <v>929</v>
       </c>
@@ -5816,7 +5827,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="16">
+    <row r="192" spans="1:2" ht="15.6">
       <c r="A192" s="83" t="s">
         <v>929</v>
       </c>
@@ -5824,7 +5835,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="16">
+    <row r="193" spans="1:2" ht="15.6">
       <c r="A193" s="83" t="s">
         <v>929</v>
       </c>
@@ -5832,7 +5843,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="16">
+    <row r="194" spans="1:2" ht="15.6">
       <c r="A194" s="83" t="s">
         <v>929</v>
       </c>
@@ -5840,7 +5851,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="16">
+    <row r="195" spans="1:2" ht="15.6">
       <c r="A195" s="83" t="s">
         <v>929</v>
       </c>
@@ -5848,7 +5859,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="16">
+    <row r="196" spans="1:2" ht="15.6">
       <c r="A196" s="83" t="s">
         <v>929</v>
       </c>
@@ -5856,7 +5867,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="16">
+    <row r="197" spans="1:2" ht="15.6">
       <c r="A197" s="83" t="s">
         <v>929</v>
       </c>
@@ -5864,7 +5875,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="16">
+    <row r="198" spans="1:2" ht="15.6">
       <c r="A198" s="83" t="s">
         <v>929</v>
       </c>
@@ -5872,7 +5883,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="19">
+    <row r="199" spans="1:2" ht="18">
       <c r="A199" s="83" t="s">
         <v>929</v>
       </c>
@@ -5880,7 +5891,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="16">
+    <row r="200" spans="1:2" ht="15.6">
       <c r="A200" s="83" t="s">
         <v>929</v>
       </c>
@@ -5888,7 +5899,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="16">
+    <row r="201" spans="1:2" ht="15.6">
       <c r="A201" s="83" t="s">
         <v>929</v>
       </c>
@@ -5896,7 +5907,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="16">
+    <row r="202" spans="1:2" ht="15.6">
       <c r="A202" s="83" t="s">
         <v>929</v>
       </c>
@@ -5904,7 +5915,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="16">
+    <row r="203" spans="1:2" ht="15.6">
       <c r="A203" s="83" t="s">
         <v>929</v>
       </c>
@@ -5912,7 +5923,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="16">
+    <row r="204" spans="1:2" ht="15.6">
       <c r="A204" s="83" t="s">
         <v>929</v>
       </c>
@@ -5920,7 +5931,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="16">
+    <row r="205" spans="1:2" ht="15.6">
       <c r="A205" s="83" t="s">
         <v>929</v>
       </c>
@@ -5928,7 +5939,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="16">
+    <row r="206" spans="1:2" ht="15.6">
       <c r="A206" s="83" t="s">
         <v>929</v>
       </c>
@@ -5936,7 +5947,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="16">
+    <row r="207" spans="1:2" ht="15.6">
       <c r="A207" s="83" t="s">
         <v>929</v>
       </c>
@@ -5944,7 +5955,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="16">
+    <row r="208" spans="1:2" ht="15.6">
       <c r="A208" s="83" t="s">
         <v>929</v>
       </c>
@@ -5952,7 +5963,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="16">
+    <row r="209" spans="1:4" ht="15.6">
       <c r="A209" s="83" t="s">
         <v>929</v>
       </c>
@@ -5960,7 +5971,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="16">
+    <row r="210" spans="1:4" ht="15.6">
       <c r="A210" s="83" t="s">
         <v>929</v>
       </c>
@@ -5978,7 +5989,7 @@
       </c>
       <c r="D211" s="5"/>
     </row>
-    <row r="212" spans="1:4" ht="19">
+    <row r="212" spans="1:4" ht="18">
       <c r="A212" s="83" t="s">
         <v>589</v>
       </c>
@@ -5986,7 +5997,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="16">
+    <row r="213" spans="1:4" ht="15.6">
       <c r="A213" s="83" t="s">
         <v>589</v>
       </c>
@@ -5994,7 +6005,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="16">
+    <row r="214" spans="1:4" ht="15.6">
       <c r="A214" s="83" t="s">
         <v>589</v>
       </c>
@@ -6002,7 +6013,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="16">
+    <row r="215" spans="1:4" ht="15.6">
       <c r="A215" s="83" t="s">
         <v>589</v>
       </c>
@@ -6010,7 +6021,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="16">
+    <row r="216" spans="1:4" ht="15.6">
       <c r="A216" s="83" t="s">
         <v>589</v>
       </c>
@@ -6018,7 +6029,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="16">
+    <row r="217" spans="1:4" ht="15.6">
       <c r="A217" s="83" t="s">
         <v>589</v>
       </c>
@@ -6026,7 +6037,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="16">
+    <row r="218" spans="1:4" ht="15.6">
       <c r="A218" s="83" t="s">
         <v>589</v>
       </c>
@@ -6034,7 +6045,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="16">
+    <row r="219" spans="1:4" ht="15.6">
       <c r="A219" s="83" t="s">
         <v>589</v>
       </c>
@@ -6042,7 +6053,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="16">
+    <row r="220" spans="1:4" ht="15.6">
       <c r="A220" s="83" t="s">
         <v>589</v>
       </c>
@@ -6050,7 +6061,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="16">
+    <row r="221" spans="1:4" ht="15.6">
       <c r="A221" s="83" t="s">
         <v>589</v>
       </c>
@@ -6058,7 +6069,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="16">
+    <row r="222" spans="1:4" ht="15.6">
       <c r="A222" s="83" t="s">
         <v>589</v>
       </c>
@@ -6066,7 +6077,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="16">
+    <row r="223" spans="1:4" ht="15.6">
       <c r="A223" s="83" t="s">
         <v>589</v>
       </c>
@@ -6074,7 +6085,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="16">
+    <row r="224" spans="1:4" ht="15.6">
       <c r="A224" s="83" t="s">
         <v>589</v>
       </c>
@@ -6082,7 +6093,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="16">
+    <row r="225" spans="1:2" ht="15.6">
       <c r="A225" s="83" t="s">
         <v>589</v>
       </c>
@@ -6090,7 +6101,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="16">
+    <row r="226" spans="1:2" ht="15.6">
       <c r="A226" s="83" t="s">
         <v>589</v>
       </c>
@@ -6098,7 +6109,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="16">
+    <row r="227" spans="1:2" ht="15.6">
       <c r="A227" s="83" t="s">
         <v>589</v>
       </c>
@@ -6106,7 +6117,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="19">
+    <row r="228" spans="1:2" ht="18">
       <c r="A228" s="83" t="s">
         <v>589</v>
       </c>
@@ -6114,7 +6125,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="16">
+    <row r="229" spans="1:2" ht="15.6">
       <c r="A229" s="83" t="s">
         <v>589</v>
       </c>
@@ -6122,7 +6133,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="16">
+    <row r="230" spans="1:2" ht="15.6">
       <c r="A230" s="83" t="s">
         <v>589</v>
       </c>
@@ -6130,7 +6141,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="16">
+    <row r="231" spans="1:2" ht="15.6">
       <c r="A231" s="83" t="s">
         <v>589</v>
       </c>
@@ -6138,7 +6149,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="16">
+    <row r="232" spans="1:2" ht="15.6">
       <c r="A232" s="83" t="s">
         <v>589</v>
       </c>
@@ -6146,7 +6157,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="19">
+    <row r="233" spans="1:2" ht="18">
       <c r="A233" s="83" t="s">
         <v>589</v>
       </c>
@@ -6154,7 +6165,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="16">
+    <row r="234" spans="1:2" ht="15.6">
       <c r="A234" s="83" t="s">
         <v>589</v>
       </c>
@@ -6162,7 +6173,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="16">
+    <row r="235" spans="1:2" ht="15.6">
       <c r="A235" s="83" t="s">
         <v>589</v>
       </c>
@@ -6170,7 +6181,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="16">
+    <row r="236" spans="1:2" ht="15.6">
       <c r="A236" s="83" t="s">
         <v>589</v>
       </c>
@@ -6178,7 +6189,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="16">
+    <row r="237" spans="1:2" ht="15.6">
       <c r="A237" s="83" t="s">
         <v>589</v>
       </c>
@@ -6186,7 +6197,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="16">
+    <row r="238" spans="1:2" ht="15.6">
       <c r="A238" s="83" t="s">
         <v>589</v>
       </c>
@@ -6194,7 +6205,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="16">
+    <row r="239" spans="1:2" ht="15.6">
       <c r="A239" s="83" t="s">
         <v>589</v>
       </c>
@@ -6202,7 +6213,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="16">
+    <row r="240" spans="1:2" ht="15.6">
       <c r="A240" s="83" t="s">
         <v>589</v>
       </c>
@@ -6210,7 +6221,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="16">
+    <row r="241" spans="1:4" ht="15.6">
       <c r="A241" s="83" t="s">
         <v>589</v>
       </c>
@@ -6218,7 +6229,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="16">
+    <row r="242" spans="1:4" ht="15.6">
       <c r="A242" s="83" t="s">
         <v>589</v>
       </c>
@@ -6226,7 +6237,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="16">
+    <row r="243" spans="1:4" ht="15.6">
       <c r="A243" s="83" t="s">
         <v>589</v>
       </c>
@@ -6234,7 +6245,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="16">
+    <row r="244" spans="1:4" ht="15.6">
       <c r="A244" s="83" t="s">
         <v>589</v>
       </c>
@@ -6252,7 +6263,7 @@
       </c>
       <c r="D245" s="5"/>
     </row>
-    <row r="246" spans="1:4" ht="19">
+    <row r="246" spans="1:4" ht="18">
       <c r="A246" s="83" t="s">
         <v>590</v>
       </c>
@@ -6260,7 +6271,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="16">
+    <row r="247" spans="1:4" ht="15.6">
       <c r="A247" s="83" t="s">
         <v>590</v>
       </c>
@@ -6268,7 +6279,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="16">
+    <row r="248" spans="1:4" ht="15.6">
       <c r="A248" s="83" t="s">
         <v>590</v>
       </c>
@@ -6276,7 +6287,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="16">
+    <row r="249" spans="1:4" ht="15.6">
       <c r="A249" s="83" t="s">
         <v>590</v>
       </c>
@@ -6284,7 +6295,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="16">
+    <row r="250" spans="1:4" ht="15.6">
       <c r="A250" s="83" t="s">
         <v>590</v>
       </c>
@@ -6292,7 +6303,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="16">
+    <row r="251" spans="1:4" ht="15.6">
       <c r="A251" s="83" t="s">
         <v>590</v>
       </c>
@@ -6300,7 +6311,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="16">
+    <row r="252" spans="1:4" ht="15.6">
       <c r="A252" s="83" t="s">
         <v>590</v>
       </c>
@@ -6308,7 +6319,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="16">
+    <row r="253" spans="1:4" ht="15.6">
       <c r="A253" s="83" t="s">
         <v>590</v>
       </c>
@@ -6316,7 +6327,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="19">
+    <row r="254" spans="1:4" ht="18">
       <c r="A254" s="83" t="s">
         <v>590</v>
       </c>
@@ -6324,7 +6335,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="16">
+    <row r="255" spans="1:4" ht="15.6">
       <c r="A255" s="83" t="s">
         <v>590</v>
       </c>
@@ -6332,7 +6343,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="16">
+    <row r="256" spans="1:4" ht="15.6">
       <c r="A256" s="83" t="s">
         <v>590</v>
       </c>
@@ -6340,7 +6351,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="16">
+    <row r="257" spans="1:2" ht="15.6">
       <c r="A257" s="83" t="s">
         <v>590</v>
       </c>
@@ -6348,7 +6359,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="16">
+    <row r="258" spans="1:2" ht="15.6">
       <c r="A258" s="83" t="s">
         <v>590</v>
       </c>
@@ -6356,7 +6367,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="16">
+    <row r="259" spans="1:2" ht="15.6">
       <c r="A259" s="83" t="s">
         <v>590</v>
       </c>
@@ -6364,7 +6375,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="16">
+    <row r="260" spans="1:2" ht="15.6">
       <c r="A260" s="83" t="s">
         <v>590</v>
       </c>
@@ -6372,7 +6383,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="16">
+    <row r="261" spans="1:2" ht="15.6">
       <c r="A261" s="83" t="s">
         <v>590</v>
       </c>
@@ -6380,7 +6391,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="16">
+    <row r="262" spans="1:2" ht="15.6">
       <c r="A262" s="83" t="s">
         <v>590</v>
       </c>
@@ -6388,7 +6399,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="16">
+    <row r="263" spans="1:2" ht="15.6">
       <c r="A263" s="83" t="s">
         <v>590</v>
       </c>
@@ -6396,7 +6407,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="16">
+    <row r="264" spans="1:2" ht="15.6">
       <c r="A264" s="83" t="s">
         <v>590</v>
       </c>
@@ -6404,7 +6415,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="16">
+    <row r="265" spans="1:2" ht="15.6">
       <c r="A265" s="83" t="s">
         <v>590</v>
       </c>
@@ -6412,7 +6423,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="16">
+    <row r="266" spans="1:2" ht="15.6">
       <c r="A266" s="83" t="s">
         <v>590</v>
       </c>
@@ -6420,7 +6431,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="16">
+    <row r="267" spans="1:2" ht="15.6">
       <c r="A267" s="83" t="s">
         <v>590</v>
       </c>
@@ -6428,7 +6439,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="16">
+    <row r="268" spans="1:2" ht="15.6">
       <c r="A268" s="83" t="s">
         <v>590</v>
       </c>
@@ -6436,7 +6447,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="16">
+    <row r="269" spans="1:2" ht="15.6">
       <c r="A269" s="83" t="s">
         <v>590</v>
       </c>
@@ -6444,7 +6455,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="16">
+    <row r="270" spans="1:2" ht="15.6">
       <c r="A270" s="83" t="s">
         <v>590</v>
       </c>
@@ -6452,7 +6463,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="16">
+    <row r="271" spans="1:2" ht="15.6">
       <c r="A271" s="83" t="s">
         <v>590</v>
       </c>
@@ -6460,7 +6471,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="16">
+    <row r="272" spans="1:2" ht="15.6">
       <c r="A272" s="83" t="s">
         <v>590</v>
       </c>
@@ -6468,7 +6479,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="16">
+    <row r="273" spans="1:4" ht="15.6">
       <c r="A273" s="83" t="s">
         <v>590</v>
       </c>
@@ -6476,7 +6487,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="16">
+    <row r="274" spans="1:4" ht="15.6">
       <c r="A274" s="83" t="s">
         <v>590</v>
       </c>
@@ -6484,7 +6495,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="19">
+    <row r="275" spans="1:4" ht="18">
       <c r="A275" s="83" t="s">
         <v>590</v>
       </c>
@@ -6492,7 +6503,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="16">
+    <row r="276" spans="1:4" ht="15.6">
       <c r="A276" s="83" t="s">
         <v>590</v>
       </c>
@@ -6500,7 +6511,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="16">
+    <row r="277" spans="1:4" ht="15.6">
       <c r="A277" s="83" t="s">
         <v>590</v>
       </c>
@@ -6508,7 +6519,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="16">
+    <row r="278" spans="1:4" ht="15.6">
       <c r="A278" s="83" t="s">
         <v>590</v>
       </c>
@@ -6516,7 +6527,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="16">
+    <row r="279" spans="1:4" ht="15.6">
       <c r="A279" s="83" t="s">
         <v>590</v>
       </c>
@@ -6524,7 +6535,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="16">
+    <row r="280" spans="1:4" ht="15.6">
       <c r="A280" s="83" t="s">
         <v>590</v>
       </c>
@@ -6532,7 +6543,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="16">
+    <row r="281" spans="1:4" ht="15.6">
       <c r="A281" s="83" t="s">
         <v>590</v>
       </c>
@@ -6540,7 +6551,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="16">
+    <row r="282" spans="1:4" ht="15.6">
       <c r="A282" s="83" t="s">
         <v>590</v>
       </c>
@@ -6548,7 +6559,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="16">
+    <row r="283" spans="1:4" ht="15.6">
       <c r="A283" s="83" t="s">
         <v>590</v>
       </c>
@@ -6556,7 +6567,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="16">
+    <row r="284" spans="1:4" ht="15.6">
       <c r="A284" s="83" t="s">
         <v>590</v>
       </c>
@@ -6564,7 +6575,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="16">
+    <row r="285" spans="1:4" ht="15.6">
       <c r="A285" s="83" t="s">
         <v>590</v>
       </c>
@@ -6572,7 +6583,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="16">
+    <row r="286" spans="1:4" ht="15.6">
       <c r="A286" s="83" t="s">
         <v>590</v>
       </c>
@@ -6590,7 +6601,7 @@
       </c>
       <c r="D287" s="5"/>
     </row>
-    <row r="288" spans="1:4" ht="19">
+    <row r="288" spans="1:4" ht="18">
       <c r="A288" s="83" t="s">
         <v>930</v>
       </c>
@@ -6598,7 +6609,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="16">
+    <row r="289" spans="1:3" ht="15.6">
       <c r="A289" s="83" t="s">
         <v>930</v>
       </c>
@@ -6606,7 +6617,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="16">
+    <row r="290" spans="1:3" ht="15.6">
       <c r="A290" s="83" t="s">
         <v>930</v>
       </c>
@@ -6614,7 +6625,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="16">
+    <row r="291" spans="1:3" ht="15.6">
       <c r="A291" s="83" t="s">
         <v>930</v>
       </c>
@@ -6622,7 +6633,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="16">
+    <row r="292" spans="1:3" ht="15.6">
       <c r="A292" s="83" t="s">
         <v>930</v>
       </c>
@@ -6630,7 +6641,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="16">
+    <row r="293" spans="1:3" ht="15.6">
       <c r="A293" s="83" t="s">
         <v>930</v>
       </c>
@@ -6638,7 +6649,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="16">
+    <row r="294" spans="1:3" ht="15.6">
       <c r="A294" s="83" t="s">
         <v>930</v>
       </c>
@@ -6646,7 +6657,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="16">
+    <row r="295" spans="1:3" ht="15.6">
       <c r="A295" s="83" t="s">
         <v>930</v>
       </c>
@@ -6654,7 +6665,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="16">
+    <row r="296" spans="1:3" ht="15.6">
       <c r="A296" s="83" t="s">
         <v>930</v>
       </c>
@@ -6662,7 +6673,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="16">
+    <row r="297" spans="1:3" ht="15.6">
       <c r="A297" s="83" t="s">
         <v>930</v>
       </c>
@@ -6670,7 +6681,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="19">
+    <row r="298" spans="1:3" ht="18">
       <c r="A298" s="83" t="s">
         <v>930</v>
       </c>
@@ -6678,7 +6689,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="16">
+    <row r="299" spans="1:3" ht="15.6">
       <c r="A299" s="83" t="s">
         <v>930</v>
       </c>
@@ -6686,7 +6697,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="16">
+    <row r="300" spans="1:3" ht="15.6">
       <c r="A300" s="83" t="s">
         <v>930</v>
       </c>
@@ -6697,7 +6708,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="16">
+    <row r="301" spans="1:3" ht="15.6">
       <c r="A301" s="83" t="s">
         <v>930</v>
       </c>
@@ -6708,7 +6719,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="16">
+    <row r="302" spans="1:3" ht="15.6">
       <c r="A302" s="83" t="s">
         <v>930</v>
       </c>
@@ -6719,7 +6730,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="16">
+    <row r="303" spans="1:3" ht="15.6">
       <c r="A303" s="83" t="s">
         <v>930</v>
       </c>
@@ -6730,7 +6741,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="16">
+    <row r="304" spans="1:3" ht="15.6">
       <c r="A304" s="83" t="s">
         <v>930</v>
       </c>
@@ -6738,7 +6749,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="16">
+    <row r="305" spans="1:2" ht="15.6">
       <c r="A305" s="83" t="s">
         <v>930</v>
       </c>
@@ -6746,7 +6757,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="16">
+    <row r="306" spans="1:2" ht="15.6">
       <c r="A306" s="83" t="s">
         <v>930</v>
       </c>
@@ -6754,7 +6765,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="16">
+    <row r="307" spans="1:2" ht="15.6">
       <c r="A307" s="83" t="s">
         <v>930</v>
       </c>
@@ -6762,7 +6773,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="16">
+    <row r="308" spans="1:2" ht="15.6">
       <c r="A308" s="83" t="s">
         <v>930</v>
       </c>
@@ -6770,7 +6781,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="19">
+    <row r="309" spans="1:2" ht="18">
       <c r="A309" s="83" t="s">
         <v>930</v>
       </c>
@@ -6778,7 +6789,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="310" spans="1:2" ht="16">
+    <row r="310" spans="1:2" ht="15.6">
       <c r="A310" s="83" t="s">
         <v>930</v>
       </c>
@@ -6786,7 +6797,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="16">
+    <row r="311" spans="1:2" ht="15.6">
       <c r="A311" s="83" t="s">
         <v>930</v>
       </c>
@@ -6794,7 +6805,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="312" spans="1:2" ht="16">
+    <row r="312" spans="1:2" ht="15.6">
       <c r="A312" s="83" t="s">
         <v>930</v>
       </c>
@@ -6802,7 +6813,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="16">
+    <row r="313" spans="1:2" ht="15.6">
       <c r="A313" s="83" t="s">
         <v>930</v>
       </c>
@@ -6810,7 +6821,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="16">
+    <row r="314" spans="1:2" ht="15.6">
       <c r="A314" s="83" t="s">
         <v>930</v>
       </c>
@@ -6818,7 +6829,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="16">
+    <row r="315" spans="1:2" ht="15.6">
       <c r="A315" s="83" t="s">
         <v>930</v>
       </c>
@@ -6826,7 +6837,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="16">
+    <row r="316" spans="1:2" ht="15.6">
       <c r="A316" s="83" t="s">
         <v>930</v>
       </c>
@@ -6834,7 +6845,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="317" spans="1:2" ht="16">
+    <row r="317" spans="1:2" ht="15.6">
       <c r="A317" s="83" t="s">
         <v>930</v>
       </c>
@@ -6842,7 +6853,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="16">
+    <row r="318" spans="1:2" ht="15.6">
       <c r="A318" s="83" t="s">
         <v>930</v>
       </c>
@@ -6850,7 +6861,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="319" spans="1:2" ht="16">
+    <row r="319" spans="1:2" ht="15.6">
       <c r="A319" s="83" t="s">
         <v>930</v>
       </c>
@@ -6858,7 +6869,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="16">
+    <row r="320" spans="1:2" ht="15.6">
       <c r="A320" s="83" t="s">
         <v>930</v>
       </c>
@@ -6866,7 +6877,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="16">
+    <row r="321" spans="1:2" ht="15.6">
       <c r="A321" s="83" t="s">
         <v>930</v>
       </c>
@@ -6874,7 +6885,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="322" spans="1:2" ht="16">
+    <row r="322" spans="1:2" ht="15.6">
       <c r="A322" s="83" t="s">
         <v>930</v>
       </c>
@@ -6882,7 +6893,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="16">
+    <row r="323" spans="1:2" ht="15.6">
       <c r="A323" s="83" t="s">
         <v>930</v>
       </c>
@@ -6890,7 +6901,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="16">
+    <row r="324" spans="1:2" ht="15.6">
       <c r="A324" s="83" t="s">
         <v>930</v>
       </c>
@@ -6898,7 +6909,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="16">
+    <row r="325" spans="1:2" ht="15.6">
       <c r="A325" s="83" t="s">
         <v>930</v>
       </c>
@@ -6906,7 +6917,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="19">
+    <row r="326" spans="1:2" ht="18">
       <c r="A326" s="83" t="s">
         <v>930</v>
       </c>
@@ -6914,7 +6925,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="16">
+    <row r="327" spans="1:2" ht="15.6">
       <c r="A327" s="83" t="s">
         <v>930</v>
       </c>
@@ -6922,7 +6933,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="16">
+    <row r="328" spans="1:2" ht="15.6">
       <c r="A328" s="83" t="s">
         <v>930</v>
       </c>
@@ -6930,7 +6941,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="16">
+    <row r="329" spans="1:2" ht="15.6">
       <c r="A329" s="83" t="s">
         <v>930</v>
       </c>
@@ -6938,7 +6949,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="16">
+    <row r="330" spans="1:2" ht="15.6">
       <c r="A330" s="83" t="s">
         <v>930</v>
       </c>
@@ -6946,7 +6957,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="16">
+    <row r="331" spans="1:2" ht="15.6">
       <c r="A331" s="83" t="s">
         <v>930</v>
       </c>
@@ -6954,7 +6965,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="16">
+    <row r="332" spans="1:2" ht="15.6">
       <c r="A332" s="83" t="s">
         <v>930</v>
       </c>
@@ -6962,7 +6973,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="333" spans="1:2" ht="16">
+    <row r="333" spans="1:2" ht="15.6">
       <c r="A333" s="83" t="s">
         <v>930</v>
       </c>
@@ -6970,7 +6981,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="334" spans="1:2" ht="16">
+    <row r="334" spans="1:2" ht="15.6">
       <c r="A334" s="83" t="s">
         <v>930</v>
       </c>
@@ -6978,7 +6989,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="335" spans="1:2" ht="16">
+    <row r="335" spans="1:2" ht="15.6">
       <c r="A335" s="83" t="s">
         <v>930</v>
       </c>
@@ -6986,7 +6997,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="336" spans="1:2" ht="16">
+    <row r="336" spans="1:2" ht="15.6">
       <c r="A336" s="83" t="s">
         <v>930</v>
       </c>
@@ -6994,7 +7005,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="337" spans="1:2" ht="16">
+    <row r="337" spans="1:2" ht="15.6">
       <c r="A337" s="83" t="s">
         <v>930</v>
       </c>
@@ -7002,7 +7013,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="338" spans="1:2" ht="19">
+    <row r="338" spans="1:2" ht="18">
       <c r="A338" s="83" t="s">
         <v>930</v>
       </c>
@@ -7010,7 +7021,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="16">
+    <row r="339" spans="1:2" ht="15.6">
       <c r="A339" s="83" t="s">
         <v>930</v>
       </c>
@@ -7018,7 +7029,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="340" spans="1:2" ht="16">
+    <row r="340" spans="1:2" ht="15.6">
       <c r="A340" s="83" t="s">
         <v>930</v>
       </c>
@@ -7026,7 +7037,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="341" spans="1:2" ht="16">
+    <row r="341" spans="1:2" ht="15.6">
       <c r="A341" s="83" t="s">
         <v>930</v>
       </c>
@@ -7034,7 +7045,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="342" spans="1:2" ht="16">
+    <row r="342" spans="1:2" ht="15.6">
       <c r="A342" s="83" t="s">
         <v>930</v>
       </c>
@@ -7042,7 +7053,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="343" spans="1:2" ht="16">
+    <row r="343" spans="1:2" ht="15.6">
       <c r="A343" s="83" t="s">
         <v>930</v>
       </c>
@@ -7050,7 +7061,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="16">
+    <row r="344" spans="1:2" ht="15.6">
       <c r="A344" s="83" t="s">
         <v>930</v>
       </c>
@@ -7058,7 +7069,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="16">
+    <row r="345" spans="1:2" ht="15.6">
       <c r="A345" s="83" t="s">
         <v>930</v>
       </c>
@@ -7066,7 +7077,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="346" spans="1:2" ht="16">
+    <row r="346" spans="1:2" ht="15.6">
       <c r="A346" s="83" t="s">
         <v>930</v>
       </c>
@@ -7074,7 +7085,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="347" spans="1:2" ht="16">
+    <row r="347" spans="1:2" ht="15.6">
       <c r="A347" s="83" t="s">
         <v>930</v>
       </c>
@@ -7082,7 +7093,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="348" spans="1:2" ht="16">
+    <row r="348" spans="1:2" ht="15.6">
       <c r="A348" s="83" t="s">
         <v>930</v>
       </c>
@@ -7090,7 +7101,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="349" spans="1:2" ht="16">
+    <row r="349" spans="1:2" ht="15.6">
       <c r="A349" s="83" t="s">
         <v>930</v>
       </c>
@@ -7150,14 +7161,14 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D73" r:id="rId1" xr:uid="{FE5C3F70-7A61-E741-BDF5-6C3348C70F2C}"/>
+    <hyperlink ref="D73" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -7170,19 +7181,19 @@
       <selection pane="bottomRight" activeCell="B298" sqref="B298"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="91.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" customWidth="1"/>
-    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" customWidth="1"/>
     <col min="5" max="5" width="22.33203125" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" style="12" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="24">
+    <row r="1" spans="1:16" ht="23.4">
       <c r="A1" s="93"/>
       <c r="B1" s="93"/>
       <c r="C1" s="93"/>
@@ -7192,7 +7203,7 @@
       </c>
       <c r="F1" s="90">
         <f ca="1">(TODAY()-H1)*-1</f>
-        <v>-49</v>
+        <v>-60</v>
       </c>
       <c r="G1" s="91" t="s">
         <v>10</v>
@@ -7201,7 +7212,7 @@
         <v>43467</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17" thickBot="1">
+    <row r="2" spans="1:16" ht="16.2" thickBot="1">
       <c r="A2" s="95" t="s">
         <v>940</v>
       </c>
@@ -7239,7 +7250,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:16" ht="19">
+    <row r="4" spans="1:16" ht="18">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -7253,7 +7264,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:16" ht="16">
+    <row r="5" spans="1:16" ht="15.6">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -7267,7 +7278,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:16" ht="16">
+    <row r="6" spans="1:16" ht="15.6">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -7281,7 +7292,7 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
     </row>
-    <row r="7" spans="1:16" ht="16">
+    <row r="7" spans="1:16" ht="15.6">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -7295,7 +7306,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:16" ht="16">
+    <row r="8" spans="1:16" ht="15.6">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -7309,7 +7320,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:16" ht="16">
+    <row r="9" spans="1:16" ht="15.6">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -7323,7 +7334,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:16" ht="16">
+    <row r="10" spans="1:16" ht="15.6">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -7337,7 +7348,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:16" ht="16">
+    <row r="11" spans="1:16" ht="15.6">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -7351,7 +7362,7 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:16" ht="16">
+    <row r="12" spans="1:16" ht="15.6">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -7365,7 +7376,7 @@
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:16" ht="16">
+    <row r="13" spans="1:16" ht="15.6">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -7379,7 +7390,7 @@
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:16" ht="16">
+    <row r="14" spans="1:16" ht="15.6">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -7393,7 +7404,7 @@
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:16" ht="16">
+    <row r="15" spans="1:16" ht="15.6">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
@@ -7407,7 +7418,7 @@
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="1:16" ht="16">
+    <row r="16" spans="1:16" ht="15.6">
       <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
@@ -7421,7 +7432,7 @@
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="1:8" ht="16">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -7435,7 +7446,7 @@
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="1:8" ht="16">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
@@ -7449,7 +7460,7 @@
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" spans="1:8" ht="16">
+    <row r="19" spans="1:8" ht="15.6">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -7463,7 +7474,7 @@
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="1:8" ht="16">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="4" t="s">
         <v>11</v>
       </c>
@@ -7477,7 +7488,7 @@
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
     </row>
-    <row r="21" spans="1:8" ht="16">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="4" t="s">
         <v>11</v>
       </c>
@@ -7491,7 +7502,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="1:8" ht="16">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="4" t="s">
         <v>11</v>
       </c>
@@ -7505,7 +7516,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="1:8" ht="16">
+    <row r="23" spans="1:8" ht="15.6">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
@@ -7519,7 +7530,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="1:8" ht="16">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="4" t="s">
         <v>11</v>
       </c>
@@ -7533,7 +7544,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="1:8" ht="16">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
@@ -7547,7 +7558,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
     </row>
-    <row r="26" spans="1:8" ht="16">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="4" t="s">
         <v>11</v>
       </c>
@@ -7561,7 +7572,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
     </row>
-    <row r="27" spans="1:8" ht="16">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="4" t="s">
         <v>11</v>
       </c>
@@ -7575,7 +7586,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
     </row>
-    <row r="28" spans="1:8" ht="16">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="4" t="s">
         <v>11</v>
       </c>
@@ -7589,7 +7600,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
     </row>
-    <row r="29" spans="1:8" ht="16">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="4" t="s">
         <v>11</v>
       </c>
@@ -7603,7 +7614,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
     </row>
-    <row r="30" spans="1:8" ht="16">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="4" t="s">
         <v>11</v>
       </c>
@@ -7617,7 +7628,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
     </row>
-    <row r="31" spans="1:8" ht="16">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="4" t="s">
         <v>11</v>
       </c>
@@ -7631,7 +7642,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
     </row>
-    <row r="32" spans="1:8" ht="16">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="4" t="s">
         <v>11</v>
       </c>
@@ -7645,7 +7656,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
     </row>
-    <row r="33" spans="1:8" ht="16">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="4" t="s">
         <v>11</v>
       </c>
@@ -7659,7 +7670,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
     </row>
-    <row r="34" spans="1:8" ht="16">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="4" t="s">
         <v>11</v>
       </c>
@@ -7673,7 +7684,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
     </row>
-    <row r="35" spans="1:8" ht="16">
+    <row r="35" spans="1:8" ht="15.6">
       <c r="A35" s="4" t="s">
         <v>11</v>
       </c>
@@ -7687,7 +7698,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
     </row>
-    <row r="36" spans="1:8" ht="19">
+    <row r="36" spans="1:8" ht="18">
       <c r="A36" s="4" t="s">
         <v>11</v>
       </c>
@@ -7701,7 +7712,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
     </row>
-    <row r="37" spans="1:8" ht="16">
+    <row r="37" spans="1:8" ht="15.6">
       <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
@@ -7715,7 +7726,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
     </row>
-    <row r="38" spans="1:8" ht="16">
+    <row r="38" spans="1:8" ht="15.6">
       <c r="A38" s="4" t="s">
         <v>11</v>
       </c>
@@ -7729,7 +7740,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
     </row>
-    <row r="39" spans="1:8" ht="16">
+    <row r="39" spans="1:8" ht="15.6">
       <c r="A39" s="4" t="s">
         <v>11</v>
       </c>
@@ -7743,7 +7754,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
     </row>
-    <row r="40" spans="1:8" ht="16">
+    <row r="40" spans="1:8" ht="15.6">
       <c r="A40" s="4" t="s">
         <v>11</v>
       </c>
@@ -7757,7 +7768,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
     </row>
-    <row r="41" spans="1:8" ht="16">
+    <row r="41" spans="1:8" ht="15.6">
       <c r="A41" s="4" t="s">
         <v>11</v>
       </c>
@@ -7771,7 +7782,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
     </row>
-    <row r="42" spans="1:8" ht="16">
+    <row r="42" spans="1:8" ht="15.6">
       <c r="A42" s="4" t="s">
         <v>11</v>
       </c>
@@ -7785,7 +7796,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
     </row>
-    <row r="43" spans="1:8" ht="16">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="4" t="s">
         <v>11</v>
       </c>
@@ -7799,7 +7810,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
     </row>
-    <row r="44" spans="1:8" ht="19">
+    <row r="44" spans="1:8" ht="18">
       <c r="A44" s="4" t="s">
         <v>11</v>
       </c>
@@ -7813,7 +7824,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
     </row>
-    <row r="45" spans="1:8" ht="16">
+    <row r="45" spans="1:8" ht="15.6">
       <c r="A45" s="4" t="s">
         <v>11</v>
       </c>
@@ -7827,7 +7838,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
     </row>
-    <row r="46" spans="1:8" ht="16">
+    <row r="46" spans="1:8" ht="15.6">
       <c r="A46" s="4" t="s">
         <v>11</v>
       </c>
@@ -7841,7 +7852,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
     </row>
-    <row r="47" spans="1:8" ht="16">
+    <row r="47" spans="1:8" ht="15.6">
       <c r="A47" s="4" t="s">
         <v>11</v>
       </c>
@@ -7855,7 +7866,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
     </row>
-    <row r="48" spans="1:8" ht="16">
+    <row r="48" spans="1:8" ht="15.6">
       <c r="A48" s="4" t="s">
         <v>11</v>
       </c>
@@ -7869,7 +7880,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
     </row>
-    <row r="49" spans="1:8" ht="16">
+    <row r="49" spans="1:8" ht="15.6">
       <c r="A49" s="4" t="s">
         <v>11</v>
       </c>
@@ -7883,7 +7894,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
     </row>
-    <row r="50" spans="1:8" ht="16">
+    <row r="50" spans="1:8" ht="15.6">
       <c r="A50" s="4" t="s">
         <v>11</v>
       </c>
@@ -7897,7 +7908,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
     </row>
-    <row r="51" spans="1:8" ht="16">
+    <row r="51" spans="1:8" ht="15.6">
       <c r="A51" s="4" t="s">
         <v>11</v>
       </c>
@@ -7911,7 +7922,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
     </row>
-    <row r="52" spans="1:8" ht="16">
+    <row r="52" spans="1:8" ht="15.6">
       <c r="A52" s="4" t="s">
         <v>11</v>
       </c>
@@ -7925,7 +7936,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
     </row>
-    <row r="53" spans="1:8" ht="16">
+    <row r="53" spans="1:8" ht="15.6">
       <c r="A53" s="4" t="s">
         <v>11</v>
       </c>
@@ -7939,7 +7950,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
     </row>
-    <row r="54" spans="1:8" ht="16">
+    <row r="54" spans="1:8" ht="15.6">
       <c r="A54" s="4" t="s">
         <v>11</v>
       </c>
@@ -7953,7 +7964,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
     </row>
-    <row r="55" spans="1:8" ht="16">
+    <row r="55" spans="1:8" ht="15.6">
       <c r="A55" s="4" t="s">
         <v>11</v>
       </c>
@@ -7967,7 +7978,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
     </row>
-    <row r="56" spans="1:8" ht="16">
+    <row r="56" spans="1:8" ht="15.6">
       <c r="A56" s="4" t="s">
         <v>11</v>
       </c>
@@ -7993,7 +8004,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
     </row>
-    <row r="58" spans="1:8" ht="19">
+    <row r="58" spans="1:8" ht="18">
       <c r="A58" s="4" t="s">
         <v>928</v>
       </c>
@@ -8007,7 +8018,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
     </row>
-    <row r="59" spans="1:8" ht="16">
+    <row r="59" spans="1:8" ht="15.6">
       <c r="A59" s="4" t="s">
         <v>928</v>
       </c>
@@ -8021,7 +8032,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
     </row>
-    <row r="60" spans="1:8" ht="16">
+    <row r="60" spans="1:8" ht="15.6">
       <c r="A60" s="4" t="s">
         <v>928</v>
       </c>
@@ -8035,7 +8046,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
     </row>
-    <row r="61" spans="1:8" ht="16">
+    <row r="61" spans="1:8" ht="15.6">
       <c r="A61" s="4" t="s">
         <v>928</v>
       </c>
@@ -8049,7 +8060,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
     </row>
-    <row r="62" spans="1:8" ht="16">
+    <row r="62" spans="1:8" ht="15.6">
       <c r="A62" s="4" t="s">
         <v>928</v>
       </c>
@@ -8063,7 +8074,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
     </row>
-    <row r="63" spans="1:8" ht="16">
+    <row r="63" spans="1:8" ht="15.6">
       <c r="A63" s="4" t="s">
         <v>928</v>
       </c>
@@ -8077,7 +8088,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
     </row>
-    <row r="64" spans="1:8" ht="16">
+    <row r="64" spans="1:8" ht="15.6">
       <c r="A64" s="4" t="s">
         <v>928</v>
       </c>
@@ -8091,7 +8102,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
     </row>
-    <row r="65" spans="1:8" ht="16">
+    <row r="65" spans="1:8" ht="15.6">
       <c r="A65" s="4" t="s">
         <v>928</v>
       </c>
@@ -8105,7 +8116,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
     </row>
-    <row r="66" spans="1:8" ht="16">
+    <row r="66" spans="1:8" ht="15.6">
       <c r="A66" s="4" t="s">
         <v>928</v>
       </c>
@@ -8119,7 +8130,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
     </row>
-    <row r="67" spans="1:8" ht="16">
+    <row r="67" spans="1:8" ht="15.6">
       <c r="A67" s="4" t="s">
         <v>928</v>
       </c>
@@ -8133,7 +8144,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
     </row>
-    <row r="68" spans="1:8" ht="16">
+    <row r="68" spans="1:8" ht="15.6">
       <c r="A68" s="4" t="s">
         <v>928</v>
       </c>
@@ -8147,7 +8158,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="11"/>
     </row>
-    <row r="69" spans="1:8" ht="16">
+    <row r="69" spans="1:8" ht="15.6">
       <c r="A69" s="4" t="s">
         <v>928</v>
       </c>
@@ -8161,7 +8172,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
     </row>
-    <row r="70" spans="1:8" ht="16">
+    <row r="70" spans="1:8" ht="15.6">
       <c r="A70" s="4" t="s">
         <v>928</v>
       </c>
@@ -8175,7 +8186,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
     </row>
-    <row r="71" spans="1:8" ht="16">
+    <row r="71" spans="1:8" ht="15.6">
       <c r="A71" s="4" t="s">
         <v>928</v>
       </c>
@@ -8189,7 +8200,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="11"/>
     </row>
-    <row r="72" spans="1:8" ht="16">
+    <row r="72" spans="1:8" ht="15.6">
       <c r="A72" s="4" t="s">
         <v>928</v>
       </c>
@@ -8203,7 +8214,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="11"/>
     </row>
-    <row r="73" spans="1:8" ht="16">
+    <row r="73" spans="1:8" ht="15.6">
       <c r="A73" s="4" t="s">
         <v>928</v>
       </c>
@@ -8217,7 +8228,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="11"/>
     </row>
-    <row r="74" spans="1:8" ht="16">
+    <row r="74" spans="1:8" ht="15.6">
       <c r="A74" s="4" t="s">
         <v>928</v>
       </c>
@@ -8231,7 +8242,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
     </row>
-    <row r="75" spans="1:8" ht="16">
+    <row r="75" spans="1:8" ht="15.6">
       <c r="A75" s="4" t="s">
         <v>928</v>
       </c>
@@ -8245,7 +8256,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="11"/>
     </row>
-    <row r="76" spans="1:8" ht="16">
+    <row r="76" spans="1:8" ht="15.6">
       <c r="A76" s="4" t="s">
         <v>928</v>
       </c>
@@ -8259,7 +8270,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="11"/>
     </row>
-    <row r="77" spans="1:8" ht="16">
+    <row r="77" spans="1:8" ht="15.6">
       <c r="A77" s="4" t="s">
         <v>928</v>
       </c>
@@ -8273,7 +8284,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
     </row>
-    <row r="78" spans="1:8" ht="16">
+    <row r="78" spans="1:8" ht="15.6">
       <c r="A78" s="4" t="s">
         <v>928</v>
       </c>
@@ -8287,7 +8298,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
     </row>
-    <row r="79" spans="1:8" ht="16">
+    <row r="79" spans="1:8" ht="15.6">
       <c r="A79" s="4" t="s">
         <v>928</v>
       </c>
@@ -8301,7 +8312,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
     </row>
-    <row r="80" spans="1:8" ht="16">
+    <row r="80" spans="1:8" ht="15.6">
       <c r="A80" s="4" t="s">
         <v>928</v>
       </c>
@@ -8315,7 +8326,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
     </row>
-    <row r="81" spans="1:8" ht="16">
+    <row r="81" spans="1:8" ht="15.6">
       <c r="A81" s="4" t="s">
         <v>928</v>
       </c>
@@ -8329,7 +8340,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
     </row>
-    <row r="82" spans="1:8" ht="16">
+    <row r="82" spans="1:8" ht="15.6">
       <c r="A82" s="4" t="s">
         <v>928</v>
       </c>
@@ -8343,7 +8354,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
     </row>
-    <row r="83" spans="1:8" ht="16">
+    <row r="83" spans="1:8" ht="15.6">
       <c r="A83" s="4" t="s">
         <v>928</v>
       </c>
@@ -8357,7 +8368,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
     </row>
-    <row r="84" spans="1:8" ht="16">
+    <row r="84" spans="1:8" ht="15.6">
       <c r="A84" s="4" t="s">
         <v>928</v>
       </c>
@@ -8371,7 +8382,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
     </row>
-    <row r="85" spans="1:8" ht="16">
+    <row r="85" spans="1:8" ht="15.6">
       <c r="A85" s="4" t="s">
         <v>928</v>
       </c>
@@ -8385,7 +8396,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
     </row>
-    <row r="86" spans="1:8" ht="16">
+    <row r="86" spans="1:8" ht="15.6">
       <c r="A86" s="4" t="s">
         <v>928</v>
       </c>
@@ -8399,7 +8410,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="11"/>
     </row>
-    <row r="87" spans="1:8" ht="16">
+    <row r="87" spans="1:8" ht="15.6">
       <c r="A87" s="4" t="s">
         <v>928</v>
       </c>
@@ -8413,7 +8424,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
     </row>
-    <row r="88" spans="1:8" ht="16">
+    <row r="88" spans="1:8" ht="15.6">
       <c r="A88" s="4" t="s">
         <v>928</v>
       </c>
@@ -8427,7 +8438,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="11"/>
     </row>
-    <row r="89" spans="1:8" ht="16">
+    <row r="89" spans="1:8" ht="15.6">
       <c r="A89" s="4" t="s">
         <v>928</v>
       </c>
@@ -8441,7 +8452,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
     </row>
-    <row r="90" spans="1:8" ht="16">
+    <row r="90" spans="1:8" ht="15.6">
       <c r="A90" s="4" t="s">
         <v>928</v>
       </c>
@@ -8455,7 +8466,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="11"/>
     </row>
-    <row r="91" spans="1:8" ht="16">
+    <row r="91" spans="1:8" ht="15.6">
       <c r="A91" s="4" t="s">
         <v>928</v>
       </c>
@@ -8469,7 +8480,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="11"/>
     </row>
-    <row r="92" spans="1:8" ht="16">
+    <row r="92" spans="1:8" ht="15.6">
       <c r="A92" s="4" t="s">
         <v>928</v>
       </c>
@@ -8483,7 +8494,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="11"/>
     </row>
-    <row r="93" spans="1:8" ht="16">
+    <row r="93" spans="1:8" ht="15.6">
       <c r="A93" s="4" t="s">
         <v>928</v>
       </c>
@@ -8497,7 +8508,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="11"/>
     </row>
-    <row r="94" spans="1:8" ht="16">
+    <row r="94" spans="1:8" ht="15.6">
       <c r="A94" s="4" t="s">
         <v>928</v>
       </c>
@@ -8511,7 +8522,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="11"/>
     </row>
-    <row r="95" spans="1:8" ht="16">
+    <row r="95" spans="1:8" ht="15.6">
       <c r="A95" s="4" t="s">
         <v>928</v>
       </c>
@@ -8525,7 +8536,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="11"/>
     </row>
-    <row r="96" spans="1:8" ht="19">
+    <row r="96" spans="1:8" ht="18">
       <c r="A96" s="4" t="s">
         <v>928</v>
       </c>
@@ -8539,7 +8550,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="11"/>
     </row>
-    <row r="97" spans="1:8" ht="16">
+    <row r="97" spans="1:8" ht="15.6">
       <c r="A97" s="4" t="s">
         <v>928</v>
       </c>
@@ -8553,7 +8564,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
     </row>
-    <row r="98" spans="1:8" ht="16">
+    <row r="98" spans="1:8" ht="15.6">
       <c r="A98" s="4" t="s">
         <v>928</v>
       </c>
@@ -8567,7 +8578,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
     </row>
-    <row r="99" spans="1:8" ht="16">
+    <row r="99" spans="1:8" ht="15.6">
       <c r="A99" s="4" t="s">
         <v>928</v>
       </c>
@@ -8581,7 +8592,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
     </row>
-    <row r="100" spans="1:8" ht="16">
+    <row r="100" spans="1:8" ht="15.6">
       <c r="A100" s="4" t="s">
         <v>928</v>
       </c>
@@ -8595,7 +8606,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
     </row>
-    <row r="101" spans="1:8" ht="16">
+    <row r="101" spans="1:8" ht="15.6">
       <c r="A101" s="4" t="s">
         <v>928</v>
       </c>
@@ -8609,7 +8620,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="11"/>
     </row>
-    <row r="102" spans="1:8" ht="16">
+    <row r="102" spans="1:8" ht="15.6">
       <c r="A102" s="4" t="s">
         <v>928</v>
       </c>
@@ -8623,7 +8634,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="11"/>
     </row>
-    <row r="103" spans="1:8" ht="16">
+    <row r="103" spans="1:8" ht="15.6">
       <c r="A103" s="4" t="s">
         <v>928</v>
       </c>
@@ -8637,7 +8648,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="11"/>
     </row>
-    <row r="104" spans="1:8" ht="16">
+    <row r="104" spans="1:8" ht="15.6">
       <c r="A104" s="4" t="s">
         <v>928</v>
       </c>
@@ -8651,7 +8662,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="11"/>
     </row>
-    <row r="105" spans="1:8" ht="19">
+    <row r="105" spans="1:8" ht="18">
       <c r="A105" s="4" t="s">
         <v>928</v>
       </c>
@@ -8665,7 +8676,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="11"/>
     </row>
-    <row r="106" spans="1:8" ht="16">
+    <row r="106" spans="1:8" ht="15.6">
       <c r="A106" s="4" t="s">
         <v>928</v>
       </c>
@@ -8679,7 +8690,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="11"/>
     </row>
-    <row r="107" spans="1:8" ht="16">
+    <row r="107" spans="1:8" ht="15.6">
       <c r="A107" s="4" t="s">
         <v>928</v>
       </c>
@@ -8693,7 +8704,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="11"/>
     </row>
-    <row r="108" spans="1:8" ht="16">
+    <row r="108" spans="1:8" ht="15.6">
       <c r="A108" s="4" t="s">
         <v>928</v>
       </c>
@@ -8707,7 +8718,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="11"/>
     </row>
-    <row r="109" spans="1:8" ht="16">
+    <row r="109" spans="1:8" ht="15.6">
       <c r="A109" s="4" t="s">
         <v>928</v>
       </c>
@@ -8721,7 +8732,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="11"/>
     </row>
-    <row r="110" spans="1:8" ht="16">
+    <row r="110" spans="1:8" ht="15.6">
       <c r="A110" s="4" t="s">
         <v>928</v>
       </c>
@@ -8735,7 +8746,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="11"/>
     </row>
-    <row r="111" spans="1:8" ht="16">
+    <row r="111" spans="1:8" ht="15.6">
       <c r="A111" s="4" t="s">
         <v>928</v>
       </c>
@@ -8749,7 +8760,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="11"/>
     </row>
-    <row r="112" spans="1:8" ht="16">
+    <row r="112" spans="1:8" ht="15.6">
       <c r="A112" s="4" t="s">
         <v>928</v>
       </c>
@@ -8763,7 +8774,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="11"/>
     </row>
-    <row r="113" spans="1:8" ht="16">
+    <row r="113" spans="1:8" ht="15.6">
       <c r="A113" s="4" t="s">
         <v>928</v>
       </c>
@@ -8789,7 +8800,7 @@
       <c r="G114" s="11"/>
       <c r="H114" s="11"/>
     </row>
-    <row r="115" spans="1:8" ht="19">
+    <row r="115" spans="1:8" ht="18">
       <c r="A115" s="4" t="s">
         <v>929</v>
       </c>
@@ -8803,7 +8814,7 @@
       <c r="G115" s="11"/>
       <c r="H115" s="11"/>
     </row>
-    <row r="116" spans="1:8" ht="16">
+    <row r="116" spans="1:8" ht="15.6">
       <c r="A116" s="4" t="s">
         <v>929</v>
       </c>
@@ -8817,7 +8828,7 @@
       <c r="G116" s="11"/>
       <c r="H116" s="11"/>
     </row>
-    <row r="117" spans="1:8" ht="16">
+    <row r="117" spans="1:8" ht="15.6">
       <c r="A117" s="4" t="s">
         <v>929</v>
       </c>
@@ -8831,7 +8842,7 @@
       <c r="G117" s="11"/>
       <c r="H117" s="11"/>
     </row>
-    <row r="118" spans="1:8" ht="16">
+    <row r="118" spans="1:8" ht="15.6">
       <c r="A118" s="4" t="s">
         <v>929</v>
       </c>
@@ -8845,7 +8856,7 @@
       <c r="G118" s="11"/>
       <c r="H118" s="11"/>
     </row>
-    <row r="119" spans="1:8" ht="16">
+    <row r="119" spans="1:8" ht="15.6">
       <c r="A119" s="4" t="s">
         <v>929</v>
       </c>
@@ -8859,7 +8870,7 @@
       <c r="G119" s="11"/>
       <c r="H119" s="11"/>
     </row>
-    <row r="120" spans="1:8" ht="16">
+    <row r="120" spans="1:8" ht="15.6">
       <c r="A120" s="4" t="s">
         <v>929</v>
       </c>
@@ -8873,7 +8884,7 @@
       <c r="G120" s="11"/>
       <c r="H120" s="11"/>
     </row>
-    <row r="121" spans="1:8" ht="16">
+    <row r="121" spans="1:8" ht="15.6">
       <c r="A121" s="4" t="s">
         <v>929</v>
       </c>
@@ -8887,7 +8898,7 @@
       <c r="G121" s="11"/>
       <c r="H121" s="11"/>
     </row>
-    <row r="122" spans="1:8" ht="16">
+    <row r="122" spans="1:8" ht="15.6">
       <c r="A122" s="4" t="s">
         <v>929</v>
       </c>
@@ -8901,7 +8912,7 @@
       <c r="G122" s="11"/>
       <c r="H122" s="11"/>
     </row>
-    <row r="123" spans="1:8" ht="16">
+    <row r="123" spans="1:8" ht="15.6">
       <c r="A123" s="4" t="s">
         <v>929</v>
       </c>
@@ -8915,7 +8926,7 @@
       <c r="G123" s="11"/>
       <c r="H123" s="11"/>
     </row>
-    <row r="124" spans="1:8" ht="16">
+    <row r="124" spans="1:8" ht="15.6">
       <c r="A124" s="4" t="s">
         <v>929</v>
       </c>
@@ -8929,7 +8940,7 @@
       <c r="G124" s="11"/>
       <c r="H124" s="11"/>
     </row>
-    <row r="125" spans="1:8" ht="16">
+    <row r="125" spans="1:8" ht="15.6">
       <c r="A125" s="4" t="s">
         <v>929</v>
       </c>
@@ -8943,7 +8954,7 @@
       <c r="G125" s="11"/>
       <c r="H125" s="11"/>
     </row>
-    <row r="126" spans="1:8" ht="16">
+    <row r="126" spans="1:8" ht="15.6">
       <c r="A126" s="4" t="s">
         <v>929</v>
       </c>
@@ -8957,7 +8968,7 @@
       <c r="G126" s="11"/>
       <c r="H126" s="11"/>
     </row>
-    <row r="127" spans="1:8" ht="16">
+    <row r="127" spans="1:8" ht="15.6">
       <c r="A127" s="4" t="s">
         <v>929</v>
       </c>
@@ -8971,7 +8982,7 @@
       <c r="G127" s="11"/>
       <c r="H127" s="11"/>
     </row>
-    <row r="128" spans="1:8" ht="16">
+    <row r="128" spans="1:8" ht="15.6">
       <c r="A128" s="4" t="s">
         <v>929</v>
       </c>
@@ -8985,7 +8996,7 @@
       <c r="G128" s="11"/>
       <c r="H128" s="11"/>
     </row>
-    <row r="129" spans="1:8" ht="19">
+    <row r="129" spans="1:8" ht="18">
       <c r="A129" s="4" t="s">
         <v>929</v>
       </c>
@@ -8999,7 +9010,7 @@
       <c r="G129" s="11"/>
       <c r="H129" s="11"/>
     </row>
-    <row r="130" spans="1:8" ht="16">
+    <row r="130" spans="1:8" ht="15.6">
       <c r="A130" s="4" t="s">
         <v>929</v>
       </c>
@@ -9013,7 +9024,7 @@
       <c r="G130" s="11"/>
       <c r="H130" s="11"/>
     </row>
-    <row r="131" spans="1:8" ht="16">
+    <row r="131" spans="1:8" ht="15.6">
       <c r="A131" s="4" t="s">
         <v>929</v>
       </c>
@@ -9027,7 +9038,7 @@
       <c r="G131" s="11"/>
       <c r="H131" s="11"/>
     </row>
-    <row r="132" spans="1:8" ht="16">
+    <row r="132" spans="1:8" ht="15.6">
       <c r="A132" s="4" t="s">
         <v>929</v>
       </c>
@@ -9041,7 +9052,7 @@
       <c r="G132" s="11"/>
       <c r="H132" s="11"/>
     </row>
-    <row r="133" spans="1:8" ht="16">
+    <row r="133" spans="1:8" ht="15.6">
       <c r="A133" s="4" t="s">
         <v>929</v>
       </c>
@@ -9055,7 +9066,7 @@
       <c r="G133" s="11"/>
       <c r="H133" s="11"/>
     </row>
-    <row r="134" spans="1:8" ht="16">
+    <row r="134" spans="1:8" ht="15.6">
       <c r="A134" s="4" t="s">
         <v>929</v>
       </c>
@@ -9069,7 +9080,7 @@
       <c r="G134" s="11"/>
       <c r="H134" s="11"/>
     </row>
-    <row r="135" spans="1:8" ht="16">
+    <row r="135" spans="1:8" ht="15.6">
       <c r="A135" s="4" t="s">
         <v>929</v>
       </c>
@@ -9083,7 +9094,7 @@
       <c r="G135" s="11"/>
       <c r="H135" s="11"/>
     </row>
-    <row r="136" spans="1:8" ht="16">
+    <row r="136" spans="1:8" ht="15.6">
       <c r="A136" s="4" t="s">
         <v>929</v>
       </c>
@@ -9097,7 +9108,7 @@
       <c r="G136" s="11"/>
       <c r="H136" s="11"/>
     </row>
-    <row r="137" spans="1:8" ht="16">
+    <row r="137" spans="1:8" ht="15.6">
       <c r="A137" s="4" t="s">
         <v>929</v>
       </c>
@@ -9111,7 +9122,7 @@
       <c r="G137" s="11"/>
       <c r="H137" s="11"/>
     </row>
-    <row r="138" spans="1:8" ht="16">
+    <row r="138" spans="1:8" ht="15.6">
       <c r="A138" s="4" t="s">
         <v>929</v>
       </c>
@@ -9125,7 +9136,7 @@
       <c r="G138" s="11"/>
       <c r="H138" s="11"/>
     </row>
-    <row r="139" spans="1:8" ht="16">
+    <row r="139" spans="1:8" ht="15.6">
       <c r="A139" s="4" t="s">
         <v>929</v>
       </c>
@@ -9139,7 +9150,7 @@
       <c r="G139" s="11"/>
       <c r="H139" s="11"/>
     </row>
-    <row r="140" spans="1:8" ht="16">
+    <row r="140" spans="1:8" ht="15.6">
       <c r="A140" s="4" t="s">
         <v>929</v>
       </c>
@@ -9153,7 +9164,7 @@
       <c r="G140" s="11"/>
       <c r="H140" s="11"/>
     </row>
-    <row r="141" spans="1:8" ht="16">
+    <row r="141" spans="1:8" ht="15.6">
       <c r="A141" s="4" t="s">
         <v>929</v>
       </c>
@@ -9167,7 +9178,7 @@
       <c r="G141" s="11"/>
       <c r="H141" s="11"/>
     </row>
-    <row r="142" spans="1:8" ht="16">
+    <row r="142" spans="1:8" ht="15.6">
       <c r="A142" s="4" t="s">
         <v>929</v>
       </c>
@@ -9181,7 +9192,7 @@
       <c r="G142" s="11"/>
       <c r="H142" s="11"/>
     </row>
-    <row r="143" spans="1:8" ht="16">
+    <row r="143" spans="1:8" ht="15.6">
       <c r="A143" s="4" t="s">
         <v>929</v>
       </c>
@@ -9195,7 +9206,7 @@
       <c r="G143" s="11"/>
       <c r="H143" s="11"/>
     </row>
-    <row r="144" spans="1:8" ht="16">
+    <row r="144" spans="1:8" ht="15.6">
       <c r="A144" s="4" t="s">
         <v>929</v>
       </c>
@@ -9209,7 +9220,7 @@
       <c r="G144" s="11"/>
       <c r="H144" s="11"/>
     </row>
-    <row r="145" spans="1:8" ht="16">
+    <row r="145" spans="1:8" ht="15.6">
       <c r="A145" s="4" t="s">
         <v>929</v>
       </c>
@@ -9223,7 +9234,7 @@
       <c r="G145" s="11"/>
       <c r="H145" s="11"/>
     </row>
-    <row r="146" spans="1:8" ht="16">
+    <row r="146" spans="1:8" ht="15.6">
       <c r="A146" s="4" t="s">
         <v>929</v>
       </c>
@@ -9237,7 +9248,7 @@
       <c r="G146" s="11"/>
       <c r="H146" s="11"/>
     </row>
-    <row r="147" spans="1:8" ht="16">
+    <row r="147" spans="1:8" ht="15.6">
       <c r="A147" s="4" t="s">
         <v>929</v>
       </c>
@@ -9251,7 +9262,7 @@
       <c r="G147" s="11"/>
       <c r="H147" s="11"/>
     </row>
-    <row r="148" spans="1:8" ht="16">
+    <row r="148" spans="1:8" ht="15.6">
       <c r="A148" s="4" t="s">
         <v>929</v>
       </c>
@@ -9265,7 +9276,7 @@
       <c r="G148" s="11"/>
       <c r="H148" s="11"/>
     </row>
-    <row r="149" spans="1:8" ht="16">
+    <row r="149" spans="1:8" ht="15.6">
       <c r="A149" s="4" t="s">
         <v>929</v>
       </c>
@@ -9279,7 +9290,7 @@
       <c r="G149" s="11"/>
       <c r="H149" s="11"/>
     </row>
-    <row r="150" spans="1:8" ht="16">
+    <row r="150" spans="1:8" ht="15.6">
       <c r="A150" s="4" t="s">
         <v>929</v>
       </c>
@@ -9293,7 +9304,7 @@
       <c r="G150" s="11"/>
       <c r="H150" s="11"/>
     </row>
-    <row r="151" spans="1:8" ht="16">
+    <row r="151" spans="1:8" ht="15.6">
       <c r="A151" s="4" t="s">
         <v>929</v>
       </c>
@@ -9307,7 +9318,7 @@
       <c r="G151" s="11"/>
       <c r="H151" s="11"/>
     </row>
-    <row r="152" spans="1:8" ht="16">
+    <row r="152" spans="1:8" ht="15.6">
       <c r="A152" s="4" t="s">
         <v>929</v>
       </c>
@@ -9321,7 +9332,7 @@
       <c r="G152" s="11"/>
       <c r="H152" s="11"/>
     </row>
-    <row r="153" spans="1:8" ht="16">
+    <row r="153" spans="1:8" ht="15.6">
       <c r="A153" s="4" t="s">
         <v>929</v>
       </c>
@@ -9335,7 +9346,7 @@
       <c r="G153" s="11"/>
       <c r="H153" s="11"/>
     </row>
-    <row r="154" spans="1:8" ht="16">
+    <row r="154" spans="1:8" ht="15.6">
       <c r="A154" s="4" t="s">
         <v>929</v>
       </c>
@@ -9349,7 +9360,7 @@
       <c r="G154" s="11"/>
       <c r="H154" s="11"/>
     </row>
-    <row r="155" spans="1:8" ht="16">
+    <row r="155" spans="1:8" ht="15.6">
       <c r="A155" s="4" t="s">
         <v>929</v>
       </c>
@@ -9363,7 +9374,7 @@
       <c r="G155" s="11"/>
       <c r="H155" s="11"/>
     </row>
-    <row r="156" spans="1:8" ht="16">
+    <row r="156" spans="1:8" ht="15.6">
       <c r="A156" s="4" t="s">
         <v>929</v>
       </c>
@@ -9377,7 +9388,7 @@
       <c r="G156" s="11"/>
       <c r="H156" s="11"/>
     </row>
-    <row r="157" spans="1:8" ht="16">
+    <row r="157" spans="1:8" ht="15.6">
       <c r="A157" s="4" t="s">
         <v>929</v>
       </c>
@@ -9391,7 +9402,7 @@
       <c r="G157" s="11"/>
       <c r="H157" s="11"/>
     </row>
-    <row r="158" spans="1:8" ht="16">
+    <row r="158" spans="1:8" ht="15.6">
       <c r="A158" s="4" t="s">
         <v>929</v>
       </c>
@@ -9405,7 +9416,7 @@
       <c r="G158" s="11"/>
       <c r="H158" s="11"/>
     </row>
-    <row r="159" spans="1:8" ht="16">
+    <row r="159" spans="1:8" ht="15.6">
       <c r="A159" s="4" t="s">
         <v>929</v>
       </c>
@@ -9419,7 +9430,7 @@
       <c r="G159" s="11"/>
       <c r="H159" s="11"/>
     </row>
-    <row r="160" spans="1:8" ht="16">
+    <row r="160" spans="1:8" ht="15.6">
       <c r="A160" s="4" t="s">
         <v>929</v>
       </c>
@@ -9433,7 +9444,7 @@
       <c r="G160" s="11"/>
       <c r="H160" s="11"/>
     </row>
-    <row r="161" spans="1:8" ht="16">
+    <row r="161" spans="1:8" ht="15.6">
       <c r="A161" s="4" t="s">
         <v>929</v>
       </c>
@@ -9447,7 +9458,7 @@
       <c r="G161" s="11"/>
       <c r="H161" s="11"/>
     </row>
-    <row r="162" spans="1:8" ht="16">
+    <row r="162" spans="1:8" ht="15.6">
       <c r="A162" s="4" t="s">
         <v>929</v>
       </c>
@@ -9461,7 +9472,7 @@
       <c r="G162" s="11"/>
       <c r="H162" s="11"/>
     </row>
-    <row r="163" spans="1:8" ht="16">
+    <row r="163" spans="1:8" ht="15.6">
       <c r="A163" s="4" t="s">
         <v>929</v>
       </c>
@@ -9475,7 +9486,7 @@
       <c r="G163" s="11"/>
       <c r="H163" s="11"/>
     </row>
-    <row r="164" spans="1:8" ht="16">
+    <row r="164" spans="1:8" ht="15.6">
       <c r="A164" s="4" t="s">
         <v>929</v>
       </c>
@@ -9489,7 +9500,7 @@
       <c r="G164" s="11"/>
       <c r="H164" s="11"/>
     </row>
-    <row r="165" spans="1:8" ht="16">
+    <row r="165" spans="1:8" ht="15.6">
       <c r="A165" s="4" t="s">
         <v>929</v>
       </c>
@@ -9503,7 +9514,7 @@
       <c r="G165" s="11"/>
       <c r="H165" s="11"/>
     </row>
-    <row r="166" spans="1:8" ht="16">
+    <row r="166" spans="1:8" ht="15.6">
       <c r="A166" s="4" t="s">
         <v>929</v>
       </c>
@@ -9517,7 +9528,7 @@
       <c r="G166" s="11"/>
       <c r="H166" s="11"/>
     </row>
-    <row r="167" spans="1:8" ht="16">
+    <row r="167" spans="1:8" ht="15.6">
       <c r="A167" s="4" t="s">
         <v>929</v>
       </c>
@@ -9531,7 +9542,7 @@
       <c r="G167" s="11"/>
       <c r="H167" s="11"/>
     </row>
-    <row r="168" spans="1:8" ht="16">
+    <row r="168" spans="1:8" ht="15.6">
       <c r="A168" s="4" t="s">
         <v>929</v>
       </c>
@@ -9545,7 +9556,7 @@
       <c r="G168" s="11"/>
       <c r="H168" s="11"/>
     </row>
-    <row r="169" spans="1:8" ht="16">
+    <row r="169" spans="1:8" ht="15.6">
       <c r="A169" s="4" t="s">
         <v>929</v>
       </c>
@@ -9559,7 +9570,7 @@
       <c r="G169" s="11"/>
       <c r="H169" s="11"/>
     </row>
-    <row r="170" spans="1:8" ht="16">
+    <row r="170" spans="1:8" ht="15.6">
       <c r="A170" s="4" t="s">
         <v>929</v>
       </c>
@@ -9573,7 +9584,7 @@
       <c r="G170" s="11"/>
       <c r="H170" s="11"/>
     </row>
-    <row r="171" spans="1:8" ht="16">
+    <row r="171" spans="1:8" ht="15.6">
       <c r="A171" s="4" t="s">
         <v>929</v>
       </c>
@@ -9587,7 +9598,7 @@
       <c r="G171" s="11"/>
       <c r="H171" s="11"/>
     </row>
-    <row r="172" spans="1:8" ht="19">
+    <row r="172" spans="1:8" ht="18">
       <c r="A172" s="4" t="s">
         <v>929</v>
       </c>
@@ -9601,7 +9612,7 @@
       <c r="G172" s="11"/>
       <c r="H172" s="11"/>
     </row>
-    <row r="173" spans="1:8" ht="16">
+    <row r="173" spans="1:8" ht="15.6">
       <c r="A173" s="4" t="s">
         <v>929</v>
       </c>
@@ -9615,7 +9626,7 @@
       <c r="G173" s="11"/>
       <c r="H173" s="11"/>
     </row>
-    <row r="174" spans="1:8" ht="16">
+    <row r="174" spans="1:8" ht="15.6">
       <c r="A174" s="4" t="s">
         <v>929</v>
       </c>
@@ -9629,7 +9640,7 @@
       <c r="G174" s="11"/>
       <c r="H174" s="11"/>
     </row>
-    <row r="175" spans="1:8" ht="19">
+    <row r="175" spans="1:8" ht="18">
       <c r="A175" s="4" t="s">
         <v>929</v>
       </c>
@@ -9643,7 +9654,7 @@
       <c r="G175" s="11"/>
       <c r="H175" s="11"/>
     </row>
-    <row r="176" spans="1:8" ht="16">
+    <row r="176" spans="1:8" ht="15.6">
       <c r="A176" s="4" t="s">
         <v>929</v>
       </c>
@@ -9657,7 +9668,7 @@
       <c r="G176" s="11"/>
       <c r="H176" s="11"/>
     </row>
-    <row r="177" spans="1:8" ht="16">
+    <row r="177" spans="1:8" ht="15.6">
       <c r="A177" s="4" t="s">
         <v>929</v>
       </c>
@@ -9671,7 +9682,7 @@
       <c r="G177" s="11"/>
       <c r="H177" s="11"/>
     </row>
-    <row r="178" spans="1:8" ht="16">
+    <row r="178" spans="1:8" ht="15.6">
       <c r="A178" s="4" t="s">
         <v>929</v>
       </c>
@@ -9685,7 +9696,7 @@
       <c r="G178" s="11"/>
       <c r="H178" s="11"/>
     </row>
-    <row r="179" spans="1:8" ht="16">
+    <row r="179" spans="1:8" ht="15.6">
       <c r="A179" s="4" t="s">
         <v>929</v>
       </c>
@@ -9699,7 +9710,7 @@
       <c r="G179" s="11"/>
       <c r="H179" s="11"/>
     </row>
-    <row r="180" spans="1:8" ht="16">
+    <row r="180" spans="1:8" ht="15.6">
       <c r="A180" s="4" t="s">
         <v>929</v>
       </c>
@@ -9713,7 +9724,7 @@
       <c r="G180" s="11"/>
       <c r="H180" s="11"/>
     </row>
-    <row r="181" spans="1:8" ht="16">
+    <row r="181" spans="1:8" ht="15.6">
       <c r="A181" s="4" t="s">
         <v>929</v>
       </c>
@@ -9727,7 +9738,7 @@
       <c r="G181" s="11"/>
       <c r="H181" s="11"/>
     </row>
-    <row r="182" spans="1:8" ht="16">
+    <row r="182" spans="1:8" ht="15.6">
       <c r="A182" s="4" t="s">
         <v>929</v>
       </c>
@@ -9741,7 +9752,7 @@
       <c r="G182" s="11"/>
       <c r="H182" s="11"/>
     </row>
-    <row r="183" spans="1:8" ht="16">
+    <row r="183" spans="1:8" ht="15.6">
       <c r="A183" s="4" t="s">
         <v>929</v>
       </c>
@@ -9755,7 +9766,7 @@
       <c r="G183" s="11"/>
       <c r="H183" s="11"/>
     </row>
-    <row r="184" spans="1:8" ht="16">
+    <row r="184" spans="1:8" ht="15.6">
       <c r="A184" s="4" t="s">
         <v>929</v>
       </c>
@@ -9769,7 +9780,7 @@
       <c r="G184" s="11"/>
       <c r="H184" s="11"/>
     </row>
-    <row r="185" spans="1:8" ht="16">
+    <row r="185" spans="1:8" ht="15.6">
       <c r="A185" s="4" t="s">
         <v>929</v>
       </c>
@@ -9783,7 +9794,7 @@
       <c r="G185" s="11"/>
       <c r="H185" s="11"/>
     </row>
-    <row r="186" spans="1:8" ht="16">
+    <row r="186" spans="1:8" ht="15.6">
       <c r="A186" s="4" t="s">
         <v>929</v>
       </c>
@@ -9797,7 +9808,7 @@
       <c r="G186" s="11"/>
       <c r="H186" s="11"/>
     </row>
-    <row r="187" spans="1:8" ht="16">
+    <row r="187" spans="1:8" ht="15.6">
       <c r="A187" s="4" t="s">
         <v>929</v>
       </c>
@@ -9811,7 +9822,7 @@
       <c r="G187" s="11"/>
       <c r="H187" s="11"/>
     </row>
-    <row r="188" spans="1:8" ht="16">
+    <row r="188" spans="1:8" ht="15.6">
       <c r="A188" s="4" t="s">
         <v>929</v>
       </c>
@@ -9825,7 +9836,7 @@
       <c r="G188" s="11"/>
       <c r="H188" s="11"/>
     </row>
-    <row r="189" spans="1:8" ht="16">
+    <row r="189" spans="1:8" ht="15.6">
       <c r="A189" s="4" t="s">
         <v>929</v>
       </c>
@@ -9839,7 +9850,7 @@
       <c r="G189" s="11"/>
       <c r="H189" s="11"/>
     </row>
-    <row r="190" spans="1:8" ht="16">
+    <row r="190" spans="1:8" ht="15.6">
       <c r="A190" s="4" t="s">
         <v>929</v>
       </c>
@@ -9853,7 +9864,7 @@
       <c r="G190" s="11"/>
       <c r="H190" s="11"/>
     </row>
-    <row r="191" spans="1:8" ht="16">
+    <row r="191" spans="1:8" ht="15.6">
       <c r="A191" s="4" t="s">
         <v>929</v>
       </c>
@@ -9867,7 +9878,7 @@
       <c r="G191" s="11"/>
       <c r="H191" s="11"/>
     </row>
-    <row r="192" spans="1:8" ht="16">
+    <row r="192" spans="1:8" ht="15.6">
       <c r="A192" s="4" t="s">
         <v>929</v>
       </c>
@@ -9881,7 +9892,7 @@
       <c r="G192" s="11"/>
       <c r="H192" s="11"/>
     </row>
-    <row r="193" spans="1:8" ht="16">
+    <row r="193" spans="1:8" ht="15.6">
       <c r="A193" s="4" t="s">
         <v>929</v>
       </c>
@@ -9895,7 +9906,7 @@
       <c r="G193" s="11"/>
       <c r="H193" s="11"/>
     </row>
-    <row r="194" spans="1:8" ht="16">
+    <row r="194" spans="1:8" ht="15.6">
       <c r="A194" s="4" t="s">
         <v>929</v>
       </c>
@@ -9909,7 +9920,7 @@
       <c r="G194" s="11"/>
       <c r="H194" s="11"/>
     </row>
-    <row r="195" spans="1:8" ht="16">
+    <row r="195" spans="1:8" ht="15.6">
       <c r="A195" s="4" t="s">
         <v>929</v>
       </c>
@@ -9923,7 +9934,7 @@
       <c r="G195" s="11"/>
       <c r="H195" s="11"/>
     </row>
-    <row r="196" spans="1:8" ht="16">
+    <row r="196" spans="1:8" ht="15.6">
       <c r="A196" s="4" t="s">
         <v>929</v>
       </c>
@@ -9937,7 +9948,7 @@
       <c r="G196" s="11"/>
       <c r="H196" s="11"/>
     </row>
-    <row r="197" spans="1:8" ht="16">
+    <row r="197" spans="1:8" ht="15.6">
       <c r="A197" s="4" t="s">
         <v>929</v>
       </c>
@@ -9951,7 +9962,7 @@
       <c r="G197" s="11"/>
       <c r="H197" s="11"/>
     </row>
-    <row r="198" spans="1:8" ht="16">
+    <row r="198" spans="1:8" ht="15.6">
       <c r="A198" s="4" t="s">
         <v>929</v>
       </c>
@@ -9965,7 +9976,7 @@
       <c r="G198" s="11"/>
       <c r="H198" s="11"/>
     </row>
-    <row r="199" spans="1:8" ht="16">
+    <row r="199" spans="1:8" ht="15.6">
       <c r="A199" s="4" t="s">
         <v>929</v>
       </c>
@@ -9979,7 +9990,7 @@
       <c r="G199" s="11"/>
       <c r="H199" s="11"/>
     </row>
-    <row r="200" spans="1:8" ht="16">
+    <row r="200" spans="1:8" ht="15.6">
       <c r="A200" s="4" t="s">
         <v>929</v>
       </c>
@@ -9993,7 +10004,7 @@
       <c r="G200" s="11"/>
       <c r="H200" s="11"/>
     </row>
-    <row r="201" spans="1:8" ht="16">
+    <row r="201" spans="1:8" ht="15.6">
       <c r="A201" s="4" t="s">
         <v>929</v>
       </c>
@@ -10007,7 +10018,7 @@
       <c r="G201" s="11"/>
       <c r="H201" s="11"/>
     </row>
-    <row r="202" spans="1:8" ht="16">
+    <row r="202" spans="1:8" ht="15.6">
       <c r="A202" s="4" t="s">
         <v>929</v>
       </c>
@@ -10021,7 +10032,7 @@
       <c r="G202" s="11"/>
       <c r="H202" s="11"/>
     </row>
-    <row r="203" spans="1:8" ht="16">
+    <row r="203" spans="1:8" ht="15.6">
       <c r="A203" s="4" t="s">
         <v>929</v>
       </c>
@@ -10035,7 +10046,7 @@
       <c r="G203" s="11"/>
       <c r="H203" s="11"/>
     </row>
-    <row r="204" spans="1:8" ht="16">
+    <row r="204" spans="1:8" ht="15.6">
       <c r="A204" s="4" t="s">
         <v>929</v>
       </c>
@@ -10049,7 +10060,7 @@
       <c r="G204" s="11"/>
       <c r="H204" s="11"/>
     </row>
-    <row r="205" spans="1:8" ht="16">
+    <row r="205" spans="1:8" ht="15.6">
       <c r="A205" s="4" t="s">
         <v>929</v>
       </c>
@@ -10063,7 +10074,7 @@
       <c r="G205" s="11"/>
       <c r="H205" s="11"/>
     </row>
-    <row r="206" spans="1:8" ht="16">
+    <row r="206" spans="1:8" ht="15.6">
       <c r="A206" s="4" t="s">
         <v>929</v>
       </c>
@@ -10077,7 +10088,7 @@
       <c r="G206" s="11"/>
       <c r="H206" s="11"/>
     </row>
-    <row r="207" spans="1:8" ht="16">
+    <row r="207" spans="1:8" ht="15.6">
       <c r="A207" s="4" t="s">
         <v>929</v>
       </c>
@@ -10091,7 +10102,7 @@
       <c r="G207" s="11"/>
       <c r="H207" s="11"/>
     </row>
-    <row r="208" spans="1:8" ht="16">
+    <row r="208" spans="1:8" ht="15.6">
       <c r="A208" s="4" t="s">
         <v>929</v>
       </c>
@@ -10105,7 +10116,7 @@
       <c r="G208" s="11"/>
       <c r="H208" s="11"/>
     </row>
-    <row r="209" spans="1:8" ht="16">
+    <row r="209" spans="1:8" ht="15.6">
       <c r="A209" s="4" t="s">
         <v>929</v>
       </c>
@@ -10119,7 +10130,7 @@
       <c r="G209" s="11"/>
       <c r="H209" s="11"/>
     </row>
-    <row r="210" spans="1:8" ht="19">
+    <row r="210" spans="1:8" ht="18">
       <c r="A210" s="4" t="s">
         <v>929</v>
       </c>
@@ -10133,7 +10144,7 @@
       <c r="G210" s="11"/>
       <c r="H210" s="11"/>
     </row>
-    <row r="211" spans="1:8" ht="16">
+    <row r="211" spans="1:8" ht="15.6">
       <c r="A211" s="4" t="s">
         <v>929</v>
       </c>
@@ -10147,7 +10158,7 @@
       <c r="G211" s="11"/>
       <c r="H211" s="11"/>
     </row>
-    <row r="212" spans="1:8" ht="16">
+    <row r="212" spans="1:8" ht="15.6">
       <c r="A212" s="4" t="s">
         <v>929</v>
       </c>
@@ -10161,7 +10172,7 @@
       <c r="G212" s="11"/>
       <c r="H212" s="11"/>
     </row>
-    <row r="213" spans="1:8" ht="16">
+    <row r="213" spans="1:8" ht="15.6">
       <c r="A213" s="4" t="s">
         <v>929</v>
       </c>
@@ -10175,7 +10186,7 @@
       <c r="G213" s="11"/>
       <c r="H213" s="11"/>
     </row>
-    <row r="214" spans="1:8" ht="16">
+    <row r="214" spans="1:8" ht="15.6">
       <c r="A214" s="4" t="s">
         <v>929</v>
       </c>
@@ -10189,7 +10200,7 @@
       <c r="G214" s="11"/>
       <c r="H214" s="11"/>
     </row>
-    <row r="215" spans="1:8" ht="16">
+    <row r="215" spans="1:8" ht="15.6">
       <c r="A215" s="4" t="s">
         <v>929</v>
       </c>
@@ -10203,7 +10214,7 @@
       <c r="G215" s="11"/>
       <c r="H215" s="11"/>
     </row>
-    <row r="216" spans="1:8" ht="16">
+    <row r="216" spans="1:8" ht="15.6">
       <c r="A216" s="4" t="s">
         <v>929</v>
       </c>
@@ -10217,7 +10228,7 @@
       <c r="G216" s="11"/>
       <c r="H216" s="11"/>
     </row>
-    <row r="217" spans="1:8" ht="16">
+    <row r="217" spans="1:8" ht="15.6">
       <c r="A217" s="4" t="s">
         <v>929</v>
       </c>
@@ -10231,7 +10242,7 @@
       <c r="G217" s="11"/>
       <c r="H217" s="11"/>
     </row>
-    <row r="218" spans="1:8" ht="16">
+    <row r="218" spans="1:8" ht="15.6">
       <c r="A218" s="4" t="s">
         <v>929</v>
       </c>
@@ -10245,7 +10256,7 @@
       <c r="G218" s="11"/>
       <c r="H218" s="11"/>
     </row>
-    <row r="219" spans="1:8" ht="16">
+    <row r="219" spans="1:8" ht="15.6">
       <c r="A219" s="4" t="s">
         <v>929</v>
       </c>
@@ -10259,7 +10270,7 @@
       <c r="G219" s="11"/>
       <c r="H219" s="11"/>
     </row>
-    <row r="220" spans="1:8" ht="16">
+    <row r="220" spans="1:8" ht="15.6">
       <c r="A220" s="4" t="s">
         <v>929</v>
       </c>
@@ -10273,7 +10284,7 @@
       <c r="G220" s="11"/>
       <c r="H220" s="11"/>
     </row>
-    <row r="221" spans="1:8" ht="16">
+    <row r="221" spans="1:8" ht="15.6">
       <c r="A221" s="4" t="s">
         <v>929</v>
       </c>
@@ -10287,7 +10298,7 @@
       <c r="G221" s="11"/>
       <c r="H221" s="11"/>
     </row>
-    <row r="222" spans="1:8" ht="16">
+    <row r="222" spans="1:8" ht="15.6">
       <c r="A222" s="4" t="s">
         <v>929</v>
       </c>
@@ -10301,7 +10312,7 @@
       <c r="G222" s="11"/>
       <c r="H222" s="11"/>
     </row>
-    <row r="223" spans="1:8" ht="16">
+    <row r="223" spans="1:8" ht="15.6">
       <c r="A223" s="4" t="s">
         <v>929</v>
       </c>
@@ -10315,7 +10326,7 @@
       <c r="G223" s="11"/>
       <c r="H223" s="11"/>
     </row>
-    <row r="224" spans="1:8" ht="16">
+    <row r="224" spans="1:8" ht="15.6">
       <c r="A224" s="4" t="s">
         <v>929</v>
       </c>
@@ -10329,7 +10340,7 @@
       <c r="G224" s="11"/>
       <c r="H224" s="11"/>
     </row>
-    <row r="225" spans="1:8" ht="16">
+    <row r="225" spans="1:8" ht="15.6">
       <c r="A225" s="4" t="s">
         <v>929</v>
       </c>
@@ -10343,7 +10354,7 @@
       <c r="G225" s="11"/>
       <c r="H225" s="11"/>
     </row>
-    <row r="226" spans="1:8" ht="16">
+    <row r="226" spans="1:8" ht="15.6">
       <c r="A226" s="4" t="s">
         <v>929</v>
       </c>
@@ -10357,7 +10368,7 @@
       <c r="G226" s="11"/>
       <c r="H226" s="11"/>
     </row>
-    <row r="227" spans="1:8" ht="16">
+    <row r="227" spans="1:8" ht="15.6">
       <c r="A227" s="4" t="s">
         <v>929</v>
       </c>
@@ -10371,7 +10382,7 @@
       <c r="G227" s="11"/>
       <c r="H227" s="11"/>
     </row>
-    <row r="228" spans="1:8" ht="16">
+    <row r="228" spans="1:8" ht="15.6">
       <c r="A228" s="4" t="s">
         <v>929</v>
       </c>
@@ -10385,7 +10396,7 @@
       <c r="G228" s="11"/>
       <c r="H228" s="11"/>
     </row>
-    <row r="229" spans="1:8" ht="16">
+    <row r="229" spans="1:8" ht="15.6">
       <c r="A229" s="4" t="s">
         <v>929</v>
       </c>
@@ -10399,7 +10410,7 @@
       <c r="G229" s="11"/>
       <c r="H229" s="11"/>
     </row>
-    <row r="230" spans="1:8" ht="16">
+    <row r="230" spans="1:8" ht="15.6">
       <c r="A230" s="4" t="s">
         <v>929</v>
       </c>
@@ -10413,7 +10424,7 @@
       <c r="G230" s="11"/>
       <c r="H230" s="11"/>
     </row>
-    <row r="231" spans="1:8" ht="16">
+    <row r="231" spans="1:8" ht="15.6">
       <c r="A231" s="4" t="s">
         <v>929</v>
       </c>
@@ -10427,7 +10438,7 @@
       <c r="G231" s="11"/>
       <c r="H231" s="11"/>
     </row>
-    <row r="232" spans="1:8" ht="16">
+    <row r="232" spans="1:8" ht="15.6">
       <c r="A232" s="4" t="s">
         <v>929</v>
       </c>
@@ -10441,7 +10452,7 @@
       <c r="G232" s="11"/>
       <c r="H232" s="11"/>
     </row>
-    <row r="233" spans="1:8" ht="16">
+    <row r="233" spans="1:8" ht="15.6">
       <c r="A233" s="4" t="s">
         <v>929</v>
       </c>
@@ -10455,7 +10466,7 @@
       <c r="G233" s="11"/>
       <c r="H233" s="11"/>
     </row>
-    <row r="234" spans="1:8" ht="16">
+    <row r="234" spans="1:8" ht="15.6">
       <c r="A234" s="4" t="s">
         <v>929</v>
       </c>
@@ -10469,7 +10480,7 @@
       <c r="G234" s="11"/>
       <c r="H234" s="11"/>
     </row>
-    <row r="235" spans="1:8" ht="19">
+    <row r="235" spans="1:8" ht="18">
       <c r="A235" s="4" t="s">
         <v>929</v>
       </c>
@@ -10483,7 +10494,7 @@
       <c r="G235" s="11"/>
       <c r="H235" s="11"/>
     </row>
-    <row r="236" spans="1:8" ht="16">
+    <row r="236" spans="1:8" ht="15.6">
       <c r="A236" s="4" t="s">
         <v>929</v>
       </c>
@@ -10497,7 +10508,7 @@
       <c r="G236" s="11"/>
       <c r="H236" s="11"/>
     </row>
-    <row r="237" spans="1:8" ht="16">
+    <row r="237" spans="1:8" ht="15.6">
       <c r="A237" s="4" t="s">
         <v>929</v>
       </c>
@@ -10511,7 +10522,7 @@
       <c r="G237" s="11"/>
       <c r="H237" s="11"/>
     </row>
-    <row r="238" spans="1:8" ht="16">
+    <row r="238" spans="1:8" ht="15.6">
       <c r="A238" s="4" t="s">
         <v>929</v>
       </c>
@@ -10525,7 +10536,7 @@
       <c r="G238" s="11"/>
       <c r="H238" s="11"/>
     </row>
-    <row r="239" spans="1:8" ht="16">
+    <row r="239" spans="1:8" ht="15.6">
       <c r="A239" s="4" t="s">
         <v>929</v>
       </c>
@@ -10539,7 +10550,7 @@
       <c r="G239" s="11"/>
       <c r="H239" s="11"/>
     </row>
-    <row r="240" spans="1:8" ht="16">
+    <row r="240" spans="1:8" ht="15.6">
       <c r="A240" s="4" t="s">
         <v>929</v>
       </c>
@@ -10553,7 +10564,7 @@
       <c r="G240" s="11"/>
       <c r="H240" s="11"/>
     </row>
-    <row r="241" spans="1:8" ht="16">
+    <row r="241" spans="1:8" ht="15.6">
       <c r="A241" s="4" t="s">
         <v>929</v>
       </c>
@@ -10567,7 +10578,7 @@
       <c r="G241" s="11"/>
       <c r="H241" s="11"/>
     </row>
-    <row r="242" spans="1:8" ht="16">
+    <row r="242" spans="1:8" ht="15.6">
       <c r="A242" s="4" t="s">
         <v>929</v>
       </c>
@@ -10581,7 +10592,7 @@
       <c r="G242" s="11"/>
       <c r="H242" s="11"/>
     </row>
-    <row r="243" spans="1:8" ht="16">
+    <row r="243" spans="1:8" ht="15.6">
       <c r="A243" s="4" t="s">
         <v>929</v>
       </c>
@@ -10595,7 +10606,7 @@
       <c r="G243" s="11"/>
       <c r="H243" s="11"/>
     </row>
-    <row r="244" spans="1:8" ht="16">
+    <row r="244" spans="1:8" ht="15.6">
       <c r="A244" s="4" t="s">
         <v>929</v>
       </c>
@@ -10609,7 +10620,7 @@
       <c r="G244" s="11"/>
       <c r="H244" s="11"/>
     </row>
-    <row r="245" spans="1:8" ht="16">
+    <row r="245" spans="1:8" ht="15.6">
       <c r="A245" s="4" t="s">
         <v>929</v>
       </c>
@@ -10623,7 +10634,7 @@
       <c r="G245" s="11"/>
       <c r="H245" s="11"/>
     </row>
-    <row r="246" spans="1:8" ht="16">
+    <row r="246" spans="1:8" ht="15.6">
       <c r="A246" s="4" t="s">
         <v>929</v>
       </c>
@@ -10637,7 +10648,7 @@
       <c r="G246" s="11"/>
       <c r="H246" s="11"/>
     </row>
-    <row r="247" spans="1:8" ht="16">
+    <row r="247" spans="1:8" ht="15.6">
       <c r="A247" s="4" t="s">
         <v>929</v>
       </c>
@@ -10651,7 +10662,7 @@
       <c r="G247" s="11"/>
       <c r="H247" s="11"/>
     </row>
-    <row r="248" spans="1:8" ht="16">
+    <row r="248" spans="1:8" ht="15.6">
       <c r="A248" s="4" t="s">
         <v>929</v>
       </c>
@@ -10665,7 +10676,7 @@
       <c r="G248" s="11"/>
       <c r="H248" s="11"/>
     </row>
-    <row r="249" spans="1:8" ht="16">
+    <row r="249" spans="1:8" ht="15.6">
       <c r="A249" s="4" t="s">
         <v>929</v>
       </c>
@@ -10679,7 +10690,7 @@
       <c r="G249" s="11"/>
       <c r="H249" s="11"/>
     </row>
-    <row r="250" spans="1:8" ht="16">
+    <row r="250" spans="1:8" ht="15.6">
       <c r="A250" s="4" t="s">
         <v>929</v>
       </c>
@@ -10693,7 +10704,7 @@
       <c r="G250" s="11"/>
       <c r="H250" s="11"/>
     </row>
-    <row r="251" spans="1:8" ht="16">
+    <row r="251" spans="1:8" ht="15.6">
       <c r="A251" s="4" t="s">
         <v>929</v>
       </c>
@@ -10707,7 +10718,7 @@
       <c r="G251" s="11"/>
       <c r="H251" s="11"/>
     </row>
-    <row r="252" spans="1:8" ht="16">
+    <row r="252" spans="1:8" ht="15.6">
       <c r="A252" s="4" t="s">
         <v>929</v>
       </c>
@@ -10721,7 +10732,7 @@
       <c r="G252" s="11"/>
       <c r="H252" s="11"/>
     </row>
-    <row r="253" spans="1:8" ht="16">
+    <row r="253" spans="1:8" ht="15.6">
       <c r="A253" s="4" t="s">
         <v>929</v>
       </c>
@@ -10735,7 +10746,7 @@
       <c r="G253" s="11"/>
       <c r="H253" s="11"/>
     </row>
-    <row r="254" spans="1:8" ht="16">
+    <row r="254" spans="1:8" ht="15.6">
       <c r="A254" s="4" t="s">
         <v>929</v>
       </c>
@@ -10749,7 +10760,7 @@
       <c r="G254" s="11"/>
       <c r="H254" s="11"/>
     </row>
-    <row r="255" spans="1:8" ht="16">
+    <row r="255" spans="1:8" ht="15.6">
       <c r="A255" s="4" t="s">
         <v>929</v>
       </c>
@@ -10763,7 +10774,7 @@
       <c r="G255" s="11"/>
       <c r="H255" s="11"/>
     </row>
-    <row r="256" spans="1:8" ht="16">
+    <row r="256" spans="1:8" ht="15.6">
       <c r="A256" s="4" t="s">
         <v>929</v>
       </c>
@@ -10777,7 +10788,7 @@
       <c r="G256" s="11"/>
       <c r="H256" s="11"/>
     </row>
-    <row r="257" spans="1:8" ht="16">
+    <row r="257" spans="1:8" ht="15.6">
       <c r="A257" s="4" t="s">
         <v>929</v>
       </c>
@@ -10791,7 +10802,7 @@
       <c r="G257" s="11"/>
       <c r="H257" s="11"/>
     </row>
-    <row r="258" spans="1:8" ht="16">
+    <row r="258" spans="1:8" ht="15.6">
       <c r="A258" s="4" t="s">
         <v>929</v>
       </c>
@@ -10805,7 +10816,7 @@
       <c r="G258" s="11"/>
       <c r="H258" s="11"/>
     </row>
-    <row r="259" spans="1:8" ht="16">
+    <row r="259" spans="1:8" ht="15.6">
       <c r="A259" s="4" t="s">
         <v>929</v>
       </c>
@@ -10819,7 +10830,7 @@
       <c r="G259" s="11"/>
       <c r="H259" s="11"/>
     </row>
-    <row r="260" spans="1:8" ht="16">
+    <row r="260" spans="1:8" ht="15.6">
       <c r="A260" s="4" t="s">
         <v>929</v>
       </c>
@@ -10833,7 +10844,7 @@
       <c r="G260" s="11"/>
       <c r="H260" s="11"/>
     </row>
-    <row r="261" spans="1:8" ht="16">
+    <row r="261" spans="1:8" ht="15.6">
       <c r="A261" s="4" t="s">
         <v>929</v>
       </c>
@@ -10847,7 +10858,7 @@
       <c r="G261" s="11"/>
       <c r="H261" s="11"/>
     </row>
-    <row r="262" spans="1:8" ht="16">
+    <row r="262" spans="1:8" ht="15.6">
       <c r="A262" s="4" t="s">
         <v>929</v>
       </c>
@@ -10861,7 +10872,7 @@
       <c r="G262" s="11"/>
       <c r="H262" s="11"/>
     </row>
-    <row r="263" spans="1:8" ht="16">
+    <row r="263" spans="1:8" ht="15.6">
       <c r="A263" s="4" t="s">
         <v>929</v>
       </c>
@@ -10875,7 +10886,7 @@
       <c r="G263" s="11"/>
       <c r="H263" s="11"/>
     </row>
-    <row r="264" spans="1:8" ht="16">
+    <row r="264" spans="1:8" ht="15.6">
       <c r="A264" s="4" t="s">
         <v>929</v>
       </c>
@@ -10889,7 +10900,7 @@
       <c r="G264" s="11"/>
       <c r="H264" s="11"/>
     </row>
-    <row r="265" spans="1:8" ht="16">
+    <row r="265" spans="1:8" ht="15.6">
       <c r="A265" s="4" t="s">
         <v>929</v>
       </c>
@@ -10903,7 +10914,7 @@
       <c r="G265" s="11"/>
       <c r="H265" s="11"/>
     </row>
-    <row r="266" spans="1:8" ht="16">
+    <row r="266" spans="1:8" ht="15.6">
       <c r="A266" s="4" t="s">
         <v>929</v>
       </c>
@@ -10917,7 +10928,7 @@
       <c r="G266" s="11"/>
       <c r="H266" s="11"/>
     </row>
-    <row r="267" spans="1:8" ht="16">
+    <row r="267" spans="1:8" ht="15.6">
       <c r="A267" s="4" t="s">
         <v>929</v>
       </c>
@@ -10931,7 +10942,7 @@
       <c r="G267" s="11"/>
       <c r="H267" s="11"/>
     </row>
-    <row r="268" spans="1:8" ht="16">
+    <row r="268" spans="1:8" ht="15.6">
       <c r="A268" s="4" t="s">
         <v>929</v>
       </c>
@@ -10945,7 +10956,7 @@
       <c r="G268" s="11"/>
       <c r="H268" s="11"/>
     </row>
-    <row r="269" spans="1:8" ht="16">
+    <row r="269" spans="1:8" ht="15.6">
       <c r="A269" s="4" t="s">
         <v>929</v>
       </c>
@@ -10959,7 +10970,7 @@
       <c r="G269" s="11"/>
       <c r="H269" s="11"/>
     </row>
-    <row r="270" spans="1:8" ht="19">
+    <row r="270" spans="1:8" ht="18">
       <c r="A270" s="4" t="s">
         <v>929</v>
       </c>
@@ -10973,7 +10984,7 @@
       <c r="G270" s="11"/>
       <c r="H270" s="11"/>
     </row>
-    <row r="271" spans="1:8" ht="16">
+    <row r="271" spans="1:8" ht="15.6">
       <c r="A271" s="4" t="s">
         <v>929</v>
       </c>
@@ -10987,7 +10998,7 @@
       <c r="G271" s="11"/>
       <c r="H271" s="11"/>
     </row>
-    <row r="272" spans="1:8" ht="16">
+    <row r="272" spans="1:8" ht="15.6">
       <c r="A272" s="4" t="s">
         <v>929</v>
       </c>
@@ -11001,7 +11012,7 @@
       <c r="G272" s="11"/>
       <c r="H272" s="11"/>
     </row>
-    <row r="273" spans="1:8" ht="16">
+    <row r="273" spans="1:8" ht="15.6">
       <c r="A273" s="4" t="s">
         <v>929</v>
       </c>
@@ -11015,7 +11026,7 @@
       <c r="G273" s="11"/>
       <c r="H273" s="11"/>
     </row>
-    <row r="274" spans="1:8" ht="16">
+    <row r="274" spans="1:8" ht="15.6">
       <c r="A274" s="4" t="s">
         <v>929</v>
       </c>
@@ -11029,7 +11040,7 @@
       <c r="G274" s="11"/>
       <c r="H274" s="11"/>
     </row>
-    <row r="275" spans="1:8" ht="16">
+    <row r="275" spans="1:8" ht="15.6">
       <c r="A275" s="4" t="s">
         <v>929</v>
       </c>
@@ -11043,7 +11054,7 @@
       <c r="G275" s="11"/>
       <c r="H275" s="11"/>
     </row>
-    <row r="276" spans="1:8" ht="16">
+    <row r="276" spans="1:8" ht="15.6">
       <c r="A276" s="4" t="s">
         <v>929</v>
       </c>
@@ -11057,7 +11068,7 @@
       <c r="G276" s="11"/>
       <c r="H276" s="11"/>
     </row>
-    <row r="277" spans="1:8" ht="16">
+    <row r="277" spans="1:8" ht="15.6">
       <c r="A277" s="4" t="s">
         <v>929</v>
       </c>
@@ -11071,7 +11082,7 @@
       <c r="G277" s="11"/>
       <c r="H277" s="11"/>
     </row>
-    <row r="278" spans="1:8" ht="16">
+    <row r="278" spans="1:8" ht="15.6">
       <c r="A278" s="4" t="s">
         <v>929</v>
       </c>
@@ -11085,7 +11096,7 @@
       <c r="G278" s="11"/>
       <c r="H278" s="11"/>
     </row>
-    <row r="279" spans="1:8" ht="16">
+    <row r="279" spans="1:8" ht="15.6">
       <c r="A279" s="4" t="s">
         <v>929</v>
       </c>
@@ -11111,7 +11122,7 @@
       <c r="G280" s="11"/>
       <c r="H280" s="11"/>
     </row>
-    <row r="281" spans="1:8" ht="19">
+    <row r="281" spans="1:8" ht="18">
       <c r="A281" s="4" t="s">
         <v>936</v>
       </c>
@@ -11125,7 +11136,7 @@
       <c r="G281" s="11"/>
       <c r="H281" s="11"/>
     </row>
-    <row r="282" spans="1:8" ht="16">
+    <row r="282" spans="1:8" ht="15.6">
       <c r="A282" s="4" t="s">
         <v>936</v>
       </c>
@@ -11139,7 +11150,7 @@
       <c r="G282" s="11"/>
       <c r="H282" s="11"/>
     </row>
-    <row r="283" spans="1:8" ht="16">
+    <row r="283" spans="1:8" ht="15.6">
       <c r="A283" s="4" t="s">
         <v>936</v>
       </c>
@@ -11153,7 +11164,7 @@
       <c r="G283" s="11"/>
       <c r="H283" s="11"/>
     </row>
-    <row r="284" spans="1:8" ht="16">
+    <row r="284" spans="1:8" ht="15.6">
       <c r="A284" s="4" t="s">
         <v>936</v>
       </c>
@@ -11167,7 +11178,7 @@
       <c r="G284" s="11"/>
       <c r="H284" s="11"/>
     </row>
-    <row r="285" spans="1:8" ht="16">
+    <row r="285" spans="1:8" ht="15.6">
       <c r="A285" s="4" t="s">
         <v>936</v>
       </c>
@@ -11181,7 +11192,7 @@
       <c r="G285" s="11"/>
       <c r="H285" s="11"/>
     </row>
-    <row r="286" spans="1:8" ht="16">
+    <row r="286" spans="1:8" ht="15.6">
       <c r="A286" s="4" t="s">
         <v>936</v>
       </c>
@@ -11195,7 +11206,7 @@
       <c r="G286" s="11"/>
       <c r="H286" s="11"/>
     </row>
-    <row r="287" spans="1:8" ht="16">
+    <row r="287" spans="1:8" ht="15.6">
       <c r="A287" s="4" t="s">
         <v>936</v>
       </c>
@@ -11209,7 +11220,7 @@
       <c r="G287" s="11"/>
       <c r="H287" s="11"/>
     </row>
-    <row r="288" spans="1:8" ht="16">
+    <row r="288" spans="1:8" ht="15.6">
       <c r="A288" s="4" t="s">
         <v>936</v>
       </c>
@@ -11223,7 +11234,7 @@
       <c r="G288" s="11"/>
       <c r="H288" s="11"/>
     </row>
-    <row r="289" spans="1:8" ht="16">
+    <row r="289" spans="1:8" ht="15.6">
       <c r="A289" s="4" t="s">
         <v>936</v>
       </c>
@@ -11237,7 +11248,7 @@
       <c r="G289" s="11"/>
       <c r="H289" s="11"/>
     </row>
-    <row r="290" spans="1:8" ht="16">
+    <row r="290" spans="1:8" ht="15.6">
       <c r="A290" s="4" t="s">
         <v>936</v>
       </c>
@@ -11251,7 +11262,7 @@
       <c r="G290" s="11"/>
       <c r="H290" s="11"/>
     </row>
-    <row r="291" spans="1:8" ht="16">
+    <row r="291" spans="1:8" ht="15.6">
       <c r="A291" s="4" t="s">
         <v>936</v>
       </c>
@@ -11265,7 +11276,7 @@
       <c r="G291" s="11"/>
       <c r="H291" s="11"/>
     </row>
-    <row r="292" spans="1:8" ht="16">
+    <row r="292" spans="1:8" ht="15.6">
       <c r="A292" s="4" t="s">
         <v>936</v>
       </c>
@@ -11279,7 +11290,7 @@
       <c r="G292" s="11"/>
       <c r="H292" s="11"/>
     </row>
-    <row r="293" spans="1:8" ht="16">
+    <row r="293" spans="1:8" ht="15.6">
       <c r="A293" s="4" t="s">
         <v>936</v>
       </c>
@@ -11293,7 +11304,7 @@
       <c r="G293" s="11"/>
       <c r="H293" s="11"/>
     </row>
-    <row r="294" spans="1:8" ht="16">
+    <row r="294" spans="1:8" ht="15.6">
       <c r="A294" s="4" t="s">
         <v>936</v>
       </c>
@@ -11307,7 +11318,7 @@
       <c r="G294" s="11"/>
       <c r="H294" s="11"/>
     </row>
-    <row r="295" spans="1:8" ht="16">
+    <row r="295" spans="1:8" ht="15.6">
       <c r="A295" s="4" t="s">
         <v>936</v>
       </c>
@@ -11321,7 +11332,7 @@
       <c r="G295" s="11"/>
       <c r="H295" s="11"/>
     </row>
-    <row r="296" spans="1:8" ht="16">
+    <row r="296" spans="1:8" ht="15.6">
       <c r="A296" s="4" t="s">
         <v>936</v>
       </c>
@@ -11335,7 +11346,7 @@
       <c r="G296" s="11"/>
       <c r="H296" s="11"/>
     </row>
-    <row r="297" spans="1:8" ht="16">
+    <row r="297" spans="1:8" ht="15.6">
       <c r="A297" s="4" t="s">
         <v>936</v>
       </c>
@@ -11349,7 +11360,7 @@
       <c r="G297" s="11"/>
       <c r="H297" s="11"/>
     </row>
-    <row r="298" spans="1:8" ht="16">
+    <row r="298" spans="1:8" ht="15.6">
       <c r="A298" s="4" t="s">
         <v>936</v>
       </c>
@@ -11363,7 +11374,7 @@
       <c r="G298" s="11"/>
       <c r="H298" s="11"/>
     </row>
-    <row r="299" spans="1:8" ht="16">
+    <row r="299" spans="1:8" ht="15.6">
       <c r="A299" s="4" t="s">
         <v>936</v>
       </c>
@@ -11377,7 +11388,7 @@
       <c r="G299" s="11"/>
       <c r="H299" s="11"/>
     </row>
-    <row r="300" spans="1:8" ht="16">
+    <row r="300" spans="1:8" ht="15.6">
       <c r="A300" s="4" t="s">
         <v>936</v>
       </c>
@@ -11391,7 +11402,7 @@
       <c r="G300" s="11"/>
       <c r="H300" s="11"/>
     </row>
-    <row r="301" spans="1:8" ht="16">
+    <row r="301" spans="1:8" ht="15.6">
       <c r="A301" s="4" t="s">
         <v>936</v>
       </c>
@@ -11405,7 +11416,7 @@
       <c r="G301" s="11"/>
       <c r="H301" s="11"/>
     </row>
-    <row r="302" spans="1:8" ht="16">
+    <row r="302" spans="1:8" ht="15.6">
       <c r="A302" s="4" t="s">
         <v>936</v>
       </c>
@@ -11419,7 +11430,7 @@
       <c r="G302" s="11"/>
       <c r="H302" s="11"/>
     </row>
-    <row r="303" spans="1:8" ht="16">
+    <row r="303" spans="1:8" ht="15.6">
       <c r="A303" s="4" t="s">
         <v>936</v>
       </c>
@@ -11433,7 +11444,7 @@
       <c r="G303" s="11"/>
       <c r="H303" s="11"/>
     </row>
-    <row r="304" spans="1:8" ht="16">
+    <row r="304" spans="1:8" ht="15.6">
       <c r="A304" s="4" t="s">
         <v>936</v>
       </c>
@@ -11447,7 +11458,7 @@
       <c r="G304" s="11"/>
       <c r="H304" s="11"/>
     </row>
-    <row r="305" spans="1:8" ht="16">
+    <row r="305" spans="1:8" ht="15.6">
       <c r="A305" s="4" t="s">
         <v>936</v>
       </c>
@@ -11461,7 +11472,7 @@
       <c r="G305" s="11"/>
       <c r="H305" s="11"/>
     </row>
-    <row r="306" spans="1:8" ht="16">
+    <row r="306" spans="1:8" ht="15.6">
       <c r="A306" s="4" t="s">
         <v>936</v>
       </c>
@@ -11475,7 +11486,7 @@
       <c r="G306" s="11"/>
       <c r="H306" s="11"/>
     </row>
-    <row r="307" spans="1:8" ht="16">
+    <row r="307" spans="1:8" ht="15.6">
       <c r="A307" s="4" t="s">
         <v>936</v>
       </c>
@@ -11489,7 +11500,7 @@
       <c r="G307" s="11"/>
       <c r="H307" s="11"/>
     </row>
-    <row r="308" spans="1:8" ht="16">
+    <row r="308" spans="1:8" ht="15.6">
       <c r="A308" s="4" t="s">
         <v>936</v>
       </c>
@@ -11503,7 +11514,7 @@
       <c r="G308" s="11"/>
       <c r="H308" s="11"/>
     </row>
-    <row r="309" spans="1:8" ht="19">
+    <row r="309" spans="1:8" ht="18">
       <c r="A309" s="4" t="s">
         <v>936</v>
       </c>
@@ -11517,7 +11528,7 @@
       <c r="G309" s="11"/>
       <c r="H309" s="11"/>
     </row>
-    <row r="310" spans="1:8" ht="16">
+    <row r="310" spans="1:8" ht="15.6">
       <c r="A310" s="4" t="s">
         <v>936</v>
       </c>
@@ -11531,7 +11542,7 @@
       <c r="G310" s="11"/>
       <c r="H310" s="11"/>
     </row>
-    <row r="311" spans="1:8" ht="16">
+    <row r="311" spans="1:8" ht="15.6">
       <c r="A311" s="4" t="s">
         <v>936</v>
       </c>
@@ -11545,7 +11556,7 @@
       <c r="G311" s="11"/>
       <c r="H311" s="11"/>
     </row>
-    <row r="312" spans="1:8" ht="16">
+    <row r="312" spans="1:8" ht="15.6">
       <c r="A312" s="4" t="s">
         <v>936</v>
       </c>
@@ -11559,7 +11570,7 @@
       <c r="G312" s="11"/>
       <c r="H312" s="11"/>
     </row>
-    <row r="313" spans="1:8" ht="16">
+    <row r="313" spans="1:8" ht="15.6">
       <c r="A313" s="4" t="s">
         <v>936</v>
       </c>
@@ -11573,7 +11584,7 @@
       <c r="G313" s="11"/>
       <c r="H313" s="11"/>
     </row>
-    <row r="314" spans="1:8" ht="16">
+    <row r="314" spans="1:8" ht="15.6">
       <c r="A314" s="4" t="s">
         <v>936</v>
       </c>
@@ -11599,7 +11610,7 @@
       <c r="G315" s="11"/>
       <c r="H315" s="11"/>
     </row>
-    <row r="316" spans="1:8" ht="19">
+    <row r="316" spans="1:8" ht="18">
       <c r="A316" s="4" t="s">
         <v>937</v>
       </c>
@@ -11613,7 +11624,7 @@
       <c r="G316" s="11"/>
       <c r="H316" s="11"/>
     </row>
-    <row r="317" spans="1:8" ht="16">
+    <row r="317" spans="1:8" ht="15.6">
       <c r="A317" s="4" t="s">
         <v>937</v>
       </c>
@@ -11627,7 +11638,7 @@
       <c r="G317" s="11"/>
       <c r="H317" s="11"/>
     </row>
-    <row r="318" spans="1:8" ht="16">
+    <row r="318" spans="1:8" ht="15.6">
       <c r="A318" s="4" t="s">
         <v>937</v>
       </c>
@@ -11641,7 +11652,7 @@
       <c r="G318" s="11"/>
       <c r="H318" s="11"/>
     </row>
-    <row r="319" spans="1:8" ht="16">
+    <row r="319" spans="1:8" ht="15.6">
       <c r="A319" s="4" t="s">
         <v>937</v>
       </c>
@@ -11655,7 +11666,7 @@
       <c r="G319" s="11"/>
       <c r="H319" s="11"/>
     </row>
-    <row r="320" spans="1:8" ht="16">
+    <row r="320" spans="1:8" ht="15.6">
       <c r="A320" s="4" t="s">
         <v>937</v>
       </c>
@@ -11669,7 +11680,7 @@
       <c r="G320" s="11"/>
       <c r="H320" s="11"/>
     </row>
-    <row r="321" spans="1:8" ht="16">
+    <row r="321" spans="1:8" ht="15.6">
       <c r="A321" s="4" t="s">
         <v>937</v>
       </c>
@@ -11683,7 +11694,7 @@
       <c r="G321" s="11"/>
       <c r="H321" s="11"/>
     </row>
-    <row r="322" spans="1:8" ht="16">
+    <row r="322" spans="1:8" ht="15.6">
       <c r="A322" s="4" t="s">
         <v>937</v>
       </c>
@@ -11697,7 +11708,7 @@
       <c r="G322" s="11"/>
       <c r="H322" s="11"/>
     </row>
-    <row r="323" spans="1:8" ht="16">
+    <row r="323" spans="1:8" ht="15.6">
       <c r="A323" s="4" t="s">
         <v>937</v>
       </c>
@@ -11711,7 +11722,7 @@
       <c r="G323" s="11"/>
       <c r="H323" s="11"/>
     </row>
-    <row r="324" spans="1:8" ht="16">
+    <row r="324" spans="1:8" ht="15.6">
       <c r="A324" s="4" t="s">
         <v>937</v>
       </c>
@@ -11725,7 +11736,7 @@
       <c r="G324" s="11"/>
       <c r="H324" s="11"/>
     </row>
-    <row r="325" spans="1:8" ht="16">
+    <row r="325" spans="1:8" ht="15.6">
       <c r="A325" s="4" t="s">
         <v>937</v>
       </c>
@@ -11739,7 +11750,7 @@
       <c r="G325" s="11"/>
       <c r="H325" s="11"/>
     </row>
-    <row r="326" spans="1:8" ht="16">
+    <row r="326" spans="1:8" ht="15.6">
       <c r="A326" s="4" t="s">
         <v>937</v>
       </c>
@@ -11753,7 +11764,7 @@
       <c r="G326" s="11"/>
       <c r="H326" s="11"/>
     </row>
-    <row r="327" spans="1:8" ht="19">
+    <row r="327" spans="1:8" ht="18">
       <c r="A327" s="4" t="s">
         <v>937</v>
       </c>
@@ -11767,7 +11778,7 @@
       <c r="G327" s="11"/>
       <c r="H327" s="11"/>
     </row>
-    <row r="328" spans="1:8" ht="16">
+    <row r="328" spans="1:8" ht="15.6">
       <c r="A328" s="4" t="s">
         <v>937</v>
       </c>
@@ -11781,7 +11792,7 @@
       <c r="G328" s="11"/>
       <c r="H328" s="11"/>
     </row>
-    <row r="329" spans="1:8" ht="16">
+    <row r="329" spans="1:8" ht="15.6">
       <c r="A329" s="4" t="s">
         <v>937</v>
       </c>
@@ -11795,7 +11806,7 @@
       <c r="G329" s="11"/>
       <c r="H329" s="11"/>
     </row>
-    <row r="330" spans="1:8" ht="16">
+    <row r="330" spans="1:8" ht="15.6">
       <c r="A330" s="4" t="s">
         <v>937</v>
       </c>
@@ -11809,7 +11820,7 @@
       <c r="G330" s="11"/>
       <c r="H330" s="11"/>
     </row>
-    <row r="331" spans="1:8" ht="16">
+    <row r="331" spans="1:8" ht="15.6">
       <c r="A331" s="4" t="s">
         <v>937</v>
       </c>
@@ -11823,7 +11834,7 @@
       <c r="G331" s="11"/>
       <c r="H331" s="11"/>
     </row>
-    <row r="332" spans="1:8" ht="16">
+    <row r="332" spans="1:8" ht="15.6">
       <c r="A332" s="4" t="s">
         <v>937</v>
       </c>
@@ -11837,7 +11848,7 @@
       <c r="G332" s="11"/>
       <c r="H332" s="11"/>
     </row>
-    <row r="333" spans="1:8" ht="16">
+    <row r="333" spans="1:8" ht="15.6">
       <c r="A333" s="4" t="s">
         <v>937</v>
       </c>
@@ -11851,7 +11862,7 @@
       <c r="G333" s="11"/>
       <c r="H333" s="11"/>
     </row>
-    <row r="334" spans="1:8" ht="16">
+    <row r="334" spans="1:8" ht="15.6">
       <c r="A334" s="4" t="s">
         <v>937</v>
       </c>
@@ -11865,7 +11876,7 @@
       <c r="G334" s="11"/>
       <c r="H334" s="11"/>
     </row>
-    <row r="335" spans="1:8" ht="16">
+    <row r="335" spans="1:8" ht="15.6">
       <c r="A335" s="4" t="s">
         <v>937</v>
       </c>
@@ -11879,7 +11890,7 @@
       <c r="G335" s="11"/>
       <c r="H335" s="11"/>
     </row>
-    <row r="336" spans="1:8" ht="16">
+    <row r="336" spans="1:8" ht="15.6">
       <c r="A336" s="4" t="s">
         <v>937</v>
       </c>
@@ -11893,7 +11904,7 @@
       <c r="G336" s="11"/>
       <c r="H336" s="11"/>
     </row>
-    <row r="337" spans="1:8" ht="16">
+    <row r="337" spans="1:8" ht="15.6">
       <c r="A337" s="4" t="s">
         <v>937</v>
       </c>
@@ -11907,7 +11918,7 @@
       <c r="G337" s="11"/>
       <c r="H337" s="11"/>
     </row>
-    <row r="338" spans="1:8" ht="16">
+    <row r="338" spans="1:8" ht="15.6">
       <c r="A338" s="4" t="s">
         <v>937</v>
       </c>
@@ -11921,7 +11932,7 @@
       <c r="G338" s="11"/>
       <c r="H338" s="11"/>
     </row>
-    <row r="339" spans="1:8" ht="16">
+    <row r="339" spans="1:8" ht="15.6">
       <c r="A339" s="4" t="s">
         <v>937</v>
       </c>
@@ -11935,7 +11946,7 @@
       <c r="G339" s="11"/>
       <c r="H339" s="11"/>
     </row>
-    <row r="340" spans="1:8" ht="16">
+    <row r="340" spans="1:8" ht="15.6">
       <c r="A340" s="4" t="s">
         <v>937</v>
       </c>
@@ -11949,7 +11960,7 @@
       <c r="G340" s="11"/>
       <c r="H340" s="11"/>
     </row>
-    <row r="341" spans="1:8" ht="16">
+    <row r="341" spans="1:8" ht="15.6">
       <c r="A341" s="4" t="s">
         <v>937</v>
       </c>
@@ -11963,7 +11974,7 @@
       <c r="G341" s="11"/>
       <c r="H341" s="11"/>
     </row>
-    <row r="342" spans="1:8" ht="16">
+    <row r="342" spans="1:8" ht="15.6">
       <c r="A342" s="4" t="s">
         <v>937</v>
       </c>
@@ -11977,7 +11988,7 @@
       <c r="G342" s="11"/>
       <c r="H342" s="11"/>
     </row>
-    <row r="343" spans="1:8" ht="16">
+    <row r="343" spans="1:8" ht="15.6">
       <c r="A343" s="4" t="s">
         <v>937</v>
       </c>
@@ -11991,7 +12002,7 @@
       <c r="G343" s="11"/>
       <c r="H343" s="11"/>
     </row>
-    <row r="344" spans="1:8" ht="16">
+    <row r="344" spans="1:8" ht="15.6">
       <c r="A344" s="4" t="s">
         <v>937</v>
       </c>
@@ -12005,7 +12016,7 @@
       <c r="G344" s="11"/>
       <c r="H344" s="11"/>
     </row>
-    <row r="345" spans="1:8" ht="16">
+    <row r="345" spans="1:8" ht="15.6">
       <c r="A345" s="4" t="s">
         <v>937</v>
       </c>
@@ -12019,7 +12030,7 @@
       <c r="G345" s="11"/>
       <c r="H345" s="11"/>
     </row>
-    <row r="346" spans="1:8" ht="16">
+    <row r="346" spans="1:8" ht="15.6">
       <c r="A346" s="4" t="s">
         <v>937</v>
       </c>
@@ -12033,7 +12044,7 @@
       <c r="G346" s="11"/>
       <c r="H346" s="11"/>
     </row>
-    <row r="347" spans="1:8" ht="16">
+    <row r="347" spans="1:8" ht="15.6">
       <c r="A347" s="4" t="s">
         <v>937</v>
       </c>
@@ -12047,7 +12058,7 @@
       <c r="G347" s="11"/>
       <c r="H347" s="11"/>
     </row>
-    <row r="348" spans="1:8" ht="16">
+    <row r="348" spans="1:8" ht="15.6">
       <c r="A348" s="4" t="s">
         <v>937</v>
       </c>
@@ -12061,7 +12072,7 @@
       <c r="G348" s="11"/>
       <c r="H348" s="11"/>
     </row>
-    <row r="349" spans="1:8" ht="16">
+    <row r="349" spans="1:8" ht="15.6">
       <c r="A349" s="4" t="s">
         <v>937</v>
       </c>
@@ -12075,7 +12086,7 @@
       <c r="G349" s="11"/>
       <c r="H349" s="11"/>
     </row>
-    <row r="350" spans="1:8" ht="16">
+    <row r="350" spans="1:8" ht="15.6">
       <c r="A350" s="4" t="s">
         <v>937</v>
       </c>
@@ -12101,7 +12112,7 @@
       <c r="G351" s="11"/>
       <c r="H351" s="11"/>
     </row>
-    <row r="352" spans="1:8" ht="19">
+    <row r="352" spans="1:8" ht="18">
       <c r="A352" s="4" t="s">
         <v>938</v>
       </c>
@@ -12115,7 +12126,7 @@
       <c r="G352" s="11"/>
       <c r="H352" s="11"/>
     </row>
-    <row r="353" spans="1:8" ht="16">
+    <row r="353" spans="1:8" ht="15.6">
       <c r="A353" s="4" t="s">
         <v>938</v>
       </c>
@@ -12129,7 +12140,7 @@
       <c r="G353" s="11"/>
       <c r="H353" s="11"/>
     </row>
-    <row r="354" spans="1:8" ht="16">
+    <row r="354" spans="1:8" ht="15.6">
       <c r="A354" s="4" t="s">
         <v>938</v>
       </c>
@@ -12143,7 +12154,7 @@
       <c r="G354" s="11"/>
       <c r="H354" s="11"/>
     </row>
-    <row r="355" spans="1:8" ht="16">
+    <row r="355" spans="1:8" ht="15.6">
       <c r="A355" s="4" t="s">
         <v>938</v>
       </c>
@@ -12157,7 +12168,7 @@
       <c r="G355" s="11"/>
       <c r="H355" s="11"/>
     </row>
-    <row r="356" spans="1:8" ht="16">
+    <row r="356" spans="1:8" ht="15.6">
       <c r="A356" s="4" t="s">
         <v>938</v>
       </c>
@@ -12171,7 +12182,7 @@
       <c r="G356" s="11"/>
       <c r="H356" s="11"/>
     </row>
-    <row r="357" spans="1:8" ht="16">
+    <row r="357" spans="1:8" ht="15.6">
       <c r="A357" s="4" t="s">
         <v>938</v>
       </c>
@@ -12185,7 +12196,7 @@
       <c r="G357" s="11"/>
       <c r="H357" s="11"/>
     </row>
-    <row r="358" spans="1:8" ht="16">
+    <row r="358" spans="1:8" ht="15.6">
       <c r="A358" s="4" t="s">
         <v>938</v>
       </c>
@@ -12199,7 +12210,7 @@
       <c r="G358" s="11"/>
       <c r="H358" s="11"/>
     </row>
-    <row r="359" spans="1:8" ht="16">
+    <row r="359" spans="1:8" ht="15.6">
       <c r="A359" s="4" t="s">
         <v>938</v>
       </c>
@@ -12213,7 +12224,7 @@
       <c r="G359" s="11"/>
       <c r="H359" s="11"/>
     </row>
-    <row r="360" spans="1:8" ht="16">
+    <row r="360" spans="1:8" ht="15.6">
       <c r="A360" s="4" t="s">
         <v>938</v>
       </c>
@@ -12227,7 +12238,7 @@
       <c r="G360" s="11"/>
       <c r="H360" s="11"/>
     </row>
-    <row r="361" spans="1:8" ht="16">
+    <row r="361" spans="1:8" ht="15.6">
       <c r="A361" s="4" t="s">
         <v>938</v>
       </c>
@@ -12241,7 +12252,7 @@
       <c r="G361" s="11"/>
       <c r="H361" s="11"/>
     </row>
-    <row r="362" spans="1:8" ht="19">
+    <row r="362" spans="1:8" ht="18">
       <c r="A362" s="4" t="s">
         <v>938</v>
       </c>
@@ -12255,7 +12266,7 @@
       <c r="G362" s="11"/>
       <c r="H362" s="11"/>
     </row>
-    <row r="363" spans="1:8" ht="16">
+    <row r="363" spans="1:8" ht="15.6">
       <c r="A363" s="4" t="s">
         <v>938</v>
       </c>
@@ -12269,7 +12280,7 @@
       <c r="G363" s="11"/>
       <c r="H363" s="11"/>
     </row>
-    <row r="364" spans="1:8" ht="16">
+    <row r="364" spans="1:8" ht="15.6">
       <c r="A364" s="4" t="s">
         <v>938</v>
       </c>
@@ -12283,7 +12294,7 @@
       <c r="G364" s="11"/>
       <c r="H364" s="11"/>
     </row>
-    <row r="365" spans="1:8" ht="16">
+    <row r="365" spans="1:8" ht="15.6">
       <c r="A365" s="4" t="s">
         <v>938</v>
       </c>
@@ -12297,7 +12308,7 @@
       <c r="G365" s="11"/>
       <c r="H365" s="11"/>
     </row>
-    <row r="366" spans="1:8" ht="16">
+    <row r="366" spans="1:8" ht="15.6">
       <c r="A366" s="4" t="s">
         <v>938</v>
       </c>
@@ -12311,7 +12322,7 @@
       <c r="G366" s="11"/>
       <c r="H366" s="11"/>
     </row>
-    <row r="367" spans="1:8" ht="16">
+    <row r="367" spans="1:8" ht="15.6">
       <c r="A367" s="4" t="s">
         <v>938</v>
       </c>
@@ -12325,7 +12336,7 @@
       <c r="G367" s="11"/>
       <c r="H367" s="11"/>
     </row>
-    <row r="368" spans="1:8" ht="16">
+    <row r="368" spans="1:8" ht="15.6">
       <c r="A368" s="4" t="s">
         <v>938</v>
       </c>
@@ -12339,7 +12350,7 @@
       <c r="G368" s="11"/>
       <c r="H368" s="11"/>
     </row>
-    <row r="369" spans="1:8" ht="16">
+    <row r="369" spans="1:8" ht="15.6">
       <c r="A369" s="4" t="s">
         <v>938</v>
       </c>
@@ -12353,7 +12364,7 @@
       <c r="G369" s="11"/>
       <c r="H369" s="11"/>
     </row>
-    <row r="370" spans="1:8" ht="16">
+    <row r="370" spans="1:8" ht="15.6">
       <c r="A370" s="4" t="s">
         <v>938</v>
       </c>
@@ -12366,7 +12377,7 @@
       <c r="G370" s="11"/>
       <c r="H370" s="11"/>
     </row>
-    <row r="371" spans="1:8" ht="16">
+    <row r="371" spans="1:8" ht="15.6">
       <c r="A371" s="4" t="s">
         <v>938</v>
       </c>
@@ -12380,7 +12391,7 @@
       <c r="G371" s="11"/>
       <c r="H371" s="11"/>
     </row>
-    <row r="372" spans="1:8" ht="16">
+    <row r="372" spans="1:8" ht="15.6">
       <c r="A372" s="4" t="s">
         <v>938</v>
       </c>
@@ -12394,7 +12405,7 @@
       <c r="G372" s="11"/>
       <c r="H372" s="11"/>
     </row>
-    <row r="373" spans="1:8" ht="16">
+    <row r="373" spans="1:8" ht="15.6">
       <c r="A373" s="4" t="s">
         <v>938</v>
       </c>
@@ -12408,7 +12419,7 @@
       <c r="G373" s="11"/>
       <c r="H373" s="11"/>
     </row>
-    <row r="374" spans="1:8" ht="16">
+    <row r="374" spans="1:8" ht="15.6">
       <c r="A374" s="4" t="s">
         <v>938</v>
       </c>
@@ -12422,7 +12433,7 @@
       <c r="G374" s="11"/>
       <c r="H374" s="11"/>
     </row>
-    <row r="375" spans="1:8" ht="16">
+    <row r="375" spans="1:8" ht="15.6">
       <c r="A375" s="4" t="s">
         <v>938</v>
       </c>
@@ -12436,7 +12447,7 @@
       <c r="G375" s="11"/>
       <c r="H375" s="11"/>
     </row>
-    <row r="376" spans="1:8" ht="19">
+    <row r="376" spans="1:8" ht="18">
       <c r="A376" s="4" t="s">
         <v>938</v>
       </c>
@@ -12450,7 +12461,7 @@
       <c r="G376" s="11"/>
       <c r="H376" s="11"/>
     </row>
-    <row r="377" spans="1:8" ht="16">
+    <row r="377" spans="1:8" ht="15.6">
       <c r="A377" s="4" t="s">
         <v>938</v>
       </c>
@@ -12464,7 +12475,7 @@
       <c r="G377" s="11"/>
       <c r="H377" s="11"/>
     </row>
-    <row r="378" spans="1:8" ht="16">
+    <row r="378" spans="1:8" ht="15.6">
       <c r="A378" s="4" t="s">
         <v>938</v>
       </c>
@@ -12478,7 +12489,7 @@
       <c r="G378" s="11"/>
       <c r="H378" s="11"/>
     </row>
-    <row r="379" spans="1:8" ht="16">
+    <row r="379" spans="1:8" ht="15.6">
       <c r="A379" s="4" t="s">
         <v>938</v>
       </c>
@@ -12492,7 +12503,7 @@
       <c r="G379" s="11"/>
       <c r="H379" s="11"/>
     </row>
-    <row r="380" spans="1:8" ht="16">
+    <row r="380" spans="1:8" ht="15.6">
       <c r="A380" s="4" t="s">
         <v>938</v>
       </c>
@@ -12506,7 +12517,7 @@
       <c r="G380" s="11"/>
       <c r="H380" s="11"/>
     </row>
-    <row r="381" spans="1:8" ht="16">
+    <row r="381" spans="1:8" ht="15.6">
       <c r="A381" s="4" t="s">
         <v>938</v>
       </c>
@@ -12520,7 +12531,7 @@
       <c r="G381" s="11"/>
       <c r="H381" s="11"/>
     </row>
-    <row r="382" spans="1:8" ht="16">
+    <row r="382" spans="1:8" ht="15.6">
       <c r="A382" s="4" t="s">
         <v>938</v>
       </c>
@@ -12534,7 +12545,7 @@
       <c r="G382" s="11"/>
       <c r="H382" s="11"/>
     </row>
-    <row r="383" spans="1:8" ht="16">
+    <row r="383" spans="1:8" ht="15.6">
       <c r="A383" s="4" t="s">
         <v>938</v>
       </c>
@@ -12548,7 +12559,7 @@
       <c r="G383" s="11"/>
       <c r="H383" s="11"/>
     </row>
-    <row r="384" spans="1:8" ht="16">
+    <row r="384" spans="1:8" ht="15.6">
       <c r="A384" s="4" t="s">
         <v>938</v>
       </c>
@@ -12562,7 +12573,7 @@
       <c r="G384" s="11"/>
       <c r="H384" s="11"/>
     </row>
-    <row r="385" spans="1:8" ht="16">
+    <row r="385" spans="1:8" ht="15.6">
       <c r="A385" s="4" t="s">
         <v>938</v>
       </c>
@@ -12576,7 +12587,7 @@
       <c r="G385" s="11"/>
       <c r="H385" s="11"/>
     </row>
-    <row r="386" spans="1:8" ht="16">
+    <row r="386" spans="1:8" ht="15.6">
       <c r="A386" s="4" t="s">
         <v>938</v>
       </c>
@@ -12590,7 +12601,7 @@
       <c r="G386" s="11"/>
       <c r="H386" s="11"/>
     </row>
-    <row r="387" spans="1:8" ht="16">
+    <row r="387" spans="1:8" ht="15.6">
       <c r="A387" s="4" t="s">
         <v>938</v>
       </c>
@@ -12604,7 +12615,7 @@
       <c r="G387" s="11"/>
       <c r="H387" s="11"/>
     </row>
-    <row r="388" spans="1:8" ht="16">
+    <row r="388" spans="1:8" ht="15.6">
       <c r="A388" s="4" t="s">
         <v>938</v>
       </c>
@@ -12618,7 +12629,7 @@
       <c r="G388" s="11"/>
       <c r="H388" s="11"/>
     </row>
-    <row r="389" spans="1:8" ht="16">
+    <row r="389" spans="1:8" ht="15.6">
       <c r="A389" s="4" t="s">
         <v>938</v>
       </c>
@@ -12632,7 +12643,7 @@
       <c r="G389" s="11"/>
       <c r="H389" s="11"/>
     </row>
-    <row r="390" spans="1:8" ht="16">
+    <row r="390" spans="1:8" ht="15.6">
       <c r="A390" s="4" t="s">
         <v>938</v>
       </c>
@@ -12646,7 +12657,7 @@
       <c r="G390" s="11"/>
       <c r="H390" s="11"/>
     </row>
-    <row r="391" spans="1:8" ht="16">
+    <row r="391" spans="1:8" ht="15.6">
       <c r="A391" s="4" t="s">
         <v>938</v>
       </c>
@@ -12660,7 +12671,7 @@
       <c r="G391" s="11"/>
       <c r="H391" s="11"/>
     </row>
-    <row r="392" spans="1:8" ht="16">
+    <row r="392" spans="1:8" ht="15.6">
       <c r="A392" s="4" t="s">
         <v>938</v>
       </c>
@@ -12674,7 +12685,7 @@
       <c r="G392" s="11"/>
       <c r="H392" s="11"/>
     </row>
-    <row r="393" spans="1:8" ht="16">
+    <row r="393" spans="1:8" ht="15.6">
       <c r="A393" s="4" t="s">
         <v>938</v>
       </c>
@@ -12688,7 +12699,7 @@
       <c r="G393" s="11"/>
       <c r="H393" s="11"/>
     </row>
-    <row r="394" spans="1:8" ht="16">
+    <row r="394" spans="1:8" ht="15.6">
       <c r="A394" s="4" t="s">
         <v>938</v>
       </c>
@@ -12702,7 +12713,7 @@
       <c r="G394" s="11"/>
       <c r="H394" s="11"/>
     </row>
-    <row r="395" spans="1:8" ht="16">
+    <row r="395" spans="1:8" ht="15.6">
       <c r="A395" s="4" t="s">
         <v>938</v>
       </c>
@@ -12716,7 +12727,7 @@
       <c r="G395" s="11"/>
       <c r="H395" s="11"/>
     </row>
-    <row r="396" spans="1:8" ht="19">
+    <row r="396" spans="1:8" ht="18">
       <c r="A396" s="4" t="s">
         <v>938</v>
       </c>
@@ -12730,7 +12741,7 @@
       <c r="G396" s="11"/>
       <c r="H396" s="11"/>
     </row>
-    <row r="397" spans="1:8" ht="16">
+    <row r="397" spans="1:8" ht="15.6">
       <c r="A397" s="4" t="s">
         <v>938</v>
       </c>
@@ -12744,7 +12755,7 @@
       <c r="G397" s="11"/>
       <c r="H397" s="11"/>
     </row>
-    <row r="398" spans="1:8" ht="16">
+    <row r="398" spans="1:8" ht="15.6">
       <c r="A398" s="4" t="s">
         <v>938</v>
       </c>
@@ -12757,7 +12768,7 @@
       <c r="G398" s="11"/>
       <c r="H398" s="11"/>
     </row>
-    <row r="399" spans="1:8" ht="16">
+    <row r="399" spans="1:8" ht="15.6">
       <c r="A399" s="4" t="s">
         <v>938</v>
       </c>
@@ -12771,7 +12782,7 @@
       <c r="G399" s="11"/>
       <c r="H399" s="11"/>
     </row>
-    <row r="400" spans="1:8" ht="16">
+    <row r="400" spans="1:8" ht="15.6">
       <c r="A400" s="4" t="s">
         <v>938</v>
       </c>
@@ -12785,7 +12796,7 @@
       <c r="G400" s="11"/>
       <c r="H400" s="11"/>
     </row>
-    <row r="401" spans="1:8" ht="16">
+    <row r="401" spans="1:8" ht="15.6">
       <c r="A401" s="4" t="s">
         <v>938</v>
       </c>
@@ -12799,7 +12810,7 @@
       <c r="G401" s="11"/>
       <c r="H401" s="11"/>
     </row>
-    <row r="402" spans="1:8" ht="16">
+    <row r="402" spans="1:8" ht="15.6">
       <c r="A402" s="4" t="s">
         <v>938</v>
       </c>
@@ -12813,7 +12824,7 @@
       <c r="G402" s="11"/>
       <c r="H402" s="11"/>
     </row>
-    <row r="403" spans="1:8" ht="16">
+    <row r="403" spans="1:8" ht="15.6">
       <c r="A403" s="4" t="s">
         <v>938</v>
       </c>
@@ -12827,7 +12838,7 @@
       <c r="G403" s="11"/>
       <c r="H403" s="11"/>
     </row>
-    <row r="404" spans="1:8" ht="16">
+    <row r="404" spans="1:8" ht="15.6">
       <c r="A404" s="4" t="s">
         <v>938</v>
       </c>
@@ -12841,7 +12852,7 @@
       <c r="G404" s="11"/>
       <c r="H404" s="11"/>
     </row>
-    <row r="405" spans="1:8" ht="16">
+    <row r="405" spans="1:8" ht="15.6">
       <c r="A405" s="4" t="s">
         <v>938</v>
       </c>
@@ -12855,7 +12866,7 @@
       <c r="G405" s="11"/>
       <c r="H405" s="11"/>
     </row>
-    <row r="406" spans="1:8" ht="16">
+    <row r="406" spans="1:8" ht="15.6">
       <c r="A406" s="4" t="s">
         <v>938</v>
       </c>
@@ -12869,7 +12880,7 @@
       <c r="G406" s="11"/>
       <c r="H406" s="11"/>
     </row>
-    <row r="407" spans="1:8" ht="16">
+    <row r="407" spans="1:8" ht="15.6">
       <c r="A407" s="4" t="s">
         <v>938</v>
       </c>
@@ -12883,7 +12894,7 @@
       <c r="G407" s="11"/>
       <c r="H407" s="11"/>
     </row>
-    <row r="408" spans="1:8" ht="16">
+    <row r="408" spans="1:8" ht="15.6">
       <c r="A408" s="4" t="s">
         <v>938</v>
       </c>
@@ -12897,7 +12908,7 @@
       <c r="G408" s="11"/>
       <c r="H408" s="11"/>
     </row>
-    <row r="409" spans="1:8" ht="16">
+    <row r="409" spans="1:8" ht="15.6">
       <c r="A409" s="4" t="s">
         <v>938</v>
       </c>
@@ -12911,7 +12922,7 @@
       <c r="G409" s="11"/>
       <c r="H409" s="11"/>
     </row>
-    <row r="410" spans="1:8" ht="16">
+    <row r="410" spans="1:8" ht="15.6">
       <c r="A410" s="4" t="s">
         <v>938</v>
       </c>
@@ -12937,7 +12948,7 @@
       <c r="G411" s="11"/>
       <c r="H411" s="11"/>
     </row>
-    <row r="412" spans="1:8" ht="19">
+    <row r="412" spans="1:8" ht="18">
       <c r="A412" s="4" t="s">
         <v>939</v>
       </c>
@@ -12951,7 +12962,7 @@
       <c r="G412" s="11"/>
       <c r="H412" s="11"/>
     </row>
-    <row r="413" spans="1:8" ht="16">
+    <row r="413" spans="1:8" ht="15.6">
       <c r="A413" s="4" t="s">
         <v>939</v>
       </c>
@@ -12965,7 +12976,7 @@
       <c r="G413" s="11"/>
       <c r="H413" s="11"/>
     </row>
-    <row r="414" spans="1:8" ht="16">
+    <row r="414" spans="1:8" ht="15.6">
       <c r="A414" s="4" t="s">
         <v>939</v>
       </c>
@@ -12979,7 +12990,7 @@
       <c r="G414" s="11"/>
       <c r="H414" s="11"/>
     </row>
-    <row r="415" spans="1:8" ht="16">
+    <row r="415" spans="1:8" ht="15.6">
       <c r="A415" s="4" t="s">
         <v>939</v>
       </c>
@@ -12993,7 +13004,7 @@
       <c r="G415" s="11"/>
       <c r="H415" s="11"/>
     </row>
-    <row r="416" spans="1:8" ht="16">
+    <row r="416" spans="1:8" ht="15.6">
       <c r="A416" s="4" t="s">
         <v>939</v>
       </c>
@@ -13007,7 +13018,7 @@
       <c r="G416" s="11"/>
       <c r="H416" s="11"/>
     </row>
-    <row r="417" spans="1:8" ht="16">
+    <row r="417" spans="1:8" ht="15.6">
       <c r="A417" s="4" t="s">
         <v>939</v>
       </c>
@@ -13021,7 +13032,7 @@
       <c r="G417" s="11"/>
       <c r="H417" s="11"/>
     </row>
-    <row r="418" spans="1:8" ht="16">
+    <row r="418" spans="1:8" ht="15.6">
       <c r="A418" s="4" t="s">
         <v>939</v>
       </c>
@@ -13035,7 +13046,7 @@
       <c r="G418" s="11"/>
       <c r="H418" s="11"/>
     </row>
-    <row r="419" spans="1:8" ht="16">
+    <row r="419" spans="1:8" ht="15.6">
       <c r="A419" s="4" t="s">
         <v>939</v>
       </c>
@@ -13049,7 +13060,7 @@
       <c r="G419" s="11"/>
       <c r="H419" s="11"/>
     </row>
-    <row r="420" spans="1:8" ht="16">
+    <row r="420" spans="1:8" ht="15.6">
       <c r="A420" s="4" t="s">
         <v>939</v>
       </c>
@@ -13063,7 +13074,7 @@
       <c r="G420" s="11"/>
       <c r="H420" s="11"/>
     </row>
-    <row r="421" spans="1:8" ht="16">
+    <row r="421" spans="1:8" ht="15.6">
       <c r="A421" s="4" t="s">
         <v>939</v>
       </c>
@@ -13077,7 +13088,7 @@
       <c r="G421" s="11"/>
       <c r="H421" s="11"/>
     </row>
-    <row r="422" spans="1:8" ht="16">
+    <row r="422" spans="1:8" ht="15.6">
       <c r="A422" s="4" t="s">
         <v>939</v>
       </c>
@@ -13091,7 +13102,7 @@
       <c r="G422" s="11"/>
       <c r="H422" s="11"/>
     </row>
-    <row r="423" spans="1:8" ht="19">
+    <row r="423" spans="1:8" ht="18">
       <c r="A423" s="4" t="s">
         <v>939</v>
       </c>
@@ -13105,7 +13116,7 @@
       <c r="G423" s="11"/>
       <c r="H423" s="11"/>
     </row>
-    <row r="424" spans="1:8" ht="16">
+    <row r="424" spans="1:8" ht="15.6">
       <c r="A424" s="4" t="s">
         <v>939</v>
       </c>
@@ -13119,7 +13130,7 @@
       <c r="G424" s="11"/>
       <c r="H424" s="11"/>
     </row>
-    <row r="425" spans="1:8" ht="16">
+    <row r="425" spans="1:8" ht="15.6">
       <c r="A425" s="4" t="s">
         <v>939</v>
       </c>
@@ -13133,7 +13144,7 @@
       <c r="G425" s="11"/>
       <c r="H425" s="11"/>
     </row>
-    <row r="426" spans="1:8" ht="16">
+    <row r="426" spans="1:8" ht="15.6">
       <c r="A426" s="4" t="s">
         <v>939</v>
       </c>
@@ -13147,7 +13158,7 @@
       <c r="G426" s="11"/>
       <c r="H426" s="11"/>
     </row>
-    <row r="427" spans="1:8" ht="16">
+    <row r="427" spans="1:8" ht="15.6">
       <c r="A427" s="4" t="s">
         <v>939</v>
       </c>
@@ -13161,7 +13172,7 @@
       <c r="G427" s="11"/>
       <c r="H427" s="11"/>
     </row>
-    <row r="428" spans="1:8" ht="16">
+    <row r="428" spans="1:8" ht="15.6">
       <c r="A428" s="4" t="s">
         <v>939</v>
       </c>
@@ -13175,7 +13186,7 @@
       <c r="G428" s="11"/>
       <c r="H428" s="11"/>
     </row>
-    <row r="429" spans="1:8" ht="19">
+    <row r="429" spans="1:8" ht="18">
       <c r="A429" s="4" t="s">
         <v>939</v>
       </c>
@@ -13189,7 +13200,7 @@
       <c r="G429" s="11"/>
       <c r="H429" s="11"/>
     </row>
-    <row r="430" spans="1:8" ht="16">
+    <row r="430" spans="1:8" ht="15.6">
       <c r="A430" s="4" t="s">
         <v>939</v>
       </c>
@@ -13203,7 +13214,7 @@
       <c r="G430" s="11"/>
       <c r="H430" s="11"/>
     </row>
-    <row r="431" spans="1:8" ht="16">
+    <row r="431" spans="1:8" ht="15.6">
       <c r="A431" s="4" t="s">
         <v>939</v>
       </c>
@@ -13217,7 +13228,7 @@
       <c r="G431" s="11"/>
       <c r="H431" s="11"/>
     </row>
-    <row r="432" spans="1:8" ht="16">
+    <row r="432" spans="1:8" ht="15.6">
       <c r="A432" s="4" t="s">
         <v>939</v>
       </c>
@@ -13231,7 +13242,7 @@
       <c r="G432" s="11"/>
       <c r="H432" s="11"/>
     </row>
-    <row r="433" spans="1:8" ht="16">
+    <row r="433" spans="1:8" ht="15.6">
       <c r="A433" s="4" t="s">
         <v>939</v>
       </c>
@@ -14672,7 +14683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -14682,18 +14693,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" customWidth="1"/>
     <col min="5" max="5" width="7.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" customWidth="1"/>
-    <col min="7" max="8" width="3.1640625" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" customWidth="1"/>
+    <col min="7" max="8" width="3.109375" customWidth="1"/>
     <col min="9" max="9" width="5" customWidth="1"/>
-    <col min="10" max="10" width="7.83203125" customWidth="1"/>
-    <col min="11" max="11" width="5.1640625" customWidth="1"/>
-    <col min="12" max="12" width="8.1640625" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" customWidth="1"/>
+    <col min="11" max="11" width="5.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
@@ -14871,29 +14882,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="M6" sqref="M6:M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="4.6640625" style="47" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" style="47" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" style="47" customWidth="1"/>
-    <col min="4" max="4" width="80.83203125" style="47" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="48" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="47" customWidth="1"/>
+    <col min="3" max="3" width="5.77734375" style="47" customWidth="1"/>
+    <col min="4" max="4" width="80.77734375" style="47" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="48" customWidth="1"/>
     <col min="6" max="6" width="87.6640625" style="47" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" style="47" customWidth="1"/>
-    <col min="8" max="8" width="74.5" style="32" customWidth="1"/>
-    <col min="9" max="9" width="104.5" style="47" customWidth="1"/>
+    <col min="8" max="8" width="74.44140625" style="32" customWidth="1"/>
+    <col min="9" max="9" width="104.44140625" style="47" customWidth="1"/>
     <col min="10" max="10" width="68.33203125" style="47" customWidth="1"/>
-    <col min="11" max="11" width="52.83203125" style="47" customWidth="1"/>
-    <col min="12" max="12" width="26.5" style="47" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5" style="47" customWidth="1"/>
-    <col min="14" max="16384" width="8.83203125" style="47"/>
+    <col min="11" max="11" width="52.77734375" style="47" customWidth="1"/>
+    <col min="12" max="12" width="26.44140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.44140625" style="47" customWidth="1"/>
+    <col min="14" max="16384" width="8.77734375" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="18" customFormat="1" ht="14.25" customHeight="1">
@@ -14911,13 +14922,13 @@
       <c r="L1" s="16"/>
       <c r="M1" s="16"/>
     </row>
-    <row r="2" spans="1:13" s="18" customFormat="1" ht="26" customHeight="1">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
+    <row r="2" spans="1:13" s="18" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
       <c r="G2" s="49" t="s">
         <v>501</v>
       </c>
@@ -14940,15 +14951,15 @@
         <v>445</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A3" s="100" t="s">
+    <row r="3" spans="1:13" s="18" customFormat="1" ht="13.95" customHeight="1">
+      <c r="A3" s="126" t="s">
         <v>446</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
       <c r="G3" s="27"/>
       <c r="H3" s="23"/>
       <c r="I3" s="24" t="s">
@@ -14958,13 +14969,13 @@
       <c r="L3" s="25"/>
       <c r="M3" s="26"/>
     </row>
-    <row r="4" spans="1:13" s="32" customFormat="1" ht="14" customHeight="1">
-      <c r="A4" s="101"/>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
+    <row r="4" spans="1:13" s="32" customFormat="1" ht="13.95" customHeight="1">
+      <c r="A4" s="127"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
@@ -14975,7 +14986,7 @@
       <c r="L4" s="30"/>
       <c r="M4" s="31"/>
     </row>
-    <row r="5" spans="1:13" s="18" customFormat="1" ht="8" customHeight="1">
+    <row r="5" spans="1:13" s="18" customFormat="1" ht="7.95" customHeight="1">
       <c r="A5" s="33"/>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
@@ -14990,17 +15001,17 @@
       <c r="L5" s="40"/>
       <c r="M5" s="40"/>
     </row>
-    <row r="6" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A6" s="102" t="s">
+    <row r="6" spans="1:13" s="18" customFormat="1" ht="13.95" customHeight="1">
+      <c r="A6" s="100" t="s">
         <v>448</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="100" t="s">
         <v>449</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="100" t="s">
         <v>450</v>
       </c>
-      <c r="D6" s="106" t="s">
+      <c r="D6" s="115" t="s">
         <v>505</v>
       </c>
       <c r="E6" s="41" t="s">
@@ -15022,18 +15033,18 @@
       <c r="K6" s="43" t="s">
         <v>454</v>
       </c>
-      <c r="L6" s="110" t="s">
+      <c r="L6" s="112" t="s">
         <v>507</v>
       </c>
-      <c r="M6" s="110" t="s">
+      <c r="M6" s="112" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A7" s="103"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="107"/>
+    <row r="7" spans="1:13" s="18" customFormat="1" ht="13.95" customHeight="1">
+      <c r="A7" s="101"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="116"/>
       <c r="E7" s="41" t="s">
         <v>456</v>
       </c>
@@ -15055,22 +15066,22 @@
       <c r="K7" s="43" t="s">
         <v>458</v>
       </c>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
+      <c r="L7" s="113"/>
+      <c r="M7" s="113"/>
     </row>
     <row r="8" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A8" s="103"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="102" t="s">
+      <c r="A8" s="101"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="100" t="s">
         <v>459</v>
       </c>
-      <c r="F8" s="113" t="s">
+      <c r="F8" s="103" t="s">
         <v>511</v>
       </c>
       <c r="G8" s="78"/>
-      <c r="H8" s="116" t="s">
+      <c r="H8" s="106" t="s">
         <v>512</v>
       </c>
       <c r="I8" s="50" t="s">
@@ -15082,18 +15093,18 @@
       <c r="K8" s="43" t="s">
         <v>466</v>
       </c>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
-    </row>
-    <row r="9" spans="1:13" s="18" customFormat="1" ht="16" customHeight="1" outlineLevel="1">
-      <c r="A9" s="103"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="114"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="113"/>
+    </row>
+    <row r="9" spans="1:13" s="18" customFormat="1" ht="16.05" customHeight="1" outlineLevel="1">
+      <c r="A9" s="101"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="104"/>
       <c r="G9" s="79"/>
-      <c r="H9" s="117"/>
+      <c r="H9" s="107"/>
       <c r="I9" s="50" t="s">
         <v>514</v>
       </c>
@@ -15101,41 +15112,41 @@
       <c r="K9" s="51" t="s">
         <v>515</v>
       </c>
-      <c r="L9" s="111"/>
-      <c r="M9" s="111"/>
-    </row>
-    <row r="10" spans="1:13" s="18" customFormat="1" ht="19" customHeight="1" outlineLevel="1">
-      <c r="A10" s="103"/>
-      <c r="B10" s="103"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="115"/>
+      <c r="L9" s="113"/>
+      <c r="M9" s="113"/>
+    </row>
+    <row r="10" spans="1:13" s="18" customFormat="1" ht="19.05" customHeight="1" outlineLevel="1">
+      <c r="A10" s="101"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="105"/>
       <c r="G10" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="H10" s="118"/>
+      <c r="H10" s="108"/>
       <c r="I10" s="50" t="s">
         <v>516</v>
       </c>
       <c r="J10" s="44"/>
       <c r="K10" s="52"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="111"/>
-    </row>
-    <row r="11" spans="1:13" s="18" customFormat="1" ht="13" customHeight="1" outlineLevel="1">
-      <c r="A11" s="103"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="102" t="s">
+      <c r="L10" s="113"/>
+      <c r="M10" s="113"/>
+    </row>
+    <row r="11" spans="1:13" s="18" customFormat="1" ht="13.05" customHeight="1" outlineLevel="1">
+      <c r="A11" s="101"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="100" t="s">
         <v>461</v>
       </c>
-      <c r="F11" s="113" t="s">
+      <c r="F11" s="103" t="s">
         <v>517</v>
       </c>
       <c r="G11" s="78"/>
-      <c r="H11" s="120"/>
+      <c r="H11" s="99"/>
       <c r="I11" s="53" t="s">
         <v>518</v>
       </c>
@@ -15143,20 +15154,20 @@
       <c r="K11" s="43" t="s">
         <v>519</v>
       </c>
-      <c r="L11" s="111"/>
-      <c r="M11" s="111"/>
+      <c r="L11" s="113"/>
+      <c r="M11" s="113"/>
     </row>
     <row r="12" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A12" s="103"/>
-      <c r="B12" s="103"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="119"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="122"/>
       <c r="G12" s="80" t="s">
         <v>582</v>
       </c>
-      <c r="H12" s="121"/>
+      <c r="H12" s="123"/>
       <c r="I12" s="54" t="s">
         <v>520</v>
       </c>
@@ -15164,16 +15175,16 @@
       <c r="K12" s="56" t="s">
         <v>521</v>
       </c>
-      <c r="L12" s="111"/>
-      <c r="M12" s="111"/>
-    </row>
-    <row r="13" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A13" s="103"/>
-      <c r="B13" s="103"/>
-      <c r="C13" s="103" t="s">
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+    </row>
+    <row r="13" spans="1:13" s="18" customFormat="1" ht="13.95" customHeight="1">
+      <c r="A13" s="101"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101" t="s">
         <v>462</v>
       </c>
-      <c r="D13" s="107" t="s">
+      <c r="D13" s="116" t="s">
         <v>522</v>
       </c>
       <c r="E13" s="57" t="s">
@@ -15195,14 +15206,14 @@
       <c r="K13" s="51" t="s">
         <v>526</v>
       </c>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
-    </row>
-    <row r="14" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A14" s="103"/>
-      <c r="B14" s="103"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="107"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="113"/>
+    </row>
+    <row r="14" spans="1:13" s="18" customFormat="1" ht="13.95" customHeight="1">
+      <c r="A14" s="101"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="116"/>
       <c r="E14" s="41" t="s">
         <v>464</v>
       </c>
@@ -15222,14 +15233,14 @@
       <c r="K14" s="43" t="s">
         <v>530</v>
       </c>
-      <c r="L14" s="111"/>
-      <c r="M14" s="111"/>
-    </row>
-    <row r="15" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A15" s="103"/>
-      <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="107"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="113"/>
+    </row>
+    <row r="15" spans="1:13" s="18" customFormat="1" ht="13.95" customHeight="1">
+      <c r="A15" s="101"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="116"/>
       <c r="E15" s="41" t="s">
         <v>465</v>
       </c>
@@ -15249,56 +15260,56 @@
       <c r="K15" s="43" t="s">
         <v>534</v>
       </c>
-      <c r="L15" s="111"/>
-      <c r="M15" s="111"/>
-    </row>
-    <row r="16" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A16" s="103"/>
-      <c r="B16" s="103"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="102" t="s">
+      <c r="L15" s="113"/>
+      <c r="M15" s="113"/>
+    </row>
+    <row r="16" spans="1:13" s="18" customFormat="1" ht="13.95" customHeight="1">
+      <c r="A16" s="101"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="100" t="s">
         <v>467</v>
       </c>
-      <c r="F16" s="113" t="s">
+      <c r="F16" s="103" t="s">
         <v>535</v>
       </c>
       <c r="G16" s="78"/>
-      <c r="H16" s="122"/>
+      <c r="H16" s="124"/>
       <c r="I16" s="63" t="s">
         <v>536</v>
       </c>
       <c r="J16" s="46"/>
       <c r="K16" s="43"/>
-      <c r="L16" s="111"/>
-      <c r="M16" s="111"/>
-    </row>
-    <row r="17" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A17" s="103"/>
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="114"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="113"/>
+    </row>
+    <row r="17" spans="1:14" s="18" customFormat="1" ht="13.95" customHeight="1">
+      <c r="A17" s="101"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="104"/>
       <c r="G17" s="79"/>
-      <c r="H17" s="122"/>
+      <c r="H17" s="124"/>
       <c r="I17" s="63" t="s">
         <v>537</v>
       </c>
       <c r="J17" s="46"/>
       <c r="K17" s="43"/>
-      <c r="L17" s="111"/>
-      <c r="M17" s="111"/>
-    </row>
-    <row r="18" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A18" s="103"/>
-      <c r="B18" s="103"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="114"/>
+      <c r="L17" s="113"/>
+      <c r="M17" s="113"/>
+    </row>
+    <row r="18" spans="1:14" s="18" customFormat="1" ht="13.95" customHeight="1">
+      <c r="A18" s="101"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="104"/>
       <c r="G18" s="79"/>
-      <c r="H18" s="122"/>
+      <c r="H18" s="124"/>
       <c r="I18" s="43" t="s">
         <v>538</v>
       </c>
@@ -15306,18 +15317,18 @@
       <c r="K18" s="63" t="s">
         <v>539</v>
       </c>
-      <c r="L18" s="111"/>
-      <c r="M18" s="111"/>
-    </row>
-    <row r="19" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A19" s="103"/>
-      <c r="B19" s="103"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="114"/>
+      <c r="L18" s="113"/>
+      <c r="M18" s="113"/>
+    </row>
+    <row r="19" spans="1:14" s="18" customFormat="1" ht="13.95" customHeight="1">
+      <c r="A19" s="101"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="104"/>
       <c r="G19" s="79"/>
-      <c r="H19" s="122"/>
+      <c r="H19" s="124"/>
       <c r="I19" s="43" t="s">
         <v>540</v>
       </c>
@@ -15325,18 +15336,18 @@
       <c r="K19" s="63" t="s">
         <v>541</v>
       </c>
-      <c r="L19" s="111"/>
-      <c r="M19" s="111"/>
-    </row>
-    <row r="20" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A20" s="103"/>
-      <c r="B20" s="103"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="114"/>
+      <c r="L19" s="113"/>
+      <c r="M19" s="113"/>
+    </row>
+    <row r="20" spans="1:14" s="18" customFormat="1" ht="13.95" customHeight="1">
+      <c r="A20" s="101"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="104"/>
       <c r="G20" s="79"/>
-      <c r="H20" s="122"/>
+      <c r="H20" s="124"/>
       <c r="I20" s="43" t="s">
         <v>542</v>
       </c>
@@ -15344,46 +15355,46 @@
       <c r="K20" s="63" t="s">
         <v>543</v>
       </c>
-      <c r="L20" s="111"/>
-      <c r="M20" s="111"/>
-    </row>
-    <row r="21" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A21" s="103"/>
-      <c r="B21" s="103"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="114"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="113"/>
+    </row>
+    <row r="21" spans="1:14" s="18" customFormat="1" ht="13.95" customHeight="1">
+      <c r="A21" s="101"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="104"/>
       <c r="G21" s="79"/>
-      <c r="H21" s="122"/>
+      <c r="H21" s="124"/>
       <c r="I21" s="45" t="s">
         <v>484</v>
       </c>
       <c r="J21" s="46"/>
       <c r="K21" s="63"/>
-      <c r="L21" s="111"/>
-      <c r="M21" s="111"/>
-    </row>
-    <row r="22" spans="1:14" s="18" customFormat="1" ht="23" customHeight="1">
-      <c r="A22" s="104"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="104"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="115"/>
+      <c r="L21" s="113"/>
+      <c r="M21" s="113"/>
+    </row>
+    <row r="22" spans="1:14" s="18" customFormat="1" ht="22.95" customHeight="1">
+      <c r="A22" s="102"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="105"/>
       <c r="G22" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="H22" s="122"/>
+      <c r="H22" s="124"/>
       <c r="I22" s="43" t="s">
         <v>544</v>
       </c>
       <c r="J22" s="46"/>
       <c r="K22" s="44"/>
-      <c r="L22" s="112"/>
-      <c r="M22" s="112"/>
-    </row>
-    <row r="23" spans="1:14" s="18" customFormat="1" ht="8" customHeight="1">
+      <c r="L22" s="114"/>
+      <c r="M22" s="114"/>
+    </row>
+    <row r="23" spans="1:14" s="18" customFormat="1" ht="7.95" customHeight="1">
       <c r="A23" s="64"/>
       <c r="B23" s="64"/>
       <c r="C23" s="64"/>
@@ -15398,27 +15409,27 @@
       <c r="L23" s="70"/>
       <c r="M23" s="69"/>
     </row>
-    <row r="24" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A24" s="102" t="s">
+    <row r="24" spans="1:14" s="18" customFormat="1" ht="13.95" customHeight="1">
+      <c r="A24" s="100" t="s">
         <v>468</v>
       </c>
-      <c r="B24" s="123" t="s">
+      <c r="B24" s="118" t="s">
         <v>469</v>
       </c>
-      <c r="C24" s="102" t="s">
+      <c r="C24" s="100" t="s">
         <v>470</v>
       </c>
-      <c r="D24" s="106" t="s">
+      <c r="D24" s="115" t="s">
         <v>545</v>
       </c>
-      <c r="E24" s="102" t="s">
+      <c r="E24" s="100" t="s">
         <v>471</v>
       </c>
-      <c r="F24" s="113" t="s">
+      <c r="F24" s="103" t="s">
         <v>546</v>
       </c>
       <c r="G24" s="78"/>
-      <c r="H24" s="116" t="s">
+      <c r="H24" s="106" t="s">
         <v>547</v>
       </c>
       <c r="I24" s="44" t="s">
@@ -15430,47 +15441,47 @@
       <c r="K24" s="43" t="s">
         <v>548</v>
       </c>
-      <c r="L24" s="110" t="s">
+      <c r="L24" s="112" t="s">
         <v>507</v>
       </c>
-      <c r="M24" s="120" t="s">
+      <c r="M24" s="99" t="s">
         <v>474</v>
       </c>
       <c r="N24" s="47"/>
     </row>
-    <row r="25" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A25" s="103"/>
-      <c r="B25" s="124"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="115"/>
+    <row r="25" spans="1:14" s="18" customFormat="1" ht="13.95" customHeight="1">
+      <c r="A25" s="101"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="105"/>
       <c r="G25" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="H25" s="118"/>
+      <c r="H25" s="108"/>
       <c r="I25" s="44" t="s">
         <v>549</v>
       </c>
       <c r="J25" s="45"/>
       <c r="K25" s="43"/>
-      <c r="L25" s="111"/>
-      <c r="M25" s="120"/>
+      <c r="L25" s="113"/>
+      <c r="M25" s="99"/>
       <c r="N25" s="47"/>
     </row>
-    <row r="26" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A26" s="103"/>
-      <c r="B26" s="124"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="102" t="s">
+    <row r="26" spans="1:14" s="18" customFormat="1" ht="13.95" customHeight="1">
+      <c r="A26" s="101"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="100" t="s">
         <v>475</v>
       </c>
-      <c r="F26" s="113" t="s">
+      <c r="F26" s="103" t="s">
         <v>550</v>
       </c>
       <c r="G26" s="78"/>
-      <c r="H26" s="116" t="s">
+      <c r="H26" s="106" t="s">
         <v>551</v>
       </c>
       <c r="I26" s="44" t="s">
@@ -15482,21 +15493,21 @@
       <c r="K26" s="43" t="s">
         <v>553</v>
       </c>
-      <c r="L26" s="111"/>
-      <c r="M26" s="120"/>
+      <c r="L26" s="113"/>
+      <c r="M26" s="99"/>
       <c r="N26" s="47"/>
     </row>
-    <row r="27" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A27" s="103"/>
-      <c r="B27" s="124"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="115"/>
+    <row r="27" spans="1:14" s="18" customFormat="1" ht="13.95" customHeight="1">
+      <c r="A27" s="101"/>
+      <c r="B27" s="119"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="105"/>
       <c r="G27" s="58" t="s">
         <v>583</v>
       </c>
-      <c r="H27" s="118"/>
+      <c r="H27" s="108"/>
       <c r="I27" s="44" t="s">
         <v>483</v>
       </c>
@@ -15504,15 +15515,15 @@
         <v>479</v>
       </c>
       <c r="K27" s="43"/>
-      <c r="L27" s="111"/>
-      <c r="M27" s="120"/>
+      <c r="L27" s="113"/>
+      <c r="M27" s="99"/>
       <c r="N27" s="47"/>
     </row>
-    <row r="28" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A28" s="103"/>
-      <c r="B28" s="124"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="107"/>
+    <row r="28" spans="1:14" s="18" customFormat="1" ht="13.95" customHeight="1">
+      <c r="A28" s="101"/>
+      <c r="B28" s="119"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="116"/>
       <c r="E28" s="41" t="s">
         <v>477</v>
       </c>
@@ -15531,15 +15542,15 @@
       <c r="K28" s="43" t="s">
         <v>556</v>
       </c>
-      <c r="L28" s="111"/>
-      <c r="M28" s="120"/>
+      <c r="L28" s="113"/>
+      <c r="M28" s="99"/>
       <c r="N28" s="47"/>
     </row>
-    <row r="29" spans="1:14" s="18" customFormat="1" ht="19" customHeight="1">
-      <c r="A29" s="104"/>
-      <c r="B29" s="125"/>
-      <c r="C29" s="104"/>
-      <c r="D29" s="109"/>
+    <row r="29" spans="1:14" s="18" customFormat="1" ht="19.05" customHeight="1">
+      <c r="A29" s="102"/>
+      <c r="B29" s="120"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="117"/>
       <c r="E29" s="41" t="s">
         <v>480</v>
       </c>
@@ -15561,11 +15572,11 @@
       <c r="K29" s="43" t="s">
         <v>559</v>
       </c>
-      <c r="L29" s="112"/>
-      <c r="M29" s="120"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="99"/>
       <c r="N29" s="47"/>
     </row>
-    <row r="30" spans="1:14" s="18" customFormat="1" ht="8" customHeight="1">
+    <row r="30" spans="1:14" s="18" customFormat="1" ht="7.95" customHeight="1">
       <c r="A30" s="72"/>
       <c r="B30" s="72"/>
       <c r="C30" s="72"/>
@@ -15580,27 +15591,27 @@
       <c r="L30" s="69"/>
       <c r="M30" s="69"/>
     </row>
-    <row r="31" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A31" s="102" t="s">
+    <row r="31" spans="1:14" s="18" customFormat="1" ht="13.95" customHeight="1">
+      <c r="A31" s="100" t="s">
         <v>485</v>
       </c>
-      <c r="B31" s="102" t="s">
+      <c r="B31" s="100" t="s">
         <v>486</v>
       </c>
-      <c r="C31" s="102" t="s">
+      <c r="C31" s="100" t="s">
         <v>487</v>
       </c>
-      <c r="D31" s="106" t="s">
+      <c r="D31" s="115" t="s">
         <v>560</v>
       </c>
-      <c r="E31" s="102" t="s">
+      <c r="E31" s="100" t="s">
         <v>488</v>
       </c>
-      <c r="F31" s="113" t="s">
+      <c r="F31" s="103" t="s">
         <v>561</v>
       </c>
       <c r="G31" s="78"/>
-      <c r="H31" s="116" t="s">
+      <c r="H31" s="106" t="s">
         <v>562</v>
       </c>
       <c r="I31" s="76" t="s">
@@ -15612,22 +15623,22 @@
       <c r="K31" s="43" t="s">
         <v>564</v>
       </c>
-      <c r="L31" s="120" t="s">
+      <c r="L31" s="99" t="s">
         <v>490</v>
       </c>
-      <c r="M31" s="120" t="s">
+      <c r="M31" s="99" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A32" s="103"/>
-      <c r="B32" s="103"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="114"/>
+    <row r="32" spans="1:14" s="18" customFormat="1" ht="13.95" customHeight="1">
+      <c r="A32" s="101"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="116"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="104"/>
       <c r="G32" s="79"/>
-      <c r="H32" s="117"/>
+      <c r="H32" s="107"/>
       <c r="I32" s="51" t="s">
         <v>565</v>
       </c>
@@ -15635,79 +15646,79 @@
       <c r="K32" s="43" t="s">
         <v>566</v>
       </c>
-      <c r="L32" s="120"/>
-      <c r="M32" s="120"/>
-    </row>
-    <row r="33" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A33" s="103"/>
-      <c r="B33" s="103"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="115"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="99"/>
+    </row>
+    <row r="33" spans="1:13" s="18" customFormat="1" ht="13.95" customHeight="1">
+      <c r="A33" s="101"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="105"/>
       <c r="G33" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="H33" s="118"/>
+      <c r="H33" s="108"/>
       <c r="I33" s="51" t="s">
         <v>500</v>
       </c>
       <c r="J33" s="44"/>
       <c r="K33" s="43"/>
-      <c r="L33" s="120"/>
-      <c r="M33" s="120"/>
-    </row>
-    <row r="34" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A34" s="103"/>
-      <c r="B34" s="103"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="102" t="s">
+      <c r="L33" s="99"/>
+      <c r="M33" s="99"/>
+    </row>
+    <row r="34" spans="1:13" s="18" customFormat="1" ht="13.95" customHeight="1">
+      <c r="A34" s="101"/>
+      <c r="B34" s="101"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="100" t="s">
         <v>492</v>
       </c>
-      <c r="F34" s="113" t="s">
+      <c r="F34" s="103" t="s">
         <v>567</v>
       </c>
       <c r="G34" s="78"/>
-      <c r="H34" s="116" t="s">
+      <c r="H34" s="106" t="s">
         <v>568</v>
       </c>
       <c r="I34" s="44" t="s">
         <v>569</v>
       </c>
       <c r="J34" s="44"/>
-      <c r="K34" s="126"/>
-      <c r="L34" s="120"/>
-      <c r="M34" s="120"/>
-    </row>
-    <row r="35" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A35" s="103"/>
-      <c r="B35" s="103"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="107"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="114"/>
+      <c r="K34" s="109"/>
+      <c r="L34" s="99"/>
+      <c r="M34" s="99"/>
+    </row>
+    <row r="35" spans="1:13" s="18" customFormat="1" ht="13.95" customHeight="1">
+      <c r="A35" s="101"/>
+      <c r="B35" s="101"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="104"/>
       <c r="G35" s="79"/>
-      <c r="H35" s="117"/>
+      <c r="H35" s="107"/>
       <c r="I35" s="44" t="s">
         <v>496</v>
       </c>
       <c r="J35" s="44"/>
-      <c r="K35" s="126"/>
-      <c r="L35" s="120"/>
-      <c r="M35" s="120"/>
-    </row>
-    <row r="36" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A36" s="103"/>
-      <c r="B36" s="103"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="107"/>
-      <c r="E36" s="104"/>
-      <c r="F36" s="115"/>
+      <c r="K35" s="109"/>
+      <c r="L35" s="99"/>
+      <c r="M35" s="99"/>
+    </row>
+    <row r="36" spans="1:13" s="18" customFormat="1" ht="13.95" customHeight="1">
+      <c r="A36" s="101"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="105"/>
       <c r="G36" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="H36" s="118"/>
+      <c r="H36" s="108"/>
       <c r="I36" s="44" t="s">
         <v>570</v>
       </c>
@@ -15717,68 +15728,68 @@
       <c r="K36" s="43" t="s">
         <v>494</v>
       </c>
-      <c r="L36" s="120"/>
-      <c r="M36" s="120"/>
+      <c r="L36" s="99"/>
+      <c r="M36" s="99"/>
     </row>
     <row r="37" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="A37" s="103"/>
-      <c r="B37" s="103"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="107"/>
-      <c r="E37" s="102" t="s">
+      <c r="A37" s="101"/>
+      <c r="B37" s="101"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="100" t="s">
         <v>495</v>
       </c>
-      <c r="F37" s="113" t="s">
+      <c r="F37" s="103" t="s">
         <v>571</v>
       </c>
       <c r="G37" s="78"/>
-      <c r="H37" s="127" t="s">
+      <c r="H37" s="110" t="s">
         <v>572</v>
       </c>
       <c r="I37" s="44" t="s">
         <v>573</v>
       </c>
-      <c r="J37" s="128" t="s">
+      <c r="J37" s="111" t="s">
         <v>497</v>
       </c>
-      <c r="K37" s="127" t="s">
+      <c r="K37" s="110" t="s">
         <v>499</v>
       </c>
-      <c r="L37" s="120"/>
-      <c r="M37" s="120"/>
+      <c r="L37" s="99"/>
+      <c r="M37" s="99"/>
     </row>
     <row r="38" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="A38" s="103"/>
-      <c r="B38" s="103"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="107"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="114"/>
+      <c r="A38" s="101"/>
+      <c r="B38" s="101"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="101"/>
+      <c r="F38" s="104"/>
       <c r="G38" s="79" t="s">
         <v>582</v>
       </c>
-      <c r="H38" s="127"/>
+      <c r="H38" s="110"/>
       <c r="I38" s="63" t="s">
         <v>574</v>
       </c>
-      <c r="J38" s="128"/>
-      <c r="K38" s="127"/>
-      <c r="L38" s="120"/>
-      <c r="M38" s="120"/>
+      <c r="J38" s="111"/>
+      <c r="K38" s="110"/>
+      <c r="L38" s="99"/>
+      <c r="M38" s="99"/>
     </row>
     <row r="39" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="A39" s="103"/>
-      <c r="B39" s="103"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="107"/>
-      <c r="E39" s="103" t="s">
+      <c r="A39" s="101"/>
+      <c r="B39" s="101"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="101" t="s">
         <v>498</v>
       </c>
-      <c r="F39" s="114" t="s">
+      <c r="F39" s="104" t="s">
         <v>575</v>
       </c>
       <c r="G39" s="79"/>
-      <c r="H39" s="127" t="s">
+      <c r="H39" s="110" t="s">
         <v>576</v>
       </c>
       <c r="I39" s="63" t="s">
@@ -15788,18 +15799,18 @@
       <c r="K39" s="51" t="s">
         <v>578</v>
       </c>
-      <c r="L39" s="120"/>
-      <c r="M39" s="120"/>
+      <c r="L39" s="99"/>
+      <c r="M39" s="99"/>
     </row>
     <row r="40" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="A40" s="103"/>
-      <c r="B40" s="103"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="107"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="114"/>
+      <c r="A40" s="101"/>
+      <c r="B40" s="101"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="104"/>
       <c r="G40" s="79"/>
-      <c r="H40" s="127"/>
+      <c r="H40" s="110"/>
       <c r="I40" s="63" t="s">
         <v>579</v>
       </c>
@@ -15807,34 +15818,70 @@
       <c r="K40" s="51" t="s">
         <v>580</v>
       </c>
-      <c r="L40" s="120"/>
-      <c r="M40" s="120"/>
-    </row>
-    <row r="41" spans="1:13" s="18" customFormat="1" ht="17" customHeight="1">
-      <c r="A41" s="104"/>
-      <c r="B41" s="104"/>
-      <c r="C41" s="104"/>
-      <c r="D41" s="109"/>
-      <c r="E41" s="104"/>
-      <c r="F41" s="115"/>
+      <c r="L40" s="99"/>
+      <c r="M40" s="99"/>
+    </row>
+    <row r="41" spans="1:13" s="18" customFormat="1" ht="16.95" customHeight="1">
+      <c r="A41" s="102"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="117"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="105"/>
       <c r="G41" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="H41" s="127"/>
+      <c r="H41" s="110"/>
       <c r="I41" s="63" t="s">
         <v>581</v>
       </c>
       <c r="J41" s="46"/>
       <c r="K41" s="43"/>
-      <c r="L41" s="120"/>
-      <c r="M41" s="120"/>
+      <c r="L41" s="99"/>
+      <c r="M41" s="99"/>
     </row>
     <row r="42" spans="1:13">
       <c r="K42" s="77"/>
     </row>
-    <row r="43" spans="1:13" ht="23" customHeight="1"/>
+    <row r="43" spans="1:13" ht="22.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="A6:A22"/>
+    <mergeCell ref="B6:B22"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="C13:C22"/>
+    <mergeCell ref="D13:D22"/>
+    <mergeCell ref="L6:L22"/>
+    <mergeCell ref="M6:M22"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E16:E22"/>
+    <mergeCell ref="F16:F22"/>
+    <mergeCell ref="H16:H22"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="D24:D29"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A31:A41"/>
+    <mergeCell ref="B31:B41"/>
+    <mergeCell ref="C31:C41"/>
+    <mergeCell ref="D31:D41"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="L24:L29"/>
+    <mergeCell ref="M24:M29"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="H24:H25"/>
     <mergeCell ref="L31:L41"/>
     <mergeCell ref="M31:M41"/>
     <mergeCell ref="E34:E36"/>
@@ -15851,144 +15898,108 @@
     <mergeCell ref="H39:H41"/>
     <mergeCell ref="F31:F33"/>
     <mergeCell ref="H31:H33"/>
-    <mergeCell ref="L24:L29"/>
-    <mergeCell ref="M24:M29"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="A31:A41"/>
-    <mergeCell ref="B31:B41"/>
-    <mergeCell ref="C31:C41"/>
-    <mergeCell ref="D31:D41"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="D24:D29"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="L6:L22"/>
-    <mergeCell ref="M6:M22"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E16:E22"/>
-    <mergeCell ref="F16:F22"/>
-    <mergeCell ref="H16:H22"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="A6:A22"/>
-    <mergeCell ref="B6:B22"/>
-    <mergeCell ref="C6:C12"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="C13:C22"/>
-    <mergeCell ref="D13:D22"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H6" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="H7" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="H8" r:id="rId3" display="Understanding Cisco Cloud Fundamentals Video Lessons" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="J6" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="J7" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="K6" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="K7" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="K11" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="K8" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="H28" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="H24" r:id="rId11" display="Introduction to Software Defined Networking (SDN) Live Lessons (ISBN-10: 0-7897-5381-2) " xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="I24" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="I26" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="I28" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="I29" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="J27" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="J29" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="K24" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="K26" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="K28" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="K29" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink ref="J31" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink ref="K36" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink ref="L31" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink ref="L36" r:id="rId25" display="https://learningnetwork.cisco.com/community/it_careers/internet-of-things-webinar-series" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
-    <hyperlink ref="L41" r:id="rId26" display="https://learningnetwork.cisco.com/community/it_careers/internet-of-things-webinar-series" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
-    <hyperlink ref="M31" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
-    <hyperlink ref="M36" r:id="rId28" display="https://developer.cisco.com/site/iot/" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
-    <hyperlink ref="M41" r:id="rId29" display="https://developer.cisco.com/site/iot/" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
-    <hyperlink ref="L24" r:id="rId30" display="CCIE Technical webinars " xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
-    <hyperlink ref="L6" r:id="rId31" display="CCIE Technical webinars " xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
-    <hyperlink ref="M24" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
-    <hyperlink ref="M26" r:id="rId33" display="https://developer.cisco.com/site/networking/" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
-    <hyperlink ref="M28" r:id="rId34" display="https://developer.cisco.com/site/networking/" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
-    <hyperlink ref="M29" r:id="rId35" display="https://developer.cisco.com/site/networking/" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
-    <hyperlink ref="M6" r:id="rId36" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
-    <hyperlink ref="H31" r:id="rId37" display="IoT Fundamentals -  Chapter 1,2,5,6 &amp; 8" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
-    <hyperlink ref="I7" r:id="rId38" location="/video/1509464085M66129455a" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
-    <hyperlink ref="J24:J26" r:id="rId39" display="Designing and Implementing Cisco Network Programmability (NPDESI)" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
-    <hyperlink ref="J36" r:id="rId40" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
-    <hyperlink ref="K4" r:id="rId41" display="Evolving Technologies Study Guide - By: Nicholas J. Russo CCIE #42518 (RS/SP)" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
-    <hyperlink ref="I3" r:id="rId42" display="BRKCCIE-3352 - The Next Generation CCIE" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
-    <hyperlink ref="H34" r:id="rId43" display="IoT Fundamentals -  Chapter 1,2,5,6 &amp; 8" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
-    <hyperlink ref="H39" r:id="rId44" display="IoT Fundamentals -  Chapter 1,2,5,6 &amp; 8" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
-    <hyperlink ref="H26" r:id="rId45" display="Programming and Automating Cisco Networks (ISBN-10: 0-13-443678-4) " xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
-    <hyperlink ref="H29" r:id="rId46" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
-    <hyperlink ref="I12" r:id="rId47" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
-    <hyperlink ref="J8" r:id="rId48" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
-    <hyperlink ref="I10" r:id="rId49" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
-    <hyperlink ref="I9" r:id="rId50" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
-    <hyperlink ref="I8" r:id="rId51" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
-    <hyperlink ref="I25" r:id="rId52" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
-    <hyperlink ref="K31" r:id="rId53" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
-    <hyperlink ref="K12" r:id="rId54" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
-    <hyperlink ref="I11" r:id="rId55" display="BRKCLD-2008 - Multi-Cloud and Application Centric Modeling, Deployment and Management with Cisco CloudCenter " xr:uid="{00000000-0004-0000-0200-000036000000}"/>
-    <hyperlink ref="I13" r:id="rId56" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
-    <hyperlink ref="K15" r:id="rId57" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
-    <hyperlink ref="I18" r:id="rId58" display="Deploy a Hybrid, Multi-Cloud Container Environment in Less than an Hour - BRKCLD-2235" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
-    <hyperlink ref="I22" r:id="rId59" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
-    <hyperlink ref="I15" r:id="rId60" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
-    <hyperlink ref="H13" r:id="rId61" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
-    <hyperlink ref="H14" r:id="rId62" xr:uid="{00000000-0004-0000-0200-00003D000000}"/>
-    <hyperlink ref="H15" r:id="rId63" xr:uid="{00000000-0004-0000-0200-00003E000000}"/>
-    <hyperlink ref="I19" r:id="rId64" xr:uid="{00000000-0004-0000-0200-00003F000000}"/>
-    <hyperlink ref="K19" r:id="rId65" xr:uid="{00000000-0004-0000-0200-000040000000}"/>
-    <hyperlink ref="I20" r:id="rId66" xr:uid="{00000000-0004-0000-0200-000041000000}"/>
-    <hyperlink ref="I14" r:id="rId67" xr:uid="{00000000-0004-0000-0200-000042000000}"/>
-    <hyperlink ref="K14" r:id="rId68" xr:uid="{00000000-0004-0000-0200-000043000000}"/>
-    <hyperlink ref="I16" r:id="rId69" xr:uid="{00000000-0004-0000-0200-000044000000}"/>
-    <hyperlink ref="K9" r:id="rId70" xr:uid="{00000000-0004-0000-0200-000045000000}"/>
-    <hyperlink ref="K20" r:id="rId71" xr:uid="{00000000-0004-0000-0200-000046000000}"/>
-    <hyperlink ref="K13" r:id="rId72" xr:uid="{00000000-0004-0000-0200-000047000000}"/>
-    <hyperlink ref="K18" r:id="rId73" xr:uid="{00000000-0004-0000-0200-000048000000}"/>
-    <hyperlink ref="I21" r:id="rId74" location="/video/1509464085I780fb5aec" xr:uid="{00000000-0004-0000-0200-000049000000}"/>
-    <hyperlink ref="I27" r:id="rId75" xr:uid="{00000000-0004-0000-0200-00004A000000}"/>
-    <hyperlink ref="I17" r:id="rId76" xr:uid="{00000000-0004-0000-0200-00004B000000}"/>
-    <hyperlink ref="I37" r:id="rId77" location="/video/1509464085H9c9ccc747" display="SOLSEC-1004 - Securing the IoT" xr:uid="{00000000-0004-0000-0200-00004C000000}"/>
-    <hyperlink ref="I36" r:id="rId78" xr:uid="{00000000-0004-0000-0200-00004D000000}"/>
-    <hyperlink ref="I38" r:id="rId79" xr:uid="{00000000-0004-0000-0200-00004E000000}"/>
-    <hyperlink ref="I34" r:id="rId80" xr:uid="{00000000-0004-0000-0200-00004F000000}"/>
-    <hyperlink ref="J37" r:id="rId81" xr:uid="{00000000-0004-0000-0200-000050000000}"/>
-    <hyperlink ref="K37" r:id="rId82" xr:uid="{00000000-0004-0000-0200-000051000000}"/>
-    <hyperlink ref="I31" r:id="rId83" xr:uid="{00000000-0004-0000-0200-000052000000}"/>
-    <hyperlink ref="I35" r:id="rId84" xr:uid="{00000000-0004-0000-0200-000053000000}"/>
-    <hyperlink ref="I33" r:id="rId85" xr:uid="{00000000-0004-0000-0200-000054000000}"/>
-    <hyperlink ref="I41" r:id="rId86" xr:uid="{00000000-0004-0000-0200-000055000000}"/>
-    <hyperlink ref="I32" r:id="rId87" xr:uid="{00000000-0004-0000-0200-000056000000}"/>
-    <hyperlink ref="I39" r:id="rId88" xr:uid="{00000000-0004-0000-0200-000057000000}"/>
-    <hyperlink ref="I40" r:id="rId89" xr:uid="{00000000-0004-0000-0200-000058000000}"/>
-    <hyperlink ref="K39" r:id="rId90" location="~stickynav=3" xr:uid="{00000000-0004-0000-0200-000059000000}"/>
-    <hyperlink ref="K32" r:id="rId91" xr:uid="{00000000-0004-0000-0200-00005A000000}"/>
-    <hyperlink ref="K40" r:id="rId92" xr:uid="{00000000-0004-0000-0200-00005B000000}"/>
-    <hyperlink ref="M6:M22" r:id="rId93" display="Cloud Dev Center" xr:uid="{00000000-0004-0000-0200-00005C000000}"/>
-    <hyperlink ref="J26" r:id="rId94" xr:uid="{00000000-0004-0000-0200-00005D000000}"/>
-    <hyperlink ref="H37:H38" r:id="rId95" display="IoT Fundamentals - Chapter 8" xr:uid="{00000000-0004-0000-0200-00005E000000}"/>
-    <hyperlink ref="H31:H33" r:id="rId96" display="IoT Fundamentals - Chapters 1, 2, 3, 5, and 6" xr:uid="{00000000-0004-0000-0200-00005F000000}"/>
-    <hyperlink ref="H26:H27" r:id="rId97" display="Programming and Automating Cisco Networks - Chapters 7 and 8" xr:uid="{00000000-0004-0000-0200-000060000000}"/>
-    <hyperlink ref="H24:H25" r:id="rId98" display="Introduction to Software Defined Networking (SDN) - LiveLessons " xr:uid="{00000000-0004-0000-0200-000061000000}"/>
-    <hyperlink ref="H8:H10" r:id="rId99" display="Understanding Cisco Cloud Fundamentals - LiveLessons" xr:uid="{00000000-0004-0000-0200-000062000000}"/>
-    <hyperlink ref="K24:L29" r:id="rId100" display="Simplify and Automate the Virtualized Environment - White Paper" xr:uid="{00000000-0004-0000-0200-000063000000}"/>
+    <hyperlink ref="H6" r:id="rId1"/>
+    <hyperlink ref="H7" r:id="rId2"/>
+    <hyperlink ref="H8" r:id="rId3" display="Understanding Cisco Cloud Fundamentals Video Lessons"/>
+    <hyperlink ref="J6" r:id="rId4"/>
+    <hyperlink ref="J7" r:id="rId5"/>
+    <hyperlink ref="K6" r:id="rId6"/>
+    <hyperlink ref="K7" r:id="rId7"/>
+    <hyperlink ref="K11" r:id="rId8"/>
+    <hyperlink ref="K8" r:id="rId9"/>
+    <hyperlink ref="H28" r:id="rId10"/>
+    <hyperlink ref="H24" r:id="rId11" display="Introduction to Software Defined Networking (SDN) Live Lessons (ISBN-10: 0-7897-5381-2) "/>
+    <hyperlink ref="I24" r:id="rId12"/>
+    <hyperlink ref="I26" r:id="rId13"/>
+    <hyperlink ref="I28" r:id="rId14"/>
+    <hyperlink ref="I29" r:id="rId15"/>
+    <hyperlink ref="J27" r:id="rId16"/>
+    <hyperlink ref="J29" r:id="rId17"/>
+    <hyperlink ref="K24" r:id="rId18"/>
+    <hyperlink ref="K26" r:id="rId19"/>
+    <hyperlink ref="K28" r:id="rId20"/>
+    <hyperlink ref="K29" r:id="rId21"/>
+    <hyperlink ref="J31" r:id="rId22"/>
+    <hyperlink ref="K36" r:id="rId23"/>
+    <hyperlink ref="L31" r:id="rId24"/>
+    <hyperlink ref="L36" r:id="rId25" display="https://learningnetwork.cisco.com/community/it_careers/internet-of-things-webinar-series"/>
+    <hyperlink ref="L41" r:id="rId26" display="https://learningnetwork.cisco.com/community/it_careers/internet-of-things-webinar-series"/>
+    <hyperlink ref="M31" r:id="rId27"/>
+    <hyperlink ref="M36" r:id="rId28" display="https://developer.cisco.com/site/iot/"/>
+    <hyperlink ref="M41" r:id="rId29" display="https://developer.cisco.com/site/iot/"/>
+    <hyperlink ref="L24" r:id="rId30" display="CCIE Technical webinars "/>
+    <hyperlink ref="L6" r:id="rId31" display="CCIE Technical webinars "/>
+    <hyperlink ref="M24" r:id="rId32"/>
+    <hyperlink ref="M26" r:id="rId33" display="https://developer.cisco.com/site/networking/"/>
+    <hyperlink ref="M28" r:id="rId34" display="https://developer.cisco.com/site/networking/"/>
+    <hyperlink ref="M29" r:id="rId35" display="https://developer.cisco.com/site/networking/"/>
+    <hyperlink ref="M6" r:id="rId36"/>
+    <hyperlink ref="H31" r:id="rId37" display="IoT Fundamentals -  Chapter 1,2,5,6 &amp; 8"/>
+    <hyperlink ref="I7" r:id="rId38" location="/video/1509464085M66129455a"/>
+    <hyperlink ref="J24:J26" r:id="rId39" display="Designing and Implementing Cisco Network Programmability (NPDESI)"/>
+    <hyperlink ref="J36" r:id="rId40"/>
+    <hyperlink ref="K4" r:id="rId41" display="Evolving Technologies Study Guide - By: Nicholas J. Russo CCIE #42518 (RS/SP)"/>
+    <hyperlink ref="I3" r:id="rId42" display="BRKCCIE-3352 - The Next Generation CCIE"/>
+    <hyperlink ref="H34" r:id="rId43" display="IoT Fundamentals -  Chapter 1,2,5,6 &amp; 8"/>
+    <hyperlink ref="H39" r:id="rId44" display="IoT Fundamentals -  Chapter 1,2,5,6 &amp; 8"/>
+    <hyperlink ref="H26" r:id="rId45" display="Programming and Automating Cisco Networks (ISBN-10: 0-13-443678-4) "/>
+    <hyperlink ref="H29" r:id="rId46"/>
+    <hyperlink ref="I12" r:id="rId47"/>
+    <hyperlink ref="J8" r:id="rId48"/>
+    <hyperlink ref="I10" r:id="rId49"/>
+    <hyperlink ref="I9" r:id="rId50"/>
+    <hyperlink ref="I8" r:id="rId51"/>
+    <hyperlink ref="I25" r:id="rId52"/>
+    <hyperlink ref="K31" r:id="rId53"/>
+    <hyperlink ref="K12" r:id="rId54"/>
+    <hyperlink ref="I11" r:id="rId55" display="BRKCLD-2008 - Multi-Cloud and Application Centric Modeling, Deployment and Management with Cisco CloudCenter "/>
+    <hyperlink ref="I13" r:id="rId56"/>
+    <hyperlink ref="K15" r:id="rId57"/>
+    <hyperlink ref="I18" r:id="rId58" display="Deploy a Hybrid, Multi-Cloud Container Environment in Less than an Hour - BRKCLD-2235"/>
+    <hyperlink ref="I22" r:id="rId59"/>
+    <hyperlink ref="I15" r:id="rId60"/>
+    <hyperlink ref="H13" r:id="rId61"/>
+    <hyperlink ref="H14" r:id="rId62"/>
+    <hyperlink ref="H15" r:id="rId63"/>
+    <hyperlink ref="I19" r:id="rId64"/>
+    <hyperlink ref="K19" r:id="rId65"/>
+    <hyperlink ref="I20" r:id="rId66"/>
+    <hyperlink ref="I14" r:id="rId67"/>
+    <hyperlink ref="K14" r:id="rId68"/>
+    <hyperlink ref="I16" r:id="rId69"/>
+    <hyperlink ref="K9" r:id="rId70"/>
+    <hyperlink ref="K20" r:id="rId71"/>
+    <hyperlink ref="K13" r:id="rId72"/>
+    <hyperlink ref="K18" r:id="rId73"/>
+    <hyperlink ref="I21" r:id="rId74" location="/video/1509464085I780fb5aec"/>
+    <hyperlink ref="I27" r:id="rId75"/>
+    <hyperlink ref="I17" r:id="rId76"/>
+    <hyperlink ref="I37" r:id="rId77" location="/video/1509464085H9c9ccc747" display="SOLSEC-1004 - Securing the IoT"/>
+    <hyperlink ref="I36" r:id="rId78"/>
+    <hyperlink ref="I38" r:id="rId79"/>
+    <hyperlink ref="I34" r:id="rId80"/>
+    <hyperlink ref="J37" r:id="rId81"/>
+    <hyperlink ref="K37" r:id="rId82"/>
+    <hyperlink ref="I31" r:id="rId83"/>
+    <hyperlink ref="I35" r:id="rId84"/>
+    <hyperlink ref="I33" r:id="rId85"/>
+    <hyperlink ref="I41" r:id="rId86"/>
+    <hyperlink ref="I32" r:id="rId87"/>
+    <hyperlink ref="I39" r:id="rId88"/>
+    <hyperlink ref="I40" r:id="rId89"/>
+    <hyperlink ref="K39" r:id="rId90" location="~stickynav=3"/>
+    <hyperlink ref="K32" r:id="rId91"/>
+    <hyperlink ref="K40" r:id="rId92"/>
+    <hyperlink ref="M6:M22" r:id="rId93" display="Cloud Dev Center"/>
+    <hyperlink ref="J26" r:id="rId94"/>
+    <hyperlink ref="H37:H38" r:id="rId95" display="IoT Fundamentals - Chapter 8"/>
+    <hyperlink ref="H31:H33" r:id="rId96" display="IoT Fundamentals - Chapters 1, 2, 3, 5, and 6"/>
+    <hyperlink ref="H26:H27" r:id="rId97" display="Programming and Automating Cisco Networks - Chapters 7 and 8"/>
+    <hyperlink ref="H24:H25" r:id="rId98" display="Introduction to Software Defined Networking (SDN) - LiveLessons "/>
+    <hyperlink ref="H8:H10" r:id="rId99" display="Understanding Cisco Cloud Fundamentals - LiveLessons"/>
+    <hyperlink ref="K24:L29" r:id="rId100" display="Simplify and Automate the Virtualized Environment - White Paper"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/blueprints-combined.xlsx
+++ b/blueprints-combined.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qdd/Sync/git/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBAC513-50A0-0341-BF78-593D52B83E35}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF91E2CC-076F-D149-AC15-5C6CB4DB8A9C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39820" yWindow="1040" windowWidth="32840" windowHeight="20520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="963">
   <si>
     <t>date</t>
   </si>
@@ -2997,12 +2997,6 @@
     <t>foundation lab 2</t>
   </si>
   <si>
-    <t>add flash cards</t>
-  </si>
-  <si>
-    <t>review, lab</t>
-  </si>
-  <si>
     <t>suppress, unsuppress maps</t>
   </si>
   <si>
@@ -3010,6 +3004,12 @@
   </si>
   <si>
     <t>flash cards incl authent</t>
+  </si>
+  <si>
+    <t>peer templates</t>
+  </si>
+  <si>
+    <t>ospf domain-id, down bit</t>
   </si>
 </sst>
 </file>
@@ -3612,13 +3612,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3628,30 +3622,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3672,17 +3642,32 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3693,14 +3678,29 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4184,10 +4184,10 @@
   <dimension ref="A1:Q349"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C157" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A189" sqref="A189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -4212,7 +4212,7 @@
       </c>
       <c r="G1" s="90">
         <f ca="1">(TODAY()-I1)*-1</f>
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="H1" s="91" t="s">
         <v>10</v>
@@ -5627,7 +5627,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="16">
+    <row r="161" spans="1:4" ht="16">
       <c r="A161" s="83" t="s">
         <v>929</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="16">
+    <row r="162" spans="1:4" ht="16">
       <c r="A162" s="83" t="s">
         <v>929</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="16">
+    <row r="163" spans="1:4" ht="16">
       <c r="A163" s="83" t="s">
         <v>929</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="16">
+    <row r="164" spans="1:4" ht="16">
       <c r="A164" s="83" t="s">
         <v>929</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="16">
+    <row r="165" spans="1:4" ht="16">
       <c r="A165" s="83" t="s">
         <v>929</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="16">
+    <row r="166" spans="1:4" ht="16">
       <c r="A166" s="83" t="s">
         <v>929</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="16">
+    <row r="167" spans="1:4" ht="16">
       <c r="A167" s="83" t="s">
         <v>929</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="19">
+    <row r="168" spans="1:4" ht="19">
       <c r="A168" s="83" t="s">
         <v>929</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="16">
+    <row r="169" spans="1:4" ht="16">
       <c r="A169" s="83" t="s">
         <v>929</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="16">
+    <row r="170" spans="1:4" ht="16">
       <c r="A170" s="83" t="s">
         <v>929</v>
       </c>
@@ -5707,13 +5707,10 @@
         <v>753</v>
       </c>
       <c r="D170" t="s">
-        <v>958</v>
-      </c>
-      <c r="E170" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="16">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="16">
       <c r="A171" s="83" t="s">
         <v>929</v>
       </c>
@@ -5721,7 +5718,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="16">
+    <row r="172" spans="1:4" ht="16">
       <c r="A172" s="83" t="s">
         <v>929</v>
       </c>
@@ -5729,7 +5726,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="16">
+    <row r="173" spans="1:4" ht="16">
       <c r="A173" s="83" t="s">
         <v>929</v>
       </c>
@@ -5737,7 +5734,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="16">
+    <row r="174" spans="1:4" ht="16">
       <c r="A174" s="83" t="s">
         <v>929</v>
       </c>
@@ -5745,7 +5742,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="16">
+    <row r="175" spans="1:4" ht="16">
       <c r="A175" s="83" t="s">
         <v>929</v>
       </c>
@@ -5753,7 +5750,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="16">
+    <row r="176" spans="1:4" ht="16">
       <c r="A176" s="83" t="s">
         <v>929</v>
       </c>
@@ -5848,12 +5845,6 @@
       <c r="B187" s="7" t="s">
         <v>770</v>
       </c>
-      <c r="D187" t="s">
-        <v>959</v>
-      </c>
-      <c r="E187" t="s">
-        <v>957</v>
-      </c>
     </row>
     <row r="188" spans="1:5" ht="16">
       <c r="A188" s="83" t="s">
@@ -5863,7 +5854,7 @@
         <v>771</v>
       </c>
       <c r="D188" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E188" t="s">
         <v>957</v>
@@ -5875,6 +5866,12 @@
       </c>
       <c r="B189" s="7" t="s">
         <v>772</v>
+      </c>
+      <c r="D189" t="s">
+        <v>962</v>
+      </c>
+      <c r="E189" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="16">
@@ -6088,7 +6085,7 @@
         <v>797</v>
       </c>
       <c r="D215" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E215" t="s">
         <v>957</v>
@@ -6126,7 +6123,7 @@
         <v>801</v>
       </c>
       <c r="D219" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E219" t="s">
         <v>957</v>
@@ -7284,7 +7281,7 @@
       </c>
       <c r="F1" s="90">
         <f ca="1">(TODAY()-H1)*-1</f>
-        <v>-180</v>
+        <v>-187</v>
       </c>
       <c r="G1" s="91" t="s">
         <v>10</v>
@@ -15004,12 +15001,12 @@
       <c r="M1" s="16"/>
     </row>
     <row r="2" spans="1:13" s="18" customFormat="1" ht="26" customHeight="1">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
       <c r="G2" s="49" t="s">
         <v>501</v>
       </c>
@@ -15033,14 +15030,14 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="126" t="s">
         <v>446</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
       <c r="G3" s="27"/>
       <c r="H3" s="23"/>
       <c r="I3" s="24" t="s">
@@ -15051,12 +15048,12 @@
       <c r="M3" s="26"/>
     </row>
     <row r="4" spans="1:13" s="32" customFormat="1" ht="14" customHeight="1">
-      <c r="A4" s="101"/>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
@@ -15083,16 +15080,16 @@
       <c r="M5" s="40"/>
     </row>
     <row r="6" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="100" t="s">
         <v>448</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="100" t="s">
         <v>449</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="100" t="s">
         <v>450</v>
       </c>
-      <c r="D6" s="106" t="s">
+      <c r="D6" s="115" t="s">
         <v>505</v>
       </c>
       <c r="E6" s="41" t="s">
@@ -15114,18 +15111,18 @@
       <c r="K6" s="43" t="s">
         <v>454</v>
       </c>
-      <c r="L6" s="110" t="s">
+      <c r="L6" s="112" t="s">
         <v>507</v>
       </c>
-      <c r="M6" s="110" t="s">
+      <c r="M6" s="112" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A7" s="103"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="107"/>
+      <c r="A7" s="101"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="116"/>
       <c r="E7" s="41" t="s">
         <v>456</v>
       </c>
@@ -15147,22 +15144,22 @@
       <c r="K7" s="43" t="s">
         <v>458</v>
       </c>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
+      <c r="L7" s="113"/>
+      <c r="M7" s="113"/>
     </row>
     <row r="8" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A8" s="103"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="102" t="s">
+      <c r="A8" s="101"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="100" t="s">
         <v>459</v>
       </c>
-      <c r="F8" s="113" t="s">
+      <c r="F8" s="103" t="s">
         <v>511</v>
       </c>
       <c r="G8" s="78"/>
-      <c r="H8" s="116" t="s">
+      <c r="H8" s="106" t="s">
         <v>512</v>
       </c>
       <c r="I8" s="50" t="s">
@@ -15174,18 +15171,18 @@
       <c r="K8" s="43" t="s">
         <v>466</v>
       </c>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="113"/>
     </row>
     <row r="9" spans="1:13" s="18" customFormat="1" ht="16" customHeight="1" outlineLevel="1">
-      <c r="A9" s="103"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="114"/>
+      <c r="A9" s="101"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="104"/>
       <c r="G9" s="79"/>
-      <c r="H9" s="117"/>
+      <c r="H9" s="107"/>
       <c r="I9" s="50" t="s">
         <v>514</v>
       </c>
@@ -15193,41 +15190,41 @@
       <c r="K9" s="51" t="s">
         <v>515</v>
       </c>
-      <c r="L9" s="111"/>
-      <c r="M9" s="111"/>
+      <c r="L9" s="113"/>
+      <c r="M9" s="113"/>
     </row>
     <row r="10" spans="1:13" s="18" customFormat="1" ht="19" customHeight="1" outlineLevel="1">
-      <c r="A10" s="103"/>
-      <c r="B10" s="103"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="115"/>
+      <c r="A10" s="101"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="105"/>
       <c r="G10" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="H10" s="118"/>
+      <c r="H10" s="108"/>
       <c r="I10" s="50" t="s">
         <v>516</v>
       </c>
       <c r="J10" s="44"/>
       <c r="K10" s="52"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="111"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="113"/>
     </row>
     <row r="11" spans="1:13" s="18" customFormat="1" ht="13" customHeight="1" outlineLevel="1">
-      <c r="A11" s="103"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="102" t="s">
+      <c r="A11" s="101"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="100" t="s">
         <v>461</v>
       </c>
-      <c r="F11" s="113" t="s">
+      <c r="F11" s="103" t="s">
         <v>517</v>
       </c>
       <c r="G11" s="78"/>
-      <c r="H11" s="120"/>
+      <c r="H11" s="99"/>
       <c r="I11" s="53" t="s">
         <v>518</v>
       </c>
@@ -15235,20 +15232,20 @@
       <c r="K11" s="43" t="s">
         <v>519</v>
       </c>
-      <c r="L11" s="111"/>
-      <c r="M11" s="111"/>
+      <c r="L11" s="113"/>
+      <c r="M11" s="113"/>
     </row>
     <row r="12" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A12" s="103"/>
-      <c r="B12" s="103"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="119"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="122"/>
       <c r="G12" s="80" t="s">
         <v>582</v>
       </c>
-      <c r="H12" s="121"/>
+      <c r="H12" s="123"/>
       <c r="I12" s="54" t="s">
         <v>520</v>
       </c>
@@ -15256,16 +15253,16 @@
       <c r="K12" s="56" t="s">
         <v>521</v>
       </c>
-      <c r="L12" s="111"/>
-      <c r="M12" s="111"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
     </row>
     <row r="13" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A13" s="103"/>
-      <c r="B13" s="103"/>
-      <c r="C13" s="103" t="s">
+      <c r="A13" s="101"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101" t="s">
         <v>462</v>
       </c>
-      <c r="D13" s="107" t="s">
+      <c r="D13" s="116" t="s">
         <v>522</v>
       </c>
       <c r="E13" s="57" t="s">
@@ -15287,14 +15284,14 @@
       <c r="K13" s="51" t="s">
         <v>526</v>
       </c>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="113"/>
     </row>
     <row r="14" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A14" s="103"/>
-      <c r="B14" s="103"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="107"/>
+      <c r="A14" s="101"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="116"/>
       <c r="E14" s="41" t="s">
         <v>464</v>
       </c>
@@ -15314,14 +15311,14 @@
       <c r="K14" s="43" t="s">
         <v>530</v>
       </c>
-      <c r="L14" s="111"/>
-      <c r="M14" s="111"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="113"/>
     </row>
     <row r="15" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A15" s="103"/>
-      <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="107"/>
+      <c r="A15" s="101"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="116"/>
       <c r="E15" s="41" t="s">
         <v>465</v>
       </c>
@@ -15341,56 +15338,56 @@
       <c r="K15" s="43" t="s">
         <v>534</v>
       </c>
-      <c r="L15" s="111"/>
-      <c r="M15" s="111"/>
+      <c r="L15" s="113"/>
+      <c r="M15" s="113"/>
     </row>
     <row r="16" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A16" s="103"/>
-      <c r="B16" s="103"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="102" t="s">
+      <c r="A16" s="101"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="100" t="s">
         <v>467</v>
       </c>
-      <c r="F16" s="113" t="s">
+      <c r="F16" s="103" t="s">
         <v>535</v>
       </c>
       <c r="G16" s="78"/>
-      <c r="H16" s="122"/>
+      <c r="H16" s="124"/>
       <c r="I16" s="63" t="s">
         <v>536</v>
       </c>
       <c r="J16" s="46"/>
       <c r="K16" s="43"/>
-      <c r="L16" s="111"/>
-      <c r="M16" s="111"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="113"/>
     </row>
     <row r="17" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A17" s="103"/>
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="114"/>
+      <c r="A17" s="101"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="104"/>
       <c r="G17" s="79"/>
-      <c r="H17" s="122"/>
+      <c r="H17" s="124"/>
       <c r="I17" s="63" t="s">
         <v>537</v>
       </c>
       <c r="J17" s="46"/>
       <c r="K17" s="43"/>
-      <c r="L17" s="111"/>
-      <c r="M17" s="111"/>
+      <c r="L17" s="113"/>
+      <c r="M17" s="113"/>
     </row>
     <row r="18" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A18" s="103"/>
-      <c r="B18" s="103"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="114"/>
+      <c r="A18" s="101"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="104"/>
       <c r="G18" s="79"/>
-      <c r="H18" s="122"/>
+      <c r="H18" s="124"/>
       <c r="I18" s="43" t="s">
         <v>538</v>
       </c>
@@ -15398,18 +15395,18 @@
       <c r="K18" s="63" t="s">
         <v>539</v>
       </c>
-      <c r="L18" s="111"/>
-      <c r="M18" s="111"/>
+      <c r="L18" s="113"/>
+      <c r="M18" s="113"/>
     </row>
     <row r="19" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A19" s="103"/>
-      <c r="B19" s="103"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="114"/>
+      <c r="A19" s="101"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="104"/>
       <c r="G19" s="79"/>
-      <c r="H19" s="122"/>
+      <c r="H19" s="124"/>
       <c r="I19" s="43" t="s">
         <v>540</v>
       </c>
@@ -15417,18 +15414,18 @@
       <c r="K19" s="63" t="s">
         <v>541</v>
       </c>
-      <c r="L19" s="111"/>
-      <c r="M19" s="111"/>
+      <c r="L19" s="113"/>
+      <c r="M19" s="113"/>
     </row>
     <row r="20" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A20" s="103"/>
-      <c r="B20" s="103"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="114"/>
+      <c r="A20" s="101"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="104"/>
       <c r="G20" s="79"/>
-      <c r="H20" s="122"/>
+      <c r="H20" s="124"/>
       <c r="I20" s="43" t="s">
         <v>542</v>
       </c>
@@ -15436,44 +15433,44 @@
       <c r="K20" s="63" t="s">
         <v>543</v>
       </c>
-      <c r="L20" s="111"/>
-      <c r="M20" s="111"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="113"/>
     </row>
     <row r="21" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A21" s="103"/>
-      <c r="B21" s="103"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="114"/>
+      <c r="A21" s="101"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="104"/>
       <c r="G21" s="79"/>
-      <c r="H21" s="122"/>
+      <c r="H21" s="124"/>
       <c r="I21" s="45" t="s">
         <v>484</v>
       </c>
       <c r="J21" s="46"/>
       <c r="K21" s="63"/>
-      <c r="L21" s="111"/>
-      <c r="M21" s="111"/>
+      <c r="L21" s="113"/>
+      <c r="M21" s="113"/>
     </row>
     <row r="22" spans="1:14" s="18" customFormat="1" ht="23" customHeight="1">
-      <c r="A22" s="104"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="104"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="115"/>
+      <c r="A22" s="102"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="105"/>
       <c r="G22" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="H22" s="122"/>
+      <c r="H22" s="124"/>
       <c r="I22" s="43" t="s">
         <v>544</v>
       </c>
       <c r="J22" s="46"/>
       <c r="K22" s="44"/>
-      <c r="L22" s="112"/>
-      <c r="M22" s="112"/>
+      <c r="L22" s="114"/>
+      <c r="M22" s="114"/>
     </row>
     <row r="23" spans="1:14" s="18" customFormat="1" ht="8" customHeight="1">
       <c r="A23" s="64"/>
@@ -15491,26 +15488,26 @@
       <c r="M23" s="69"/>
     </row>
     <row r="24" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A24" s="102" t="s">
+      <c r="A24" s="100" t="s">
         <v>468</v>
       </c>
-      <c r="B24" s="123" t="s">
+      <c r="B24" s="118" t="s">
         <v>469</v>
       </c>
-      <c r="C24" s="102" t="s">
+      <c r="C24" s="100" t="s">
         <v>470</v>
       </c>
-      <c r="D24" s="106" t="s">
+      <c r="D24" s="115" t="s">
         <v>545</v>
       </c>
-      <c r="E24" s="102" t="s">
+      <c r="E24" s="100" t="s">
         <v>471</v>
       </c>
-      <c r="F24" s="113" t="s">
+      <c r="F24" s="103" t="s">
         <v>546</v>
       </c>
       <c r="G24" s="78"/>
-      <c r="H24" s="116" t="s">
+      <c r="H24" s="106" t="s">
         <v>547</v>
       </c>
       <c r="I24" s="44" t="s">
@@ -15522,47 +15519,47 @@
       <c r="K24" s="43" t="s">
         <v>548</v>
       </c>
-      <c r="L24" s="110" t="s">
+      <c r="L24" s="112" t="s">
         <v>507</v>
       </c>
-      <c r="M24" s="120" t="s">
+      <c r="M24" s="99" t="s">
         <v>474</v>
       </c>
       <c r="N24" s="47"/>
     </row>
     <row r="25" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A25" s="103"/>
-      <c r="B25" s="124"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="115"/>
+      <c r="A25" s="101"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="105"/>
       <c r="G25" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="H25" s="118"/>
+      <c r="H25" s="108"/>
       <c r="I25" s="44" t="s">
         <v>549</v>
       </c>
       <c r="J25" s="45"/>
       <c r="K25" s="43"/>
-      <c r="L25" s="111"/>
-      <c r="M25" s="120"/>
+      <c r="L25" s="113"/>
+      <c r="M25" s="99"/>
       <c r="N25" s="47"/>
     </row>
     <row r="26" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A26" s="103"/>
-      <c r="B26" s="124"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="102" t="s">
+      <c r="A26" s="101"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="100" t="s">
         <v>475</v>
       </c>
-      <c r="F26" s="113" t="s">
+      <c r="F26" s="103" t="s">
         <v>550</v>
       </c>
       <c r="G26" s="78"/>
-      <c r="H26" s="116" t="s">
+      <c r="H26" s="106" t="s">
         <v>551</v>
       </c>
       <c r="I26" s="44" t="s">
@@ -15574,21 +15571,21 @@
       <c r="K26" s="43" t="s">
         <v>553</v>
       </c>
-      <c r="L26" s="111"/>
-      <c r="M26" s="120"/>
+      <c r="L26" s="113"/>
+      <c r="M26" s="99"/>
       <c r="N26" s="47"/>
     </row>
     <row r="27" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A27" s="103"/>
-      <c r="B27" s="124"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="115"/>
+      <c r="A27" s="101"/>
+      <c r="B27" s="119"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="105"/>
       <c r="G27" s="58" t="s">
         <v>583</v>
       </c>
-      <c r="H27" s="118"/>
+      <c r="H27" s="108"/>
       <c r="I27" s="44" t="s">
         <v>483</v>
       </c>
@@ -15596,15 +15593,15 @@
         <v>479</v>
       </c>
       <c r="K27" s="43"/>
-      <c r="L27" s="111"/>
-      <c r="M27" s="120"/>
+      <c r="L27" s="113"/>
+      <c r="M27" s="99"/>
       <c r="N27" s="47"/>
     </row>
     <row r="28" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A28" s="103"/>
-      <c r="B28" s="124"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="107"/>
+      <c r="A28" s="101"/>
+      <c r="B28" s="119"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="116"/>
       <c r="E28" s="41" t="s">
         <v>477</v>
       </c>
@@ -15623,15 +15620,15 @@
       <c r="K28" s="43" t="s">
         <v>556</v>
       </c>
-      <c r="L28" s="111"/>
-      <c r="M28" s="120"/>
+      <c r="L28" s="113"/>
+      <c r="M28" s="99"/>
       <c r="N28" s="47"/>
     </row>
     <row r="29" spans="1:14" s="18" customFormat="1" ht="19" customHeight="1">
-      <c r="A29" s="104"/>
-      <c r="B29" s="125"/>
-      <c r="C29" s="104"/>
-      <c r="D29" s="109"/>
+      <c r="A29" s="102"/>
+      <c r="B29" s="120"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="117"/>
       <c r="E29" s="41" t="s">
         <v>480</v>
       </c>
@@ -15653,8 +15650,8 @@
       <c r="K29" s="43" t="s">
         <v>559</v>
       </c>
-      <c r="L29" s="112"/>
-      <c r="M29" s="120"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="99"/>
       <c r="N29" s="47"/>
     </row>
     <row r="30" spans="1:14" s="18" customFormat="1" ht="8" customHeight="1">
@@ -15673,26 +15670,26 @@
       <c r="M30" s="69"/>
     </row>
     <row r="31" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A31" s="102" t="s">
+      <c r="A31" s="100" t="s">
         <v>485</v>
       </c>
-      <c r="B31" s="102" t="s">
+      <c r="B31" s="100" t="s">
         <v>486</v>
       </c>
-      <c r="C31" s="102" t="s">
+      <c r="C31" s="100" t="s">
         <v>487</v>
       </c>
-      <c r="D31" s="106" t="s">
+      <c r="D31" s="115" t="s">
         <v>560</v>
       </c>
-      <c r="E31" s="102" t="s">
+      <c r="E31" s="100" t="s">
         <v>488</v>
       </c>
-      <c r="F31" s="113" t="s">
+      <c r="F31" s="103" t="s">
         <v>561</v>
       </c>
       <c r="G31" s="78"/>
-      <c r="H31" s="116" t="s">
+      <c r="H31" s="106" t="s">
         <v>562</v>
       </c>
       <c r="I31" s="76" t="s">
@@ -15704,22 +15701,22 @@
       <c r="K31" s="43" t="s">
         <v>564</v>
       </c>
-      <c r="L31" s="120" t="s">
+      <c r="L31" s="99" t="s">
         <v>490</v>
       </c>
-      <c r="M31" s="120" t="s">
+      <c r="M31" s="99" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="32" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A32" s="103"/>
-      <c r="B32" s="103"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="114"/>
+      <c r="A32" s="101"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="116"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="104"/>
       <c r="G32" s="79"/>
-      <c r="H32" s="117"/>
+      <c r="H32" s="107"/>
       <c r="I32" s="51" t="s">
         <v>565</v>
       </c>
@@ -15727,79 +15724,79 @@
       <c r="K32" s="43" t="s">
         <v>566</v>
       </c>
-      <c r="L32" s="120"/>
-      <c r="M32" s="120"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="99"/>
     </row>
     <row r="33" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A33" s="103"/>
-      <c r="B33" s="103"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="115"/>
+      <c r="A33" s="101"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="105"/>
       <c r="G33" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="H33" s="118"/>
+      <c r="H33" s="108"/>
       <c r="I33" s="51" t="s">
         <v>500</v>
       </c>
       <c r="J33" s="44"/>
       <c r="K33" s="43"/>
-      <c r="L33" s="120"/>
-      <c r="M33" s="120"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="99"/>
     </row>
     <row r="34" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A34" s="103"/>
-      <c r="B34" s="103"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="102" t="s">
+      <c r="A34" s="101"/>
+      <c r="B34" s="101"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="100" t="s">
         <v>492</v>
       </c>
-      <c r="F34" s="113" t="s">
+      <c r="F34" s="103" t="s">
         <v>567</v>
       </c>
       <c r="G34" s="78"/>
-      <c r="H34" s="116" t="s">
+      <c r="H34" s="106" t="s">
         <v>568</v>
       </c>
       <c r="I34" s="44" t="s">
         <v>569</v>
       </c>
       <c r="J34" s="44"/>
-      <c r="K34" s="126"/>
-      <c r="L34" s="120"/>
-      <c r="M34" s="120"/>
+      <c r="K34" s="109"/>
+      <c r="L34" s="99"/>
+      <c r="M34" s="99"/>
     </row>
     <row r="35" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A35" s="103"/>
-      <c r="B35" s="103"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="107"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="114"/>
+      <c r="A35" s="101"/>
+      <c r="B35" s="101"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="104"/>
       <c r="G35" s="79"/>
-      <c r="H35" s="117"/>
+      <c r="H35" s="107"/>
       <c r="I35" s="44" t="s">
         <v>496</v>
       </c>
       <c r="J35" s="44"/>
-      <c r="K35" s="126"/>
-      <c r="L35" s="120"/>
-      <c r="M35" s="120"/>
+      <c r="K35" s="109"/>
+      <c r="L35" s="99"/>
+      <c r="M35" s="99"/>
     </row>
     <row r="36" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A36" s="103"/>
-      <c r="B36" s="103"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="107"/>
-      <c r="E36" s="104"/>
-      <c r="F36" s="115"/>
+      <c r="A36" s="101"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="105"/>
       <c r="G36" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="H36" s="118"/>
+      <c r="H36" s="108"/>
       <c r="I36" s="44" t="s">
         <v>570</v>
       </c>
@@ -15809,68 +15806,68 @@
       <c r="K36" s="43" t="s">
         <v>494</v>
       </c>
-      <c r="L36" s="120"/>
-      <c r="M36" s="120"/>
+      <c r="L36" s="99"/>
+      <c r="M36" s="99"/>
     </row>
     <row r="37" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="A37" s="103"/>
-      <c r="B37" s="103"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="107"/>
-      <c r="E37" s="102" t="s">
+      <c r="A37" s="101"/>
+      <c r="B37" s="101"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="100" t="s">
         <v>495</v>
       </c>
-      <c r="F37" s="113" t="s">
+      <c r="F37" s="103" t="s">
         <v>571</v>
       </c>
       <c r="G37" s="78"/>
-      <c r="H37" s="127" t="s">
+      <c r="H37" s="110" t="s">
         <v>572</v>
       </c>
       <c r="I37" s="44" t="s">
         <v>573</v>
       </c>
-      <c r="J37" s="128" t="s">
+      <c r="J37" s="111" t="s">
         <v>497</v>
       </c>
-      <c r="K37" s="127" t="s">
+      <c r="K37" s="110" t="s">
         <v>499</v>
       </c>
-      <c r="L37" s="120"/>
-      <c r="M37" s="120"/>
+      <c r="L37" s="99"/>
+      <c r="M37" s="99"/>
     </row>
     <row r="38" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="A38" s="103"/>
-      <c r="B38" s="103"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="107"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="114"/>
+      <c r="A38" s="101"/>
+      <c r="B38" s="101"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="101"/>
+      <c r="F38" s="104"/>
       <c r="G38" s="79" t="s">
         <v>582</v>
       </c>
-      <c r="H38" s="127"/>
+      <c r="H38" s="110"/>
       <c r="I38" s="63" t="s">
         <v>574</v>
       </c>
-      <c r="J38" s="128"/>
-      <c r="K38" s="127"/>
-      <c r="L38" s="120"/>
-      <c r="M38" s="120"/>
+      <c r="J38" s="111"/>
+      <c r="K38" s="110"/>
+      <c r="L38" s="99"/>
+      <c r="M38" s="99"/>
     </row>
     <row r="39" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="A39" s="103"/>
-      <c r="B39" s="103"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="107"/>
-      <c r="E39" s="103" t="s">
+      <c r="A39" s="101"/>
+      <c r="B39" s="101"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="101" t="s">
         <v>498</v>
       </c>
-      <c r="F39" s="114" t="s">
+      <c r="F39" s="104" t="s">
         <v>575</v>
       </c>
       <c r="G39" s="79"/>
-      <c r="H39" s="127" t="s">
+      <c r="H39" s="110" t="s">
         <v>576</v>
       </c>
       <c r="I39" s="63" t="s">
@@ -15880,18 +15877,18 @@
       <c r="K39" s="51" t="s">
         <v>578</v>
       </c>
-      <c r="L39" s="120"/>
-      <c r="M39" s="120"/>
+      <c r="L39" s="99"/>
+      <c r="M39" s="99"/>
     </row>
     <row r="40" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="A40" s="103"/>
-      <c r="B40" s="103"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="107"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="114"/>
+      <c r="A40" s="101"/>
+      <c r="B40" s="101"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="104"/>
       <c r="G40" s="79"/>
-      <c r="H40" s="127"/>
+      <c r="H40" s="110"/>
       <c r="I40" s="63" t="s">
         <v>579</v>
       </c>
@@ -15899,27 +15896,27 @@
       <c r="K40" s="51" t="s">
         <v>580</v>
       </c>
-      <c r="L40" s="120"/>
-      <c r="M40" s="120"/>
+      <c r="L40" s="99"/>
+      <c r="M40" s="99"/>
     </row>
     <row r="41" spans="1:13" s="18" customFormat="1" ht="17" customHeight="1">
-      <c r="A41" s="104"/>
-      <c r="B41" s="104"/>
-      <c r="C41" s="104"/>
-      <c r="D41" s="109"/>
-      <c r="E41" s="104"/>
-      <c r="F41" s="115"/>
+      <c r="A41" s="102"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="117"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="105"/>
       <c r="G41" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="H41" s="127"/>
+      <c r="H41" s="110"/>
       <c r="I41" s="63" t="s">
         <v>581</v>
       </c>
       <c r="J41" s="46"/>
       <c r="K41" s="43"/>
-      <c r="L41" s="120"/>
-      <c r="M41" s="120"/>
+      <c r="L41" s="99"/>
+      <c r="M41" s="99"/>
     </row>
     <row r="42" spans="1:13">
       <c r="K42" s="77"/>
@@ -15927,6 +15924,42 @@
     <row r="43" spans="1:13" ht="23" customHeight="1"/>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="A6:A22"/>
+    <mergeCell ref="B6:B22"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="C13:C22"/>
+    <mergeCell ref="D13:D22"/>
+    <mergeCell ref="L6:L22"/>
+    <mergeCell ref="M6:M22"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E16:E22"/>
+    <mergeCell ref="F16:F22"/>
+    <mergeCell ref="H16:H22"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="D24:D29"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A31:A41"/>
+    <mergeCell ref="B31:B41"/>
+    <mergeCell ref="C31:C41"/>
+    <mergeCell ref="D31:D41"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="L24:L29"/>
+    <mergeCell ref="M24:M29"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="H24:H25"/>
     <mergeCell ref="L31:L41"/>
     <mergeCell ref="M31:M41"/>
     <mergeCell ref="E34:E36"/>
@@ -15943,42 +15976,6 @@
     <mergeCell ref="H39:H41"/>
     <mergeCell ref="F31:F33"/>
     <mergeCell ref="H31:H33"/>
-    <mergeCell ref="L24:L29"/>
-    <mergeCell ref="M24:M29"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="A31:A41"/>
-    <mergeCell ref="B31:B41"/>
-    <mergeCell ref="C31:C41"/>
-    <mergeCell ref="D31:D41"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="D24:D29"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="L6:L22"/>
-    <mergeCell ref="M6:M22"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E16:E22"/>
-    <mergeCell ref="F16:F22"/>
-    <mergeCell ref="H16:H22"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="A6:A22"/>
-    <mergeCell ref="B6:B22"/>
-    <mergeCell ref="C6:C12"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="C13:C22"/>
-    <mergeCell ref="D13:D22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>

--- a/blueprints-combined.xlsx
+++ b/blueprints-combined.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qdd/Sync/git/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF91E2CC-076F-D149-AC15-5C6CB4DB8A9C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD25DCB3-3639-A444-9830-F4C5190415B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39820" yWindow="1040" windowWidth="32840" windowHeight="20520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3760" yWindow="660" windowWidth="30400" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lab-topics" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1927" uniqueCount="973">
   <si>
     <t>date</t>
   </si>
@@ -2979,9 +2979,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>LAB</t>
-  </si>
-  <si>
     <t>target</t>
   </si>
   <si>
@@ -2997,9 +2994,6 @@
     <t>foundation lab 2</t>
   </si>
   <si>
-    <t>suppress, unsuppress maps</t>
-  </si>
-  <si>
     <t>vrfs not assoc with physical int</t>
   </si>
   <si>
@@ -3010,6 +3004,42 @@
   </si>
   <si>
     <t>ospf domain-id, down bit</t>
+  </si>
+  <si>
+    <t>configure, flash card</t>
+  </si>
+  <si>
+    <t>why disable?</t>
+  </si>
+  <si>
+    <t>conditional debug</t>
+  </si>
+  <si>
+    <t>what are additional extended options</t>
+  </si>
+  <si>
+    <t>practice on ios and iosvl2</t>
+  </si>
+  <si>
+    <t>practice setup, problems</t>
+  </si>
+  <si>
+    <t>more practice</t>
+  </si>
+  <si>
+    <t>internal router</t>
+  </si>
+  <si>
+    <t>suppress, unsuppress maps, as-set</t>
+  </si>
+  <si>
+    <t>glbp</t>
+  </si>
+  <si>
+    <t>udp jitter lab</t>
+  </si>
+  <si>
+    <t>LLDP</t>
   </si>
 </sst>
 </file>
@@ -3182,7 +3212,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3222,12 +3252,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3382,7 +3406,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -3611,8 +3635,13 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3622,6 +3651,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3642,32 +3695,17 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3678,29 +3716,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4184,10 +4207,10 @@
   <dimension ref="A1:Q349"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C157" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A189" sqref="A189"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -4212,7 +4235,7 @@
       </c>
       <c r="G1" s="90">
         <f ca="1">(TODAY()-I1)*-1</f>
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H1" s="91" t="s">
         <v>10</v>
@@ -4232,10 +4255,10 @@
         <v>585</v>
       </c>
       <c r="D2" s="95" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E2" s="95" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F2" s="95"/>
       <c r="G2" s="95"/>
@@ -4316,6 +4339,15 @@
       <c r="B10" s="7" t="s">
         <v>606</v>
       </c>
+      <c r="C10" t="s">
+        <v>951</v>
+      </c>
+      <c r="D10" t="s">
+        <v>961</v>
+      </c>
+      <c r="E10" t="s">
+        <v>972</v>
+      </c>
     </row>
     <row r="11" spans="1:17" ht="16">
       <c r="A11" s="83" t="s">
@@ -4324,6 +4356,12 @@
       <c r="B11" s="7" t="s">
         <v>607</v>
       </c>
+      <c r="C11" t="s">
+        <v>951</v>
+      </c>
+      <c r="D11" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="12" spans="1:17" ht="16">
       <c r="A12" s="83" t="s">
@@ -4365,7 +4403,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16">
+    <row r="17" spans="1:4" ht="16">
       <c r="A17" s="83" t="s">
         <v>928</v>
       </c>
@@ -4373,7 +4411,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16">
+    <row r="18" spans="1:4" ht="16">
       <c r="A18" s="83" t="s">
         <v>928</v>
       </c>
@@ -4381,7 +4419,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16">
+    <row r="19" spans="1:4" ht="16">
       <c r="A19" s="83" t="s">
         <v>928</v>
       </c>
@@ -4389,7 +4427,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16">
+    <row r="20" spans="1:4" ht="16">
       <c r="A20" s="83" t="s">
         <v>928</v>
       </c>
@@ -4397,7 +4435,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16">
+    <row r="21" spans="1:4" ht="16">
       <c r="A21" s="83" t="s">
         <v>928</v>
       </c>
@@ -4405,7 +4443,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16">
+    <row r="22" spans="1:4" ht="16">
       <c r="A22" s="83" t="s">
         <v>928</v>
       </c>
@@ -4413,7 +4451,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16">
+    <row r="23" spans="1:4" ht="16">
       <c r="A23" s="83" t="s">
         <v>928</v>
       </c>
@@ -4421,7 +4459,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16">
+    <row r="24" spans="1:4" ht="16">
       <c r="A24" s="83" t="s">
         <v>928</v>
       </c>
@@ -4429,15 +4467,21 @@
         <v>945</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16">
+    <row r="25" spans="1:4" ht="16">
       <c r="A25" s="83" t="s">
         <v>928</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="16">
+      <c r="C25" t="s">
+        <v>951</v>
+      </c>
+      <c r="D25" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16">
       <c r="A26" s="83" t="s">
         <v>928</v>
       </c>
@@ -4445,7 +4489,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="16">
+    <row r="27" spans="1:4" ht="16">
       <c r="A27" s="83" t="s">
         <v>928</v>
       </c>
@@ -4453,7 +4497,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16">
+    <row r="28" spans="1:4" ht="16">
       <c r="A28" s="83" t="s">
         <v>928</v>
       </c>
@@ -4461,7 +4505,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16">
+    <row r="29" spans="1:4" ht="16">
       <c r="A29" s="83" t="s">
         <v>928</v>
       </c>
@@ -4469,7 +4513,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="16">
+    <row r="30" spans="1:4" ht="16">
       <c r="A30" s="83" t="s">
         <v>928</v>
       </c>
@@ -4477,7 +4521,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="16">
+    <row r="31" spans="1:4" ht="16">
       <c r="A31" s="83" t="s">
         <v>928</v>
       </c>
@@ -4485,12 +4529,18 @@
         <v>620</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="16">
+    <row r="32" spans="1:4" ht="16">
       <c r="A32" s="83" t="s">
         <v>928</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>621</v>
+      </c>
+      <c r="C32" t="s">
+        <v>951</v>
+      </c>
+      <c r="D32" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="19">
@@ -4541,8 +4591,9 @@
       <c r="B37" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="C37" s="98"/>
-      <c r="D37" s="98"/>
+      <c r="C37" t="s">
+        <v>951</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="16">
       <c r="A38" s="83" t="s">
@@ -4551,8 +4602,9 @@
       <c r="B38" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="C38" s="98"/>
-      <c r="D38" s="98"/>
+      <c r="C38" t="s">
+        <v>951</v>
+      </c>
     </row>
     <row r="39" spans="1:4" ht="16">
       <c r="A39" s="83" t="s">
@@ -4561,8 +4613,9 @@
       <c r="B39" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="C39" s="98"/>
-      <c r="D39" s="98"/>
+      <c r="C39" t="s">
+        <v>951</v>
+      </c>
     </row>
     <row r="40" spans="1:4" ht="19">
       <c r="A40" s="83" t="s">
@@ -4603,9 +4656,6 @@
       <c r="B44" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="C44" t="s">
-        <v>952</v>
-      </c>
     </row>
     <row r="45" spans="1:4" ht="16">
       <c r="A45" s="83" t="s">
@@ -4615,7 +4665,10 @@
         <v>634</v>
       </c>
       <c r="C45" t="s">
-        <v>952</v>
+        <v>951</v>
+      </c>
+      <c r="D45" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="19">
@@ -4641,6 +4694,12 @@
       <c r="B48" s="88" t="s">
         <v>637</v>
       </c>
+      <c r="C48" t="s">
+        <v>951</v>
+      </c>
+      <c r="D48" t="s">
+        <v>963</v>
+      </c>
     </row>
     <row r="49" spans="1:5" ht="16">
       <c r="A49" s="83" t="s">
@@ -4649,6 +4708,12 @@
       <c r="B49" s="88" t="s">
         <v>638</v>
       </c>
+      <c r="C49" t="s">
+        <v>951</v>
+      </c>
+      <c r="D49" t="s">
+        <v>964</v>
+      </c>
     </row>
     <row r="50" spans="1:5" ht="16">
       <c r="A50" s="83" t="s">
@@ -4656,6 +4721,12 @@
       </c>
       <c r="B50" s="88" t="s">
         <v>639</v>
+      </c>
+      <c r="C50" t="s">
+        <v>951</v>
+      </c>
+      <c r="D50" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="16">
@@ -4740,9 +4811,6 @@
       <c r="B60" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="C60" t="s">
-        <v>951</v>
-      </c>
     </row>
     <row r="61" spans="1:5" ht="16">
       <c r="A61" s="83" t="s">
@@ -4751,9 +4819,6 @@
       <c r="B61" s="7" t="s">
         <v>651</v>
       </c>
-      <c r="C61" t="s">
-        <v>951</v>
-      </c>
     </row>
     <row r="62" spans="1:5" ht="16">
       <c r="A62" s="83" t="s">
@@ -4762,9 +4827,6 @@
       <c r="B62" s="7" t="s">
         <v>652</v>
       </c>
-      <c r="C62" t="s">
-        <v>951</v>
-      </c>
     </row>
     <row r="63" spans="1:5" ht="16">
       <c r="A63" s="83" t="s">
@@ -4776,6 +4838,9 @@
       <c r="C63" t="s">
         <v>951</v>
       </c>
+      <c r="D63" t="s">
+        <v>966</v>
+      </c>
     </row>
     <row r="64" spans="1:5" ht="16">
       <c r="A64" s="83" t="s">
@@ -4784,9 +4849,6 @@
       <c r="B64" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="C64" t="s">
-        <v>951</v>
-      </c>
     </row>
     <row r="65" spans="1:5" ht="16">
       <c r="A65" s="83" t="s">
@@ -4798,6 +4860,9 @@
       <c r="C65" t="s">
         <v>951</v>
       </c>
+      <c r="D65" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="66" spans="1:5" ht="16">
       <c r="A66" s="83" t="s">
@@ -4809,6 +4874,9 @@
       <c r="C66" t="s">
         <v>951</v>
       </c>
+      <c r="D66" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="67" spans="1:5" ht="16">
       <c r="A67" s="83" t="s">
@@ -4820,6 +4888,9 @@
       <c r="C67" t="s">
         <v>951</v>
       </c>
+      <c r="D67" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="68" spans="1:5" ht="16">
       <c r="A68" s="83" t="s">
@@ -4831,6 +4902,9 @@
       <c r="C68" t="s">
         <v>951</v>
       </c>
+      <c r="D68" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="69" spans="1:5" ht="19">
       <c r="A69" s="83" t="s">
@@ -4847,9 +4921,6 @@
       <c r="B70" s="7" t="s">
         <v>659</v>
       </c>
-      <c r="C70" t="s">
-        <v>951</v>
-      </c>
     </row>
     <row r="71" spans="1:5" ht="16">
       <c r="A71" s="83" t="s">
@@ -4858,9 +4929,6 @@
       <c r="B71" s="7" t="s">
         <v>660</v>
       </c>
-      <c r="C71" t="s">
-        <v>951</v>
-      </c>
     </row>
     <row r="72" spans="1:5" ht="16">
       <c r="A72" s="83" t="s">
@@ -4869,9 +4937,6 @@
       <c r="B72" s="7" t="s">
         <v>661</v>
       </c>
-      <c r="C72" t="s">
-        <v>951</v>
-      </c>
     </row>
     <row r="73" spans="1:5" ht="16">
       <c r="A73" s="83" t="s">
@@ -4880,9 +4945,6 @@
       <c r="B73" s="7" t="s">
         <v>662</v>
       </c>
-      <c r="C73" t="s">
-        <v>951</v>
-      </c>
       <c r="E73" s="89" t="s">
         <v>950</v>
       </c>
@@ -4894,9 +4956,6 @@
       <c r="B74" s="7" t="s">
         <v>663</v>
       </c>
-      <c r="C74" t="s">
-        <v>951</v>
-      </c>
     </row>
     <row r="75" spans="1:5" ht="16">
       <c r="A75" s="83" t="s">
@@ -4908,6 +4967,9 @@
       <c r="C75" t="s">
         <v>951</v>
       </c>
+      <c r="D75" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="76" spans="1:5" ht="16">
       <c r="A76" s="83" t="s">
@@ -4919,6 +4981,9 @@
       <c r="C76" t="s">
         <v>951</v>
       </c>
+      <c r="D76" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="77" spans="1:5" ht="16">
       <c r="A77" s="83" t="s">
@@ -4930,6 +4995,9 @@
       <c r="C77" t="s">
         <v>951</v>
       </c>
+      <c r="D77" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="78" spans="1:5" ht="16">
       <c r="A78" s="83" t="s">
@@ -4941,6 +5009,9 @@
       <c r="C78" t="s">
         <v>951</v>
       </c>
+      <c r="D78" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="79" spans="1:5" ht="16">
       <c r="A79" s="83" t="s">
@@ -4952,6 +5023,9 @@
       <c r="C79" t="s">
         <v>951</v>
       </c>
+      <c r="D79" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="80" spans="1:5" ht="16">
       <c r="A80" s="83" t="s">
@@ -4963,6 +5037,9 @@
       <c r="C80" t="s">
         <v>951</v>
       </c>
+      <c r="D80" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="81" spans="1:4" ht="16">
       <c r="A81" s="83" t="s">
@@ -4974,6 +5051,9 @@
       <c r="C81" t="s">
         <v>951</v>
       </c>
+      <c r="D81" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="82" spans="1:4" ht="16">
       <c r="A82" s="83" t="s">
@@ -4982,8 +5062,12 @@
       <c r="B82" s="7" t="s">
         <v>671</v>
       </c>
-      <c r="C82" s="98"/>
-      <c r="D82" s="98"/>
+      <c r="C82" t="s">
+        <v>951</v>
+      </c>
+      <c r="D82" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="83" spans="1:4" ht="19">
       <c r="A83" s="83" t="s">
@@ -5080,6 +5164,12 @@
       <c r="B94" s="7" t="s">
         <v>679</v>
       </c>
+      <c r="C94" t="s">
+        <v>951</v>
+      </c>
+      <c r="D94" t="s">
+        <v>967</v>
+      </c>
     </row>
     <row r="95" spans="1:4" ht="16">
       <c r="A95" s="83" t="s">
@@ -5097,7 +5187,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="16">
+    <row r="97" spans="1:4" ht="16">
       <c r="A97" s="83" t="s">
         <v>929</v>
       </c>
@@ -5105,7 +5195,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="16">
+    <row r="98" spans="1:4" ht="16">
       <c r="A98" s="83" t="s">
         <v>929</v>
       </c>
@@ -5113,7 +5203,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="16">
+    <row r="99" spans="1:4" ht="16">
       <c r="A99" s="83" t="s">
         <v>929</v>
       </c>
@@ -5121,7 +5211,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="16">
+    <row r="100" spans="1:4" ht="16">
       <c r="A100" s="83" t="s">
         <v>929</v>
       </c>
@@ -5129,7 +5219,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="16">
+    <row r="101" spans="1:4" ht="16">
       <c r="A101" s="83" t="s">
         <v>929</v>
       </c>
@@ -5137,7 +5227,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="16">
+    <row r="102" spans="1:4" ht="16">
       <c r="A102" s="83" t="s">
         <v>929</v>
       </c>
@@ -5145,7 +5235,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="16">
+    <row r="103" spans="1:4" ht="16">
       <c r="A103" s="83" t="s">
         <v>929</v>
       </c>
@@ -5153,7 +5243,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="16">
+    <row r="104" spans="1:4" ht="16">
       <c r="A104" s="83" t="s">
         <v>929</v>
       </c>
@@ -5161,7 +5251,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="16">
+    <row r="105" spans="1:4" ht="16">
       <c r="A105" s="83" t="s">
         <v>929</v>
       </c>
@@ -5169,7 +5259,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="16">
+    <row r="106" spans="1:4" ht="16">
       <c r="A106" s="83" t="s">
         <v>929</v>
       </c>
@@ -5177,7 +5267,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="16">
+    <row r="107" spans="1:4" ht="16">
       <c r="A107" s="83" t="s">
         <v>929</v>
       </c>
@@ -5185,15 +5275,21 @@
         <v>692</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="16">
+    <row r="108" spans="1:4" ht="16">
       <c r="A108" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" ht="19">
+      <c r="C108" t="s">
+        <v>951</v>
+      </c>
+      <c r="D108" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="19">
       <c r="A109" s="83" t="s">
         <v>929</v>
       </c>
@@ -5201,7 +5297,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="16">
+    <row r="110" spans="1:4" ht="16">
       <c r="A110" s="83" t="s">
         <v>929</v>
       </c>
@@ -5209,7 +5305,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="19">
+    <row r="111" spans="1:4" ht="19">
       <c r="A111" s="83" t="s">
         <v>929</v>
       </c>
@@ -5217,7 +5313,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="16">
+    <row r="112" spans="1:4" ht="16">
       <c r="A112" s="83" t="s">
         <v>929</v>
       </c>
@@ -5225,7 +5321,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="16">
+    <row r="113" spans="1:4" ht="16">
       <c r="A113" s="83" t="s">
         <v>929</v>
       </c>
@@ -5233,7 +5329,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="16">
+    <row r="114" spans="1:4" ht="16">
       <c r="A114" s="83" t="s">
         <v>929</v>
       </c>
@@ -5241,15 +5337,21 @@
         <v>699</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="16">
+    <row r="115" spans="1:4" ht="16">
       <c r="A115" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" ht="16">
+      <c r="C115" t="s">
+        <v>951</v>
+      </c>
+      <c r="D115" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="16">
       <c r="A116" s="83" t="s">
         <v>929</v>
       </c>
@@ -5257,7 +5359,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="16">
+    <row r="117" spans="1:4" ht="16">
       <c r="A117" s="83" t="s">
         <v>929</v>
       </c>
@@ -5265,7 +5367,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="16">
+    <row r="118" spans="1:4" ht="16">
       <c r="A118" s="83" t="s">
         <v>929</v>
       </c>
@@ -5273,7 +5375,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="16">
+    <row r="119" spans="1:4" ht="16">
       <c r="A119" s="83" t="s">
         <v>929</v>
       </c>
@@ -5281,7 +5383,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="16">
+    <row r="120" spans="1:4" ht="16">
       <c r="A120" s="83" t="s">
         <v>929</v>
       </c>
@@ -5289,7 +5391,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="16">
+    <row r="121" spans="1:4" ht="16">
       <c r="A121" s="83" t="s">
         <v>929</v>
       </c>
@@ -5297,7 +5399,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="16">
+    <row r="122" spans="1:4" ht="16">
       <c r="A122" s="83" t="s">
         <v>929</v>
       </c>
@@ -5305,7 +5407,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="16">
+    <row r="123" spans="1:4" ht="16">
       <c r="A123" s="83" t="s">
         <v>929</v>
       </c>
@@ -5313,7 +5415,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="16">
+    <row r="124" spans="1:4" ht="16">
       <c r="A124" s="83" t="s">
         <v>929</v>
       </c>
@@ -5321,15 +5423,21 @@
         <v>709</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="16">
+    <row r="125" spans="1:4" ht="16">
       <c r="A125" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" ht="16">
+      <c r="C125" t="s">
+        <v>951</v>
+      </c>
+      <c r="D125" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="16">
       <c r="A126" s="83" t="s">
         <v>929</v>
       </c>
@@ -5337,7 +5445,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="16">
+    <row r="127" spans="1:4" ht="16">
       <c r="A127" s="83" t="s">
         <v>929</v>
       </c>
@@ -5345,7 +5453,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="16">
+    <row r="128" spans="1:4" ht="16">
       <c r="A128" s="83" t="s">
         <v>929</v>
       </c>
@@ -5353,7 +5461,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="16">
+    <row r="129" spans="1:4" ht="16">
       <c r="A129" s="83" t="s">
         <v>929</v>
       </c>
@@ -5361,7 +5469,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="16">
+    <row r="130" spans="1:4" ht="16">
       <c r="A130" s="83" t="s">
         <v>929</v>
       </c>
@@ -5369,7 +5477,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="16">
+    <row r="131" spans="1:4" ht="16">
       <c r="A131" s="83" t="s">
         <v>929</v>
       </c>
@@ -5377,15 +5485,21 @@
         <v>716</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="16">
+    <row r="132" spans="1:4" ht="16">
       <c r="A132" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" ht="16">
+      <c r="C132" t="s">
+        <v>951</v>
+      </c>
+      <c r="D132" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="16">
       <c r="A133" s="83" t="s">
         <v>929</v>
       </c>
@@ -5393,7 +5507,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="16">
+    <row r="134" spans="1:4" ht="16">
       <c r="A134" s="83" t="s">
         <v>929</v>
       </c>
@@ -5401,7 +5515,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="16">
+    <row r="135" spans="1:4" ht="16">
       <c r="A135" s="83" t="s">
         <v>929</v>
       </c>
@@ -5409,7 +5523,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="16">
+    <row r="136" spans="1:4" ht="16">
       <c r="A136" s="83" t="s">
         <v>929</v>
       </c>
@@ -5420,7 +5534,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="16">
+    <row r="137" spans="1:4" ht="16">
       <c r="A137" s="83" t="s">
         <v>929</v>
       </c>
@@ -5428,7 +5542,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="16">
+    <row r="138" spans="1:4" ht="16">
       <c r="A138" s="83" t="s">
         <v>929</v>
       </c>
@@ -5436,10 +5550,13 @@
         <v>723</v>
       </c>
       <c r="C138" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="16">
+        <v>951</v>
+      </c>
+      <c r="D138" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="16">
       <c r="A139" s="83" t="s">
         <v>929</v>
       </c>
@@ -5447,15 +5564,21 @@
         <v>724</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="16">
+    <row r="140" spans="1:4" ht="16">
       <c r="A140" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B140" s="7" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" ht="16">
+      <c r="C140" t="s">
+        <v>951</v>
+      </c>
+      <c r="D140" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="16">
       <c r="A141" s="83" t="s">
         <v>929</v>
       </c>
@@ -5463,7 +5586,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="16">
+    <row r="142" spans="1:4" ht="16">
       <c r="A142" s="83" t="s">
         <v>929</v>
       </c>
@@ -5471,7 +5594,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="19">
+    <row r="143" spans="1:4" ht="19">
       <c r="A143" s="83" t="s">
         <v>929</v>
       </c>
@@ -5479,7 +5602,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="16">
+    <row r="144" spans="1:4" ht="16">
       <c r="A144" s="83" t="s">
         <v>929</v>
       </c>
@@ -5497,6 +5620,9 @@
       <c r="C145" t="s">
         <v>951</v>
       </c>
+      <c r="D145" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="146" spans="1:5" ht="16">
       <c r="A146" s="83" t="s">
@@ -5505,6 +5631,12 @@
       <c r="B146" s="7" t="s">
         <v>731</v>
       </c>
+      <c r="C146" t="s">
+        <v>951</v>
+      </c>
+      <c r="D146" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="147" spans="1:5" ht="16">
       <c r="A147" s="83" t="s">
@@ -5532,6 +5664,12 @@
       <c r="B149" s="7" t="s">
         <v>734</v>
       </c>
+      <c r="C149" t="s">
+        <v>951</v>
+      </c>
+      <c r="D149" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="150" spans="1:5" ht="16">
       <c r="A150" s="83" t="s">
@@ -5548,11 +5686,14 @@
       <c r="B151" s="7" t="s">
         <v>736</v>
       </c>
+      <c r="C151" t="s">
+        <v>951</v>
+      </c>
       <c r="D151" t="s">
+        <v>953</v>
+      </c>
+      <c r="E151" t="s">
         <v>954</v>
-      </c>
-      <c r="E151" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="16">
@@ -5562,6 +5703,12 @@
       <c r="B152" s="7" t="s">
         <v>737</v>
       </c>
+      <c r="C152" t="s">
+        <v>951</v>
+      </c>
+      <c r="D152" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="153" spans="1:5" ht="16">
       <c r="A153" s="83" t="s">
@@ -5578,6 +5725,15 @@
       <c r="B154" s="7" t="s">
         <v>739</v>
       </c>
+      <c r="C154" t="s">
+        <v>951</v>
+      </c>
+      <c r="D154" t="s">
+        <v>961</v>
+      </c>
+      <c r="E154" t="s">
+        <v>968</v>
+      </c>
     </row>
     <row r="155" spans="1:5" ht="16">
       <c r="A155" s="83" t="s">
@@ -5586,6 +5742,12 @@
       <c r="B155" s="7" t="s">
         <v>740</v>
       </c>
+      <c r="C155" t="s">
+        <v>951</v>
+      </c>
+      <c r="D155" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="156" spans="1:5" ht="16">
       <c r="A156" s="83" t="s">
@@ -5626,6 +5788,12 @@
       <c r="B160" s="7" t="s">
         <v>745</v>
       </c>
+      <c r="C160" t="s">
+        <v>951</v>
+      </c>
+      <c r="D160" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="161" spans="1:4" ht="16">
       <c r="A161" s="83" t="s">
@@ -5650,6 +5818,12 @@
       <c r="B163" s="7" t="s">
         <v>748</v>
       </c>
+      <c r="C163" t="s">
+        <v>951</v>
+      </c>
+      <c r="D163" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="164" spans="1:4" ht="16">
       <c r="A164" s="83" t="s">
@@ -5658,6 +5832,12 @@
       <c r="B164" s="7" t="s">
         <v>749</v>
       </c>
+      <c r="C164" t="s">
+        <v>951</v>
+      </c>
+      <c r="D164" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="165" spans="1:4" ht="16">
       <c r="A165" s="83" t="s">
@@ -5666,6 +5846,12 @@
       <c r="B165" s="7" t="s">
         <v>932</v>
       </c>
+      <c r="C165" t="s">
+        <v>951</v>
+      </c>
+      <c r="D165" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="166" spans="1:4" ht="16">
       <c r="A166" s="83" t="s">
@@ -5674,6 +5860,12 @@
       <c r="B166" s="7" t="s">
         <v>750</v>
       </c>
+      <c r="C166" t="s">
+        <v>951</v>
+      </c>
+      <c r="D166" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="167" spans="1:4" ht="16">
       <c r="A167" s="83" t="s">
@@ -5682,6 +5874,12 @@
       <c r="B167" s="7" t="s">
         <v>751</v>
       </c>
+      <c r="C167" t="s">
+        <v>951</v>
+      </c>
+      <c r="D167" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="168" spans="1:4" ht="19">
       <c r="A168" s="83" t="s">
@@ -5706,8 +5904,11 @@
       <c r="B170" s="7" t="s">
         <v>753</v>
       </c>
+      <c r="C170" t="s">
+        <v>951</v>
+      </c>
       <c r="D170" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="16">
@@ -5733,6 +5934,12 @@
       <c r="B173" s="7" t="s">
         <v>756</v>
       </c>
+      <c r="C173" t="s">
+        <v>951</v>
+      </c>
+      <c r="D173" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="174" spans="1:4" ht="16">
       <c r="A174" s="83" t="s">
@@ -5757,6 +5964,12 @@
       <c r="B176" s="7" t="s">
         <v>759</v>
       </c>
+      <c r="C176" t="s">
+        <v>951</v>
+      </c>
+      <c r="D176" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="177" spans="1:5" ht="16">
       <c r="A177" s="83" t="s">
@@ -5797,6 +6010,12 @@
       <c r="B181" s="7" t="s">
         <v>764</v>
       </c>
+      <c r="C181" t="s">
+        <v>951</v>
+      </c>
+      <c r="D181" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="182" spans="1:5" ht="16">
       <c r="A182" s="83" t="s">
@@ -5813,6 +6032,12 @@
       <c r="B183" s="7" t="s">
         <v>766</v>
       </c>
+      <c r="C183" t="s">
+        <v>951</v>
+      </c>
+      <c r="D183" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="184" spans="1:5" ht="16">
       <c r="A184" s="83" t="s">
@@ -5821,6 +6046,12 @@
       <c r="B184" s="7" t="s">
         <v>767</v>
       </c>
+      <c r="C184" t="s">
+        <v>951</v>
+      </c>
+      <c r="D184" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="185" spans="1:5" ht="16">
       <c r="A185" s="83" t="s">
@@ -5853,11 +6084,14 @@
       <c r="B188" s="7" t="s">
         <v>771</v>
       </c>
+      <c r="C188" t="s">
+        <v>951</v>
+      </c>
       <c r="D188" t="s">
-        <v>958</v>
+        <v>969</v>
       </c>
       <c r="E188" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="16">
@@ -5867,11 +6101,14 @@
       <c r="B189" s="7" t="s">
         <v>772</v>
       </c>
+      <c r="C189" t="s">
+        <v>951</v>
+      </c>
       <c r="D189" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E189" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="16">
@@ -5897,8 +6134,14 @@
       <c r="B192" s="7" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" ht="16">
+      <c r="C192" t="s">
+        <v>951</v>
+      </c>
+      <c r="D192" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="16">
       <c r="A193" s="83" t="s">
         <v>929</v>
       </c>
@@ -5906,15 +6149,21 @@
         <v>776</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="16">
+    <row r="194" spans="1:4" ht="16">
       <c r="A194" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B194" s="7" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" ht="16">
+      <c r="C194" t="s">
+        <v>951</v>
+      </c>
+      <c r="D194" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="16">
       <c r="A195" s="83" t="s">
         <v>929</v>
       </c>
@@ -5922,7 +6171,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="16">
+    <row r="196" spans="1:4" ht="16">
       <c r="A196" s="83" t="s">
         <v>929</v>
       </c>
@@ -5930,15 +6179,21 @@
         <v>778</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="16">
+    <row r="197" spans="1:4" ht="16">
       <c r="A197" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B197" s="7" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" ht="16">
+      <c r="C197" t="s">
+        <v>951</v>
+      </c>
+      <c r="D197" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="16">
       <c r="A198" s="83" t="s">
         <v>929</v>
       </c>
@@ -5946,7 +6201,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="19">
+    <row r="199" spans="1:4" ht="19">
       <c r="A199" s="83" t="s">
         <v>929</v>
       </c>
@@ -5954,7 +6209,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="16">
+    <row r="200" spans="1:4" ht="16">
       <c r="A200" s="83" t="s">
         <v>929</v>
       </c>
@@ -5962,15 +6217,21 @@
         <v>782</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="16">
+    <row r="201" spans="1:4" ht="16">
       <c r="A201" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B201" s="88" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" ht="16">
+      <c r="C201" t="s">
+        <v>951</v>
+      </c>
+      <c r="D201" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="16">
       <c r="A202" s="83" t="s">
         <v>929</v>
       </c>
@@ -5978,7 +6239,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="16">
+    <row r="203" spans="1:4" ht="16">
       <c r="A203" s="83" t="s">
         <v>929</v>
       </c>
@@ -5986,7 +6247,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="16">
+    <row r="204" spans="1:4" ht="16">
       <c r="A204" s="83" t="s">
         <v>929</v>
       </c>
@@ -5994,7 +6255,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="16">
+    <row r="205" spans="1:4" ht="16">
       <c r="A205" s="83" t="s">
         <v>929</v>
       </c>
@@ -6002,7 +6263,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="16">
+    <row r="206" spans="1:4" ht="16">
       <c r="A206" s="83" t="s">
         <v>929</v>
       </c>
@@ -6010,7 +6271,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="16">
+    <row r="207" spans="1:4" ht="16">
       <c r="A207" s="83" t="s">
         <v>929</v>
       </c>
@@ -6018,7 +6279,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="16">
+    <row r="208" spans="1:4" ht="16">
       <c r="A208" s="83" t="s">
         <v>929</v>
       </c>
@@ -6076,6 +6337,12 @@
       <c r="B214" s="7" t="s">
         <v>796</v>
       </c>
+      <c r="C214" t="s">
+        <v>951</v>
+      </c>
+      <c r="D214" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="215" spans="1:5" ht="16">
       <c r="A215" s="83" t="s">
@@ -6084,11 +6351,14 @@
       <c r="B215" s="7" t="s">
         <v>797</v>
       </c>
+      <c r="C215" t="s">
+        <v>951</v>
+      </c>
       <c r="D215" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E215" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="16">
@@ -6098,6 +6368,12 @@
       <c r="B216" s="7" t="s">
         <v>798</v>
       </c>
+      <c r="C216" t="s">
+        <v>951</v>
+      </c>
+      <c r="D216" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="217" spans="1:5" ht="16">
       <c r="A217" s="83" t="s">
@@ -6122,11 +6398,14 @@
       <c r="B219" s="7" t="s">
         <v>801</v>
       </c>
+      <c r="C219" t="s">
+        <v>951</v>
+      </c>
       <c r="D219" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="E219" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="16">
@@ -6169,7 +6448,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="16">
+    <row r="225" spans="1:4" ht="16">
       <c r="A225" s="83" t="s">
         <v>589</v>
       </c>
@@ -6177,23 +6456,35 @@
         <v>807</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="16">
+    <row r="226" spans="1:4" ht="16">
       <c r="A226" s="83" t="s">
         <v>589</v>
       </c>
       <c r="B226" s="7" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" ht="16">
+      <c r="C226" t="s">
+        <v>951</v>
+      </c>
+      <c r="D226" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="16">
       <c r="A227" s="83" t="s">
         <v>589</v>
       </c>
       <c r="B227" s="7" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" ht="19">
+      <c r="C227" t="s">
+        <v>951</v>
+      </c>
+      <c r="D227" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="19">
       <c r="A228" s="83" t="s">
         <v>589</v>
       </c>
@@ -6201,7 +6492,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="16">
+    <row r="229" spans="1:4" ht="16">
       <c r="A229" s="83" t="s">
         <v>589</v>
       </c>
@@ -6209,7 +6500,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="16">
+    <row r="230" spans="1:4" ht="16">
       <c r="A230" s="83" t="s">
         <v>589</v>
       </c>
@@ -6217,23 +6508,35 @@
         <v>811</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="16">
+    <row r="231" spans="1:4" ht="16">
       <c r="A231" s="83" t="s">
         <v>589</v>
       </c>
       <c r="B231" s="7" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" ht="16">
+      <c r="C231" t="s">
+        <v>951</v>
+      </c>
+      <c r="D231" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="16">
       <c r="A232" s="83" t="s">
         <v>589</v>
       </c>
       <c r="B232" s="7" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" ht="19">
+      <c r="C232" t="s">
+        <v>951</v>
+      </c>
+      <c r="D232" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="19">
       <c r="A233" s="83" t="s">
         <v>589</v>
       </c>
@@ -6241,7 +6544,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="16">
+    <row r="234" spans="1:4" ht="16">
       <c r="A234" s="83" t="s">
         <v>589</v>
       </c>
@@ -6249,7 +6552,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="16">
+    <row r="235" spans="1:4" ht="16">
       <c r="A235" s="83" t="s">
         <v>589</v>
       </c>
@@ -6257,7 +6560,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="16">
+    <row r="236" spans="1:4" ht="16">
       <c r="A236" s="83" t="s">
         <v>589</v>
       </c>
@@ -6265,7 +6568,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="16">
+    <row r="237" spans="1:4" ht="16">
       <c r="A237" s="83" t="s">
         <v>589</v>
       </c>
@@ -6273,7 +6576,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="16">
+    <row r="238" spans="1:4" ht="16">
       <c r="A238" s="83" t="s">
         <v>589</v>
       </c>
@@ -6281,7 +6584,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="16">
+    <row r="239" spans="1:4" ht="16">
       <c r="A239" s="83" t="s">
         <v>589</v>
       </c>
@@ -6289,7 +6592,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="16">
+    <row r="240" spans="1:4" ht="16">
       <c r="A240" s="83" t="s">
         <v>589</v>
       </c>
@@ -6387,6 +6690,12 @@
       <c r="B251" s="7" t="s">
         <v>831</v>
       </c>
+      <c r="C251" t="s">
+        <v>951</v>
+      </c>
+      <c r="D251" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="252" spans="1:5" ht="16">
       <c r="A252" s="83" t="s">
@@ -6428,15 +6737,21 @@
         <v>835</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="16">
+    <row r="257" spans="1:4" ht="16">
       <c r="A257" s="83" t="s">
         <v>590</v>
       </c>
       <c r="B257" s="7" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" ht="16">
+      <c r="C257" t="s">
+        <v>951</v>
+      </c>
+      <c r="D257" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="16">
       <c r="A258" s="83" t="s">
         <v>590</v>
       </c>
@@ -6444,7 +6759,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="16">
+    <row r="259" spans="1:4" ht="16">
       <c r="A259" s="83" t="s">
         <v>590</v>
       </c>
@@ -6452,7 +6767,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="16">
+    <row r="260" spans="1:4" ht="16">
       <c r="A260" s="83" t="s">
         <v>590</v>
       </c>
@@ -6460,7 +6775,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="16">
+    <row r="261" spans="1:4" ht="16">
       <c r="A261" s="83" t="s">
         <v>590</v>
       </c>
@@ -6468,15 +6783,21 @@
         <v>840</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="16">
+    <row r="262" spans="1:4" ht="16">
       <c r="A262" s="83" t="s">
         <v>590</v>
       </c>
       <c r="B262" s="7" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" ht="16">
+      <c r="C262" t="s">
+        <v>951</v>
+      </c>
+      <c r="D262" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="16">
       <c r="A263" s="83" t="s">
         <v>590</v>
       </c>
@@ -6484,7 +6805,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="16">
+    <row r="264" spans="1:4" ht="16">
       <c r="A264" s="83" t="s">
         <v>590</v>
       </c>
@@ -6492,23 +6813,35 @@
         <v>843</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="16">
+    <row r="265" spans="1:4" ht="16">
       <c r="A265" s="83" t="s">
         <v>590</v>
       </c>
       <c r="B265" s="7" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" ht="16">
+      <c r="C265" t="s">
+        <v>951</v>
+      </c>
+      <c r="D265" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="16">
       <c r="A266" s="83" t="s">
         <v>590</v>
       </c>
       <c r="B266" s="7" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" ht="16">
+      <c r="C266" t="s">
+        <v>951</v>
+      </c>
+      <c r="D266" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="16">
       <c r="A267" s="83" t="s">
         <v>590</v>
       </c>
@@ -6516,44 +6849,74 @@
         <v>846</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="16">
+    <row r="268" spans="1:4" ht="16">
       <c r="A268" s="83" t="s">
         <v>590</v>
       </c>
       <c r="B268" s="7" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" ht="16">
+      <c r="C268" t="s">
+        <v>951</v>
+      </c>
+      <c r="D268" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="16">
       <c r="A269" s="83" t="s">
         <v>590</v>
       </c>
       <c r="B269" s="7" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" ht="16">
+      <c r="C269" t="s">
+        <v>951</v>
+      </c>
+      <c r="D269" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="16">
       <c r="A270" s="83" t="s">
         <v>590</v>
       </c>
       <c r="B270" s="7" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" ht="16">
+      <c r="C270" t="s">
+        <v>951</v>
+      </c>
+      <c r="D270" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="16">
       <c r="A271" s="83" t="s">
         <v>590</v>
       </c>
       <c r="B271" s="7" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" ht="16">
+      <c r="C271" t="s">
+        <v>951</v>
+      </c>
+      <c r="D271" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="16">
       <c r="A272" s="83" t="s">
         <v>590</v>
       </c>
       <c r="B272" s="7" t="s">
         <v>851</v>
+      </c>
+      <c r="C272" t="s">
+        <v>951</v>
+      </c>
+      <c r="D272" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="16">
@@ -6563,6 +6926,12 @@
       <c r="B273" s="7" t="s">
         <v>852</v>
       </c>
+      <c r="C273" t="s">
+        <v>951</v>
+      </c>
+      <c r="D273" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="274" spans="1:5" ht="16">
       <c r="A274" s="83" t="s">
@@ -6570,6 +6939,12 @@
       </c>
       <c r="B274" s="7" t="s">
         <v>853</v>
+      </c>
+      <c r="C274" t="s">
+        <v>951</v>
+      </c>
+      <c r="D274" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="19">
@@ -6687,7 +7062,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="16">
+    <row r="289" spans="1:4" ht="16">
       <c r="A289" s="83" t="s">
         <v>930</v>
       </c>
@@ -6695,7 +7070,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="16">
+    <row r="290" spans="1:4" ht="16">
       <c r="A290" s="83" t="s">
         <v>930</v>
       </c>
@@ -6703,7 +7078,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="16">
+    <row r="291" spans="1:4" ht="16">
       <c r="A291" s="83" t="s">
         <v>930</v>
       </c>
@@ -6711,7 +7086,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="16">
+    <row r="292" spans="1:4" ht="16">
       <c r="A292" s="83" t="s">
         <v>930</v>
       </c>
@@ -6719,7 +7094,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="16">
+    <row r="293" spans="1:4" ht="16">
       <c r="A293" s="83" t="s">
         <v>930</v>
       </c>
@@ -6727,7 +7102,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="16">
+    <row r="294" spans="1:4" ht="16">
       <c r="A294" s="83" t="s">
         <v>930</v>
       </c>
@@ -6735,7 +7110,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="16">
+    <row r="295" spans="1:4" ht="16">
       <c r="A295" s="83" t="s">
         <v>930</v>
       </c>
@@ -6743,15 +7118,21 @@
         <v>874</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="16">
+    <row r="296" spans="1:4" ht="16">
       <c r="A296" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B296" s="7" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" ht="16">
+      <c r="C296" t="s">
+        <v>951</v>
+      </c>
+      <c r="D296" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="16">
       <c r="A297" s="83" t="s">
         <v>930</v>
       </c>
@@ -6759,7 +7140,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="19">
+    <row r="298" spans="1:4" ht="19">
       <c r="A298" s="83" t="s">
         <v>930</v>
       </c>
@@ -6767,7 +7148,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="16">
+    <row r="299" spans="1:4" ht="16">
       <c r="A299" s="83" t="s">
         <v>930</v>
       </c>
@@ -6775,7 +7156,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="16">
+    <row r="300" spans="1:4" ht="16">
       <c r="A300" s="83" t="s">
         <v>930</v>
       </c>
@@ -6785,81 +7166,105 @@
       <c r="C300" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" ht="16">
+      <c r="D300" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="16">
       <c r="A301" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B301" s="7" t="s">
         <v>879</v>
       </c>
-      <c r="C301" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" ht="16">
+    </row>
+    <row r="302" spans="1:4" ht="16">
       <c r="A302" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B302" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="C302" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" ht="16">
+    </row>
+    <row r="303" spans="1:4" ht="16">
       <c r="A303" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B303" s="7" t="s">
         <v>881</v>
       </c>
-      <c r="C303" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" ht="16">
+    </row>
+    <row r="304" spans="1:4" ht="16">
       <c r="A304" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B304" s="7" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" ht="16">
+      <c r="C304" t="s">
+        <v>951</v>
+      </c>
+      <c r="D304" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" ht="16">
       <c r="A305" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B305" s="7" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" ht="16">
+      <c r="C305" t="s">
+        <v>951</v>
+      </c>
+      <c r="D305" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="16">
       <c r="A306" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B306" s="7" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="307" spans="1:2" ht="16">
+      <c r="C306" t="s">
+        <v>951</v>
+      </c>
+      <c r="D306" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="16">
       <c r="A307" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B307" s="7" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="308" spans="1:2" ht="16">
+      <c r="C307" t="s">
+        <v>951</v>
+      </c>
+      <c r="D307" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="16">
       <c r="A308" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B308" s="7" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="309" spans="1:2" ht="19">
+      <c r="C308" t="s">
+        <v>951</v>
+      </c>
+      <c r="D308" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" ht="19">
       <c r="A309" s="83" t="s">
         <v>930</v>
       </c>
@@ -6867,7 +7272,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="310" spans="1:2" ht="16">
+    <row r="310" spans="1:5" ht="16">
       <c r="A310" s="83" t="s">
         <v>930</v>
       </c>
@@ -6875,23 +7280,38 @@
         <v>888</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="16">
+    <row r="311" spans="1:5" ht="16">
       <c r="A311" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B311" s="7" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="312" spans="1:2" ht="16">
+      <c r="C311" t="s">
+        <v>951</v>
+      </c>
+      <c r="D311" t="s">
+        <v>961</v>
+      </c>
+      <c r="E311" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" ht="16">
       <c r="A312" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B312" s="7" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="313" spans="1:2" ht="16">
+      <c r="C312" t="s">
+        <v>951</v>
+      </c>
+      <c r="D312" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" ht="16">
       <c r="A313" s="83" t="s">
         <v>930</v>
       </c>
@@ -6899,7 +7319,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="16">
+    <row r="314" spans="1:5" ht="16">
       <c r="A314" s="83" t="s">
         <v>930</v>
       </c>
@@ -6907,7 +7327,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="16">
+    <row r="315" spans="1:5" ht="16">
       <c r="A315" s="83" t="s">
         <v>930</v>
       </c>
@@ -6915,7 +7335,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="16">
+    <row r="316" spans="1:5" ht="16">
       <c r="A316" s="83" t="s">
         <v>930</v>
       </c>
@@ -6923,7 +7343,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="317" spans="1:2" ht="16">
+    <row r="317" spans="1:5" ht="16">
       <c r="A317" s="83" t="s">
         <v>930</v>
       </c>
@@ -6931,7 +7351,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="16">
+    <row r="318" spans="1:5" ht="16">
       <c r="A318" s="83" t="s">
         <v>930</v>
       </c>
@@ -6939,7 +7359,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="319" spans="1:2" ht="16">
+    <row r="319" spans="1:5" ht="16">
       <c r="A319" s="83" t="s">
         <v>930</v>
       </c>
@@ -6947,7 +7367,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="16">
+    <row r="320" spans="1:5" ht="16">
       <c r="A320" s="83" t="s">
         <v>930</v>
       </c>
@@ -6955,7 +7375,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="16">
+    <row r="321" spans="1:5" ht="16">
       <c r="A321" s="83" t="s">
         <v>930</v>
       </c>
@@ -6963,7 +7383,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="322" spans="1:2" ht="16">
+    <row r="322" spans="1:5" ht="16">
       <c r="A322" s="83" t="s">
         <v>930</v>
       </c>
@@ -6971,7 +7391,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="16">
+    <row r="323" spans="1:5" ht="16">
       <c r="A323" s="83" t="s">
         <v>930</v>
       </c>
@@ -6979,23 +7399,35 @@
         <v>901</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="16">
+    <row r="324" spans="1:5" ht="16">
       <c r="A324" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B324" s="7" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="325" spans="1:2" ht="16">
+      <c r="C324" t="s">
+        <v>951</v>
+      </c>
+      <c r="D324" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="16">
       <c r="A325" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B325" s="7" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="326" spans="1:2" ht="19">
+      <c r="C325" t="s">
+        <v>951</v>
+      </c>
+      <c r="D325" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" ht="19">
       <c r="A326" s="83" t="s">
         <v>930</v>
       </c>
@@ -7003,7 +7435,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="16">
+    <row r="327" spans="1:5" ht="16">
       <c r="A327" s="83" t="s">
         <v>930</v>
       </c>
@@ -7011,15 +7443,24 @@
         <v>905</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="16">
+    <row r="328" spans="1:5" ht="16">
       <c r="A328" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B328" s="7" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="329" spans="1:2" ht="16">
+      <c r="C328" t="s">
+        <v>951</v>
+      </c>
+      <c r="D328" t="s">
+        <v>961</v>
+      </c>
+      <c r="E328" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" ht="16">
       <c r="A329" s="83" t="s">
         <v>930</v>
       </c>
@@ -7027,7 +7468,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="16">
+    <row r="330" spans="1:5" ht="16">
       <c r="A330" s="83" t="s">
         <v>930</v>
       </c>
@@ -7035,15 +7476,21 @@
         <v>908</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="16">
+    <row r="331" spans="1:5" ht="16">
       <c r="A331" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B331" s="7" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="332" spans="1:2" ht="16">
+      <c r="C331" t="s">
+        <v>951</v>
+      </c>
+      <c r="D331" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" ht="16">
       <c r="A332" s="83" t="s">
         <v>930</v>
       </c>
@@ -7051,31 +7498,49 @@
         <v>910</v>
       </c>
     </row>
-    <row r="333" spans="1:2" ht="16">
+    <row r="333" spans="1:5" ht="16">
       <c r="A333" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B333" s="7" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="334" spans="1:2" ht="16">
+      <c r="C333" t="s">
+        <v>951</v>
+      </c>
+      <c r="D333" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" ht="16">
       <c r="A334" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B334" s="7" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="335" spans="1:2" ht="16">
+      <c r="C334" t="s">
+        <v>951</v>
+      </c>
+      <c r="D334" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" ht="16">
       <c r="A335" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B335" s="7" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="336" spans="1:2" ht="16">
+      <c r="C335" t="s">
+        <v>951</v>
+      </c>
+      <c r="D335" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" ht="16">
       <c r="A336" s="83" t="s">
         <v>930</v>
       </c>
@@ -7083,15 +7548,21 @@
         <v>914</v>
       </c>
     </row>
-    <row r="337" spans="1:2" ht="16">
+    <row r="337" spans="1:4" ht="16">
       <c r="A337" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B337" s="7" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="338" spans="1:2" ht="19">
+      <c r="C337" t="s">
+        <v>951</v>
+      </c>
+      <c r="D337" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" ht="19">
       <c r="A338" s="83" t="s">
         <v>930</v>
       </c>
@@ -7099,7 +7570,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="16">
+    <row r="339" spans="1:4" ht="16">
       <c r="A339" s="83" t="s">
         <v>930</v>
       </c>
@@ -7107,7 +7578,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="340" spans="1:2" ht="16">
+    <row r="340" spans="1:4" ht="16">
       <c r="A340" s="83" t="s">
         <v>930</v>
       </c>
@@ -7115,7 +7586,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="341" spans="1:2" ht="16">
+    <row r="341" spans="1:4" ht="16">
       <c r="A341" s="83" t="s">
         <v>930</v>
       </c>
@@ -7123,7 +7594,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="342" spans="1:2" ht="16">
+    <row r="342" spans="1:4" ht="16">
       <c r="A342" s="83" t="s">
         <v>930</v>
       </c>
@@ -7131,7 +7602,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="343" spans="1:2" ht="16">
+    <row r="343" spans="1:4" ht="16">
       <c r="A343" s="83" t="s">
         <v>930</v>
       </c>
@@ -7139,7 +7610,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="16">
+    <row r="344" spans="1:4" ht="16">
       <c r="A344" s="83" t="s">
         <v>930</v>
       </c>
@@ -7147,7 +7618,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="16">
+    <row r="345" spans="1:4" ht="16">
       <c r="A345" s="83" t="s">
         <v>930</v>
       </c>
@@ -7155,7 +7626,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="346" spans="1:2" ht="16">
+    <row r="346" spans="1:4" ht="16">
       <c r="A346" s="83" t="s">
         <v>930</v>
       </c>
@@ -7163,7 +7634,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="347" spans="1:2" ht="16">
+    <row r="347" spans="1:4" ht="16">
       <c r="A347" s="83" t="s">
         <v>930</v>
       </c>
@@ -7171,7 +7642,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="348" spans="1:2" ht="16">
+    <row r="348" spans="1:4" ht="16">
       <c r="A348" s="83" t="s">
         <v>930</v>
       </c>
@@ -7179,7 +7650,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="349" spans="1:2" ht="16">
+    <row r="349" spans="1:4" ht="16">
       <c r="A349" s="83" t="s">
         <v>930</v>
       </c>
@@ -7281,7 +7752,7 @@
       </c>
       <c r="F1" s="90">
         <f ca="1">(TODAY()-H1)*-1</f>
-        <v>-187</v>
+        <v>-190</v>
       </c>
       <c r="G1" s="91" t="s">
         <v>10</v>
@@ -15001,12 +15472,12 @@
       <c r="M1" s="16"/>
     </row>
     <row r="2" spans="1:13" s="18" customFormat="1" ht="26" customHeight="1">
-      <c r="A2" s="125"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
       <c r="G2" s="49" t="s">
         <v>501</v>
       </c>
@@ -15030,14 +15501,14 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="99" t="s">
         <v>446</v>
       </c>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
       <c r="G3" s="27"/>
       <c r="H3" s="23"/>
       <c r="I3" s="24" t="s">
@@ -15048,12 +15519,12 @@
       <c r="M3" s="26"/>
     </row>
     <row r="4" spans="1:13" s="32" customFormat="1" ht="14" customHeight="1">
-      <c r="A4" s="127"/>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
@@ -15080,16 +15551,16 @@
       <c r="M5" s="40"/>
     </row>
     <row r="6" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="101" t="s">
         <v>448</v>
       </c>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="101" t="s">
         <v>449</v>
       </c>
-      <c r="C6" s="100" t="s">
+      <c r="C6" s="101" t="s">
         <v>450</v>
       </c>
-      <c r="D6" s="115" t="s">
+      <c r="D6" s="105" t="s">
         <v>505</v>
       </c>
       <c r="E6" s="41" t="s">
@@ -15111,18 +15582,18 @@
       <c r="K6" s="43" t="s">
         <v>454</v>
       </c>
-      <c r="L6" s="112" t="s">
+      <c r="L6" s="109" t="s">
         <v>507</v>
       </c>
-      <c r="M6" s="112" t="s">
+      <c r="M6" s="109" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A7" s="101"/>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="116"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="106"/>
       <c r="E7" s="41" t="s">
         <v>456</v>
       </c>
@@ -15144,22 +15615,22 @@
       <c r="K7" s="43" t="s">
         <v>458</v>
       </c>
-      <c r="L7" s="113"/>
-      <c r="M7" s="113"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="110"/>
     </row>
     <row r="8" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A8" s="101"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="100" t="s">
+      <c r="A8" s="102"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="101" t="s">
         <v>459</v>
       </c>
-      <c r="F8" s="103" t="s">
+      <c r="F8" s="112" t="s">
         <v>511</v>
       </c>
       <c r="G8" s="78"/>
-      <c r="H8" s="106" t="s">
+      <c r="H8" s="115" t="s">
         <v>512</v>
       </c>
       <c r="I8" s="50" t="s">
@@ -15171,18 +15642,18 @@
       <c r="K8" s="43" t="s">
         <v>466</v>
       </c>
-      <c r="L8" s="113"/>
-      <c r="M8" s="113"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110"/>
     </row>
     <row r="9" spans="1:13" s="18" customFormat="1" ht="16" customHeight="1" outlineLevel="1">
-      <c r="A9" s="101"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="104"/>
+      <c r="A9" s="102"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="113"/>
       <c r="G9" s="79"/>
-      <c r="H9" s="107"/>
+      <c r="H9" s="116"/>
       <c r="I9" s="50" t="s">
         <v>514</v>
       </c>
@@ -15190,41 +15661,41 @@
       <c r="K9" s="51" t="s">
         <v>515</v>
       </c>
-      <c r="L9" s="113"/>
-      <c r="M9" s="113"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="110"/>
     </row>
     <row r="10" spans="1:13" s="18" customFormat="1" ht="19" customHeight="1" outlineLevel="1">
-      <c r="A10" s="101"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="105"/>
+      <c r="A10" s="102"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="114"/>
       <c r="G10" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="H10" s="108"/>
+      <c r="H10" s="117"/>
       <c r="I10" s="50" t="s">
         <v>516</v>
       </c>
       <c r="J10" s="44"/>
       <c r="K10" s="52"/>
-      <c r="L10" s="113"/>
-      <c r="M10" s="113"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="110"/>
     </row>
     <row r="11" spans="1:13" s="18" customFormat="1" ht="13" customHeight="1" outlineLevel="1">
-      <c r="A11" s="101"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="100" t="s">
+      <c r="A11" s="102"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="101" t="s">
         <v>461</v>
       </c>
-      <c r="F11" s="103" t="s">
+      <c r="F11" s="112" t="s">
         <v>517</v>
       </c>
       <c r="G11" s="78"/>
-      <c r="H11" s="99"/>
+      <c r="H11" s="119"/>
       <c r="I11" s="53" t="s">
         <v>518</v>
       </c>
@@ -15232,20 +15703,20 @@
       <c r="K11" s="43" t="s">
         <v>519</v>
       </c>
-      <c r="L11" s="113"/>
-      <c r="M11" s="113"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
     </row>
     <row r="12" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A12" s="101"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="122"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="118"/>
       <c r="G12" s="80" t="s">
         <v>582</v>
       </c>
-      <c r="H12" s="123"/>
+      <c r="H12" s="120"/>
       <c r="I12" s="54" t="s">
         <v>520</v>
       </c>
@@ -15253,16 +15724,16 @@
       <c r="K12" s="56" t="s">
         <v>521</v>
       </c>
-      <c r="L12" s="113"/>
-      <c r="M12" s="113"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="110"/>
     </row>
     <row r="13" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A13" s="101"/>
-      <c r="B13" s="101"/>
-      <c r="C13" s="101" t="s">
+      <c r="A13" s="102"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102" t="s">
         <v>462</v>
       </c>
-      <c r="D13" s="116" t="s">
+      <c r="D13" s="106" t="s">
         <v>522</v>
       </c>
       <c r="E13" s="57" t="s">
@@ -15284,14 +15755,14 @@
       <c r="K13" s="51" t="s">
         <v>526</v>
       </c>
-      <c r="L13" s="113"/>
-      <c r="M13" s="113"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="110"/>
     </row>
     <row r="14" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A14" s="101"/>
-      <c r="B14" s="101"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="116"/>
+      <c r="A14" s="102"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="106"/>
       <c r="E14" s="41" t="s">
         <v>464</v>
       </c>
@@ -15311,14 +15782,14 @@
       <c r="K14" s="43" t="s">
         <v>530</v>
       </c>
-      <c r="L14" s="113"/>
-      <c r="M14" s="113"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="110"/>
     </row>
     <row r="15" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A15" s="101"/>
-      <c r="B15" s="101"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="116"/>
+      <c r="A15" s="102"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="106"/>
       <c r="E15" s="41" t="s">
         <v>465</v>
       </c>
@@ -15338,56 +15809,56 @@
       <c r="K15" s="43" t="s">
         <v>534</v>
       </c>
-      <c r="L15" s="113"/>
-      <c r="M15" s="113"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="110"/>
     </row>
     <row r="16" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A16" s="101"/>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="100" t="s">
+      <c r="A16" s="102"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="101" t="s">
         <v>467</v>
       </c>
-      <c r="F16" s="103" t="s">
+      <c r="F16" s="112" t="s">
         <v>535</v>
       </c>
       <c r="G16" s="78"/>
-      <c r="H16" s="124"/>
+      <c r="H16" s="121"/>
       <c r="I16" s="63" t="s">
         <v>536</v>
       </c>
       <c r="J16" s="46"/>
       <c r="K16" s="43"/>
-      <c r="L16" s="113"/>
-      <c r="M16" s="113"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="110"/>
     </row>
     <row r="17" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A17" s="101"/>
-      <c r="B17" s="101"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="104"/>
+      <c r="A17" s="102"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="113"/>
       <c r="G17" s="79"/>
-      <c r="H17" s="124"/>
+      <c r="H17" s="121"/>
       <c r="I17" s="63" t="s">
         <v>537</v>
       </c>
       <c r="J17" s="46"/>
       <c r="K17" s="43"/>
-      <c r="L17" s="113"/>
-      <c r="M17" s="113"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="110"/>
     </row>
     <row r="18" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A18" s="101"/>
-      <c r="B18" s="101"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="116"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="104"/>
+      <c r="A18" s="102"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="113"/>
       <c r="G18" s="79"/>
-      <c r="H18" s="124"/>
+      <c r="H18" s="121"/>
       <c r="I18" s="43" t="s">
         <v>538</v>
       </c>
@@ -15395,18 +15866,18 @@
       <c r="K18" s="63" t="s">
         <v>539</v>
       </c>
-      <c r="L18" s="113"/>
-      <c r="M18" s="113"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="110"/>
     </row>
     <row r="19" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A19" s="101"/>
-      <c r="B19" s="101"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="104"/>
+      <c r="A19" s="102"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="113"/>
       <c r="G19" s="79"/>
-      <c r="H19" s="124"/>
+      <c r="H19" s="121"/>
       <c r="I19" s="43" t="s">
         <v>540</v>
       </c>
@@ -15414,18 +15885,18 @@
       <c r="K19" s="63" t="s">
         <v>541</v>
       </c>
-      <c r="L19" s="113"/>
-      <c r="M19" s="113"/>
+      <c r="L19" s="110"/>
+      <c r="M19" s="110"/>
     </row>
     <row r="20" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="104"/>
+      <c r="A20" s="102"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="113"/>
       <c r="G20" s="79"/>
-      <c r="H20" s="124"/>
+      <c r="H20" s="121"/>
       <c r="I20" s="43" t="s">
         <v>542</v>
       </c>
@@ -15433,44 +15904,44 @@
       <c r="K20" s="63" t="s">
         <v>543</v>
       </c>
-      <c r="L20" s="113"/>
-      <c r="M20" s="113"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="110"/>
     </row>
     <row r="21" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="116"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="104"/>
+      <c r="A21" s="102"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="113"/>
       <c r="G21" s="79"/>
-      <c r="H21" s="124"/>
+      <c r="H21" s="121"/>
       <c r="I21" s="45" t="s">
         <v>484</v>
       </c>
       <c r="J21" s="46"/>
       <c r="K21" s="63"/>
-      <c r="L21" s="113"/>
-      <c r="M21" s="113"/>
+      <c r="L21" s="110"/>
+      <c r="M21" s="110"/>
     </row>
     <row r="22" spans="1:14" s="18" customFormat="1" ht="23" customHeight="1">
-      <c r="A22" s="102"/>
-      <c r="B22" s="102"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="105"/>
+      <c r="A22" s="103"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="114"/>
       <c r="G22" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="H22" s="124"/>
+      <c r="H22" s="121"/>
       <c r="I22" s="43" t="s">
         <v>544</v>
       </c>
       <c r="J22" s="46"/>
       <c r="K22" s="44"/>
-      <c r="L22" s="114"/>
-      <c r="M22" s="114"/>
+      <c r="L22" s="111"/>
+      <c r="M22" s="111"/>
     </row>
     <row r="23" spans="1:14" s="18" customFormat="1" ht="8" customHeight="1">
       <c r="A23" s="64"/>
@@ -15488,26 +15959,26 @@
       <c r="M23" s="69"/>
     </row>
     <row r="24" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A24" s="100" t="s">
+      <c r="A24" s="101" t="s">
         <v>468</v>
       </c>
-      <c r="B24" s="118" t="s">
+      <c r="B24" s="122" t="s">
         <v>469</v>
       </c>
-      <c r="C24" s="100" t="s">
+      <c r="C24" s="101" t="s">
         <v>470</v>
       </c>
-      <c r="D24" s="115" t="s">
+      <c r="D24" s="105" t="s">
         <v>545</v>
       </c>
-      <c r="E24" s="100" t="s">
+      <c r="E24" s="101" t="s">
         <v>471</v>
       </c>
-      <c r="F24" s="103" t="s">
+      <c r="F24" s="112" t="s">
         <v>546</v>
       </c>
       <c r="G24" s="78"/>
-      <c r="H24" s="106" t="s">
+      <c r="H24" s="115" t="s">
         <v>547</v>
       </c>
       <c r="I24" s="44" t="s">
@@ -15519,47 +15990,47 @@
       <c r="K24" s="43" t="s">
         <v>548</v>
       </c>
-      <c r="L24" s="112" t="s">
+      <c r="L24" s="109" t="s">
         <v>507</v>
       </c>
-      <c r="M24" s="99" t="s">
+      <c r="M24" s="119" t="s">
         <v>474</v>
       </c>
       <c r="N24" s="47"/>
     </row>
     <row r="25" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A25" s="101"/>
-      <c r="B25" s="119"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="105"/>
+      <c r="A25" s="102"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="114"/>
       <c r="G25" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="H25" s="108"/>
+      <c r="H25" s="117"/>
       <c r="I25" s="44" t="s">
         <v>549</v>
       </c>
       <c r="J25" s="45"/>
       <c r="K25" s="43"/>
-      <c r="L25" s="113"/>
-      <c r="M25" s="99"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="119"/>
       <c r="N25" s="47"/>
     </row>
     <row r="26" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A26" s="101"/>
-      <c r="B26" s="119"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="116"/>
-      <c r="E26" s="100" t="s">
+      <c r="A26" s="102"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="101" t="s">
         <v>475</v>
       </c>
-      <c r="F26" s="103" t="s">
+      <c r="F26" s="112" t="s">
         <v>550</v>
       </c>
       <c r="G26" s="78"/>
-      <c r="H26" s="106" t="s">
+      <c r="H26" s="115" t="s">
         <v>551</v>
       </c>
       <c r="I26" s="44" t="s">
@@ -15571,21 +16042,21 @@
       <c r="K26" s="43" t="s">
         <v>553</v>
       </c>
-      <c r="L26" s="113"/>
-      <c r="M26" s="99"/>
+      <c r="L26" s="110"/>
+      <c r="M26" s="119"/>
       <c r="N26" s="47"/>
     </row>
     <row r="27" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A27" s="101"/>
-      <c r="B27" s="119"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="105"/>
+      <c r="A27" s="102"/>
+      <c r="B27" s="123"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="114"/>
       <c r="G27" s="58" t="s">
         <v>583</v>
       </c>
-      <c r="H27" s="108"/>
+      <c r="H27" s="117"/>
       <c r="I27" s="44" t="s">
         <v>483</v>
       </c>
@@ -15593,15 +16064,15 @@
         <v>479</v>
       </c>
       <c r="K27" s="43"/>
-      <c r="L27" s="113"/>
-      <c r="M27" s="99"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="119"/>
       <c r="N27" s="47"/>
     </row>
     <row r="28" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A28" s="101"/>
-      <c r="B28" s="119"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="116"/>
+      <c r="A28" s="102"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="106"/>
       <c r="E28" s="41" t="s">
         <v>477</v>
       </c>
@@ -15620,15 +16091,15 @@
       <c r="K28" s="43" t="s">
         <v>556</v>
       </c>
-      <c r="L28" s="113"/>
-      <c r="M28" s="99"/>
+      <c r="L28" s="110"/>
+      <c r="M28" s="119"/>
       <c r="N28" s="47"/>
     </row>
     <row r="29" spans="1:14" s="18" customFormat="1" ht="19" customHeight="1">
-      <c r="A29" s="102"/>
-      <c r="B29" s="120"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="117"/>
+      <c r="A29" s="103"/>
+      <c r="B29" s="124"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="108"/>
       <c r="E29" s="41" t="s">
         <v>480</v>
       </c>
@@ -15650,8 +16121,8 @@
       <c r="K29" s="43" t="s">
         <v>559</v>
       </c>
-      <c r="L29" s="114"/>
-      <c r="M29" s="99"/>
+      <c r="L29" s="111"/>
+      <c r="M29" s="119"/>
       <c r="N29" s="47"/>
     </row>
     <row r="30" spans="1:14" s="18" customFormat="1" ht="8" customHeight="1">
@@ -15670,26 +16141,26 @@
       <c r="M30" s="69"/>
     </row>
     <row r="31" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A31" s="100" t="s">
+      <c r="A31" s="101" t="s">
         <v>485</v>
       </c>
-      <c r="B31" s="100" t="s">
+      <c r="B31" s="101" t="s">
         <v>486</v>
       </c>
-      <c r="C31" s="100" t="s">
+      <c r="C31" s="101" t="s">
         <v>487</v>
       </c>
-      <c r="D31" s="115" t="s">
+      <c r="D31" s="105" t="s">
         <v>560</v>
       </c>
-      <c r="E31" s="100" t="s">
+      <c r="E31" s="101" t="s">
         <v>488</v>
       </c>
-      <c r="F31" s="103" t="s">
+      <c r="F31" s="112" t="s">
         <v>561</v>
       </c>
       <c r="G31" s="78"/>
-      <c r="H31" s="106" t="s">
+      <c r="H31" s="115" t="s">
         <v>562</v>
       </c>
       <c r="I31" s="76" t="s">
@@ -15701,22 +16172,22 @@
       <c r="K31" s="43" t="s">
         <v>564</v>
       </c>
-      <c r="L31" s="99" t="s">
+      <c r="L31" s="119" t="s">
         <v>490</v>
       </c>
-      <c r="M31" s="99" t="s">
+      <c r="M31" s="119" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="32" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A32" s="101"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="116"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="104"/>
+      <c r="A32" s="102"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="113"/>
       <c r="G32" s="79"/>
-      <c r="H32" s="107"/>
+      <c r="H32" s="116"/>
       <c r="I32" s="51" t="s">
         <v>565</v>
       </c>
@@ -15724,79 +16195,79 @@
       <c r="K32" s="43" t="s">
         <v>566</v>
       </c>
-      <c r="L32" s="99"/>
-      <c r="M32" s="99"/>
+      <c r="L32" s="119"/>
+      <c r="M32" s="119"/>
     </row>
     <row r="33" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A33" s="101"/>
-      <c r="B33" s="101"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="116"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="105"/>
+      <c r="A33" s="102"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="114"/>
       <c r="G33" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="H33" s="108"/>
+      <c r="H33" s="117"/>
       <c r="I33" s="51" t="s">
         <v>500</v>
       </c>
       <c r="J33" s="44"/>
       <c r="K33" s="43"/>
-      <c r="L33" s="99"/>
-      <c r="M33" s="99"/>
+      <c r="L33" s="119"/>
+      <c r="M33" s="119"/>
     </row>
     <row r="34" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A34" s="101"/>
-      <c r="B34" s="101"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="116"/>
-      <c r="E34" s="100" t="s">
+      <c r="A34" s="102"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="101" t="s">
         <v>492</v>
       </c>
-      <c r="F34" s="103" t="s">
+      <c r="F34" s="112" t="s">
         <v>567</v>
       </c>
       <c r="G34" s="78"/>
-      <c r="H34" s="106" t="s">
+      <c r="H34" s="115" t="s">
         <v>568</v>
       </c>
       <c r="I34" s="44" t="s">
         <v>569</v>
       </c>
       <c r="J34" s="44"/>
-      <c r="K34" s="109"/>
-      <c r="L34" s="99"/>
-      <c r="M34" s="99"/>
+      <c r="K34" s="125"/>
+      <c r="L34" s="119"/>
+      <c r="M34" s="119"/>
     </row>
     <row r="35" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A35" s="101"/>
-      <c r="B35" s="101"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="104"/>
+      <c r="A35" s="102"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="113"/>
       <c r="G35" s="79"/>
-      <c r="H35" s="107"/>
+      <c r="H35" s="116"/>
       <c r="I35" s="44" t="s">
         <v>496</v>
       </c>
       <c r="J35" s="44"/>
-      <c r="K35" s="109"/>
-      <c r="L35" s="99"/>
-      <c r="M35" s="99"/>
+      <c r="K35" s="125"/>
+      <c r="L35" s="119"/>
+      <c r="M35" s="119"/>
     </row>
     <row r="36" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A36" s="101"/>
-      <c r="B36" s="101"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="116"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="105"/>
+      <c r="A36" s="102"/>
+      <c r="B36" s="102"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="106"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="114"/>
       <c r="G36" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="H36" s="108"/>
+      <c r="H36" s="117"/>
       <c r="I36" s="44" t="s">
         <v>570</v>
       </c>
@@ -15806,68 +16277,68 @@
       <c r="K36" s="43" t="s">
         <v>494</v>
       </c>
-      <c r="L36" s="99"/>
-      <c r="M36" s="99"/>
+      <c r="L36" s="119"/>
+      <c r="M36" s="119"/>
     </row>
     <row r="37" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="A37" s="101"/>
-      <c r="B37" s="101"/>
-      <c r="C37" s="101"/>
-      <c r="D37" s="116"/>
-      <c r="E37" s="100" t="s">
+      <c r="A37" s="102"/>
+      <c r="B37" s="102"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="101" t="s">
         <v>495</v>
       </c>
-      <c r="F37" s="103" t="s">
+      <c r="F37" s="112" t="s">
         <v>571</v>
       </c>
       <c r="G37" s="78"/>
-      <c r="H37" s="110" t="s">
+      <c r="H37" s="126" t="s">
         <v>572</v>
       </c>
       <c r="I37" s="44" t="s">
         <v>573</v>
       </c>
-      <c r="J37" s="111" t="s">
+      <c r="J37" s="127" t="s">
         <v>497</v>
       </c>
-      <c r="K37" s="110" t="s">
+      <c r="K37" s="126" t="s">
         <v>499</v>
       </c>
-      <c r="L37" s="99"/>
-      <c r="M37" s="99"/>
+      <c r="L37" s="119"/>
+      <c r="M37" s="119"/>
     </row>
     <row r="38" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="A38" s="101"/>
-      <c r="B38" s="101"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="116"/>
-      <c r="E38" s="101"/>
-      <c r="F38" s="104"/>
+      <c r="A38" s="102"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="113"/>
       <c r="G38" s="79" t="s">
         <v>582</v>
       </c>
-      <c r="H38" s="110"/>
+      <c r="H38" s="126"/>
       <c r="I38" s="63" t="s">
         <v>574</v>
       </c>
-      <c r="J38" s="111"/>
-      <c r="K38" s="110"/>
-      <c r="L38" s="99"/>
-      <c r="M38" s="99"/>
+      <c r="J38" s="127"/>
+      <c r="K38" s="126"/>
+      <c r="L38" s="119"/>
+      <c r="M38" s="119"/>
     </row>
     <row r="39" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="A39" s="101"/>
-      <c r="B39" s="101"/>
-      <c r="C39" s="101"/>
-      <c r="D39" s="116"/>
-      <c r="E39" s="101" t="s">
+      <c r="A39" s="102"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="106"/>
+      <c r="E39" s="102" t="s">
         <v>498</v>
       </c>
-      <c r="F39" s="104" t="s">
+      <c r="F39" s="113" t="s">
         <v>575</v>
       </c>
       <c r="G39" s="79"/>
-      <c r="H39" s="110" t="s">
+      <c r="H39" s="126" t="s">
         <v>576</v>
       </c>
       <c r="I39" s="63" t="s">
@@ -15877,18 +16348,18 @@
       <c r="K39" s="51" t="s">
         <v>578</v>
       </c>
-      <c r="L39" s="99"/>
-      <c r="M39" s="99"/>
+      <c r="L39" s="119"/>
+      <c r="M39" s="119"/>
     </row>
     <row r="40" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="A40" s="101"/>
-      <c r="B40" s="101"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="116"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="104"/>
+      <c r="A40" s="102"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="113"/>
       <c r="G40" s="79"/>
-      <c r="H40" s="110"/>
+      <c r="H40" s="126"/>
       <c r="I40" s="63" t="s">
         <v>579</v>
       </c>
@@ -15896,27 +16367,27 @@
       <c r="K40" s="51" t="s">
         <v>580</v>
       </c>
-      <c r="L40" s="99"/>
-      <c r="M40" s="99"/>
+      <c r="L40" s="119"/>
+      <c r="M40" s="119"/>
     </row>
     <row r="41" spans="1:13" s="18" customFormat="1" ht="17" customHeight="1">
-      <c r="A41" s="102"/>
-      <c r="B41" s="102"/>
-      <c r="C41" s="102"/>
-      <c r="D41" s="117"/>
-      <c r="E41" s="102"/>
-      <c r="F41" s="105"/>
+      <c r="A41" s="103"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="108"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="114"/>
       <c r="G41" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="H41" s="110"/>
+      <c r="H41" s="126"/>
       <c r="I41" s="63" t="s">
         <v>581</v>
       </c>
       <c r="J41" s="46"/>
       <c r="K41" s="43"/>
-      <c r="L41" s="99"/>
-      <c r="M41" s="99"/>
+      <c r="L41" s="119"/>
+      <c r="M41" s="119"/>
     </row>
     <row r="42" spans="1:13">
       <c r="K42" s="77"/>
@@ -15924,42 +16395,6 @@
     <row r="43" spans="1:13" ht="23" customHeight="1"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="A6:A22"/>
-    <mergeCell ref="B6:B22"/>
-    <mergeCell ref="C6:C12"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="C13:C22"/>
-    <mergeCell ref="D13:D22"/>
-    <mergeCell ref="L6:L22"/>
-    <mergeCell ref="M6:M22"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E16:E22"/>
-    <mergeCell ref="F16:F22"/>
-    <mergeCell ref="H16:H22"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="D24:D29"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A31:A41"/>
-    <mergeCell ref="B31:B41"/>
-    <mergeCell ref="C31:C41"/>
-    <mergeCell ref="D31:D41"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="L24:L29"/>
-    <mergeCell ref="M24:M29"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="H24:H25"/>
     <mergeCell ref="L31:L41"/>
     <mergeCell ref="M31:M41"/>
     <mergeCell ref="E34:E36"/>
@@ -15976,6 +16411,42 @@
     <mergeCell ref="H39:H41"/>
     <mergeCell ref="F31:F33"/>
     <mergeCell ref="H31:H33"/>
+    <mergeCell ref="L24:L29"/>
+    <mergeCell ref="M24:M29"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="A31:A41"/>
+    <mergeCell ref="B31:B41"/>
+    <mergeCell ref="C31:C41"/>
+    <mergeCell ref="D31:D41"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="D24:D29"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="L6:L22"/>
+    <mergeCell ref="M6:M22"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E16:E22"/>
+    <mergeCell ref="F16:F22"/>
+    <mergeCell ref="H16:H22"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="A6:A22"/>
+    <mergeCell ref="B6:B22"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="C13:C22"/>
+    <mergeCell ref="D13:D22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>

--- a/blueprints-combined.xlsx
+++ b/blueprints-combined.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qdd/Sync/git/notes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\admin\git\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD25DCB3-3639-A444-9830-F4C5190415B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="660" windowWidth="30400" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3765" yWindow="660" windowWidth="30405" windowHeight="20040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="lab-topics" sheetId="6" r:id="rId1"/>
@@ -21,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'written-topics'!$B$2:$H$893</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1927" uniqueCount="973">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="974">
   <si>
     <t>date</t>
   </si>
@@ -3041,11 +3040,14 @@
   <si>
     <t>LLDP</t>
   </si>
+  <si>
+    <t>rev prio</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
@@ -3406,7 +3408,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -3634,6 +3636,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4203,31 +4214,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q349"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C179" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C192" sqref="C192"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="99.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="99.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="25" customHeight="1">
+    <row r="1" spans="1:17" ht="24.95" customHeight="1">
       <c r="A1" s="93"/>
       <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
+      <c r="C1" s="99"/>
       <c r="D1" s="93"/>
       <c r="E1" s="93"/>
       <c r="F1" s="90" t="s">
@@ -4235,7 +4246,7 @@
       </c>
       <c r="G1" s="90">
         <f ca="1">(TODAY()-I1)*-1</f>
-        <v>95</v>
+        <v>-133</v>
       </c>
       <c r="H1" s="91" t="s">
         <v>10</v>
@@ -4244,15 +4255,15 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="96" customFormat="1" ht="20" customHeight="1" thickBot="1">
+    <row r="2" spans="1:17" s="96" customFormat="1" ht="40.5" customHeight="1" thickBot="1">
       <c r="A2" s="94" t="s">
         <v>940</v>
       </c>
       <c r="B2" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="95" t="s">
-        <v>585</v>
+      <c r="C2" s="98" t="s">
+        <v>973</v>
       </c>
       <c r="D2" s="95" t="s">
         <v>952</v>
@@ -4278,13 +4289,13 @@
       <c r="B3" s="84" t="s">
         <v>647</v>
       </c>
-      <c r="C3" s="85">
+      <c r="C3" s="100">
         <v>0.2</v>
       </c>
       <c r="D3" s="85"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:17" ht="19">
+    <row r="4" spans="1:17" ht="18.75">
       <c r="A4" s="83" t="s">
         <v>928</v>
       </c>
@@ -4292,7 +4303,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16">
+    <row r="5" spans="1:17" ht="15.75">
       <c r="A5" s="83" t="s">
         <v>928</v>
       </c>
@@ -4300,7 +4311,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16">
+    <row r="6" spans="1:17" ht="15.75">
       <c r="A6" s="83" t="s">
         <v>928</v>
       </c>
@@ -4308,7 +4319,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16">
+    <row r="7" spans="1:17" ht="15.75">
       <c r="A7" s="83" t="s">
         <v>928</v>
       </c>
@@ -4316,7 +4327,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16">
+    <row r="8" spans="1:17" ht="15.75">
       <c r="A8" s="83" t="s">
         <v>928</v>
       </c>
@@ -4324,7 +4335,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16">
+    <row r="9" spans="1:17" ht="15.75">
       <c r="A9" s="83" t="s">
         <v>928</v>
       </c>
@@ -4332,15 +4343,15 @@
         <v>605</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16">
+    <row r="10" spans="1:17" ht="15.75">
       <c r="A10" s="83" t="s">
         <v>928</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="C10" t="s">
-        <v>951</v>
+      <c r="C10" s="12">
+        <v>3</v>
       </c>
       <c r="D10" t="s">
         <v>961</v>
@@ -4349,21 +4360,21 @@
         <v>972</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16">
+    <row r="11" spans="1:17" ht="15.75">
       <c r="A11" s="83" t="s">
         <v>928</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="C11" t="s">
-        <v>951</v>
+      <c r="C11" s="12">
+        <v>3</v>
       </c>
       <c r="D11" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16">
+    <row r="12" spans="1:17" ht="15.75">
       <c r="A12" s="83" t="s">
         <v>928</v>
       </c>
@@ -4371,7 +4382,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16">
+    <row r="13" spans="1:17" ht="15.75">
       <c r="A13" s="83" t="s">
         <v>928</v>
       </c>
@@ -4379,7 +4390,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="16">
+    <row r="14" spans="1:17" ht="15.75">
       <c r="A14" s="83" t="s">
         <v>928</v>
       </c>
@@ -4387,7 +4398,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="16">
+    <row r="15" spans="1:17" ht="15.75">
       <c r="A15" s="83" t="s">
         <v>928</v>
       </c>
@@ -4395,7 +4406,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="16">
+    <row r="16" spans="1:17" ht="15.75">
       <c r="A16" s="83" t="s">
         <v>928</v>
       </c>
@@ -4403,7 +4414,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16">
+    <row r="17" spans="1:4" ht="15.75">
       <c r="A17" s="83" t="s">
         <v>928</v>
       </c>
@@ -4411,7 +4422,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16">
+    <row r="18" spans="1:4" ht="15.75">
       <c r="A18" s="83" t="s">
         <v>928</v>
       </c>
@@ -4419,7 +4430,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16">
+    <row r="19" spans="1:4" ht="15.75">
       <c r="A19" s="83" t="s">
         <v>928</v>
       </c>
@@ -4427,7 +4438,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16">
+    <row r="20" spans="1:4" ht="15.75">
       <c r="A20" s="83" t="s">
         <v>928</v>
       </c>
@@ -4435,7 +4446,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16">
+    <row r="21" spans="1:4" ht="15.75">
       <c r="A21" s="83" t="s">
         <v>928</v>
       </c>
@@ -4443,7 +4454,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16">
+    <row r="22" spans="1:4" ht="15.75">
       <c r="A22" s="83" t="s">
         <v>928</v>
       </c>
@@ -4451,7 +4462,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16">
+    <row r="23" spans="1:4" ht="15.75">
       <c r="A23" s="83" t="s">
         <v>928</v>
       </c>
@@ -4459,7 +4470,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16">
+    <row r="24" spans="1:4" ht="15.75">
       <c r="A24" s="83" t="s">
         <v>928</v>
       </c>
@@ -4467,21 +4478,21 @@
         <v>945</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16">
+    <row r="25" spans="1:4" ht="15.75">
       <c r="A25" s="83" t="s">
         <v>928</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>946</v>
       </c>
-      <c r="C25" t="s">
-        <v>951</v>
+      <c r="C25" s="12">
+        <v>3</v>
       </c>
       <c r="D25" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16">
+    <row r="26" spans="1:4" ht="15.75">
       <c r="A26" s="83" t="s">
         <v>928</v>
       </c>
@@ -4489,7 +4500,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="16">
+    <row r="27" spans="1:4" ht="15.75">
       <c r="A27" s="83" t="s">
         <v>928</v>
       </c>
@@ -4497,7 +4508,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16">
+    <row r="28" spans="1:4" ht="15.75">
       <c r="A28" s="83" t="s">
         <v>928</v>
       </c>
@@ -4505,7 +4516,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16">
+    <row r="29" spans="1:4" ht="15.75">
       <c r="A29" s="83" t="s">
         <v>928</v>
       </c>
@@ -4513,7 +4524,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16">
+    <row r="30" spans="1:4" ht="15.75">
       <c r="A30" s="83" t="s">
         <v>928</v>
       </c>
@@ -4521,7 +4532,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16">
+    <row r="31" spans="1:4" ht="15.75">
       <c r="A31" s="83" t="s">
         <v>928</v>
       </c>
@@ -4529,21 +4540,21 @@
         <v>620</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16">
+    <row r="32" spans="1:4" ht="15.75">
       <c r="A32" s="83" t="s">
         <v>928</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="C32" t="s">
-        <v>951</v>
+      <c r="C32" s="12">
+        <v>2</v>
       </c>
       <c r="D32" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="19">
+    <row r="33" spans="1:4" ht="18.75">
       <c r="A33" s="83" t="s">
         <v>928</v>
       </c>
@@ -4551,73 +4562,73 @@
         <v>622</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="16">
+    <row r="34" spans="1:4" ht="15.75">
       <c r="A34" s="83" t="s">
         <v>928</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="C34" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="16">
+      <c r="C34" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75">
       <c r="A35" s="83" t="s">
         <v>928</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="C35" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="16">
+      <c r="C35" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75">
       <c r="A36" s="83" t="s">
         <v>928</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="C36" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="16">
+      <c r="C36" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75">
       <c r="A37" s="83" t="s">
         <v>928</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="C37" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="16">
+      <c r="C37" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75">
       <c r="A38" s="83" t="s">
         <v>928</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="C38" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="16">
+      <c r="C38" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75">
       <c r="A39" s="83" t="s">
         <v>928</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="C39" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="19">
+      <c r="C39" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18.75">
       <c r="A40" s="83" t="s">
         <v>928</v>
       </c>
@@ -4625,7 +4636,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="16">
+    <row r="41" spans="1:4" ht="15.75">
       <c r="A41" s="83" t="s">
         <v>928</v>
       </c>
@@ -4633,7 +4644,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="16">
+    <row r="42" spans="1:4" ht="15.75">
       <c r="A42" s="83" t="s">
         <v>928</v>
       </c>
@@ -4641,7 +4652,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="16">
+    <row r="43" spans="1:4" ht="15.75">
       <c r="A43" s="83" t="s">
         <v>928</v>
       </c>
@@ -4649,7 +4660,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="16">
+    <row r="44" spans="1:4" ht="15.75">
       <c r="A44" s="83" t="s">
         <v>928</v>
       </c>
@@ -4657,21 +4668,21 @@
         <v>633</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="16">
+    <row r="45" spans="1:4" ht="15.75">
       <c r="A45" s="83" t="s">
         <v>928</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="C45" t="s">
-        <v>951</v>
+      <c r="C45" s="12">
+        <v>3</v>
       </c>
       <c r="D45" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="19">
+    <row r="46" spans="1:4" ht="18.75">
       <c r="A46" s="83" t="s">
         <v>928</v>
       </c>
@@ -4679,7 +4690,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="16">
+    <row r="47" spans="1:4" ht="15.75">
       <c r="A47" s="83" t="s">
         <v>928</v>
       </c>
@@ -4687,49 +4698,49 @@
         <v>636</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="16">
+    <row r="48" spans="1:4" ht="15.75">
       <c r="A48" s="83" t="s">
         <v>928</v>
       </c>
       <c r="B48" s="88" t="s">
         <v>637</v>
       </c>
-      <c r="C48" t="s">
-        <v>951</v>
+      <c r="C48" s="12">
+        <v>3</v>
       </c>
       <c r="D48" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16">
+    <row r="49" spans="1:5" ht="15.75">
       <c r="A49" s="83" t="s">
         <v>928</v>
       </c>
       <c r="B49" s="88" t="s">
         <v>638</v>
       </c>
-      <c r="C49" t="s">
-        <v>951</v>
+      <c r="C49" s="12">
+        <v>2</v>
       </c>
       <c r="D49" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16">
+    <row r="50" spans="1:5" ht="15.75">
       <c r="A50" s="83" t="s">
         <v>928</v>
       </c>
       <c r="B50" s="88" t="s">
         <v>639</v>
       </c>
-      <c r="C50" t="s">
-        <v>951</v>
+      <c r="C50" s="12">
+        <v>2</v>
       </c>
       <c r="D50" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="16">
+    <row r="51" spans="1:5" ht="15.75">
       <c r="A51" s="83" t="s">
         <v>928</v>
       </c>
@@ -4737,7 +4748,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="16">
+    <row r="52" spans="1:5" ht="15.75">
       <c r="A52" s="83" t="s">
         <v>928</v>
       </c>
@@ -4745,7 +4756,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16">
+    <row r="53" spans="1:5" ht="15.75">
       <c r="A53" s="83" t="s">
         <v>928</v>
       </c>
@@ -4753,7 +4764,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="16">
+    <row r="54" spans="1:5" ht="15.75">
       <c r="A54" s="83" t="s">
         <v>928</v>
       </c>
@@ -4761,7 +4772,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="16">
+    <row r="55" spans="1:5" ht="15.75">
       <c r="A55" s="83" t="s">
         <v>928</v>
       </c>
@@ -4769,7 +4780,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="16">
+    <row r="56" spans="1:5" ht="15.75">
       <c r="A56" s="83" t="s">
         <v>928</v>
       </c>
@@ -4777,7 +4788,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="16">
+    <row r="57" spans="1:5" ht="15.75">
       <c r="A57" s="83" t="s">
         <v>928</v>
       </c>
@@ -4790,13 +4801,13 @@
       <c r="B58" s="84" t="s">
         <v>648</v>
       </c>
-      <c r="C58" s="85">
+      <c r="C58" s="100">
         <v>0.4</v>
       </c>
       <c r="D58" s="85"/>
       <c r="E58" s="5"/>
     </row>
-    <row r="59" spans="1:5" ht="19">
+    <row r="59" spans="1:5" ht="18.75">
       <c r="A59" s="83" t="s">
         <v>929</v>
       </c>
@@ -4804,7 +4815,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="16">
+    <row r="60" spans="1:5" ht="15.75">
       <c r="A60" s="83" t="s">
         <v>929</v>
       </c>
@@ -4812,7 +4823,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="16">
+    <row r="61" spans="1:5" ht="15.75">
       <c r="A61" s="83" t="s">
         <v>929</v>
       </c>
@@ -4820,7 +4831,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="16">
+    <row r="62" spans="1:5" ht="15.75">
       <c r="A62" s="83" t="s">
         <v>929</v>
       </c>
@@ -4828,21 +4839,21 @@
         <v>652</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="16">
+    <row r="63" spans="1:5" ht="15.75">
       <c r="A63" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>653</v>
       </c>
-      <c r="C63" t="s">
-        <v>951</v>
+      <c r="C63" s="12">
+        <v>3</v>
       </c>
       <c r="D63" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="16">
+    <row r="64" spans="1:5" ht="15.75">
       <c r="A64" s="83" t="s">
         <v>929</v>
       </c>
@@ -4850,63 +4861,63 @@
         <v>654</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="16">
+    <row r="65" spans="1:5" ht="15.75">
       <c r="A65" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>655</v>
       </c>
-      <c r="C65" t="s">
-        <v>951</v>
+      <c r="C65" s="12">
+        <v>2</v>
       </c>
       <c r="D65" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="16">
+    <row r="66" spans="1:5" ht="15.75">
       <c r="A66" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="C66" t="s">
-        <v>951</v>
+      <c r="C66" s="12">
+        <v>1</v>
       </c>
       <c r="D66" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="16">
+    <row r="67" spans="1:5" ht="15.75">
       <c r="A67" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>657</v>
       </c>
-      <c r="C67" t="s">
-        <v>951</v>
+      <c r="C67" s="12">
+        <v>1</v>
       </c>
       <c r="D67" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="16">
+    <row r="68" spans="1:5" ht="15.75">
       <c r="A68" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>658</v>
       </c>
-      <c r="C68" t="s">
-        <v>951</v>
+      <c r="C68" s="12">
+        <v>1</v>
       </c>
       <c r="D68" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="19">
+    <row r="69" spans="1:5" ht="18.75">
       <c r="A69" s="83" t="s">
         <v>929</v>
       </c>
@@ -4914,7 +4925,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="16">
+    <row r="70" spans="1:5" ht="15.75">
       <c r="A70" s="83" t="s">
         <v>929</v>
       </c>
@@ -4922,7 +4933,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="16">
+    <row r="71" spans="1:5" ht="15.75">
       <c r="A71" s="83" t="s">
         <v>929</v>
       </c>
@@ -4930,7 +4941,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="16">
+    <row r="72" spans="1:5" ht="15.75">
       <c r="A72" s="83" t="s">
         <v>929</v>
       </c>
@@ -4938,7 +4949,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="16">
+    <row r="73" spans="1:5" ht="15.75">
       <c r="A73" s="83" t="s">
         <v>929</v>
       </c>
@@ -4949,7 +4960,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="16">
+    <row r="74" spans="1:5" ht="15.75">
       <c r="A74" s="83" t="s">
         <v>929</v>
       </c>
@@ -4957,119 +4968,119 @@
         <v>663</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="16">
+    <row r="75" spans="1:5" ht="15.75">
       <c r="A75" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>664</v>
       </c>
-      <c r="C75" t="s">
-        <v>951</v>
+      <c r="C75" s="12">
+        <v>1</v>
       </c>
       <c r="D75" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="16">
+    <row r="76" spans="1:5" ht="15.75">
       <c r="A76" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>665</v>
       </c>
-      <c r="C76" t="s">
-        <v>951</v>
+      <c r="C76" s="12">
+        <v>1</v>
       </c>
       <c r="D76" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="16">
+    <row r="77" spans="1:5" ht="15.75">
       <c r="A77" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="C77" t="s">
-        <v>951</v>
+      <c r="C77" s="12">
+        <v>1</v>
       </c>
       <c r="D77" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="16">
+    <row r="78" spans="1:5" ht="15.75">
       <c r="A78" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>667</v>
       </c>
-      <c r="C78" t="s">
-        <v>951</v>
+      <c r="C78" s="12">
+        <v>1</v>
       </c>
       <c r="D78" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="16">
+    <row r="79" spans="1:5" ht="15.75">
       <c r="A79" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>668</v>
       </c>
-      <c r="C79" t="s">
-        <v>951</v>
+      <c r="C79" s="12">
+        <v>1</v>
       </c>
       <c r="D79" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="16">
+    <row r="80" spans="1:5" ht="15.75">
       <c r="A80" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>669</v>
       </c>
-      <c r="C80" t="s">
-        <v>951</v>
+      <c r="C80" s="12">
+        <v>1</v>
       </c>
       <c r="D80" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="16">
+    <row r="81" spans="1:4" ht="15.75">
       <c r="A81" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="C81" t="s">
-        <v>951</v>
+      <c r="C81" s="12">
+        <v>1</v>
       </c>
       <c r="D81" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="16">
+    <row r="82" spans="1:4" ht="15.75">
       <c r="A82" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>671</v>
       </c>
-      <c r="C82" t="s">
-        <v>951</v>
+      <c r="C82" s="12">
+        <v>1</v>
       </c>
       <c r="D82" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="19">
+    <row r="83" spans="1:4" ht="18.75">
       <c r="A83" s="83" t="s">
         <v>929</v>
       </c>
@@ -5077,7 +5088,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="16">
+    <row r="84" spans="1:4" ht="15.75">
       <c r="A84" s="83" t="s">
         <v>929</v>
       </c>
@@ -5085,7 +5096,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="16">
+    <row r="85" spans="1:4" ht="15.75">
       <c r="A85" s="83" t="s">
         <v>929</v>
       </c>
@@ -5093,7 +5104,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="16">
+    <row r="86" spans="1:4" ht="15.75">
       <c r="A86" s="83" t="s">
         <v>929</v>
       </c>
@@ -5101,7 +5112,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="16">
+    <row r="87" spans="1:4" ht="15.75">
       <c r="A87" s="83" t="s">
         <v>929</v>
       </c>
@@ -5109,7 +5120,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="16">
+    <row r="88" spans="1:4" ht="15.75">
       <c r="A88" s="83" t="s">
         <v>929</v>
       </c>
@@ -5117,7 +5128,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="16">
+    <row r="89" spans="1:4" ht="15.75">
       <c r="A89" s="83" t="s">
         <v>929</v>
       </c>
@@ -5125,7 +5136,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="16">
+    <row r="90" spans="1:4" ht="15.75">
       <c r="A90" s="83" t="s">
         <v>929</v>
       </c>
@@ -5133,7 +5144,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="16">
+    <row r="91" spans="1:4" ht="15.75">
       <c r="A91" s="83" t="s">
         <v>929</v>
       </c>
@@ -5141,7 +5152,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="16">
+    <row r="92" spans="1:4" ht="15.75">
       <c r="A92" s="83" t="s">
         <v>929</v>
       </c>
@@ -5149,7 +5160,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="16">
+    <row r="93" spans="1:4" ht="15.75">
       <c r="A93" s="83" t="s">
         <v>929</v>
       </c>
@@ -5157,21 +5168,21 @@
         <v>678</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="16">
+    <row r="94" spans="1:4" ht="15.75">
       <c r="A94" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>679</v>
       </c>
-      <c r="C94" t="s">
-        <v>951</v>
+      <c r="C94" s="12">
+        <v>2</v>
       </c>
       <c r="D94" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="16">
+    <row r="95" spans="1:4" ht="15.75">
       <c r="A95" s="83" t="s">
         <v>929</v>
       </c>
@@ -5179,7 +5190,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="16">
+    <row r="96" spans="1:4" ht="15.75">
       <c r="A96" s="83" t="s">
         <v>929</v>
       </c>
@@ -5187,7 +5198,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="16">
+    <row r="97" spans="1:4" ht="15.75">
       <c r="A97" s="83" t="s">
         <v>929</v>
       </c>
@@ -5195,7 +5206,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="16">
+    <row r="98" spans="1:4" ht="15.75">
       <c r="A98" s="83" t="s">
         <v>929</v>
       </c>
@@ -5203,7 +5214,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="16">
+    <row r="99" spans="1:4" ht="15.75">
       <c r="A99" s="83" t="s">
         <v>929</v>
       </c>
@@ -5211,7 +5222,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="16">
+    <row r="100" spans="1:4" ht="15.75">
       <c r="A100" s="83" t="s">
         <v>929</v>
       </c>
@@ -5219,7 +5230,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="16">
+    <row r="101" spans="1:4" ht="15.75">
       <c r="A101" s="83" t="s">
         <v>929</v>
       </c>
@@ -5227,7 +5238,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="16">
+    <row r="102" spans="1:4" ht="15.75">
       <c r="A102" s="83" t="s">
         <v>929</v>
       </c>
@@ -5235,7 +5246,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="16">
+    <row r="103" spans="1:4" ht="15.75">
       <c r="A103" s="83" t="s">
         <v>929</v>
       </c>
@@ -5243,7 +5254,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="16">
+    <row r="104" spans="1:4" ht="15.75">
       <c r="A104" s="83" t="s">
         <v>929</v>
       </c>
@@ -5251,7 +5262,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="16">
+    <row r="105" spans="1:4" ht="15.75">
       <c r="A105" s="83" t="s">
         <v>929</v>
       </c>
@@ -5259,7 +5270,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="16">
+    <row r="106" spans="1:4" ht="15.75">
       <c r="A106" s="83" t="s">
         <v>929</v>
       </c>
@@ -5267,7 +5278,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="16">
+    <row r="107" spans="1:4" ht="15.75">
       <c r="A107" s="83" t="s">
         <v>929</v>
       </c>
@@ -5275,21 +5286,21 @@
         <v>692</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="16">
+    <row r="108" spans="1:4" ht="15.75">
       <c r="A108" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>693</v>
       </c>
-      <c r="C108" t="s">
-        <v>951</v>
+      <c r="C108" s="12">
+        <v>3</v>
       </c>
       <c r="D108" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="19">
+    <row r="109" spans="1:4" ht="18.75">
       <c r="A109" s="83" t="s">
         <v>929</v>
       </c>
@@ -5297,7 +5308,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="16">
+    <row r="110" spans="1:4" ht="15.75">
       <c r="A110" s="83" t="s">
         <v>929</v>
       </c>
@@ -5305,7 +5316,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="19">
+    <row r="111" spans="1:4" ht="18.75">
       <c r="A111" s="83" t="s">
         <v>929</v>
       </c>
@@ -5313,7 +5324,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="16">
+    <row r="112" spans="1:4" ht="15.75">
       <c r="A112" s="83" t="s">
         <v>929</v>
       </c>
@@ -5321,7 +5332,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="16">
+    <row r="113" spans="1:4" ht="15.75">
       <c r="A113" s="83" t="s">
         <v>929</v>
       </c>
@@ -5329,7 +5340,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="16">
+    <row r="114" spans="1:4" ht="15.75">
       <c r="A114" s="83" t="s">
         <v>929</v>
       </c>
@@ -5337,21 +5348,21 @@
         <v>699</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="16">
+    <row r="115" spans="1:4" ht="15.75">
       <c r="A115" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>700</v>
       </c>
-      <c r="C115" t="s">
-        <v>951</v>
+      <c r="C115" s="12">
+        <v>2</v>
       </c>
       <c r="D115" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="16">
+    <row r="116" spans="1:4" ht="15.75">
       <c r="A116" s="83" t="s">
         <v>929</v>
       </c>
@@ -5359,7 +5370,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="16">
+    <row r="117" spans="1:4" ht="15.75">
       <c r="A117" s="83" t="s">
         <v>929</v>
       </c>
@@ -5367,7 +5378,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="16">
+    <row r="118" spans="1:4" ht="15.75">
       <c r="A118" s="83" t="s">
         <v>929</v>
       </c>
@@ -5375,7 +5386,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="16">
+    <row r="119" spans="1:4" ht="15.75">
       <c r="A119" s="83" t="s">
         <v>929</v>
       </c>
@@ -5383,7 +5394,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="16">
+    <row r="120" spans="1:4" ht="15.75">
       <c r="A120" s="83" t="s">
         <v>929</v>
       </c>
@@ -5391,7 +5402,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="16">
+    <row r="121" spans="1:4" ht="15.75">
       <c r="A121" s="83" t="s">
         <v>929</v>
       </c>
@@ -5399,7 +5410,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="16">
+    <row r="122" spans="1:4" ht="15.75">
       <c r="A122" s="83" t="s">
         <v>929</v>
       </c>
@@ -5407,7 +5418,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="16">
+    <row r="123" spans="1:4" ht="15.75">
       <c r="A123" s="83" t="s">
         <v>929</v>
       </c>
@@ -5415,7 +5426,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="16">
+    <row r="124" spans="1:4" ht="15.75">
       <c r="A124" s="83" t="s">
         <v>929</v>
       </c>
@@ -5423,21 +5434,21 @@
         <v>709</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="16">
+    <row r="125" spans="1:4" ht="15.75">
       <c r="A125" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>710</v>
       </c>
-      <c r="C125" t="s">
-        <v>951</v>
+      <c r="C125" s="12">
+        <v>3</v>
       </c>
       <c r="D125" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="16">
+    <row r="126" spans="1:4" ht="15.75">
       <c r="A126" s="83" t="s">
         <v>929</v>
       </c>
@@ -5445,7 +5456,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="16">
+    <row r="127" spans="1:4" ht="15.75">
       <c r="A127" s="83" t="s">
         <v>929</v>
       </c>
@@ -5453,7 +5464,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="16">
+    <row r="128" spans="1:4" ht="15.75">
       <c r="A128" s="83" t="s">
         <v>929</v>
       </c>
@@ -5461,7 +5472,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="16">
+    <row r="129" spans="1:4" ht="15.75">
       <c r="A129" s="83" t="s">
         <v>929</v>
       </c>
@@ -5469,7 +5480,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="16">
+    <row r="130" spans="1:4" ht="15.75">
       <c r="A130" s="83" t="s">
         <v>929</v>
       </c>
@@ -5477,7 +5488,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="16">
+    <row r="131" spans="1:4" ht="15.75">
       <c r="A131" s="83" t="s">
         <v>929</v>
       </c>
@@ -5485,21 +5496,21 @@
         <v>716</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="16">
+    <row r="132" spans="1:4" ht="15.75">
       <c r="A132" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="C132" t="s">
-        <v>951</v>
+      <c r="C132" s="12">
+        <v>2</v>
       </c>
       <c r="D132" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="16">
+    <row r="133" spans="1:4" ht="15.75">
       <c r="A133" s="83" t="s">
         <v>929</v>
       </c>
@@ -5507,7 +5518,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="16">
+    <row r="134" spans="1:4" ht="15.75">
       <c r="A134" s="83" t="s">
         <v>929</v>
       </c>
@@ -5515,7 +5526,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="16">
+    <row r="135" spans="1:4" ht="15.75">
       <c r="A135" s="83" t="s">
         <v>929</v>
       </c>
@@ -5523,18 +5534,15 @@
         <v>720</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="16">
+    <row r="136" spans="1:4" ht="15.75">
       <c r="A136" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B136" s="7" t="s">
         <v>721</v>
       </c>
-      <c r="C136" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="16">
+    </row>
+    <row r="137" spans="1:4" ht="15.75">
       <c r="A137" s="83" t="s">
         <v>929</v>
       </c>
@@ -5542,21 +5550,15 @@
         <v>722</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="16">
+    <row r="138" spans="1:4" ht="15.75">
       <c r="A138" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B138" s="7" t="s">
         <v>723</v>
       </c>
-      <c r="C138" t="s">
-        <v>951</v>
-      </c>
-      <c r="D138" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="16">
+    </row>
+    <row r="139" spans="1:4" ht="15.75">
       <c r="A139" s="83" t="s">
         <v>929</v>
       </c>
@@ -5564,21 +5566,21 @@
         <v>724</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="16">
+    <row r="140" spans="1:4" ht="15.75">
       <c r="A140" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B140" s="7" t="s">
         <v>725</v>
       </c>
-      <c r="C140" t="s">
-        <v>951</v>
+      <c r="C140" s="12">
+        <v>2</v>
       </c>
       <c r="D140" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="16">
+    <row r="141" spans="1:4" ht="15.75">
       <c r="A141" s="83" t="s">
         <v>929</v>
       </c>
@@ -5586,7 +5588,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="16">
+    <row r="142" spans="1:4" ht="15.75">
       <c r="A142" s="83" t="s">
         <v>929</v>
       </c>
@@ -5594,7 +5596,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="19">
+    <row r="143" spans="1:4" ht="18.75">
       <c r="A143" s="83" t="s">
         <v>929</v>
       </c>
@@ -5602,7 +5604,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="16">
+    <row r="144" spans="1:4" ht="15.75">
       <c r="A144" s="83" t="s">
         <v>929</v>
       </c>
@@ -5610,35 +5612,29 @@
         <v>729</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="16">
+    <row r="145" spans="1:5" ht="15.75">
       <c r="A145" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>730</v>
       </c>
-      <c r="C145" t="s">
-        <v>951</v>
+      <c r="C145" s="12">
+        <v>3</v>
       </c>
       <c r="D145" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="16">
+    <row r="146" spans="1:5" ht="15.75">
       <c r="A146" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B146" s="7" t="s">
         <v>731</v>
       </c>
-      <c r="C146" t="s">
-        <v>951</v>
-      </c>
-      <c r="D146" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="16">
+    </row>
+    <row r="147" spans="1:5" ht="15.75">
       <c r="A147" s="83" t="s">
         <v>929</v>
       </c>
@@ -5646,32 +5642,23 @@
         <v>732</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="16">
+    <row r="148" spans="1:5" ht="15.75">
       <c r="A148" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B148" s="7" t="s">
         <v>733</v>
       </c>
-      <c r="C148" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="16">
+    </row>
+    <row r="149" spans="1:5" ht="15.75">
       <c r="A149" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B149" s="7" t="s">
         <v>734</v>
       </c>
-      <c r="C149" t="s">
-        <v>951</v>
-      </c>
-      <c r="D149" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="16">
+    </row>
+    <row r="150" spans="1:5" ht="15.75">
       <c r="A150" s="83" t="s">
         <v>929</v>
       </c>
@@ -5679,15 +5666,15 @@
         <v>735</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="16">
+    <row r="151" spans="1:5" ht="15.75">
       <c r="A151" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B151" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="C151" t="s">
-        <v>951</v>
+      <c r="C151" s="12">
+        <v>3</v>
       </c>
       <c r="D151" t="s">
         <v>953</v>
@@ -5696,21 +5683,21 @@
         <v>954</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="16">
+    <row r="152" spans="1:5" ht="15.75">
       <c r="A152" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B152" s="7" t="s">
         <v>737</v>
       </c>
-      <c r="C152" t="s">
-        <v>951</v>
+      <c r="C152" s="12">
+        <v>2</v>
       </c>
       <c r="D152" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="16">
+    <row r="153" spans="1:5" ht="15.75">
       <c r="A153" s="83" t="s">
         <v>929</v>
       </c>
@@ -5718,15 +5705,15 @@
         <v>738</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="16">
+    <row r="154" spans="1:5" ht="15.75">
       <c r="A154" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B154" s="7" t="s">
         <v>739</v>
       </c>
-      <c r="C154" t="s">
-        <v>951</v>
+      <c r="C154" s="12">
+        <v>2</v>
       </c>
       <c r="D154" t="s">
         <v>961</v>
@@ -5735,21 +5722,21 @@
         <v>968</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="16">
+    <row r="155" spans="1:5" ht="15.75">
       <c r="A155" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B155" s="7" t="s">
         <v>740</v>
       </c>
-      <c r="C155" t="s">
-        <v>951</v>
+      <c r="C155" s="12">
+        <v>3</v>
       </c>
       <c r="D155" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="16">
+    <row r="156" spans="1:5" ht="15.75">
       <c r="A156" s="83" t="s">
         <v>929</v>
       </c>
@@ -5757,7 +5744,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="16">
+    <row r="157" spans="1:5" ht="15.75">
       <c r="A157" s="83" t="s">
         <v>929</v>
       </c>
@@ -5765,7 +5752,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="16">
+    <row r="158" spans="1:5" ht="15.75">
       <c r="A158" s="83" t="s">
         <v>929</v>
       </c>
@@ -5773,7 +5760,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="16">
+    <row r="159" spans="1:5" ht="15.75">
       <c r="A159" s="83" t="s">
         <v>929</v>
       </c>
@@ -5781,21 +5768,21 @@
         <v>744</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="16">
+    <row r="160" spans="1:5" ht="15.75">
       <c r="A160" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B160" s="7" t="s">
         <v>745</v>
       </c>
-      <c r="C160" t="s">
-        <v>951</v>
+      <c r="C160" s="12">
+        <v>3</v>
       </c>
       <c r="D160" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="16">
+    <row r="161" spans="1:4" ht="15.75">
       <c r="A161" s="83" t="s">
         <v>929</v>
       </c>
@@ -5803,7 +5790,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="16">
+    <row r="162" spans="1:4" ht="15.75">
       <c r="A162" s="83" t="s">
         <v>929</v>
       </c>
@@ -5811,77 +5798,77 @@
         <v>747</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="16">
+    <row r="163" spans="1:4" ht="15.75">
       <c r="A163" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B163" s="7" t="s">
         <v>748</v>
       </c>
-      <c r="C163" t="s">
-        <v>951</v>
+      <c r="C163" s="12">
+        <v>2</v>
       </c>
       <c r="D163" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="16">
+    <row r="164" spans="1:4" ht="15.75">
       <c r="A164" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B164" s="7" t="s">
         <v>749</v>
       </c>
-      <c r="C164" t="s">
-        <v>951</v>
+      <c r="C164" s="12">
+        <v>1</v>
       </c>
       <c r="D164" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="16">
+    <row r="165" spans="1:4" ht="15.75">
       <c r="A165" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B165" s="7" t="s">
         <v>932</v>
       </c>
-      <c r="C165" t="s">
-        <v>951</v>
+      <c r="C165" s="12">
+        <v>2</v>
       </c>
       <c r="D165" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="16">
+    <row r="166" spans="1:4" ht="15.75">
       <c r="A166" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B166" s="7" t="s">
         <v>750</v>
       </c>
-      <c r="C166" t="s">
-        <v>951</v>
+      <c r="C166" s="12">
+        <v>2</v>
       </c>
       <c r="D166" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="16">
+    <row r="167" spans="1:4" ht="15.75">
       <c r="A167" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B167" s="7" t="s">
         <v>751</v>
       </c>
-      <c r="C167" t="s">
-        <v>951</v>
+      <c r="C167" s="12">
+        <v>1</v>
       </c>
       <c r="D167" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="19">
+    <row r="168" spans="1:4" ht="18.75">
       <c r="A168" s="83" t="s">
         <v>929</v>
       </c>
@@ -5889,7 +5876,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="16">
+    <row r="169" spans="1:4" ht="15.75">
       <c r="A169" s="83" t="s">
         <v>929</v>
       </c>
@@ -5897,21 +5884,21 @@
         <v>752</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="16">
+    <row r="170" spans="1:4" ht="15.75">
       <c r="A170" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B170" s="7" t="s">
         <v>753</v>
       </c>
-      <c r="C170" t="s">
-        <v>951</v>
+      <c r="C170" s="12">
+        <v>1</v>
       </c>
       <c r="D170" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="16">
+    <row r="171" spans="1:4" ht="15.75">
       <c r="A171" s="83" t="s">
         <v>929</v>
       </c>
@@ -5919,7 +5906,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="16">
+    <row r="172" spans="1:4" ht="15.75">
       <c r="A172" s="83" t="s">
         <v>929</v>
       </c>
@@ -5927,21 +5914,21 @@
         <v>755</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="16">
+    <row r="173" spans="1:4" ht="15.75">
       <c r="A173" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B173" s="7" t="s">
         <v>756</v>
       </c>
-      <c r="C173" t="s">
-        <v>951</v>
+      <c r="C173" s="12">
+        <v>1</v>
       </c>
       <c r="D173" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="16">
+    <row r="174" spans="1:4" ht="15.75">
       <c r="A174" s="83" t="s">
         <v>929</v>
       </c>
@@ -5949,7 +5936,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="16">
+    <row r="175" spans="1:4" ht="15.75">
       <c r="A175" s="83" t="s">
         <v>929</v>
       </c>
@@ -5957,21 +5944,21 @@
         <v>758</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="16">
+    <row r="176" spans="1:4" ht="15.75">
       <c r="A176" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B176" s="7" t="s">
         <v>759</v>
       </c>
-      <c r="C176" t="s">
-        <v>951</v>
+      <c r="C176" s="12">
+        <v>1</v>
       </c>
       <c r="D176" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="16">
+    <row r="177" spans="1:5" ht="15.75">
       <c r="A177" s="83" t="s">
         <v>929</v>
       </c>
@@ -5979,7 +5966,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="16">
+    <row r="178" spans="1:5" ht="15.75">
       <c r="A178" s="83" t="s">
         <v>929</v>
       </c>
@@ -5987,7 +5974,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="16">
+    <row r="179" spans="1:5" ht="15.75">
       <c r="A179" s="83" t="s">
         <v>929</v>
       </c>
@@ -5995,7 +5982,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="16">
+    <row r="180" spans="1:5" ht="15.75">
       <c r="A180" s="83" t="s">
         <v>929</v>
       </c>
@@ -6003,21 +5990,21 @@
         <v>763</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="16">
+    <row r="181" spans="1:5" ht="15.75">
       <c r="A181" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B181" s="7" t="s">
         <v>764</v>
       </c>
-      <c r="C181" t="s">
-        <v>951</v>
+      <c r="C181" s="12">
+        <v>2</v>
       </c>
       <c r="D181" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="16">
+    <row r="182" spans="1:5" ht="15.75">
       <c r="A182" s="83" t="s">
         <v>929</v>
       </c>
@@ -6025,35 +6012,35 @@
         <v>765</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="16">
+    <row r="183" spans="1:5" ht="15.75">
       <c r="A183" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B183" s="7" t="s">
         <v>766</v>
       </c>
-      <c r="C183" t="s">
-        <v>951</v>
+      <c r="C183" s="12">
+        <v>3</v>
       </c>
       <c r="D183" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="16">
+    <row r="184" spans="1:5" ht="15.75">
       <c r="A184" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B184" s="7" t="s">
         <v>767</v>
       </c>
-      <c r="C184" t="s">
-        <v>951</v>
+      <c r="C184" s="12">
+        <v>2</v>
       </c>
       <c r="D184" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="16">
+    <row r="185" spans="1:5" ht="15.75">
       <c r="A185" s="83" t="s">
         <v>929</v>
       </c>
@@ -6061,7 +6048,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="16">
+    <row r="186" spans="1:5" ht="15.75">
       <c r="A186" s="83" t="s">
         <v>929</v>
       </c>
@@ -6069,7 +6056,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="16">
+    <row r="187" spans="1:5" ht="15.75">
       <c r="A187" s="83" t="s">
         <v>929</v>
       </c>
@@ -6077,15 +6064,15 @@
         <v>770</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="16">
+    <row r="188" spans="1:5" ht="15.75">
       <c r="A188" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B188" s="7" t="s">
         <v>771</v>
       </c>
-      <c r="C188" t="s">
-        <v>951</v>
+      <c r="C188" s="12">
+        <v>2</v>
       </c>
       <c r="D188" t="s">
         <v>969</v>
@@ -6094,15 +6081,15 @@
         <v>956</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="16">
+    <row r="189" spans="1:5" ht="15.75">
       <c r="A189" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B189" s="7" t="s">
         <v>772</v>
       </c>
-      <c r="C189" t="s">
-        <v>951</v>
+      <c r="C189" s="12">
+        <v>2</v>
       </c>
       <c r="D189" t="s">
         <v>960</v>
@@ -6111,7 +6098,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="16">
+    <row r="190" spans="1:5" ht="15.75">
       <c r="A190" s="83" t="s">
         <v>929</v>
       </c>
@@ -6119,7 +6106,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="16">
+    <row r="191" spans="1:5" ht="15.75">
       <c r="A191" s="83" t="s">
         <v>929</v>
       </c>
@@ -6127,21 +6114,21 @@
         <v>774</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="16">
+    <row r="192" spans="1:5" ht="15.75">
       <c r="A192" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B192" s="7" t="s">
         <v>775</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C192" s="12" t="s">
         <v>951</v>
       </c>
       <c r="D192" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="16">
+    <row r="193" spans="1:4" ht="15.75">
       <c r="A193" s="83" t="s">
         <v>929</v>
       </c>
@@ -6149,21 +6136,21 @@
         <v>776</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="16">
+    <row r="194" spans="1:4" ht="15.75">
       <c r="A194" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B194" s="7" t="s">
         <v>777</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C194" s="12" t="s">
         <v>951</v>
       </c>
       <c r="D194" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="16">
+    <row r="195" spans="1:4" ht="15.75">
       <c r="A195" s="83" t="s">
         <v>929</v>
       </c>
@@ -6171,7 +6158,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="16">
+    <row r="196" spans="1:4" ht="15.75">
       <c r="A196" s="83" t="s">
         <v>929</v>
       </c>
@@ -6179,21 +6166,21 @@
         <v>778</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="16">
+    <row r="197" spans="1:4" ht="15.75">
       <c r="A197" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B197" s="7" t="s">
         <v>779</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C197" s="12" t="s">
         <v>951</v>
       </c>
       <c r="D197" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="16">
+    <row r="198" spans="1:4" ht="15.75">
       <c r="A198" s="83" t="s">
         <v>929</v>
       </c>
@@ -6201,7 +6188,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="19">
+    <row r="199" spans="1:4" ht="18.75">
       <c r="A199" s="83" t="s">
         <v>929</v>
       </c>
@@ -6209,7 +6196,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="16">
+    <row r="200" spans="1:4" ht="15.75">
       <c r="A200" s="83" t="s">
         <v>929</v>
       </c>
@@ -6217,21 +6204,21 @@
         <v>782</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="16">
+    <row r="201" spans="1:4" ht="15.75">
       <c r="A201" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B201" s="88" t="s">
         <v>783</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C201" s="12" t="s">
         <v>951</v>
       </c>
       <c r="D201" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="16">
+    <row r="202" spans="1:4" ht="15.75">
       <c r="A202" s="83" t="s">
         <v>929</v>
       </c>
@@ -6239,7 +6226,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="16">
+    <row r="203" spans="1:4" ht="15.75">
       <c r="A203" s="83" t="s">
         <v>929</v>
       </c>
@@ -6247,7 +6234,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="16">
+    <row r="204" spans="1:4" ht="15.75">
       <c r="A204" s="83" t="s">
         <v>929</v>
       </c>
@@ -6255,7 +6242,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="16">
+    <row r="205" spans="1:4" ht="15.75">
       <c r="A205" s="83" t="s">
         <v>929</v>
       </c>
@@ -6263,7 +6250,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="16">
+    <row r="206" spans="1:4" ht="15.75">
       <c r="A206" s="83" t="s">
         <v>929</v>
       </c>
@@ -6271,7 +6258,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="16">
+    <row r="207" spans="1:4" ht="15.75">
       <c r="A207" s="83" t="s">
         <v>929</v>
       </c>
@@ -6279,7 +6266,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="16">
+    <row r="208" spans="1:4" ht="15.75">
       <c r="A208" s="83" t="s">
         <v>929</v>
       </c>
@@ -6287,7 +6274,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="16">
+    <row r="209" spans="1:5" ht="15.75">
       <c r="A209" s="83" t="s">
         <v>929</v>
       </c>
@@ -6295,7 +6282,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="16">
+    <row r="210" spans="1:5" ht="15.75">
       <c r="A210" s="83" t="s">
         <v>929</v>
       </c>
@@ -6308,13 +6295,13 @@
       <c r="B211" s="84" t="s">
         <v>793</v>
       </c>
-      <c r="C211" s="85">
+      <c r="C211" s="100">
         <v>0.2</v>
       </c>
       <c r="D211" s="85"/>
       <c r="E211" s="5"/>
     </row>
-    <row r="212" spans="1:5" ht="19">
+    <row r="212" spans="1:5" ht="18.75">
       <c r="A212" s="83" t="s">
         <v>589</v>
       </c>
@@ -6322,7 +6309,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="16">
+    <row r="213" spans="1:5" ht="15.75">
       <c r="A213" s="83" t="s">
         <v>589</v>
       </c>
@@ -6330,28 +6317,28 @@
         <v>795</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="16">
+    <row r="214" spans="1:5" ht="15.75">
       <c r="A214" s="83" t="s">
         <v>589</v>
       </c>
       <c r="B214" s="7" t="s">
         <v>796</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C214" s="12" t="s">
         <v>951</v>
       </c>
       <c r="D214" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="16">
+    <row r="215" spans="1:5" ht="15.75">
       <c r="A215" s="83" t="s">
         <v>589</v>
       </c>
       <c r="B215" s="7" t="s">
         <v>797</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C215" s="12" t="s">
         <v>951</v>
       </c>
       <c r="D215" t="s">
@@ -6361,21 +6348,21 @@
         <v>956</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="16">
+    <row r="216" spans="1:5" ht="15.75">
       <c r="A216" s="83" t="s">
         <v>589</v>
       </c>
       <c r="B216" s="7" t="s">
         <v>798</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C216" s="12" t="s">
         <v>951</v>
       </c>
       <c r="D216" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="16">
+    <row r="217" spans="1:5" ht="15.75">
       <c r="A217" s="83" t="s">
         <v>589</v>
       </c>
@@ -6383,7 +6370,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="16">
+    <row r="218" spans="1:5" ht="15.75">
       <c r="A218" s="83" t="s">
         <v>589</v>
       </c>
@@ -6391,14 +6378,14 @@
         <v>800</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="16">
+    <row r="219" spans="1:5" ht="15.75">
       <c r="A219" s="83" t="s">
         <v>589</v>
       </c>
       <c r="B219" s="7" t="s">
         <v>801</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C219" s="12" t="s">
         <v>951</v>
       </c>
       <c r="D219" t="s">
@@ -6408,7 +6395,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="16">
+    <row r="220" spans="1:5" ht="15.75">
       <c r="A220" s="83" t="s">
         <v>589</v>
       </c>
@@ -6416,7 +6403,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="16">
+    <row r="221" spans="1:5" ht="15.75">
       <c r="A221" s="83" t="s">
         <v>589</v>
       </c>
@@ -6424,7 +6411,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="16">
+    <row r="222" spans="1:5" ht="15.75">
       <c r="A222" s="83" t="s">
         <v>589</v>
       </c>
@@ -6432,7 +6419,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="16">
+    <row r="223" spans="1:5" ht="15.75">
       <c r="A223" s="83" t="s">
         <v>589</v>
       </c>
@@ -6440,7 +6427,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="16">
+    <row r="224" spans="1:5" ht="15.75">
       <c r="A224" s="83" t="s">
         <v>589</v>
       </c>
@@ -6448,7 +6435,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="16">
+    <row r="225" spans="1:4" ht="15.75">
       <c r="A225" s="83" t="s">
         <v>589</v>
       </c>
@@ -6456,35 +6443,35 @@
         <v>807</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="16">
+    <row r="226" spans="1:4" ht="15.75">
       <c r="A226" s="83" t="s">
         <v>589</v>
       </c>
       <c r="B226" s="7" t="s">
         <v>808</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C226" s="12" t="s">
         <v>951</v>
       </c>
       <c r="D226" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="16">
+    <row r="227" spans="1:4" ht="15.75">
       <c r="A227" s="83" t="s">
         <v>589</v>
       </c>
       <c r="B227" s="7" t="s">
         <v>809</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C227" s="12" t="s">
         <v>951</v>
       </c>
       <c r="D227" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="19">
+    <row r="228" spans="1:4" ht="18.75">
       <c r="A228" s="83" t="s">
         <v>589</v>
       </c>
@@ -6492,7 +6479,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="16">
+    <row r="229" spans="1:4" ht="15.75">
       <c r="A229" s="83" t="s">
         <v>589</v>
       </c>
@@ -6500,7 +6487,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="16">
+    <row r="230" spans="1:4" ht="15.75">
       <c r="A230" s="83" t="s">
         <v>589</v>
       </c>
@@ -6508,35 +6495,35 @@
         <v>811</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="16">
+    <row r="231" spans="1:4" ht="15.75">
       <c r="A231" s="83" t="s">
         <v>589</v>
       </c>
       <c r="B231" s="7" t="s">
         <v>812</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C231" s="12" t="s">
         <v>951</v>
       </c>
       <c r="D231" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="16">
+    <row r="232" spans="1:4" ht="15.75">
       <c r="A232" s="83" t="s">
         <v>589</v>
       </c>
       <c r="B232" s="7" t="s">
         <v>813</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C232" s="12" t="s">
         <v>951</v>
       </c>
       <c r="D232" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="19">
+    <row r="233" spans="1:4" ht="18.75">
       <c r="A233" s="83" t="s">
         <v>589</v>
       </c>
@@ -6544,7 +6531,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="16">
+    <row r="234" spans="1:4" ht="15.75">
       <c r="A234" s="83" t="s">
         <v>589</v>
       </c>
@@ -6552,7 +6539,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="16">
+    <row r="235" spans="1:4" ht="15.75">
       <c r="A235" s="83" t="s">
         <v>589</v>
       </c>
@@ -6560,7 +6547,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="16">
+    <row r="236" spans="1:4" ht="15.75">
       <c r="A236" s="83" t="s">
         <v>589</v>
       </c>
@@ -6568,7 +6555,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="16">
+    <row r="237" spans="1:4" ht="15.75">
       <c r="A237" s="83" t="s">
         <v>589</v>
       </c>
@@ -6576,7 +6563,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="16">
+    <row r="238" spans="1:4" ht="15.75">
       <c r="A238" s="83" t="s">
         <v>589</v>
       </c>
@@ -6584,7 +6571,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="16">
+    <row r="239" spans="1:4" ht="15.75">
       <c r="A239" s="83" t="s">
         <v>589</v>
       </c>
@@ -6592,7 +6579,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="16">
+    <row r="240" spans="1:4" ht="15.75">
       <c r="A240" s="83" t="s">
         <v>589</v>
       </c>
@@ -6600,7 +6587,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="16">
+    <row r="241" spans="1:5" ht="15.75">
       <c r="A241" s="83" t="s">
         <v>589</v>
       </c>
@@ -6608,7 +6595,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="16">
+    <row r="242" spans="1:5" ht="15.75">
       <c r="A242" s="83" t="s">
         <v>589</v>
       </c>
@@ -6616,7 +6603,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="16">
+    <row r="243" spans="1:5" ht="15.75">
       <c r="A243" s="83" t="s">
         <v>589</v>
       </c>
@@ -6624,7 +6611,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="16">
+    <row r="244" spans="1:5" ht="15.75">
       <c r="A244" s="83" t="s">
         <v>589</v>
       </c>
@@ -6637,13 +6624,13 @@
       <c r="B245" s="84" t="s">
         <v>826</v>
       </c>
-      <c r="C245" s="85">
+      <c r="C245" s="100">
         <v>0.05</v>
       </c>
       <c r="D245" s="85"/>
       <c r="E245" s="5"/>
     </row>
-    <row r="246" spans="1:5" ht="19">
+    <row r="246" spans="1:5" ht="18.75">
       <c r="A246" s="83" t="s">
         <v>590</v>
       </c>
@@ -6651,7 +6638,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="16">
+    <row r="247" spans="1:5" ht="15.75">
       <c r="A247" s="83" t="s">
         <v>590</v>
       </c>
@@ -6659,7 +6646,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="16">
+    <row r="248" spans="1:5" ht="15.75">
       <c r="A248" s="83" t="s">
         <v>590</v>
       </c>
@@ -6667,7 +6654,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="16">
+    <row r="249" spans="1:5" ht="15.75">
       <c r="A249" s="83" t="s">
         <v>590</v>
       </c>
@@ -6675,7 +6662,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="16">
+    <row r="250" spans="1:5" ht="15.75">
       <c r="A250" s="83" t="s">
         <v>590</v>
       </c>
@@ -6683,21 +6670,21 @@
         <v>830</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="16">
+    <row r="251" spans="1:5" ht="15.75">
       <c r="A251" s="83" t="s">
         <v>590</v>
       </c>
       <c r="B251" s="7" t="s">
         <v>831</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C251" s="12" t="s">
         <v>951</v>
       </c>
       <c r="D251" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="16">
+    <row r="252" spans="1:5" ht="15.75">
       <c r="A252" s="83" t="s">
         <v>590</v>
       </c>
@@ -6705,7 +6692,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="16">
+    <row r="253" spans="1:5" ht="15.75">
       <c r="A253" s="83" t="s">
         <v>590</v>
       </c>
@@ -6713,7 +6700,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="19">
+    <row r="254" spans="1:5" ht="18.75">
       <c r="A254" s="83" t="s">
         <v>590</v>
       </c>
@@ -6721,7 +6708,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="16">
+    <row r="255" spans="1:5" ht="15.75">
       <c r="A255" s="83" t="s">
         <v>590</v>
       </c>
@@ -6729,7 +6716,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="16">
+    <row r="256" spans="1:5" ht="15.75">
       <c r="A256" s="83" t="s">
         <v>590</v>
       </c>
@@ -6737,21 +6724,21 @@
         <v>835</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="16">
+    <row r="257" spans="1:4" ht="15.75">
       <c r="A257" s="83" t="s">
         <v>590</v>
       </c>
       <c r="B257" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C257" s="12" t="s">
         <v>951</v>
       </c>
       <c r="D257" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="16">
+    <row r="258" spans="1:4" ht="15.75">
       <c r="A258" s="83" t="s">
         <v>590</v>
       </c>
@@ -6759,7 +6746,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="16">
+    <row r="259" spans="1:4" ht="15.75">
       <c r="A259" s="83" t="s">
         <v>590</v>
       </c>
@@ -6767,7 +6754,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="16">
+    <row r="260" spans="1:4" ht="15.75">
       <c r="A260" s="83" t="s">
         <v>590</v>
       </c>
@@ -6775,7 +6762,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="16">
+    <row r="261" spans="1:4" ht="15.75">
       <c r="A261" s="83" t="s">
         <v>590</v>
       </c>
@@ -6783,21 +6770,21 @@
         <v>840</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="16">
+    <row r="262" spans="1:4" ht="15.75">
       <c r="A262" s="83" t="s">
         <v>590</v>
       </c>
       <c r="B262" s="7" t="s">
         <v>841</v>
       </c>
-      <c r="C262" t="s">
+      <c r="C262" s="12" t="s">
         <v>951</v>
       </c>
       <c r="D262" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="16">
+    <row r="263" spans="1:4" ht="15.75">
       <c r="A263" s="83" t="s">
         <v>590</v>
       </c>
@@ -6805,7 +6792,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="16">
+    <row r="264" spans="1:4" ht="15.75">
       <c r="A264" s="83" t="s">
         <v>590</v>
       </c>
@@ -6813,35 +6800,35 @@
         <v>843</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="16">
+    <row r="265" spans="1:4" ht="15.75">
       <c r="A265" s="83" t="s">
         <v>590</v>
       </c>
       <c r="B265" s="7" t="s">
         <v>844</v>
       </c>
-      <c r="C265" t="s">
+      <c r="C265" s="12" t="s">
         <v>951</v>
       </c>
       <c r="D265" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="16">
+    <row r="266" spans="1:4" ht="15.75">
       <c r="A266" s="83" t="s">
         <v>590</v>
       </c>
       <c r="B266" s="7" t="s">
         <v>845</v>
       </c>
-      <c r="C266" t="s">
+      <c r="C266" s="12" t="s">
         <v>951</v>
       </c>
       <c r="D266" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="16">
+    <row r="267" spans="1:4" ht="15.75">
       <c r="A267" s="83" t="s">
         <v>590</v>
       </c>
@@ -6849,105 +6836,105 @@
         <v>846</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="16">
+    <row r="268" spans="1:4" ht="15.75">
       <c r="A268" s="83" t="s">
         <v>590</v>
       </c>
       <c r="B268" s="7" t="s">
         <v>847</v>
       </c>
-      <c r="C268" t="s">
+      <c r="C268" s="12" t="s">
         <v>951</v>
       </c>
       <c r="D268" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="16">
+    <row r="269" spans="1:4" ht="15.75">
       <c r="A269" s="83" t="s">
         <v>590</v>
       </c>
       <c r="B269" s="7" t="s">
         <v>848</v>
       </c>
-      <c r="C269" t="s">
+      <c r="C269" s="12" t="s">
         <v>951</v>
       </c>
       <c r="D269" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="16">
+    <row r="270" spans="1:4" ht="15.75">
       <c r="A270" s="83" t="s">
         <v>590</v>
       </c>
       <c r="B270" s="7" t="s">
         <v>849</v>
       </c>
-      <c r="C270" t="s">
+      <c r="C270" s="12" t="s">
         <v>951</v>
       </c>
       <c r="D270" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="16">
+    <row r="271" spans="1:4" ht="15.75">
       <c r="A271" s="83" t="s">
         <v>590</v>
       </c>
       <c r="B271" s="7" t="s">
         <v>850</v>
       </c>
-      <c r="C271" t="s">
+      <c r="C271" s="12" t="s">
         <v>951</v>
       </c>
       <c r="D271" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="16">
+    <row r="272" spans="1:4" ht="15.75">
       <c r="A272" s="83" t="s">
         <v>590</v>
       </c>
       <c r="B272" s="7" t="s">
         <v>851</v>
       </c>
-      <c r="C272" t="s">
+      <c r="C272" s="12" t="s">
         <v>951</v>
       </c>
       <c r="D272" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="16">
+    <row r="273" spans="1:5" ht="15.75">
       <c r="A273" s="83" t="s">
         <v>590</v>
       </c>
       <c r="B273" s="7" t="s">
         <v>852</v>
       </c>
-      <c r="C273" t="s">
+      <c r="C273" s="12" t="s">
         <v>951</v>
       </c>
       <c r="D273" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="16">
+    <row r="274" spans="1:5" ht="15.75">
       <c r="A274" s="83" t="s">
         <v>590</v>
       </c>
       <c r="B274" s="7" t="s">
         <v>853</v>
       </c>
-      <c r="C274" t="s">
+      <c r="C274" s="12" t="s">
         <v>951</v>
       </c>
       <c r="D274" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="19">
+    <row r="275" spans="1:5" ht="18.75">
       <c r="A275" s="83" t="s">
         <v>590</v>
       </c>
@@ -6955,7 +6942,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="16">
+    <row r="276" spans="1:5" ht="15.75">
       <c r="A276" s="83" t="s">
         <v>590</v>
       </c>
@@ -6963,7 +6950,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="16">
+    <row r="277" spans="1:5" ht="15.75">
       <c r="A277" s="83" t="s">
         <v>590</v>
       </c>
@@ -6971,7 +6958,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="16">
+    <row r="278" spans="1:5" ht="15.75">
       <c r="A278" s="83" t="s">
         <v>590</v>
       </c>
@@ -6979,7 +6966,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="16">
+    <row r="279" spans="1:5" ht="15.75">
       <c r="A279" s="83" t="s">
         <v>590</v>
       </c>
@@ -6987,7 +6974,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="16">
+    <row r="280" spans="1:5" ht="15.75">
       <c r="A280" s="83" t="s">
         <v>590</v>
       </c>
@@ -6995,7 +6982,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="16">
+    <row r="281" spans="1:5" ht="15.75">
       <c r="A281" s="83" t="s">
         <v>590</v>
       </c>
@@ -7003,7 +6990,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="16">
+    <row r="282" spans="1:5" ht="15.75">
       <c r="A282" s="83" t="s">
         <v>590</v>
       </c>
@@ -7011,7 +6998,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="16">
+    <row r="283" spans="1:5" ht="15.75">
       <c r="A283" s="83" t="s">
         <v>590</v>
       </c>
@@ -7019,7 +7006,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="16">
+    <row r="284" spans="1:5" ht="15.75">
       <c r="A284" s="83" t="s">
         <v>590</v>
       </c>
@@ -7027,7 +7014,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="16">
+    <row r="285" spans="1:5" ht="15.75">
       <c r="A285" s="83" t="s">
         <v>590</v>
       </c>
@@ -7035,7 +7022,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="16">
+    <row r="286" spans="1:5" ht="15.75">
       <c r="A286" s="83" t="s">
         <v>590</v>
       </c>
@@ -7048,13 +7035,13 @@
       <c r="B287" s="84" t="s">
         <v>866</v>
       </c>
-      <c r="C287" s="85">
+      <c r="C287" s="100">
         <v>0.15</v>
       </c>
       <c r="D287" s="85"/>
       <c r="E287" s="5"/>
     </row>
-    <row r="288" spans="1:5" ht="19">
+    <row r="288" spans="1:5" ht="18.75">
       <c r="A288" s="83" t="s">
         <v>930</v>
       </c>
@@ -7062,7 +7049,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="16">
+    <row r="289" spans="1:4" ht="15.75">
       <c r="A289" s="83" t="s">
         <v>930</v>
       </c>
@@ -7070,7 +7057,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="16">
+    <row r="290" spans="1:4" ht="15.75">
       <c r="A290" s="83" t="s">
         <v>930</v>
       </c>
@@ -7078,7 +7065,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="16">
+    <row r="291" spans="1:4" ht="15.75">
       <c r="A291" s="83" t="s">
         <v>930</v>
       </c>
@@ -7086,7 +7073,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="16">
+    <row r="292" spans="1:4" ht="15.75">
       <c r="A292" s="83" t="s">
         <v>930</v>
       </c>
@@ -7094,7 +7081,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="16">
+    <row r="293" spans="1:4" ht="15.75">
       <c r="A293" s="83" t="s">
         <v>930</v>
       </c>
@@ -7102,7 +7089,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="16">
+    <row r="294" spans="1:4" ht="15.75">
       <c r="A294" s="83" t="s">
         <v>930</v>
       </c>
@@ -7110,7 +7097,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="16">
+    <row r="295" spans="1:4" ht="15.75">
       <c r="A295" s="83" t="s">
         <v>930</v>
       </c>
@@ -7118,21 +7105,21 @@
         <v>874</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="16">
+    <row r="296" spans="1:4" ht="15.75">
       <c r="A296" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B296" s="7" t="s">
         <v>875</v>
       </c>
-      <c r="C296" t="s">
+      <c r="C296" s="12" t="s">
         <v>951</v>
       </c>
       <c r="D296" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="16">
+    <row r="297" spans="1:4" ht="15.75">
       <c r="A297" s="83" t="s">
         <v>930</v>
       </c>
@@ -7140,7 +7127,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="19">
+    <row r="298" spans="1:4" ht="18.75">
       <c r="A298" s="83" t="s">
         <v>930</v>
       </c>
@@ -7148,7 +7135,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="16">
+    <row r="299" spans="1:4" ht="15.75">
       <c r="A299" s="83" t="s">
         <v>930</v>
       </c>
@@ -7156,21 +7143,21 @@
         <v>935</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="16">
+    <row r="300" spans="1:4" ht="15.75">
       <c r="A300" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B300" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="C300" t="s">
+      <c r="C300" s="12" t="s">
         <v>951</v>
       </c>
       <c r="D300" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="16">
+    <row r="301" spans="1:4" ht="15.75">
       <c r="A301" s="83" t="s">
         <v>930</v>
       </c>
@@ -7178,7 +7165,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="16">
+    <row r="302" spans="1:4" ht="15.75">
       <c r="A302" s="83" t="s">
         <v>930</v>
       </c>
@@ -7186,7 +7173,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="16">
+    <row r="303" spans="1:4" ht="15.75">
       <c r="A303" s="83" t="s">
         <v>930</v>
       </c>
@@ -7194,77 +7181,77 @@
         <v>881</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="16">
+    <row r="304" spans="1:4" ht="15.75">
       <c r="A304" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B304" s="7" t="s">
         <v>882</v>
       </c>
-      <c r="C304" t="s">
+      <c r="C304" s="12" t="s">
         <v>951</v>
       </c>
       <c r="D304" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="16">
+    <row r="305" spans="1:5" ht="15.75">
       <c r="A305" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B305" s="7" t="s">
         <v>883</v>
       </c>
-      <c r="C305" t="s">
+      <c r="C305" s="12" t="s">
         <v>951</v>
       </c>
       <c r="D305" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="16">
+    <row r="306" spans="1:5" ht="15.75">
       <c r="A306" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B306" s="7" t="s">
         <v>884</v>
       </c>
-      <c r="C306" t="s">
+      <c r="C306" s="12" t="s">
         <v>951</v>
       </c>
       <c r="D306" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="16">
+    <row r="307" spans="1:5" ht="15.75">
       <c r="A307" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B307" s="7" t="s">
         <v>885</v>
       </c>
-      <c r="C307" t="s">
+      <c r="C307" s="12" t="s">
         <v>951</v>
       </c>
       <c r="D307" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="16">
+    <row r="308" spans="1:5" ht="15.75">
       <c r="A308" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B308" s="7" t="s">
         <v>886</v>
       </c>
-      <c r="C308" t="s">
+      <c r="C308" s="12" t="s">
         <v>951</v>
       </c>
       <c r="D308" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="19">
+    <row r="309" spans="1:5" ht="18.75">
       <c r="A309" s="83" t="s">
         <v>930</v>
       </c>
@@ -7272,7 +7259,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="16">
+    <row r="310" spans="1:5" ht="15.75">
       <c r="A310" s="83" t="s">
         <v>930</v>
       </c>
@@ -7280,14 +7267,14 @@
         <v>888</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="16">
+    <row r="311" spans="1:5" ht="15.75">
       <c r="A311" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B311" s="7" t="s">
         <v>889</v>
       </c>
-      <c r="C311" t="s">
+      <c r="C311" s="12" t="s">
         <v>951</v>
       </c>
       <c r="D311" t="s">
@@ -7297,21 +7284,21 @@
         <v>970</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="16">
+    <row r="312" spans="1:5" ht="15.75">
       <c r="A312" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B312" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="C312" t="s">
+      <c r="C312" s="12" t="s">
         <v>951</v>
       </c>
       <c r="D312" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="16">
+    <row r="313" spans="1:5" ht="15.75">
       <c r="A313" s="83" t="s">
         <v>930</v>
       </c>
@@ -7319,7 +7306,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="16">
+    <row r="314" spans="1:5" ht="15.75">
       <c r="A314" s="83" t="s">
         <v>930</v>
       </c>
@@ -7327,7 +7314,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="16">
+    <row r="315" spans="1:5" ht="15.75">
       <c r="A315" s="83" t="s">
         <v>930</v>
       </c>
@@ -7335,7 +7322,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="16">
+    <row r="316" spans="1:5" ht="15.75">
       <c r="A316" s="83" t="s">
         <v>930</v>
       </c>
@@ -7343,7 +7330,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="16">
+    <row r="317" spans="1:5" ht="15.75">
       <c r="A317" s="83" t="s">
         <v>930</v>
       </c>
@@ -7351,7 +7338,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="16">
+    <row r="318" spans="1:5" ht="15.75">
       <c r="A318" s="83" t="s">
         <v>930</v>
       </c>
@@ -7359,7 +7346,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="16">
+    <row r="319" spans="1:5" ht="15.75">
       <c r="A319" s="83" t="s">
         <v>930</v>
       </c>
@@ -7367,7 +7354,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="16">
+    <row r="320" spans="1:5" ht="15.75">
       <c r="A320" s="83" t="s">
         <v>930</v>
       </c>
@@ -7375,7 +7362,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="16">
+    <row r="321" spans="1:5" ht="15.75">
       <c r="A321" s="83" t="s">
         <v>930</v>
       </c>
@@ -7383,7 +7370,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="16">
+    <row r="322" spans="1:5" ht="15.75">
       <c r="A322" s="83" t="s">
         <v>930</v>
       </c>
@@ -7391,7 +7378,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="16">
+    <row r="323" spans="1:5" ht="15.75">
       <c r="A323" s="83" t="s">
         <v>930</v>
       </c>
@@ -7399,35 +7386,35 @@
         <v>901</v>
       </c>
     </row>
-    <row r="324" spans="1:5" ht="16">
+    <row r="324" spans="1:5" ht="15.75">
       <c r="A324" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B324" s="7" t="s">
         <v>902</v>
       </c>
-      <c r="C324" t="s">
+      <c r="C324" s="12" t="s">
         <v>951</v>
       </c>
       <c r="D324" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="16">
+    <row r="325" spans="1:5" ht="15.75">
       <c r="A325" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B325" s="7" t="s">
         <v>903</v>
       </c>
-      <c r="C325" t="s">
+      <c r="C325" s="12" t="s">
         <v>951</v>
       </c>
       <c r="D325" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="326" spans="1:5" ht="19">
+    <row r="326" spans="1:5" ht="18.75">
       <c r="A326" s="83" t="s">
         <v>930</v>
       </c>
@@ -7435,7 +7422,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="327" spans="1:5" ht="16">
+    <row r="327" spans="1:5" ht="15.75">
       <c r="A327" s="83" t="s">
         <v>930</v>
       </c>
@@ -7443,14 +7430,14 @@
         <v>905</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="16">
+    <row r="328" spans="1:5" ht="15.75">
       <c r="A328" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B328" s="7" t="s">
         <v>906</v>
       </c>
-      <c r="C328" t="s">
+      <c r="C328" s="12" t="s">
         <v>951</v>
       </c>
       <c r="D328" t="s">
@@ -7460,7 +7447,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="329" spans="1:5" ht="16">
+    <row r="329" spans="1:5" ht="15.75">
       <c r="A329" s="83" t="s">
         <v>930</v>
       </c>
@@ -7468,7 +7455,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="16">
+    <row r="330" spans="1:5" ht="15.75">
       <c r="A330" s="83" t="s">
         <v>930</v>
       </c>
@@ -7476,21 +7463,21 @@
         <v>908</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="16">
+    <row r="331" spans="1:5" ht="15.75">
       <c r="A331" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B331" s="7" t="s">
         <v>909</v>
       </c>
-      <c r="C331" t="s">
+      <c r="C331" s="12" t="s">
         <v>951</v>
       </c>
       <c r="D331" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="16">
+    <row r="332" spans="1:5" ht="15.75">
       <c r="A332" s="83" t="s">
         <v>930</v>
       </c>
@@ -7498,49 +7485,49 @@
         <v>910</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="16">
+    <row r="333" spans="1:5" ht="15.75">
       <c r="A333" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B333" s="7" t="s">
         <v>911</v>
       </c>
-      <c r="C333" t="s">
+      <c r="C333" s="12" t="s">
         <v>951</v>
       </c>
       <c r="D333" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="16">
+    <row r="334" spans="1:5" ht="15.75">
       <c r="A334" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B334" s="7" t="s">
         <v>912</v>
       </c>
-      <c r="C334" t="s">
+      <c r="C334" s="12" t="s">
         <v>951</v>
       </c>
       <c r="D334" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="335" spans="1:5" ht="16">
+    <row r="335" spans="1:5" ht="15.75">
       <c r="A335" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B335" s="7" t="s">
         <v>913</v>
       </c>
-      <c r="C335" t="s">
+      <c r="C335" s="12" t="s">
         <v>951</v>
       </c>
       <c r="D335" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="336" spans="1:5" ht="16">
+    <row r="336" spans="1:5" ht="15.75">
       <c r="A336" s="83" t="s">
         <v>930</v>
       </c>
@@ -7548,21 +7535,21 @@
         <v>914</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="16">
+    <row r="337" spans="1:4" ht="15.75">
       <c r="A337" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B337" s="7" t="s">
         <v>915</v>
       </c>
-      <c r="C337" t="s">
+      <c r="C337" s="12" t="s">
         <v>951</v>
       </c>
       <c r="D337" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="19">
+    <row r="338" spans="1:4" ht="18.75">
       <c r="A338" s="83" t="s">
         <v>930</v>
       </c>
@@ -7570,7 +7557,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="16">
+    <row r="339" spans="1:4" ht="15.75">
       <c r="A339" s="83" t="s">
         <v>930</v>
       </c>
@@ -7578,7 +7565,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="16">
+    <row r="340" spans="1:4" ht="15.75">
       <c r="A340" s="83" t="s">
         <v>930</v>
       </c>
@@ -7586,7 +7573,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="16">
+    <row r="341" spans="1:4" ht="15.75">
       <c r="A341" s="83" t="s">
         <v>930</v>
       </c>
@@ -7594,7 +7581,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="16">
+    <row r="342" spans="1:4" ht="15.75">
       <c r="A342" s="83" t="s">
         <v>930</v>
       </c>
@@ -7602,7 +7589,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="16">
+    <row r="343" spans="1:4" ht="15.75">
       <c r="A343" s="83" t="s">
         <v>930</v>
       </c>
@@ -7610,7 +7597,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="16">
+    <row r="344" spans="1:4" ht="15.75">
       <c r="A344" s="83" t="s">
         <v>930</v>
       </c>
@@ -7618,7 +7605,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="16">
+    <row r="345" spans="1:4" ht="15.75">
       <c r="A345" s="83" t="s">
         <v>930</v>
       </c>
@@ -7626,7 +7613,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="16">
+    <row r="346" spans="1:4" ht="15.75">
       <c r="A346" s="83" t="s">
         <v>930</v>
       </c>
@@ -7634,7 +7621,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="16">
+    <row r="347" spans="1:4" ht="15.75">
       <c r="A347" s="83" t="s">
         <v>930</v>
       </c>
@@ -7642,7 +7629,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="16">
+    <row r="348" spans="1:4" ht="15.75">
       <c r="A348" s="83" t="s">
         <v>930</v>
       </c>
@@ -7650,7 +7637,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="16">
+    <row r="349" spans="1:4" ht="15.75">
       <c r="A349" s="83" t="s">
         <v>930</v>
       </c>
@@ -7710,14 +7697,14 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E73" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E73" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -7730,19 +7717,19 @@
       <selection pane="bottomRight" activeCell="B298" sqref="B298"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="91.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
-    <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="91.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="24">
+    <row r="1" spans="1:16" ht="23.25">
       <c r="A1" s="93"/>
       <c r="B1" s="93"/>
       <c r="C1" s="93"/>
@@ -7752,7 +7739,7 @@
       </c>
       <c r="F1" s="90">
         <f ca="1">(TODAY()-H1)*-1</f>
-        <v>-190</v>
+        <v>-418</v>
       </c>
       <c r="G1" s="91" t="s">
         <v>10</v>
@@ -7761,7 +7748,7 @@
         <v>43467</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17" thickBot="1">
+    <row r="2" spans="1:16" ht="16.5" thickBot="1">
       <c r="A2" s="95" t="s">
         <v>940</v>
       </c>
@@ -7799,7 +7786,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:16" ht="19">
+    <row r="4" spans="1:16" ht="18.75">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -7813,7 +7800,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:16" ht="16">
+    <row r="5" spans="1:16">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -7827,7 +7814,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:16" ht="16">
+    <row r="6" spans="1:16">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -7841,7 +7828,7 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
     </row>
-    <row r="7" spans="1:16" ht="16">
+    <row r="7" spans="1:16">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -7855,7 +7842,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:16" ht="16">
+    <row r="8" spans="1:16">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -7869,7 +7856,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:16" ht="16">
+    <row r="9" spans="1:16">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -7883,7 +7870,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:16" ht="16">
+    <row r="10" spans="1:16">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -7897,7 +7884,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:16" ht="16">
+    <row r="11" spans="1:16">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -7911,7 +7898,7 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:16" ht="16">
+    <row r="12" spans="1:16">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -7925,7 +7912,7 @@
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:16" ht="16">
+    <row r="13" spans="1:16">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -7939,7 +7926,7 @@
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:16" ht="16">
+    <row r="14" spans="1:16">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -7953,7 +7940,7 @@
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:16" ht="16">
+    <row r="15" spans="1:16">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
@@ -7967,7 +7954,7 @@
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="1:16" ht="16">
+    <row r="16" spans="1:16">
       <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
@@ -7981,7 +7968,7 @@
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="1:8" ht="16">
+    <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -7995,7 +7982,7 @@
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="1:8" ht="16">
+    <row r="18" spans="1:8">
       <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
@@ -8009,7 +7996,7 @@
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" spans="1:8" ht="16">
+    <row r="19" spans="1:8">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -8023,7 +8010,7 @@
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="1:8" ht="16">
+    <row r="20" spans="1:8">
       <c r="A20" s="4" t="s">
         <v>11</v>
       </c>
@@ -8037,7 +8024,7 @@
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
     </row>
-    <row r="21" spans="1:8" ht="16">
+    <row r="21" spans="1:8">
       <c r="A21" s="4" t="s">
         <v>11</v>
       </c>
@@ -8051,7 +8038,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="1:8" ht="16">
+    <row r="22" spans="1:8">
       <c r="A22" s="4" t="s">
         <v>11</v>
       </c>
@@ -8065,7 +8052,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="1:8" ht="16">
+    <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
@@ -8079,7 +8066,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="1:8" ht="16">
+    <row r="24" spans="1:8">
       <c r="A24" s="4" t="s">
         <v>11</v>
       </c>
@@ -8093,7 +8080,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="1:8" ht="16">
+    <row r="25" spans="1:8">
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
@@ -8107,7 +8094,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
     </row>
-    <row r="26" spans="1:8" ht="16">
+    <row r="26" spans="1:8">
       <c r="A26" s="4" t="s">
         <v>11</v>
       </c>
@@ -8121,7 +8108,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
     </row>
-    <row r="27" spans="1:8" ht="16">
+    <row r="27" spans="1:8">
       <c r="A27" s="4" t="s">
         <v>11</v>
       </c>
@@ -8135,7 +8122,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
     </row>
-    <row r="28" spans="1:8" ht="16">
+    <row r="28" spans="1:8">
       <c r="A28" s="4" t="s">
         <v>11</v>
       </c>
@@ -8149,7 +8136,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
     </row>
-    <row r="29" spans="1:8" ht="16">
+    <row r="29" spans="1:8">
       <c r="A29" s="4" t="s">
         <v>11</v>
       </c>
@@ -8163,7 +8150,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
     </row>
-    <row r="30" spans="1:8" ht="16">
+    <row r="30" spans="1:8">
       <c r="A30" s="4" t="s">
         <v>11</v>
       </c>
@@ -8177,7 +8164,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
     </row>
-    <row r="31" spans="1:8" ht="16">
+    <row r="31" spans="1:8">
       <c r="A31" s="4" t="s">
         <v>11</v>
       </c>
@@ -8191,7 +8178,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
     </row>
-    <row r="32" spans="1:8" ht="16">
+    <row r="32" spans="1:8">
       <c r="A32" s="4" t="s">
         <v>11</v>
       </c>
@@ -8205,7 +8192,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
     </row>
-    <row r="33" spans="1:8" ht="16">
+    <row r="33" spans="1:8">
       <c r="A33" s="4" t="s">
         <v>11</v>
       </c>
@@ -8219,7 +8206,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
     </row>
-    <row r="34" spans="1:8" ht="16">
+    <row r="34" spans="1:8">
       <c r="A34" s="4" t="s">
         <v>11</v>
       </c>
@@ -8233,7 +8220,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
     </row>
-    <row r="35" spans="1:8" ht="16">
+    <row r="35" spans="1:8">
       <c r="A35" s="4" t="s">
         <v>11</v>
       </c>
@@ -8247,7 +8234,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
     </row>
-    <row r="36" spans="1:8" ht="19">
+    <row r="36" spans="1:8" ht="18.75">
       <c r="A36" s="4" t="s">
         <v>11</v>
       </c>
@@ -8261,7 +8248,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
     </row>
-    <row r="37" spans="1:8" ht="16">
+    <row r="37" spans="1:8">
       <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
@@ -8275,7 +8262,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
     </row>
-    <row r="38" spans="1:8" ht="16">
+    <row r="38" spans="1:8">
       <c r="A38" s="4" t="s">
         <v>11</v>
       </c>
@@ -8289,7 +8276,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
     </row>
-    <row r="39" spans="1:8" ht="16">
+    <row r="39" spans="1:8">
       <c r="A39" s="4" t="s">
         <v>11</v>
       </c>
@@ -8303,7 +8290,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
     </row>
-    <row r="40" spans="1:8" ht="16">
+    <row r="40" spans="1:8">
       <c r="A40" s="4" t="s">
         <v>11</v>
       </c>
@@ -8317,7 +8304,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
     </row>
-    <row r="41" spans="1:8" ht="16">
+    <row r="41" spans="1:8">
       <c r="A41" s="4" t="s">
         <v>11</v>
       </c>
@@ -8331,7 +8318,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
     </row>
-    <row r="42" spans="1:8" ht="16">
+    <row r="42" spans="1:8">
       <c r="A42" s="4" t="s">
         <v>11</v>
       </c>
@@ -8345,7 +8332,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
     </row>
-    <row r="43" spans="1:8" ht="16">
+    <row r="43" spans="1:8">
       <c r="A43" s="4" t="s">
         <v>11</v>
       </c>
@@ -8359,7 +8346,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
     </row>
-    <row r="44" spans="1:8" ht="19">
+    <row r="44" spans="1:8" ht="18.75">
       <c r="A44" s="4" t="s">
         <v>11</v>
       </c>
@@ -8373,7 +8360,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
     </row>
-    <row r="45" spans="1:8" ht="16">
+    <row r="45" spans="1:8">
       <c r="A45" s="4" t="s">
         <v>11</v>
       </c>
@@ -8387,7 +8374,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
     </row>
-    <row r="46" spans="1:8" ht="16">
+    <row r="46" spans="1:8">
       <c r="A46" s="4" t="s">
         <v>11</v>
       </c>
@@ -8401,7 +8388,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
     </row>
-    <row r="47" spans="1:8" ht="16">
+    <row r="47" spans="1:8">
       <c r="A47" s="4" t="s">
         <v>11</v>
       </c>
@@ -8415,7 +8402,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
     </row>
-    <row r="48" spans="1:8" ht="16">
+    <row r="48" spans="1:8">
       <c r="A48" s="4" t="s">
         <v>11</v>
       </c>
@@ -8429,7 +8416,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
     </row>
-    <row r="49" spans="1:8" ht="16">
+    <row r="49" spans="1:8">
       <c r="A49" s="4" t="s">
         <v>11</v>
       </c>
@@ -8443,7 +8430,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
     </row>
-    <row r="50" spans="1:8" ht="16">
+    <row r="50" spans="1:8">
       <c r="A50" s="4" t="s">
         <v>11</v>
       </c>
@@ -8457,7 +8444,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
     </row>
-    <row r="51" spans="1:8" ht="16">
+    <row r="51" spans="1:8">
       <c r="A51" s="4" t="s">
         <v>11</v>
       </c>
@@ -8471,7 +8458,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
     </row>
-    <row r="52" spans="1:8" ht="16">
+    <row r="52" spans="1:8">
       <c r="A52" s="4" t="s">
         <v>11</v>
       </c>
@@ -8485,7 +8472,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
     </row>
-    <row r="53" spans="1:8" ht="16">
+    <row r="53" spans="1:8">
       <c r="A53" s="4" t="s">
         <v>11</v>
       </c>
@@ -8499,7 +8486,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
     </row>
-    <row r="54" spans="1:8" ht="16">
+    <row r="54" spans="1:8">
       <c r="A54" s="4" t="s">
         <v>11</v>
       </c>
@@ -8513,7 +8500,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
     </row>
-    <row r="55" spans="1:8" ht="16">
+    <row r="55" spans="1:8">
       <c r="A55" s="4" t="s">
         <v>11</v>
       </c>
@@ -8527,7 +8514,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
     </row>
-    <row r="56" spans="1:8" ht="16">
+    <row r="56" spans="1:8">
       <c r="A56" s="4" t="s">
         <v>11</v>
       </c>
@@ -8553,7 +8540,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
     </row>
-    <row r="58" spans="1:8" ht="19">
+    <row r="58" spans="1:8" ht="18.75">
       <c r="A58" s="4" t="s">
         <v>928</v>
       </c>
@@ -8567,7 +8554,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
     </row>
-    <row r="59" spans="1:8" ht="16">
+    <row r="59" spans="1:8">
       <c r="A59" s="4" t="s">
         <v>928</v>
       </c>
@@ -8581,7 +8568,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
     </row>
-    <row r="60" spans="1:8" ht="16">
+    <row r="60" spans="1:8">
       <c r="A60" s="4" t="s">
         <v>928</v>
       </c>
@@ -8595,7 +8582,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
     </row>
-    <row r="61" spans="1:8" ht="16">
+    <row r="61" spans="1:8">
       <c r="A61" s="4" t="s">
         <v>928</v>
       </c>
@@ -8609,7 +8596,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
     </row>
-    <row r="62" spans="1:8" ht="16">
+    <row r="62" spans="1:8">
       <c r="A62" s="4" t="s">
         <v>928</v>
       </c>
@@ -8623,7 +8610,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
     </row>
-    <row r="63" spans="1:8" ht="16">
+    <row r="63" spans="1:8">
       <c r="A63" s="4" t="s">
         <v>928</v>
       </c>
@@ -8637,7 +8624,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
     </row>
-    <row r="64" spans="1:8" ht="16">
+    <row r="64" spans="1:8">
       <c r="A64" s="4" t="s">
         <v>928</v>
       </c>
@@ -8651,7 +8638,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
     </row>
-    <row r="65" spans="1:8" ht="16">
+    <row r="65" spans="1:8">
       <c r="A65" s="4" t="s">
         <v>928</v>
       </c>
@@ -8665,7 +8652,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
     </row>
-    <row r="66" spans="1:8" ht="16">
+    <row r="66" spans="1:8">
       <c r="A66" s="4" t="s">
         <v>928</v>
       </c>
@@ -8679,7 +8666,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
     </row>
-    <row r="67" spans="1:8" ht="16">
+    <row r="67" spans="1:8">
       <c r="A67" s="4" t="s">
         <v>928</v>
       </c>
@@ -8693,7 +8680,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
     </row>
-    <row r="68" spans="1:8" ht="16">
+    <row r="68" spans="1:8">
       <c r="A68" s="4" t="s">
         <v>928</v>
       </c>
@@ -8707,7 +8694,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="11"/>
     </row>
-    <row r="69" spans="1:8" ht="16">
+    <row r="69" spans="1:8">
       <c r="A69" s="4" t="s">
         <v>928</v>
       </c>
@@ -8721,7 +8708,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
     </row>
-    <row r="70" spans="1:8" ht="16">
+    <row r="70" spans="1:8">
       <c r="A70" s="4" t="s">
         <v>928</v>
       </c>
@@ -8735,7 +8722,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
     </row>
-    <row r="71" spans="1:8" ht="16">
+    <row r="71" spans="1:8">
       <c r="A71" s="4" t="s">
         <v>928</v>
       </c>
@@ -8749,7 +8736,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="11"/>
     </row>
-    <row r="72" spans="1:8" ht="16">
+    <row r="72" spans="1:8">
       <c r="A72" s="4" t="s">
         <v>928</v>
       </c>
@@ -8763,7 +8750,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="11"/>
     </row>
-    <row r="73" spans="1:8" ht="16">
+    <row r="73" spans="1:8">
       <c r="A73" s="4" t="s">
         <v>928</v>
       </c>
@@ -8777,7 +8764,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="11"/>
     </row>
-    <row r="74" spans="1:8" ht="16">
+    <row r="74" spans="1:8">
       <c r="A74" s="4" t="s">
         <v>928</v>
       </c>
@@ -8791,7 +8778,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
     </row>
-    <row r="75" spans="1:8" ht="16">
+    <row r="75" spans="1:8">
       <c r="A75" s="4" t="s">
         <v>928</v>
       </c>
@@ -8805,7 +8792,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="11"/>
     </row>
-    <row r="76" spans="1:8" ht="16">
+    <row r="76" spans="1:8">
       <c r="A76" s="4" t="s">
         <v>928</v>
       </c>
@@ -8819,7 +8806,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="11"/>
     </row>
-    <row r="77" spans="1:8" ht="16">
+    <row r="77" spans="1:8">
       <c r="A77" s="4" t="s">
         <v>928</v>
       </c>
@@ -8833,7 +8820,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
     </row>
-    <row r="78" spans="1:8" ht="16">
+    <row r="78" spans="1:8">
       <c r="A78" s="4" t="s">
         <v>928</v>
       </c>
@@ -8847,7 +8834,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
     </row>
-    <row r="79" spans="1:8" ht="16">
+    <row r="79" spans="1:8">
       <c r="A79" s="4" t="s">
         <v>928</v>
       </c>
@@ -8861,7 +8848,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
     </row>
-    <row r="80" spans="1:8" ht="16">
+    <row r="80" spans="1:8">
       <c r="A80" s="4" t="s">
         <v>928</v>
       </c>
@@ -8875,7 +8862,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
     </row>
-    <row r="81" spans="1:8" ht="16">
+    <row r="81" spans="1:8">
       <c r="A81" s="4" t="s">
         <v>928</v>
       </c>
@@ -8889,7 +8876,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
     </row>
-    <row r="82" spans="1:8" ht="16">
+    <row r="82" spans="1:8">
       <c r="A82" s="4" t="s">
         <v>928</v>
       </c>
@@ -8903,7 +8890,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
     </row>
-    <row r="83" spans="1:8" ht="16">
+    <row r="83" spans="1:8">
       <c r="A83" s="4" t="s">
         <v>928</v>
       </c>
@@ -8917,7 +8904,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
     </row>
-    <row r="84" spans="1:8" ht="16">
+    <row r="84" spans="1:8">
       <c r="A84" s="4" t="s">
         <v>928</v>
       </c>
@@ -8931,7 +8918,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
     </row>
-    <row r="85" spans="1:8" ht="16">
+    <row r="85" spans="1:8">
       <c r="A85" s="4" t="s">
         <v>928</v>
       </c>
@@ -8945,7 +8932,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
     </row>
-    <row r="86" spans="1:8" ht="16">
+    <row r="86" spans="1:8">
       <c r="A86" s="4" t="s">
         <v>928</v>
       </c>
@@ -8959,7 +8946,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="11"/>
     </row>
-    <row r="87" spans="1:8" ht="16">
+    <row r="87" spans="1:8">
       <c r="A87" s="4" t="s">
         <v>928</v>
       </c>
@@ -8973,7 +8960,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
     </row>
-    <row r="88" spans="1:8" ht="16">
+    <row r="88" spans="1:8">
       <c r="A88" s="4" t="s">
         <v>928</v>
       </c>
@@ -8987,7 +8974,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="11"/>
     </row>
-    <row r="89" spans="1:8" ht="16">
+    <row r="89" spans="1:8">
       <c r="A89" s="4" t="s">
         <v>928</v>
       </c>
@@ -9001,7 +8988,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
     </row>
-    <row r="90" spans="1:8" ht="16">
+    <row r="90" spans="1:8">
       <c r="A90" s="4" t="s">
         <v>928</v>
       </c>
@@ -9015,7 +9002,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="11"/>
     </row>
-    <row r="91" spans="1:8" ht="16">
+    <row r="91" spans="1:8">
       <c r="A91" s="4" t="s">
         <v>928</v>
       </c>
@@ -9029,7 +9016,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="11"/>
     </row>
-    <row r="92" spans="1:8" ht="16">
+    <row r="92" spans="1:8">
       <c r="A92" s="4" t="s">
         <v>928</v>
       </c>
@@ -9043,7 +9030,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="11"/>
     </row>
-    <row r="93" spans="1:8" ht="16">
+    <row r="93" spans="1:8">
       <c r="A93" s="4" t="s">
         <v>928</v>
       </c>
@@ -9057,7 +9044,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="11"/>
     </row>
-    <row r="94" spans="1:8" ht="16">
+    <row r="94" spans="1:8">
       <c r="A94" s="4" t="s">
         <v>928</v>
       </c>
@@ -9071,7 +9058,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="11"/>
     </row>
-    <row r="95" spans="1:8" ht="16">
+    <row r="95" spans="1:8">
       <c r="A95" s="4" t="s">
         <v>928</v>
       </c>
@@ -9085,7 +9072,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="11"/>
     </row>
-    <row r="96" spans="1:8" ht="19">
+    <row r="96" spans="1:8" ht="18.75">
       <c r="A96" s="4" t="s">
         <v>928</v>
       </c>
@@ -9099,7 +9086,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="11"/>
     </row>
-    <row r="97" spans="1:8" ht="16">
+    <row r="97" spans="1:8">
       <c r="A97" s="4" t="s">
         <v>928</v>
       </c>
@@ -9113,7 +9100,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
     </row>
-    <row r="98" spans="1:8" ht="16">
+    <row r="98" spans="1:8">
       <c r="A98" s="4" t="s">
         <v>928</v>
       </c>
@@ -9127,7 +9114,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
     </row>
-    <row r="99" spans="1:8" ht="16">
+    <row r="99" spans="1:8">
       <c r="A99" s="4" t="s">
         <v>928</v>
       </c>
@@ -9141,7 +9128,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
     </row>
-    <row r="100" spans="1:8" ht="16">
+    <row r="100" spans="1:8">
       <c r="A100" s="4" t="s">
         <v>928</v>
       </c>
@@ -9155,7 +9142,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
     </row>
-    <row r="101" spans="1:8" ht="16">
+    <row r="101" spans="1:8">
       <c r="A101" s="4" t="s">
         <v>928</v>
       </c>
@@ -9169,7 +9156,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="11"/>
     </row>
-    <row r="102" spans="1:8" ht="16">
+    <row r="102" spans="1:8">
       <c r="A102" s="4" t="s">
         <v>928</v>
       </c>
@@ -9183,7 +9170,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="11"/>
     </row>
-    <row r="103" spans="1:8" ht="16">
+    <row r="103" spans="1:8">
       <c r="A103" s="4" t="s">
         <v>928</v>
       </c>
@@ -9197,7 +9184,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="11"/>
     </row>
-    <row r="104" spans="1:8" ht="16">
+    <row r="104" spans="1:8">
       <c r="A104" s="4" t="s">
         <v>928</v>
       </c>
@@ -9211,7 +9198,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="11"/>
     </row>
-    <row r="105" spans="1:8" ht="19">
+    <row r="105" spans="1:8" ht="18.75">
       <c r="A105" s="4" t="s">
         <v>928</v>
       </c>
@@ -9225,7 +9212,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="11"/>
     </row>
-    <row r="106" spans="1:8" ht="16">
+    <row r="106" spans="1:8">
       <c r="A106" s="4" t="s">
         <v>928</v>
       </c>
@@ -9239,7 +9226,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="11"/>
     </row>
-    <row r="107" spans="1:8" ht="16">
+    <row r="107" spans="1:8">
       <c r="A107" s="4" t="s">
         <v>928</v>
       </c>
@@ -9253,7 +9240,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="11"/>
     </row>
-    <row r="108" spans="1:8" ht="16">
+    <row r="108" spans="1:8">
       <c r="A108" s="4" t="s">
         <v>928</v>
       </c>
@@ -9267,7 +9254,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="11"/>
     </row>
-    <row r="109" spans="1:8" ht="16">
+    <row r="109" spans="1:8">
       <c r="A109" s="4" t="s">
         <v>928</v>
       </c>
@@ -9281,7 +9268,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="11"/>
     </row>
-    <row r="110" spans="1:8" ht="16">
+    <row r="110" spans="1:8">
       <c r="A110" s="4" t="s">
         <v>928</v>
       </c>
@@ -9295,7 +9282,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="11"/>
     </row>
-    <row r="111" spans="1:8" ht="16">
+    <row r="111" spans="1:8">
       <c r="A111" s="4" t="s">
         <v>928</v>
       </c>
@@ -9309,7 +9296,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="11"/>
     </row>
-    <row r="112" spans="1:8" ht="16">
+    <row r="112" spans="1:8">
       <c r="A112" s="4" t="s">
         <v>928</v>
       </c>
@@ -9323,7 +9310,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="11"/>
     </row>
-    <row r="113" spans="1:8" ht="16">
+    <row r="113" spans="1:8">
       <c r="A113" s="4" t="s">
         <v>928</v>
       </c>
@@ -9349,7 +9336,7 @@
       <c r="G114" s="11"/>
       <c r="H114" s="11"/>
     </row>
-    <row r="115" spans="1:8" ht="19">
+    <row r="115" spans="1:8" ht="18.75">
       <c r="A115" s="4" t="s">
         <v>929</v>
       </c>
@@ -9363,7 +9350,7 @@
       <c r="G115" s="11"/>
       <c r="H115" s="11"/>
     </row>
-    <row r="116" spans="1:8" ht="16">
+    <row r="116" spans="1:8">
       <c r="A116" s="4" t="s">
         <v>929</v>
       </c>
@@ -9377,7 +9364,7 @@
       <c r="G116" s="11"/>
       <c r="H116" s="11"/>
     </row>
-    <row r="117" spans="1:8" ht="16">
+    <row r="117" spans="1:8">
       <c r="A117" s="4" t="s">
         <v>929</v>
       </c>
@@ -9391,7 +9378,7 @@
       <c r="G117" s="11"/>
       <c r="H117" s="11"/>
     </row>
-    <row r="118" spans="1:8" ht="16">
+    <row r="118" spans="1:8">
       <c r="A118" s="4" t="s">
         <v>929</v>
       </c>
@@ -9405,7 +9392,7 @@
       <c r="G118" s="11"/>
       <c r="H118" s="11"/>
     </row>
-    <row r="119" spans="1:8" ht="16">
+    <row r="119" spans="1:8">
       <c r="A119" s="4" t="s">
         <v>929</v>
       </c>
@@ -9419,7 +9406,7 @@
       <c r="G119" s="11"/>
       <c r="H119" s="11"/>
     </row>
-    <row r="120" spans="1:8" ht="16">
+    <row r="120" spans="1:8">
       <c r="A120" s="4" t="s">
         <v>929</v>
       </c>
@@ -9433,7 +9420,7 @@
       <c r="G120" s="11"/>
       <c r="H120" s="11"/>
     </row>
-    <row r="121" spans="1:8" ht="16">
+    <row r="121" spans="1:8">
       <c r="A121" s="4" t="s">
         <v>929</v>
       </c>
@@ -9447,7 +9434,7 @@
       <c r="G121" s="11"/>
       <c r="H121" s="11"/>
     </row>
-    <row r="122" spans="1:8" ht="16">
+    <row r="122" spans="1:8">
       <c r="A122" s="4" t="s">
         <v>929</v>
       </c>
@@ -9461,7 +9448,7 @@
       <c r="G122" s="11"/>
       <c r="H122" s="11"/>
     </row>
-    <row r="123" spans="1:8" ht="16">
+    <row r="123" spans="1:8">
       <c r="A123" s="4" t="s">
         <v>929</v>
       </c>
@@ -9475,7 +9462,7 @@
       <c r="G123" s="11"/>
       <c r="H123" s="11"/>
     </row>
-    <row r="124" spans="1:8" ht="16">
+    <row r="124" spans="1:8">
       <c r="A124" s="4" t="s">
         <v>929</v>
       </c>
@@ -9489,7 +9476,7 @@
       <c r="G124" s="11"/>
       <c r="H124" s="11"/>
     </row>
-    <row r="125" spans="1:8" ht="16">
+    <row r="125" spans="1:8">
       <c r="A125" s="4" t="s">
         <v>929</v>
       </c>
@@ -9503,7 +9490,7 @@
       <c r="G125" s="11"/>
       <c r="H125" s="11"/>
     </row>
-    <row r="126" spans="1:8" ht="16">
+    <row r="126" spans="1:8">
       <c r="A126" s="4" t="s">
         <v>929</v>
       </c>
@@ -9517,7 +9504,7 @@
       <c r="G126" s="11"/>
       <c r="H126" s="11"/>
     </row>
-    <row r="127" spans="1:8" ht="16">
+    <row r="127" spans="1:8">
       <c r="A127" s="4" t="s">
         <v>929</v>
       </c>
@@ -9531,7 +9518,7 @@
       <c r="G127" s="11"/>
       <c r="H127" s="11"/>
     </row>
-    <row r="128" spans="1:8" ht="16">
+    <row r="128" spans="1:8">
       <c r="A128" s="4" t="s">
         <v>929</v>
       </c>
@@ -9545,7 +9532,7 @@
       <c r="G128" s="11"/>
       <c r="H128" s="11"/>
     </row>
-    <row r="129" spans="1:8" ht="19">
+    <row r="129" spans="1:8" ht="18.75">
       <c r="A129" s="4" t="s">
         <v>929</v>
       </c>
@@ -9559,7 +9546,7 @@
       <c r="G129" s="11"/>
       <c r="H129" s="11"/>
     </row>
-    <row r="130" spans="1:8" ht="16">
+    <row r="130" spans="1:8">
       <c r="A130" s="4" t="s">
         <v>929</v>
       </c>
@@ -9573,7 +9560,7 @@
       <c r="G130" s="11"/>
       <c r="H130" s="11"/>
     </row>
-    <row r="131" spans="1:8" ht="16">
+    <row r="131" spans="1:8">
       <c r="A131" s="4" t="s">
         <v>929</v>
       </c>
@@ -9587,7 +9574,7 @@
       <c r="G131" s="11"/>
       <c r="H131" s="11"/>
     </row>
-    <row r="132" spans="1:8" ht="16">
+    <row r="132" spans="1:8">
       <c r="A132" s="4" t="s">
         <v>929</v>
       </c>
@@ -9601,7 +9588,7 @@
       <c r="G132" s="11"/>
       <c r="H132" s="11"/>
     </row>
-    <row r="133" spans="1:8" ht="16">
+    <row r="133" spans="1:8">
       <c r="A133" s="4" t="s">
         <v>929</v>
       </c>
@@ -9615,7 +9602,7 @@
       <c r="G133" s="11"/>
       <c r="H133" s="11"/>
     </row>
-    <row r="134" spans="1:8" ht="16">
+    <row r="134" spans="1:8">
       <c r="A134" s="4" t="s">
         <v>929</v>
       </c>
@@ -9629,7 +9616,7 @@
       <c r="G134" s="11"/>
       <c r="H134" s="11"/>
     </row>
-    <row r="135" spans="1:8" ht="16">
+    <row r="135" spans="1:8">
       <c r="A135" s="4" t="s">
         <v>929</v>
       </c>
@@ -9643,7 +9630,7 @@
       <c r="G135" s="11"/>
       <c r="H135" s="11"/>
     </row>
-    <row r="136" spans="1:8" ht="16">
+    <row r="136" spans="1:8">
       <c r="A136" s="4" t="s">
         <v>929</v>
       </c>
@@ -9657,7 +9644,7 @@
       <c r="G136" s="11"/>
       <c r="H136" s="11"/>
     </row>
-    <row r="137" spans="1:8" ht="16">
+    <row r="137" spans="1:8">
       <c r="A137" s="4" t="s">
         <v>929</v>
       </c>
@@ -9671,7 +9658,7 @@
       <c r="G137" s="11"/>
       <c r="H137" s="11"/>
     </row>
-    <row r="138" spans="1:8" ht="16">
+    <row r="138" spans="1:8">
       <c r="A138" s="4" t="s">
         <v>929</v>
       </c>
@@ -9685,7 +9672,7 @@
       <c r="G138" s="11"/>
       <c r="H138" s="11"/>
     </row>
-    <row r="139" spans="1:8" ht="16">
+    <row r="139" spans="1:8">
       <c r="A139" s="4" t="s">
         <v>929</v>
       </c>
@@ -9699,7 +9686,7 @@
       <c r="G139" s="11"/>
       <c r="H139" s="11"/>
     </row>
-    <row r="140" spans="1:8" ht="16">
+    <row r="140" spans="1:8">
       <c r="A140" s="4" t="s">
         <v>929</v>
       </c>
@@ -9713,7 +9700,7 @@
       <c r="G140" s="11"/>
       <c r="H140" s="11"/>
     </row>
-    <row r="141" spans="1:8" ht="16">
+    <row r="141" spans="1:8">
       <c r="A141" s="4" t="s">
         <v>929</v>
       </c>
@@ -9727,7 +9714,7 @@
       <c r="G141" s="11"/>
       <c r="H141" s="11"/>
     </row>
-    <row r="142" spans="1:8" ht="16">
+    <row r="142" spans="1:8">
       <c r="A142" s="4" t="s">
         <v>929</v>
       </c>
@@ -9741,7 +9728,7 @@
       <c r="G142" s="11"/>
       <c r="H142" s="11"/>
     </row>
-    <row r="143" spans="1:8" ht="16">
+    <row r="143" spans="1:8">
       <c r="A143" s="4" t="s">
         <v>929</v>
       </c>
@@ -9755,7 +9742,7 @@
       <c r="G143" s="11"/>
       <c r="H143" s="11"/>
     </row>
-    <row r="144" spans="1:8" ht="16">
+    <row r="144" spans="1:8">
       <c r="A144" s="4" t="s">
         <v>929</v>
       </c>
@@ -9769,7 +9756,7 @@
       <c r="G144" s="11"/>
       <c r="H144" s="11"/>
     </row>
-    <row r="145" spans="1:8" ht="16">
+    <row r="145" spans="1:8">
       <c r="A145" s="4" t="s">
         <v>929</v>
       </c>
@@ -9783,7 +9770,7 @@
       <c r="G145" s="11"/>
       <c r="H145" s="11"/>
     </row>
-    <row r="146" spans="1:8" ht="16">
+    <row r="146" spans="1:8">
       <c r="A146" s="4" t="s">
         <v>929</v>
       </c>
@@ -9797,7 +9784,7 @@
       <c r="G146" s="11"/>
       <c r="H146" s="11"/>
     </row>
-    <row r="147" spans="1:8" ht="16">
+    <row r="147" spans="1:8">
       <c r="A147" s="4" t="s">
         <v>929</v>
       </c>
@@ -9811,7 +9798,7 @@
       <c r="G147" s="11"/>
       <c r="H147" s="11"/>
     </row>
-    <row r="148" spans="1:8" ht="16">
+    <row r="148" spans="1:8">
       <c r="A148" s="4" t="s">
         <v>929</v>
       </c>
@@ -9825,7 +9812,7 @@
       <c r="G148" s="11"/>
       <c r="H148" s="11"/>
     </row>
-    <row r="149" spans="1:8" ht="16">
+    <row r="149" spans="1:8">
       <c r="A149" s="4" t="s">
         <v>929</v>
       </c>
@@ -9839,7 +9826,7 @@
       <c r="G149" s="11"/>
       <c r="H149" s="11"/>
     </row>
-    <row r="150" spans="1:8" ht="16">
+    <row r="150" spans="1:8">
       <c r="A150" s="4" t="s">
         <v>929</v>
       </c>
@@ -9853,7 +9840,7 @@
       <c r="G150" s="11"/>
       <c r="H150" s="11"/>
     </row>
-    <row r="151" spans="1:8" ht="16">
+    <row r="151" spans="1:8">
       <c r="A151" s="4" t="s">
         <v>929</v>
       </c>
@@ -9867,7 +9854,7 @@
       <c r="G151" s="11"/>
       <c r="H151" s="11"/>
     </row>
-    <row r="152" spans="1:8" ht="16">
+    <row r="152" spans="1:8">
       <c r="A152" s="4" t="s">
         <v>929</v>
       </c>
@@ -9881,7 +9868,7 @@
       <c r="G152" s="11"/>
       <c r="H152" s="11"/>
     </row>
-    <row r="153" spans="1:8" ht="16">
+    <row r="153" spans="1:8">
       <c r="A153" s="4" t="s">
         <v>929</v>
       </c>
@@ -9895,7 +9882,7 @@
       <c r="G153" s="11"/>
       <c r="H153" s="11"/>
     </row>
-    <row r="154" spans="1:8" ht="16">
+    <row r="154" spans="1:8">
       <c r="A154" s="4" t="s">
         <v>929</v>
       </c>
@@ -9909,7 +9896,7 @@
       <c r="G154" s="11"/>
       <c r="H154" s="11"/>
     </row>
-    <row r="155" spans="1:8" ht="16">
+    <row r="155" spans="1:8">
       <c r="A155" s="4" t="s">
         <v>929</v>
       </c>
@@ -9923,7 +9910,7 @@
       <c r="G155" s="11"/>
       <c r="H155" s="11"/>
     </row>
-    <row r="156" spans="1:8" ht="16">
+    <row r="156" spans="1:8">
       <c r="A156" s="4" t="s">
         <v>929</v>
       </c>
@@ -9937,7 +9924,7 @@
       <c r="G156" s="11"/>
       <c r="H156" s="11"/>
     </row>
-    <row r="157" spans="1:8" ht="16">
+    <row r="157" spans="1:8">
       <c r="A157" s="4" t="s">
         <v>929</v>
       </c>
@@ -9951,7 +9938,7 @@
       <c r="G157" s="11"/>
       <c r="H157" s="11"/>
     </row>
-    <row r="158" spans="1:8" ht="16">
+    <row r="158" spans="1:8">
       <c r="A158" s="4" t="s">
         <v>929</v>
       </c>
@@ -9965,7 +9952,7 @@
       <c r="G158" s="11"/>
       <c r="H158" s="11"/>
     </row>
-    <row r="159" spans="1:8" ht="16">
+    <row r="159" spans="1:8">
       <c r="A159" s="4" t="s">
         <v>929</v>
       </c>
@@ -9979,7 +9966,7 @@
       <c r="G159" s="11"/>
       <c r="H159" s="11"/>
     </row>
-    <row r="160" spans="1:8" ht="16">
+    <row r="160" spans="1:8">
       <c r="A160" s="4" t="s">
         <v>929</v>
       </c>
@@ -9993,7 +9980,7 @@
       <c r="G160" s="11"/>
       <c r="H160" s="11"/>
     </row>
-    <row r="161" spans="1:8" ht="16">
+    <row r="161" spans="1:8">
       <c r="A161" s="4" t="s">
         <v>929</v>
       </c>
@@ -10007,7 +9994,7 @@
       <c r="G161" s="11"/>
       <c r="H161" s="11"/>
     </row>
-    <row r="162" spans="1:8" ht="16">
+    <row r="162" spans="1:8">
       <c r="A162" s="4" t="s">
         <v>929</v>
       </c>
@@ -10021,7 +10008,7 @@
       <c r="G162" s="11"/>
       <c r="H162" s="11"/>
     </row>
-    <row r="163" spans="1:8" ht="16">
+    <row r="163" spans="1:8">
       <c r="A163" s="4" t="s">
         <v>929</v>
       </c>
@@ -10035,7 +10022,7 @@
       <c r="G163" s="11"/>
       <c r="H163" s="11"/>
     </row>
-    <row r="164" spans="1:8" ht="16">
+    <row r="164" spans="1:8">
       <c r="A164" s="4" t="s">
         <v>929</v>
       </c>
@@ -10049,7 +10036,7 @@
       <c r="G164" s="11"/>
       <c r="H164" s="11"/>
     </row>
-    <row r="165" spans="1:8" ht="16">
+    <row r="165" spans="1:8">
       <c r="A165" s="4" t="s">
         <v>929</v>
       </c>
@@ -10063,7 +10050,7 @@
       <c r="G165" s="11"/>
       <c r="H165" s="11"/>
     </row>
-    <row r="166" spans="1:8" ht="16">
+    <row r="166" spans="1:8">
       <c r="A166" s="4" t="s">
         <v>929</v>
       </c>
@@ -10077,7 +10064,7 @@
       <c r="G166" s="11"/>
       <c r="H166" s="11"/>
     </row>
-    <row r="167" spans="1:8" ht="16">
+    <row r="167" spans="1:8">
       <c r="A167" s="4" t="s">
         <v>929</v>
       </c>
@@ -10091,7 +10078,7 @@
       <c r="G167" s="11"/>
       <c r="H167" s="11"/>
     </row>
-    <row r="168" spans="1:8" ht="16">
+    <row r="168" spans="1:8">
       <c r="A168" s="4" t="s">
         <v>929</v>
       </c>
@@ -10105,7 +10092,7 @@
       <c r="G168" s="11"/>
       <c r="H168" s="11"/>
     </row>
-    <row r="169" spans="1:8" ht="16">
+    <row r="169" spans="1:8">
       <c r="A169" s="4" t="s">
         <v>929</v>
       </c>
@@ -10119,7 +10106,7 @@
       <c r="G169" s="11"/>
       <c r="H169" s="11"/>
     </row>
-    <row r="170" spans="1:8" ht="16">
+    <row r="170" spans="1:8">
       <c r="A170" s="4" t="s">
         <v>929</v>
       </c>
@@ -10133,7 +10120,7 @@
       <c r="G170" s="11"/>
       <c r="H170" s="11"/>
     </row>
-    <row r="171" spans="1:8" ht="16">
+    <row r="171" spans="1:8">
       <c r="A171" s="4" t="s">
         <v>929</v>
       </c>
@@ -10147,7 +10134,7 @@
       <c r="G171" s="11"/>
       <c r="H171" s="11"/>
     </row>
-    <row r="172" spans="1:8" ht="19">
+    <row r="172" spans="1:8" ht="18.75">
       <c r="A172" s="4" t="s">
         <v>929</v>
       </c>
@@ -10161,7 +10148,7 @@
       <c r="G172" s="11"/>
       <c r="H172" s="11"/>
     </row>
-    <row r="173" spans="1:8" ht="16">
+    <row r="173" spans="1:8">
       <c r="A173" s="4" t="s">
         <v>929</v>
       </c>
@@ -10175,7 +10162,7 @@
       <c r="G173" s="11"/>
       <c r="H173" s="11"/>
     </row>
-    <row r="174" spans="1:8" ht="16">
+    <row r="174" spans="1:8">
       <c r="A174" s="4" t="s">
         <v>929</v>
       </c>
@@ -10189,7 +10176,7 @@
       <c r="G174" s="11"/>
       <c r="H174" s="11"/>
     </row>
-    <row r="175" spans="1:8" ht="19">
+    <row r="175" spans="1:8" ht="18.75">
       <c r="A175" s="4" t="s">
         <v>929</v>
       </c>
@@ -10203,7 +10190,7 @@
       <c r="G175" s="11"/>
       <c r="H175" s="11"/>
     </row>
-    <row r="176" spans="1:8" ht="16">
+    <row r="176" spans="1:8">
       <c r="A176" s="4" t="s">
         <v>929</v>
       </c>
@@ -10217,7 +10204,7 @@
       <c r="G176" s="11"/>
       <c r="H176" s="11"/>
     </row>
-    <row r="177" spans="1:8" ht="16">
+    <row r="177" spans="1:8">
       <c r="A177" s="4" t="s">
         <v>929</v>
       </c>
@@ -10231,7 +10218,7 @@
       <c r="G177" s="11"/>
       <c r="H177" s="11"/>
     </row>
-    <row r="178" spans="1:8" ht="16">
+    <row r="178" spans="1:8">
       <c r="A178" s="4" t="s">
         <v>929</v>
       </c>
@@ -10245,7 +10232,7 @@
       <c r="G178" s="11"/>
       <c r="H178" s="11"/>
     </row>
-    <row r="179" spans="1:8" ht="16">
+    <row r="179" spans="1:8">
       <c r="A179" s="4" t="s">
         <v>929</v>
       </c>
@@ -10259,7 +10246,7 @@
       <c r="G179" s="11"/>
       <c r="H179" s="11"/>
     </row>
-    <row r="180" spans="1:8" ht="16">
+    <row r="180" spans="1:8">
       <c r="A180" s="4" t="s">
         <v>929</v>
       </c>
@@ -10273,7 +10260,7 @@
       <c r="G180" s="11"/>
       <c r="H180" s="11"/>
     </row>
-    <row r="181" spans="1:8" ht="16">
+    <row r="181" spans="1:8">
       <c r="A181" s="4" t="s">
         <v>929</v>
       </c>
@@ -10287,7 +10274,7 @@
       <c r="G181" s="11"/>
       <c r="H181" s="11"/>
     </row>
-    <row r="182" spans="1:8" ht="16">
+    <row r="182" spans="1:8">
       <c r="A182" s="4" t="s">
         <v>929</v>
       </c>
@@ -10301,7 +10288,7 @@
       <c r="G182" s="11"/>
       <c r="H182" s="11"/>
     </row>
-    <row r="183" spans="1:8" ht="16">
+    <row r="183" spans="1:8">
       <c r="A183" s="4" t="s">
         <v>929</v>
       </c>
@@ -10315,7 +10302,7 @@
       <c r="G183" s="11"/>
       <c r="H183" s="11"/>
     </row>
-    <row r="184" spans="1:8" ht="16">
+    <row r="184" spans="1:8">
       <c r="A184" s="4" t="s">
         <v>929</v>
       </c>
@@ -10329,7 +10316,7 @@
       <c r="G184" s="11"/>
       <c r="H184" s="11"/>
     </row>
-    <row r="185" spans="1:8" ht="16">
+    <row r="185" spans="1:8">
       <c r="A185" s="4" t="s">
         <v>929</v>
       </c>
@@ -10343,7 +10330,7 @@
       <c r="G185" s="11"/>
       <c r="H185" s="11"/>
     </row>
-    <row r="186" spans="1:8" ht="16">
+    <row r="186" spans="1:8">
       <c r="A186" s="4" t="s">
         <v>929</v>
       </c>
@@ -10357,7 +10344,7 @@
       <c r="G186" s="11"/>
       <c r="H186" s="11"/>
     </row>
-    <row r="187" spans="1:8" ht="16">
+    <row r="187" spans="1:8">
       <c r="A187" s="4" t="s">
         <v>929</v>
       </c>
@@ -10371,7 +10358,7 @@
       <c r="G187" s="11"/>
       <c r="H187" s="11"/>
     </row>
-    <row r="188" spans="1:8" ht="16">
+    <row r="188" spans="1:8">
       <c r="A188" s="4" t="s">
         <v>929</v>
       </c>
@@ -10385,7 +10372,7 @@
       <c r="G188" s="11"/>
       <c r="H188" s="11"/>
     </row>
-    <row r="189" spans="1:8" ht="16">
+    <row r="189" spans="1:8">
       <c r="A189" s="4" t="s">
         <v>929</v>
       </c>
@@ -10399,7 +10386,7 @@
       <c r="G189" s="11"/>
       <c r="H189" s="11"/>
     </row>
-    <row r="190" spans="1:8" ht="16">
+    <row r="190" spans="1:8">
       <c r="A190" s="4" t="s">
         <v>929</v>
       </c>
@@ -10413,7 +10400,7 @@
       <c r="G190" s="11"/>
       <c r="H190" s="11"/>
     </row>
-    <row r="191" spans="1:8" ht="16">
+    <row r="191" spans="1:8">
       <c r="A191" s="4" t="s">
         <v>929</v>
       </c>
@@ -10427,7 +10414,7 @@
       <c r="G191" s="11"/>
       <c r="H191" s="11"/>
     </row>
-    <row r="192" spans="1:8" ht="16">
+    <row r="192" spans="1:8">
       <c r="A192" s="4" t="s">
         <v>929</v>
       </c>
@@ -10441,7 +10428,7 @@
       <c r="G192" s="11"/>
       <c r="H192" s="11"/>
     </row>
-    <row r="193" spans="1:8" ht="16">
+    <row r="193" spans="1:8">
       <c r="A193" s="4" t="s">
         <v>929</v>
       </c>
@@ -10455,7 +10442,7 @@
       <c r="G193" s="11"/>
       <c r="H193" s="11"/>
     </row>
-    <row r="194" spans="1:8" ht="16">
+    <row r="194" spans="1:8">
       <c r="A194" s="4" t="s">
         <v>929</v>
       </c>
@@ -10469,7 +10456,7 @@
       <c r="G194" s="11"/>
       <c r="H194" s="11"/>
     </row>
-    <row r="195" spans="1:8" ht="16">
+    <row r="195" spans="1:8">
       <c r="A195" s="4" t="s">
         <v>929</v>
       </c>
@@ -10483,7 +10470,7 @@
       <c r="G195" s="11"/>
       <c r="H195" s="11"/>
     </row>
-    <row r="196" spans="1:8" ht="16">
+    <row r="196" spans="1:8">
       <c r="A196" s="4" t="s">
         <v>929</v>
       </c>
@@ -10497,7 +10484,7 @@
       <c r="G196" s="11"/>
       <c r="H196" s="11"/>
     </row>
-    <row r="197" spans="1:8" ht="16">
+    <row r="197" spans="1:8">
       <c r="A197" s="4" t="s">
         <v>929</v>
       </c>
@@ -10511,7 +10498,7 @@
       <c r="G197" s="11"/>
       <c r="H197" s="11"/>
     </row>
-    <row r="198" spans="1:8" ht="16">
+    <row r="198" spans="1:8">
       <c r="A198" s="4" t="s">
         <v>929</v>
       </c>
@@ -10525,7 +10512,7 @@
       <c r="G198" s="11"/>
       <c r="H198" s="11"/>
     </row>
-    <row r="199" spans="1:8" ht="16">
+    <row r="199" spans="1:8">
       <c r="A199" s="4" t="s">
         <v>929</v>
       </c>
@@ -10539,7 +10526,7 @@
       <c r="G199" s="11"/>
       <c r="H199" s="11"/>
     </row>
-    <row r="200" spans="1:8" ht="16">
+    <row r="200" spans="1:8">
       <c r="A200" s="4" t="s">
         <v>929</v>
       </c>
@@ -10553,7 +10540,7 @@
       <c r="G200" s="11"/>
       <c r="H200" s="11"/>
     </row>
-    <row r="201" spans="1:8" ht="16">
+    <row r="201" spans="1:8">
       <c r="A201" s="4" t="s">
         <v>929</v>
       </c>
@@ -10567,7 +10554,7 @@
       <c r="G201" s="11"/>
       <c r="H201" s="11"/>
     </row>
-    <row r="202" spans="1:8" ht="16">
+    <row r="202" spans="1:8">
       <c r="A202" s="4" t="s">
         <v>929</v>
       </c>
@@ -10581,7 +10568,7 @@
       <c r="G202" s="11"/>
       <c r="H202" s="11"/>
     </row>
-    <row r="203" spans="1:8" ht="16">
+    <row r="203" spans="1:8">
       <c r="A203" s="4" t="s">
         <v>929</v>
       </c>
@@ -10595,7 +10582,7 @@
       <c r="G203" s="11"/>
       <c r="H203" s="11"/>
     </row>
-    <row r="204" spans="1:8" ht="16">
+    <row r="204" spans="1:8">
       <c r="A204" s="4" t="s">
         <v>929</v>
       </c>
@@ -10609,7 +10596,7 @@
       <c r="G204" s="11"/>
       <c r="H204" s="11"/>
     </row>
-    <row r="205" spans="1:8" ht="16">
+    <row r="205" spans="1:8">
       <c r="A205" s="4" t="s">
         <v>929</v>
       </c>
@@ -10623,7 +10610,7 @@
       <c r="G205" s="11"/>
       <c r="H205" s="11"/>
     </row>
-    <row r="206" spans="1:8" ht="16">
+    <row r="206" spans="1:8">
       <c r="A206" s="4" t="s">
         <v>929</v>
       </c>
@@ -10637,7 +10624,7 @@
       <c r="G206" s="11"/>
       <c r="H206" s="11"/>
     </row>
-    <row r="207" spans="1:8" ht="16">
+    <row r="207" spans="1:8">
       <c r="A207" s="4" t="s">
         <v>929</v>
       </c>
@@ -10651,7 +10638,7 @@
       <c r="G207" s="11"/>
       <c r="H207" s="11"/>
     </row>
-    <row r="208" spans="1:8" ht="16">
+    <row r="208" spans="1:8">
       <c r="A208" s="4" t="s">
         <v>929</v>
       </c>
@@ -10665,7 +10652,7 @@
       <c r="G208" s="11"/>
       <c r="H208" s="11"/>
     </row>
-    <row r="209" spans="1:8" ht="16">
+    <row r="209" spans="1:8">
       <c r="A209" s="4" t="s">
         <v>929</v>
       </c>
@@ -10679,7 +10666,7 @@
       <c r="G209" s="11"/>
       <c r="H209" s="11"/>
     </row>
-    <row r="210" spans="1:8" ht="19">
+    <row r="210" spans="1:8" ht="18.75">
       <c r="A210" s="4" t="s">
         <v>929</v>
       </c>
@@ -10693,7 +10680,7 @@
       <c r="G210" s="11"/>
       <c r="H210" s="11"/>
     </row>
-    <row r="211" spans="1:8" ht="16">
+    <row r="211" spans="1:8">
       <c r="A211" s="4" t="s">
         <v>929</v>
       </c>
@@ -10707,7 +10694,7 @@
       <c r="G211" s="11"/>
       <c r="H211" s="11"/>
     </row>
-    <row r="212" spans="1:8" ht="16">
+    <row r="212" spans="1:8">
       <c r="A212" s="4" t="s">
         <v>929</v>
       </c>
@@ -10721,7 +10708,7 @@
       <c r="G212" s="11"/>
       <c r="H212" s="11"/>
     </row>
-    <row r="213" spans="1:8" ht="16">
+    <row r="213" spans="1:8">
       <c r="A213" s="4" t="s">
         <v>929</v>
       </c>
@@ -10735,7 +10722,7 @@
       <c r="G213" s="11"/>
       <c r="H213" s="11"/>
     </row>
-    <row r="214" spans="1:8" ht="16">
+    <row r="214" spans="1:8">
       <c r="A214" s="4" t="s">
         <v>929</v>
       </c>
@@ -10749,7 +10736,7 @@
       <c r="G214" s="11"/>
       <c r="H214" s="11"/>
     </row>
-    <row r="215" spans="1:8" ht="16">
+    <row r="215" spans="1:8">
       <c r="A215" s="4" t="s">
         <v>929</v>
       </c>
@@ -10763,7 +10750,7 @@
       <c r="G215" s="11"/>
       <c r="H215" s="11"/>
     </row>
-    <row r="216" spans="1:8" ht="16">
+    <row r="216" spans="1:8">
       <c r="A216" s="4" t="s">
         <v>929</v>
       </c>
@@ -10777,7 +10764,7 @@
       <c r="G216" s="11"/>
       <c r="H216" s="11"/>
     </row>
-    <row r="217" spans="1:8" ht="16">
+    <row r="217" spans="1:8">
       <c r="A217" s="4" t="s">
         <v>929</v>
       </c>
@@ -10791,7 +10778,7 @@
       <c r="G217" s="11"/>
       <c r="H217" s="11"/>
     </row>
-    <row r="218" spans="1:8" ht="16">
+    <row r="218" spans="1:8">
       <c r="A218" s="4" t="s">
         <v>929</v>
       </c>
@@ -10805,7 +10792,7 @@
       <c r="G218" s="11"/>
       <c r="H218" s="11"/>
     </row>
-    <row r="219" spans="1:8" ht="16">
+    <row r="219" spans="1:8">
       <c r="A219" s="4" t="s">
         <v>929</v>
       </c>
@@ -10819,7 +10806,7 @@
       <c r="G219" s="11"/>
       <c r="H219" s="11"/>
     </row>
-    <row r="220" spans="1:8" ht="16">
+    <row r="220" spans="1:8">
       <c r="A220" s="4" t="s">
         <v>929</v>
       </c>
@@ -10833,7 +10820,7 @@
       <c r="G220" s="11"/>
       <c r="H220" s="11"/>
     </row>
-    <row r="221" spans="1:8" ht="16">
+    <row r="221" spans="1:8">
       <c r="A221" s="4" t="s">
         <v>929</v>
       </c>
@@ -10847,7 +10834,7 @@
       <c r="G221" s="11"/>
       <c r="H221" s="11"/>
     </row>
-    <row r="222" spans="1:8" ht="16">
+    <row r="222" spans="1:8">
       <c r="A222" s="4" t="s">
         <v>929</v>
       </c>
@@ -10861,7 +10848,7 @@
       <c r="G222" s="11"/>
       <c r="H222" s="11"/>
     </row>
-    <row r="223" spans="1:8" ht="16">
+    <row r="223" spans="1:8">
       <c r="A223" s="4" t="s">
         <v>929</v>
       </c>
@@ -10875,7 +10862,7 @@
       <c r="G223" s="11"/>
       <c r="H223" s="11"/>
     </row>
-    <row r="224" spans="1:8" ht="16">
+    <row r="224" spans="1:8">
       <c r="A224" s="4" t="s">
         <v>929</v>
       </c>
@@ -10889,7 +10876,7 @@
       <c r="G224" s="11"/>
       <c r="H224" s="11"/>
     </row>
-    <row r="225" spans="1:8" ht="16">
+    <row r="225" spans="1:8">
       <c r="A225" s="4" t="s">
         <v>929</v>
       </c>
@@ -10903,7 +10890,7 @@
       <c r="G225" s="11"/>
       <c r="H225" s="11"/>
     </row>
-    <row r="226" spans="1:8" ht="16">
+    <row r="226" spans="1:8">
       <c r="A226" s="4" t="s">
         <v>929</v>
       </c>
@@ -10917,7 +10904,7 @@
       <c r="G226" s="11"/>
       <c r="H226" s="11"/>
     </row>
-    <row r="227" spans="1:8" ht="16">
+    <row r="227" spans="1:8">
       <c r="A227" s="4" t="s">
         <v>929</v>
       </c>
@@ -10931,7 +10918,7 @@
       <c r="G227" s="11"/>
       <c r="H227" s="11"/>
     </row>
-    <row r="228" spans="1:8" ht="16">
+    <row r="228" spans="1:8">
       <c r="A228" s="4" t="s">
         <v>929</v>
       </c>
@@ -10945,7 +10932,7 @@
       <c r="G228" s="11"/>
       <c r="H228" s="11"/>
     </row>
-    <row r="229" spans="1:8" ht="16">
+    <row r="229" spans="1:8">
       <c r="A229" s="4" t="s">
         <v>929</v>
       </c>
@@ -10959,7 +10946,7 @@
       <c r="G229" s="11"/>
       <c r="H229" s="11"/>
     </row>
-    <row r="230" spans="1:8" ht="16">
+    <row r="230" spans="1:8">
       <c r="A230" s="4" t="s">
         <v>929</v>
       </c>
@@ -10973,7 +10960,7 @@
       <c r="G230" s="11"/>
       <c r="H230" s="11"/>
     </row>
-    <row r="231" spans="1:8" ht="16">
+    <row r="231" spans="1:8">
       <c r="A231" s="4" t="s">
         <v>929</v>
       </c>
@@ -10987,7 +10974,7 @@
       <c r="G231" s="11"/>
       <c r="H231" s="11"/>
     </row>
-    <row r="232" spans="1:8" ht="16">
+    <row r="232" spans="1:8">
       <c r="A232" s="4" t="s">
         <v>929</v>
       </c>
@@ -11001,7 +10988,7 @@
       <c r="G232" s="11"/>
       <c r="H232" s="11"/>
     </row>
-    <row r="233" spans="1:8" ht="16">
+    <row r="233" spans="1:8">
       <c r="A233" s="4" t="s">
         <v>929</v>
       </c>
@@ -11015,7 +11002,7 @@
       <c r="G233" s="11"/>
       <c r="H233" s="11"/>
     </row>
-    <row r="234" spans="1:8" ht="16">
+    <row r="234" spans="1:8">
       <c r="A234" s="4" t="s">
         <v>929</v>
       </c>
@@ -11029,7 +11016,7 @@
       <c r="G234" s="11"/>
       <c r="H234" s="11"/>
     </row>
-    <row r="235" spans="1:8" ht="19">
+    <row r="235" spans="1:8" ht="18.75">
       <c r="A235" s="4" t="s">
         <v>929</v>
       </c>
@@ -11043,7 +11030,7 @@
       <c r="G235" s="11"/>
       <c r="H235" s="11"/>
     </row>
-    <row r="236" spans="1:8" ht="16">
+    <row r="236" spans="1:8">
       <c r="A236" s="4" t="s">
         <v>929</v>
       </c>
@@ -11057,7 +11044,7 @@
       <c r="G236" s="11"/>
       <c r="H236" s="11"/>
     </row>
-    <row r="237" spans="1:8" ht="16">
+    <row r="237" spans="1:8">
       <c r="A237" s="4" t="s">
         <v>929</v>
       </c>
@@ -11071,7 +11058,7 @@
       <c r="G237" s="11"/>
       <c r="H237" s="11"/>
     </row>
-    <row r="238" spans="1:8" ht="16">
+    <row r="238" spans="1:8">
       <c r="A238" s="4" t="s">
         <v>929</v>
       </c>
@@ -11085,7 +11072,7 @@
       <c r="G238" s="11"/>
       <c r="H238" s="11"/>
     </row>
-    <row r="239" spans="1:8" ht="16">
+    <row r="239" spans="1:8">
       <c r="A239" s="4" t="s">
         <v>929</v>
       </c>
@@ -11099,7 +11086,7 @@
       <c r="G239" s="11"/>
       <c r="H239" s="11"/>
     </row>
-    <row r="240" spans="1:8" ht="16">
+    <row r="240" spans="1:8">
       <c r="A240" s="4" t="s">
         <v>929</v>
       </c>
@@ -11113,7 +11100,7 @@
       <c r="G240" s="11"/>
       <c r="H240" s="11"/>
     </row>
-    <row r="241" spans="1:8" ht="16">
+    <row r="241" spans="1:8">
       <c r="A241" s="4" t="s">
         <v>929</v>
       </c>
@@ -11127,7 +11114,7 @@
       <c r="G241" s="11"/>
       <c r="H241" s="11"/>
     </row>
-    <row r="242" spans="1:8" ht="16">
+    <row r="242" spans="1:8">
       <c r="A242" s="4" t="s">
         <v>929</v>
       </c>
@@ -11141,7 +11128,7 @@
       <c r="G242" s="11"/>
       <c r="H242" s="11"/>
     </row>
-    <row r="243" spans="1:8" ht="16">
+    <row r="243" spans="1:8">
       <c r="A243" s="4" t="s">
         <v>929</v>
       </c>
@@ -11155,7 +11142,7 @@
       <c r="G243" s="11"/>
       <c r="H243" s="11"/>
     </row>
-    <row r="244" spans="1:8" ht="16">
+    <row r="244" spans="1:8">
       <c r="A244" s="4" t="s">
         <v>929</v>
       </c>
@@ -11169,7 +11156,7 @@
       <c r="G244" s="11"/>
       <c r="H244" s="11"/>
     </row>
-    <row r="245" spans="1:8" ht="16">
+    <row r="245" spans="1:8">
       <c r="A245" s="4" t="s">
         <v>929</v>
       </c>
@@ -11183,7 +11170,7 @@
       <c r="G245" s="11"/>
       <c r="H245" s="11"/>
     </row>
-    <row r="246" spans="1:8" ht="16">
+    <row r="246" spans="1:8">
       <c r="A246" s="4" t="s">
         <v>929</v>
       </c>
@@ -11197,7 +11184,7 @@
       <c r="G246" s="11"/>
       <c r="H246" s="11"/>
     </row>
-    <row r="247" spans="1:8" ht="16">
+    <row r="247" spans="1:8">
       <c r="A247" s="4" t="s">
         <v>929</v>
       </c>
@@ -11211,7 +11198,7 @@
       <c r="G247" s="11"/>
       <c r="H247" s="11"/>
     </row>
-    <row r="248" spans="1:8" ht="16">
+    <row r="248" spans="1:8">
       <c r="A248" s="4" t="s">
         <v>929</v>
       </c>
@@ -11225,7 +11212,7 @@
       <c r="G248" s="11"/>
       <c r="H248" s="11"/>
     </row>
-    <row r="249" spans="1:8" ht="16">
+    <row r="249" spans="1:8">
       <c r="A249" s="4" t="s">
         <v>929</v>
       </c>
@@ -11239,7 +11226,7 @@
       <c r="G249" s="11"/>
       <c r="H249" s="11"/>
     </row>
-    <row r="250" spans="1:8" ht="16">
+    <row r="250" spans="1:8">
       <c r="A250" s="4" t="s">
         <v>929</v>
       </c>
@@ -11253,7 +11240,7 @@
       <c r="G250" s="11"/>
       <c r="H250" s="11"/>
     </row>
-    <row r="251" spans="1:8" ht="16">
+    <row r="251" spans="1:8">
       <c r="A251" s="4" t="s">
         <v>929</v>
       </c>
@@ -11267,7 +11254,7 @@
       <c r="G251" s="11"/>
       <c r="H251" s="11"/>
     </row>
-    <row r="252" spans="1:8" ht="16">
+    <row r="252" spans="1:8">
       <c r="A252" s="4" t="s">
         <v>929</v>
       </c>
@@ -11281,7 +11268,7 @@
       <c r="G252" s="11"/>
       <c r="H252" s="11"/>
     </row>
-    <row r="253" spans="1:8" ht="16">
+    <row r="253" spans="1:8">
       <c r="A253" s="4" t="s">
         <v>929</v>
       </c>
@@ -11295,7 +11282,7 @@
       <c r="G253" s="11"/>
       <c r="H253" s="11"/>
     </row>
-    <row r="254" spans="1:8" ht="16">
+    <row r="254" spans="1:8">
       <c r="A254" s="4" t="s">
         <v>929</v>
       </c>
@@ -11309,7 +11296,7 @@
       <c r="G254" s="11"/>
       <c r="H254" s="11"/>
     </row>
-    <row r="255" spans="1:8" ht="16">
+    <row r="255" spans="1:8">
       <c r="A255" s="4" t="s">
         <v>929</v>
       </c>
@@ -11323,7 +11310,7 @@
       <c r="G255" s="11"/>
       <c r="H255" s="11"/>
     </row>
-    <row r="256" spans="1:8" ht="16">
+    <row r="256" spans="1:8">
       <c r="A256" s="4" t="s">
         <v>929</v>
       </c>
@@ -11337,7 +11324,7 @@
       <c r="G256" s="11"/>
       <c r="H256" s="11"/>
     </row>
-    <row r="257" spans="1:8" ht="16">
+    <row r="257" spans="1:8">
       <c r="A257" s="4" t="s">
         <v>929</v>
       </c>
@@ -11351,7 +11338,7 @@
       <c r="G257" s="11"/>
       <c r="H257" s="11"/>
     </row>
-    <row r="258" spans="1:8" ht="16">
+    <row r="258" spans="1:8">
       <c r="A258" s="4" t="s">
         <v>929</v>
       </c>
@@ -11365,7 +11352,7 @@
       <c r="G258" s="11"/>
       <c r="H258" s="11"/>
     </row>
-    <row r="259" spans="1:8" ht="16">
+    <row r="259" spans="1:8">
       <c r="A259" s="4" t="s">
         <v>929</v>
       </c>
@@ -11379,7 +11366,7 @@
       <c r="G259" s="11"/>
       <c r="H259" s="11"/>
     </row>
-    <row r="260" spans="1:8" ht="16">
+    <row r="260" spans="1:8">
       <c r="A260" s="4" t="s">
         <v>929</v>
       </c>
@@ -11393,7 +11380,7 @@
       <c r="G260" s="11"/>
       <c r="H260" s="11"/>
     </row>
-    <row r="261" spans="1:8" ht="16">
+    <row r="261" spans="1:8">
       <c r="A261" s="4" t="s">
         <v>929</v>
       </c>
@@ -11407,7 +11394,7 @@
       <c r="G261" s="11"/>
       <c r="H261" s="11"/>
     </row>
-    <row r="262" spans="1:8" ht="16">
+    <row r="262" spans="1:8">
       <c r="A262" s="4" t="s">
         <v>929</v>
       </c>
@@ -11421,7 +11408,7 @@
       <c r="G262" s="11"/>
       <c r="H262" s="11"/>
     </row>
-    <row r="263" spans="1:8" ht="16">
+    <row r="263" spans="1:8">
       <c r="A263" s="4" t="s">
         <v>929</v>
       </c>
@@ -11435,7 +11422,7 @@
       <c r="G263" s="11"/>
       <c r="H263" s="11"/>
     </row>
-    <row r="264" spans="1:8" ht="16">
+    <row r="264" spans="1:8">
       <c r="A264" s="4" t="s">
         <v>929</v>
       </c>
@@ -11449,7 +11436,7 @@
       <c r="G264" s="11"/>
       <c r="H264" s="11"/>
     </row>
-    <row r="265" spans="1:8" ht="16">
+    <row r="265" spans="1:8">
       <c r="A265" s="4" t="s">
         <v>929</v>
       </c>
@@ -11463,7 +11450,7 @@
       <c r="G265" s="11"/>
       <c r="H265" s="11"/>
     </row>
-    <row r="266" spans="1:8" ht="16">
+    <row r="266" spans="1:8">
       <c r="A266" s="4" t="s">
         <v>929</v>
       </c>
@@ -11477,7 +11464,7 @@
       <c r="G266" s="11"/>
       <c r="H266" s="11"/>
     </row>
-    <row r="267" spans="1:8" ht="16">
+    <row r="267" spans="1:8">
       <c r="A267" s="4" t="s">
         <v>929</v>
       </c>
@@ -11491,7 +11478,7 @@
       <c r="G267" s="11"/>
       <c r="H267" s="11"/>
     </row>
-    <row r="268" spans="1:8" ht="16">
+    <row r="268" spans="1:8">
       <c r="A268" s="4" t="s">
         <v>929</v>
       </c>
@@ -11505,7 +11492,7 @@
       <c r="G268" s="11"/>
       <c r="H268" s="11"/>
     </row>
-    <row r="269" spans="1:8" ht="16">
+    <row r="269" spans="1:8">
       <c r="A269" s="4" t="s">
         <v>929</v>
       </c>
@@ -11519,7 +11506,7 @@
       <c r="G269" s="11"/>
       <c r="H269" s="11"/>
     </row>
-    <row r="270" spans="1:8" ht="19">
+    <row r="270" spans="1:8" ht="18.75">
       <c r="A270" s="4" t="s">
         <v>929</v>
       </c>
@@ -11533,7 +11520,7 @@
       <c r="G270" s="11"/>
       <c r="H270" s="11"/>
     </row>
-    <row r="271" spans="1:8" ht="16">
+    <row r="271" spans="1:8">
       <c r="A271" s="4" t="s">
         <v>929</v>
       </c>
@@ -11547,7 +11534,7 @@
       <c r="G271" s="11"/>
       <c r="H271" s="11"/>
     </row>
-    <row r="272" spans="1:8" ht="16">
+    <row r="272" spans="1:8">
       <c r="A272" s="4" t="s">
         <v>929</v>
       </c>
@@ -11561,7 +11548,7 @@
       <c r="G272" s="11"/>
       <c r="H272" s="11"/>
     </row>
-    <row r="273" spans="1:8" ht="16">
+    <row r="273" spans="1:8">
       <c r="A273" s="4" t="s">
         <v>929</v>
       </c>
@@ -11575,7 +11562,7 @@
       <c r="G273" s="11"/>
       <c r="H273" s="11"/>
     </row>
-    <row r="274" spans="1:8" ht="16">
+    <row r="274" spans="1:8">
       <c r="A274" s="4" t="s">
         <v>929</v>
       </c>
@@ -11589,7 +11576,7 @@
       <c r="G274" s="11"/>
       <c r="H274" s="11"/>
     </row>
-    <row r="275" spans="1:8" ht="16">
+    <row r="275" spans="1:8">
       <c r="A275" s="4" t="s">
         <v>929</v>
       </c>
@@ -11603,7 +11590,7 @@
       <c r="G275" s="11"/>
       <c r="H275" s="11"/>
     </row>
-    <row r="276" spans="1:8" ht="16">
+    <row r="276" spans="1:8">
       <c r="A276" s="4" t="s">
         <v>929</v>
       </c>
@@ -11617,7 +11604,7 @@
       <c r="G276" s="11"/>
       <c r="H276" s="11"/>
     </row>
-    <row r="277" spans="1:8" ht="16">
+    <row r="277" spans="1:8">
       <c r="A277" s="4" t="s">
         <v>929</v>
       </c>
@@ -11631,7 +11618,7 @@
       <c r="G277" s="11"/>
       <c r="H277" s="11"/>
     </row>
-    <row r="278" spans="1:8" ht="16">
+    <row r="278" spans="1:8">
       <c r="A278" s="4" t="s">
         <v>929</v>
       </c>
@@ -11645,7 +11632,7 @@
       <c r="G278" s="11"/>
       <c r="H278" s="11"/>
     </row>
-    <row r="279" spans="1:8" ht="16">
+    <row r="279" spans="1:8">
       <c r="A279" s="4" t="s">
         <v>929</v>
       </c>
@@ -11671,7 +11658,7 @@
       <c r="G280" s="11"/>
       <c r="H280" s="11"/>
     </row>
-    <row r="281" spans="1:8" ht="19">
+    <row r="281" spans="1:8" ht="18.75">
       <c r="A281" s="4" t="s">
         <v>936</v>
       </c>
@@ -11685,7 +11672,7 @@
       <c r="G281" s="11"/>
       <c r="H281" s="11"/>
     </row>
-    <row r="282" spans="1:8" ht="16">
+    <row r="282" spans="1:8">
       <c r="A282" s="4" t="s">
         <v>936</v>
       </c>
@@ -11699,7 +11686,7 @@
       <c r="G282" s="11"/>
       <c r="H282" s="11"/>
     </row>
-    <row r="283" spans="1:8" ht="16">
+    <row r="283" spans="1:8">
       <c r="A283" s="4" t="s">
         <v>936</v>
       </c>
@@ -11713,7 +11700,7 @@
       <c r="G283" s="11"/>
       <c r="H283" s="11"/>
     </row>
-    <row r="284" spans="1:8" ht="16">
+    <row r="284" spans="1:8">
       <c r="A284" s="4" t="s">
         <v>936</v>
       </c>
@@ -11727,7 +11714,7 @@
       <c r="G284" s="11"/>
       <c r="H284" s="11"/>
     </row>
-    <row r="285" spans="1:8" ht="16">
+    <row r="285" spans="1:8">
       <c r="A285" s="4" t="s">
         <v>936</v>
       </c>
@@ -11741,7 +11728,7 @@
       <c r="G285" s="11"/>
       <c r="H285" s="11"/>
     </row>
-    <row r="286" spans="1:8" ht="16">
+    <row r="286" spans="1:8">
       <c r="A286" s="4" t="s">
         <v>936</v>
       </c>
@@ -11755,7 +11742,7 @@
       <c r="G286" s="11"/>
       <c r="H286" s="11"/>
     </row>
-    <row r="287" spans="1:8" ht="16">
+    <row r="287" spans="1:8">
       <c r="A287" s="4" t="s">
         <v>936</v>
       </c>
@@ -11769,7 +11756,7 @@
       <c r="G287" s="11"/>
       <c r="H287" s="11"/>
     </row>
-    <row r="288" spans="1:8" ht="16">
+    <row r="288" spans="1:8">
       <c r="A288" s="4" t="s">
         <v>936</v>
       </c>
@@ -11783,7 +11770,7 @@
       <c r="G288" s="11"/>
       <c r="H288" s="11"/>
     </row>
-    <row r="289" spans="1:8" ht="16">
+    <row r="289" spans="1:8">
       <c r="A289" s="4" t="s">
         <v>936</v>
       </c>
@@ -11797,7 +11784,7 @@
       <c r="G289" s="11"/>
       <c r="H289" s="11"/>
     </row>
-    <row r="290" spans="1:8" ht="16">
+    <row r="290" spans="1:8">
       <c r="A290" s="4" t="s">
         <v>936</v>
       </c>
@@ -11811,7 +11798,7 @@
       <c r="G290" s="11"/>
       <c r="H290" s="11"/>
     </row>
-    <row r="291" spans="1:8" ht="16">
+    <row r="291" spans="1:8">
       <c r="A291" s="4" t="s">
         <v>936</v>
       </c>
@@ -11825,7 +11812,7 @@
       <c r="G291" s="11"/>
       <c r="H291" s="11"/>
     </row>
-    <row r="292" spans="1:8" ht="16">
+    <row r="292" spans="1:8">
       <c r="A292" s="4" t="s">
         <v>936</v>
       </c>
@@ -11839,7 +11826,7 @@
       <c r="G292" s="11"/>
       <c r="H292" s="11"/>
     </row>
-    <row r="293" spans="1:8" ht="16">
+    <row r="293" spans="1:8">
       <c r="A293" s="4" t="s">
         <v>936</v>
       </c>
@@ -11853,7 +11840,7 @@
       <c r="G293" s="11"/>
       <c r="H293" s="11"/>
     </row>
-    <row r="294" spans="1:8" ht="16">
+    <row r="294" spans="1:8">
       <c r="A294" s="4" t="s">
         <v>936</v>
       </c>
@@ -11867,7 +11854,7 @@
       <c r="G294" s="11"/>
       <c r="H294" s="11"/>
     </row>
-    <row r="295" spans="1:8" ht="16">
+    <row r="295" spans="1:8">
       <c r="A295" s="4" t="s">
         <v>936</v>
       </c>
@@ -11881,7 +11868,7 @@
       <c r="G295" s="11"/>
       <c r="H295" s="11"/>
     </row>
-    <row r="296" spans="1:8" ht="16">
+    <row r="296" spans="1:8">
       <c r="A296" s="4" t="s">
         <v>936</v>
       </c>
@@ -11895,7 +11882,7 @@
       <c r="G296" s="11"/>
       <c r="H296" s="11"/>
     </row>
-    <row r="297" spans="1:8" ht="16">
+    <row r="297" spans="1:8">
       <c r="A297" s="4" t="s">
         <v>936</v>
       </c>
@@ -11909,7 +11896,7 @@
       <c r="G297" s="11"/>
       <c r="H297" s="11"/>
     </row>
-    <row r="298" spans="1:8" ht="16">
+    <row r="298" spans="1:8">
       <c r="A298" s="4" t="s">
         <v>936</v>
       </c>
@@ -11923,7 +11910,7 @@
       <c r="G298" s="11"/>
       <c r="H298" s="11"/>
     </row>
-    <row r="299" spans="1:8" ht="16">
+    <row r="299" spans="1:8">
       <c r="A299" s="4" t="s">
         <v>936</v>
       </c>
@@ -11937,7 +11924,7 @@
       <c r="G299" s="11"/>
       <c r="H299" s="11"/>
     </row>
-    <row r="300" spans="1:8" ht="16">
+    <row r="300" spans="1:8">
       <c r="A300" s="4" t="s">
         <v>936</v>
       </c>
@@ -11951,7 +11938,7 @@
       <c r="G300" s="11"/>
       <c r="H300" s="11"/>
     </row>
-    <row r="301" spans="1:8" ht="16">
+    <row r="301" spans="1:8">
       <c r="A301" s="4" t="s">
         <v>936</v>
       </c>
@@ -11965,7 +11952,7 @@
       <c r="G301" s="11"/>
       <c r="H301" s="11"/>
     </row>
-    <row r="302" spans="1:8" ht="16">
+    <row r="302" spans="1:8">
       <c r="A302" s="4" t="s">
         <v>936</v>
       </c>
@@ -11979,7 +11966,7 @@
       <c r="G302" s="11"/>
       <c r="H302" s="11"/>
     </row>
-    <row r="303" spans="1:8" ht="16">
+    <row r="303" spans="1:8">
       <c r="A303" s="4" t="s">
         <v>936</v>
       </c>
@@ -11993,7 +11980,7 @@
       <c r="G303" s="11"/>
       <c r="H303" s="11"/>
     </row>
-    <row r="304" spans="1:8" ht="16">
+    <row r="304" spans="1:8">
       <c r="A304" s="4" t="s">
         <v>936</v>
       </c>
@@ -12007,7 +11994,7 @@
       <c r="G304" s="11"/>
       <c r="H304" s="11"/>
     </row>
-    <row r="305" spans="1:8" ht="16">
+    <row r="305" spans="1:8">
       <c r="A305" s="4" t="s">
         <v>936</v>
       </c>
@@ -12021,7 +12008,7 @@
       <c r="G305" s="11"/>
       <c r="H305" s="11"/>
     </row>
-    <row r="306" spans="1:8" ht="16">
+    <row r="306" spans="1:8">
       <c r="A306" s="4" t="s">
         <v>936</v>
       </c>
@@ -12035,7 +12022,7 @@
       <c r="G306" s="11"/>
       <c r="H306" s="11"/>
     </row>
-    <row r="307" spans="1:8" ht="16">
+    <row r="307" spans="1:8">
       <c r="A307" s="4" t="s">
         <v>936</v>
       </c>
@@ -12049,7 +12036,7 @@
       <c r="G307" s="11"/>
       <c r="H307" s="11"/>
     </row>
-    <row r="308" spans="1:8" ht="16">
+    <row r="308" spans="1:8">
       <c r="A308" s="4" t="s">
         <v>936</v>
       </c>
@@ -12063,7 +12050,7 @@
       <c r="G308" s="11"/>
       <c r="H308" s="11"/>
     </row>
-    <row r="309" spans="1:8" ht="19">
+    <row r="309" spans="1:8" ht="18.75">
       <c r="A309" s="4" t="s">
         <v>936</v>
       </c>
@@ -12077,7 +12064,7 @@
       <c r="G309" s="11"/>
       <c r="H309" s="11"/>
     </row>
-    <row r="310" spans="1:8" ht="16">
+    <row r="310" spans="1:8">
       <c r="A310" s="4" t="s">
         <v>936</v>
       </c>
@@ -12091,7 +12078,7 @@
       <c r="G310" s="11"/>
       <c r="H310" s="11"/>
     </row>
-    <row r="311" spans="1:8" ht="16">
+    <row r="311" spans="1:8">
       <c r="A311" s="4" t="s">
         <v>936</v>
       </c>
@@ -12105,7 +12092,7 @@
       <c r="G311" s="11"/>
       <c r="H311" s="11"/>
     </row>
-    <row r="312" spans="1:8" ht="16">
+    <row r="312" spans="1:8">
       <c r="A312" s="4" t="s">
         <v>936</v>
       </c>
@@ -12119,7 +12106,7 @@
       <c r="G312" s="11"/>
       <c r="H312" s="11"/>
     </row>
-    <row r="313" spans="1:8" ht="16">
+    <row r="313" spans="1:8">
       <c r="A313" s="4" t="s">
         <v>936</v>
       </c>
@@ -12133,7 +12120,7 @@
       <c r="G313" s="11"/>
       <c r="H313" s="11"/>
     </row>
-    <row r="314" spans="1:8" ht="16">
+    <row r="314" spans="1:8">
       <c r="A314" s="4" t="s">
         <v>936</v>
       </c>
@@ -12159,7 +12146,7 @@
       <c r="G315" s="11"/>
       <c r="H315" s="11"/>
     </row>
-    <row r="316" spans="1:8" ht="19">
+    <row r="316" spans="1:8" ht="18.75">
       <c r="A316" s="4" t="s">
         <v>937</v>
       </c>
@@ -12173,7 +12160,7 @@
       <c r="G316" s="11"/>
       <c r="H316" s="11"/>
     </row>
-    <row r="317" spans="1:8" ht="16">
+    <row r="317" spans="1:8">
       <c r="A317" s="4" t="s">
         <v>937</v>
       </c>
@@ -12187,7 +12174,7 @@
       <c r="G317" s="11"/>
       <c r="H317" s="11"/>
     </row>
-    <row r="318" spans="1:8" ht="16">
+    <row r="318" spans="1:8">
       <c r="A318" s="4" t="s">
         <v>937</v>
       </c>
@@ -12201,7 +12188,7 @@
       <c r="G318" s="11"/>
       <c r="H318" s="11"/>
     </row>
-    <row r="319" spans="1:8" ht="16">
+    <row r="319" spans="1:8">
       <c r="A319" s="4" t="s">
         <v>937</v>
       </c>
@@ -12215,7 +12202,7 @@
       <c r="G319" s="11"/>
       <c r="H319" s="11"/>
     </row>
-    <row r="320" spans="1:8" ht="16">
+    <row r="320" spans="1:8">
       <c r="A320" s="4" t="s">
         <v>937</v>
       </c>
@@ -12229,7 +12216,7 @@
       <c r="G320" s="11"/>
       <c r="H320" s="11"/>
     </row>
-    <row r="321" spans="1:8" ht="16">
+    <row r="321" spans="1:8">
       <c r="A321" s="4" t="s">
         <v>937</v>
       </c>
@@ -12243,7 +12230,7 @@
       <c r="G321" s="11"/>
       <c r="H321" s="11"/>
     </row>
-    <row r="322" spans="1:8" ht="16">
+    <row r="322" spans="1:8">
       <c r="A322" s="4" t="s">
         <v>937</v>
       </c>
@@ -12257,7 +12244,7 @@
       <c r="G322" s="11"/>
       <c r="H322" s="11"/>
     </row>
-    <row r="323" spans="1:8" ht="16">
+    <row r="323" spans="1:8">
       <c r="A323" s="4" t="s">
         <v>937</v>
       </c>
@@ -12271,7 +12258,7 @@
       <c r="G323" s="11"/>
       <c r="H323" s="11"/>
     </row>
-    <row r="324" spans="1:8" ht="16">
+    <row r="324" spans="1:8">
       <c r="A324" s="4" t="s">
         <v>937</v>
       </c>
@@ -12285,7 +12272,7 @@
       <c r="G324" s="11"/>
       <c r="H324" s="11"/>
     </row>
-    <row r="325" spans="1:8" ht="16">
+    <row r="325" spans="1:8">
       <c r="A325" s="4" t="s">
         <v>937</v>
       </c>
@@ -12299,7 +12286,7 @@
       <c r="G325" s="11"/>
       <c r="H325" s="11"/>
     </row>
-    <row r="326" spans="1:8" ht="16">
+    <row r="326" spans="1:8">
       <c r="A326" s="4" t="s">
         <v>937</v>
       </c>
@@ -12313,7 +12300,7 @@
       <c r="G326" s="11"/>
       <c r="H326" s="11"/>
     </row>
-    <row r="327" spans="1:8" ht="19">
+    <row r="327" spans="1:8" ht="18.75">
       <c r="A327" s="4" t="s">
         <v>937</v>
       </c>
@@ -12327,7 +12314,7 @@
       <c r="G327" s="11"/>
       <c r="H327" s="11"/>
     </row>
-    <row r="328" spans="1:8" ht="16">
+    <row r="328" spans="1:8">
       <c r="A328" s="4" t="s">
         <v>937</v>
       </c>
@@ -12341,7 +12328,7 @@
       <c r="G328" s="11"/>
       <c r="H328" s="11"/>
     </row>
-    <row r="329" spans="1:8" ht="16">
+    <row r="329" spans="1:8">
       <c r="A329" s="4" t="s">
         <v>937</v>
       </c>
@@ -12355,7 +12342,7 @@
       <c r="G329" s="11"/>
       <c r="H329" s="11"/>
     </row>
-    <row r="330" spans="1:8" ht="16">
+    <row r="330" spans="1:8">
       <c r="A330" s="4" t="s">
         <v>937</v>
       </c>
@@ -12369,7 +12356,7 @@
       <c r="G330" s="11"/>
       <c r="H330" s="11"/>
     </row>
-    <row r="331" spans="1:8" ht="16">
+    <row r="331" spans="1:8">
       <c r="A331" s="4" t="s">
         <v>937</v>
       </c>
@@ -12383,7 +12370,7 @@
       <c r="G331" s="11"/>
       <c r="H331" s="11"/>
     </row>
-    <row r="332" spans="1:8" ht="16">
+    <row r="332" spans="1:8">
       <c r="A332" s="4" t="s">
         <v>937</v>
       </c>
@@ -12397,7 +12384,7 @@
       <c r="G332" s="11"/>
       <c r="H332" s="11"/>
     </row>
-    <row r="333" spans="1:8" ht="16">
+    <row r="333" spans="1:8">
       <c r="A333" s="4" t="s">
         <v>937</v>
       </c>
@@ -12411,7 +12398,7 @@
       <c r="G333" s="11"/>
       <c r="H333" s="11"/>
     </row>
-    <row r="334" spans="1:8" ht="16">
+    <row r="334" spans="1:8">
       <c r="A334" s="4" t="s">
         <v>937</v>
       </c>
@@ -12425,7 +12412,7 @@
       <c r="G334" s="11"/>
       <c r="H334" s="11"/>
     </row>
-    <row r="335" spans="1:8" ht="16">
+    <row r="335" spans="1:8">
       <c r="A335" s="4" t="s">
         <v>937</v>
       </c>
@@ -12439,7 +12426,7 @@
       <c r="G335" s="11"/>
       <c r="H335" s="11"/>
     </row>
-    <row r="336" spans="1:8" ht="16">
+    <row r="336" spans="1:8">
       <c r="A336" s="4" t="s">
         <v>937</v>
       </c>
@@ -12453,7 +12440,7 @@
       <c r="G336" s="11"/>
       <c r="H336" s="11"/>
     </row>
-    <row r="337" spans="1:8" ht="16">
+    <row r="337" spans="1:8">
       <c r="A337" s="4" t="s">
         <v>937</v>
       </c>
@@ -12467,7 +12454,7 @@
       <c r="G337" s="11"/>
       <c r="H337" s="11"/>
     </row>
-    <row r="338" spans="1:8" ht="16">
+    <row r="338" spans="1:8">
       <c r="A338" s="4" t="s">
         <v>937</v>
       </c>
@@ -12481,7 +12468,7 @@
       <c r="G338" s="11"/>
       <c r="H338" s="11"/>
     </row>
-    <row r="339" spans="1:8" ht="16">
+    <row r="339" spans="1:8">
       <c r="A339" s="4" t="s">
         <v>937</v>
       </c>
@@ -12495,7 +12482,7 @@
       <c r="G339" s="11"/>
       <c r="H339" s="11"/>
     </row>
-    <row r="340" spans="1:8" ht="16">
+    <row r="340" spans="1:8">
       <c r="A340" s="4" t="s">
         <v>937</v>
       </c>
@@ -12509,7 +12496,7 @@
       <c r="G340" s="11"/>
       <c r="H340" s="11"/>
     </row>
-    <row r="341" spans="1:8" ht="16">
+    <row r="341" spans="1:8">
       <c r="A341" s="4" t="s">
         <v>937</v>
       </c>
@@ -12523,7 +12510,7 @@
       <c r="G341" s="11"/>
       <c r="H341" s="11"/>
     </row>
-    <row r="342" spans="1:8" ht="16">
+    <row r="342" spans="1:8">
       <c r="A342" s="4" t="s">
         <v>937</v>
       </c>
@@ -12537,7 +12524,7 @@
       <c r="G342" s="11"/>
       <c r="H342" s="11"/>
     </row>
-    <row r="343" spans="1:8" ht="16">
+    <row r="343" spans="1:8">
       <c r="A343" s="4" t="s">
         <v>937</v>
       </c>
@@ -12551,7 +12538,7 @@
       <c r="G343" s="11"/>
       <c r="H343" s="11"/>
     </row>
-    <row r="344" spans="1:8" ht="16">
+    <row r="344" spans="1:8">
       <c r="A344" s="4" t="s">
         <v>937</v>
       </c>
@@ -12565,7 +12552,7 @@
       <c r="G344" s="11"/>
       <c r="H344" s="11"/>
     </row>
-    <row r="345" spans="1:8" ht="16">
+    <row r="345" spans="1:8">
       <c r="A345" s="4" t="s">
         <v>937</v>
       </c>
@@ -12579,7 +12566,7 @@
       <c r="G345" s="11"/>
       <c r="H345" s="11"/>
     </row>
-    <row r="346" spans="1:8" ht="16">
+    <row r="346" spans="1:8">
       <c r="A346" s="4" t="s">
         <v>937</v>
       </c>
@@ -12593,7 +12580,7 @@
       <c r="G346" s="11"/>
       <c r="H346" s="11"/>
     </row>
-    <row r="347" spans="1:8" ht="16">
+    <row r="347" spans="1:8">
       <c r="A347" s="4" t="s">
         <v>937</v>
       </c>
@@ -12607,7 +12594,7 @@
       <c r="G347" s="11"/>
       <c r="H347" s="11"/>
     </row>
-    <row r="348" spans="1:8" ht="16">
+    <row r="348" spans="1:8">
       <c r="A348" s="4" t="s">
         <v>937</v>
       </c>
@@ -12621,7 +12608,7 @@
       <c r="G348" s="11"/>
       <c r="H348" s="11"/>
     </row>
-    <row r="349" spans="1:8" ht="16">
+    <row r="349" spans="1:8">
       <c r="A349" s="4" t="s">
         <v>937</v>
       </c>
@@ -12635,7 +12622,7 @@
       <c r="G349" s="11"/>
       <c r="H349" s="11"/>
     </row>
-    <row r="350" spans="1:8" ht="16">
+    <row r="350" spans="1:8">
       <c r="A350" s="4" t="s">
         <v>937</v>
       </c>
@@ -12661,7 +12648,7 @@
       <c r="G351" s="11"/>
       <c r="H351" s="11"/>
     </row>
-    <row r="352" spans="1:8" ht="19">
+    <row r="352" spans="1:8" ht="18.75">
       <c r="A352" s="4" t="s">
         <v>938</v>
       </c>
@@ -12675,7 +12662,7 @@
       <c r="G352" s="11"/>
       <c r="H352" s="11"/>
     </row>
-    <row r="353" spans="1:8" ht="16">
+    <row r="353" spans="1:8">
       <c r="A353" s="4" t="s">
         <v>938</v>
       </c>
@@ -12689,7 +12676,7 @@
       <c r="G353" s="11"/>
       <c r="H353" s="11"/>
     </row>
-    <row r="354" spans="1:8" ht="16">
+    <row r="354" spans="1:8">
       <c r="A354" s="4" t="s">
         <v>938</v>
       </c>
@@ -12703,7 +12690,7 @@
       <c r="G354" s="11"/>
       <c r="H354" s="11"/>
     </row>
-    <row r="355" spans="1:8" ht="16">
+    <row r="355" spans="1:8">
       <c r="A355" s="4" t="s">
         <v>938</v>
       </c>
@@ -12717,7 +12704,7 @@
       <c r="G355" s="11"/>
       <c r="H355" s="11"/>
     </row>
-    <row r="356" spans="1:8" ht="16">
+    <row r="356" spans="1:8">
       <c r="A356" s="4" t="s">
         <v>938</v>
       </c>
@@ -12731,7 +12718,7 @@
       <c r="G356" s="11"/>
       <c r="H356" s="11"/>
     </row>
-    <row r="357" spans="1:8" ht="16">
+    <row r="357" spans="1:8">
       <c r="A357" s="4" t="s">
         <v>938</v>
       </c>
@@ -12745,7 +12732,7 @@
       <c r="G357" s="11"/>
       <c r="H357" s="11"/>
     </row>
-    <row r="358" spans="1:8" ht="16">
+    <row r="358" spans="1:8">
       <c r="A358" s="4" t="s">
         <v>938</v>
       </c>
@@ -12759,7 +12746,7 @@
       <c r="G358" s="11"/>
       <c r="H358" s="11"/>
     </row>
-    <row r="359" spans="1:8" ht="16">
+    <row r="359" spans="1:8">
       <c r="A359" s="4" t="s">
         <v>938</v>
       </c>
@@ -12773,7 +12760,7 @@
       <c r="G359" s="11"/>
       <c r="H359" s="11"/>
     </row>
-    <row r="360" spans="1:8" ht="16">
+    <row r="360" spans="1:8">
       <c r="A360" s="4" t="s">
         <v>938</v>
       </c>
@@ -12787,7 +12774,7 @@
       <c r="G360" s="11"/>
       <c r="H360" s="11"/>
     </row>
-    <row r="361" spans="1:8" ht="16">
+    <row r="361" spans="1:8">
       <c r="A361" s="4" t="s">
         <v>938</v>
       </c>
@@ -12801,7 +12788,7 @@
       <c r="G361" s="11"/>
       <c r="H361" s="11"/>
     </row>
-    <row r="362" spans="1:8" ht="19">
+    <row r="362" spans="1:8" ht="18.75">
       <c r="A362" s="4" t="s">
         <v>938</v>
       </c>
@@ -12815,7 +12802,7 @@
       <c r="G362" s="11"/>
       <c r="H362" s="11"/>
     </row>
-    <row r="363" spans="1:8" ht="16">
+    <row r="363" spans="1:8">
       <c r="A363" s="4" t="s">
         <v>938</v>
       </c>
@@ -12829,7 +12816,7 @@
       <c r="G363" s="11"/>
       <c r="H363" s="11"/>
     </row>
-    <row r="364" spans="1:8" ht="16">
+    <row r="364" spans="1:8">
       <c r="A364" s="4" t="s">
         <v>938</v>
       </c>
@@ -12843,7 +12830,7 @@
       <c r="G364" s="11"/>
       <c r="H364" s="11"/>
     </row>
-    <row r="365" spans="1:8" ht="16">
+    <row r="365" spans="1:8">
       <c r="A365" s="4" t="s">
         <v>938</v>
       </c>
@@ -12857,7 +12844,7 @@
       <c r="G365" s="11"/>
       <c r="H365" s="11"/>
     </row>
-    <row r="366" spans="1:8" ht="16">
+    <row r="366" spans="1:8">
       <c r="A366" s="4" t="s">
         <v>938</v>
       </c>
@@ -12871,7 +12858,7 @@
       <c r="G366" s="11"/>
       <c r="H366" s="11"/>
     </row>
-    <row r="367" spans="1:8" ht="16">
+    <row r="367" spans="1:8">
       <c r="A367" s="4" t="s">
         <v>938</v>
       </c>
@@ -12885,7 +12872,7 @@
       <c r="G367" s="11"/>
       <c r="H367" s="11"/>
     </row>
-    <row r="368" spans="1:8" ht="16">
+    <row r="368" spans="1:8">
       <c r="A368" s="4" t="s">
         <v>938</v>
       </c>
@@ -12899,7 +12886,7 @@
       <c r="G368" s="11"/>
       <c r="H368" s="11"/>
     </row>
-    <row r="369" spans="1:8" ht="16">
+    <row r="369" spans="1:8">
       <c r="A369" s="4" t="s">
         <v>938</v>
       </c>
@@ -12913,7 +12900,7 @@
       <c r="G369" s="11"/>
       <c r="H369" s="11"/>
     </row>
-    <row r="370" spans="1:8" ht="16">
+    <row r="370" spans="1:8">
       <c r="A370" s="4" t="s">
         <v>938</v>
       </c>
@@ -12926,7 +12913,7 @@
       <c r="G370" s="11"/>
       <c r="H370" s="11"/>
     </row>
-    <row r="371" spans="1:8" ht="16">
+    <row r="371" spans="1:8">
       <c r="A371" s="4" t="s">
         <v>938</v>
       </c>
@@ -12940,7 +12927,7 @@
       <c r="G371" s="11"/>
       <c r="H371" s="11"/>
     </row>
-    <row r="372" spans="1:8" ht="16">
+    <row r="372" spans="1:8">
       <c r="A372" s="4" t="s">
         <v>938</v>
       </c>
@@ -12954,7 +12941,7 @@
       <c r="G372" s="11"/>
       <c r="H372" s="11"/>
     </row>
-    <row r="373" spans="1:8" ht="16">
+    <row r="373" spans="1:8">
       <c r="A373" s="4" t="s">
         <v>938</v>
       </c>
@@ -12968,7 +12955,7 @@
       <c r="G373" s="11"/>
       <c r="H373" s="11"/>
     </row>
-    <row r="374" spans="1:8" ht="16">
+    <row r="374" spans="1:8">
       <c r="A374" s="4" t="s">
         <v>938</v>
       </c>
@@ -12982,7 +12969,7 @@
       <c r="G374" s="11"/>
       <c r="H374" s="11"/>
     </row>
-    <row r="375" spans="1:8" ht="16">
+    <row r="375" spans="1:8">
       <c r="A375" s="4" t="s">
         <v>938</v>
       </c>
@@ -12996,7 +12983,7 @@
       <c r="G375" s="11"/>
       <c r="H375" s="11"/>
     </row>
-    <row r="376" spans="1:8" ht="19">
+    <row r="376" spans="1:8" ht="18.75">
       <c r="A376" s="4" t="s">
         <v>938</v>
       </c>
@@ -13010,7 +12997,7 @@
       <c r="G376" s="11"/>
       <c r="H376" s="11"/>
     </row>
-    <row r="377" spans="1:8" ht="16">
+    <row r="377" spans="1:8">
       <c r="A377" s="4" t="s">
         <v>938</v>
       </c>
@@ -13024,7 +13011,7 @@
       <c r="G377" s="11"/>
       <c r="H377" s="11"/>
     </row>
-    <row r="378" spans="1:8" ht="16">
+    <row r="378" spans="1:8">
       <c r="A378" s="4" t="s">
         <v>938</v>
       </c>
@@ -13038,7 +13025,7 @@
       <c r="G378" s="11"/>
       <c r="H378" s="11"/>
     </row>
-    <row r="379" spans="1:8" ht="16">
+    <row r="379" spans="1:8">
       <c r="A379" s="4" t="s">
         <v>938</v>
       </c>
@@ -13052,7 +13039,7 @@
       <c r="G379" s="11"/>
       <c r="H379" s="11"/>
     </row>
-    <row r="380" spans="1:8" ht="16">
+    <row r="380" spans="1:8">
       <c r="A380" s="4" t="s">
         <v>938</v>
       </c>
@@ -13066,7 +13053,7 @@
       <c r="G380" s="11"/>
       <c r="H380" s="11"/>
     </row>
-    <row r="381" spans="1:8" ht="16">
+    <row r="381" spans="1:8">
       <c r="A381" s="4" t="s">
         <v>938</v>
       </c>
@@ -13080,7 +13067,7 @@
       <c r="G381" s="11"/>
       <c r="H381" s="11"/>
     </row>
-    <row r="382" spans="1:8" ht="16">
+    <row r="382" spans="1:8">
       <c r="A382" s="4" t="s">
         <v>938</v>
       </c>
@@ -13094,7 +13081,7 @@
       <c r="G382" s="11"/>
       <c r="H382" s="11"/>
     </row>
-    <row r="383" spans="1:8" ht="16">
+    <row r="383" spans="1:8">
       <c r="A383" s="4" t="s">
         <v>938</v>
       </c>
@@ -13108,7 +13095,7 @@
       <c r="G383" s="11"/>
       <c r="H383" s="11"/>
     </row>
-    <row r="384" spans="1:8" ht="16">
+    <row r="384" spans="1:8">
       <c r="A384" s="4" t="s">
         <v>938</v>
       </c>
@@ -13122,7 +13109,7 @@
       <c r="G384" s="11"/>
       <c r="H384" s="11"/>
     </row>
-    <row r="385" spans="1:8" ht="16">
+    <row r="385" spans="1:8">
       <c r="A385" s="4" t="s">
         <v>938</v>
       </c>
@@ -13136,7 +13123,7 @@
       <c r="G385" s="11"/>
       <c r="H385" s="11"/>
     </row>
-    <row r="386" spans="1:8" ht="16">
+    <row r="386" spans="1:8">
       <c r="A386" s="4" t="s">
         <v>938</v>
       </c>
@@ -13150,7 +13137,7 @@
       <c r="G386" s="11"/>
       <c r="H386" s="11"/>
     </row>
-    <row r="387" spans="1:8" ht="16">
+    <row r="387" spans="1:8">
       <c r="A387" s="4" t="s">
         <v>938</v>
       </c>
@@ -13164,7 +13151,7 @@
       <c r="G387" s="11"/>
       <c r="H387" s="11"/>
     </row>
-    <row r="388" spans="1:8" ht="16">
+    <row r="388" spans="1:8">
       <c r="A388" s="4" t="s">
         <v>938</v>
       </c>
@@ -13178,7 +13165,7 @@
       <c r="G388" s="11"/>
       <c r="H388" s="11"/>
     </row>
-    <row r="389" spans="1:8" ht="16">
+    <row r="389" spans="1:8">
       <c r="A389" s="4" t="s">
         <v>938</v>
       </c>
@@ -13192,7 +13179,7 @@
       <c r="G389" s="11"/>
       <c r="H389" s="11"/>
     </row>
-    <row r="390" spans="1:8" ht="16">
+    <row r="390" spans="1:8">
       <c r="A390" s="4" t="s">
         <v>938</v>
       </c>
@@ -13206,7 +13193,7 @@
       <c r="G390" s="11"/>
       <c r="H390" s="11"/>
     </row>
-    <row r="391" spans="1:8" ht="16">
+    <row r="391" spans="1:8">
       <c r="A391" s="4" t="s">
         <v>938</v>
       </c>
@@ -13220,7 +13207,7 @@
       <c r="G391" s="11"/>
       <c r="H391" s="11"/>
     </row>
-    <row r="392" spans="1:8" ht="16">
+    <row r="392" spans="1:8">
       <c r="A392" s="4" t="s">
         <v>938</v>
       </c>
@@ -13234,7 +13221,7 @@
       <c r="G392" s="11"/>
       <c r="H392" s="11"/>
     </row>
-    <row r="393" spans="1:8" ht="16">
+    <row r="393" spans="1:8">
       <c r="A393" s="4" t="s">
         <v>938</v>
       </c>
@@ -13248,7 +13235,7 @@
       <c r="G393" s="11"/>
       <c r="H393" s="11"/>
     </row>
-    <row r="394" spans="1:8" ht="16">
+    <row r="394" spans="1:8">
       <c r="A394" s="4" t="s">
         <v>938</v>
       </c>
@@ -13262,7 +13249,7 @@
       <c r="G394" s="11"/>
       <c r="H394" s="11"/>
     </row>
-    <row r="395" spans="1:8" ht="16">
+    <row r="395" spans="1:8">
       <c r="A395" s="4" t="s">
         <v>938</v>
       </c>
@@ -13276,7 +13263,7 @@
       <c r="G395" s="11"/>
       <c r="H395" s="11"/>
     </row>
-    <row r="396" spans="1:8" ht="19">
+    <row r="396" spans="1:8" ht="18.75">
       <c r="A396" s="4" t="s">
         <v>938</v>
       </c>
@@ -13290,7 +13277,7 @@
       <c r="G396" s="11"/>
       <c r="H396" s="11"/>
     </row>
-    <row r="397" spans="1:8" ht="16">
+    <row r="397" spans="1:8">
       <c r="A397" s="4" t="s">
         <v>938</v>
       </c>
@@ -13304,7 +13291,7 @@
       <c r="G397" s="11"/>
       <c r="H397" s="11"/>
     </row>
-    <row r="398" spans="1:8" ht="16">
+    <row r="398" spans="1:8">
       <c r="A398" s="4" t="s">
         <v>938</v>
       </c>
@@ -13317,7 +13304,7 @@
       <c r="G398" s="11"/>
       <c r="H398" s="11"/>
     </row>
-    <row r="399" spans="1:8" ht="16">
+    <row r="399" spans="1:8">
       <c r="A399" s="4" t="s">
         <v>938</v>
       </c>
@@ -13331,7 +13318,7 @@
       <c r="G399" s="11"/>
       <c r="H399" s="11"/>
     </row>
-    <row r="400" spans="1:8" ht="16">
+    <row r="400" spans="1:8">
       <c r="A400" s="4" t="s">
         <v>938</v>
       </c>
@@ -13345,7 +13332,7 @@
       <c r="G400" s="11"/>
       <c r="H400" s="11"/>
     </row>
-    <row r="401" spans="1:8" ht="16">
+    <row r="401" spans="1:8">
       <c r="A401" s="4" t="s">
         <v>938</v>
       </c>
@@ -13359,7 +13346,7 @@
       <c r="G401" s="11"/>
       <c r="H401" s="11"/>
     </row>
-    <row r="402" spans="1:8" ht="16">
+    <row r="402" spans="1:8">
       <c r="A402" s="4" t="s">
         <v>938</v>
       </c>
@@ -13373,7 +13360,7 @@
       <c r="G402" s="11"/>
       <c r="H402" s="11"/>
     </row>
-    <row r="403" spans="1:8" ht="16">
+    <row r="403" spans="1:8">
       <c r="A403" s="4" t="s">
         <v>938</v>
       </c>
@@ -13387,7 +13374,7 @@
       <c r="G403" s="11"/>
       <c r="H403" s="11"/>
     </row>
-    <row r="404" spans="1:8" ht="16">
+    <row r="404" spans="1:8">
       <c r="A404" s="4" t="s">
         <v>938</v>
       </c>
@@ -13401,7 +13388,7 @@
       <c r="G404" s="11"/>
       <c r="H404" s="11"/>
     </row>
-    <row r="405" spans="1:8" ht="16">
+    <row r="405" spans="1:8">
       <c r="A405" s="4" t="s">
         <v>938</v>
       </c>
@@ -13415,7 +13402,7 @@
       <c r="G405" s="11"/>
       <c r="H405" s="11"/>
     </row>
-    <row r="406" spans="1:8" ht="16">
+    <row r="406" spans="1:8">
       <c r="A406" s="4" t="s">
         <v>938</v>
       </c>
@@ -13429,7 +13416,7 @@
       <c r="G406" s="11"/>
       <c r="H406" s="11"/>
     </row>
-    <row r="407" spans="1:8" ht="16">
+    <row r="407" spans="1:8">
       <c r="A407" s="4" t="s">
         <v>938</v>
       </c>
@@ -13443,7 +13430,7 @@
       <c r="G407" s="11"/>
       <c r="H407" s="11"/>
     </row>
-    <row r="408" spans="1:8" ht="16">
+    <row r="408" spans="1:8">
       <c r="A408" s="4" t="s">
         <v>938</v>
       </c>
@@ -13457,7 +13444,7 @@
       <c r="G408" s="11"/>
       <c r="H408" s="11"/>
     </row>
-    <row r="409" spans="1:8" ht="16">
+    <row r="409" spans="1:8">
       <c r="A409" s="4" t="s">
         <v>938</v>
       </c>
@@ -13471,7 +13458,7 @@
       <c r="G409" s="11"/>
       <c r="H409" s="11"/>
     </row>
-    <row r="410" spans="1:8" ht="16">
+    <row r="410" spans="1:8">
       <c r="A410" s="4" t="s">
         <v>938</v>
       </c>
@@ -13497,7 +13484,7 @@
       <c r="G411" s="11"/>
       <c r="H411" s="11"/>
     </row>
-    <row r="412" spans="1:8" ht="19">
+    <row r="412" spans="1:8" ht="18.75">
       <c r="A412" s="4" t="s">
         <v>939</v>
       </c>
@@ -13511,7 +13498,7 @@
       <c r="G412" s="11"/>
       <c r="H412" s="11"/>
     </row>
-    <row r="413" spans="1:8" ht="16">
+    <row r="413" spans="1:8">
       <c r="A413" s="4" t="s">
         <v>939</v>
       </c>
@@ -13525,7 +13512,7 @@
       <c r="G413" s="11"/>
       <c r="H413" s="11"/>
     </row>
-    <row r="414" spans="1:8" ht="16">
+    <row r="414" spans="1:8">
       <c r="A414" s="4" t="s">
         <v>939</v>
       </c>
@@ -13539,7 +13526,7 @@
       <c r="G414" s="11"/>
       <c r="H414" s="11"/>
     </row>
-    <row r="415" spans="1:8" ht="16">
+    <row r="415" spans="1:8">
       <c r="A415" s="4" t="s">
         <v>939</v>
       </c>
@@ -13553,7 +13540,7 @@
       <c r="G415" s="11"/>
       <c r="H415" s="11"/>
     </row>
-    <row r="416" spans="1:8" ht="16">
+    <row r="416" spans="1:8">
       <c r="A416" s="4" t="s">
         <v>939</v>
       </c>
@@ -13567,7 +13554,7 @@
       <c r="G416" s="11"/>
       <c r="H416" s="11"/>
     </row>
-    <row r="417" spans="1:8" ht="16">
+    <row r="417" spans="1:8">
       <c r="A417" s="4" t="s">
         <v>939</v>
       </c>
@@ -13581,7 +13568,7 @@
       <c r="G417" s="11"/>
       <c r="H417" s="11"/>
     </row>
-    <row r="418" spans="1:8" ht="16">
+    <row r="418" spans="1:8">
       <c r="A418" s="4" t="s">
         <v>939</v>
       </c>
@@ -13595,7 +13582,7 @@
       <c r="G418" s="11"/>
       <c r="H418" s="11"/>
     </row>
-    <row r="419" spans="1:8" ht="16">
+    <row r="419" spans="1:8">
       <c r="A419" s="4" t="s">
         <v>939</v>
       </c>
@@ -13609,7 +13596,7 @@
       <c r="G419" s="11"/>
       <c r="H419" s="11"/>
     </row>
-    <row r="420" spans="1:8" ht="16">
+    <row r="420" spans="1:8">
       <c r="A420" s="4" t="s">
         <v>939</v>
       </c>
@@ -13623,7 +13610,7 @@
       <c r="G420" s="11"/>
       <c r="H420" s="11"/>
     </row>
-    <row r="421" spans="1:8" ht="16">
+    <row r="421" spans="1:8">
       <c r="A421" s="4" t="s">
         <v>939</v>
       </c>
@@ -13637,7 +13624,7 @@
       <c r="G421" s="11"/>
       <c r="H421" s="11"/>
     </row>
-    <row r="422" spans="1:8" ht="16">
+    <row r="422" spans="1:8">
       <c r="A422" s="4" t="s">
         <v>939</v>
       </c>
@@ -13651,7 +13638,7 @@
       <c r="G422" s="11"/>
       <c r="H422" s="11"/>
     </row>
-    <row r="423" spans="1:8" ht="19">
+    <row r="423" spans="1:8" ht="18.75">
       <c r="A423" s="4" t="s">
         <v>939</v>
       </c>
@@ -13665,7 +13652,7 @@
       <c r="G423" s="11"/>
       <c r="H423" s="11"/>
     </row>
-    <row r="424" spans="1:8" ht="16">
+    <row r="424" spans="1:8">
       <c r="A424" s="4" t="s">
         <v>939</v>
       </c>
@@ -13679,7 +13666,7 @@
       <c r="G424" s="11"/>
       <c r="H424" s="11"/>
     </row>
-    <row r="425" spans="1:8" ht="16">
+    <row r="425" spans="1:8">
       <c r="A425" s="4" t="s">
         <v>939</v>
       </c>
@@ -13693,7 +13680,7 @@
       <c r="G425" s="11"/>
       <c r="H425" s="11"/>
     </row>
-    <row r="426" spans="1:8" ht="16">
+    <row r="426" spans="1:8">
       <c r="A426" s="4" t="s">
         <v>939</v>
       </c>
@@ -13707,7 +13694,7 @@
       <c r="G426" s="11"/>
       <c r="H426" s="11"/>
     </row>
-    <row r="427" spans="1:8" ht="16">
+    <row r="427" spans="1:8">
       <c r="A427" s="4" t="s">
         <v>939</v>
       </c>
@@ -13721,7 +13708,7 @@
       <c r="G427" s="11"/>
       <c r="H427" s="11"/>
     </row>
-    <row r="428" spans="1:8" ht="16">
+    <row r="428" spans="1:8">
       <c r="A428" s="4" t="s">
         <v>939</v>
       </c>
@@ -13735,7 +13722,7 @@
       <c r="G428" s="11"/>
       <c r="H428" s="11"/>
     </row>
-    <row r="429" spans="1:8" ht="19">
+    <row r="429" spans="1:8" ht="18.75">
       <c r="A429" s="4" t="s">
         <v>939</v>
       </c>
@@ -13749,7 +13736,7 @@
       <c r="G429" s="11"/>
       <c r="H429" s="11"/>
     </row>
-    <row r="430" spans="1:8" ht="16">
+    <row r="430" spans="1:8">
       <c r="A430" s="4" t="s">
         <v>939</v>
       </c>
@@ -13763,7 +13750,7 @@
       <c r="G430" s="11"/>
       <c r="H430" s="11"/>
     </row>
-    <row r="431" spans="1:8" ht="16">
+    <row r="431" spans="1:8">
       <c r="A431" s="4" t="s">
         <v>939</v>
       </c>
@@ -13777,7 +13764,7 @@
       <c r="G431" s="11"/>
       <c r="H431" s="11"/>
     </row>
-    <row r="432" spans="1:8" ht="16">
+    <row r="432" spans="1:8">
       <c r="A432" s="4" t="s">
         <v>939</v>
       </c>
@@ -13791,7 +13778,7 @@
       <c r="G432" s="11"/>
       <c r="H432" s="11"/>
     </row>
-    <row r="433" spans="1:8" ht="16">
+    <row r="433" spans="1:8">
       <c r="A433" s="4" t="s">
         <v>939</v>
       </c>
@@ -15232,7 +15219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -15242,18 +15229,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" customWidth="1"/>
-    <col min="7" max="8" width="3.1640625" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="8" width="3.140625" customWidth="1"/>
     <col min="9" max="9" width="5" customWidth="1"/>
-    <col min="10" max="10" width="7.83203125" customWidth="1"/>
-    <col min="11" max="11" width="5.1640625" customWidth="1"/>
-    <col min="12" max="12" width="8.1640625" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
@@ -15431,29 +15418,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="M6" sqref="M6:M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="47" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" style="47" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" style="47" customWidth="1"/>
-    <col min="4" max="4" width="80.83203125" style="47" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="48" customWidth="1"/>
-    <col min="6" max="6" width="87.6640625" style="47" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" style="47" customWidth="1"/>
-    <col min="8" max="8" width="74.5" style="32" customWidth="1"/>
-    <col min="9" max="9" width="104.5" style="47" customWidth="1"/>
-    <col min="10" max="10" width="68.33203125" style="47" customWidth="1"/>
-    <col min="11" max="11" width="52.83203125" style="47" customWidth="1"/>
-    <col min="12" max="12" width="26.5" style="47" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5" style="47" customWidth="1"/>
-    <col min="14" max="16384" width="8.83203125" style="47"/>
+    <col min="1" max="1" width="4.7109375" style="47" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="47" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" style="47" customWidth="1"/>
+    <col min="4" max="4" width="80.85546875" style="47" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="48" customWidth="1"/>
+    <col min="6" max="6" width="87.7109375" style="47" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="47" customWidth="1"/>
+    <col min="8" max="8" width="74.42578125" style="32" customWidth="1"/>
+    <col min="9" max="9" width="104.42578125" style="47" customWidth="1"/>
+    <col min="10" max="10" width="68.28515625" style="47" customWidth="1"/>
+    <col min="11" max="11" width="52.85546875" style="47" customWidth="1"/>
+    <col min="12" max="12" width="26.42578125" style="47" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" style="47" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="18" customFormat="1" ht="14.25" customHeight="1">
@@ -15471,13 +15458,13 @@
       <c r="L1" s="16"/>
       <c r="M1" s="16"/>
     </row>
-    <row r="2" spans="1:13" s="18" customFormat="1" ht="26" customHeight="1">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
+    <row r="2" spans="1:13" s="18" customFormat="1" ht="26.1" customHeight="1">
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
       <c r="G2" s="49" t="s">
         <v>501</v>
       </c>
@@ -15500,15 +15487,15 @@
         <v>445</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A3" s="99" t="s">
+    <row r="3" spans="1:13" s="18" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A3" s="102" t="s">
         <v>446</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
       <c r="G3" s="27"/>
       <c r="H3" s="23"/>
       <c r="I3" s="24" t="s">
@@ -15518,13 +15505,13 @@
       <c r="L3" s="25"/>
       <c r="M3" s="26"/>
     </row>
-    <row r="4" spans="1:13" s="32" customFormat="1" ht="14" customHeight="1">
-      <c r="A4" s="100"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
+    <row r="4" spans="1:13" s="32" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A4" s="103"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
@@ -15535,7 +15522,7 @@
       <c r="L4" s="30"/>
       <c r="M4" s="31"/>
     </row>
-    <row r="5" spans="1:13" s="18" customFormat="1" ht="8" customHeight="1">
+    <row r="5" spans="1:13" s="18" customFormat="1" ht="8.1" customHeight="1">
       <c r="A5" s="33"/>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
@@ -15550,17 +15537,17 @@
       <c r="L5" s="40"/>
       <c r="M5" s="40"/>
     </row>
-    <row r="6" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A6" s="101" t="s">
+    <row r="6" spans="1:13" s="18" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A6" s="104" t="s">
         <v>448</v>
       </c>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="104" t="s">
         <v>449</v>
       </c>
-      <c r="C6" s="101" t="s">
+      <c r="C6" s="104" t="s">
         <v>450</v>
       </c>
-      <c r="D6" s="105" t="s">
+      <c r="D6" s="108" t="s">
         <v>505</v>
       </c>
       <c r="E6" s="41" t="s">
@@ -15582,18 +15569,18 @@
       <c r="K6" s="43" t="s">
         <v>454</v>
       </c>
-      <c r="L6" s="109" t="s">
+      <c r="L6" s="112" t="s">
         <v>507</v>
       </c>
-      <c r="M6" s="109" t="s">
+      <c r="M6" s="112" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A7" s="102"/>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="106"/>
+    <row r="7" spans="1:13" s="18" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A7" s="105"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="109"/>
       <c r="E7" s="41" t="s">
         <v>456</v>
       </c>
@@ -15615,22 +15602,22 @@
       <c r="K7" s="43" t="s">
         <v>458</v>
       </c>
-      <c r="L7" s="110"/>
-      <c r="M7" s="110"/>
+      <c r="L7" s="113"/>
+      <c r="M7" s="113"/>
     </row>
     <row r="8" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A8" s="102"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="101" t="s">
+      <c r="A8" s="105"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="104" t="s">
         <v>459</v>
       </c>
-      <c r="F8" s="112" t="s">
+      <c r="F8" s="115" t="s">
         <v>511</v>
       </c>
       <c r="G8" s="78"/>
-      <c r="H8" s="115" t="s">
+      <c r="H8" s="118" t="s">
         <v>512</v>
       </c>
       <c r="I8" s="50" t="s">
@@ -15642,18 +15629,18 @@
       <c r="K8" s="43" t="s">
         <v>466</v>
       </c>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
-    </row>
-    <row r="9" spans="1:13" s="18" customFormat="1" ht="16" customHeight="1" outlineLevel="1">
-      <c r="A9" s="102"/>
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="113"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="113"/>
+    </row>
+    <row r="9" spans="1:13" s="18" customFormat="1" ht="15.95" customHeight="1" outlineLevel="1">
+      <c r="A9" s="105"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="116"/>
       <c r="G9" s="79"/>
-      <c r="H9" s="116"/>
+      <c r="H9" s="119"/>
       <c r="I9" s="50" t="s">
         <v>514</v>
       </c>
@@ -15661,41 +15648,41 @@
       <c r="K9" s="51" t="s">
         <v>515</v>
       </c>
-      <c r="L9" s="110"/>
-      <c r="M9" s="110"/>
-    </row>
-    <row r="10" spans="1:13" s="18" customFormat="1" ht="19" customHeight="1" outlineLevel="1">
-      <c r="A10" s="102"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="114"/>
+      <c r="L9" s="113"/>
+      <c r="M9" s="113"/>
+    </row>
+    <row r="10" spans="1:13" s="18" customFormat="1" ht="18.95" customHeight="1" outlineLevel="1">
+      <c r="A10" s="105"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="117"/>
       <c r="G10" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="H10" s="117"/>
+      <c r="H10" s="120"/>
       <c r="I10" s="50" t="s">
         <v>516</v>
       </c>
       <c r="J10" s="44"/>
       <c r="K10" s="52"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="110"/>
-    </row>
-    <row r="11" spans="1:13" s="18" customFormat="1" ht="13" customHeight="1" outlineLevel="1">
-      <c r="A11" s="102"/>
-      <c r="B11" s="102"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="101" t="s">
+      <c r="L10" s="113"/>
+      <c r="M10" s="113"/>
+    </row>
+    <row r="11" spans="1:13" s="18" customFormat="1" ht="12.95" customHeight="1" outlineLevel="1">
+      <c r="A11" s="105"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="104" t="s">
         <v>461</v>
       </c>
-      <c r="F11" s="112" t="s">
+      <c r="F11" s="115" t="s">
         <v>517</v>
       </c>
       <c r="G11" s="78"/>
-      <c r="H11" s="119"/>
+      <c r="H11" s="122"/>
       <c r="I11" s="53" t="s">
         <v>518</v>
       </c>
@@ -15703,20 +15690,20 @@
       <c r="K11" s="43" t="s">
         <v>519</v>
       </c>
-      <c r="L11" s="110"/>
-      <c r="M11" s="110"/>
+      <c r="L11" s="113"/>
+      <c r="M11" s="113"/>
     </row>
     <row r="12" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A12" s="102"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="118"/>
+      <c r="A12" s="105"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="121"/>
       <c r="G12" s="80" t="s">
         <v>582</v>
       </c>
-      <c r="H12" s="120"/>
+      <c r="H12" s="123"/>
       <c r="I12" s="54" t="s">
         <v>520</v>
       </c>
@@ -15724,16 +15711,16 @@
       <c r="K12" s="56" t="s">
         <v>521</v>
       </c>
-      <c r="L12" s="110"/>
-      <c r="M12" s="110"/>
-    </row>
-    <row r="13" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A13" s="102"/>
-      <c r="B13" s="102"/>
-      <c r="C13" s="102" t="s">
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+    </row>
+    <row r="13" spans="1:13" s="18" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A13" s="105"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105" t="s">
         <v>462</v>
       </c>
-      <c r="D13" s="106" t="s">
+      <c r="D13" s="109" t="s">
         <v>522</v>
       </c>
       <c r="E13" s="57" t="s">
@@ -15755,14 +15742,14 @@
       <c r="K13" s="51" t="s">
         <v>526</v>
       </c>
-      <c r="L13" s="110"/>
-      <c r="M13" s="110"/>
-    </row>
-    <row r="14" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A14" s="102"/>
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="106"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="113"/>
+    </row>
+    <row r="14" spans="1:13" s="18" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A14" s="105"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="109"/>
       <c r="E14" s="41" t="s">
         <v>464</v>
       </c>
@@ -15782,14 +15769,14 @@
       <c r="K14" s="43" t="s">
         <v>530</v>
       </c>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
-    </row>
-    <row r="15" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A15" s="102"/>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="106"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="113"/>
+    </row>
+    <row r="15" spans="1:13" s="18" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A15" s="105"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="109"/>
       <c r="E15" s="41" t="s">
         <v>465</v>
       </c>
@@ -15809,56 +15796,56 @@
       <c r="K15" s="43" t="s">
         <v>534</v>
       </c>
-      <c r="L15" s="110"/>
-      <c r="M15" s="110"/>
-    </row>
-    <row r="16" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A16" s="102"/>
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="101" t="s">
+      <c r="L15" s="113"/>
+      <c r="M15" s="113"/>
+    </row>
+    <row r="16" spans="1:13" s="18" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A16" s="105"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="104" t="s">
         <v>467</v>
       </c>
-      <c r="F16" s="112" t="s">
+      <c r="F16" s="115" t="s">
         <v>535</v>
       </c>
       <c r="G16" s="78"/>
-      <c r="H16" s="121"/>
+      <c r="H16" s="124"/>
       <c r="I16" s="63" t="s">
         <v>536</v>
       </c>
       <c r="J16" s="46"/>
       <c r="K16" s="43"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
-    </row>
-    <row r="17" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A17" s="102"/>
-      <c r="B17" s="102"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="113"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="113"/>
+    </row>
+    <row r="17" spans="1:14" s="18" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A17" s="105"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="116"/>
       <c r="G17" s="79"/>
-      <c r="H17" s="121"/>
+      <c r="H17" s="124"/>
       <c r="I17" s="63" t="s">
         <v>537</v>
       </c>
       <c r="J17" s="46"/>
       <c r="K17" s="43"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="110"/>
-    </row>
-    <row r="18" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A18" s="102"/>
-      <c r="B18" s="102"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="113"/>
+      <c r="L17" s="113"/>
+      <c r="M17" s="113"/>
+    </row>
+    <row r="18" spans="1:14" s="18" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A18" s="105"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="116"/>
       <c r="G18" s="79"/>
-      <c r="H18" s="121"/>
+      <c r="H18" s="124"/>
       <c r="I18" s="43" t="s">
         <v>538</v>
       </c>
@@ -15866,18 +15853,18 @@
       <c r="K18" s="63" t="s">
         <v>539</v>
       </c>
-      <c r="L18" s="110"/>
-      <c r="M18" s="110"/>
-    </row>
-    <row r="19" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A19" s="102"/>
-      <c r="B19" s="102"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="113"/>
+      <c r="L18" s="113"/>
+      <c r="M18" s="113"/>
+    </row>
+    <row r="19" spans="1:14" s="18" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A19" s="105"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="116"/>
       <c r="G19" s="79"/>
-      <c r="H19" s="121"/>
+      <c r="H19" s="124"/>
       <c r="I19" s="43" t="s">
         <v>540</v>
       </c>
@@ -15885,18 +15872,18 @@
       <c r="K19" s="63" t="s">
         <v>541</v>
       </c>
-      <c r="L19" s="110"/>
-      <c r="M19" s="110"/>
-    </row>
-    <row r="20" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A20" s="102"/>
-      <c r="B20" s="102"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="113"/>
+      <c r="L19" s="113"/>
+      <c r="M19" s="113"/>
+    </row>
+    <row r="20" spans="1:14" s="18" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A20" s="105"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="116"/>
       <c r="G20" s="79"/>
-      <c r="H20" s="121"/>
+      <c r="H20" s="124"/>
       <c r="I20" s="43" t="s">
         <v>542</v>
       </c>
@@ -15904,46 +15891,46 @@
       <c r="K20" s="63" t="s">
         <v>543</v>
       </c>
-      <c r="L20" s="110"/>
-      <c r="M20" s="110"/>
-    </row>
-    <row r="21" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A21" s="102"/>
-      <c r="B21" s="102"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="113"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="113"/>
+    </row>
+    <row r="21" spans="1:14" s="18" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A21" s="105"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="116"/>
       <c r="G21" s="79"/>
-      <c r="H21" s="121"/>
+      <c r="H21" s="124"/>
       <c r="I21" s="45" t="s">
         <v>484</v>
       </c>
       <c r="J21" s="46"/>
       <c r="K21" s="63"/>
-      <c r="L21" s="110"/>
-      <c r="M21" s="110"/>
-    </row>
-    <row r="22" spans="1:14" s="18" customFormat="1" ht="23" customHeight="1">
-      <c r="A22" s="103"/>
-      <c r="B22" s="103"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="114"/>
+      <c r="L21" s="113"/>
+      <c r="M21" s="113"/>
+    </row>
+    <row r="22" spans="1:14" s="18" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A22" s="106"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="117"/>
       <c r="G22" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="H22" s="121"/>
+      <c r="H22" s="124"/>
       <c r="I22" s="43" t="s">
         <v>544</v>
       </c>
       <c r="J22" s="46"/>
       <c r="K22" s="44"/>
-      <c r="L22" s="111"/>
-      <c r="M22" s="111"/>
-    </row>
-    <row r="23" spans="1:14" s="18" customFormat="1" ht="8" customHeight="1">
+      <c r="L22" s="114"/>
+      <c r="M22" s="114"/>
+    </row>
+    <row r="23" spans="1:14" s="18" customFormat="1" ht="8.1" customHeight="1">
       <c r="A23" s="64"/>
       <c r="B23" s="64"/>
       <c r="C23" s="64"/>
@@ -15958,27 +15945,27 @@
       <c r="L23" s="70"/>
       <c r="M23" s="69"/>
     </row>
-    <row r="24" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A24" s="101" t="s">
+    <row r="24" spans="1:14" s="18" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A24" s="104" t="s">
         <v>468</v>
       </c>
-      <c r="B24" s="122" t="s">
+      <c r="B24" s="125" t="s">
         <v>469</v>
       </c>
-      <c r="C24" s="101" t="s">
+      <c r="C24" s="104" t="s">
         <v>470</v>
       </c>
-      <c r="D24" s="105" t="s">
+      <c r="D24" s="108" t="s">
         <v>545</v>
       </c>
-      <c r="E24" s="101" t="s">
+      <c r="E24" s="104" t="s">
         <v>471</v>
       </c>
-      <c r="F24" s="112" t="s">
+      <c r="F24" s="115" t="s">
         <v>546</v>
       </c>
       <c r="G24" s="78"/>
-      <c r="H24" s="115" t="s">
+      <c r="H24" s="118" t="s">
         <v>547</v>
       </c>
       <c r="I24" s="44" t="s">
@@ -15990,47 +15977,47 @@
       <c r="K24" s="43" t="s">
         <v>548</v>
       </c>
-      <c r="L24" s="109" t="s">
+      <c r="L24" s="112" t="s">
         <v>507</v>
       </c>
-      <c r="M24" s="119" t="s">
+      <c r="M24" s="122" t="s">
         <v>474</v>
       </c>
       <c r="N24" s="47"/>
     </row>
-    <row r="25" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A25" s="102"/>
-      <c r="B25" s="123"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="114"/>
+    <row r="25" spans="1:14" s="18" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A25" s="105"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="117"/>
       <c r="G25" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="H25" s="117"/>
+      <c r="H25" s="120"/>
       <c r="I25" s="44" t="s">
         <v>549</v>
       </c>
       <c r="J25" s="45"/>
       <c r="K25" s="43"/>
-      <c r="L25" s="110"/>
-      <c r="M25" s="119"/>
+      <c r="L25" s="113"/>
+      <c r="M25" s="122"/>
       <c r="N25" s="47"/>
     </row>
-    <row r="26" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A26" s="102"/>
-      <c r="B26" s="123"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="101" t="s">
+    <row r="26" spans="1:14" s="18" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A26" s="105"/>
+      <c r="B26" s="126"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="104" t="s">
         <v>475</v>
       </c>
-      <c r="F26" s="112" t="s">
+      <c r="F26" s="115" t="s">
         <v>550</v>
       </c>
       <c r="G26" s="78"/>
-      <c r="H26" s="115" t="s">
+      <c r="H26" s="118" t="s">
         <v>551</v>
       </c>
       <c r="I26" s="44" t="s">
@@ -16042,21 +16029,21 @@
       <c r="K26" s="43" t="s">
         <v>553</v>
       </c>
-      <c r="L26" s="110"/>
-      <c r="M26" s="119"/>
+      <c r="L26" s="113"/>
+      <c r="M26" s="122"/>
       <c r="N26" s="47"/>
     </row>
-    <row r="27" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A27" s="102"/>
-      <c r="B27" s="123"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="114"/>
+    <row r="27" spans="1:14" s="18" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A27" s="105"/>
+      <c r="B27" s="126"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="117"/>
       <c r="G27" s="58" t="s">
         <v>583</v>
       </c>
-      <c r="H27" s="117"/>
+      <c r="H27" s="120"/>
       <c r="I27" s="44" t="s">
         <v>483</v>
       </c>
@@ -16064,15 +16051,15 @@
         <v>479</v>
       </c>
       <c r="K27" s="43"/>
-      <c r="L27" s="110"/>
-      <c r="M27" s="119"/>
+      <c r="L27" s="113"/>
+      <c r="M27" s="122"/>
       <c r="N27" s="47"/>
     </row>
-    <row r="28" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A28" s="102"/>
-      <c r="B28" s="123"/>
-      <c r="C28" s="102"/>
-      <c r="D28" s="106"/>
+    <row r="28" spans="1:14" s="18" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A28" s="105"/>
+      <c r="B28" s="126"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="109"/>
       <c r="E28" s="41" t="s">
         <v>477</v>
       </c>
@@ -16091,15 +16078,15 @@
       <c r="K28" s="43" t="s">
         <v>556</v>
       </c>
-      <c r="L28" s="110"/>
-      <c r="M28" s="119"/>
+      <c r="L28" s="113"/>
+      <c r="M28" s="122"/>
       <c r="N28" s="47"/>
     </row>
-    <row r="29" spans="1:14" s="18" customFormat="1" ht="19" customHeight="1">
-      <c r="A29" s="103"/>
-      <c r="B29" s="124"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="108"/>
+    <row r="29" spans="1:14" s="18" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A29" s="106"/>
+      <c r="B29" s="127"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="111"/>
       <c r="E29" s="41" t="s">
         <v>480</v>
       </c>
@@ -16121,11 +16108,11 @@
       <c r="K29" s="43" t="s">
         <v>559</v>
       </c>
-      <c r="L29" s="111"/>
-      <c r="M29" s="119"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="122"/>
       <c r="N29" s="47"/>
     </row>
-    <row r="30" spans="1:14" s="18" customFormat="1" ht="8" customHeight="1">
+    <row r="30" spans="1:14" s="18" customFormat="1" ht="8.1" customHeight="1">
       <c r="A30" s="72"/>
       <c r="B30" s="72"/>
       <c r="C30" s="72"/>
@@ -16140,27 +16127,27 @@
       <c r="L30" s="69"/>
       <c r="M30" s="69"/>
     </row>
-    <row r="31" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A31" s="101" t="s">
+    <row r="31" spans="1:14" s="18" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A31" s="104" t="s">
         <v>485</v>
       </c>
-      <c r="B31" s="101" t="s">
+      <c r="B31" s="104" t="s">
         <v>486</v>
       </c>
-      <c r="C31" s="101" t="s">
+      <c r="C31" s="104" t="s">
         <v>487</v>
       </c>
-      <c r="D31" s="105" t="s">
+      <c r="D31" s="108" t="s">
         <v>560</v>
       </c>
-      <c r="E31" s="101" t="s">
+      <c r="E31" s="104" t="s">
         <v>488</v>
       </c>
-      <c r="F31" s="112" t="s">
+      <c r="F31" s="115" t="s">
         <v>561</v>
       </c>
       <c r="G31" s="78"/>
-      <c r="H31" s="115" t="s">
+      <c r="H31" s="118" t="s">
         <v>562</v>
       </c>
       <c r="I31" s="76" t="s">
@@ -16172,22 +16159,22 @@
       <c r="K31" s="43" t="s">
         <v>564</v>
       </c>
-      <c r="L31" s="119" t="s">
+      <c r="L31" s="122" t="s">
         <v>490</v>
       </c>
-      <c r="M31" s="119" t="s">
+      <c r="M31" s="122" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A32" s="102"/>
-      <c r="B32" s="102"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="113"/>
+    <row r="32" spans="1:14" s="18" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A32" s="105"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="116"/>
       <c r="G32" s="79"/>
-      <c r="H32" s="116"/>
+      <c r="H32" s="119"/>
       <c r="I32" s="51" t="s">
         <v>565</v>
       </c>
@@ -16195,79 +16182,79 @@
       <c r="K32" s="43" t="s">
         <v>566</v>
       </c>
-      <c r="L32" s="119"/>
-      <c r="M32" s="119"/>
-    </row>
-    <row r="33" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A33" s="102"/>
-      <c r="B33" s="102"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="106"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="114"/>
+      <c r="L32" s="122"/>
+      <c r="M32" s="122"/>
+    </row>
+    <row r="33" spans="1:13" s="18" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A33" s="105"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="117"/>
       <c r="G33" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="H33" s="117"/>
+      <c r="H33" s="120"/>
       <c r="I33" s="51" t="s">
         <v>500</v>
       </c>
       <c r="J33" s="44"/>
       <c r="K33" s="43"/>
-      <c r="L33" s="119"/>
-      <c r="M33" s="119"/>
-    </row>
-    <row r="34" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A34" s="102"/>
-      <c r="B34" s="102"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="106"/>
-      <c r="E34" s="101" t="s">
+      <c r="L33" s="122"/>
+      <c r="M33" s="122"/>
+    </row>
+    <row r="34" spans="1:13" s="18" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A34" s="105"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="104" t="s">
         <v>492</v>
       </c>
-      <c r="F34" s="112" t="s">
+      <c r="F34" s="115" t="s">
         <v>567</v>
       </c>
       <c r="G34" s="78"/>
-      <c r="H34" s="115" t="s">
+      <c r="H34" s="118" t="s">
         <v>568</v>
       </c>
       <c r="I34" s="44" t="s">
         <v>569</v>
       </c>
       <c r="J34" s="44"/>
-      <c r="K34" s="125"/>
-      <c r="L34" s="119"/>
-      <c r="M34" s="119"/>
-    </row>
-    <row r="35" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A35" s="102"/>
-      <c r="B35" s="102"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="106"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="113"/>
+      <c r="K34" s="128"/>
+      <c r="L34" s="122"/>
+      <c r="M34" s="122"/>
+    </row>
+    <row r="35" spans="1:13" s="18" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A35" s="105"/>
+      <c r="B35" s="105"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="116"/>
       <c r="G35" s="79"/>
-      <c r="H35" s="116"/>
+      <c r="H35" s="119"/>
       <c r="I35" s="44" t="s">
         <v>496</v>
       </c>
       <c r="J35" s="44"/>
-      <c r="K35" s="125"/>
-      <c r="L35" s="119"/>
-      <c r="M35" s="119"/>
-    </row>
-    <row r="36" spans="1:13" s="18" customFormat="1" ht="14" customHeight="1">
-      <c r="A36" s="102"/>
-      <c r="B36" s="102"/>
-      <c r="C36" s="102"/>
-      <c r="D36" s="106"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="114"/>
+      <c r="K35" s="128"/>
+      <c r="L35" s="122"/>
+      <c r="M35" s="122"/>
+    </row>
+    <row r="36" spans="1:13" s="18" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A36" s="105"/>
+      <c r="B36" s="105"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="109"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="117"/>
       <c r="G36" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="H36" s="117"/>
+      <c r="H36" s="120"/>
       <c r="I36" s="44" t="s">
         <v>570</v>
       </c>
@@ -16277,68 +16264,68 @@
       <c r="K36" s="43" t="s">
         <v>494</v>
       </c>
-      <c r="L36" s="119"/>
-      <c r="M36" s="119"/>
+      <c r="L36" s="122"/>
+      <c r="M36" s="122"/>
     </row>
     <row r="37" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="A37" s="102"/>
-      <c r="B37" s="102"/>
-      <c r="C37" s="102"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="101" t="s">
+      <c r="A37" s="105"/>
+      <c r="B37" s="105"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="109"/>
+      <c r="E37" s="104" t="s">
         <v>495</v>
       </c>
-      <c r="F37" s="112" t="s">
+      <c r="F37" s="115" t="s">
         <v>571</v>
       </c>
       <c r="G37" s="78"/>
-      <c r="H37" s="126" t="s">
+      <c r="H37" s="129" t="s">
         <v>572</v>
       </c>
       <c r="I37" s="44" t="s">
         <v>573</v>
       </c>
-      <c r="J37" s="127" t="s">
+      <c r="J37" s="130" t="s">
         <v>497</v>
       </c>
-      <c r="K37" s="126" t="s">
+      <c r="K37" s="129" t="s">
         <v>499</v>
       </c>
-      <c r="L37" s="119"/>
-      <c r="M37" s="119"/>
+      <c r="L37" s="122"/>
+      <c r="M37" s="122"/>
     </row>
     <row r="38" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="A38" s="102"/>
-      <c r="B38" s="102"/>
-      <c r="C38" s="102"/>
-      <c r="D38" s="106"/>
-      <c r="E38" s="102"/>
-      <c r="F38" s="113"/>
+      <c r="A38" s="105"/>
+      <c r="B38" s="105"/>
+      <c r="C38" s="105"/>
+      <c r="D38" s="109"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="116"/>
       <c r="G38" s="79" t="s">
         <v>582</v>
       </c>
-      <c r="H38" s="126"/>
+      <c r="H38" s="129"/>
       <c r="I38" s="63" t="s">
         <v>574</v>
       </c>
-      <c r="J38" s="127"/>
-      <c r="K38" s="126"/>
-      <c r="L38" s="119"/>
-      <c r="M38" s="119"/>
+      <c r="J38" s="130"/>
+      <c r="K38" s="129"/>
+      <c r="L38" s="122"/>
+      <c r="M38" s="122"/>
     </row>
     <row r="39" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="A39" s="102"/>
-      <c r="B39" s="102"/>
-      <c r="C39" s="102"/>
-      <c r="D39" s="106"/>
-      <c r="E39" s="102" t="s">
+      <c r="A39" s="105"/>
+      <c r="B39" s="105"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="105" t="s">
         <v>498</v>
       </c>
-      <c r="F39" s="113" t="s">
+      <c r="F39" s="116" t="s">
         <v>575</v>
       </c>
       <c r="G39" s="79"/>
-      <c r="H39" s="126" t="s">
+      <c r="H39" s="129" t="s">
         <v>576</v>
       </c>
       <c r="I39" s="63" t="s">
@@ -16348,18 +16335,18 @@
       <c r="K39" s="51" t="s">
         <v>578</v>
       </c>
-      <c r="L39" s="119"/>
-      <c r="M39" s="119"/>
+      <c r="L39" s="122"/>
+      <c r="M39" s="122"/>
     </row>
     <row r="40" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="A40" s="102"/>
-      <c r="B40" s="102"/>
-      <c r="C40" s="102"/>
-      <c r="D40" s="106"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="113"/>
+      <c r="A40" s="105"/>
+      <c r="B40" s="105"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="109"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="116"/>
       <c r="G40" s="79"/>
-      <c r="H40" s="126"/>
+      <c r="H40" s="129"/>
       <c r="I40" s="63" t="s">
         <v>579</v>
       </c>
@@ -16367,32 +16354,32 @@
       <c r="K40" s="51" t="s">
         <v>580</v>
       </c>
-      <c r="L40" s="119"/>
-      <c r="M40" s="119"/>
-    </row>
-    <row r="41" spans="1:13" s="18" customFormat="1" ht="17" customHeight="1">
-      <c r="A41" s="103"/>
-      <c r="B41" s="103"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="108"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="114"/>
+      <c r="L40" s="122"/>
+      <c r="M40" s="122"/>
+    </row>
+    <row r="41" spans="1:13" s="18" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A41" s="106"/>
+      <c r="B41" s="106"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="117"/>
       <c r="G41" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="H41" s="126"/>
+      <c r="H41" s="129"/>
       <c r="I41" s="63" t="s">
         <v>581</v>
       </c>
       <c r="J41" s="46"/>
       <c r="K41" s="43"/>
-      <c r="L41" s="119"/>
-      <c r="M41" s="119"/>
+      <c r="L41" s="122"/>
+      <c r="M41" s="122"/>
     </row>
     <row r="42" spans="1:13">
       <c r="K42" s="77"/>
     </row>
-    <row r="43" spans="1:13" ht="23" customHeight="1"/>
+    <row r="43" spans="1:13" ht="23.1" customHeight="1"/>
   </sheetData>
   <mergeCells count="52">
     <mergeCell ref="L31:L41"/>
@@ -16449,106 +16436,106 @@
     <mergeCell ref="D13:D22"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H6" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="H7" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="H8" r:id="rId3" display="Understanding Cisco Cloud Fundamentals Video Lessons" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="J6" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="J7" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="K6" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="K7" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="K11" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
-    <hyperlink ref="K8" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
-    <hyperlink ref="H28" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
-    <hyperlink ref="H24" r:id="rId11" display="Introduction to Software Defined Networking (SDN) Live Lessons (ISBN-10: 0-7897-5381-2) " xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
-    <hyperlink ref="I24" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
-    <hyperlink ref="I26" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
-    <hyperlink ref="I28" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
-    <hyperlink ref="I29" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
-    <hyperlink ref="J27" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
-    <hyperlink ref="J29" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
-    <hyperlink ref="K24" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
-    <hyperlink ref="K26" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
-    <hyperlink ref="K28" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
-    <hyperlink ref="K29" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
-    <hyperlink ref="J31" r:id="rId22" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
-    <hyperlink ref="K36" r:id="rId23" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
-    <hyperlink ref="L31" r:id="rId24" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
-    <hyperlink ref="L36" r:id="rId25" display="https://learningnetwork.cisco.com/community/it_careers/internet-of-things-webinar-series" xr:uid="{00000000-0004-0000-0300-000018000000}"/>
-    <hyperlink ref="L41" r:id="rId26" display="https://learningnetwork.cisco.com/community/it_careers/internet-of-things-webinar-series" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
-    <hyperlink ref="M31" r:id="rId27" xr:uid="{00000000-0004-0000-0300-00001A000000}"/>
-    <hyperlink ref="M36" r:id="rId28" display="https://developer.cisco.com/site/iot/" xr:uid="{00000000-0004-0000-0300-00001B000000}"/>
-    <hyperlink ref="M41" r:id="rId29" display="https://developer.cisco.com/site/iot/" xr:uid="{00000000-0004-0000-0300-00001C000000}"/>
-    <hyperlink ref="L24" r:id="rId30" display="CCIE Technical webinars " xr:uid="{00000000-0004-0000-0300-00001D000000}"/>
-    <hyperlink ref="L6" r:id="rId31" display="CCIE Technical webinars " xr:uid="{00000000-0004-0000-0300-00001E000000}"/>
-    <hyperlink ref="M24" r:id="rId32" xr:uid="{00000000-0004-0000-0300-00001F000000}"/>
-    <hyperlink ref="M26" r:id="rId33" display="https://developer.cisco.com/site/networking/" xr:uid="{00000000-0004-0000-0300-000020000000}"/>
-    <hyperlink ref="M28" r:id="rId34" display="https://developer.cisco.com/site/networking/" xr:uid="{00000000-0004-0000-0300-000021000000}"/>
-    <hyperlink ref="M29" r:id="rId35" display="https://developer.cisco.com/site/networking/" xr:uid="{00000000-0004-0000-0300-000022000000}"/>
-    <hyperlink ref="M6" r:id="rId36" xr:uid="{00000000-0004-0000-0300-000023000000}"/>
-    <hyperlink ref="H31" r:id="rId37" display="IoT Fundamentals -  Chapter 1,2,5,6 &amp; 8" xr:uid="{00000000-0004-0000-0300-000024000000}"/>
-    <hyperlink ref="I7" r:id="rId38" location="/video/1509464085M66129455a" xr:uid="{00000000-0004-0000-0300-000025000000}"/>
-    <hyperlink ref="J24:J26" r:id="rId39" display="Designing and Implementing Cisco Network Programmability (NPDESI)" xr:uid="{00000000-0004-0000-0300-000026000000}"/>
-    <hyperlink ref="J36" r:id="rId40" xr:uid="{00000000-0004-0000-0300-000027000000}"/>
-    <hyperlink ref="K4" r:id="rId41" display="Evolving Technologies Study Guide - By: Nicholas J. Russo CCIE #42518 (RS/SP)" xr:uid="{00000000-0004-0000-0300-000028000000}"/>
-    <hyperlink ref="I3" r:id="rId42" display="BRKCCIE-3352 - The Next Generation CCIE" xr:uid="{00000000-0004-0000-0300-000029000000}"/>
-    <hyperlink ref="H34" r:id="rId43" display="IoT Fundamentals -  Chapter 1,2,5,6 &amp; 8" xr:uid="{00000000-0004-0000-0300-00002A000000}"/>
-    <hyperlink ref="H39" r:id="rId44" display="IoT Fundamentals -  Chapter 1,2,5,6 &amp; 8" xr:uid="{00000000-0004-0000-0300-00002B000000}"/>
-    <hyperlink ref="H26" r:id="rId45" display="Programming and Automating Cisco Networks (ISBN-10: 0-13-443678-4) " xr:uid="{00000000-0004-0000-0300-00002C000000}"/>
-    <hyperlink ref="H29" r:id="rId46" xr:uid="{00000000-0004-0000-0300-00002D000000}"/>
-    <hyperlink ref="I12" r:id="rId47" xr:uid="{00000000-0004-0000-0300-00002E000000}"/>
-    <hyperlink ref="J8" r:id="rId48" xr:uid="{00000000-0004-0000-0300-00002F000000}"/>
-    <hyperlink ref="I10" r:id="rId49" xr:uid="{00000000-0004-0000-0300-000030000000}"/>
-    <hyperlink ref="I9" r:id="rId50" xr:uid="{00000000-0004-0000-0300-000031000000}"/>
-    <hyperlink ref="I8" r:id="rId51" xr:uid="{00000000-0004-0000-0300-000032000000}"/>
-    <hyperlink ref="I25" r:id="rId52" xr:uid="{00000000-0004-0000-0300-000033000000}"/>
-    <hyperlink ref="K31" r:id="rId53" xr:uid="{00000000-0004-0000-0300-000034000000}"/>
-    <hyperlink ref="K12" r:id="rId54" xr:uid="{00000000-0004-0000-0300-000035000000}"/>
-    <hyperlink ref="I11" r:id="rId55" display="BRKCLD-2008 - Multi-Cloud and Application Centric Modeling, Deployment and Management with Cisco CloudCenter " xr:uid="{00000000-0004-0000-0300-000036000000}"/>
-    <hyperlink ref="I13" r:id="rId56" xr:uid="{00000000-0004-0000-0300-000037000000}"/>
-    <hyperlink ref="K15" r:id="rId57" xr:uid="{00000000-0004-0000-0300-000038000000}"/>
-    <hyperlink ref="I18" r:id="rId58" display="Deploy a Hybrid, Multi-Cloud Container Environment in Less than an Hour - BRKCLD-2235" xr:uid="{00000000-0004-0000-0300-000039000000}"/>
-    <hyperlink ref="I22" r:id="rId59" xr:uid="{00000000-0004-0000-0300-00003A000000}"/>
-    <hyperlink ref="I15" r:id="rId60" xr:uid="{00000000-0004-0000-0300-00003B000000}"/>
-    <hyperlink ref="H13" r:id="rId61" xr:uid="{00000000-0004-0000-0300-00003C000000}"/>
-    <hyperlink ref="H14" r:id="rId62" xr:uid="{00000000-0004-0000-0300-00003D000000}"/>
-    <hyperlink ref="H15" r:id="rId63" xr:uid="{00000000-0004-0000-0300-00003E000000}"/>
-    <hyperlink ref="I19" r:id="rId64" xr:uid="{00000000-0004-0000-0300-00003F000000}"/>
-    <hyperlink ref="K19" r:id="rId65" xr:uid="{00000000-0004-0000-0300-000040000000}"/>
-    <hyperlink ref="I20" r:id="rId66" xr:uid="{00000000-0004-0000-0300-000041000000}"/>
-    <hyperlink ref="I14" r:id="rId67" xr:uid="{00000000-0004-0000-0300-000042000000}"/>
-    <hyperlink ref="K14" r:id="rId68" xr:uid="{00000000-0004-0000-0300-000043000000}"/>
-    <hyperlink ref="I16" r:id="rId69" xr:uid="{00000000-0004-0000-0300-000044000000}"/>
-    <hyperlink ref="K9" r:id="rId70" xr:uid="{00000000-0004-0000-0300-000045000000}"/>
-    <hyperlink ref="K20" r:id="rId71" xr:uid="{00000000-0004-0000-0300-000046000000}"/>
-    <hyperlink ref="K13" r:id="rId72" xr:uid="{00000000-0004-0000-0300-000047000000}"/>
-    <hyperlink ref="K18" r:id="rId73" xr:uid="{00000000-0004-0000-0300-000048000000}"/>
-    <hyperlink ref="I21" r:id="rId74" location="/video/1509464085I780fb5aec" xr:uid="{00000000-0004-0000-0300-000049000000}"/>
-    <hyperlink ref="I27" r:id="rId75" xr:uid="{00000000-0004-0000-0300-00004A000000}"/>
-    <hyperlink ref="I17" r:id="rId76" xr:uid="{00000000-0004-0000-0300-00004B000000}"/>
-    <hyperlink ref="I37" r:id="rId77" location="/video/1509464085H9c9ccc747" display="SOLSEC-1004 - Securing the IoT" xr:uid="{00000000-0004-0000-0300-00004C000000}"/>
-    <hyperlink ref="I36" r:id="rId78" xr:uid="{00000000-0004-0000-0300-00004D000000}"/>
-    <hyperlink ref="I38" r:id="rId79" xr:uid="{00000000-0004-0000-0300-00004E000000}"/>
-    <hyperlink ref="I34" r:id="rId80" xr:uid="{00000000-0004-0000-0300-00004F000000}"/>
-    <hyperlink ref="J37" r:id="rId81" xr:uid="{00000000-0004-0000-0300-000050000000}"/>
-    <hyperlink ref="K37" r:id="rId82" xr:uid="{00000000-0004-0000-0300-000051000000}"/>
-    <hyperlink ref="I31" r:id="rId83" xr:uid="{00000000-0004-0000-0300-000052000000}"/>
-    <hyperlink ref="I35" r:id="rId84" xr:uid="{00000000-0004-0000-0300-000053000000}"/>
-    <hyperlink ref="I33" r:id="rId85" xr:uid="{00000000-0004-0000-0300-000054000000}"/>
-    <hyperlink ref="I41" r:id="rId86" xr:uid="{00000000-0004-0000-0300-000055000000}"/>
-    <hyperlink ref="I32" r:id="rId87" xr:uid="{00000000-0004-0000-0300-000056000000}"/>
-    <hyperlink ref="I39" r:id="rId88" xr:uid="{00000000-0004-0000-0300-000057000000}"/>
-    <hyperlink ref="I40" r:id="rId89" xr:uid="{00000000-0004-0000-0300-000058000000}"/>
-    <hyperlink ref="K39" r:id="rId90" location="~stickynav=3" xr:uid="{00000000-0004-0000-0300-000059000000}"/>
-    <hyperlink ref="K32" r:id="rId91" xr:uid="{00000000-0004-0000-0300-00005A000000}"/>
-    <hyperlink ref="K40" r:id="rId92" xr:uid="{00000000-0004-0000-0300-00005B000000}"/>
-    <hyperlink ref="M6:M22" r:id="rId93" display="Cloud Dev Center" xr:uid="{00000000-0004-0000-0300-00005C000000}"/>
-    <hyperlink ref="J26" r:id="rId94" xr:uid="{00000000-0004-0000-0300-00005D000000}"/>
-    <hyperlink ref="H37:H38" r:id="rId95" display="IoT Fundamentals - Chapter 8" xr:uid="{00000000-0004-0000-0300-00005E000000}"/>
-    <hyperlink ref="H31:H33" r:id="rId96" display="IoT Fundamentals - Chapters 1, 2, 3, 5, and 6" xr:uid="{00000000-0004-0000-0300-00005F000000}"/>
-    <hyperlink ref="H26:H27" r:id="rId97" display="Programming and Automating Cisco Networks - Chapters 7 and 8" xr:uid="{00000000-0004-0000-0300-000060000000}"/>
-    <hyperlink ref="H24:H25" r:id="rId98" display="Introduction to Software Defined Networking (SDN) - LiveLessons " xr:uid="{00000000-0004-0000-0300-000061000000}"/>
-    <hyperlink ref="H8:H10" r:id="rId99" display="Understanding Cisco Cloud Fundamentals - LiveLessons" xr:uid="{00000000-0004-0000-0300-000062000000}"/>
-    <hyperlink ref="K24:L29" r:id="rId100" display="Simplify and Automate the Virtualized Environment - White Paper" xr:uid="{00000000-0004-0000-0300-000063000000}"/>
+    <hyperlink ref="H6" r:id="rId1"/>
+    <hyperlink ref="H7" r:id="rId2"/>
+    <hyperlink ref="H8" r:id="rId3" display="Understanding Cisco Cloud Fundamentals Video Lessons"/>
+    <hyperlink ref="J6" r:id="rId4"/>
+    <hyperlink ref="J7" r:id="rId5"/>
+    <hyperlink ref="K6" r:id="rId6"/>
+    <hyperlink ref="K7" r:id="rId7"/>
+    <hyperlink ref="K11" r:id="rId8"/>
+    <hyperlink ref="K8" r:id="rId9"/>
+    <hyperlink ref="H28" r:id="rId10"/>
+    <hyperlink ref="H24" r:id="rId11" display="Introduction to Software Defined Networking (SDN) Live Lessons (ISBN-10: 0-7897-5381-2) "/>
+    <hyperlink ref="I24" r:id="rId12"/>
+    <hyperlink ref="I26" r:id="rId13"/>
+    <hyperlink ref="I28" r:id="rId14"/>
+    <hyperlink ref="I29" r:id="rId15"/>
+    <hyperlink ref="J27" r:id="rId16"/>
+    <hyperlink ref="J29" r:id="rId17"/>
+    <hyperlink ref="K24" r:id="rId18"/>
+    <hyperlink ref="K26" r:id="rId19"/>
+    <hyperlink ref="K28" r:id="rId20"/>
+    <hyperlink ref="K29" r:id="rId21"/>
+    <hyperlink ref="J31" r:id="rId22"/>
+    <hyperlink ref="K36" r:id="rId23"/>
+    <hyperlink ref="L31" r:id="rId24"/>
+    <hyperlink ref="L36" r:id="rId25" display="https://learningnetwork.cisco.com/community/it_careers/internet-of-things-webinar-series"/>
+    <hyperlink ref="L41" r:id="rId26" display="https://learningnetwork.cisco.com/community/it_careers/internet-of-things-webinar-series"/>
+    <hyperlink ref="M31" r:id="rId27"/>
+    <hyperlink ref="M36" r:id="rId28" display="https://developer.cisco.com/site/iot/"/>
+    <hyperlink ref="M41" r:id="rId29" display="https://developer.cisco.com/site/iot/"/>
+    <hyperlink ref="L24" r:id="rId30" display="CCIE Technical webinars "/>
+    <hyperlink ref="L6" r:id="rId31" display="CCIE Technical webinars "/>
+    <hyperlink ref="M24" r:id="rId32"/>
+    <hyperlink ref="M26" r:id="rId33" display="https://developer.cisco.com/site/networking/"/>
+    <hyperlink ref="M28" r:id="rId34" display="https://developer.cisco.com/site/networking/"/>
+    <hyperlink ref="M29" r:id="rId35" display="https://developer.cisco.com/site/networking/"/>
+    <hyperlink ref="M6" r:id="rId36"/>
+    <hyperlink ref="H31" r:id="rId37" display="IoT Fundamentals -  Chapter 1,2,5,6 &amp; 8"/>
+    <hyperlink ref="I7" r:id="rId38" location="/video/1509464085M66129455a"/>
+    <hyperlink ref="J24:J26" r:id="rId39" display="Designing and Implementing Cisco Network Programmability (NPDESI)"/>
+    <hyperlink ref="J36" r:id="rId40"/>
+    <hyperlink ref="K4" r:id="rId41" display="Evolving Technologies Study Guide - By: Nicholas J. Russo CCIE #42518 (RS/SP)"/>
+    <hyperlink ref="I3" r:id="rId42" display="BRKCCIE-3352 - The Next Generation CCIE"/>
+    <hyperlink ref="H34" r:id="rId43" display="IoT Fundamentals -  Chapter 1,2,5,6 &amp; 8"/>
+    <hyperlink ref="H39" r:id="rId44" display="IoT Fundamentals -  Chapter 1,2,5,6 &amp; 8"/>
+    <hyperlink ref="H26" r:id="rId45" display="Programming and Automating Cisco Networks (ISBN-10: 0-13-443678-4) "/>
+    <hyperlink ref="H29" r:id="rId46"/>
+    <hyperlink ref="I12" r:id="rId47"/>
+    <hyperlink ref="J8" r:id="rId48"/>
+    <hyperlink ref="I10" r:id="rId49"/>
+    <hyperlink ref="I9" r:id="rId50"/>
+    <hyperlink ref="I8" r:id="rId51"/>
+    <hyperlink ref="I25" r:id="rId52"/>
+    <hyperlink ref="K31" r:id="rId53"/>
+    <hyperlink ref="K12" r:id="rId54"/>
+    <hyperlink ref="I11" r:id="rId55" display="BRKCLD-2008 - Multi-Cloud and Application Centric Modeling, Deployment and Management with Cisco CloudCenter "/>
+    <hyperlink ref="I13" r:id="rId56"/>
+    <hyperlink ref="K15" r:id="rId57"/>
+    <hyperlink ref="I18" r:id="rId58" display="Deploy a Hybrid, Multi-Cloud Container Environment in Less than an Hour - BRKCLD-2235"/>
+    <hyperlink ref="I22" r:id="rId59"/>
+    <hyperlink ref="I15" r:id="rId60"/>
+    <hyperlink ref="H13" r:id="rId61"/>
+    <hyperlink ref="H14" r:id="rId62"/>
+    <hyperlink ref="H15" r:id="rId63"/>
+    <hyperlink ref="I19" r:id="rId64"/>
+    <hyperlink ref="K19" r:id="rId65"/>
+    <hyperlink ref="I20" r:id="rId66"/>
+    <hyperlink ref="I14" r:id="rId67"/>
+    <hyperlink ref="K14" r:id="rId68"/>
+    <hyperlink ref="I16" r:id="rId69"/>
+    <hyperlink ref="K9" r:id="rId70"/>
+    <hyperlink ref="K20" r:id="rId71"/>
+    <hyperlink ref="K13" r:id="rId72"/>
+    <hyperlink ref="K18" r:id="rId73"/>
+    <hyperlink ref="I21" r:id="rId74" location="/video/1509464085I780fb5aec"/>
+    <hyperlink ref="I27" r:id="rId75"/>
+    <hyperlink ref="I17" r:id="rId76"/>
+    <hyperlink ref="I37" r:id="rId77" location="/video/1509464085H9c9ccc747" display="SOLSEC-1004 - Securing the IoT"/>
+    <hyperlink ref="I36" r:id="rId78"/>
+    <hyperlink ref="I38" r:id="rId79"/>
+    <hyperlink ref="I34" r:id="rId80"/>
+    <hyperlink ref="J37" r:id="rId81"/>
+    <hyperlink ref="K37" r:id="rId82"/>
+    <hyperlink ref="I31" r:id="rId83"/>
+    <hyperlink ref="I35" r:id="rId84"/>
+    <hyperlink ref="I33" r:id="rId85"/>
+    <hyperlink ref="I41" r:id="rId86"/>
+    <hyperlink ref="I32" r:id="rId87"/>
+    <hyperlink ref="I39" r:id="rId88"/>
+    <hyperlink ref="I40" r:id="rId89"/>
+    <hyperlink ref="K39" r:id="rId90" location="~stickynav=3"/>
+    <hyperlink ref="K32" r:id="rId91"/>
+    <hyperlink ref="K40" r:id="rId92"/>
+    <hyperlink ref="M6:M22" r:id="rId93" display="Cloud Dev Center"/>
+    <hyperlink ref="J26" r:id="rId94"/>
+    <hyperlink ref="H37:H38" r:id="rId95" display="IoT Fundamentals - Chapter 8"/>
+    <hyperlink ref="H31:H33" r:id="rId96" display="IoT Fundamentals - Chapters 1, 2, 3, 5, and 6"/>
+    <hyperlink ref="H26:H27" r:id="rId97" display="Programming and Automating Cisco Networks - Chapters 7 and 8"/>
+    <hyperlink ref="H24:H25" r:id="rId98" display="Introduction to Software Defined Networking (SDN) - LiveLessons "/>
+    <hyperlink ref="H8:H10" r:id="rId99" display="Understanding Cisco Cloud Fundamentals - LiveLessons"/>
+    <hyperlink ref="K24:L29" r:id="rId100" display="Simplify and Automate the Virtualized Environment - White Paper"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/blueprints-combined.xlsx
+++ b/blueprints-combined.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="660" windowWidth="30405" windowHeight="20040" tabRatio="500"/>
+    <workbookView xWindow="3768" yWindow="660" windowWidth="15288" windowHeight="7956" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="lab-topics" sheetId="6" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="evolving-1-1" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'lab-topics'!$C$1:$C$349</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'written-topics'!$B$2:$H$893</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="973">
   <si>
     <t>date</t>
   </si>
@@ -2973,9 +2974,6 @@
   </si>
   <si>
     <t>https://www.cisco.com/c/en/us/td/docs/ios-xml/ios/ipmulti_mfib/configuration/15-mt/imc-mfib-15-mt-book/imc_mfib_overview.html</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>target</t>
@@ -3646,13 +3644,7 @@
     <xf numFmtId="9" fontId="21" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3662,30 +3654,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3706,17 +3674,32 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3727,14 +3710,29 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4215,27 +4213,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q349"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C179" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C192" sqref="C192"/>
+      <selection pane="bottomRight" activeCell="B333" sqref="B333"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="99.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="99.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="24.95" customHeight="1">
+    <row r="1" spans="1:17" ht="24.9" customHeight="1">
       <c r="A1" s="93"/>
       <c r="B1" s="93"/>
       <c r="C1" s="99"/>
@@ -4246,7 +4245,7 @@
       </c>
       <c r="G1" s="90">
         <f ca="1">(TODAY()-I1)*-1</f>
-        <v>-133</v>
+        <v>-146</v>
       </c>
       <c r="H1" s="91" t="s">
         <v>10</v>
@@ -4255,7 +4254,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="96" customFormat="1" ht="40.5" customHeight="1" thickBot="1">
+    <row r="2" spans="1:17" s="96" customFormat="1" ht="40.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A2" s="94" t="s">
         <v>940</v>
       </c>
@@ -4263,13 +4262,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="98" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D2" s="95" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E2" s="95" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F2" s="95"/>
       <c r="G2" s="95"/>
@@ -4284,7 +4283,7 @@
       <c r="P2" s="95"/>
       <c r="Q2" s="95"/>
     </row>
-    <row r="3" spans="1:17" ht="21">
+    <row r="3" spans="1:17" ht="21" hidden="1">
       <c r="A3" s="5"/>
       <c r="B3" s="84" t="s">
         <v>647</v>
@@ -4295,7 +4294,7 @@
       <c r="D3" s="85"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:17" ht="18.75">
+    <row r="4" spans="1:17" ht="18" hidden="1">
       <c r="A4" s="83" t="s">
         <v>928</v>
       </c>
@@ -4303,7 +4302,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.75">
+    <row r="5" spans="1:17" ht="15.6" hidden="1">
       <c r="A5" s="83" t="s">
         <v>928</v>
       </c>
@@ -4311,7 +4310,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15.75">
+    <row r="6" spans="1:17" ht="15.6" hidden="1">
       <c r="A6" s="83" t="s">
         <v>928</v>
       </c>
@@ -4319,7 +4318,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15.75">
+    <row r="7" spans="1:17" ht="15.6" hidden="1">
       <c r="A7" s="83" t="s">
         <v>928</v>
       </c>
@@ -4327,7 +4326,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15.75">
+    <row r="8" spans="1:17" ht="15.6" hidden="1">
       <c r="A8" s="83" t="s">
         <v>928</v>
       </c>
@@ -4335,7 +4334,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15.75">
+    <row r="9" spans="1:17" ht="15.6" hidden="1">
       <c r="A9" s="83" t="s">
         <v>928</v>
       </c>
@@ -4343,7 +4342,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15.75">
+    <row r="10" spans="1:17" ht="15.6" hidden="1">
       <c r="A10" s="83" t="s">
         <v>928</v>
       </c>
@@ -4354,13 +4353,13 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E10" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="15.75">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.6" hidden="1">
       <c r="A11" s="83" t="s">
         <v>928</v>
       </c>
@@ -4371,10 +4370,10 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.6" hidden="1">
       <c r="A12" s="83" t="s">
         <v>928</v>
       </c>
@@ -4382,7 +4381,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15.75">
+    <row r="13" spans="1:17" ht="15.6" hidden="1">
       <c r="A13" s="83" t="s">
         <v>928</v>
       </c>
@@ -4390,7 +4389,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15.75">
+    <row r="14" spans="1:17" ht="15.6" hidden="1">
       <c r="A14" s="83" t="s">
         <v>928</v>
       </c>
@@ -4398,7 +4397,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15.75">
+    <row r="15" spans="1:17" ht="15.6" hidden="1">
       <c r="A15" s="83" t="s">
         <v>928</v>
       </c>
@@ -4406,7 +4405,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15.75">
+    <row r="16" spans="1:17" ht="15.6" hidden="1">
       <c r="A16" s="83" t="s">
         <v>928</v>
       </c>
@@ -4414,7 +4413,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75">
+    <row r="17" spans="1:4" ht="15.6" hidden="1">
       <c r="A17" s="83" t="s">
         <v>928</v>
       </c>
@@ -4422,7 +4421,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75">
+    <row r="18" spans="1:4" ht="15.6" hidden="1">
       <c r="A18" s="83" t="s">
         <v>928</v>
       </c>
@@ -4430,7 +4429,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75">
+    <row r="19" spans="1:4" ht="15.6" hidden="1">
       <c r="A19" s="83" t="s">
         <v>928</v>
       </c>
@@ -4438,7 +4437,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75">
+    <row r="20" spans="1:4" ht="15.6" hidden="1">
       <c r="A20" s="83" t="s">
         <v>928</v>
       </c>
@@ -4446,7 +4445,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75">
+    <row r="21" spans="1:4" ht="15.6" hidden="1">
       <c r="A21" s="83" t="s">
         <v>928</v>
       </c>
@@ -4454,7 +4453,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75">
+    <row r="22" spans="1:4" ht="15.6" hidden="1">
       <c r="A22" s="83" t="s">
         <v>928</v>
       </c>
@@ -4462,7 +4461,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75">
+    <row r="23" spans="1:4" ht="15.6" hidden="1">
       <c r="A23" s="83" t="s">
         <v>928</v>
       </c>
@@ -4470,7 +4469,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75">
+    <row r="24" spans="1:4" ht="15.6" hidden="1">
       <c r="A24" s="83" t="s">
         <v>928</v>
       </c>
@@ -4478,7 +4477,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75">
+    <row r="25" spans="1:4" ht="15.6" hidden="1">
       <c r="A25" s="83" t="s">
         <v>928</v>
       </c>
@@ -4489,10 +4488,10 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.6" hidden="1">
       <c r="A26" s="83" t="s">
         <v>928</v>
       </c>
@@ -4500,7 +4499,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75">
+    <row r="27" spans="1:4" ht="15.6" hidden="1">
       <c r="A27" s="83" t="s">
         <v>928</v>
       </c>
@@ -4508,7 +4507,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75">
+    <row r="28" spans="1:4" ht="15.6" hidden="1">
       <c r="A28" s="83" t="s">
         <v>928</v>
       </c>
@@ -4516,7 +4515,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75">
+    <row r="29" spans="1:4" ht="15.6" hidden="1">
       <c r="A29" s="83" t="s">
         <v>928</v>
       </c>
@@ -4524,7 +4523,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75">
+    <row r="30" spans="1:4" ht="15.6" hidden="1">
       <c r="A30" s="83" t="s">
         <v>928</v>
       </c>
@@ -4532,7 +4531,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75">
+    <row r="31" spans="1:4" ht="15.6" hidden="1">
       <c r="A31" s="83" t="s">
         <v>928</v>
       </c>
@@ -4540,7 +4539,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75">
+    <row r="32" spans="1:4" ht="15.6" hidden="1">
       <c r="A32" s="83" t="s">
         <v>928</v>
       </c>
@@ -4551,10 +4550,10 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="18.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18" hidden="1">
       <c r="A33" s="83" t="s">
         <v>928</v>
       </c>
@@ -4562,7 +4561,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75">
+    <row r="34" spans="1:4" ht="15.6" hidden="1">
       <c r="A34" s="83" t="s">
         <v>928</v>
       </c>
@@ -4570,10 +4569,10 @@
         <v>623</v>
       </c>
       <c r="C34" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.6" hidden="1">
       <c r="A35" s="83" t="s">
         <v>928</v>
       </c>
@@ -4581,10 +4580,10 @@
         <v>624</v>
       </c>
       <c r="C35" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.6" hidden="1">
       <c r="A36" s="83" t="s">
         <v>928</v>
       </c>
@@ -4592,10 +4591,10 @@
         <v>625</v>
       </c>
       <c r="C36" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.6" hidden="1">
       <c r="A37" s="83" t="s">
         <v>928</v>
       </c>
@@ -4603,10 +4602,10 @@
         <v>626</v>
       </c>
       <c r="C37" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.6" hidden="1">
       <c r="A38" s="83" t="s">
         <v>928</v>
       </c>
@@ -4614,10 +4613,10 @@
         <v>627</v>
       </c>
       <c r="C38" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.6" hidden="1">
       <c r="A39" s="83" t="s">
         <v>928</v>
       </c>
@@ -4625,10 +4624,10 @@
         <v>628</v>
       </c>
       <c r="C39" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="18.75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18" hidden="1">
       <c r="A40" s="83" t="s">
         <v>928</v>
       </c>
@@ -4636,7 +4635,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75">
+    <row r="41" spans="1:4" ht="15.6" hidden="1">
       <c r="A41" s="83" t="s">
         <v>928</v>
       </c>
@@ -4644,7 +4643,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75">
+    <row r="42" spans="1:4" ht="15.6" hidden="1">
       <c r="A42" s="83" t="s">
         <v>928</v>
       </c>
@@ -4652,7 +4651,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75">
+    <row r="43" spans="1:4" ht="15.6" hidden="1">
       <c r="A43" s="83" t="s">
         <v>928</v>
       </c>
@@ -4660,7 +4659,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75">
+    <row r="44" spans="1:4" ht="15.6" hidden="1">
       <c r="A44" s="83" t="s">
         <v>928</v>
       </c>
@@ -4668,7 +4667,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75">
+    <row r="45" spans="1:4" ht="15.6" hidden="1">
       <c r="A45" s="83" t="s">
         <v>928</v>
       </c>
@@ -4679,10 +4678,10 @@
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="18.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="18" hidden="1">
       <c r="A46" s="83" t="s">
         <v>928</v>
       </c>
@@ -4690,7 +4689,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75">
+    <row r="47" spans="1:4" ht="15.6" hidden="1">
       <c r="A47" s="83" t="s">
         <v>928</v>
       </c>
@@ -4698,7 +4697,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75">
+    <row r="48" spans="1:4" ht="15.6" hidden="1">
       <c r="A48" s="83" t="s">
         <v>928</v>
       </c>
@@ -4709,10 +4708,10 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15.75">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.6" hidden="1">
       <c r="A49" s="83" t="s">
         <v>928</v>
       </c>
@@ -4723,10 +4722,10 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15.75">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.6" hidden="1">
       <c r="A50" s="83" t="s">
         <v>928</v>
       </c>
@@ -4737,10 +4736,10 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15.75">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.6" hidden="1">
       <c r="A51" s="83" t="s">
         <v>928</v>
       </c>
@@ -4748,7 +4747,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75">
+    <row r="52" spans="1:5" ht="15.6" hidden="1">
       <c r="A52" s="83" t="s">
         <v>928</v>
       </c>
@@ -4756,7 +4755,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.75">
+    <row r="53" spans="1:5" ht="15.6" hidden="1">
       <c r="A53" s="83" t="s">
         <v>928</v>
       </c>
@@ -4764,7 +4763,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75">
+    <row r="54" spans="1:5" ht="15.6" hidden="1">
       <c r="A54" s="83" t="s">
         <v>928</v>
       </c>
@@ -4772,7 +4771,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75">
+    <row r="55" spans="1:5" ht="15.6" hidden="1">
       <c r="A55" s="83" t="s">
         <v>928</v>
       </c>
@@ -4780,7 +4779,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75">
+    <row r="56" spans="1:5" ht="15.6" hidden="1">
       <c r="A56" s="83" t="s">
         <v>928</v>
       </c>
@@ -4788,7 +4787,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.75">
+    <row r="57" spans="1:5" ht="15.6" hidden="1">
       <c r="A57" s="83" t="s">
         <v>928</v>
       </c>
@@ -4796,7 +4795,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="21">
+    <row r="58" spans="1:5" ht="21" hidden="1">
       <c r="A58" s="5"/>
       <c r="B58" s="84" t="s">
         <v>648</v>
@@ -4807,7 +4806,7 @@
       <c r="D58" s="85"/>
       <c r="E58" s="5"/>
     </row>
-    <row r="59" spans="1:5" ht="18.75">
+    <row r="59" spans="1:5" ht="18" hidden="1">
       <c r="A59" s="83" t="s">
         <v>929</v>
       </c>
@@ -4815,7 +4814,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.75">
+    <row r="60" spans="1:5" ht="15.6" hidden="1">
       <c r="A60" s="83" t="s">
         <v>929</v>
       </c>
@@ -4823,7 +4822,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.75">
+    <row r="61" spans="1:5" ht="15.6" hidden="1">
       <c r="A61" s="83" t="s">
         <v>929</v>
       </c>
@@ -4831,7 +4830,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.75">
+    <row r="62" spans="1:5" ht="15.6" hidden="1">
       <c r="A62" s="83" t="s">
         <v>929</v>
       </c>
@@ -4839,7 +4838,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.75">
+    <row r="63" spans="1:5" ht="15.6" hidden="1">
       <c r="A63" s="83" t="s">
         <v>929</v>
       </c>
@@ -4850,10 +4849,10 @@
         <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="15.75">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.6" hidden="1">
       <c r="A64" s="83" t="s">
         <v>929</v>
       </c>
@@ -4861,7 +4860,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.75">
+    <row r="65" spans="1:5" ht="15.6" hidden="1">
       <c r="A65" s="83" t="s">
         <v>929</v>
       </c>
@@ -4872,10 +4871,10 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.6">
       <c r="A66" s="83" t="s">
         <v>929</v>
       </c>
@@ -4886,10 +4885,10 @@
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.6">
       <c r="A67" s="83" t="s">
         <v>929</v>
       </c>
@@ -4900,10 +4899,10 @@
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.6">
       <c r="A68" s="83" t="s">
         <v>929</v>
       </c>
@@ -4914,10 +4913,10 @@
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="18.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="18" hidden="1">
       <c r="A69" s="83" t="s">
         <v>929</v>
       </c>
@@ -4925,7 +4924,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.75">
+    <row r="70" spans="1:5" ht="15.6" hidden="1">
       <c r="A70" s="83" t="s">
         <v>929</v>
       </c>
@@ -4933,7 +4932,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.75">
+    <row r="71" spans="1:5" ht="15.6" hidden="1">
       <c r="A71" s="83" t="s">
         <v>929</v>
       </c>
@@ -4941,7 +4940,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.75">
+    <row r="72" spans="1:5" ht="15.6" hidden="1">
       <c r="A72" s="83" t="s">
         <v>929</v>
       </c>
@@ -4949,7 +4948,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15.75">
+    <row r="73" spans="1:5" ht="15.6" hidden="1">
       <c r="A73" s="83" t="s">
         <v>929</v>
       </c>
@@ -4960,7 +4959,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.75">
+    <row r="74" spans="1:5" ht="15.6" hidden="1">
       <c r="A74" s="83" t="s">
         <v>929</v>
       </c>
@@ -4968,7 +4967,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15.75">
+    <row r="75" spans="1:5" ht="15.6" hidden="1">
       <c r="A75" s="83" t="s">
         <v>929</v>
       </c>
@@ -4976,13 +4975,13 @@
         <v>664</v>
       </c>
       <c r="C75" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15.6" hidden="1">
       <c r="A76" s="83" t="s">
         <v>929</v>
       </c>
@@ -4990,13 +4989,13 @@
         <v>665</v>
       </c>
       <c r="C76" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15.6" hidden="1">
       <c r="A77" s="83" t="s">
         <v>929</v>
       </c>
@@ -5004,13 +5003,13 @@
         <v>666</v>
       </c>
       <c r="C77" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15.6" hidden="1">
       <c r="A78" s="83" t="s">
         <v>929</v>
       </c>
@@ -5018,13 +5017,13 @@
         <v>667</v>
       </c>
       <c r="C78" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15.6" hidden="1">
       <c r="A79" s="83" t="s">
         <v>929</v>
       </c>
@@ -5032,13 +5031,13 @@
         <v>668</v>
       </c>
       <c r="C79" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15.6">
       <c r="A80" s="83" t="s">
         <v>929</v>
       </c>
@@ -5046,13 +5045,13 @@
         <v>669</v>
       </c>
       <c r="C80" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15.6" hidden="1">
       <c r="A81" s="83" t="s">
         <v>929</v>
       </c>
@@ -5060,13 +5059,13 @@
         <v>670</v>
       </c>
       <c r="C81" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15.6">
       <c r="A82" s="83" t="s">
         <v>929</v>
       </c>
@@ -5077,10 +5076,10 @@
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="18.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="18" hidden="1">
       <c r="A83" s="83" t="s">
         <v>929</v>
       </c>
@@ -5088,7 +5087,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15.75">
+    <row r="84" spans="1:4" ht="15.6" hidden="1">
       <c r="A84" s="83" t="s">
         <v>929</v>
       </c>
@@ -5096,7 +5095,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15.75">
+    <row r="85" spans="1:4" ht="15.6" hidden="1">
       <c r="A85" s="83" t="s">
         <v>929</v>
       </c>
@@ -5104,7 +5103,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15.75">
+    <row r="86" spans="1:4" ht="15.6" hidden="1">
       <c r="A86" s="83" t="s">
         <v>929</v>
       </c>
@@ -5112,7 +5111,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15.75">
+    <row r="87" spans="1:4" ht="15.6" hidden="1">
       <c r="A87" s="83" t="s">
         <v>929</v>
       </c>
@@ -5120,7 +5119,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15.75">
+    <row r="88" spans="1:4" ht="15.6" hidden="1">
       <c r="A88" s="83" t="s">
         <v>929</v>
       </c>
@@ -5128,7 +5127,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15.75">
+    <row r="89" spans="1:4" ht="15.6" hidden="1">
       <c r="A89" s="83" t="s">
         <v>929</v>
       </c>
@@ -5136,7 +5135,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15.75">
+    <row r="90" spans="1:4" ht="15.6" hidden="1">
       <c r="A90" s="83" t="s">
         <v>929</v>
       </c>
@@ -5144,7 +5143,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15.75">
+    <row r="91" spans="1:4" ht="15.6" hidden="1">
       <c r="A91" s="83" t="s">
         <v>929</v>
       </c>
@@ -5152,7 +5151,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15.75">
+    <row r="92" spans="1:4" ht="15.6" hidden="1">
       <c r="A92" s="83" t="s">
         <v>929</v>
       </c>
@@ -5160,7 +5159,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15.75">
+    <row r="93" spans="1:4" ht="15.6" hidden="1">
       <c r="A93" s="83" t="s">
         <v>929</v>
       </c>
@@ -5168,7 +5167,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15.75">
+    <row r="94" spans="1:4" ht="15.6" hidden="1">
       <c r="A94" s="83" t="s">
         <v>929</v>
       </c>
@@ -5179,10 +5178,10 @@
         <v>2</v>
       </c>
       <c r="D94" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="15.75">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15.6" hidden="1">
       <c r="A95" s="83" t="s">
         <v>929</v>
       </c>
@@ -5190,7 +5189,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15.75">
+    <row r="96" spans="1:4" ht="15.6" hidden="1">
       <c r="A96" s="83" t="s">
         <v>929</v>
       </c>
@@ -5198,7 +5197,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15.75">
+    <row r="97" spans="1:4" ht="15.6" hidden="1">
       <c r="A97" s="83" t="s">
         <v>929</v>
       </c>
@@ -5206,7 +5205,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15.75">
+    <row r="98" spans="1:4" ht="15.6" hidden="1">
       <c r="A98" s="83" t="s">
         <v>929</v>
       </c>
@@ -5214,7 +5213,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15.75">
+    <row r="99" spans="1:4" ht="15.6" hidden="1">
       <c r="A99" s="83" t="s">
         <v>929</v>
       </c>
@@ -5222,7 +5221,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15.75">
+    <row r="100" spans="1:4" ht="15.6" hidden="1">
       <c r="A100" s="83" t="s">
         <v>929</v>
       </c>
@@ -5230,7 +5229,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15.75">
+    <row r="101" spans="1:4" ht="15.6" hidden="1">
       <c r="A101" s="83" t="s">
         <v>929</v>
       </c>
@@ -5238,7 +5237,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15.75">
+    <row r="102" spans="1:4" ht="15.6" hidden="1">
       <c r="A102" s="83" t="s">
         <v>929</v>
       </c>
@@ -5246,7 +5245,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15.75">
+    <row r="103" spans="1:4" ht="15.6" hidden="1">
       <c r="A103" s="83" t="s">
         <v>929</v>
       </c>
@@ -5254,7 +5253,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15.75">
+    <row r="104" spans="1:4" ht="15.6" hidden="1">
       <c r="A104" s="83" t="s">
         <v>929</v>
       </c>
@@ -5262,7 +5261,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15.75">
+    <row r="105" spans="1:4" ht="15.6" hidden="1">
       <c r="A105" s="83" t="s">
         <v>929</v>
       </c>
@@ -5270,7 +5269,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15.75">
+    <row r="106" spans="1:4" ht="15.6" hidden="1">
       <c r="A106" s="83" t="s">
         <v>929</v>
       </c>
@@ -5278,7 +5277,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15.75">
+    <row r="107" spans="1:4" ht="15.6" hidden="1">
       <c r="A107" s="83" t="s">
         <v>929</v>
       </c>
@@ -5286,7 +5285,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15.75">
+    <row r="108" spans="1:4" ht="15.6" hidden="1">
       <c r="A108" s="83" t="s">
         <v>929</v>
       </c>
@@ -5297,10 +5296,10 @@
         <v>3</v>
       </c>
       <c r="D108" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="18.75">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="18" hidden="1">
       <c r="A109" s="83" t="s">
         <v>929</v>
       </c>
@@ -5308,7 +5307,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15.75">
+    <row r="110" spans="1:4" ht="15.6" hidden="1">
       <c r="A110" s="83" t="s">
         <v>929</v>
       </c>
@@ -5316,7 +5315,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="18.75">
+    <row r="111" spans="1:4" ht="18" hidden="1">
       <c r="A111" s="83" t="s">
         <v>929</v>
       </c>
@@ -5324,7 +5323,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15.75">
+    <row r="112" spans="1:4" ht="15.6" hidden="1">
       <c r="A112" s="83" t="s">
         <v>929</v>
       </c>
@@ -5332,7 +5331,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15.75">
+    <row r="113" spans="1:4" ht="15.6" hidden="1">
       <c r="A113" s="83" t="s">
         <v>929</v>
       </c>
@@ -5340,7 +5339,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15.75">
+    <row r="114" spans="1:4" ht="15.6" hidden="1">
       <c r="A114" s="83" t="s">
         <v>929</v>
       </c>
@@ -5348,7 +5347,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15.75">
+    <row r="115" spans="1:4" ht="15.6" hidden="1">
       <c r="A115" s="83" t="s">
         <v>929</v>
       </c>
@@ -5359,10 +5358,10 @@
         <v>2</v>
       </c>
       <c r="D115" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="15.75">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15.6" hidden="1">
       <c r="A116" s="83" t="s">
         <v>929</v>
       </c>
@@ -5370,7 +5369,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15.75">
+    <row r="117" spans="1:4" ht="15.6" hidden="1">
       <c r="A117" s="83" t="s">
         <v>929</v>
       </c>
@@ -5378,7 +5377,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15.75">
+    <row r="118" spans="1:4" ht="15.6" hidden="1">
       <c r="A118" s="83" t="s">
         <v>929</v>
       </c>
@@ -5386,7 +5385,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15.75">
+    <row r="119" spans="1:4" ht="15.6" hidden="1">
       <c r="A119" s="83" t="s">
         <v>929</v>
       </c>
@@ -5394,7 +5393,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15.75">
+    <row r="120" spans="1:4" ht="15.6" hidden="1">
       <c r="A120" s="83" t="s">
         <v>929</v>
       </c>
@@ -5402,7 +5401,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15.75">
+    <row r="121" spans="1:4" ht="15.6" hidden="1">
       <c r="A121" s="83" t="s">
         <v>929</v>
       </c>
@@ -5410,7 +5409,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15.75">
+    <row r="122" spans="1:4" ht="15.6" hidden="1">
       <c r="A122" s="83" t="s">
         <v>929</v>
       </c>
@@ -5418,7 +5417,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15.75">
+    <row r="123" spans="1:4" ht="15.6" hidden="1">
       <c r="A123" s="83" t="s">
         <v>929</v>
       </c>
@@ -5426,7 +5425,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15.75">
+    <row r="124" spans="1:4" ht="15.6" hidden="1">
       <c r="A124" s="83" t="s">
         <v>929</v>
       </c>
@@ -5434,7 +5433,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15.75">
+    <row r="125" spans="1:4" ht="15.6" hidden="1">
       <c r="A125" s="83" t="s">
         <v>929</v>
       </c>
@@ -5445,10 +5444,10 @@
         <v>3</v>
       </c>
       <c r="D125" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15.6" hidden="1">
       <c r="A126" s="83" t="s">
         <v>929</v>
       </c>
@@ -5456,7 +5455,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15.75">
+    <row r="127" spans="1:4" ht="15.6" hidden="1">
       <c r="A127" s="83" t="s">
         <v>929</v>
       </c>
@@ -5464,7 +5463,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15.75">
+    <row r="128" spans="1:4" ht="15.6" hidden="1">
       <c r="A128" s="83" t="s">
         <v>929</v>
       </c>
@@ -5472,7 +5471,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15.75">
+    <row r="129" spans="1:4" ht="15.6" hidden="1">
       <c r="A129" s="83" t="s">
         <v>929</v>
       </c>
@@ -5480,7 +5479,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15.75">
+    <row r="130" spans="1:4" ht="15.6" hidden="1">
       <c r="A130" s="83" t="s">
         <v>929</v>
       </c>
@@ -5488,7 +5487,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15.75">
+    <row r="131" spans="1:4" ht="15.6" hidden="1">
       <c r="A131" s="83" t="s">
         <v>929</v>
       </c>
@@ -5496,7 +5495,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15.75">
+    <row r="132" spans="1:4" ht="15.6" hidden="1">
       <c r="A132" s="83" t="s">
         <v>929</v>
       </c>
@@ -5507,10 +5506,10 @@
         <v>2</v>
       </c>
       <c r="D132" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15.6" hidden="1">
       <c r="A133" s="83" t="s">
         <v>929</v>
       </c>
@@ -5518,7 +5517,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15.75">
+    <row r="134" spans="1:4" ht="15.6" hidden="1">
       <c r="A134" s="83" t="s">
         <v>929</v>
       </c>
@@ -5526,7 +5525,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15.75">
+    <row r="135" spans="1:4" ht="15.6" hidden="1">
       <c r="A135" s="83" t="s">
         <v>929</v>
       </c>
@@ -5534,7 +5533,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15.75">
+    <row r="136" spans="1:4" ht="15.6" hidden="1">
       <c r="A136" s="83" t="s">
         <v>929</v>
       </c>
@@ -5542,7 +5541,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15.75">
+    <row r="137" spans="1:4" ht="15.6" hidden="1">
       <c r="A137" s="83" t="s">
         <v>929</v>
       </c>
@@ -5550,7 +5549,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15.75">
+    <row r="138" spans="1:4" ht="15.6" hidden="1">
       <c r="A138" s="83" t="s">
         <v>929</v>
       </c>
@@ -5558,7 +5557,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15.75">
+    <row r="139" spans="1:4" ht="15.6" hidden="1">
       <c r="A139" s="83" t="s">
         <v>929</v>
       </c>
@@ -5566,7 +5565,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15.75">
+    <row r="140" spans="1:4" ht="15.6" hidden="1">
       <c r="A140" s="83" t="s">
         <v>929</v>
       </c>
@@ -5577,10 +5576,10 @@
         <v>2</v>
       </c>
       <c r="D140" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15.6" hidden="1">
       <c r="A141" s="83" t="s">
         <v>929</v>
       </c>
@@ -5588,7 +5587,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15.75">
+    <row r="142" spans="1:4" ht="15.6" hidden="1">
       <c r="A142" s="83" t="s">
         <v>929</v>
       </c>
@@ -5596,7 +5595,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="18.75">
+    <row r="143" spans="1:4" ht="18" hidden="1">
       <c r="A143" s="83" t="s">
         <v>929</v>
       </c>
@@ -5604,7 +5603,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="15.75">
+    <row r="144" spans="1:4" ht="15.6" hidden="1">
       <c r="A144" s="83" t="s">
         <v>929</v>
       </c>
@@ -5612,7 +5611,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="15.75">
+    <row r="145" spans="1:5" ht="15.6" hidden="1">
       <c r="A145" s="83" t="s">
         <v>929</v>
       </c>
@@ -5623,10 +5622,10 @@
         <v>3</v>
       </c>
       <c r="D145" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="15.6" hidden="1">
       <c r="A146" s="83" t="s">
         <v>929</v>
       </c>
@@ -5634,7 +5633,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="15.75">
+    <row r="147" spans="1:5" ht="15.6" hidden="1">
       <c r="A147" s="83" t="s">
         <v>929</v>
       </c>
@@ -5642,7 +5641,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="15.75">
+    <row r="148" spans="1:5" ht="15.6" hidden="1">
       <c r="A148" s="83" t="s">
         <v>929</v>
       </c>
@@ -5650,7 +5649,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="15.75">
+    <row r="149" spans="1:5" ht="15.6" hidden="1">
       <c r="A149" s="83" t="s">
         <v>929</v>
       </c>
@@ -5658,7 +5657,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15.75">
+    <row r="150" spans="1:5" ht="15.6" hidden="1">
       <c r="A150" s="83" t="s">
         <v>929</v>
       </c>
@@ -5666,7 +5665,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15.75">
+    <row r="151" spans="1:5" ht="15.6" hidden="1">
       <c r="A151" s="83" t="s">
         <v>929</v>
       </c>
@@ -5677,13 +5676,13 @@
         <v>3</v>
       </c>
       <c r="D151" t="s">
+        <v>952</v>
+      </c>
+      <c r="E151" t="s">
         <v>953</v>
       </c>
-      <c r="E151" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="15.75">
+    </row>
+    <row r="152" spans="1:5" ht="15.6" hidden="1">
       <c r="A152" s="83" t="s">
         <v>929</v>
       </c>
@@ -5694,10 +5693,10 @@
         <v>2</v>
       </c>
       <c r="D152" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="15.6" hidden="1">
       <c r="A153" s="83" t="s">
         <v>929</v>
       </c>
@@ -5705,7 +5704,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15.75">
+    <row r="154" spans="1:5" ht="15.6" hidden="1">
       <c r="A154" s="83" t="s">
         <v>929</v>
       </c>
@@ -5716,13 +5715,13 @@
         <v>2</v>
       </c>
       <c r="D154" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E154" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="15.75">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="15.6" hidden="1">
       <c r="A155" s="83" t="s">
         <v>929</v>
       </c>
@@ -5733,10 +5732,10 @@
         <v>3</v>
       </c>
       <c r="D155" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15.6" hidden="1">
       <c r="A156" s="83" t="s">
         <v>929</v>
       </c>
@@ -5744,7 +5743,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="15.75">
+    <row r="157" spans="1:5" ht="15.6" hidden="1">
       <c r="A157" s="83" t="s">
         <v>929</v>
       </c>
@@ -5752,7 +5751,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="15.75">
+    <row r="158" spans="1:5" ht="15.6" hidden="1">
       <c r="A158" s="83" t="s">
         <v>929</v>
       </c>
@@ -5760,7 +5759,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="15.75">
+    <row r="159" spans="1:5" ht="15.6" hidden="1">
       <c r="A159" s="83" t="s">
         <v>929</v>
       </c>
@@ -5768,7 +5767,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="15.75">
+    <row r="160" spans="1:5" ht="15.6" hidden="1">
       <c r="A160" s="83" t="s">
         <v>929</v>
       </c>
@@ -5779,10 +5778,10 @@
         <v>3</v>
       </c>
       <c r="D160" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="15.6" hidden="1">
       <c r="A161" s="83" t="s">
         <v>929</v>
       </c>
@@ -5790,7 +5789,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="15.75">
+    <row r="162" spans="1:4" ht="15.6" hidden="1">
       <c r="A162" s="83" t="s">
         <v>929</v>
       </c>
@@ -5798,7 +5797,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="15.75">
+    <row r="163" spans="1:4" ht="15.6" hidden="1">
       <c r="A163" s="83" t="s">
         <v>929</v>
       </c>
@@ -5809,10 +5808,10 @@
         <v>2</v>
       </c>
       <c r="D163" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="15.6" hidden="1">
       <c r="A164" s="83" t="s">
         <v>929</v>
       </c>
@@ -5820,13 +5819,13 @@
         <v>749</v>
       </c>
       <c r="C164" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D164" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="15.6" hidden="1">
       <c r="A165" s="83" t="s">
         <v>929</v>
       </c>
@@ -5837,10 +5836,10 @@
         <v>2</v>
       </c>
       <c r="D165" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="15.6" hidden="1">
       <c r="A166" s="83" t="s">
         <v>929</v>
       </c>
@@ -5851,10 +5850,10 @@
         <v>2</v>
       </c>
       <c r="D166" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="15.6" hidden="1">
       <c r="A167" s="83" t="s">
         <v>929</v>
       </c>
@@ -5862,13 +5861,13 @@
         <v>751</v>
       </c>
       <c r="C167" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D167" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="18.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="18" hidden="1">
       <c r="A168" s="83" t="s">
         <v>929</v>
       </c>
@@ -5876,7 +5875,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="15.75">
+    <row r="169" spans="1:4" ht="15.6" hidden="1">
       <c r="A169" s="83" t="s">
         <v>929</v>
       </c>
@@ -5884,7 +5883,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="15.75">
+    <row r="170" spans="1:4" ht="15.6" hidden="1">
       <c r="A170" s="83" t="s">
         <v>929</v>
       </c>
@@ -5892,13 +5891,13 @@
         <v>753</v>
       </c>
       <c r="C170" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D170" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="15.75">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="15.6" hidden="1">
       <c r="A171" s="83" t="s">
         <v>929</v>
       </c>
@@ -5906,7 +5905,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="15.75">
+    <row r="172" spans="1:4" ht="15.6" hidden="1">
       <c r="A172" s="83" t="s">
         <v>929</v>
       </c>
@@ -5914,7 +5913,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="15.75">
+    <row r="173" spans="1:4" ht="15.6" hidden="1">
       <c r="A173" s="83" t="s">
         <v>929</v>
       </c>
@@ -5922,13 +5921,13 @@
         <v>756</v>
       </c>
       <c r="C173" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D173" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="15.6" hidden="1">
       <c r="A174" s="83" t="s">
         <v>929</v>
       </c>
@@ -5936,7 +5935,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="15.75">
+    <row r="175" spans="1:4" ht="15.6" hidden="1">
       <c r="A175" s="83" t="s">
         <v>929</v>
       </c>
@@ -5944,7 +5943,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="15.75">
+    <row r="176" spans="1:4" ht="15.6" hidden="1">
       <c r="A176" s="83" t="s">
         <v>929</v>
       </c>
@@ -5952,13 +5951,13 @@
         <v>759</v>
       </c>
       <c r="C176" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D176" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="15.6" hidden="1">
       <c r="A177" s="83" t="s">
         <v>929</v>
       </c>
@@ -5966,7 +5965,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="15.75">
+    <row r="178" spans="1:5" ht="15.6" hidden="1">
       <c r="A178" s="83" t="s">
         <v>929</v>
       </c>
@@ -5974,7 +5973,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="15.75">
+    <row r="179" spans="1:5" ht="15.6" hidden="1">
       <c r="A179" s="83" t="s">
         <v>929</v>
       </c>
@@ -5982,7 +5981,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="15.75">
+    <row r="180" spans="1:5" ht="15.6" hidden="1">
       <c r="A180" s="83" t="s">
         <v>929</v>
       </c>
@@ -5990,7 +5989,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="15.75">
+    <row r="181" spans="1:5" ht="15.6" hidden="1">
       <c r="A181" s="83" t="s">
         <v>929</v>
       </c>
@@ -6001,10 +6000,10 @@
         <v>2</v>
       </c>
       <c r="D181" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="15.6" hidden="1">
       <c r="A182" s="83" t="s">
         <v>929</v>
       </c>
@@ -6012,7 +6011,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="15.75">
+    <row r="183" spans="1:5" ht="15.6" hidden="1">
       <c r="A183" s="83" t="s">
         <v>929</v>
       </c>
@@ -6023,10 +6022,10 @@
         <v>3</v>
       </c>
       <c r="D183" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="15.6" hidden="1">
       <c r="A184" s="83" t="s">
         <v>929</v>
       </c>
@@ -6037,10 +6036,10 @@
         <v>2</v>
       </c>
       <c r="D184" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="15.6" hidden="1">
       <c r="A185" s="83" t="s">
         <v>929</v>
       </c>
@@ -6048,7 +6047,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="15.75">
+    <row r="186" spans="1:5" ht="15.6" hidden="1">
       <c r="A186" s="83" t="s">
         <v>929</v>
       </c>
@@ -6056,7 +6055,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="15.75">
+    <row r="187" spans="1:5" ht="15.6" hidden="1">
       <c r="A187" s="83" t="s">
         <v>929</v>
       </c>
@@ -6064,7 +6063,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="15.75">
+    <row r="188" spans="1:5" ht="15.6" hidden="1">
       <c r="A188" s="83" t="s">
         <v>929</v>
       </c>
@@ -6075,13 +6074,13 @@
         <v>2</v>
       </c>
       <c r="D188" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E188" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" ht="15.75">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="15.6" hidden="1">
       <c r="A189" s="83" t="s">
         <v>929</v>
       </c>
@@ -6092,13 +6091,13 @@
         <v>2</v>
       </c>
       <c r="D189" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E189" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" ht="15.75">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="15.6" hidden="1">
       <c r="A190" s="83" t="s">
         <v>929</v>
       </c>
@@ -6106,7 +6105,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="15.75">
+    <row r="191" spans="1:5" ht="15.6" hidden="1">
       <c r="A191" s="83" t="s">
         <v>929</v>
       </c>
@@ -6114,21 +6113,21 @@
         <v>774</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="15.75">
+    <row r="192" spans="1:5" ht="15.6" hidden="1">
       <c r="A192" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B192" s="7" t="s">
         <v>775</v>
       </c>
-      <c r="C192" s="12" t="s">
-        <v>951</v>
+      <c r="C192" s="12">
+        <v>3</v>
       </c>
       <c r="D192" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="15.6" hidden="1">
       <c r="A193" s="83" t="s">
         <v>929</v>
       </c>
@@ -6136,21 +6135,21 @@
         <v>776</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="15.75">
+    <row r="194" spans="1:4" ht="15.6" hidden="1">
       <c r="A194" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B194" s="7" t="s">
         <v>777</v>
       </c>
-      <c r="C194" s="12" t="s">
-        <v>951</v>
+      <c r="C194" s="12">
+        <v>3</v>
       </c>
       <c r="D194" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="15.6" hidden="1">
       <c r="A195" s="83" t="s">
         <v>929</v>
       </c>
@@ -6158,7 +6157,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="15.75">
+    <row r="196" spans="1:4" ht="15.6" hidden="1">
       <c r="A196" s="83" t="s">
         <v>929</v>
       </c>
@@ -6166,21 +6165,21 @@
         <v>778</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="15.75">
+    <row r="197" spans="1:4" ht="15.6" hidden="1">
       <c r="A197" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B197" s="7" t="s">
         <v>779</v>
       </c>
-      <c r="C197" s="12" t="s">
-        <v>951</v>
+      <c r="C197" s="12">
+        <v>3</v>
       </c>
       <c r="D197" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="15.6" hidden="1">
       <c r="A198" s="83" t="s">
         <v>929</v>
       </c>
@@ -6188,7 +6187,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="18.75">
+    <row r="199" spans="1:4" ht="18" hidden="1">
       <c r="A199" s="83" t="s">
         <v>929</v>
       </c>
@@ -6196,7 +6195,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="15.75">
+    <row r="200" spans="1:4" ht="15.6" hidden="1">
       <c r="A200" s="83" t="s">
         <v>929</v>
       </c>
@@ -6204,21 +6203,21 @@
         <v>782</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="15.75">
+    <row r="201" spans="1:4" ht="15.6" hidden="1">
       <c r="A201" s="83" t="s">
         <v>929</v>
       </c>
       <c r="B201" s="88" t="s">
         <v>783</v>
       </c>
-      <c r="C201" s="12" t="s">
-        <v>951</v>
+      <c r="C201" s="12">
+        <v>3</v>
       </c>
       <c r="D201" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="15.6" hidden="1">
       <c r="A202" s="83" t="s">
         <v>929</v>
       </c>
@@ -6226,7 +6225,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="15.75">
+    <row r="203" spans="1:4" ht="15.6" hidden="1">
       <c r="A203" s="83" t="s">
         <v>929</v>
       </c>
@@ -6234,7 +6233,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="15.75">
+    <row r="204" spans="1:4" ht="15.6" hidden="1">
       <c r="A204" s="83" t="s">
         <v>929</v>
       </c>
@@ -6242,7 +6241,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="15.75">
+    <row r="205" spans="1:4" ht="15.6" hidden="1">
       <c r="A205" s="83" t="s">
         <v>929</v>
       </c>
@@ -6250,7 +6249,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="15.75">
+    <row r="206" spans="1:4" ht="15.6" hidden="1">
       <c r="A206" s="83" t="s">
         <v>929</v>
       </c>
@@ -6258,7 +6257,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="15.75">
+    <row r="207" spans="1:4" ht="15.6" hidden="1">
       <c r="A207" s="83" t="s">
         <v>929</v>
       </c>
@@ -6266,7 +6265,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="15.75">
+    <row r="208" spans="1:4" ht="15.6" hidden="1">
       <c r="A208" s="83" t="s">
         <v>929</v>
       </c>
@@ -6274,7 +6273,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="15.75">
+    <row r="209" spans="1:5" ht="15.6" hidden="1">
       <c r="A209" s="83" t="s">
         <v>929</v>
       </c>
@@ -6282,7 +6281,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="15.75">
+    <row r="210" spans="1:5" ht="15.6" hidden="1">
       <c r="A210" s="83" t="s">
         <v>929</v>
       </c>
@@ -6290,7 +6289,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="21">
+    <row r="211" spans="1:5" ht="21" hidden="1">
       <c r="A211" s="5"/>
       <c r="B211" s="84" t="s">
         <v>793</v>
@@ -6301,7 +6300,7 @@
       <c r="D211" s="85"/>
       <c r="E211" s="5"/>
     </row>
-    <row r="212" spans="1:5" ht="18.75">
+    <row r="212" spans="1:5" ht="18" hidden="1">
       <c r="A212" s="83" t="s">
         <v>589</v>
       </c>
@@ -6309,7 +6308,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="15.75">
+    <row r="213" spans="1:5" ht="15.6" hidden="1">
       <c r="A213" s="83" t="s">
         <v>589</v>
       </c>
@@ -6317,52 +6316,52 @@
         <v>795</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="15.75">
+    <row r="214" spans="1:5" ht="15.6" hidden="1">
       <c r="A214" s="83" t="s">
         <v>589</v>
       </c>
       <c r="B214" s="7" t="s">
         <v>796</v>
       </c>
-      <c r="C214" s="12" t="s">
-        <v>951</v>
+      <c r="C214" s="12">
+        <v>2</v>
       </c>
       <c r="D214" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="15.6" hidden="1">
       <c r="A215" s="83" t="s">
         <v>589</v>
       </c>
       <c r="B215" s="7" t="s">
         <v>797</v>
       </c>
-      <c r="C215" s="12" t="s">
-        <v>951</v>
+      <c r="C215" s="12">
+        <v>3</v>
       </c>
       <c r="D215" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E215" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" ht="15.75">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="15.6" hidden="1">
       <c r="A216" s="83" t="s">
         <v>589</v>
       </c>
       <c r="B216" s="7" t="s">
         <v>798</v>
       </c>
-      <c r="C216" s="12" t="s">
-        <v>951</v>
+      <c r="C216" s="12">
+        <v>3</v>
       </c>
       <c r="D216" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="15.6" hidden="1">
       <c r="A217" s="83" t="s">
         <v>589</v>
       </c>
@@ -6370,7 +6369,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="15.75">
+    <row r="218" spans="1:5" ht="15.6" hidden="1">
       <c r="A218" s="83" t="s">
         <v>589</v>
       </c>
@@ -6378,24 +6377,24 @@
         <v>800</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="15.75">
+    <row r="219" spans="1:5" ht="15.6" hidden="1">
       <c r="A219" s="83" t="s">
         <v>589</v>
       </c>
       <c r="B219" s="7" t="s">
         <v>801</v>
       </c>
-      <c r="C219" s="12" t="s">
-        <v>951</v>
+      <c r="C219" s="12">
+        <v>2</v>
       </c>
       <c r="D219" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E219" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" ht="15.75">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="15.6" hidden="1">
       <c r="A220" s="83" t="s">
         <v>589</v>
       </c>
@@ -6403,7 +6402,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="15.75">
+    <row r="221" spans="1:5" ht="15.6" hidden="1">
       <c r="A221" s="83" t="s">
         <v>589</v>
       </c>
@@ -6411,7 +6410,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="15.75">
+    <row r="222" spans="1:5" ht="15.6" hidden="1">
       <c r="A222" s="83" t="s">
         <v>589</v>
       </c>
@@ -6419,7 +6418,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="15.75">
+    <row r="223" spans="1:5" ht="15.6" hidden="1">
       <c r="A223" s="83" t="s">
         <v>589</v>
       </c>
@@ -6427,7 +6426,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="15.75">
+    <row r="224" spans="1:5" ht="15.6" hidden="1">
       <c r="A224" s="83" t="s">
         <v>589</v>
       </c>
@@ -6435,7 +6434,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="15.75">
+    <row r="225" spans="1:4" ht="15.6" hidden="1">
       <c r="A225" s="83" t="s">
         <v>589</v>
       </c>
@@ -6443,35 +6442,35 @@
         <v>807</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="15.75">
+    <row r="226" spans="1:4" ht="15.6" hidden="1">
       <c r="A226" s="83" t="s">
         <v>589</v>
       </c>
       <c r="B226" s="7" t="s">
         <v>808</v>
       </c>
-      <c r="C226" s="12" t="s">
-        <v>951</v>
+      <c r="C226" s="12">
+        <v>2</v>
       </c>
       <c r="D226" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="15.6" hidden="1">
       <c r="A227" s="83" t="s">
         <v>589</v>
       </c>
       <c r="B227" s="7" t="s">
         <v>809</v>
       </c>
-      <c r="C227" s="12" t="s">
-        <v>951</v>
+      <c r="C227" s="12">
+        <v>2</v>
       </c>
       <c r="D227" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" ht="18.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="18" hidden="1">
       <c r="A228" s="83" t="s">
         <v>589</v>
       </c>
@@ -6479,7 +6478,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="15.75">
+    <row r="229" spans="1:4" ht="15.6" hidden="1">
       <c r="A229" s="83" t="s">
         <v>589</v>
       </c>
@@ -6487,7 +6486,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="15.75">
+    <row r="230" spans="1:4" ht="15.6" hidden="1">
       <c r="A230" s="83" t="s">
         <v>589</v>
       </c>
@@ -6495,35 +6494,35 @@
         <v>811</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="15.75">
+    <row r="231" spans="1:4" ht="15.6">
       <c r="A231" s="83" t="s">
         <v>589</v>
       </c>
       <c r="B231" s="7" t="s">
         <v>812</v>
       </c>
-      <c r="C231" s="12" t="s">
-        <v>951</v>
+      <c r="C231" s="12">
+        <v>1</v>
       </c>
       <c r="D231" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="15.6" hidden="1">
       <c r="A232" s="83" t="s">
         <v>589</v>
       </c>
       <c r="B232" s="7" t="s">
         <v>813</v>
       </c>
-      <c r="C232" s="12" t="s">
-        <v>951</v>
+      <c r="C232" s="12">
+        <v>2</v>
       </c>
       <c r="D232" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="18.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="18" hidden="1">
       <c r="A233" s="83" t="s">
         <v>589</v>
       </c>
@@ -6531,7 +6530,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="15.75">
+    <row r="234" spans="1:4" ht="15.6" hidden="1">
       <c r="A234" s="83" t="s">
         <v>589</v>
       </c>
@@ -6539,7 +6538,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="15.75">
+    <row r="235" spans="1:4" ht="15.6" hidden="1">
       <c r="A235" s="83" t="s">
         <v>589</v>
       </c>
@@ -6547,7 +6546,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="15.75">
+    <row r="236" spans="1:4" ht="15.6" hidden="1">
       <c r="A236" s="83" t="s">
         <v>589</v>
       </c>
@@ -6555,7 +6554,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="15.75">
+    <row r="237" spans="1:4" ht="15.6" hidden="1">
       <c r="A237" s="83" t="s">
         <v>589</v>
       </c>
@@ -6563,7 +6562,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="15.75">
+    <row r="238" spans="1:4" ht="15.6" hidden="1">
       <c r="A238" s="83" t="s">
         <v>589</v>
       </c>
@@ -6571,7 +6570,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="15.75">
+    <row r="239" spans="1:4" ht="15.6" hidden="1">
       <c r="A239" s="83" t="s">
         <v>589</v>
       </c>
@@ -6579,7 +6578,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="15.75">
+    <row r="240" spans="1:4" ht="15.6" hidden="1">
       <c r="A240" s="83" t="s">
         <v>589</v>
       </c>
@@ -6587,7 +6586,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="15.75">
+    <row r="241" spans="1:5" ht="15.6" hidden="1">
       <c r="A241" s="83" t="s">
         <v>589</v>
       </c>
@@ -6595,7 +6594,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="15.75">
+    <row r="242" spans="1:5" ht="15.6" hidden="1">
       <c r="A242" s="83" t="s">
         <v>589</v>
       </c>
@@ -6603,7 +6602,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="15.75">
+    <row r="243" spans="1:5" ht="15.6" hidden="1">
       <c r="A243" s="83" t="s">
         <v>589</v>
       </c>
@@ -6611,7 +6610,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="15.75">
+    <row r="244" spans="1:5" ht="15.6" hidden="1">
       <c r="A244" s="83" t="s">
         <v>589</v>
       </c>
@@ -6619,7 +6618,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="21">
+    <row r="245" spans="1:5" ht="21" hidden="1">
       <c r="A245" s="5"/>
       <c r="B245" s="84" t="s">
         <v>826</v>
@@ -6630,7 +6629,7 @@
       <c r="D245" s="85"/>
       <c r="E245" s="5"/>
     </row>
-    <row r="246" spans="1:5" ht="18.75">
+    <row r="246" spans="1:5" ht="18" hidden="1">
       <c r="A246" s="83" t="s">
         <v>590</v>
       </c>
@@ -6638,7 +6637,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="15.75">
+    <row r="247" spans="1:5" ht="15.6" hidden="1">
       <c r="A247" s="83" t="s">
         <v>590</v>
       </c>
@@ -6646,7 +6645,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="15.75">
+    <row r="248" spans="1:5" ht="15.6" hidden="1">
       <c r="A248" s="83" t="s">
         <v>590</v>
       </c>
@@ -6654,7 +6653,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="15.75">
+    <row r="249" spans="1:5" ht="15.6" hidden="1">
       <c r="A249" s="83" t="s">
         <v>590</v>
       </c>
@@ -6662,7 +6661,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="15.75">
+    <row r="250" spans="1:5" ht="15.6" hidden="1">
       <c r="A250" s="83" t="s">
         <v>590</v>
       </c>
@@ -6670,21 +6669,21 @@
         <v>830</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="15.75">
+    <row r="251" spans="1:5" ht="15.6" hidden="1">
       <c r="A251" s="83" t="s">
         <v>590</v>
       </c>
       <c r="B251" s="7" t="s">
         <v>831</v>
       </c>
-      <c r="C251" s="12" t="s">
-        <v>951</v>
+      <c r="C251" s="12">
+        <v>3</v>
       </c>
       <c r="D251" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="15.6" hidden="1">
       <c r="A252" s="83" t="s">
         <v>590</v>
       </c>
@@ -6692,7 +6691,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="15.75">
+    <row r="253" spans="1:5" ht="15.6" hidden="1">
       <c r="A253" s="83" t="s">
         <v>590</v>
       </c>
@@ -6700,7 +6699,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="18.75">
+    <row r="254" spans="1:5" ht="18" hidden="1">
       <c r="A254" s="83" t="s">
         <v>590</v>
       </c>
@@ -6708,7 +6707,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="15.75">
+    <row r="255" spans="1:5" ht="15.6" hidden="1">
       <c r="A255" s="83" t="s">
         <v>590</v>
       </c>
@@ -6716,7 +6715,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="15.75">
+    <row r="256" spans="1:5" ht="15.6" hidden="1">
       <c r="A256" s="83" t="s">
         <v>590</v>
       </c>
@@ -6724,21 +6723,21 @@
         <v>835</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="15.75">
+    <row r="257" spans="1:4" ht="15.6" hidden="1">
       <c r="A257" s="83" t="s">
         <v>590</v>
       </c>
       <c r="B257" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="C257" s="12" t="s">
-        <v>951</v>
+      <c r="C257" s="12">
+        <v>3</v>
       </c>
       <c r="D257" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="15.6" hidden="1">
       <c r="A258" s="83" t="s">
         <v>590</v>
       </c>
@@ -6746,7 +6745,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="15.75">
+    <row r="259" spans="1:4" ht="15.6" hidden="1">
       <c r="A259" s="83" t="s">
         <v>590</v>
       </c>
@@ -6754,7 +6753,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="15.75">
+    <row r="260" spans="1:4" ht="15.6" hidden="1">
       <c r="A260" s="83" t="s">
         <v>590</v>
       </c>
@@ -6762,7 +6761,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="15.75">
+    <row r="261" spans="1:4" ht="15.6" hidden="1">
       <c r="A261" s="83" t="s">
         <v>590</v>
       </c>
@@ -6770,21 +6769,15 @@
         <v>840</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="15.75">
+    <row r="262" spans="1:4" ht="15.6" hidden="1">
       <c r="A262" s="83" t="s">
         <v>590</v>
       </c>
       <c r="B262" s="7" t="s">
         <v>841</v>
       </c>
-      <c r="C262" s="12" t="s">
-        <v>951</v>
-      </c>
-      <c r="D262" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" ht="15.75">
+    </row>
+    <row r="263" spans="1:4" ht="15.6" hidden="1">
       <c r="A263" s="83" t="s">
         <v>590</v>
       </c>
@@ -6792,7 +6785,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="15.75">
+    <row r="264" spans="1:4" ht="15.6" hidden="1">
       <c r="A264" s="83" t="s">
         <v>590</v>
       </c>
@@ -6800,35 +6793,35 @@
         <v>843</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="15.75">
+    <row r="265" spans="1:4" ht="15.6" hidden="1">
       <c r="A265" s="83" t="s">
         <v>590</v>
       </c>
       <c r="B265" s="7" t="s">
         <v>844</v>
       </c>
-      <c r="C265" s="12" t="s">
-        <v>951</v>
+      <c r="C265" s="12">
+        <v>3</v>
       </c>
       <c r="D265" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="15.6" hidden="1">
       <c r="A266" s="83" t="s">
         <v>590</v>
       </c>
       <c r="B266" s="7" t="s">
         <v>845</v>
       </c>
-      <c r="C266" s="12" t="s">
-        <v>951</v>
+      <c r="C266" s="12">
+        <v>2</v>
       </c>
       <c r="D266" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="15.6" hidden="1">
       <c r="A267" s="83" t="s">
         <v>590</v>
       </c>
@@ -6836,105 +6829,93 @@
         <v>846</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="15.75">
+    <row r="268" spans="1:4" ht="15.6" hidden="1">
       <c r="A268" s="83" t="s">
         <v>590</v>
       </c>
       <c r="B268" s="7" t="s">
         <v>847</v>
       </c>
-      <c r="C268" s="12" t="s">
-        <v>951</v>
+      <c r="C268" s="12">
+        <v>2</v>
       </c>
       <c r="D268" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="15.6" hidden="1">
       <c r="A269" s="83" t="s">
         <v>590</v>
       </c>
       <c r="B269" s="7" t="s">
         <v>848</v>
       </c>
-      <c r="C269" s="12" t="s">
-        <v>951</v>
+      <c r="C269" s="12">
+        <v>2</v>
       </c>
       <c r="D269" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="15.6" hidden="1">
       <c r="A270" s="83" t="s">
         <v>590</v>
       </c>
       <c r="B270" s="7" t="s">
         <v>849</v>
       </c>
-      <c r="C270" s="12" t="s">
-        <v>951</v>
+      <c r="C270" s="12">
+        <v>3</v>
       </c>
       <c r="D270" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="15.6" hidden="1">
       <c r="A271" s="83" t="s">
         <v>590</v>
       </c>
       <c r="B271" s="7" t="s">
         <v>850</v>
       </c>
-      <c r="C271" s="12" t="s">
-        <v>951</v>
-      </c>
-      <c r="D271" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" ht="15.75">
+    </row>
+    <row r="272" spans="1:4" ht="15.6" hidden="1">
       <c r="A272" s="83" t="s">
         <v>590</v>
       </c>
       <c r="B272" s="7" t="s">
         <v>851</v>
       </c>
-      <c r="C272" s="12" t="s">
-        <v>951</v>
+      <c r="C272" s="12">
+        <v>3</v>
       </c>
       <c r="D272" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="15.6" hidden="1">
       <c r="A273" s="83" t="s">
         <v>590</v>
       </c>
       <c r="B273" s="7" t="s">
         <v>852</v>
       </c>
-      <c r="C273" s="12" t="s">
-        <v>951</v>
+      <c r="C273" s="12">
+        <v>3</v>
       </c>
       <c r="D273" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="15.6" hidden="1">
       <c r="A274" s="83" t="s">
         <v>590</v>
       </c>
       <c r="B274" s="7" t="s">
         <v>853</v>
       </c>
-      <c r="C274" s="12" t="s">
-        <v>951</v>
-      </c>
-      <c r="D274" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" ht="18.75">
+    </row>
+    <row r="275" spans="1:5" ht="18" hidden="1">
       <c r="A275" s="83" t="s">
         <v>590</v>
       </c>
@@ -6942,7 +6923,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="15.75">
+    <row r="276" spans="1:5" ht="15.6" hidden="1">
       <c r="A276" s="83" t="s">
         <v>590</v>
       </c>
@@ -6950,7 +6931,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="15.75">
+    <row r="277" spans="1:5" ht="15.6" hidden="1">
       <c r="A277" s="83" t="s">
         <v>590</v>
       </c>
@@ -6958,7 +6939,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="15.75">
+    <row r="278" spans="1:5" ht="15.6" hidden="1">
       <c r="A278" s="83" t="s">
         <v>590</v>
       </c>
@@ -6966,7 +6947,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="15.75">
+    <row r="279" spans="1:5" ht="15.6" hidden="1">
       <c r="A279" s="83" t="s">
         <v>590</v>
       </c>
@@ -6974,7 +6955,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="15.75">
+    <row r="280" spans="1:5" ht="15.6" hidden="1">
       <c r="A280" s="83" t="s">
         <v>590</v>
       </c>
@@ -6982,7 +6963,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="15.75">
+    <row r="281" spans="1:5" ht="15.6" hidden="1">
       <c r="A281" s="83" t="s">
         <v>590</v>
       </c>
@@ -6990,7 +6971,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="15.75">
+    <row r="282" spans="1:5" ht="15.6" hidden="1">
       <c r="A282" s="83" t="s">
         <v>590</v>
       </c>
@@ -6998,7 +6979,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="15.75">
+    <row r="283" spans="1:5" ht="15.6" hidden="1">
       <c r="A283" s="83" t="s">
         <v>590</v>
       </c>
@@ -7006,7 +6987,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="15.75">
+    <row r="284" spans="1:5" ht="15.6" hidden="1">
       <c r="A284" s="83" t="s">
         <v>590</v>
       </c>
@@ -7014,7 +6995,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="15.75">
+    <row r="285" spans="1:5" ht="15.6" hidden="1">
       <c r="A285" s="83" t="s">
         <v>590</v>
       </c>
@@ -7022,7 +7003,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="15.75">
+    <row r="286" spans="1:5" ht="15.6" hidden="1">
       <c r="A286" s="83" t="s">
         <v>590</v>
       </c>
@@ -7030,7 +7011,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="21">
+    <row r="287" spans="1:5" ht="21" hidden="1">
       <c r="A287" s="5"/>
       <c r="B287" s="84" t="s">
         <v>866</v>
@@ -7041,7 +7022,7 @@
       <c r="D287" s="85"/>
       <c r="E287" s="5"/>
     </row>
-    <row r="288" spans="1:5" ht="18.75">
+    <row r="288" spans="1:5" ht="18" hidden="1">
       <c r="A288" s="83" t="s">
         <v>930</v>
       </c>
@@ -7049,7 +7030,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="15.75">
+    <row r="289" spans="1:4" ht="15.6" hidden="1">
       <c r="A289" s="83" t="s">
         <v>930</v>
       </c>
@@ -7057,7 +7038,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="15.75">
+    <row r="290" spans="1:4" ht="15.6" hidden="1">
       <c r="A290" s="83" t="s">
         <v>930</v>
       </c>
@@ -7065,7 +7046,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="15.75">
+    <row r="291" spans="1:4" ht="15.6" hidden="1">
       <c r="A291" s="83" t="s">
         <v>930</v>
       </c>
@@ -7073,7 +7054,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="15.75">
+    <row r="292" spans="1:4" ht="15.6" hidden="1">
       <c r="A292" s="83" t="s">
         <v>930</v>
       </c>
@@ -7081,7 +7062,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="15.75">
+    <row r="293" spans="1:4" ht="15.6" hidden="1">
       <c r="A293" s="83" t="s">
         <v>930</v>
       </c>
@@ -7089,7 +7070,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="15.75">
+    <row r="294" spans="1:4" ht="15.6" hidden="1">
       <c r="A294" s="83" t="s">
         <v>930</v>
       </c>
@@ -7097,7 +7078,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="15.75">
+    <row r="295" spans="1:4" ht="15.6" hidden="1">
       <c r="A295" s="83" t="s">
         <v>930</v>
       </c>
@@ -7105,21 +7086,21 @@
         <v>874</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="15.75">
+    <row r="296" spans="1:4" ht="15.6" hidden="1">
       <c r="A296" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B296" s="7" t="s">
         <v>875</v>
       </c>
-      <c r="C296" s="12" t="s">
-        <v>951</v>
+      <c r="C296" s="12">
+        <v>3</v>
       </c>
       <c r="D296" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="15.6" hidden="1">
       <c r="A297" s="83" t="s">
         <v>930</v>
       </c>
@@ -7127,7 +7108,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="18.75">
+    <row r="298" spans="1:4" ht="18" hidden="1">
       <c r="A298" s="83" t="s">
         <v>930</v>
       </c>
@@ -7135,7 +7116,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="15.75">
+    <row r="299" spans="1:4" ht="15.6" hidden="1">
       <c r="A299" s="83" t="s">
         <v>930</v>
       </c>
@@ -7143,21 +7124,15 @@
         <v>935</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="15.75">
+    <row r="300" spans="1:4" ht="15.6" hidden="1">
       <c r="A300" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B300" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="C300" s="12" t="s">
-        <v>951</v>
-      </c>
-      <c r="D300" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" ht="15.75">
+    </row>
+    <row r="301" spans="1:4" ht="15.6" hidden="1">
       <c r="A301" s="83" t="s">
         <v>930</v>
       </c>
@@ -7165,7 +7140,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="15.75">
+    <row r="302" spans="1:4" ht="15.6" hidden="1">
       <c r="A302" s="83" t="s">
         <v>930</v>
       </c>
@@ -7173,7 +7148,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="15.75">
+    <row r="303" spans="1:4" ht="15.6" hidden="1">
       <c r="A303" s="83" t="s">
         <v>930</v>
       </c>
@@ -7181,77 +7156,77 @@
         <v>881</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="15.75">
+    <row r="304" spans="1:4" ht="15.6" hidden="1">
       <c r="A304" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B304" s="7" t="s">
         <v>882</v>
       </c>
-      <c r="C304" s="12" t="s">
-        <v>951</v>
+      <c r="C304" s="12">
+        <v>3</v>
       </c>
       <c r="D304" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" ht="15.6" hidden="1">
       <c r="A305" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B305" s="7" t="s">
         <v>883</v>
       </c>
-      <c r="C305" s="12" t="s">
-        <v>951</v>
+      <c r="C305" s="12">
+        <v>2</v>
       </c>
       <c r="D305" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="15.6" hidden="1">
       <c r="A306" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B306" s="7" t="s">
         <v>884</v>
       </c>
-      <c r="C306" s="12" t="s">
-        <v>951</v>
+      <c r="C306" s="12">
+        <v>2</v>
       </c>
       <c r="D306" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="15.6" hidden="1">
       <c r="A307" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B307" s="7" t="s">
         <v>885</v>
       </c>
-      <c r="C307" s="12" t="s">
-        <v>951</v>
+      <c r="C307" s="12">
+        <v>2</v>
       </c>
       <c r="D307" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="15.6" hidden="1">
       <c r="A308" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B308" s="7" t="s">
         <v>886</v>
       </c>
-      <c r="C308" s="12" t="s">
-        <v>951</v>
+      <c r="C308" s="12">
+        <v>2</v>
       </c>
       <c r="D308" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" ht="18.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" ht="18" hidden="1">
       <c r="A309" s="83" t="s">
         <v>930</v>
       </c>
@@ -7259,7 +7234,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="15.75">
+    <row r="310" spans="1:5" ht="15.6" hidden="1">
       <c r="A310" s="83" t="s">
         <v>930</v>
       </c>
@@ -7267,38 +7242,38 @@
         <v>888</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="15.75">
+    <row r="311" spans="1:5" ht="15.6" hidden="1">
       <c r="A311" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B311" s="7" t="s">
         <v>889</v>
       </c>
-      <c r="C311" s="12" t="s">
-        <v>951</v>
+      <c r="C311" s="12">
+        <v>2</v>
       </c>
       <c r="D311" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E311" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" ht="15.75">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" ht="15.6" hidden="1">
       <c r="A312" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B312" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="C312" s="12" t="s">
-        <v>951</v>
+      <c r="C312" s="12">
+        <v>2</v>
       </c>
       <c r="D312" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" ht="15.6" hidden="1">
       <c r="A313" s="83" t="s">
         <v>930</v>
       </c>
@@ -7306,7 +7281,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="15.75">
+    <row r="314" spans="1:5" ht="15.6" hidden="1">
       <c r="A314" s="83" t="s">
         <v>930</v>
       </c>
@@ -7314,7 +7289,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="15.75">
+    <row r="315" spans="1:5" ht="15.6" hidden="1">
       <c r="A315" s="83" t="s">
         <v>930</v>
       </c>
@@ -7322,7 +7297,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="15.75">
+    <row r="316" spans="1:5" ht="15.6" hidden="1">
       <c r="A316" s="83" t="s">
         <v>930</v>
       </c>
@@ -7330,7 +7305,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="15.75">
+    <row r="317" spans="1:5" ht="15.6" hidden="1">
       <c r="A317" s="83" t="s">
         <v>930</v>
       </c>
@@ -7338,7 +7313,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="15.75">
+    <row r="318" spans="1:5" ht="15.6" hidden="1">
       <c r="A318" s="83" t="s">
         <v>930</v>
       </c>
@@ -7346,7 +7321,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="15.75">
+    <row r="319" spans="1:5" ht="15.6" hidden="1">
       <c r="A319" s="83" t="s">
         <v>930</v>
       </c>
@@ -7354,7 +7329,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="15.75">
+    <row r="320" spans="1:5" ht="15.6" hidden="1">
       <c r="A320" s="83" t="s">
         <v>930</v>
       </c>
@@ -7362,7 +7337,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="15.75">
+    <row r="321" spans="1:5" ht="15.6" hidden="1">
       <c r="A321" s="83" t="s">
         <v>930</v>
       </c>
@@ -7370,7 +7345,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="15.75">
+    <row r="322" spans="1:5" ht="15.6" hidden="1">
       <c r="A322" s="83" t="s">
         <v>930</v>
       </c>
@@ -7378,7 +7353,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="15.75">
+    <row r="323" spans="1:5" ht="15.6" hidden="1">
       <c r="A323" s="83" t="s">
         <v>930</v>
       </c>
@@ -7386,35 +7361,29 @@
         <v>901</v>
       </c>
     </row>
-    <row r="324" spans="1:5" ht="15.75">
+    <row r="324" spans="1:5" ht="15.6">
       <c r="A324" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B324" s="7" t="s">
         <v>902</v>
       </c>
-      <c r="C324" s="12" t="s">
-        <v>951</v>
+      <c r="C324" s="12">
+        <v>1</v>
       </c>
       <c r="D324" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="15.6" hidden="1">
       <c r="A325" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B325" s="7" t="s">
         <v>903</v>
       </c>
-      <c r="C325" s="12" t="s">
-        <v>951</v>
-      </c>
-      <c r="D325" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" ht="18.75">
+    </row>
+    <row r="326" spans="1:5" ht="18" hidden="1">
       <c r="A326" s="83" t="s">
         <v>930</v>
       </c>
@@ -7422,7 +7391,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="327" spans="1:5" ht="15.75">
+    <row r="327" spans="1:5" ht="15.6" hidden="1">
       <c r="A327" s="83" t="s">
         <v>930</v>
       </c>
@@ -7430,24 +7399,24 @@
         <v>905</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="15.75">
+    <row r="328" spans="1:5" ht="15.6" hidden="1">
       <c r="A328" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B328" s="7" t="s">
         <v>906</v>
       </c>
-      <c r="C328" s="12" t="s">
-        <v>951</v>
+      <c r="C328" s="12">
+        <v>3</v>
       </c>
       <c r="D328" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E328" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" ht="15.75">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" ht="15.6" hidden="1">
       <c r="A329" s="83" t="s">
         <v>930</v>
       </c>
@@ -7455,7 +7424,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="15.75">
+    <row r="330" spans="1:5" ht="15.6" hidden="1">
       <c r="A330" s="83" t="s">
         <v>930</v>
       </c>
@@ -7463,21 +7432,21 @@
         <v>908</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="15.75">
+    <row r="331" spans="1:5" ht="15.6" hidden="1">
       <c r="A331" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B331" s="7" t="s">
         <v>909</v>
       </c>
-      <c r="C331" s="12" t="s">
-        <v>951</v>
+      <c r="C331" s="12">
+        <v>3</v>
       </c>
       <c r="D331" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" ht="15.6" hidden="1">
       <c r="A332" s="83" t="s">
         <v>930</v>
       </c>
@@ -7485,49 +7454,49 @@
         <v>910</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="15.75">
+    <row r="333" spans="1:5" ht="15.6">
       <c r="A333" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B333" s="7" t="s">
         <v>911</v>
       </c>
-      <c r="C333" s="12" t="s">
-        <v>951</v>
+      <c r="C333" s="12">
+        <v>1</v>
       </c>
       <c r="D333" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" ht="15.6">
       <c r="A334" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B334" s="7" t="s">
         <v>912</v>
       </c>
-      <c r="C334" s="12" t="s">
-        <v>951</v>
+      <c r="C334" s="12">
+        <v>1</v>
       </c>
       <c r="D334" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" ht="15.6">
       <c r="A335" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B335" s="7" t="s">
         <v>913</v>
       </c>
-      <c r="C335" s="12" t="s">
-        <v>951</v>
+      <c r="C335" s="12">
+        <v>1</v>
       </c>
       <c r="D335" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" ht="15.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" ht="15.6" hidden="1">
       <c r="A336" s="83" t="s">
         <v>930</v>
       </c>
@@ -7535,21 +7504,21 @@
         <v>914</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="15.75">
+    <row r="337" spans="1:4" ht="15.6">
       <c r="A337" s="83" t="s">
         <v>930</v>
       </c>
       <c r="B337" s="7" t="s">
         <v>915</v>
       </c>
-      <c r="C337" s="12" t="s">
-        <v>951</v>
+      <c r="C337" s="12">
+        <v>1</v>
       </c>
       <c r="D337" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" ht="18.75">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" ht="18" hidden="1">
       <c r="A338" s="83" t="s">
         <v>930</v>
       </c>
@@ -7557,7 +7526,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="15.75">
+    <row r="339" spans="1:4" ht="15.6" hidden="1">
       <c r="A339" s="83" t="s">
         <v>930</v>
       </c>
@@ -7565,7 +7534,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="15.75">
+    <row r="340" spans="1:4" ht="15.6" hidden="1">
       <c r="A340" s="83" t="s">
         <v>930</v>
       </c>
@@ -7573,7 +7542,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="15.75">
+    <row r="341" spans="1:4" ht="15.6" hidden="1">
       <c r="A341" s="83" t="s">
         <v>930</v>
       </c>
@@ -7581,7 +7550,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="15.75">
+    <row r="342" spans="1:4" ht="15.6" hidden="1">
       <c r="A342" s="83" t="s">
         <v>930</v>
       </c>
@@ -7589,7 +7558,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="15.75">
+    <row r="343" spans="1:4" ht="15.6" hidden="1">
       <c r="A343" s="83" t="s">
         <v>930</v>
       </c>
@@ -7597,7 +7566,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="15.75">
+    <row r="344" spans="1:4" ht="15.6" hidden="1">
       <c r="A344" s="83" t="s">
         <v>930</v>
       </c>
@@ -7605,7 +7574,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="15.75">
+    <row r="345" spans="1:4" ht="15.6" hidden="1">
       <c r="A345" s="83" t="s">
         <v>930</v>
       </c>
@@ -7613,7 +7582,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="15.75">
+    <row r="346" spans="1:4" ht="15.6" hidden="1">
       <c r="A346" s="83" t="s">
         <v>930</v>
       </c>
@@ -7621,7 +7590,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="15.75">
+    <row r="347" spans="1:4" ht="15.6" hidden="1">
       <c r="A347" s="83" t="s">
         <v>930</v>
       </c>
@@ -7629,7 +7598,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="15.75">
+    <row r="348" spans="1:4" ht="15.6" hidden="1">
       <c r="A348" s="83" t="s">
         <v>930</v>
       </c>
@@ -7637,7 +7606,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="15.75">
+    <row r="349" spans="1:4" ht="15.6" hidden="1">
       <c r="A349" s="83" t="s">
         <v>930</v>
       </c>
@@ -7646,6 +7615,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C349">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="C3:D3">
     <cfRule type="containsText" dxfId="16" priority="10" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",C3)))</formula>
@@ -7717,19 +7693,19 @@
       <selection pane="bottomRight" activeCell="B298" sqref="B298"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="91.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="91.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="23.25">
+    <row r="1" spans="1:16" ht="23.4">
       <c r="A1" s="93"/>
       <c r="B1" s="93"/>
       <c r="C1" s="93"/>
@@ -7739,7 +7715,7 @@
       </c>
       <c r="F1" s="90">
         <f ca="1">(TODAY()-H1)*-1</f>
-        <v>-418</v>
+        <v>-431</v>
       </c>
       <c r="G1" s="91" t="s">
         <v>10</v>
@@ -7748,7 +7724,7 @@
         <v>43467</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="16.5" thickBot="1">
+    <row r="2" spans="1:16" ht="16.2" thickBot="1">
       <c r="A2" s="95" t="s">
         <v>940</v>
       </c>
@@ -7786,7 +7762,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:16" ht="18.75">
+    <row r="4" spans="1:16" ht="18">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -7800,7 +7776,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" ht="15.6">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -7814,7 +7790,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" ht="15.6">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -7828,7 +7804,7 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" ht="15.6">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -7842,7 +7818,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" ht="15.6">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -7856,7 +7832,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" ht="15.6">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -7870,7 +7846,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" ht="15.6">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -7884,7 +7860,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" ht="15.6">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -7898,7 +7874,7 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" ht="15.6">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -7912,7 +7888,7 @@
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" ht="15.6">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -7926,7 +7902,7 @@
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" ht="15.6">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -7940,7 +7916,7 @@
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" ht="15.6">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
@@ -7954,7 +7930,7 @@
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" ht="15.6">
       <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
@@ -7968,7 +7944,7 @@
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -7982,7 +7958,7 @@
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
@@ -7996,7 +7972,7 @@
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="15.6">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -8010,7 +7986,7 @@
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="4" t="s">
         <v>11</v>
       </c>
@@ -8024,7 +8000,7 @@
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="4" t="s">
         <v>11</v>
       </c>
@@ -8038,7 +8014,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="4" t="s">
         <v>11</v>
       </c>
@@ -8052,7 +8028,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" ht="15.6">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
@@ -8066,7 +8042,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="4" t="s">
         <v>11</v>
       </c>
@@ -8080,7 +8056,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
@@ -8094,7 +8070,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="4" t="s">
         <v>11</v>
       </c>
@@ -8108,7 +8084,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="4" t="s">
         <v>11</v>
       </c>
@@ -8122,7 +8098,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="4" t="s">
         <v>11</v>
       </c>
@@ -8136,7 +8112,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="4" t="s">
         <v>11</v>
       </c>
@@ -8150,7 +8126,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="4" t="s">
         <v>11</v>
       </c>
@@ -8164,7 +8140,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="4" t="s">
         <v>11</v>
       </c>
@@ -8178,7 +8154,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="4" t="s">
         <v>11</v>
       </c>
@@ -8192,7 +8168,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="4" t="s">
         <v>11</v>
       </c>
@@ -8206,7 +8182,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="4" t="s">
         <v>11</v>
       </c>
@@ -8220,7 +8196,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" ht="15.6">
       <c r="A35" s="4" t="s">
         <v>11</v>
       </c>
@@ -8234,7 +8210,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
     </row>
-    <row r="36" spans="1:8" ht="18.75">
+    <row r="36" spans="1:8" ht="18">
       <c r="A36" s="4" t="s">
         <v>11</v>
       </c>
@@ -8248,7 +8224,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" ht="15.6">
       <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
@@ -8262,7 +8238,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" ht="15.6">
       <c r="A38" s="4" t="s">
         <v>11</v>
       </c>
@@ -8276,7 +8252,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" ht="15.6">
       <c r="A39" s="4" t="s">
         <v>11</v>
       </c>
@@ -8290,7 +8266,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" ht="15.6">
       <c r="A40" s="4" t="s">
         <v>11</v>
       </c>
@@ -8304,7 +8280,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" ht="15.6">
       <c r="A41" s="4" t="s">
         <v>11</v>
       </c>
@@ -8318,7 +8294,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" ht="15.6">
       <c r="A42" s="4" t="s">
         <v>11</v>
       </c>
@@ -8332,7 +8308,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="4" t="s">
         <v>11</v>
       </c>
@@ -8346,7 +8322,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
     </row>
-    <row r="44" spans="1:8" ht="18.75">
+    <row r="44" spans="1:8" ht="18">
       <c r="A44" s="4" t="s">
         <v>11</v>
       </c>
@@ -8360,7 +8336,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" ht="15.6">
       <c r="A45" s="4" t="s">
         <v>11</v>
       </c>
@@ -8374,7 +8350,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" ht="15.6">
       <c r="A46" s="4" t="s">
         <v>11</v>
       </c>
@@ -8388,7 +8364,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" ht="15.6">
       <c r="A47" s="4" t="s">
         <v>11</v>
       </c>
@@ -8402,7 +8378,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" ht="15.6">
       <c r="A48" s="4" t="s">
         <v>11</v>
       </c>
@@ -8416,7 +8392,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" ht="15.6">
       <c r="A49" s="4" t="s">
         <v>11</v>
       </c>
@@ -8430,7 +8406,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" ht="15.6">
       <c r="A50" s="4" t="s">
         <v>11</v>
       </c>
@@ -8444,7 +8420,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" ht="15.6">
       <c r="A51" s="4" t="s">
         <v>11</v>
       </c>
@@ -8458,7 +8434,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" ht="15.6">
       <c r="A52" s="4" t="s">
         <v>11</v>
       </c>
@@ -8472,7 +8448,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" ht="15.6">
       <c r="A53" s="4" t="s">
         <v>11</v>
       </c>
@@ -8486,7 +8462,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" ht="15.6">
       <c r="A54" s="4" t="s">
         <v>11</v>
       </c>
@@ -8500,7 +8476,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" ht="15.6">
       <c r="A55" s="4" t="s">
         <v>11</v>
       </c>
@@ -8514,7 +8490,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" ht="15.6">
       <c r="A56" s="4" t="s">
         <v>11</v>
       </c>
@@ -8540,7 +8516,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
     </row>
-    <row r="58" spans="1:8" ht="18.75">
+    <row r="58" spans="1:8" ht="18">
       <c r="A58" s="4" t="s">
         <v>928</v>
       </c>
@@ -8554,7 +8530,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" ht="15.6">
       <c r="A59" s="4" t="s">
         <v>928</v>
       </c>
@@ -8568,7 +8544,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" ht="15.6">
       <c r="A60" s="4" t="s">
         <v>928</v>
       </c>
@@ -8582,7 +8558,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" ht="15.6">
       <c r="A61" s="4" t="s">
         <v>928</v>
       </c>
@@ -8596,7 +8572,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" ht="15.6">
       <c r="A62" s="4" t="s">
         <v>928</v>
       </c>
@@ -8610,7 +8586,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" ht="15.6">
       <c r="A63" s="4" t="s">
         <v>928</v>
       </c>
@@ -8624,7 +8600,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" ht="15.6">
       <c r="A64" s="4" t="s">
         <v>928</v>
       </c>
@@ -8638,7 +8614,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" ht="15.6">
       <c r="A65" s="4" t="s">
         <v>928</v>
       </c>
@@ -8652,7 +8628,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" ht="15.6">
       <c r="A66" s="4" t="s">
         <v>928</v>
       </c>
@@ -8666,7 +8642,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" ht="15.6">
       <c r="A67" s="4" t="s">
         <v>928</v>
       </c>
@@ -8680,7 +8656,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" ht="15.6">
       <c r="A68" s="4" t="s">
         <v>928</v>
       </c>
@@ -8694,7 +8670,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="11"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" ht="15.6">
       <c r="A69" s="4" t="s">
         <v>928</v>
       </c>
@@ -8708,7 +8684,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" ht="15.6">
       <c r="A70" s="4" t="s">
         <v>928</v>
       </c>
@@ -8722,7 +8698,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" ht="15.6">
       <c r="A71" s="4" t="s">
         <v>928</v>
       </c>
@@ -8736,7 +8712,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="11"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" ht="15.6">
       <c r="A72" s="4" t="s">
         <v>928</v>
       </c>
@@ -8750,7 +8726,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="11"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" ht="15.6">
       <c r="A73" s="4" t="s">
         <v>928</v>
       </c>
@@ -8764,7 +8740,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="11"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" ht="15.6">
       <c r="A74" s="4" t="s">
         <v>928</v>
       </c>
@@ -8778,7 +8754,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" ht="15.6">
       <c r="A75" s="4" t="s">
         <v>928</v>
       </c>
@@ -8792,7 +8768,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="11"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" ht="15.6">
       <c r="A76" s="4" t="s">
         <v>928</v>
       </c>
@@ -8806,7 +8782,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="11"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" ht="15.6">
       <c r="A77" s="4" t="s">
         <v>928</v>
       </c>
@@ -8820,7 +8796,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" ht="15.6">
       <c r="A78" s="4" t="s">
         <v>928</v>
       </c>
@@ -8834,7 +8810,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" ht="15.6">
       <c r="A79" s="4" t="s">
         <v>928</v>
       </c>
@@ -8848,7 +8824,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" ht="15.6">
       <c r="A80" s="4" t="s">
         <v>928</v>
       </c>
@@ -8862,7 +8838,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" ht="15.6">
       <c r="A81" s="4" t="s">
         <v>928</v>
       </c>
@@ -8876,7 +8852,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" ht="15.6">
       <c r="A82" s="4" t="s">
         <v>928</v>
       </c>
@@ -8890,7 +8866,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" ht="15.6">
       <c r="A83" s="4" t="s">
         <v>928</v>
       </c>
@@ -8904,7 +8880,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" ht="15.6">
       <c r="A84" s="4" t="s">
         <v>928</v>
       </c>
@@ -8918,7 +8894,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" ht="15.6">
       <c r="A85" s="4" t="s">
         <v>928</v>
       </c>
@@ -8932,7 +8908,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" ht="15.6">
       <c r="A86" s="4" t="s">
         <v>928</v>
       </c>
@@ -8946,7 +8922,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="11"/>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" ht="15.6">
       <c r="A87" s="4" t="s">
         <v>928</v>
       </c>
@@ -8960,7 +8936,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" ht="15.6">
       <c r="A88" s="4" t="s">
         <v>928</v>
       </c>
@@ -8974,7 +8950,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="11"/>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" ht="15.6">
       <c r="A89" s="4" t="s">
         <v>928</v>
       </c>
@@ -8988,7 +8964,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" ht="15.6">
       <c r="A90" s="4" t="s">
         <v>928</v>
       </c>
@@ -9002,7 +8978,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="11"/>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" ht="15.6">
       <c r="A91" s="4" t="s">
         <v>928</v>
       </c>
@@ -9016,7 +8992,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="11"/>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" ht="15.6">
       <c r="A92" s="4" t="s">
         <v>928</v>
       </c>
@@ -9030,7 +9006,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="11"/>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" ht="15.6">
       <c r="A93" s="4" t="s">
         <v>928</v>
       </c>
@@ -9044,7 +9020,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="11"/>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" ht="15.6">
       <c r="A94" s="4" t="s">
         <v>928</v>
       </c>
@@ -9058,7 +9034,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="11"/>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" ht="15.6">
       <c r="A95" s="4" t="s">
         <v>928</v>
       </c>
@@ -9072,7 +9048,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="11"/>
     </row>
-    <row r="96" spans="1:8" ht="18.75">
+    <row r="96" spans="1:8" ht="18">
       <c r="A96" s="4" t="s">
         <v>928</v>
       </c>
@@ -9086,7 +9062,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="11"/>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" ht="15.6">
       <c r="A97" s="4" t="s">
         <v>928</v>
       </c>
@@ -9100,7 +9076,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" ht="15.6">
       <c r="A98" s="4" t="s">
         <v>928</v>
       </c>
@@ -9114,7 +9090,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" ht="15.6">
       <c r="A99" s="4" t="s">
         <v>928</v>
       </c>
@@ -9128,7 +9104,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" ht="15.6">
       <c r="A100" s="4" t="s">
         <v>928</v>
       </c>
@@ -9142,7 +9118,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" ht="15.6">
       <c r="A101" s="4" t="s">
         <v>928</v>
       </c>
@@ -9156,7 +9132,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="11"/>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" ht="15.6">
       <c r="A102" s="4" t="s">
         <v>928</v>
       </c>
@@ -9170,7 +9146,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="11"/>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" ht="15.6">
       <c r="A103" s="4" t="s">
         <v>928</v>
       </c>
@@ -9184,7 +9160,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="11"/>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" ht="15.6">
       <c r="A104" s="4" t="s">
         <v>928</v>
       </c>
@@ -9198,7 +9174,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="11"/>
     </row>
-    <row r="105" spans="1:8" ht="18.75">
+    <row r="105" spans="1:8" ht="18">
       <c r="A105" s="4" t="s">
         <v>928</v>
       </c>
@@ -9212,7 +9188,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="11"/>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" ht="15.6">
       <c r="A106" s="4" t="s">
         <v>928</v>
       </c>
@@ -9226,7 +9202,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="11"/>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" ht="15.6">
       <c r="A107" s="4" t="s">
         <v>928</v>
       </c>
@@ -9240,7 +9216,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="11"/>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" ht="15.6">
       <c r="A108" s="4" t="s">
         <v>928</v>
       </c>
@@ -9254,7 +9230,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="11"/>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" ht="15.6">
       <c r="A109" s="4" t="s">
         <v>928</v>
       </c>
@@ -9268,7 +9244,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="11"/>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" ht="15.6">
       <c r="A110" s="4" t="s">
         <v>928</v>
       </c>
@@ -9282,7 +9258,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="11"/>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" ht="15.6">
       <c r="A111" s="4" t="s">
         <v>928</v>
       </c>
@@ -9296,7 +9272,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="11"/>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" ht="15.6">
       <c r="A112" s="4" t="s">
         <v>928</v>
       </c>
@@ -9310,7 +9286,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="11"/>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" ht="15.6">
       <c r="A113" s="4" t="s">
         <v>928</v>
       </c>
@@ -9336,7 +9312,7 @@
       <c r="G114" s="11"/>
       <c r="H114" s="11"/>
     </row>
-    <row r="115" spans="1:8" ht="18.75">
+    <row r="115" spans="1:8" ht="18">
       <c r="A115" s="4" t="s">
         <v>929</v>
       </c>
@@ -9350,7 +9326,7 @@
       <c r="G115" s="11"/>
       <c r="H115" s="11"/>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" ht="15.6">
       <c r="A116" s="4" t="s">
         <v>929</v>
       </c>
@@ -9364,7 +9340,7 @@
       <c r="G116" s="11"/>
       <c r="H116" s="11"/>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" ht="15.6">
       <c r="A117" s="4" t="s">
         <v>929</v>
       </c>
@@ -9378,7 +9354,7 @@
       <c r="G117" s="11"/>
       <c r="H117" s="11"/>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" ht="15.6">
       <c r="A118" s="4" t="s">
         <v>929</v>
       </c>
@@ -9392,7 +9368,7 @@
       <c r="G118" s="11"/>
       <c r="H118" s="11"/>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" ht="15.6">
       <c r="A119" s="4" t="s">
         <v>929</v>
       </c>
@@ -9406,7 +9382,7 @@
       <c r="G119" s="11"/>
       <c r="H119" s="11"/>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" ht="15.6">
       <c r="A120" s="4" t="s">
         <v>929</v>
       </c>
@@ -9420,7 +9396,7 @@
       <c r="G120" s="11"/>
       <c r="H120" s="11"/>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" ht="15.6">
       <c r="A121" s="4" t="s">
         <v>929</v>
       </c>
@@ -9434,7 +9410,7 @@
       <c r="G121" s="11"/>
       <c r="H121" s="11"/>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" ht="15.6">
       <c r="A122" s="4" t="s">
         <v>929</v>
       </c>
@@ -9448,7 +9424,7 @@
       <c r="G122" s="11"/>
       <c r="H122" s="11"/>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" ht="15.6">
       <c r="A123" s="4" t="s">
         <v>929</v>
       </c>
@@ -9462,7 +9438,7 @@
       <c r="G123" s="11"/>
       <c r="H123" s="11"/>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" ht="15.6">
       <c r="A124" s="4" t="s">
         <v>929</v>
       </c>
@@ -9476,7 +9452,7 @@
       <c r="G124" s="11"/>
       <c r="H124" s="11"/>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" ht="15.6">
       <c r="A125" s="4" t="s">
         <v>929</v>
       </c>
@@ -9490,7 +9466,7 @@
       <c r="G125" s="11"/>
       <c r="H125" s="11"/>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" ht="15.6">
       <c r="A126" s="4" t="s">
         <v>929</v>
       </c>
@@ -9504,7 +9480,7 @@
       <c r="G126" s="11"/>
       <c r="H126" s="11"/>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" ht="15.6">
       <c r="A127" s="4" t="s">
         <v>929</v>
       </c>
@@ -9518,7 +9494,7 @@
       <c r="G127" s="11"/>
       <c r="H127" s="11"/>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" ht="15.6">
       <c r="A128" s="4" t="s">
         <v>929</v>
       </c>
@@ -9532,7 +9508,7 @@
       <c r="G128" s="11"/>
       <c r="H128" s="11"/>
     </row>
-    <row r="129" spans="1:8" ht="18.75">
+    <row r="129" spans="1:8" ht="18">
       <c r="A129" s="4" t="s">
         <v>929</v>
       </c>
@@ -9546,7 +9522,7 @@
       <c r="G129" s="11"/>
       <c r="H129" s="11"/>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" ht="15.6">
       <c r="A130" s="4" t="s">
         <v>929</v>
       </c>
@@ -9560,7 +9536,7 @@
       <c r="G130" s="11"/>
       <c r="H130" s="11"/>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" ht="15.6">
       <c r="A131" s="4" t="s">
         <v>929</v>
       </c>
@@ -9574,7 +9550,7 @@
       <c r="G131" s="11"/>
       <c r="H131" s="11"/>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" ht="15.6">
       <c r="A132" s="4" t="s">
         <v>929</v>
       </c>
@@ -9588,7 +9564,7 @@
       <c r="G132" s="11"/>
       <c r="H132" s="11"/>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" ht="15.6">
       <c r="A133" s="4" t="s">
         <v>929</v>
       </c>
@@ -9602,7 +9578,7 @@
       <c r="G133" s="11"/>
       <c r="H133" s="11"/>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" ht="15.6">
       <c r="A134" s="4" t="s">
         <v>929</v>
       </c>
@@ -9616,7 +9592,7 @@
       <c r="G134" s="11"/>
       <c r="H134" s="11"/>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" ht="15.6">
       <c r="A135" s="4" t="s">
         <v>929</v>
       </c>
@@ -9630,7 +9606,7 @@
       <c r="G135" s="11"/>
       <c r="H135" s="11"/>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" ht="15.6">
       <c r="A136" s="4" t="s">
         <v>929</v>
       </c>
@@ -9644,7 +9620,7 @@
       <c r="G136" s="11"/>
       <c r="H136" s="11"/>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" ht="15.6">
       <c r="A137" s="4" t="s">
         <v>929</v>
       </c>
@@ -9658,7 +9634,7 @@
       <c r="G137" s="11"/>
       <c r="H137" s="11"/>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" ht="15.6">
       <c r="A138" s="4" t="s">
         <v>929</v>
       </c>
@@ -9672,7 +9648,7 @@
       <c r="G138" s="11"/>
       <c r="H138" s="11"/>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" ht="15.6">
       <c r="A139" s="4" t="s">
         <v>929</v>
       </c>
@@ -9686,7 +9662,7 @@
       <c r="G139" s="11"/>
       <c r="H139" s="11"/>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" ht="15.6">
       <c r="A140" s="4" t="s">
         <v>929</v>
       </c>
@@ -9700,7 +9676,7 @@
       <c r="G140" s="11"/>
       <c r="H140" s="11"/>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" ht="15.6">
       <c r="A141" s="4" t="s">
         <v>929</v>
       </c>
@@ -9714,7 +9690,7 @@
       <c r="G141" s="11"/>
       <c r="H141" s="11"/>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" ht="15.6">
       <c r="A142" s="4" t="s">
         <v>929</v>
       </c>
@@ -9728,7 +9704,7 @@
       <c r="G142" s="11"/>
       <c r="H142" s="11"/>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" ht="15.6">
       <c r="A143" s="4" t="s">
         <v>929</v>
       </c>
@@ -9742,7 +9718,7 @@
       <c r="G143" s="11"/>
       <c r="H143" s="11"/>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" ht="15.6">
       <c r="A144" s="4" t="s">
         <v>929</v>
       </c>
@@ -9756,7 +9732,7 @@
       <c r="G144" s="11"/>
       <c r="H144" s="11"/>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" ht="15.6">
       <c r="A145" s="4" t="s">
         <v>929</v>
       </c>
@@ -9770,7 +9746,7 @@
       <c r="G145" s="11"/>
       <c r="H145" s="11"/>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" ht="15.6">
       <c r="A146" s="4" t="s">
         <v>929</v>
       </c>
@@ -9784,7 +9760,7 @@
       <c r="G146" s="11"/>
       <c r="H146" s="11"/>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" ht="15.6">
       <c r="A147" s="4" t="s">
         <v>929</v>
       </c>
@@ -9798,7 +9774,7 @@
       <c r="G147" s="11"/>
       <c r="H147" s="11"/>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" ht="15.6">
       <c r="A148" s="4" t="s">
         <v>929</v>
       </c>
@@ -9812,7 +9788,7 @@
       <c r="G148" s="11"/>
       <c r="H148" s="11"/>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" ht="15.6">
       <c r="A149" s="4" t="s">
         <v>929</v>
       </c>
@@ -9826,7 +9802,7 @@
       <c r="G149" s="11"/>
       <c r="H149" s="11"/>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" ht="15.6">
       <c r="A150" s="4" t="s">
         <v>929</v>
       </c>
@@ -9840,7 +9816,7 @@
       <c r="G150" s="11"/>
       <c r="H150" s="11"/>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" ht="15.6">
       <c r="A151" s="4" t="s">
         <v>929</v>
       </c>
@@ -9854,7 +9830,7 @@
       <c r="G151" s="11"/>
       <c r="H151" s="11"/>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" ht="15.6">
       <c r="A152" s="4" t="s">
         <v>929</v>
       </c>
@@ -9868,7 +9844,7 @@
       <c r="G152" s="11"/>
       <c r="H152" s="11"/>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" ht="15.6">
       <c r="A153" s="4" t="s">
         <v>929</v>
       </c>
@@ -9882,7 +9858,7 @@
       <c r="G153" s="11"/>
       <c r="H153" s="11"/>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" ht="15.6">
       <c r="A154" s="4" t="s">
         <v>929</v>
       </c>
@@ -9896,7 +9872,7 @@
       <c r="G154" s="11"/>
       <c r="H154" s="11"/>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" ht="15.6">
       <c r="A155" s="4" t="s">
         <v>929</v>
       </c>
@@ -9910,7 +9886,7 @@
       <c r="G155" s="11"/>
       <c r="H155" s="11"/>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" ht="15.6">
       <c r="A156" s="4" t="s">
         <v>929</v>
       </c>
@@ -9924,7 +9900,7 @@
       <c r="G156" s="11"/>
       <c r="H156" s="11"/>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" ht="15.6">
       <c r="A157" s="4" t="s">
         <v>929</v>
       </c>
@@ -9938,7 +9914,7 @@
       <c r="G157" s="11"/>
       <c r="H157" s="11"/>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" ht="15.6">
       <c r="A158" s="4" t="s">
         <v>929</v>
       </c>
@@ -9952,7 +9928,7 @@
       <c r="G158" s="11"/>
       <c r="H158" s="11"/>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" ht="15.6">
       <c r="A159" s="4" t="s">
         <v>929</v>
       </c>
@@ -9966,7 +9942,7 @@
       <c r="G159" s="11"/>
       <c r="H159" s="11"/>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" ht="15.6">
       <c r="A160" s="4" t="s">
         <v>929</v>
       </c>
@@ -9980,7 +9956,7 @@
       <c r="G160" s="11"/>
       <c r="H160" s="11"/>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" ht="15.6">
       <c r="A161" s="4" t="s">
         <v>929</v>
       </c>
@@ -9994,7 +9970,7 @@
       <c r="G161" s="11"/>
       <c r="H161" s="11"/>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" ht="15.6">
       <c r="A162" s="4" t="s">
         <v>929</v>
       </c>
@@ -10008,7 +9984,7 @@
       <c r="G162" s="11"/>
       <c r="H162" s="11"/>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" ht="15.6">
       <c r="A163" s="4" t="s">
         <v>929</v>
       </c>
@@ -10022,7 +9998,7 @@
       <c r="G163" s="11"/>
       <c r="H163" s="11"/>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" ht="15.6">
       <c r="A164" s="4" t="s">
         <v>929</v>
       </c>
@@ -10036,7 +10012,7 @@
       <c r="G164" s="11"/>
       <c r="H164" s="11"/>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" ht="15.6">
       <c r="A165" s="4" t="s">
         <v>929</v>
       </c>
@@ -10050,7 +10026,7 @@
       <c r="G165" s="11"/>
       <c r="H165" s="11"/>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" ht="15.6">
       <c r="A166" s="4" t="s">
         <v>929</v>
       </c>
@@ -10064,7 +10040,7 @@
       <c r="G166" s="11"/>
       <c r="H166" s="11"/>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" ht="15.6">
       <c r="A167" s="4" t="s">
         <v>929</v>
       </c>
@@ -10078,7 +10054,7 @@
       <c r="G167" s="11"/>
       <c r="H167" s="11"/>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" ht="15.6">
       <c r="A168" s="4" t="s">
         <v>929</v>
       </c>
@@ -10092,7 +10068,7 @@
       <c r="G168" s="11"/>
       <c r="H168" s="11"/>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" ht="15.6">
       <c r="A169" s="4" t="s">
         <v>929</v>
       </c>
@@ -10106,7 +10082,7 @@
       <c r="G169" s="11"/>
       <c r="H169" s="11"/>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" ht="15.6">
       <c r="A170" s="4" t="s">
         <v>929</v>
       </c>
@@ -10120,7 +10096,7 @@
       <c r="G170" s="11"/>
       <c r="H170" s="11"/>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" ht="15.6">
       <c r="A171" s="4" t="s">
         <v>929</v>
       </c>
@@ -10134,7 +10110,7 @@
       <c r="G171" s="11"/>
       <c r="H171" s="11"/>
     </row>
-    <row r="172" spans="1:8" ht="18.75">
+    <row r="172" spans="1:8" ht="18">
       <c r="A172" s="4" t="s">
         <v>929</v>
       </c>
@@ -10148,7 +10124,7 @@
       <c r="G172" s="11"/>
       <c r="H172" s="11"/>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" ht="15.6">
       <c r="A173" s="4" t="s">
         <v>929</v>
       </c>
@@ -10162,7 +10138,7 @@
       <c r="G173" s="11"/>
       <c r="H173" s="11"/>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" ht="15.6">
       <c r="A174" s="4" t="s">
         <v>929</v>
       </c>
@@ -10176,7 +10152,7 @@
       <c r="G174" s="11"/>
       <c r="H174" s="11"/>
     </row>
-    <row r="175" spans="1:8" ht="18.75">
+    <row r="175" spans="1:8" ht="18">
       <c r="A175" s="4" t="s">
         <v>929</v>
       </c>
@@ -10190,7 +10166,7 @@
       <c r="G175" s="11"/>
       <c r="H175" s="11"/>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" ht="15.6">
       <c r="A176" s="4" t="s">
         <v>929</v>
       </c>
@@ -10204,7 +10180,7 @@
       <c r="G176" s="11"/>
       <c r="H176" s="11"/>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" ht="15.6">
       <c r="A177" s="4" t="s">
         <v>929</v>
       </c>
@@ -10218,7 +10194,7 @@
       <c r="G177" s="11"/>
       <c r="H177" s="11"/>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" ht="15.6">
       <c r="A178" s="4" t="s">
         <v>929</v>
       </c>
@@ -10232,7 +10208,7 @@
       <c r="G178" s="11"/>
       <c r="H178" s="11"/>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" ht="15.6">
       <c r="A179" s="4" t="s">
         <v>929</v>
       </c>
@@ -10246,7 +10222,7 @@
       <c r="G179" s="11"/>
       <c r="H179" s="11"/>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" ht="15.6">
       <c r="A180" s="4" t="s">
         <v>929</v>
       </c>
@@ -10260,7 +10236,7 @@
       <c r="G180" s="11"/>
       <c r="H180" s="11"/>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" ht="15.6">
       <c r="A181" s="4" t="s">
         <v>929</v>
       </c>
@@ -10274,7 +10250,7 @@
       <c r="G181" s="11"/>
       <c r="H181" s="11"/>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" ht="15.6">
       <c r="A182" s="4" t="s">
         <v>929</v>
       </c>
@@ -10288,7 +10264,7 @@
       <c r="G182" s="11"/>
       <c r="H182" s="11"/>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" ht="15.6">
       <c r="A183" s="4" t="s">
         <v>929</v>
       </c>
@@ -10302,7 +10278,7 @@
       <c r="G183" s="11"/>
       <c r="H183" s="11"/>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" ht="15.6">
       <c r="A184" s="4" t="s">
         <v>929</v>
       </c>
@@ -10316,7 +10292,7 @@
       <c r="G184" s="11"/>
       <c r="H184" s="11"/>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" ht="15.6">
       <c r="A185" s="4" t="s">
         <v>929</v>
       </c>
@@ -10330,7 +10306,7 @@
       <c r="G185" s="11"/>
       <c r="H185" s="11"/>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" ht="15.6">
       <c r="A186" s="4" t="s">
         <v>929</v>
       </c>
@@ -10344,7 +10320,7 @@
       <c r="G186" s="11"/>
       <c r="H186" s="11"/>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" ht="15.6">
       <c r="A187" s="4" t="s">
         <v>929</v>
       </c>
@@ -10358,7 +10334,7 @@
       <c r="G187" s="11"/>
       <c r="H187" s="11"/>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" ht="15.6">
       <c r="A188" s="4" t="s">
         <v>929</v>
       </c>
@@ -10372,7 +10348,7 @@
       <c r="G188" s="11"/>
       <c r="H188" s="11"/>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" ht="15.6">
       <c r="A189" s="4" t="s">
         <v>929</v>
       </c>
@@ -10386,7 +10362,7 @@
       <c r="G189" s="11"/>
       <c r="H189" s="11"/>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" ht="15.6">
       <c r="A190" s="4" t="s">
         <v>929</v>
       </c>
@@ -10400,7 +10376,7 @@
       <c r="G190" s="11"/>
       <c r="H190" s="11"/>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" ht="15.6">
       <c r="A191" s="4" t="s">
         <v>929</v>
       </c>
@@ -10414,7 +10390,7 @@
       <c r="G191" s="11"/>
       <c r="H191" s="11"/>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" ht="15.6">
       <c r="A192" s="4" t="s">
         <v>929</v>
       </c>
@@ -10428,7 +10404,7 @@
       <c r="G192" s="11"/>
       <c r="H192" s="11"/>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" ht="15.6">
       <c r="A193" s="4" t="s">
         <v>929</v>
       </c>
@@ -10442,7 +10418,7 @@
       <c r="G193" s="11"/>
       <c r="H193" s="11"/>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" ht="15.6">
       <c r="A194" s="4" t="s">
         <v>929</v>
       </c>
@@ -10456,7 +10432,7 @@
       <c r="G194" s="11"/>
       <c r="H194" s="11"/>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" ht="15.6">
       <c r="A195" s="4" t="s">
         <v>929</v>
       </c>
@@ -10470,7 +10446,7 @@
       <c r="G195" s="11"/>
       <c r="H195" s="11"/>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" ht="15.6">
       <c r="A196" s="4" t="s">
         <v>929</v>
       </c>
@@ -10484,7 +10460,7 @@
       <c r="G196" s="11"/>
       <c r="H196" s="11"/>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" ht="15.6">
       <c r="A197" s="4" t="s">
         <v>929</v>
       </c>
@@ -10498,7 +10474,7 @@
       <c r="G197" s="11"/>
       <c r="H197" s="11"/>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" ht="15.6">
       <c r="A198" s="4" t="s">
         <v>929</v>
       </c>
@@ -10512,7 +10488,7 @@
       <c r="G198" s="11"/>
       <c r="H198" s="11"/>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" ht="15.6">
       <c r="A199" s="4" t="s">
         <v>929</v>
       </c>
@@ -10526,7 +10502,7 @@
       <c r="G199" s="11"/>
       <c r="H199" s="11"/>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" ht="15.6">
       <c r="A200" s="4" t="s">
         <v>929</v>
       </c>
@@ -10540,7 +10516,7 @@
       <c r="G200" s="11"/>
       <c r="H200" s="11"/>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" ht="15.6">
       <c r="A201" s="4" t="s">
         <v>929</v>
       </c>
@@ -10554,7 +10530,7 @@
       <c r="G201" s="11"/>
       <c r="H201" s="11"/>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" ht="15.6">
       <c r="A202" s="4" t="s">
         <v>929</v>
       </c>
@@ -10568,7 +10544,7 @@
       <c r="G202" s="11"/>
       <c r="H202" s="11"/>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" ht="15.6">
       <c r="A203" s="4" t="s">
         <v>929</v>
       </c>
@@ -10582,7 +10558,7 @@
       <c r="G203" s="11"/>
       <c r="H203" s="11"/>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" ht="15.6">
       <c r="A204" s="4" t="s">
         <v>929</v>
       </c>
@@ -10596,7 +10572,7 @@
       <c r="G204" s="11"/>
       <c r="H204" s="11"/>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" ht="15.6">
       <c r="A205" s="4" t="s">
         <v>929</v>
       </c>
@@ -10610,7 +10586,7 @@
       <c r="G205" s="11"/>
       <c r="H205" s="11"/>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" ht="15.6">
       <c r="A206" s="4" t="s">
         <v>929</v>
       </c>
@@ -10624,7 +10600,7 @@
       <c r="G206" s="11"/>
       <c r="H206" s="11"/>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" ht="15.6">
       <c r="A207" s="4" t="s">
         <v>929</v>
       </c>
@@ -10638,7 +10614,7 @@
       <c r="G207" s="11"/>
       <c r="H207" s="11"/>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" ht="15.6">
       <c r="A208" s="4" t="s">
         <v>929</v>
       </c>
@@ -10652,7 +10628,7 @@
       <c r="G208" s="11"/>
       <c r="H208" s="11"/>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" ht="15.6">
       <c r="A209" s="4" t="s">
         <v>929</v>
       </c>
@@ -10666,7 +10642,7 @@
       <c r="G209" s="11"/>
       <c r="H209" s="11"/>
     </row>
-    <row r="210" spans="1:8" ht="18.75">
+    <row r="210" spans="1:8" ht="18">
       <c r="A210" s="4" t="s">
         <v>929</v>
       </c>
@@ -10680,7 +10656,7 @@
       <c r="G210" s="11"/>
       <c r="H210" s="11"/>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" ht="15.6">
       <c r="A211" s="4" t="s">
         <v>929</v>
       </c>
@@ -10694,7 +10670,7 @@
       <c r="G211" s="11"/>
       <c r="H211" s="11"/>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" ht="15.6">
       <c r="A212" s="4" t="s">
         <v>929</v>
       </c>
@@ -10708,7 +10684,7 @@
       <c r="G212" s="11"/>
       <c r="H212" s="11"/>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" ht="15.6">
       <c r="A213" s="4" t="s">
         <v>929</v>
       </c>
@@ -10722,7 +10698,7 @@
       <c r="G213" s="11"/>
       <c r="H213" s="11"/>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" ht="15.6">
       <c r="A214" s="4" t="s">
         <v>929</v>
       </c>
@@ -10736,7 +10712,7 @@
       <c r="G214" s="11"/>
       <c r="H214" s="11"/>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" ht="15.6">
       <c r="A215" s="4" t="s">
         <v>929</v>
       </c>
@@ -10750,7 +10726,7 @@
       <c r="G215" s="11"/>
       <c r="H215" s="11"/>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" ht="15.6">
       <c r="A216" s="4" t="s">
         <v>929</v>
       </c>
@@ -10764,7 +10740,7 @@
       <c r="G216" s="11"/>
       <c r="H216" s="11"/>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" ht="15.6">
       <c r="A217" s="4" t="s">
         <v>929</v>
       </c>
@@ -10778,7 +10754,7 @@
       <c r="G217" s="11"/>
       <c r="H217" s="11"/>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" ht="15.6">
       <c r="A218" s="4" t="s">
         <v>929</v>
       </c>
@@ -10792,7 +10768,7 @@
       <c r="G218" s="11"/>
       <c r="H218" s="11"/>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" ht="15.6">
       <c r="A219" s="4" t="s">
         <v>929</v>
       </c>
@@ -10806,7 +10782,7 @@
       <c r="G219" s="11"/>
       <c r="H219" s="11"/>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" ht="15.6">
       <c r="A220" s="4" t="s">
         <v>929</v>
       </c>
@@ -10820,7 +10796,7 @@
       <c r="G220" s="11"/>
       <c r="H220" s="11"/>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" ht="15.6">
       <c r="A221" s="4" t="s">
         <v>929</v>
       </c>
@@ -10834,7 +10810,7 @@
       <c r="G221" s="11"/>
       <c r="H221" s="11"/>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" ht="15.6">
       <c r="A222" s="4" t="s">
         <v>929</v>
       </c>
@@ -10848,7 +10824,7 @@
       <c r="G222" s="11"/>
       <c r="H222" s="11"/>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" ht="15.6">
       <c r="A223" s="4" t="s">
         <v>929</v>
       </c>
@@ -10862,7 +10838,7 @@
       <c r="G223" s="11"/>
       <c r="H223" s="11"/>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" ht="15.6">
       <c r="A224" s="4" t="s">
         <v>929</v>
       </c>
@@ -10876,7 +10852,7 @@
       <c r="G224" s="11"/>
       <c r="H224" s="11"/>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" ht="15.6">
       <c r="A225" s="4" t="s">
         <v>929</v>
       </c>
@@ -10890,7 +10866,7 @@
       <c r="G225" s="11"/>
       <c r="H225" s="11"/>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" ht="15.6">
       <c r="A226" s="4" t="s">
         <v>929</v>
       </c>
@@ -10904,7 +10880,7 @@
       <c r="G226" s="11"/>
       <c r="H226" s="11"/>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" ht="15.6">
       <c r="A227" s="4" t="s">
         <v>929</v>
       </c>
@@ -10918,7 +10894,7 @@
       <c r="G227" s="11"/>
       <c r="H227" s="11"/>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" ht="15.6">
       <c r="A228" s="4" t="s">
         <v>929</v>
       </c>
@@ -10932,7 +10908,7 @@
       <c r="G228" s="11"/>
       <c r="H228" s="11"/>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" ht="15.6">
       <c r="A229" s="4" t="s">
         <v>929</v>
       </c>
@@ -10946,7 +10922,7 @@
       <c r="G229" s="11"/>
       <c r="H229" s="11"/>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" ht="15.6">
       <c r="A230" s="4" t="s">
         <v>929</v>
       </c>
@@ -10960,7 +10936,7 @@
       <c r="G230" s="11"/>
       <c r="H230" s="11"/>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" ht="15.6">
       <c r="A231" s="4" t="s">
         <v>929</v>
       </c>
@@ -10974,7 +10950,7 @@
       <c r="G231" s="11"/>
       <c r="H231" s="11"/>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" ht="15.6">
       <c r="A232" s="4" t="s">
         <v>929</v>
       </c>
@@ -10988,7 +10964,7 @@
       <c r="G232" s="11"/>
       <c r="H232" s="11"/>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" ht="15.6">
       <c r="A233" s="4" t="s">
         <v>929</v>
       </c>
@@ -11002,7 +10978,7 @@
       <c r="G233" s="11"/>
       <c r="H233" s="11"/>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" ht="15.6">
       <c r="A234" s="4" t="s">
         <v>929</v>
       </c>
@@ -11016,7 +10992,7 @@
       <c r="G234" s="11"/>
       <c r="H234" s="11"/>
     </row>
-    <row r="235" spans="1:8" ht="18.75">
+    <row r="235" spans="1:8" ht="18">
       <c r="A235" s="4" t="s">
         <v>929</v>
       </c>
@@ -11030,7 +11006,7 @@
       <c r="G235" s="11"/>
       <c r="H235" s="11"/>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" ht="15.6">
       <c r="A236" s="4" t="s">
         <v>929</v>
       </c>
@@ -11044,7 +11020,7 @@
       <c r="G236" s="11"/>
       <c r="H236" s="11"/>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" ht="15.6">
       <c r="A237" s="4" t="s">
         <v>929</v>
       </c>
@@ -11058,7 +11034,7 @@
       <c r="G237" s="11"/>
       <c r="H237" s="11"/>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" ht="15.6">
       <c r="A238" s="4" t="s">
         <v>929</v>
       </c>
@@ -11072,7 +11048,7 @@
       <c r="G238" s="11"/>
       <c r="H238" s="11"/>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" ht="15.6">
       <c r="A239" s="4" t="s">
         <v>929</v>
       </c>
@@ -11086,7 +11062,7 @@
       <c r="G239" s="11"/>
       <c r="H239" s="11"/>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" ht="15.6">
       <c r="A240" s="4" t="s">
         <v>929</v>
       </c>
@@ -11100,7 +11076,7 @@
       <c r="G240" s="11"/>
       <c r="H240" s="11"/>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" ht="15.6">
       <c r="A241" s="4" t="s">
         <v>929</v>
       </c>
@@ -11114,7 +11090,7 @@
       <c r="G241" s="11"/>
       <c r="H241" s="11"/>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" ht="15.6">
       <c r="A242" s="4" t="s">
         <v>929</v>
       </c>
@@ -11128,7 +11104,7 @@
       <c r="G242" s="11"/>
       <c r="H242" s="11"/>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" ht="15.6">
       <c r="A243" s="4" t="s">
         <v>929</v>
       </c>
@@ -11142,7 +11118,7 @@
       <c r="G243" s="11"/>
       <c r="H243" s="11"/>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" ht="15.6">
       <c r="A244" s="4" t="s">
         <v>929</v>
       </c>
@@ -11156,7 +11132,7 @@
       <c r="G244" s="11"/>
       <c r="H244" s="11"/>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" ht="15.6">
       <c r="A245" s="4" t="s">
         <v>929</v>
       </c>
@@ -11170,7 +11146,7 @@
       <c r="G245" s="11"/>
       <c r="H245" s="11"/>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" ht="15.6">
       <c r="A246" s="4" t="s">
         <v>929</v>
       </c>
@@ -11184,7 +11160,7 @@
       <c r="G246" s="11"/>
       <c r="H246" s="11"/>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" ht="15.6">
       <c r="A247" s="4" t="s">
         <v>929</v>
       </c>
@@ -11198,7 +11174,7 @@
       <c r="G247" s="11"/>
       <c r="H247" s="11"/>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" ht="15.6">
       <c r="A248" s="4" t="s">
         <v>929</v>
       </c>
@@ -11212,7 +11188,7 @@
       <c r="G248" s="11"/>
       <c r="H248" s="11"/>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" ht="15.6">
       <c r="A249" s="4" t="s">
         <v>929</v>
       </c>
@@ -11226,7 +11202,7 @@
       <c r="G249" s="11"/>
       <c r="H249" s="11"/>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" ht="15.6">
       <c r="A250" s="4" t="s">
         <v>929</v>
       </c>
@@ -11240,7 +11216,7 @@
       <c r="G250" s="11"/>
       <c r="H250" s="11"/>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" ht="15.6">
       <c r="A251" s="4" t="s">
         <v>929</v>
       </c>
@@ -11254,7 +11230,7 @@
       <c r="G251" s="11"/>
       <c r="H251" s="11"/>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" ht="15.6">
       <c r="A252" s="4" t="s">
         <v>929</v>
       </c>
@@ -11268,7 +11244,7 @@
       <c r="G252" s="11"/>
       <c r="H252" s="11"/>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" ht="15.6">
       <c r="A253" s="4" t="s">
         <v>929</v>
       </c>
@@ -11282,7 +11258,7 @@
       <c r="G253" s="11"/>
       <c r="H253" s="11"/>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" ht="15.6">
       <c r="A254" s="4" t="s">
         <v>929</v>
       </c>
@@ -11296,7 +11272,7 @@
       <c r="G254" s="11"/>
       <c r="H254" s="11"/>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" ht="15.6">
       <c r="A255" s="4" t="s">
         <v>929</v>
       </c>
@@ -11310,7 +11286,7 @@
       <c r="G255" s="11"/>
       <c r="H255" s="11"/>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" ht="15.6">
       <c r="A256" s="4" t="s">
         <v>929</v>
       </c>
@@ -11324,7 +11300,7 @@
       <c r="G256" s="11"/>
       <c r="H256" s="11"/>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" ht="15.6">
       <c r="A257" s="4" t="s">
         <v>929</v>
       </c>
@@ -11338,7 +11314,7 @@
       <c r="G257" s="11"/>
       <c r="H257" s="11"/>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" ht="15.6">
       <c r="A258" s="4" t="s">
         <v>929</v>
       </c>
@@ -11352,7 +11328,7 @@
       <c r="G258" s="11"/>
       <c r="H258" s="11"/>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" ht="15.6">
       <c r="A259" s="4" t="s">
         <v>929</v>
       </c>
@@ -11366,7 +11342,7 @@
       <c r="G259" s="11"/>
       <c r="H259" s="11"/>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" ht="15.6">
       <c r="A260" s="4" t="s">
         <v>929</v>
       </c>
@@ -11380,7 +11356,7 @@
       <c r="G260" s="11"/>
       <c r="H260" s="11"/>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" ht="15.6">
       <c r="A261" s="4" t="s">
         <v>929</v>
       </c>
@@ -11394,7 +11370,7 @@
       <c r="G261" s="11"/>
       <c r="H261" s="11"/>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" ht="15.6">
       <c r="A262" s="4" t="s">
         <v>929</v>
       </c>
@@ -11408,7 +11384,7 @@
       <c r="G262" s="11"/>
       <c r="H262" s="11"/>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" ht="15.6">
       <c r="A263" s="4" t="s">
         <v>929</v>
       </c>
@@ -11422,7 +11398,7 @@
       <c r="G263" s="11"/>
       <c r="H263" s="11"/>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" ht="15.6">
       <c r="A264" s="4" t="s">
         <v>929</v>
       </c>
@@ -11436,7 +11412,7 @@
       <c r="G264" s="11"/>
       <c r="H264" s="11"/>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" ht="15.6">
       <c r="A265" s="4" t="s">
         <v>929</v>
       </c>
@@ -11450,7 +11426,7 @@
       <c r="G265" s="11"/>
       <c r="H265" s="11"/>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" ht="15.6">
       <c r="A266" s="4" t="s">
         <v>929</v>
       </c>
@@ -11464,7 +11440,7 @@
       <c r="G266" s="11"/>
       <c r="H266" s="11"/>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" ht="15.6">
       <c r="A267" s="4" t="s">
         <v>929</v>
       </c>
@@ -11478,7 +11454,7 @@
       <c r="G267" s="11"/>
       <c r="H267" s="11"/>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" ht="15.6">
       <c r="A268" s="4" t="s">
         <v>929</v>
       </c>
@@ -11492,7 +11468,7 @@
       <c r="G268" s="11"/>
       <c r="H268" s="11"/>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" ht="15.6">
       <c r="A269" s="4" t="s">
         <v>929</v>
       </c>
@@ -11506,7 +11482,7 @@
       <c r="G269" s="11"/>
       <c r="H269" s="11"/>
     </row>
-    <row r="270" spans="1:8" ht="18.75">
+    <row r="270" spans="1:8" ht="18">
       <c r="A270" s="4" t="s">
         <v>929</v>
       </c>
@@ -11520,7 +11496,7 @@
       <c r="G270" s="11"/>
       <c r="H270" s="11"/>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" ht="15.6">
       <c r="A271" s="4" t="s">
         <v>929</v>
       </c>
@@ -11534,7 +11510,7 @@
       <c r="G271" s="11"/>
       <c r="H271" s="11"/>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" ht="15.6">
       <c r="A272" s="4" t="s">
         <v>929</v>
       </c>
@@ -11548,7 +11524,7 @@
       <c r="G272" s="11"/>
       <c r="H272" s="11"/>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" ht="15.6">
       <c r="A273" s="4" t="s">
         <v>929</v>
       </c>
@@ -11562,7 +11538,7 @@
       <c r="G273" s="11"/>
       <c r="H273" s="11"/>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" ht="15.6">
       <c r="A274" s="4" t="s">
         <v>929</v>
       </c>
@@ -11576,7 +11552,7 @@
       <c r="G274" s="11"/>
       <c r="H274" s="11"/>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" ht="15.6">
       <c r="A275" s="4" t="s">
         <v>929</v>
       </c>
@@ -11590,7 +11566,7 @@
       <c r="G275" s="11"/>
       <c r="H275" s="11"/>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" ht="15.6">
       <c r="A276" s="4" t="s">
         <v>929</v>
       </c>
@@ -11604,7 +11580,7 @@
       <c r="G276" s="11"/>
       <c r="H276" s="11"/>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" ht="15.6">
       <c r="A277" s="4" t="s">
         <v>929</v>
       </c>
@@ -11618,7 +11594,7 @@
       <c r="G277" s="11"/>
       <c r="H277" s="11"/>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" ht="15.6">
       <c r="A278" s="4" t="s">
         <v>929</v>
       </c>
@@ -11632,7 +11608,7 @@
       <c r="G278" s="11"/>
       <c r="H278" s="11"/>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" ht="15.6">
       <c r="A279" s="4" t="s">
         <v>929</v>
       </c>
@@ -11658,7 +11634,7 @@
       <c r="G280" s="11"/>
       <c r="H280" s="11"/>
     </row>
-    <row r="281" spans="1:8" ht="18.75">
+    <row r="281" spans="1:8" ht="18">
       <c r="A281" s="4" t="s">
         <v>936</v>
       </c>
@@ -11672,7 +11648,7 @@
       <c r="G281" s="11"/>
       <c r="H281" s="11"/>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" ht="15.6">
       <c r="A282" s="4" t="s">
         <v>936</v>
       </c>
@@ -11686,7 +11662,7 @@
       <c r="G282" s="11"/>
       <c r="H282" s="11"/>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" ht="15.6">
       <c r="A283" s="4" t="s">
         <v>936</v>
       </c>
@@ -11700,7 +11676,7 @@
       <c r="G283" s="11"/>
       <c r="H283" s="11"/>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" ht="15.6">
       <c r="A284" s="4" t="s">
         <v>936</v>
       </c>
@@ -11714,7 +11690,7 @@
       <c r="G284" s="11"/>
       <c r="H284" s="11"/>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" ht="15.6">
       <c r="A285" s="4" t="s">
         <v>936</v>
       </c>
@@ -11728,7 +11704,7 @@
       <c r="G285" s="11"/>
       <c r="H285" s="11"/>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" ht="15.6">
       <c r="A286" s="4" t="s">
         <v>936</v>
       </c>
@@ -11742,7 +11718,7 @@
       <c r="G286" s="11"/>
       <c r="H286" s="11"/>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" ht="15.6">
       <c r="A287" s="4" t="s">
         <v>936</v>
       </c>
@@ -11756,7 +11732,7 @@
       <c r="G287" s="11"/>
       <c r="H287" s="11"/>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" ht="15.6">
       <c r="A288" s="4" t="s">
         <v>936</v>
       </c>
@@ -11770,7 +11746,7 @@
       <c r="G288" s="11"/>
       <c r="H288" s="11"/>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" ht="15.6">
       <c r="A289" s="4" t="s">
         <v>936</v>
       </c>
@@ -11784,7 +11760,7 @@
       <c r="G289" s="11"/>
       <c r="H289" s="11"/>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" ht="15.6">
       <c r="A290" s="4" t="s">
         <v>936</v>
       </c>
@@ -11798,7 +11774,7 @@
       <c r="G290" s="11"/>
       <c r="H290" s="11"/>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" ht="15.6">
       <c r="A291" s="4" t="s">
         <v>936</v>
       </c>
@@ -11812,7 +11788,7 @@
       <c r="G291" s="11"/>
       <c r="H291" s="11"/>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" ht="15.6">
       <c r="A292" s="4" t="s">
         <v>936</v>
       </c>
@@ -11826,7 +11802,7 @@
       <c r="G292" s="11"/>
       <c r="H292" s="11"/>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" ht="15.6">
       <c r="A293" s="4" t="s">
         <v>936</v>
       </c>
@@ -11840,7 +11816,7 @@
       <c r="G293" s="11"/>
       <c r="H293" s="11"/>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" ht="15.6">
       <c r="A294" s="4" t="s">
         <v>936</v>
       </c>
@@ -11854,7 +11830,7 @@
       <c r="G294" s="11"/>
       <c r="H294" s="11"/>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" ht="15.6">
       <c r="A295" s="4" t="s">
         <v>936</v>
       </c>
@@ -11868,7 +11844,7 @@
       <c r="G295" s="11"/>
       <c r="H295" s="11"/>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" ht="15.6">
       <c r="A296" s="4" t="s">
         <v>936</v>
       </c>
@@ -11882,7 +11858,7 @@
       <c r="G296" s="11"/>
       <c r="H296" s="11"/>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" ht="15.6">
       <c r="A297" s="4" t="s">
         <v>936</v>
       </c>
@@ -11896,7 +11872,7 @@
       <c r="G297" s="11"/>
       <c r="H297" s="11"/>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" ht="15.6">
       <c r="A298" s="4" t="s">
         <v>936</v>
       </c>
@@ -11910,7 +11886,7 @@
       <c r="G298" s="11"/>
       <c r="H298" s="11"/>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" ht="15.6">
       <c r="A299" s="4" t="s">
         <v>936</v>
       </c>
@@ -11924,7 +11900,7 @@
       <c r="G299" s="11"/>
       <c r="H299" s="11"/>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" ht="15.6">
       <c r="A300" s="4" t="s">
         <v>936</v>
       </c>
@@ -11938,7 +11914,7 @@
       <c r="G300" s="11"/>
       <c r="H300" s="11"/>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" ht="15.6">
       <c r="A301" s="4" t="s">
         <v>936</v>
       </c>
@@ -11952,7 +11928,7 @@
       <c r="G301" s="11"/>
       <c r="H301" s="11"/>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" ht="15.6">
       <c r="A302" s="4" t="s">
         <v>936</v>
       </c>
@@ -11966,7 +11942,7 @@
       <c r="G302" s="11"/>
       <c r="H302" s="11"/>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" ht="15.6">
       <c r="A303" s="4" t="s">
         <v>936</v>
       </c>
@@ -11980,7 +11956,7 @@
       <c r="G303" s="11"/>
       <c r="H303" s="11"/>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" ht="15.6">
       <c r="A304" s="4" t="s">
         <v>936</v>
       </c>
@@ -11994,7 +11970,7 @@
       <c r="G304" s="11"/>
       <c r="H304" s="11"/>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" ht="15.6">
       <c r="A305" s="4" t="s">
         <v>936</v>
       </c>
@@ -12008,7 +11984,7 @@
       <c r="G305" s="11"/>
       <c r="H305" s="11"/>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" ht="15.6">
       <c r="A306" s="4" t="s">
         <v>936</v>
       </c>
@@ -12022,7 +11998,7 @@
       <c r="G306" s="11"/>
       <c r="H306" s="11"/>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" ht="15.6">
       <c r="A307" s="4" t="s">
         <v>936</v>
       </c>
@@ -12036,7 +12012,7 @@
       <c r="G307" s="11"/>
       <c r="H307" s="11"/>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" ht="15.6">
       <c r="A308" s="4" t="s">
         <v>936</v>
       </c>
@@ -12050,7 +12026,7 @@
       <c r="G308" s="11"/>
       <c r="H308" s="11"/>
     </row>
-    <row r="309" spans="1:8" ht="18.75">
+    <row r="309" spans="1:8" ht="18">
       <c r="A309" s="4" t="s">
         <v>936</v>
       </c>
@@ -12064,7 +12040,7 @@
       <c r="G309" s="11"/>
       <c r="H309" s="11"/>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" ht="15.6">
       <c r="A310" s="4" t="s">
         <v>936</v>
       </c>
@@ -12078,7 +12054,7 @@
       <c r="G310" s="11"/>
       <c r="H310" s="11"/>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" ht="15.6">
       <c r="A311" s="4" t="s">
         <v>936</v>
       </c>
@@ -12092,7 +12068,7 @@
       <c r="G311" s="11"/>
       <c r="H311" s="11"/>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" ht="15.6">
       <c r="A312" s="4" t="s">
         <v>936</v>
       </c>
@@ -12106,7 +12082,7 @@
       <c r="G312" s="11"/>
       <c r="H312" s="11"/>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" ht="15.6">
       <c r="A313" s="4" t="s">
         <v>936</v>
       </c>
@@ -12120,7 +12096,7 @@
       <c r="G313" s="11"/>
       <c r="H313" s="11"/>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" ht="15.6">
       <c r="A314" s="4" t="s">
         <v>936</v>
       </c>
@@ -12146,7 +12122,7 @@
       <c r="G315" s="11"/>
       <c r="H315" s="11"/>
     </row>
-    <row r="316" spans="1:8" ht="18.75">
+    <row r="316" spans="1:8" ht="18">
       <c r="A316" s="4" t="s">
         <v>937</v>
       </c>
@@ -12160,7 +12136,7 @@
       <c r="G316" s="11"/>
       <c r="H316" s="11"/>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" ht="15.6">
       <c r="A317" s="4" t="s">
         <v>937</v>
       </c>
@@ -12174,7 +12150,7 @@
       <c r="G317" s="11"/>
       <c r="H317" s="11"/>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" ht="15.6">
       <c r="A318" s="4" t="s">
         <v>937</v>
       </c>
@@ -12188,7 +12164,7 @@
       <c r="G318" s="11"/>
       <c r="H318" s="11"/>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" ht="15.6">
       <c r="A319" s="4" t="s">
         <v>937</v>
       </c>
@@ -12202,7 +12178,7 @@
       <c r="G319" s="11"/>
       <c r="H319" s="11"/>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" ht="15.6">
       <c r="A320" s="4" t="s">
         <v>937</v>
       </c>
@@ -12216,7 +12192,7 @@
       <c r="G320" s="11"/>
       <c r="H320" s="11"/>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" ht="15.6">
       <c r="A321" s="4" t="s">
         <v>937</v>
       </c>
@@ -12230,7 +12206,7 @@
       <c r="G321" s="11"/>
       <c r="H321" s="11"/>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" ht="15.6">
       <c r="A322" s="4" t="s">
         <v>937</v>
       </c>
@@ -12244,7 +12220,7 @@
       <c r="G322" s="11"/>
       <c r="H322" s="11"/>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" ht="15.6">
       <c r="A323" s="4" t="s">
         <v>937</v>
       </c>
@@ -12258,7 +12234,7 @@
       <c r="G323" s="11"/>
       <c r="H323" s="11"/>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" ht="15.6">
       <c r="A324" s="4" t="s">
         <v>937</v>
       </c>
@@ -12272,7 +12248,7 @@
       <c r="G324" s="11"/>
       <c r="H324" s="11"/>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" ht="15.6">
       <c r="A325" s="4" t="s">
         <v>937</v>
       </c>
@@ -12286,7 +12262,7 @@
       <c r="G325" s="11"/>
       <c r="H325" s="11"/>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" ht="15.6">
       <c r="A326" s="4" t="s">
         <v>937</v>
       </c>
@@ -12300,7 +12276,7 @@
       <c r="G326" s="11"/>
       <c r="H326" s="11"/>
     </row>
-    <row r="327" spans="1:8" ht="18.75">
+    <row r="327" spans="1:8" ht="18">
       <c r="A327" s="4" t="s">
         <v>937</v>
       </c>
@@ -12314,7 +12290,7 @@
       <c r="G327" s="11"/>
       <c r="H327" s="11"/>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" ht="15.6">
       <c r="A328" s="4" t="s">
         <v>937</v>
       </c>
@@ -12328,7 +12304,7 @@
       <c r="G328" s="11"/>
       <c r="H328" s="11"/>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" ht="15.6">
       <c r="A329" s="4" t="s">
         <v>937</v>
       </c>
@@ -12342,7 +12318,7 @@
       <c r="G329" s="11"/>
       <c r="H329" s="11"/>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" ht="15.6">
       <c r="A330" s="4" t="s">
         <v>937</v>
       </c>
@@ -12356,7 +12332,7 @@
       <c r="G330" s="11"/>
       <c r="H330" s="11"/>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" ht="15.6">
       <c r="A331" s="4" t="s">
         <v>937</v>
       </c>
@@ -12370,7 +12346,7 @@
       <c r="G331" s="11"/>
       <c r="H331" s="11"/>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" ht="15.6">
       <c r="A332" s="4" t="s">
         <v>937</v>
       </c>
@@ -12384,7 +12360,7 @@
       <c r="G332" s="11"/>
       <c r="H332" s="11"/>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" ht="15.6">
       <c r="A333" s="4" t="s">
         <v>937</v>
       </c>
@@ -12398,7 +12374,7 @@
       <c r="G333" s="11"/>
       <c r="H333" s="11"/>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" ht="15.6">
       <c r="A334" s="4" t="s">
         <v>937</v>
       </c>
@@ -12412,7 +12388,7 @@
       <c r="G334" s="11"/>
       <c r="H334" s="11"/>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" ht="15.6">
       <c r="A335" s="4" t="s">
         <v>937</v>
       </c>
@@ -12426,7 +12402,7 @@
       <c r="G335" s="11"/>
       <c r="H335" s="11"/>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" ht="15.6">
       <c r="A336" s="4" t="s">
         <v>937</v>
       </c>
@@ -12440,7 +12416,7 @@
       <c r="G336" s="11"/>
       <c r="H336" s="11"/>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" ht="15.6">
       <c r="A337" s="4" t="s">
         <v>937</v>
       </c>
@@ -12454,7 +12430,7 @@
       <c r="G337" s="11"/>
       <c r="H337" s="11"/>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" ht="15.6">
       <c r="A338" s="4" t="s">
         <v>937</v>
       </c>
@@ -12468,7 +12444,7 @@
       <c r="G338" s="11"/>
       <c r="H338" s="11"/>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" ht="15.6">
       <c r="A339" s="4" t="s">
         <v>937</v>
       </c>
@@ -12482,7 +12458,7 @@
       <c r="G339" s="11"/>
       <c r="H339" s="11"/>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" ht="15.6">
       <c r="A340" s="4" t="s">
         <v>937</v>
       </c>
@@ -12496,7 +12472,7 @@
       <c r="G340" s="11"/>
       <c r="H340" s="11"/>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" ht="15.6">
       <c r="A341" s="4" t="s">
         <v>937</v>
       </c>
@@ -12510,7 +12486,7 @@
       <c r="G341" s="11"/>
       <c r="H341" s="11"/>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" ht="15.6">
       <c r="A342" s="4" t="s">
         <v>937</v>
       </c>
@@ -12524,7 +12500,7 @@
       <c r="G342" s="11"/>
       <c r="H342" s="11"/>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" ht="15.6">
       <c r="A343" s="4" t="s">
         <v>937</v>
       </c>
@@ -12538,7 +12514,7 @@
       <c r="G343" s="11"/>
       <c r="H343" s="11"/>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" spans="1:8" ht="15.6">
       <c r="A344" s="4" t="s">
         <v>937</v>
       </c>
@@ -12552,7 +12528,7 @@
       <c r="G344" s="11"/>
       <c r="H344" s="11"/>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" spans="1:8" ht="15.6">
       <c r="A345" s="4" t="s">
         <v>937</v>
       </c>
@@ -12566,7 +12542,7 @@
       <c r="G345" s="11"/>
       <c r="H345" s="11"/>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:8" ht="15.6">
       <c r="A346" s="4" t="s">
         <v>937</v>
       </c>
@@ -12580,7 +12556,7 @@
       <c r="G346" s="11"/>
       <c r="H346" s="11"/>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" ht="15.6">
       <c r="A347" s="4" t="s">
         <v>937</v>
       </c>
@@ -12594,7 +12570,7 @@
       <c r="G347" s="11"/>
       <c r="H347" s="11"/>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:8" ht="15.6">
       <c r="A348" s="4" t="s">
         <v>937</v>
       </c>
@@ -12608,7 +12584,7 @@
       <c r="G348" s="11"/>
       <c r="H348" s="11"/>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" ht="15.6">
       <c r="A349" s="4" t="s">
         <v>937</v>
       </c>
@@ -12622,7 +12598,7 @@
       <c r="G349" s="11"/>
       <c r="H349" s="11"/>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" ht="15.6">
       <c r="A350" s="4" t="s">
         <v>937</v>
       </c>
@@ -12648,7 +12624,7 @@
       <c r="G351" s="11"/>
       <c r="H351" s="11"/>
     </row>
-    <row r="352" spans="1:8" ht="18.75">
+    <row r="352" spans="1:8" ht="18">
       <c r="A352" s="4" t="s">
         <v>938</v>
       </c>
@@ -12662,7 +12638,7 @@
       <c r="G352" s="11"/>
       <c r="H352" s="11"/>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:8" ht="15.6">
       <c r="A353" s="4" t="s">
         <v>938</v>
       </c>
@@ -12676,7 +12652,7 @@
       <c r="G353" s="11"/>
       <c r="H353" s="11"/>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:8" ht="15.6">
       <c r="A354" s="4" t="s">
         <v>938</v>
       </c>
@@ -12690,7 +12666,7 @@
       <c r="G354" s="11"/>
       <c r="H354" s="11"/>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:8" ht="15.6">
       <c r="A355" s="4" t="s">
         <v>938</v>
       </c>
@@ -12704,7 +12680,7 @@
       <c r="G355" s="11"/>
       <c r="H355" s="11"/>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:8" ht="15.6">
       <c r="A356" s="4" t="s">
         <v>938</v>
       </c>
@@ -12718,7 +12694,7 @@
       <c r="G356" s="11"/>
       <c r="H356" s="11"/>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:8" ht="15.6">
       <c r="A357" s="4" t="s">
         <v>938</v>
       </c>
@@ -12732,7 +12708,7 @@
       <c r="G357" s="11"/>
       <c r="H357" s="11"/>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:8" ht="15.6">
       <c r="A358" s="4" t="s">
         <v>938</v>
       </c>
@@ -12746,7 +12722,7 @@
       <c r="G358" s="11"/>
       <c r="H358" s="11"/>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:8" ht="15.6">
       <c r="A359" s="4" t="s">
         <v>938</v>
       </c>
@@ -12760,7 +12736,7 @@
       <c r="G359" s="11"/>
       <c r="H359" s="11"/>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" spans="1:8" ht="15.6">
       <c r="A360" s="4" t="s">
         <v>938</v>
       </c>
@@ -12774,7 +12750,7 @@
       <c r="G360" s="11"/>
       <c r="H360" s="11"/>
     </row>
-    <row r="361" spans="1:8">
+    <row r="361" spans="1:8" ht="15.6">
       <c r="A361" s="4" t="s">
         <v>938</v>
       </c>
@@ -12788,7 +12764,7 @@
       <c r="G361" s="11"/>
       <c r="H361" s="11"/>
     </row>
-    <row r="362" spans="1:8" ht="18.75">
+    <row r="362" spans="1:8" ht="18">
       <c r="A362" s="4" t="s">
         <v>938</v>
       </c>
@@ -12802,7 +12778,7 @@
       <c r="G362" s="11"/>
       <c r="H362" s="11"/>
     </row>
-    <row r="363" spans="1:8">
+    <row r="363" spans="1:8" ht="15.6">
       <c r="A363" s="4" t="s">
         <v>938</v>
       </c>
@@ -12816,7 +12792,7 @@
       <c r="G363" s="11"/>
       <c r="H363" s="11"/>
     </row>
-    <row r="364" spans="1:8">
+    <row r="364" spans="1:8" ht="15.6">
       <c r="A364" s="4" t="s">
         <v>938</v>
       </c>
@@ -12830,7 +12806,7 @@
       <c r="G364" s="11"/>
       <c r="H364" s="11"/>
     </row>
-    <row r="365" spans="1:8">
+    <row r="365" spans="1:8" ht="15.6">
       <c r="A365" s="4" t="s">
         <v>938</v>
       </c>
@@ -12844,7 +12820,7 @@
       <c r="G365" s="11"/>
       <c r="H365" s="11"/>
     </row>
-    <row r="366" spans="1:8">
+    <row r="366" spans="1:8" ht="15.6">
       <c r="A366" s="4" t="s">
         <v>938</v>
       </c>
@@ -12858,7 +12834,7 @@
       <c r="G366" s="11"/>
       <c r="H366" s="11"/>
     </row>
-    <row r="367" spans="1:8">
+    <row r="367" spans="1:8" ht="15.6">
       <c r="A367" s="4" t="s">
         <v>938</v>
       </c>
@@ -12872,7 +12848,7 @@
       <c r="G367" s="11"/>
       <c r="H367" s="11"/>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:8" ht="15.6">
       <c r="A368" s="4" t="s">
         <v>938</v>
       </c>
@@ -12886,7 +12862,7 @@
       <c r="G368" s="11"/>
       <c r="H368" s="11"/>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" ht="15.6">
       <c r="A369" s="4" t="s">
         <v>938</v>
       </c>
@@ -12900,7 +12876,7 @@
       <c r="G369" s="11"/>
       <c r="H369" s="11"/>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:8" ht="15.6">
       <c r="A370" s="4" t="s">
         <v>938</v>
       </c>
@@ -12913,7 +12889,7 @@
       <c r="G370" s="11"/>
       <c r="H370" s="11"/>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" ht="15.6">
       <c r="A371" s="4" t="s">
         <v>938</v>
       </c>
@@ -12927,7 +12903,7 @@
       <c r="G371" s="11"/>
       <c r="H371" s="11"/>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" ht="15.6">
       <c r="A372" s="4" t="s">
         <v>938</v>
       </c>
@@ -12941,7 +12917,7 @@
       <c r="G372" s="11"/>
       <c r="H372" s="11"/>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" ht="15.6">
       <c r="A373" s="4" t="s">
         <v>938</v>
       </c>
@@ -12955,7 +12931,7 @@
       <c r="G373" s="11"/>
       <c r="H373" s="11"/>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:8" ht="15.6">
       <c r="A374" s="4" t="s">
         <v>938</v>
       </c>
@@ -12969,7 +12945,7 @@
       <c r="G374" s="11"/>
       <c r="H374" s="11"/>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" ht="15.6">
       <c r="A375" s="4" t="s">
         <v>938</v>
       </c>
@@ -12983,7 +12959,7 @@
       <c r="G375" s="11"/>
       <c r="H375" s="11"/>
     </row>
-    <row r="376" spans="1:8" ht="18.75">
+    <row r="376" spans="1:8" ht="18">
       <c r="A376" s="4" t="s">
         <v>938</v>
       </c>
@@ -12997,7 +12973,7 @@
       <c r="G376" s="11"/>
       <c r="H376" s="11"/>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" ht="15.6">
       <c r="A377" s="4" t="s">
         <v>938</v>
       </c>
@@ -13011,7 +12987,7 @@
       <c r="G377" s="11"/>
       <c r="H377" s="11"/>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" ht="15.6">
       <c r="A378" s="4" t="s">
         <v>938</v>
       </c>
@@ -13025,7 +13001,7 @@
       <c r="G378" s="11"/>
       <c r="H378" s="11"/>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" ht="15.6">
       <c r="A379" s="4" t="s">
         <v>938</v>
       </c>
@@ -13039,7 +13015,7 @@
       <c r="G379" s="11"/>
       <c r="H379" s="11"/>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" ht="15.6">
       <c r="A380" s="4" t="s">
         <v>938</v>
       </c>
@@ -13053,7 +13029,7 @@
       <c r="G380" s="11"/>
       <c r="H380" s="11"/>
     </row>
-    <row r="381" spans="1:8">
+    <row r="381" spans="1:8" ht="15.6">
       <c r="A381" s="4" t="s">
         <v>938</v>
       </c>
@@ -13067,7 +13043,7 @@
       <c r="G381" s="11"/>
       <c r="H381" s="11"/>
     </row>
-    <row r="382" spans="1:8">
+    <row r="382" spans="1:8" ht="15.6">
       <c r="A382" s="4" t="s">
         <v>938</v>
       </c>
@@ -13081,7 +13057,7 @@
       <c r="G382" s="11"/>
       <c r="H382" s="11"/>
     </row>
-    <row r="383" spans="1:8">
+    <row r="383" spans="1:8" ht="15.6">
       <c r="A383" s="4" t="s">
         <v>938</v>
       </c>
@@ -13095,7 +13071,7 @@
       <c r="G383" s="11"/>
       <c r="H383" s="11"/>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" ht="15.6">
       <c r="A384" s="4" t="s">
         <v>938</v>
       </c>
@@ -13109,7 +13085,7 @@
       <c r="G384" s="11"/>
       <c r="H384" s="11"/>
     </row>
-    <row r="385" spans="1:8">
+    <row r="385" spans="1:8" ht="15.6">
       <c r="A385" s="4" t="s">
         <v>938</v>
       </c>
@@ -13123,7 +13099,7 @@
       <c r="G385" s="11"/>
       <c r="H385" s="11"/>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" ht="15.6">
       <c r="A386" s="4" t="s">
         <v>938</v>
       </c>
@@ -13137,7 +13113,7 @@
       <c r="G386" s="11"/>
       <c r="H386" s="11"/>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:8" ht="15.6">
       <c r="A387" s="4" t="s">
         <v>938</v>
       </c>
@@ -13151,7 +13127,7 @@
       <c r="G387" s="11"/>
       <c r="H387" s="11"/>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" ht="15.6">
       <c r="A388" s="4" t="s">
         <v>938</v>
       </c>
@@ -13165,7 +13141,7 @@
       <c r="G388" s="11"/>
       <c r="H388" s="11"/>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" ht="15.6">
       <c r="A389" s="4" t="s">
         <v>938</v>
       </c>
@@ -13179,7 +13155,7 @@
       <c r="G389" s="11"/>
       <c r="H389" s="11"/>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" ht="15.6">
       <c r="A390" s="4" t="s">
         <v>938</v>
       </c>
@@ -13193,7 +13169,7 @@
       <c r="G390" s="11"/>
       <c r="H390" s="11"/>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" ht="15.6">
       <c r="A391" s="4" t="s">
         <v>938</v>
       </c>
@@ -13207,7 +13183,7 @@
       <c r="G391" s="11"/>
       <c r="H391" s="11"/>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" ht="15.6">
       <c r="A392" s="4" t="s">
         <v>938</v>
       </c>
@@ -13221,7 +13197,7 @@
       <c r="G392" s="11"/>
       <c r="H392" s="11"/>
     </row>
-    <row r="393" spans="1:8">
+    <row r="393" spans="1:8" ht="15.6">
       <c r="A393" s="4" t="s">
         <v>938</v>
       </c>
@@ -13235,7 +13211,7 @@
       <c r="G393" s="11"/>
       <c r="H393" s="11"/>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" ht="15.6">
       <c r="A394" s="4" t="s">
         <v>938</v>
       </c>
@@ -13249,7 +13225,7 @@
       <c r="G394" s="11"/>
       <c r="H394" s="11"/>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:8" ht="15.6">
       <c r="A395" s="4" t="s">
         <v>938</v>
       </c>
@@ -13263,7 +13239,7 @@
       <c r="G395" s="11"/>
       <c r="H395" s="11"/>
     </row>
-    <row r="396" spans="1:8" ht="18.75">
+    <row r="396" spans="1:8" ht="18">
       <c r="A396" s="4" t="s">
         <v>938</v>
       </c>
@@ -13277,7 +13253,7 @@
       <c r="G396" s="11"/>
       <c r="H396" s="11"/>
     </row>
-    <row r="397" spans="1:8">
+    <row r="397" spans="1:8" ht="15.6">
       <c r="A397" s="4" t="s">
         <v>938</v>
       </c>
@@ -13291,7 +13267,7 @@
       <c r="G397" s="11"/>
       <c r="H397" s="11"/>
     </row>
-    <row r="398" spans="1:8">
+    <row r="398" spans="1:8" ht="15.6">
       <c r="A398" s="4" t="s">
         <v>938</v>
       </c>
@@ -13304,7 +13280,7 @@
       <c r="G398" s="11"/>
       <c r="H398" s="11"/>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:8" ht="15.6">
       <c r="A399" s="4" t="s">
         <v>938</v>
       </c>
@@ -13318,7 +13294,7 @@
       <c r="G399" s="11"/>
       <c r="H399" s="11"/>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:8" ht="15.6">
       <c r="A400" s="4" t="s">
         <v>938</v>
       </c>
@@ -13332,7 +13308,7 @@
       <c r="G400" s="11"/>
       <c r="H400" s="11"/>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:8" ht="15.6">
       <c r="A401" s="4" t="s">
         <v>938</v>
       </c>
@@ -13346,7 +13322,7 @@
       <c r="G401" s="11"/>
       <c r="H401" s="11"/>
     </row>
-    <row r="402" spans="1:8">
+    <row r="402" spans="1:8" ht="15.6">
       <c r="A402" s="4" t="s">
         <v>938</v>
       </c>
@@ -13360,7 +13336,7 @@
       <c r="G402" s="11"/>
       <c r="H402" s="11"/>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="1:8" ht="15.6">
       <c r="A403" s="4" t="s">
         <v>938</v>
       </c>
@@ -13374,7 +13350,7 @@
       <c r="G403" s="11"/>
       <c r="H403" s="11"/>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="1:8" ht="15.6">
       <c r="A404" s="4" t="s">
         <v>938</v>
       </c>
@@ -13388,7 +13364,7 @@
       <c r="G404" s="11"/>
       <c r="H404" s="11"/>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:8" ht="15.6">
       <c r="A405" s="4" t="s">
         <v>938</v>
       </c>
@@ -13402,7 +13378,7 @@
       <c r="G405" s="11"/>
       <c r="H405" s="11"/>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:8" ht="15.6">
       <c r="A406" s="4" t="s">
         <v>938</v>
       </c>
@@ -13416,7 +13392,7 @@
       <c r="G406" s="11"/>
       <c r="H406" s="11"/>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:8" ht="15.6">
       <c r="A407" s="4" t="s">
         <v>938</v>
       </c>
@@ -13430,7 +13406,7 @@
       <c r="G407" s="11"/>
       <c r="H407" s="11"/>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:8" ht="15.6">
       <c r="A408" s="4" t="s">
         <v>938</v>
       </c>
@@ -13444,7 +13420,7 @@
       <c r="G408" s="11"/>
       <c r="H408" s="11"/>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:8" ht="15.6">
       <c r="A409" s="4" t="s">
         <v>938</v>
       </c>
@@ -13458,7 +13434,7 @@
       <c r="G409" s="11"/>
       <c r="H409" s="11"/>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:8" ht="15.6">
       <c r="A410" s="4" t="s">
         <v>938</v>
       </c>
@@ -13484,7 +13460,7 @@
       <c r="G411" s="11"/>
       <c r="H411" s="11"/>
     </row>
-    <row r="412" spans="1:8" ht="18.75">
+    <row r="412" spans="1:8" ht="18">
       <c r="A412" s="4" t="s">
         <v>939</v>
       </c>
@@ -13498,7 +13474,7 @@
       <c r="G412" s="11"/>
       <c r="H412" s="11"/>
     </row>
-    <row r="413" spans="1:8">
+    <row r="413" spans="1:8" ht="15.6">
       <c r="A413" s="4" t="s">
         <v>939</v>
       </c>
@@ -13512,7 +13488,7 @@
       <c r="G413" s="11"/>
       <c r="H413" s="11"/>
     </row>
-    <row r="414" spans="1:8">
+    <row r="414" spans="1:8" ht="15.6">
       <c r="A414" s="4" t="s">
         <v>939</v>
       </c>
@@ -13526,7 +13502,7 @@
       <c r="G414" s="11"/>
       <c r="H414" s="11"/>
     </row>
-    <row r="415" spans="1:8">
+    <row r="415" spans="1:8" ht="15.6">
       <c r="A415" s="4" t="s">
         <v>939</v>
       </c>
@@ -13540,7 +13516,7 @@
       <c r="G415" s="11"/>
       <c r="H415" s="11"/>
     </row>
-    <row r="416" spans="1:8">
+    <row r="416" spans="1:8" ht="15.6">
       <c r="A416" s="4" t="s">
         <v>939</v>
       </c>
@@ -13554,7 +13530,7 @@
       <c r="G416" s="11"/>
       <c r="H416" s="11"/>
     </row>
-    <row r="417" spans="1:8">
+    <row r="417" spans="1:8" ht="15.6">
       <c r="A417" s="4" t="s">
         <v>939</v>
       </c>
@@ -13568,7 +13544,7 @@
       <c r="G417" s="11"/>
       <c r="H417" s="11"/>
     </row>
-    <row r="418" spans="1:8">
+    <row r="418" spans="1:8" ht="15.6">
       <c r="A418" s="4" t="s">
         <v>939</v>
       </c>
@@ -13582,7 +13558,7 @@
       <c r="G418" s="11"/>
       <c r="H418" s="11"/>
     </row>
-    <row r="419" spans="1:8">
+    <row r="419" spans="1:8" ht="15.6">
       <c r="A419" s="4" t="s">
         <v>939</v>
       </c>
@@ -13596,7 +13572,7 @@
       <c r="G419" s="11"/>
       <c r="H419" s="11"/>
     </row>
-    <row r="420" spans="1:8">
+    <row r="420" spans="1:8" ht="15.6">
       <c r="A420" s="4" t="s">
         <v>939</v>
       </c>
@@ -13610,7 +13586,7 @@
       <c r="G420" s="11"/>
       <c r="H420" s="11"/>
     </row>
-    <row r="421" spans="1:8">
+    <row r="421" spans="1:8" ht="15.6">
       <c r="A421" s="4" t="s">
         <v>939</v>
       </c>
@@ -13624,7 +13600,7 @@
       <c r="G421" s="11"/>
       <c r="H421" s="11"/>
     </row>
-    <row r="422" spans="1:8">
+    <row r="422" spans="1:8" ht="15.6">
       <c r="A422" s="4" t="s">
         <v>939</v>
       </c>
@@ -13638,7 +13614,7 @@
       <c r="G422" s="11"/>
       <c r="H422" s="11"/>
     </row>
-    <row r="423" spans="1:8" ht="18.75">
+    <row r="423" spans="1:8" ht="18">
       <c r="A423" s="4" t="s">
         <v>939</v>
       </c>
@@ -13652,7 +13628,7 @@
       <c r="G423" s="11"/>
       <c r="H423" s="11"/>
     </row>
-    <row r="424" spans="1:8">
+    <row r="424" spans="1:8" ht="15.6">
       <c r="A424" s="4" t="s">
         <v>939</v>
       </c>
@@ -13666,7 +13642,7 @@
       <c r="G424" s="11"/>
       <c r="H424" s="11"/>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" spans="1:8" ht="15.6">
       <c r="A425" s="4" t="s">
         <v>939</v>
       </c>
@@ -13680,7 +13656,7 @@
       <c r="G425" s="11"/>
       <c r="H425" s="11"/>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" spans="1:8" ht="15.6">
       <c r="A426" s="4" t="s">
         <v>939</v>
       </c>
@@ -13694,7 +13670,7 @@
       <c r="G426" s="11"/>
       <c r="H426" s="11"/>
     </row>
-    <row r="427" spans="1:8">
+    <row r="427" spans="1:8" ht="15.6">
       <c r="A427" s="4" t="s">
         <v>939</v>
       </c>
@@ -13708,7 +13684,7 @@
       <c r="G427" s="11"/>
       <c r="H427" s="11"/>
     </row>
-    <row r="428" spans="1:8">
+    <row r="428" spans="1:8" ht="15.6">
       <c r="A428" s="4" t="s">
         <v>939</v>
       </c>
@@ -13722,7 +13698,7 @@
       <c r="G428" s="11"/>
       <c r="H428" s="11"/>
     </row>
-    <row r="429" spans="1:8" ht="18.75">
+    <row r="429" spans="1:8" ht="18">
       <c r="A429" s="4" t="s">
         <v>939</v>
       </c>
@@ -13736,7 +13712,7 @@
       <c r="G429" s="11"/>
       <c r="H429" s="11"/>
     </row>
-    <row r="430" spans="1:8">
+    <row r="430" spans="1:8" ht="15.6">
       <c r="A430" s="4" t="s">
         <v>939</v>
       </c>
@@ -13750,7 +13726,7 @@
       <c r="G430" s="11"/>
       <c r="H430" s="11"/>
     </row>
-    <row r="431" spans="1:8">
+    <row r="431" spans="1:8" ht="15.6">
       <c r="A431" s="4" t="s">
         <v>939</v>
       </c>
@@ -13764,7 +13740,7 @@
       <c r="G431" s="11"/>
       <c r="H431" s="11"/>
     </row>
-    <row r="432" spans="1:8">
+    <row r="432" spans="1:8" ht="15.6">
       <c r="A432" s="4" t="s">
         <v>939</v>
       </c>
@@ -13778,7 +13754,7 @@
       <c r="G432" s="11"/>
       <c r="H432" s="11"/>
     </row>
-    <row r="433" spans="1:8">
+    <row r="433" spans="1:8" ht="15.6">
       <c r="A433" s="4" t="s">
         <v>939</v>
       </c>
@@ -15229,18 +15205,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="8" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" customWidth="1"/>
+    <col min="7" max="8" width="3.109375" customWidth="1"/>
     <col min="9" max="9" width="5" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" customWidth="1"/>
+    <col min="11" max="11" width="5.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
@@ -15425,22 +15401,22 @@
       <selection activeCell="M6" sqref="M6:M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="47" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="47" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="47" customWidth="1"/>
-    <col min="4" max="4" width="80.85546875" style="47" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="48" customWidth="1"/>
-    <col min="6" max="6" width="87.7109375" style="47" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="47" customWidth="1"/>
-    <col min="8" max="8" width="74.42578125" style="32" customWidth="1"/>
-    <col min="9" max="9" width="104.42578125" style="47" customWidth="1"/>
-    <col min="10" max="10" width="68.28515625" style="47" customWidth="1"/>
-    <col min="11" max="11" width="52.85546875" style="47" customWidth="1"/>
-    <col min="12" max="12" width="26.42578125" style="47" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" style="47" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="47"/>
+    <col min="1" max="1" width="4.6640625" style="47" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" style="47" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" style="47" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" style="47" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="48" customWidth="1"/>
+    <col min="6" max="6" width="87.6640625" style="47" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="47" customWidth="1"/>
+    <col min="8" max="8" width="74.44140625" style="32" customWidth="1"/>
+    <col min="9" max="9" width="104.44140625" style="47" customWidth="1"/>
+    <col min="10" max="10" width="68.33203125" style="47" customWidth="1"/>
+    <col min="11" max="11" width="52.88671875" style="47" customWidth="1"/>
+    <col min="12" max="12" width="26.44140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.44140625" style="47" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="18" customFormat="1" ht="14.25" customHeight="1">
@@ -15459,12 +15435,12 @@
       <c r="M1" s="16"/>
     </row>
     <row r="2" spans="1:13" s="18" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
+      <c r="A2" s="127"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
       <c r="G2" s="49" t="s">
         <v>501</v>
       </c>
@@ -15488,14 +15464,14 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="18" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="128" t="s">
         <v>446</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
       <c r="G3" s="27"/>
       <c r="H3" s="23"/>
       <c r="I3" s="24" t="s">
@@ -15506,12 +15482,12 @@
       <c r="M3" s="26"/>
     </row>
     <row r="4" spans="1:13" s="32" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A4" s="103"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
+      <c r="A4" s="129"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
@@ -15538,16 +15514,16 @@
       <c r="M5" s="40"/>
     </row>
     <row r="6" spans="1:13" s="18" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="102" t="s">
         <v>448</v>
       </c>
-      <c r="B6" s="104" t="s">
+      <c r="B6" s="102" t="s">
         <v>449</v>
       </c>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="102" t="s">
         <v>450</v>
       </c>
-      <c r="D6" s="108" t="s">
+      <c r="D6" s="117" t="s">
         <v>505</v>
       </c>
       <c r="E6" s="41" t="s">
@@ -15569,18 +15545,18 @@
       <c r="K6" s="43" t="s">
         <v>454</v>
       </c>
-      <c r="L6" s="112" t="s">
+      <c r="L6" s="114" t="s">
         <v>507</v>
       </c>
-      <c r="M6" s="112" t="s">
+      <c r="M6" s="114" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="18" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="105"/>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="109"/>
+      <c r="A7" s="103"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="118"/>
       <c r="E7" s="41" t="s">
         <v>456</v>
       </c>
@@ -15602,22 +15578,22 @@
       <c r="K7" s="43" t="s">
         <v>458</v>
       </c>
-      <c r="L7" s="113"/>
-      <c r="M7" s="113"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
     </row>
     <row r="8" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A8" s="105"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="104" t="s">
+      <c r="A8" s="103"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="102" t="s">
         <v>459</v>
       </c>
-      <c r="F8" s="115" t="s">
+      <c r="F8" s="105" t="s">
         <v>511</v>
       </c>
       <c r="G8" s="78"/>
-      <c r="H8" s="118" t="s">
+      <c r="H8" s="108" t="s">
         <v>512</v>
       </c>
       <c r="I8" s="50" t="s">
@@ -15629,18 +15605,18 @@
       <c r="K8" s="43" t="s">
         <v>466</v>
       </c>
-      <c r="L8" s="113"/>
-      <c r="M8" s="113"/>
-    </row>
-    <row r="9" spans="1:13" s="18" customFormat="1" ht="15.95" customHeight="1" outlineLevel="1">
-      <c r="A9" s="105"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="116"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+    </row>
+    <row r="9" spans="1:13" s="18" customFormat="1" ht="15.9" customHeight="1" outlineLevel="1">
+      <c r="A9" s="103"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="106"/>
       <c r="G9" s="79"/>
-      <c r="H9" s="119"/>
+      <c r="H9" s="109"/>
       <c r="I9" s="50" t="s">
         <v>514</v>
       </c>
@@ -15648,41 +15624,41 @@
       <c r="K9" s="51" t="s">
         <v>515</v>
       </c>
-      <c r="L9" s="113"/>
-      <c r="M9" s="113"/>
-    </row>
-    <row r="10" spans="1:13" s="18" customFormat="1" ht="18.95" customHeight="1" outlineLevel="1">
-      <c r="A10" s="105"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="117"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="115"/>
+    </row>
+    <row r="10" spans="1:13" s="18" customFormat="1" ht="18.899999999999999" customHeight="1" outlineLevel="1">
+      <c r="A10" s="103"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="107"/>
       <c r="G10" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="H10" s="120"/>
+      <c r="H10" s="110"/>
       <c r="I10" s="50" t="s">
         <v>516</v>
       </c>
       <c r="J10" s="44"/>
       <c r="K10" s="52"/>
-      <c r="L10" s="113"/>
-      <c r="M10" s="113"/>
-    </row>
-    <row r="11" spans="1:13" s="18" customFormat="1" ht="12.95" customHeight="1" outlineLevel="1">
-      <c r="A11" s="105"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="104" t="s">
+      <c r="L10" s="115"/>
+      <c r="M10" s="115"/>
+    </row>
+    <row r="11" spans="1:13" s="18" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1">
+      <c r="A11" s="103"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="102" t="s">
         <v>461</v>
       </c>
-      <c r="F11" s="115" t="s">
+      <c r="F11" s="105" t="s">
         <v>517</v>
       </c>
       <c r="G11" s="78"/>
-      <c r="H11" s="122"/>
+      <c r="H11" s="101"/>
       <c r="I11" s="53" t="s">
         <v>518</v>
       </c>
@@ -15690,20 +15666,20 @@
       <c r="K11" s="43" t="s">
         <v>519</v>
       </c>
-      <c r="L11" s="113"/>
-      <c r="M11" s="113"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="115"/>
     </row>
     <row r="12" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A12" s="105"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="121"/>
+      <c r="A12" s="103"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="124"/>
       <c r="G12" s="80" t="s">
         <v>582</v>
       </c>
-      <c r="H12" s="123"/>
+      <c r="H12" s="125"/>
       <c r="I12" s="54" t="s">
         <v>520</v>
       </c>
@@ -15711,16 +15687,16 @@
       <c r="K12" s="56" t="s">
         <v>521</v>
       </c>
-      <c r="L12" s="113"/>
-      <c r="M12" s="113"/>
+      <c r="L12" s="115"/>
+      <c r="M12" s="115"/>
     </row>
     <row r="13" spans="1:13" s="18" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A13" s="105"/>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105" t="s">
+      <c r="A13" s="103"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103" t="s">
         <v>462</v>
       </c>
-      <c r="D13" s="109" t="s">
+      <c r="D13" s="118" t="s">
         <v>522</v>
       </c>
       <c r="E13" s="57" t="s">
@@ -15742,14 +15718,14 @@
       <c r="K13" s="51" t="s">
         <v>526</v>
       </c>
-      <c r="L13" s="113"/>
-      <c r="M13" s="113"/>
+      <c r="L13" s="115"/>
+      <c r="M13" s="115"/>
     </row>
     <row r="14" spans="1:13" s="18" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A14" s="105"/>
-      <c r="B14" s="105"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="109"/>
+      <c r="A14" s="103"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="118"/>
       <c r="E14" s="41" t="s">
         <v>464</v>
       </c>
@@ -15769,14 +15745,14 @@
       <c r="K14" s="43" t="s">
         <v>530</v>
       </c>
-      <c r="L14" s="113"/>
-      <c r="M14" s="113"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="115"/>
     </row>
     <row r="15" spans="1:13" s="18" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A15" s="105"/>
-      <c r="B15" s="105"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="109"/>
+      <c r="A15" s="103"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="118"/>
       <c r="E15" s="41" t="s">
         <v>465</v>
       </c>
@@ -15796,56 +15772,56 @@
       <c r="K15" s="43" t="s">
         <v>534</v>
       </c>
-      <c r="L15" s="113"/>
-      <c r="M15" s="113"/>
+      <c r="L15" s="115"/>
+      <c r="M15" s="115"/>
     </row>
     <row r="16" spans="1:13" s="18" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A16" s="105"/>
-      <c r="B16" s="105"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="104" t="s">
+      <c r="A16" s="103"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="102" t="s">
         <v>467</v>
       </c>
-      <c r="F16" s="115" t="s">
+      <c r="F16" s="105" t="s">
         <v>535</v>
       </c>
       <c r="G16" s="78"/>
-      <c r="H16" s="124"/>
+      <c r="H16" s="126"/>
       <c r="I16" s="63" t="s">
         <v>536</v>
       </c>
       <c r="J16" s="46"/>
       <c r="K16" s="43"/>
-      <c r="L16" s="113"/>
-      <c r="M16" s="113"/>
+      <c r="L16" s="115"/>
+      <c r="M16" s="115"/>
     </row>
     <row r="17" spans="1:14" s="18" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A17" s="105"/>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="116"/>
+      <c r="A17" s="103"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="106"/>
       <c r="G17" s="79"/>
-      <c r="H17" s="124"/>
+      <c r="H17" s="126"/>
       <c r="I17" s="63" t="s">
         <v>537</v>
       </c>
       <c r="J17" s="46"/>
       <c r="K17" s="43"/>
-      <c r="L17" s="113"/>
-      <c r="M17" s="113"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="115"/>
     </row>
     <row r="18" spans="1:14" s="18" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A18" s="105"/>
-      <c r="B18" s="105"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="116"/>
+      <c r="A18" s="103"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="106"/>
       <c r="G18" s="79"/>
-      <c r="H18" s="124"/>
+      <c r="H18" s="126"/>
       <c r="I18" s="43" t="s">
         <v>538</v>
       </c>
@@ -15853,18 +15829,18 @@
       <c r="K18" s="63" t="s">
         <v>539</v>
       </c>
-      <c r="L18" s="113"/>
-      <c r="M18" s="113"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="115"/>
     </row>
     <row r="19" spans="1:14" s="18" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A19" s="105"/>
-      <c r="B19" s="105"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="116"/>
+      <c r="A19" s="103"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="106"/>
       <c r="G19" s="79"/>
-      <c r="H19" s="124"/>
+      <c r="H19" s="126"/>
       <c r="I19" s="43" t="s">
         <v>540</v>
       </c>
@@ -15872,18 +15848,18 @@
       <c r="K19" s="63" t="s">
         <v>541</v>
       </c>
-      <c r="L19" s="113"/>
-      <c r="M19" s="113"/>
+      <c r="L19" s="115"/>
+      <c r="M19" s="115"/>
     </row>
     <row r="20" spans="1:14" s="18" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A20" s="105"/>
-      <c r="B20" s="105"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="116"/>
+      <c r="A20" s="103"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="106"/>
       <c r="G20" s="79"/>
-      <c r="H20" s="124"/>
+      <c r="H20" s="126"/>
       <c r="I20" s="43" t="s">
         <v>542</v>
       </c>
@@ -15891,44 +15867,44 @@
       <c r="K20" s="63" t="s">
         <v>543</v>
       </c>
-      <c r="L20" s="113"/>
-      <c r="M20" s="113"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="115"/>
     </row>
     <row r="21" spans="1:14" s="18" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A21" s="105"/>
-      <c r="B21" s="105"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="116"/>
+      <c r="A21" s="103"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="106"/>
       <c r="G21" s="79"/>
-      <c r="H21" s="124"/>
+      <c r="H21" s="126"/>
       <c r="I21" s="45" t="s">
         <v>484</v>
       </c>
       <c r="J21" s="46"/>
       <c r="K21" s="63"/>
-      <c r="L21" s="113"/>
-      <c r="M21" s="113"/>
+      <c r="L21" s="115"/>
+      <c r="M21" s="115"/>
     </row>
     <row r="22" spans="1:14" s="18" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A22" s="106"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="117"/>
+      <c r="A22" s="104"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="107"/>
       <c r="G22" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="H22" s="124"/>
+      <c r="H22" s="126"/>
       <c r="I22" s="43" t="s">
         <v>544</v>
       </c>
       <c r="J22" s="46"/>
       <c r="K22" s="44"/>
-      <c r="L22" s="114"/>
-      <c r="M22" s="114"/>
+      <c r="L22" s="116"/>
+      <c r="M22" s="116"/>
     </row>
     <row r="23" spans="1:14" s="18" customFormat="1" ht="8.1" customHeight="1">
       <c r="A23" s="64"/>
@@ -15946,26 +15922,26 @@
       <c r="M23" s="69"/>
     </row>
     <row r="24" spans="1:14" s="18" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A24" s="104" t="s">
+      <c r="A24" s="102" t="s">
         <v>468</v>
       </c>
-      <c r="B24" s="125" t="s">
+      <c r="B24" s="120" t="s">
         <v>469</v>
       </c>
-      <c r="C24" s="104" t="s">
+      <c r="C24" s="102" t="s">
         <v>470</v>
       </c>
-      <c r="D24" s="108" t="s">
+      <c r="D24" s="117" t="s">
         <v>545</v>
       </c>
-      <c r="E24" s="104" t="s">
+      <c r="E24" s="102" t="s">
         <v>471</v>
       </c>
-      <c r="F24" s="115" t="s">
+      <c r="F24" s="105" t="s">
         <v>546</v>
       </c>
       <c r="G24" s="78"/>
-      <c r="H24" s="118" t="s">
+      <c r="H24" s="108" t="s">
         <v>547</v>
       </c>
       <c r="I24" s="44" t="s">
@@ -15977,47 +15953,47 @@
       <c r="K24" s="43" t="s">
         <v>548</v>
       </c>
-      <c r="L24" s="112" t="s">
+      <c r="L24" s="114" t="s">
         <v>507</v>
       </c>
-      <c r="M24" s="122" t="s">
+      <c r="M24" s="101" t="s">
         <v>474</v>
       </c>
       <c r="N24" s="47"/>
     </row>
     <row r="25" spans="1:14" s="18" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A25" s="105"/>
-      <c r="B25" s="126"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="117"/>
+      <c r="A25" s="103"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="107"/>
       <c r="G25" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="H25" s="120"/>
+      <c r="H25" s="110"/>
       <c r="I25" s="44" t="s">
         <v>549</v>
       </c>
       <c r="J25" s="45"/>
       <c r="K25" s="43"/>
-      <c r="L25" s="113"/>
-      <c r="M25" s="122"/>
+      <c r="L25" s="115"/>
+      <c r="M25" s="101"/>
       <c r="N25" s="47"/>
     </row>
     <row r="26" spans="1:14" s="18" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A26" s="105"/>
-      <c r="B26" s="126"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="104" t="s">
+      <c r="A26" s="103"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="102" t="s">
         <v>475</v>
       </c>
-      <c r="F26" s="115" t="s">
+      <c r="F26" s="105" t="s">
         <v>550</v>
       </c>
       <c r="G26" s="78"/>
-      <c r="H26" s="118" t="s">
+      <c r="H26" s="108" t="s">
         <v>551</v>
       </c>
       <c r="I26" s="44" t="s">
@@ -16029,21 +16005,21 @@
       <c r="K26" s="43" t="s">
         <v>553</v>
       </c>
-      <c r="L26" s="113"/>
-      <c r="M26" s="122"/>
+      <c r="L26" s="115"/>
+      <c r="M26" s="101"/>
       <c r="N26" s="47"/>
     </row>
     <row r="27" spans="1:14" s="18" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A27" s="105"/>
-      <c r="B27" s="126"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="117"/>
+      <c r="A27" s="103"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="107"/>
       <c r="G27" s="58" t="s">
         <v>583</v>
       </c>
-      <c r="H27" s="120"/>
+      <c r="H27" s="110"/>
       <c r="I27" s="44" t="s">
         <v>483</v>
       </c>
@@ -16051,15 +16027,15 @@
         <v>479</v>
       </c>
       <c r="K27" s="43"/>
-      <c r="L27" s="113"/>
-      <c r="M27" s="122"/>
+      <c r="L27" s="115"/>
+      <c r="M27" s="101"/>
       <c r="N27" s="47"/>
     </row>
     <row r="28" spans="1:14" s="18" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A28" s="105"/>
-      <c r="B28" s="126"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="109"/>
+      <c r="A28" s="103"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="118"/>
       <c r="E28" s="41" t="s">
         <v>477</v>
       </c>
@@ -16078,15 +16054,15 @@
       <c r="K28" s="43" t="s">
         <v>556</v>
       </c>
-      <c r="L28" s="113"/>
-      <c r="M28" s="122"/>
+      <c r="L28" s="115"/>
+      <c r="M28" s="101"/>
       <c r="N28" s="47"/>
     </row>
-    <row r="29" spans="1:14" s="18" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A29" s="106"/>
-      <c r="B29" s="127"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="111"/>
+    <row r="29" spans="1:14" s="18" customFormat="1" ht="18.899999999999999" customHeight="1">
+      <c r="A29" s="104"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="119"/>
       <c r="E29" s="41" t="s">
         <v>480</v>
       </c>
@@ -16108,8 +16084,8 @@
       <c r="K29" s="43" t="s">
         <v>559</v>
       </c>
-      <c r="L29" s="114"/>
-      <c r="M29" s="122"/>
+      <c r="L29" s="116"/>
+      <c r="M29" s="101"/>
       <c r="N29" s="47"/>
     </row>
     <row r="30" spans="1:14" s="18" customFormat="1" ht="8.1" customHeight="1">
@@ -16128,26 +16104,26 @@
       <c r="M30" s="69"/>
     </row>
     <row r="31" spans="1:14" s="18" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A31" s="104" t="s">
+      <c r="A31" s="102" t="s">
         <v>485</v>
       </c>
-      <c r="B31" s="104" t="s">
+      <c r="B31" s="102" t="s">
         <v>486</v>
       </c>
-      <c r="C31" s="104" t="s">
+      <c r="C31" s="102" t="s">
         <v>487</v>
       </c>
-      <c r="D31" s="108" t="s">
+      <c r="D31" s="117" t="s">
         <v>560</v>
       </c>
-      <c r="E31" s="104" t="s">
+      <c r="E31" s="102" t="s">
         <v>488</v>
       </c>
-      <c r="F31" s="115" t="s">
+      <c r="F31" s="105" t="s">
         <v>561</v>
       </c>
       <c r="G31" s="78"/>
-      <c r="H31" s="118" t="s">
+      <c r="H31" s="108" t="s">
         <v>562</v>
       </c>
       <c r="I31" s="76" t="s">
@@ -16159,22 +16135,22 @@
       <c r="K31" s="43" t="s">
         <v>564</v>
       </c>
-      <c r="L31" s="122" t="s">
+      <c r="L31" s="101" t="s">
         <v>490</v>
       </c>
-      <c r="M31" s="122" t="s">
+      <c r="M31" s="101" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="32" spans="1:14" s="18" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A32" s="105"/>
-      <c r="B32" s="105"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="109"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="116"/>
+      <c r="A32" s="103"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="106"/>
       <c r="G32" s="79"/>
-      <c r="H32" s="119"/>
+      <c r="H32" s="109"/>
       <c r="I32" s="51" t="s">
         <v>565</v>
       </c>
@@ -16182,79 +16158,79 @@
       <c r="K32" s="43" t="s">
         <v>566</v>
       </c>
-      <c r="L32" s="122"/>
-      <c r="M32" s="122"/>
+      <c r="L32" s="101"/>
+      <c r="M32" s="101"/>
     </row>
     <row r="33" spans="1:13" s="18" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A33" s="105"/>
-      <c r="B33" s="105"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="106"/>
-      <c r="F33" s="117"/>
+      <c r="A33" s="103"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="107"/>
       <c r="G33" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="H33" s="120"/>
+      <c r="H33" s="110"/>
       <c r="I33" s="51" t="s">
         <v>500</v>
       </c>
       <c r="J33" s="44"/>
       <c r="K33" s="43"/>
-      <c r="L33" s="122"/>
-      <c r="M33" s="122"/>
+      <c r="L33" s="101"/>
+      <c r="M33" s="101"/>
     </row>
     <row r="34" spans="1:13" s="18" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A34" s="105"/>
-      <c r="B34" s="105"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="104" t="s">
+      <c r="A34" s="103"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="118"/>
+      <c r="E34" s="102" t="s">
         <v>492</v>
       </c>
-      <c r="F34" s="115" t="s">
+      <c r="F34" s="105" t="s">
         <v>567</v>
       </c>
       <c r="G34" s="78"/>
-      <c r="H34" s="118" t="s">
+      <c r="H34" s="108" t="s">
         <v>568</v>
       </c>
       <c r="I34" s="44" t="s">
         <v>569</v>
       </c>
       <c r="J34" s="44"/>
-      <c r="K34" s="128"/>
-      <c r="L34" s="122"/>
-      <c r="M34" s="122"/>
+      <c r="K34" s="111"/>
+      <c r="L34" s="101"/>
+      <c r="M34" s="101"/>
     </row>
     <row r="35" spans="1:13" s="18" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A35" s="105"/>
-      <c r="B35" s="105"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="109"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="116"/>
+      <c r="A35" s="103"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="106"/>
       <c r="G35" s="79"/>
-      <c r="H35" s="119"/>
+      <c r="H35" s="109"/>
       <c r="I35" s="44" t="s">
         <v>496</v>
       </c>
       <c r="J35" s="44"/>
-      <c r="K35" s="128"/>
-      <c r="L35" s="122"/>
-      <c r="M35" s="122"/>
+      <c r="K35" s="111"/>
+      <c r="L35" s="101"/>
+      <c r="M35" s="101"/>
     </row>
     <row r="36" spans="1:13" s="18" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A36" s="105"/>
-      <c r="B36" s="105"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="109"/>
-      <c r="E36" s="106"/>
-      <c r="F36" s="117"/>
+      <c r="A36" s="103"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="118"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="107"/>
       <c r="G36" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="H36" s="120"/>
+      <c r="H36" s="110"/>
       <c r="I36" s="44" t="s">
         <v>570</v>
       </c>
@@ -16264,68 +16240,68 @@
       <c r="K36" s="43" t="s">
         <v>494</v>
       </c>
-      <c r="L36" s="122"/>
-      <c r="M36" s="122"/>
+      <c r="L36" s="101"/>
+      <c r="M36" s="101"/>
     </row>
     <row r="37" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="A37" s="105"/>
-      <c r="B37" s="105"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="109"/>
-      <c r="E37" s="104" t="s">
+      <c r="A37" s="103"/>
+      <c r="B37" s="103"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="102" t="s">
         <v>495</v>
       </c>
-      <c r="F37" s="115" t="s">
+      <c r="F37" s="105" t="s">
         <v>571</v>
       </c>
       <c r="G37" s="78"/>
-      <c r="H37" s="129" t="s">
+      <c r="H37" s="112" t="s">
         <v>572</v>
       </c>
       <c r="I37" s="44" t="s">
         <v>573</v>
       </c>
-      <c r="J37" s="130" t="s">
+      <c r="J37" s="113" t="s">
         <v>497</v>
       </c>
-      <c r="K37" s="129" t="s">
+      <c r="K37" s="112" t="s">
         <v>499</v>
       </c>
-      <c r="L37" s="122"/>
-      <c r="M37" s="122"/>
+      <c r="L37" s="101"/>
+      <c r="M37" s="101"/>
     </row>
     <row r="38" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="A38" s="105"/>
-      <c r="B38" s="105"/>
-      <c r="C38" s="105"/>
-      <c r="D38" s="109"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="116"/>
+      <c r="A38" s="103"/>
+      <c r="B38" s="103"/>
+      <c r="C38" s="103"/>
+      <c r="D38" s="118"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="106"/>
       <c r="G38" s="79" t="s">
         <v>582</v>
       </c>
-      <c r="H38" s="129"/>
+      <c r="H38" s="112"/>
       <c r="I38" s="63" t="s">
         <v>574</v>
       </c>
-      <c r="J38" s="130"/>
-      <c r="K38" s="129"/>
-      <c r="L38" s="122"/>
-      <c r="M38" s="122"/>
+      <c r="J38" s="113"/>
+      <c r="K38" s="112"/>
+      <c r="L38" s="101"/>
+      <c r="M38" s="101"/>
     </row>
     <row r="39" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="A39" s="105"/>
-      <c r="B39" s="105"/>
-      <c r="C39" s="105"/>
-      <c r="D39" s="109"/>
-      <c r="E39" s="105" t="s">
+      <c r="A39" s="103"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="103"/>
+      <c r="D39" s="118"/>
+      <c r="E39" s="103" t="s">
         <v>498</v>
       </c>
-      <c r="F39" s="116" t="s">
+      <c r="F39" s="106" t="s">
         <v>575</v>
       </c>
       <c r="G39" s="79"/>
-      <c r="H39" s="129" t="s">
+      <c r="H39" s="112" t="s">
         <v>576</v>
       </c>
       <c r="I39" s="63" t="s">
@@ -16335,18 +16311,18 @@
       <c r="K39" s="51" t="s">
         <v>578</v>
       </c>
-      <c r="L39" s="122"/>
-      <c r="M39" s="122"/>
+      <c r="L39" s="101"/>
+      <c r="M39" s="101"/>
     </row>
     <row r="40" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="A40" s="105"/>
-      <c r="B40" s="105"/>
-      <c r="C40" s="105"/>
-      <c r="D40" s="109"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="116"/>
+      <c r="A40" s="103"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="118"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="106"/>
       <c r="G40" s="79"/>
-      <c r="H40" s="129"/>
+      <c r="H40" s="112"/>
       <c r="I40" s="63" t="s">
         <v>579</v>
       </c>
@@ -16354,27 +16330,27 @@
       <c r="K40" s="51" t="s">
         <v>580</v>
       </c>
-      <c r="L40" s="122"/>
-      <c r="M40" s="122"/>
+      <c r="L40" s="101"/>
+      <c r="M40" s="101"/>
     </row>
     <row r="41" spans="1:13" s="18" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A41" s="106"/>
-      <c r="B41" s="106"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="106"/>
-      <c r="F41" s="117"/>
+      <c r="A41" s="104"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="119"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="107"/>
       <c r="G41" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="H41" s="129"/>
+      <c r="H41" s="112"/>
       <c r="I41" s="63" t="s">
         <v>581</v>
       </c>
       <c r="J41" s="46"/>
       <c r="K41" s="43"/>
-      <c r="L41" s="122"/>
-      <c r="M41" s="122"/>
+      <c r="L41" s="101"/>
+      <c r="M41" s="101"/>
     </row>
     <row r="42" spans="1:13">
       <c r="K42" s="77"/>
@@ -16382,6 +16358,42 @@
     <row r="43" spans="1:13" ht="23.1" customHeight="1"/>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="A6:A22"/>
+    <mergeCell ref="B6:B22"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="C13:C22"/>
+    <mergeCell ref="D13:D22"/>
+    <mergeCell ref="L6:L22"/>
+    <mergeCell ref="M6:M22"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E16:E22"/>
+    <mergeCell ref="F16:F22"/>
+    <mergeCell ref="H16:H22"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="D24:D29"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A31:A41"/>
+    <mergeCell ref="B31:B41"/>
+    <mergeCell ref="C31:C41"/>
+    <mergeCell ref="D31:D41"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="L24:L29"/>
+    <mergeCell ref="M24:M29"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="H24:H25"/>
     <mergeCell ref="L31:L41"/>
     <mergeCell ref="M31:M41"/>
     <mergeCell ref="E34:E36"/>
@@ -16398,42 +16410,6 @@
     <mergeCell ref="H39:H41"/>
     <mergeCell ref="F31:F33"/>
     <mergeCell ref="H31:H33"/>
-    <mergeCell ref="L24:L29"/>
-    <mergeCell ref="M24:M29"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="A31:A41"/>
-    <mergeCell ref="B31:B41"/>
-    <mergeCell ref="C31:C41"/>
-    <mergeCell ref="D31:D41"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="D24:D29"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="L6:L22"/>
-    <mergeCell ref="M6:M22"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E16:E22"/>
-    <mergeCell ref="F16:F22"/>
-    <mergeCell ref="H16:H22"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="A6:A22"/>
-    <mergeCell ref="B6:B22"/>
-    <mergeCell ref="C6:C12"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="C13:C22"/>
-    <mergeCell ref="D13:D22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1"/>
